--- a/資料/設計書/モグラ叩き_テスト仕様書.xlsx
+++ b/資料/設計書/モグラ叩き_テスト仕様書.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\comp.train.whack-a-mole\資料\設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\PICもぐら叩きゲーム\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE662B6-8553-49E0-805B-6B4594B05098}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B2DCB8-5FF7-4097-AA2E-EFD3158B4282}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="360" windowWidth="17270" windowHeight="8800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="システムテスト" sheetId="4" r:id="rId1"/>
+    <sheet name="システムテスト" sheetId="4" state="hidden" r:id="rId1"/>
     <sheet name="機能テスト" sheetId="2" r:id="rId2"/>
     <sheet name="単体テスト" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
@@ -35,10 +35,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="316">
   <si>
     <t>マイコン：pic16f1827</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>基板：キットで遊ぼう電子回路実験用基板</t>
@@ -60,22 +60,22 @@
     <rPh sb="17" eb="19">
       <t>キバン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>LCD：AQM0802</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>No.</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
       <t>キノウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>機能概要</t>
@@ -85,14 +85,14 @@
     <rPh sb="2" eb="4">
       <t>ガイヨウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>手順</t>
     <rPh sb="0" eb="2">
       <t>テジュン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>期待値</t>
@@ -102,14 +102,14 @@
     <rPh sb="2" eb="3">
       <t>チ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>実施日</t>
     <rPh sb="0" eb="3">
       <t>ジッシビ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>テスト結果値(1回目)</t>
@@ -122,21 +122,21 @@
     <rPh sb="8" eb="10">
       <t>カイメ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>テスト結果</t>
     <rPh sb="3" eb="5">
       <t>ケッカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>テスト結果値(2回目)</t>
@@ -149,15 +149,15 @@
     <rPh sb="8" eb="10">
       <t>カイメ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>キッチンタイマリセット</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>キッチンタイマをリセットする</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．電源を投入する(以降の手順では電源の投入を省略する)</t>
@@ -182,7 +182,7 @@
     <rPh sb="23" eb="25">
       <t>ショウリャク</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"＋01"となる</t>
@@ -192,7 +192,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"＋01"</t>
@@ -202,11 +202,11 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．SW1(分スイッチ)を押下して、カウントを”01:00”にする
@@ -226,7 +226,7 @@
     <rPh sb="54" eb="56">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.6の手順を行い、カウントダウン状態(CNT_DOWN)に移行する
@@ -249,7 +249,7 @@
     <rPh sb="67" eb="69">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.9の手順を行い、カウントダウン停止状態(CNT_STOP)に移行する
@@ -275,7 +275,7 @@
     <rPh sb="53" eb="55">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.13の手順を行い、アラーム鳴動状(ALARM)態へ移行する
@@ -304,7 +304,7 @@
     <rPh sb="59" eb="61">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>カウントダウン状態移行</t>
@@ -314,7 +314,7 @@
     <rPh sb="9" eb="11">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>カウントダウン状態(CNT_DOWN)に移行する</t>
@@ -324,7 +324,7 @@
     <rPh sb="20" eb="22">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．SW1(分スイッチ)を押下して、カウントを”01:00”にする
@@ -338,7 +338,7 @@
     <rPh sb="55" eb="57">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"CNT_DOWN"になり、カウント”01:00”からカウントダウンが開始される</t>
@@ -348,7 +348,7 @@
     <rPh sb="37" eb="39">
       <t>カイシ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"CNT_DOWN"、
@@ -359,7 +359,7 @@
     <rPh sb="34" eb="36">
       <t>カイシ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．状態”SET”、カウント”00:00”のままSW3を押下する</t>
@@ -369,7 +369,7 @@
     <rPh sb="28" eb="30">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>カウントダウン状態に移行しない。
@@ -386,7 +386,7 @@
     <rPh sb="41" eb="43">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態”SET”、カウント”00:00”、カウント単位”+01”</t>
@@ -396,7 +396,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.9の手順を行い、カウントダウン停止状態に移行する
@@ -419,7 +419,7 @@
     <rPh sb="36" eb="38">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"CNT_DOWN"になり、カウント”00:30”からカウントダウンが再開される</t>
@@ -429,7 +429,7 @@
     <rPh sb="37" eb="39">
       <t>サイカイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"CNT_DOWN"、
@@ -440,7 +440,7 @@
     <rPh sb="34" eb="36">
       <t>サイカイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>カウントダウン停止状態移行</t>
@@ -453,7 +453,7 @@
     <rPh sb="11" eb="13">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>カウントダウン停止状態(CNT_STOP)に移行する</t>
@@ -466,7 +466,7 @@
     <rPh sb="22" eb="24">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.6の手順を行い、カウントダウン状態に移行する
@@ -486,7 +486,7 @@
     <rPh sb="50" eb="52">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"CNT_STOP"になり、カウント”00:30”でカウントダウンが停止される</t>
@@ -496,7 +496,7 @@
     <rPh sb="36" eb="38">
       <t>テイシ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"CNT_STOP"、
@@ -507,7 +507,7 @@
     <rPh sb="33" eb="35">
       <t>テイシ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>カウント設定状態移行</t>
@@ -520,7 +520,7 @@
     <rPh sb="8" eb="10">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>カウント設定状態(SET)に移行する</t>
@@ -533,7 +533,7 @@
     <rPh sb="14" eb="16">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.6の手順を行い、カウントダウン状態に移行する
@@ -559,7 +559,7 @@
     <rPh sb="61" eb="63">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"SET"、カウント”00:30”、カウント単位"＋01"になる</t>
@@ -569,7 +569,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"SET"、カウント”00:30”、カウント単位"＋01"</t>
@@ -579,7 +579,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.6の手順を行い、カウントダウン状態に移行する
@@ -590,7 +590,7 @@
     <rPh sb="41" eb="43">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.6の手順を行い、カウントダウン状態に移行する
@@ -601,7 +601,7 @@
     <rPh sb="41" eb="43">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>アラーム鳴動状態移行</t>
@@ -614,7 +614,7 @@
     <rPh sb="8" eb="10">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>アラーム鳴動状態(ALARM)に移行する</t>
@@ -624,7 +624,7 @@
     <rPh sb="16" eb="18">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.6の手順を行い、カウントダウン状態に移行する
@@ -632,21 +632,21 @@
     <rPh sb="47" eb="48">
       <t>マ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"ALARM"、カウント”00:00(00:30)”になる</t>
     <rPh sb="0" eb="2">
       <t>ジョウタイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"ALARM"、カウント”00:00(00:30)”</t>
     <rPh sb="0" eb="2">
       <t>ジョウタイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>カウント単位(1/10)切替</t>
@@ -656,7 +656,7 @@
     <rPh sb="12" eb="14">
       <t>キリカエ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>カウント単位(01/10)が切り替わる</t>
@@ -669,7 +669,7 @@
     <rPh sb="16" eb="17">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．SW4(カウント単位切替スイッチ)を押下する</t>
@@ -682,7 +682,7 @@
     <rPh sb="20" eb="22">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"＋10"となる</t>
@@ -692,7 +692,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"＋10"</t>
@@ -702,7 +702,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.14の手順を行い、カウント単位を"+10"にする
@@ -719,7 +719,7 @@
     <rPh sb="36" eb="38">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．SW1とSW4を同時に押下し、カウント単位を”-01”にする
@@ -736,7 +736,7 @@
     <rPh sb="39" eb="41">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"-10”となる</t>
@@ -746,7 +746,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"-10”</t>
@@ -756,7 +756,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.16の手順を行い、カウント単位を”-10”にする
@@ -773,7 +773,7 @@
     <rPh sb="36" eb="38">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"-01”となる</t>
@@ -783,7 +783,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"-01”</t>
@@ -793,7 +793,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>カウント単位(＋/－)切替</t>
@@ -803,7 +803,7 @@
     <rPh sb="11" eb="13">
       <t>キリカエ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>カウント単位(＋/－)が切り替わる</t>
@@ -816,7 +816,7 @@
     <rPh sb="14" eb="15">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．SW1とSW4を同時に押下する</t>
@@ -826,7 +826,7 @@
     <rPh sb="13" eb="15">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"-01"となる</t>
@@ -836,7 +836,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"-01"</t>
@@ -846,11 +846,11 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>✖</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>押下されたSWの数だけ(2回)実行され、カウント単位が元に戻る。</t>
@@ -875,7 +875,7 @@
     <rPh sb="29" eb="30">
       <t>モド</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．SW4を押下し、カウント単位を”+10”にする
@@ -892,7 +892,7 @@
     <rPh sb="39" eb="41">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"-10"となる</t>
@@ -902,7 +902,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"-10"</t>
@@ -912,14 +912,14 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>No.17と同様</t>
     <rPh sb="6" eb="8">
       <t>ドウヨウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.18の手順を行い、カウント単位を”-01”にする
@@ -939,7 +939,7 @@
     <rPh sb="44" eb="46">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"+01”となる</t>
@@ -949,7 +949,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"+01”</t>
@@ -959,7 +959,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.19の手順を行い、カウント単位を”-10”にする
@@ -979,7 +979,7 @@
     <rPh sb="44" eb="46">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"+10”となる</t>
@@ -989,7 +989,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"+10”</t>
@@ -999,7 +999,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>分設定</t>
@@ -1009,7 +1009,7 @@
     <rPh sb="1" eb="3">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>カウントの分単位が、カウント単位に応じて変化する</t>
@@ -1028,7 +1028,7 @@
     <rPh sb="20" eb="22">
       <t>ヘンカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．SW1を1回押下する</t>
@@ -1038,7 +1038,7 @@
     <rPh sb="8" eb="10">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"SET"、カウント"01：00"、カウント単位"+01"となる</t>
@@ -1048,7 +1048,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"SET"、カウント"01：00"、カウント単位"+01"</t>
@@ -1058,7 +1058,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.22の手順を繰り返して、カウントを”09:00”にする
@@ -1078,7 +1078,7 @@
     <rPh sb="41" eb="43">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>分の1桁目が桁上りし、
@@ -1098,7 +1098,7 @@
     <rPh sb="7" eb="8">
       <t>アガ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>分の1桁目が桁上り、
@@ -1118,7 +1118,7 @@
     <rPh sb="7" eb="8">
       <t>アガ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.18の手順を行い、カウント単位を"-01"にする
@@ -1155,7 +1155,7 @@
     <rPh sb="96" eb="98">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>分の1桁目と2桁目が桁上りし、
@@ -1181,7 +1181,7 @@
     <rPh sb="11" eb="12">
       <t>アガ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>分の1桁目と2桁目が桁上り、
@@ -1207,7 +1207,7 @@
     <rPh sb="11" eb="12">
       <t>アガ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.18の手順を行い、カウント単位を"-01"にする
@@ -1244,7 +1244,7 @@
     <rPh sb="96" eb="98">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>分の1桁目と2桁目が桁上りし、
@@ -1270,7 +1270,7 @@
     <rPh sb="11" eb="12">
       <t>アガ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>分の1桁目と2桁目が桁上り、
@@ -1296,7 +1296,7 @@
     <rPh sb="11" eb="12">
       <t>アガ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．カウントを”00:00”、カウント単位を"+10"にする
@@ -1310,7 +1310,7 @@
     <rPh sb="39" eb="41">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"SET"、カウント"10：00"、カウント単位"+10"となる</t>
@@ -1320,7 +1320,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"SET"、カウント"10：00"、カウント単位"+10"</t>
@@ -1330,7 +1330,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．カウントを”99:00”、カウント単位を”+10”にする
@@ -1341,7 +1341,7 @@
     <rPh sb="38" eb="41">
       <t>カイオウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>分の2桁目が桁上りし、
@@ -1361,7 +1361,7 @@
     <rPh sb="7" eb="8">
       <t>アガ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>分の2桁目が桁上り、
@@ -1381,7 +1381,7 @@
     <rPh sb="7" eb="8">
       <t>アガ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．カウントを”99:59”、カウント単位を”+10”にする
@@ -1392,7 +1392,7 @@
     <rPh sb="38" eb="41">
       <t>カイオウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>分の2桁目が桁上りし、
@@ -1412,7 +1412,7 @@
     <rPh sb="7" eb="8">
       <t>アガ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>分の2桁目が桁上り、
@@ -1432,12 +1432,12 @@
     <rPh sb="7" eb="8">
       <t>アガ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．カウントを”00:00”、カウント単位を"-01"にする
 2．SW1を1回押下する</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>分の1桁目が桁下がりし、
@@ -1457,7 +1457,7 @@
     <rPh sb="7" eb="8">
       <t>サ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>分の1桁目が桁下がり、
@@ -1477,7 +1477,7 @@
     <rPh sb="7" eb="8">
       <t>サ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．カウントを”10:00”、カウント単位を”-01”にする
@@ -1488,7 +1488,7 @@
     <rPh sb="38" eb="41">
       <t>カイオウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>分の2桁目が桁下がりし、
@@ -1508,7 +1508,7 @@
     <rPh sb="7" eb="8">
       <t>サ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>分の2桁目が桁下がり、
@@ -1528,7 +1528,7 @@
     <rPh sb="7" eb="8">
       <t>サ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．カウントを”99:59”、カウント単位を”-01”にする
@@ -1539,7 +1539,7 @@
     <rPh sb="38" eb="41">
       <t>カイオウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"SET"、カウント"98：59"、カウント単位"-01"となる</t>
@@ -1549,7 +1549,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"SET"、カウント"98：59"、カウント単位"-01"</t>
@@ -1559,7 +1559,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．カウントを”00:00”、カウント単位を”-10”にする
@@ -1570,7 +1570,7 @@
     <rPh sb="38" eb="41">
       <t>カイオウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>分の2桁目が桁下がりし、
@@ -1590,7 +1590,7 @@
     <rPh sb="7" eb="8">
       <t>サ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>分の2桁目が桁下がり、
@@ -1610,7 +1610,7 @@
     <rPh sb="7" eb="8">
       <t>サ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．カウントを”09:00”、カウント単位を”-10”にする
@@ -1624,7 +1624,7 @@
     <rPh sb="39" eb="41">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>分の2桁目が桁下がりし、
@@ -1644,7 +1644,7 @@
     <rPh sb="7" eb="8">
       <t>サ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>分の2桁目が桁下がり、
@@ -1664,7 +1664,7 @@
     <rPh sb="7" eb="8">
       <t>サ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．カウントを”99:00”、カウント単位を”-10”にする
@@ -1678,15 +1678,15 @@
     <rPh sb="39" eb="41">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"SET"、カウント"89：00"、カウント単位"-10"となる</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"SET"、カウント"89：00"、カウント単位"-10"</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．カウントを”99:59”、カウント単位を"-10"にする
@@ -1697,15 +1697,15 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"SET"、カウント"89：59"、カウント単位"-10"となる</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"SET"、カウント"89：59"、カウント単位"-10"</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>秒設定</t>
@@ -1715,7 +1715,7 @@
     <rPh sb="1" eb="3">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>カウントの秒単位が、カウント単位に応じて変化する</t>
@@ -1734,7 +1734,7 @@
     <rPh sb="20" eb="22">
       <t>ヘンカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．カウントを”00:00”、カウント単位を"+01"にする
@@ -1742,7 +1742,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：01"、カウント単位"+01"となる</t>
@@ -1752,7 +1752,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：01"、カウント単位"+01"</t>
@@ -1762,7 +1762,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．カウントを”00:59”、カウント単位を"+01"にする
@@ -1770,7 +1770,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>秒の1桁目と2桁目が桁上りし、
@@ -1802,7 +1802,7 @@
     <rPh sb="40" eb="42">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>秒の1桁目と2桁目が桁上り、
@@ -1834,7 +1834,7 @@
     <rPh sb="39" eb="41">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．カウントを”09:59”、カウント単位を"+01"にする
@@ -1842,7 +1842,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>秒の1桁目と2桁目、分の1桁目が桁上りし、
@@ -1883,7 +1883,7 @@
     <rPh sb="46" eb="48">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>秒の1桁目と2桁目、分の1桁目が桁上り、
@@ -1924,7 +1924,7 @@
     <rPh sb="45" eb="47">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．カウントを”99:59”、カウント単位を"+01"にする
@@ -1932,7 +1932,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>秒の1桁目と2桁目、分の1桁目と2桁目が桁上りし、
@@ -1979,7 +1979,7 @@
     <rPh sb="50" eb="52">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>秒の1桁目と2桁目、分の1桁目と2桁目が桁上り、
@@ -2026,7 +2026,7 @@
     <rPh sb="49" eb="51">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．カウントを”00:00”、カウント単位を"+10"にする
@@ -2034,15 +2034,15 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：10"、カウント単位"+10"となる</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：10"、カウント単位"+10"</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．カウントを”00:50”、カウント単位を"+10"にする
@@ -2050,7 +2050,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>秒の2桁目が桁上りし、
@@ -2076,7 +2076,7 @@
     <rPh sb="36" eb="38">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>秒の2桁目が桁上り、
@@ -2102,7 +2102,7 @@
     <rPh sb="35" eb="37">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．カウントを”09:59”、カウント単位を"+10"にする
@@ -2110,7 +2110,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>秒の2桁目、分の1桁目が桁上りし、
@@ -2145,7 +2145,7 @@
     <rPh sb="42" eb="44">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>秒の2桁目、分の1桁目が桁上り、
@@ -2180,7 +2180,7 @@
     <rPh sb="41" eb="43">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．カウントを”99:59”、カウント単位を"+10"にする
@@ -2188,7 +2188,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>秒の2桁目、分の1桁目と2桁目が桁上りし、
@@ -2229,7 +2229,7 @@
     <rPh sb="46" eb="48">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>秒の2桁目、分の1桁目と2桁目が桁上り、
@@ -2270,7 +2270,7 @@
     <rPh sb="45" eb="47">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．カウントを”00:00”、カウント単位を"-01"にする
@@ -2278,7 +2278,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>秒の1桁目と2桁目、分の1桁目と2桁目が桁下がりし、
@@ -2325,7 +2325,7 @@
     <rPh sb="51" eb="53">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>秒の1桁目と2桁目、分の1桁目と2桁目が桁下がり、
@@ -2372,7 +2372,7 @@
     <rPh sb="50" eb="52">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．カウントを”01:00”、カウント単位を"-01"にする
@@ -2380,7 +2380,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>秒の1桁目と2桁目が桁下がりし、
@@ -2412,7 +2412,7 @@
     <rPh sb="41" eb="43">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>秒の1桁目と2桁目が桁下がり、
@@ -2444,7 +2444,7 @@
     <rPh sb="40" eb="42">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．カウントを”10:00”、カウント単位を"-01"にする
@@ -2452,7 +2452,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>秒の1桁目と2桁目、分の1桁目が桁下がりし、
@@ -2493,7 +2493,7 @@
     <rPh sb="47" eb="49">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>秒の1桁目と2桁目、分の1桁目が桁下がり、
@@ -2534,7 +2534,7 @@
     <rPh sb="46" eb="48">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．カウントを”99:59”、カウント単位を"-01"にする
@@ -2542,7 +2542,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"SET"、カウント"99：58"、カウント単位"-01"となる</t>
@@ -2552,7 +2552,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"SET"、カウント"99：58"、カウント単位"-01"</t>
@@ -2562,7 +2562,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．カウントを”00:00”、カウント単位を"-10"にする
@@ -2570,7 +2570,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>秒の2桁目、分の1桁目と2桁目が桁下がりし、
@@ -2611,7 +2611,7 @@
     <rPh sb="47" eb="49">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>秒の2桁目、分の1桁目と2桁目が桁下がり、
@@ -2652,7 +2652,7 @@
     <rPh sb="46" eb="48">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．カウントを”01:00”、カウント単位を"-10"にする
@@ -2660,7 +2660,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>秒の2桁目が桁下がりし、
@@ -2686,7 +2686,7 @@
     <rPh sb="37" eb="39">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>秒の2桁目が桁下がり、
@@ -2712,7 +2712,7 @@
     <rPh sb="36" eb="38">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．カウントを”10:00”、カウント単位を"-10"にする
@@ -2720,7 +2720,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>秒の2桁目、分の1桁目が桁下がりし、
@@ -2755,7 +2755,7 @@
     <rPh sb="43" eb="45">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>秒の2桁目、分の1桁目が桁下がり、
@@ -2790,7 +2790,7 @@
     <rPh sb="42" eb="44">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．カウントを”99:59”、カウント単位を"-10"にする
@@ -2798,7 +2798,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"SET"、カウント"99：49"、カウント単位"-10"となる</t>
@@ -2808,7 +2808,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態"SET"、カウント"99：49"、カウント単位"-10"</t>
@@ -2818,11 +2818,11 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>カウントダウン</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1秒に1ずつカウントが減少する</t>
@@ -2832,7 +2832,7 @@
     <rPh sb="11" eb="13">
       <t>ゲンショウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.6の手順を行い、カウントダウン状態に移行する</t>
@@ -2848,7 +2848,7 @@
     <rPh sb="23" eb="25">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>カウントダウンが開始され、誤差±0.5%以内でカウントダウンされる</t>
@@ -2861,14 +2861,14 @@
     <rPh sb="20" eb="22">
       <t>イナイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>誤差0.22%＊</t>
     <rPh sb="0" eb="2">
       <t>ゴサ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>SW入力の変更による影響がないため、実施しない</t>
@@ -2884,7 +2884,7 @@
     <rPh sb="18" eb="20">
       <t>ジッシ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No52の手順を行い、カウントダウンを開始する。
@@ -2910,7 +2910,7 @@
     <rPh sb="62" eb="63">
       <t>カエ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>誤差±0.5%以内でカウントダウンされる</t>
@@ -2920,35 +2920,35 @@
     <rPh sb="7" eb="9">
       <t>イナイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>誤差0.22%</t>
     <rPh sb="0" eb="2">
       <t>ゴサ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>誤差0.26%</t>
     <rPh sb="0" eb="2">
       <t>ゴサ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>カウントダウン停止</t>
     <rPh sb="7" eb="9">
       <t>テイシ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>カウントダウンを停止する</t>
     <rPh sb="8" eb="10">
       <t>テイシ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.9の手順を行い、カウント停止状態に移行する</t>
@@ -2967,7 +2967,7 @@
     <rPh sb="22" eb="24">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>カウントダウンが停止され、
@@ -2975,7 +2975,7 @@
     <rPh sb="8" eb="10">
       <t>テイシ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>カウントダウンが停止、
@@ -2983,7 +2983,7 @@
     <rPh sb="8" eb="10">
       <t>テイシ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>カウントダウン停止、
@@ -2991,7 +2991,7 @@
     <rPh sb="7" eb="9">
       <t>テイシ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.4の手順を行い、キッチンタイマリセットをする</t>
@@ -3001,7 +3001,7 @@
     <rPh sb="10" eb="11">
       <t>オコナ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>カウントダウンが停止され、
@@ -3009,7 +3009,7 @@
     <rPh sb="8" eb="10">
       <t>テイシ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>カウントダウンが停止、
@@ -3017,7 +3017,7 @@
     <rPh sb="8" eb="10">
       <t>テイシ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>カウントダウン停止、
@@ -3025,14 +3025,14 @@
     <rPh sb="7" eb="9">
       <t>テイシ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>アラーム鳴動</t>
     <rPh sb="4" eb="6">
       <t>メイドウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>アラーム音が鳴る。</t>
@@ -3042,7 +3042,7 @@
     <rPh sb="6" eb="7">
       <t>ナ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.13の動作を行い、アラーム鳴動状態に移行する</t>
@@ -3061,7 +3061,7 @@
     <rPh sb="23" eb="25">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態”ALARM”、カウントが”00:30”*¹になり、
@@ -3078,7 +3078,7 @@
     <rPh sb="46" eb="48">
       <t>カイシ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態”ALARM”、カウントが”00:30”、
@@ -3095,14 +3095,14 @@
     <rPh sb="40" eb="42">
       <t>カイシ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>アラーム停止</t>
     <rPh sb="4" eb="6">
       <t>テイシ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>アラーム音が止まる</t>
@@ -3112,7 +3112,7 @@
     <rPh sb="6" eb="7">
       <t>ト</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.13の動作を行い、アラーム鳴動状態に移行する
@@ -3135,7 +3135,7 @@
     <rPh sb="47" eb="48">
       <t>マ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>アラーム鳴動が停止され、
@@ -3152,7 +3152,7 @@
     <rPh sb="37" eb="39">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>アラーム鳴動停止、
@@ -3169,7 +3169,7 @@
     <rPh sb="34" eb="36">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.11の動作を行い、アラーム鳴動状態に移行する
@@ -3195,7 +3195,7 @@
     <rPh sb="36" eb="38">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>状態表示</t>
@@ -3205,11 +3205,11 @@
     <rPh sb="2" eb="4">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>LCDに状態が表示される。</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.1～No.13までの動作を行う</t>
@@ -3219,7 +3219,7 @@
     <rPh sb="18" eb="19">
       <t>オコナ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>LCD上段左側5~8マスに、状態の文字列が表示される</t>
@@ -3238,7 +3238,7 @@
     <rPh sb="21" eb="23">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>LCD上段左側5~8マスに状態の文字列表示</t>
@@ -3257,21 +3257,21 @@
     <rPh sb="19" eb="21">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>カウント表示</t>
     <rPh sb="4" eb="6">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>LCDにカウントが表示される。</t>
     <rPh sb="9" eb="11">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>2．No.22～No.51、No.52、No.53の動作を行う</t>
@@ -3281,7 +3281,7 @@
     <rPh sb="29" eb="30">
       <t>オコナ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>LCD下段右側5マスに、カウントの文字列が表示される</t>
@@ -3300,7 +3300,7 @@
     <rPh sb="21" eb="23">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>LCD下段右側5マスにカウントの文字列表示</t>
@@ -3319,7 +3319,7 @@
     <rPh sb="19" eb="21">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>切替設定表示</t>
@@ -3332,7 +3332,7 @@
     <rPh sb="4" eb="6">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>LCDにカウント切替設定が表示される。</t>
@@ -3345,7 +3345,7 @@
     <rPh sb="13" eb="15">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>3．No.13～No.21の動作を行う</t>
@@ -3355,7 +3355,7 @@
     <rPh sb="17" eb="18">
       <t>オコナ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>LCD上段右側3マスに、カウント単位の文字列が表示される</t>
@@ -3374,7 +3374,7 @@
     <rPh sb="23" eb="25">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>LCD上段右側3マスにカウント単位の文字列表示</t>
@@ -3393,14 +3393,14 @@
     <rPh sb="21" eb="23">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>＊カウントダウンの精度について　時間計測テストシート参照</t>
     <rPh sb="9" eb="11">
       <t>セイド</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>テスト項目数</t>
@@ -3410,7 +3410,7 @@
     <rPh sb="5" eb="6">
       <t>スウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>故障率</t>
@@ -3420,7 +3420,7 @@
     <rPh sb="2" eb="3">
       <t>リツ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>モグラ叩き機能テスト</t>
@@ -3430,18 +3430,18 @@
     <rPh sb="5" eb="7">
       <t>キノウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>関数</t>
     <rPh sb="0" eb="2">
       <t>カンスウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>void OutOfHole(void)</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>モグラの状態を「出現中」に変更する。</t>
@@ -3457,7 +3457,7 @@
     <rPh sb="13" eb="15">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>モグラの出現時間をランダムに決定する。</t>
@@ -3470,7 +3470,7 @@
     <rPh sb="14" eb="16">
       <t>ケッテイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>画面遷移</t>
@@ -3480,7 +3480,7 @@
     <rPh sb="2" eb="4">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ゲームの画面状態を変更する。</t>
@@ -3493,7 +3493,7 @@
     <rPh sb="9" eb="11">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>画面状態が「難易度選択」になり、難易度文字列とハイスコアが表示される。</t>
@@ -3518,7 +3518,7 @@
     <rPh sb="29" eb="31">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.２の手順を行い、難易度選択画面に遷移する。
@@ -3544,7 +3544,7 @@
     <rPh sb="33" eb="35">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.1の手順を行い、タイトル画面に遷移する。
@@ -3564,7 +3564,7 @@
     <rPh sb="32" eb="34">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.３の手順を行い、HSクリア確認画面に遷移する。
@@ -3584,7 +3584,7 @@
     <rPh sb="42" eb="44">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>画面状態が「HSクリア確認」となり、「CLEAR HS？」等の文字列が表示される。</t>
@@ -3606,7 +3606,7 @@
     <rPh sb="35" eb="37">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>画面状態が「タイトル」になり、「モグラタタキ」文字列、モグラのイラストが3種類表示される</t>
@@ -3625,7 +3625,7 @@
     <rPh sb="39" eb="41">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.２の手順を行い、難易度選択画面に遷移する。
@@ -3651,7 +3651,7 @@
     <rPh sb="33" eb="35">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>画面状態が「ゲーム開始カウントダウン」となり、3の文字列が表示される。</t>
@@ -3667,7 +3667,7 @@
     <rPh sb="29" eb="31">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.5の手順を行い、ゲーム開始カウントダウン画面に遷移する。
@@ -3696,7 +3696,7 @@
     <rPh sb="53" eb="54">
       <t>マ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>画面状態が「ゲーム中」となり、画面1行目にスコアと残り時間、2行目にモグラの穴などが表示される。</t>
@@ -3733,7 +3733,7 @@
     <rPh sb="42" eb="44">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>1．No.6の手順を行い、ゲーム中画面に遷移する。
@@ -3762,7 +3762,7 @@
     <rPh sb="45" eb="46">
       <t>マ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>画面状態が「リザルト」となり、スコアとハイスコアが表示される。</t>
@@ -3775,7 +3775,7 @@
     <rPh sb="25" eb="27">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>1．No.7の手順を行い、リザルト画面に遷移する。
@@ -3795,7 +3795,7 @@
     <rPh sb="32" eb="34">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>難易度設定</t>
@@ -3805,7 +3805,7 @@
     <rPh sb="3" eb="5">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.２の手順を行い、難易度選択画面に遷移する。
@@ -3831,7 +3831,7 @@
     <rPh sb="33" eb="35">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>難易度が「EASY」となり、画面1行目に「EASY」、2行目に難易度EASYのハイスコアが表示される。</t>
@@ -3856,7 +3856,7 @@
     <rPh sb="45" eb="47">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.２の手順を行い、難易度選択画面に遷移する。
@@ -3882,7 +3882,7 @@
     <rPh sb="33" eb="35">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.2の手順を行い、難易度選択画面に遷移する。
@@ -3908,7 +3908,7 @@
     <rPh sb="33" eb="35">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>難易度が「NORMAL」となり、画面1行目に「NORMAL」、2行目に難易度NORMALのハイスコアが表示される。</t>
@@ -3933,7 +3933,7 @@
     <rPh sb="51" eb="53">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>難易度が「HARD」となり、画面1行目に「HARD」、2行目に難易度HARDのハイスコアが表示される。</t>
@@ -3958,11 +3958,11 @@
     <rPh sb="45" eb="47">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ハイスコアクリア</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>設定された難易度のハイスコアをクリアする。</t>
@@ -3972,7 +3972,7 @@
     <rPh sb="5" eb="8">
       <t>ナンイド</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ゲームの難易度を設定する。</t>
@@ -3982,7 +3982,7 @@
     <rPh sb="8" eb="10">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.３の手順を行い、HSクリア確認画面に遷移する。
@@ -4002,7 +4002,7 @@
     <rPh sb="35" eb="37">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>設定された難易度のハイスコアがクリアされ、難易度選択画面に遷移する。</t>
@@ -4024,14 +4024,14 @@
     <rPh sb="29" eb="31">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>LED更新</t>
     <rPh sb="3" eb="5">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ゲーム中に遷移したとき、LEDが6つ点灯し、残り時間が10秒減少するごとにLEDを1つ消灯する。</t>
@@ -4059,7 +4059,7 @@
     <rPh sb="43" eb="45">
       <t>ショウトウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.6の手順を行い、ゲーム中画面に遷移する。</t>
@@ -4078,14 +4078,14 @@
     <rPh sb="20" eb="22">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>LEDが6つ点灯される。</t>
     <rPh sb="6" eb="8">
       <t>テントウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>1．No.　の手順を行い、LEDを6つ点灯させる。
@@ -4108,7 +4108,7 @@
     <rPh sb="43" eb="45">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>残り時間が50,40…,10,00のとき、LEDが1つずつ消灯される。</t>
@@ -4121,11 +4121,11 @@
     <rPh sb="29" eb="31">
       <t>ショウトウ</t>
     </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>カウントダウン</t>
     <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>カウントダウン</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>1秒に1ずつ残り時間(カウント)が減少する</t>
@@ -4141,7 +4141,7 @@
     <rPh sb="17" eb="19">
       <t>ゲンショウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.5の手順を行い、ゲーム開始カウントダウン画面に遷移する。
@@ -4176,7 +4176,7 @@
     <rPh sb="58" eb="60">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>残り時間が1秒に1減少する。</t>
@@ -4192,7 +4192,7 @@
     <rPh sb="9" eb="11">
       <t>ゲンショウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>1．No.6の手順を行い、ゲーム中画面に遷移する。
@@ -4230,14 +4230,14 @@
     <rPh sb="52" eb="53">
       <t>ニン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>モグラの処理</t>
     <rPh sb="4" eb="6">
       <t>ショリ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>モグラの状態を変更する</t>
@@ -4247,7 +4247,7 @@
     <rPh sb="7" eb="9">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.6の手順を行い、ゲーム中画面に遷移する。
@@ -4285,7 +4285,7 @@
     <rPh sb="62" eb="64">
       <t>サンショウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.6の手順を行い、ゲーム中画面に遷移する。
@@ -4326,7 +4326,7 @@
     <rPh sb="63" eb="65">
       <t>サンショウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>モグラの穴が4つ表示される。</t>
@@ -4336,7 +4336,7 @@
     <rPh sb="8" eb="10">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ランダムな時間、ランダムな位置にモグラが出現し、0.2~2.0秒経過するとモグラの穴に戻る。</t>
@@ -4361,7 +4361,7 @@
     <rPh sb="43" eb="44">
       <t>モド</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.6の手順を行い、ゲーム中画面に遷移する。
@@ -4406,7 +4406,7 @@
     <rPh sb="66" eb="68">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>モグラの撃退され、0.3秒経過後にモグラの穴に戻る。</t>
@@ -4428,32 +4428,25 @@
     <rPh sb="23" eb="24">
       <t>モド</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>スコア増加</t>
     <rPh sb="3" eb="5">
       <t>ゾウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>スコアを1増加する。</t>
     <rPh sb="5" eb="7">
       <t>ゾウカ</t>
     </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ペナルティ</t>
     <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>1．No.　の手順を行い、モグラを撃退する。</t>
-    <rPh sb="17" eb="19">
-      <t>ゲキタイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>ペナルティ</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>残り時間を3秒減少させる。</t>
@@ -4469,7 +4462,7 @@
     <rPh sb="7" eb="9">
       <t>ゲンショウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.6の手順を行い、ゲーム中画面に遷移する。
@@ -4511,7 +4504,7 @@
     <rPh sb="64" eb="66">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>画面1行目のスコア(S)が1増加する。</t>
@@ -4527,7 +4520,7 @@
     <rPh sb="14" eb="16">
       <t>ゾウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>画面1行目の残り時間(T)が3減少する。</t>
@@ -4549,7 +4542,610 @@
     <rPh sb="15" eb="17">
       <t>ゲンショウ</t>
     </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ハイスコア更新</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ブザー</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>SW検知</t>
+    <rPh sb="2" eb="4">
+      <t>ケンチ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>SWの入力を検知する。</t>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンチ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>選択された難易度のハイスコアを更新する。</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>BGMやSEを鳴らす。</t>
+    <rPh sb="7" eb="8">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>1．タイトル画面に遷移する。
+2．SW5とそれ以外のSWを同時に押下する。</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>難易度選択画面に遷移しない。</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ハイスコアがスコアの値に更新される。</t>
+    <rPh sb="10" eb="11">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1．No6の手順を行い、ゲーム中画面に遷移する。
+2．残り時間が0になるまで、BGMが流れているか確認する。</t>
+    <rPh sb="6" eb="8">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ゲーム中、BGMが流れ続ける。</t>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>1．No.5の手順を行い、ゲーム開始カウントダウン画面に遷移する。
+2．残り時間(カウント)が0になるまでSEを確認する。</t>
+    <rPh sb="7" eb="9">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>残り時間が減少する度にSEが鳴る。</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゲンショウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タビ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>モグラ撃退時のSEが鳴る。</t>
+    <rPh sb="3" eb="6">
+      <t>ゲキタイジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ペナルティのSEが鳴る。</t>
+    <rPh sb="9" eb="10">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ゲーム終了時のSEが鳴る。</t>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>1．No.5の手順を行い、ゲーム中画面に遷移する。
+2．No.　の手順を行い、スコアがハイスコアを上回るようにする。
+3．残り時間が0になるまで待ち、リザルト画面に遷移する。</t>
+    <rPh sb="7" eb="9">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ウワマワ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ゲーム終了時(ハイスコア更新ver)のSEが鳴る。</t>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>1．難易度選択画面に遷移する。
+2．難易度をEASY以外にする。
+3．SW1とそれ以外のSWを同時に押下する。</t>
+    <rPh sb="2" eb="5">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>難易度がEASYに変更されない。</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1．難易度選択画面に遷移する。
+2．難易度をNORMAL以外にする。
+3．SW2とそれ以外のSWを同時に押下する。</t>
+    <rPh sb="2" eb="5">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1．難易度選択画面に遷移する。
+2．難易度をHARD以外にする。
+3．SW3とそれ以外のSWを同時に押下する。</t>
+    <rPh sb="2" eb="5">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1．難易度選択画面に遷移する。
+3．SW4とそれ以外のSWを同時に押下する。</t>
+    <rPh sb="2" eb="5">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>難易度がNORMALに変更されない。</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>難易度がHARDに変更されない。</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1．難易度選択画面に遷移する。
+3．SW5とそれ以外のSWを同時に押下する。</t>
+    <rPh sb="2" eb="5">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>HSクリア確認画面に遷移しない。</t>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ゲーム開始カウントダウンに遷移しない。</t>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1．リザルト画面に遷移する。
+3．SW5とそれ以外のSWを同時に押下する。</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>タイトル画面に遷移しない。</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1．No.20の手順を行い、モグラを撃退する。</t>
+    <rPh sb="18" eb="20">
+      <t>ゲキタイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1．No.20の手順2．3．を繰り返し、スコアを1ずつ増加させる。
+2．リザルト画面でスコアがハイスコアを上回っていることを確認し、スコアの値を覚えておく。(ハイスコアをクリアしてもよい)。
+3．難易度選択画面に遷移し、ハイスコアの値を確認する。</t>
+    <rPh sb="8" eb="10">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ゾウカ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ウワマワ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>オボ</t>
+    </rPh>
+    <rPh sb="98" eb="101">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>1．No.22の手順を行い、ペナルティを発生させる</t>
+    <rPh sb="8" eb="10">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>1．No.7の手順を行い、リザルト画面に遷移する。</t>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>テスト結果値</t>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
@@ -4559,12 +5155,20 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4799,172 +5403,172 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -4973,13 +5577,25 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4991,14 +5607,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7515,7 +8140,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -7523,11 +8148,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85CE931-9A0F-4209-B117-D9C0D8C16592}">
-  <dimension ref="A1:N76"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F26" sqref="F26"/>
+      <selection pane="topRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -7542,10 +8167,10 @@
     <col min="8" max="8" width="49.58203125" style="2" customWidth="1"/>
     <col min="9" max="9" width="11.25" style="3" customWidth="1"/>
     <col min="10" max="10" width="33.08203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="49.58203125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.25" style="3" customWidth="1"/>
-    <col min="14" max="14" width="49.58203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="49.58203125" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11.25" style="3" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="49.58203125" style="2" hidden="1" customWidth="1"/>
     <col min="15" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
@@ -7583,8 +8208,8 @@
       <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>9</v>
+      <c r="H3" s="71" t="s">
+        <v>315</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>10</v>
@@ -7621,25 +8246,13 @@
       <c r="F4" s="59" t="s">
         <v>235</v>
       </c>
-      <c r="G4" s="10">
-        <v>44049</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="11"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="10">
-        <v>44050</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="11"/>
       <c r="N4" s="9"/>
     </row>
     <row r="5" spans="1:14" ht="36.5" thickBot="1">
@@ -7654,25 +8267,13 @@
       <c r="F5" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="G5" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="15"/>
-      <c r="K5" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="K5" s="16"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="17"/>
       <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:14" ht="36.5" thickBot="1">
@@ -7687,25 +8288,13 @@
       <c r="F6" s="60" t="s">
         <v>234</v>
       </c>
-      <c r="G6" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="17"/>
       <c r="J6" s="15"/>
-      <c r="K6" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="K6" s="16"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="17"/>
       <c r="N6" s="15"/>
     </row>
     <row r="7" spans="1:14" ht="36.5" thickBot="1">
@@ -7720,120 +8309,102 @@
       <c r="F7" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="G7" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="17"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="K7" s="16"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="17"/>
       <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14" ht="36.5" thickBot="1">
       <c r="B8" s="6">
         <v>5</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="60" t="s">
         <v>236</v>
       </c>
-      <c r="F8" s="61" t="s">
+      <c r="F8" s="60" t="s">
         <v>237</v>
       </c>
-      <c r="G8" s="22">
-        <v>44049</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="25">
-        <v>44050</v>
-      </c>
-      <c r="L8" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" s="21"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="15"/>
     </row>
     <row r="9" spans="1:14" ht="54.5" thickBot="1">
-      <c r="B9" s="6"/>
+      <c r="B9" s="6">
+        <v>6</v>
+      </c>
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
       <c r="E9" s="60" t="s">
         <v>238</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="60" t="s">
         <v>239</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="14"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="15"/>
     </row>
     <row r="10" spans="1:14" ht="36.5" thickBot="1">
-      <c r="B10" s="6"/>
+      <c r="B10" s="6">
+        <v>7</v>
+      </c>
       <c r="C10" s="13"/>
       <c r="D10" s="14"/>
       <c r="E10" s="60" t="s">
         <v>240</v>
       </c>
-      <c r="F10" s="58" t="s">
+      <c r="F10" s="60" t="s">
         <v>241</v>
       </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="14"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="15"/>
     </row>
     <row r="11" spans="1:14" ht="36.5" thickBot="1">
-      <c r="B11" s="6"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="60" t="s">
+      <c r="B11" s="6">
+        <v>8</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="61" t="s">
         <v>242</v>
       </c>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="61" t="s">
         <v>235</v>
       </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="14"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="21"/>
     </row>
     <row r="12" spans="1:14" ht="36.5" thickBot="1">
       <c r="B12" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>243</v>
@@ -7841,144 +8412,112 @@
       <c r="D12" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="59" t="s">
         <v>244</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="59" t="s">
         <v>245</v>
       </c>
-      <c r="G12" s="10">
-        <v>44049</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="11"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="10">
-        <v>44050</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="11"/>
       <c r="N12" s="9"/>
     </row>
     <row r="13" spans="1:14" ht="36.5" thickBot="1">
       <c r="B13" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="14"/>
       <c r="E13" s="60" t="s">
         <v>246</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="F13" s="60" t="s">
         <v>248</v>
       </c>
-      <c r="G13" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="15"/>
-      <c r="K13" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="K13" s="16"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="17"/>
       <c r="N13" s="15"/>
     </row>
     <row r="14" spans="1:14" ht="36.5" thickBot="1">
       <c r="B14" s="6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="20"/>
-      <c r="E14" s="60" t="s">
+      <c r="E14" s="61" t="s">
         <v>247</v>
       </c>
-      <c r="F14" s="57" t="s">
+      <c r="F14" s="61" t="s">
         <v>249</v>
       </c>
-      <c r="G14" s="22">
-        <v>44049</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>18</v>
-      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="23"/>
       <c r="J14" s="21"/>
-      <c r="K14" s="22">
-        <v>44050</v>
-      </c>
-      <c r="L14" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="M14" s="23" t="s">
-        <v>18</v>
-      </c>
+      <c r="K14" s="22"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="23"/>
       <c r="N14" s="21"/>
     </row>
     <row r="15" spans="1:14" ht="54.5" thickBot="1">
-      <c r="B15" s="6"/>
+      <c r="B15" s="6">
+        <v>12</v>
+      </c>
       <c r="C15" s="13" t="s">
         <v>261</v>
       </c>
       <c r="D15" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="E15" s="60" t="s">
+      <c r="E15" s="59" t="s">
         <v>263</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="59" t="s">
         <v>264</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="20"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="9"/>
     </row>
     <row r="16" spans="1:14" ht="36.5" thickBot="1">
-      <c r="B16" s="6"/>
+      <c r="B16" s="6">
+        <v>13</v>
+      </c>
       <c r="C16" s="13"/>
       <c r="D16" s="58"/>
-      <c r="E16" s="60" t="s">
+      <c r="E16" s="61" t="s">
         <v>265</v>
       </c>
-      <c r="F16" s="57" t="s">
+      <c r="F16" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="20"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="21"/>
     </row>
     <row r="17" spans="2:14" ht="36.5" thickBot="1">
       <c r="B17" s="6">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C17" s="41" t="s">
         <v>250</v>
@@ -7986,55 +8525,45 @@
       <c r="D17" s="57" t="s">
         <v>251</v>
       </c>
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="59" t="s">
         <v>253</v>
       </c>
       <c r="F17" s="59" t="s">
         <v>254</v>
       </c>
-      <c r="G17" s="10">
-        <v>44049</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="29"/>
-      <c r="K17" s="31">
-        <v>44050</v>
-      </c>
-      <c r="L17" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N17" s="29"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="9"/>
     </row>
     <row r="18" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B18" s="6"/>
+      <c r="B18" s="6">
+        <v>15</v>
+      </c>
       <c r="C18" s="19"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="60" t="s">
+      <c r="D18" s="62"/>
+      <c r="E18" s="61" t="s">
         <v>253</v>
       </c>
-      <c r="F18" s="59" t="s">
+      <c r="F18" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="8"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="21"/>
     </row>
     <row r="19" spans="2:14" ht="36.5" thickBot="1">
       <c r="B19" s="6">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>255</v>
@@ -8042,156 +8571,112 @@
       <c r="D19" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="E19" s="62" t="s">
+      <c r="E19" s="68" t="s">
         <v>257</v>
       </c>
-      <c r="F19" s="62" t="s">
+      <c r="F19" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="G19" s="10">
-        <v>44049</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="11"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="10">
-        <v>44050</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="M19" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="K19" s="10"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="11"/>
       <c r="N19" s="9"/>
     </row>
     <row r="20" spans="2:14" ht="36.5" thickBot="1">
       <c r="B20" s="6">
-        <v>11</v>
-      </c>
-      <c r="E20" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="61" t="s">
         <v>259</v>
       </c>
-      <c r="F20" s="59" t="s">
+      <c r="F20" s="61" t="s">
         <v>260</v>
       </c>
-      <c r="G20" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="M20" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N20" s="15"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="21"/>
     </row>
     <row r="21" spans="2:14" ht="54.5" thickBot="1">
       <c r="B21" s="6">
-        <v>12</v>
-      </c>
-      <c r="C21" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="D21" s="60" t="s">
+      <c r="D21" s="58" t="s">
         <v>267</v>
       </c>
-      <c r="E21" s="60" t="s">
+      <c r="E21" s="59" t="s">
         <v>269</v>
       </c>
-      <c r="F21" s="61" t="s">
+      <c r="F21" s="59" t="s">
         <v>270</v>
       </c>
-      <c r="G21" s="22">
-        <v>44049</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="21"/>
-      <c r="K21" s="22">
-        <v>44050</v>
-      </c>
-      <c r="L21" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="M21" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="N21" s="21"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="9"/>
     </row>
     <row r="22" spans="2:14" ht="54.5" thickBot="1">
       <c r="B22" s="6">
-        <v>13</v>
-      </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
+        <v>19</v>
+      </c>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
       <c r="E22" s="60" t="s">
         <v>268</v>
       </c>
-      <c r="F22" s="58" t="s">
+      <c r="F22" s="60" t="s">
         <v>271</v>
       </c>
-      <c r="G22" s="10">
-        <v>44049</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="29"/>
-      <c r="K22" s="31">
-        <v>44050</v>
-      </c>
-      <c r="L22" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="M22" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N22" s="29"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="15"/>
     </row>
     <row r="23" spans="2:14" ht="54.5" thickBot="1">
-      <c r="B23" s="6"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="60" t="s">
+      <c r="B23" s="6">
+        <v>20</v>
+      </c>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="61" t="s">
         <v>272</v>
       </c>
-      <c r="F23" s="58" t="s">
+      <c r="F23" s="61" t="s">
         <v>273</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="8"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="21"/>
     </row>
     <row r="24" spans="2:14" ht="20.5" thickBot="1">
       <c r="B24" s="6">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>274</v>
@@ -8199,1700 +8684,421 @@
       <c r="D24" s="57" t="s">
         <v>275</v>
       </c>
-      <c r="E24" s="59" t="s">
-        <v>276</v>
+      <c r="E24" s="63" t="s">
+        <v>311</v>
       </c>
       <c r="F24" s="59" t="s">
-        <v>280</v>
-      </c>
-      <c r="G24" s="10">
-        <v>44049</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>18</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="11"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="10">
-        <v>44050</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="M24" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="K24" s="10"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="11"/>
       <c r="N24" s="9"/>
     </row>
     <row r="25" spans="2:14" ht="54.5" thickBot="1">
       <c r="B25" s="6">
-        <v>15</v>
-      </c>
-      <c r="C25" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>276</v>
+      </c>
+      <c r="D25" s="67" t="s">
         <v>277</v>
       </c>
-      <c r="D25" s="58" t="s">
+      <c r="E25" s="60" t="s">
         <v>278</v>
       </c>
-      <c r="E25" s="60" t="s">
-        <v>279</v>
-      </c>
       <c r="F25" s="60" t="s">
+        <v>280</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="15"/>
+    </row>
+    <row r="26" spans="2:14" ht="72.5" thickBot="1">
+      <c r="B26" s="6">
+        <v>23</v>
+      </c>
+      <c r="C26" s="44" t="s">
         <v>281</v>
       </c>
-      <c r="G25" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" s="15"/>
-      <c r="K25" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L25" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M25" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N25" s="15"/>
-    </row>
-    <row r="26" spans="2:14" ht="20.5" thickBot="1">
-      <c r="B26" s="6">
-        <v>16</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="F26" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="15"/>
-      <c r="K26" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L26" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="M26" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N26" s="15"/>
-    </row>
-    <row r="27" spans="2:14" ht="36.5" thickBot="1">
+      <c r="D26" s="67" t="s">
+        <v>285</v>
+      </c>
+      <c r="E26" s="69" t="s">
+        <v>312</v>
+      </c>
+      <c r="F26" s="65" t="s">
+        <v>289</v>
+      </c>
+      <c r="G26" s="22"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="21"/>
+    </row>
+    <row r="27" spans="2:14" ht="54.5" thickBot="1">
       <c r="B27" s="6">
-        <v>17</v>
-      </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="22">
-        <v>44049</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="I27" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" s="21"/>
-      <c r="K27" s="22">
-        <v>44050</v>
-      </c>
-      <c r="L27" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="M27" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="N27" s="21"/>
+        <v>24</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="D27" s="57" t="s">
+        <v>286</v>
+      </c>
+      <c r="E27" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="F27" s="70" t="s">
+        <v>293</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="9"/>
     </row>
     <row r="28" spans="2:14" ht="36.5" thickBot="1">
       <c r="B28" s="6">
-        <v>18</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G28" s="10">
-        <v>44049</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I28" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="K28" s="34">
-        <v>44050</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="M28" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N28" s="9"/>
-    </row>
-    <row r="29" spans="2:14" ht="36.5" thickBot="1">
+        <v>25</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="F28" s="64" t="s">
+        <v>291</v>
+      </c>
+      <c r="G28" s="16"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="15"/>
+    </row>
+    <row r="29" spans="2:14" ht="20.5" thickBot="1">
       <c r="B29" s="6">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G29" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="I29" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="K29" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L29" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="M29" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="D29" s="58"/>
+      <c r="E29" s="64" t="s">
+        <v>311</v>
+      </c>
+      <c r="F29" s="64" t="s">
+        <v>294</v>
+      </c>
+      <c r="G29" s="16"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="17"/>
       <c r="N29" s="15"/>
     </row>
-    <row r="30" spans="2:14" ht="36.5" thickBot="1">
+    <row r="30" spans="2:14" ht="20.5" thickBot="1">
       <c r="B30" s="6">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="G30" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="I30" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="K30" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L30" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="M30" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="D30" s="58"/>
+      <c r="E30" s="64" t="s">
+        <v>313</v>
+      </c>
+      <c r="F30" s="64" t="s">
+        <v>295</v>
+      </c>
+      <c r="G30" s="16"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="17"/>
       <c r="N30" s="15"/>
     </row>
-    <row r="31" spans="2:14" ht="36.5" thickBot="1">
+    <row r="31" spans="2:14" ht="20.5" thickBot="1">
       <c r="B31" s="6">
-        <v>21</v>
-      </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="G31" s="22">
-        <v>44049</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="I31" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="J31" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="K31" s="25">
-        <v>44050</v>
-      </c>
-      <c r="L31" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="M31" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="N31" s="21"/>
-    </row>
-    <row r="32" spans="2:14" ht="20.5" thickBot="1">
+        <v>28</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="64" t="s">
+        <v>314</v>
+      </c>
+      <c r="F31" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="G31" s="16"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="15"/>
+    </row>
+    <row r="32" spans="2:14" ht="74.5" customHeight="1" thickBot="1">
       <c r="B32" s="6">
-        <v>22</v>
-      </c>
-      <c r="C32" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G32" s="10">
-        <v>44049</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="10">
-        <v>44050</v>
-      </c>
-      <c r="L32" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="M32" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N32" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="65" t="s">
+        <v>297</v>
+      </c>
+      <c r="F32" s="65" t="s">
+        <v>298</v>
+      </c>
+      <c r="G32" s="22"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="21"/>
     </row>
     <row r="33" spans="2:14" ht="36.5" thickBot="1">
       <c r="B33" s="6">
-        <v>23</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G33" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="I33" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J33" s="15"/>
-      <c r="K33" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L33" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="M33" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N33" s="15"/>
-    </row>
-    <row r="34" spans="2:14" ht="72.5" thickBot="1">
+        <v>30</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D33" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="E33" s="63" t="s">
+        <v>287</v>
+      </c>
+      <c r="F33" s="63" t="s">
+        <v>288</v>
+      </c>
+      <c r="G33" s="10"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="9"/>
+    </row>
+    <row r="34" spans="2:14" ht="54.5" thickBot="1">
       <c r="B34" s="6">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="G34" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="I34" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="E34" s="64" t="s">
+        <v>299</v>
+      </c>
+      <c r="F34" s="64" t="s">
+        <v>300</v>
+      </c>
+      <c r="G34" s="16"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="35"/>
       <c r="J34" s="15"/>
-      <c r="K34" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L34" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="M34" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="K34" s="16"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="17"/>
       <c r="N34" s="15"/>
     </row>
-    <row r="35" spans="2:14" ht="72.5" thickBot="1">
+    <row r="35" spans="2:14" ht="54.5" thickBot="1">
       <c r="B35" s="6">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="G35" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="I35" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="E35" s="64" t="s">
+        <v>301</v>
+      </c>
+      <c r="F35" s="64" t="s">
+        <v>304</v>
+      </c>
+      <c r="G35" s="16"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="35"/>
       <c r="J35" s="15"/>
-      <c r="K35" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L35" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="M35" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="K35" s="16"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="17"/>
       <c r="N35" s="15"/>
     </row>
-    <row r="36" spans="2:14" ht="36.5" thickBot="1">
+    <row r="36" spans="2:14" ht="54.5" thickBot="1">
       <c r="B36" s="6">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="G36" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="I36" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="E36" s="64" t="s">
+        <v>302</v>
+      </c>
+      <c r="F36" s="64" t="s">
+        <v>305</v>
+      </c>
+      <c r="G36" s="16"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="35"/>
       <c r="J36" s="15"/>
-      <c r="K36" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L36" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="M36" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="K36" s="16"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="17"/>
       <c r="N36" s="15"/>
     </row>
     <row r="37" spans="2:14" ht="36.5" thickBot="1">
       <c r="B37" s="6">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="G37" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="I37" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="E37" s="64" t="s">
+        <v>303</v>
+      </c>
+      <c r="F37" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="G37" s="16"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="17"/>
       <c r="J37" s="15"/>
-      <c r="K37" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L37" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="M37" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="K37" s="16"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="17"/>
       <c r="N37" s="15"/>
     </row>
     <row r="38" spans="2:14" ht="36.5" thickBot="1">
       <c r="B38" s="6">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="G38" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="I38" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="E38" s="64" t="s">
+        <v>306</v>
+      </c>
+      <c r="F38" s="64" t="s">
+        <v>308</v>
+      </c>
+      <c r="G38" s="16"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="17"/>
       <c r="J38" s="15"/>
-      <c r="K38" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L38" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="M38" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="K38" s="16"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="17"/>
       <c r="N38" s="15"/>
     </row>
     <row r="39" spans="2:14" ht="36.5" thickBot="1">
       <c r="B39" s="6">
-        <v>29</v>
-      </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="G39" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="I39" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J39" s="15"/>
-      <c r="K39" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L39" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="M39" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N39" s="15"/>
-    </row>
-    <row r="40" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B40" s="6">
-        <v>30</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G40" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="I40" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J40" s="15"/>
-      <c r="K40" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L40" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="M40" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N40" s="15"/>
-    </row>
-    <row r="41" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B41" s="6">
-        <v>31</v>
-      </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="G41" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="I41" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J41" s="15"/>
-      <c r="K41" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L41" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="M41" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N41" s="15"/>
-    </row>
-    <row r="42" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B42" s="6">
-        <v>32</v>
-      </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="G42" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="I42" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J42" s="15"/>
-      <c r="K42" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L42" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="M42" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N42" s="15"/>
-    </row>
-    <row r="43" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B43" s="6">
-        <v>33</v>
-      </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="G43" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="I43" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J43" s="15"/>
-      <c r="K43" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L43" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="M43" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N43" s="15"/>
-    </row>
-    <row r="44" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B44" s="6">
-        <v>34</v>
-      </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="G44" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="I44" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J44" s="15"/>
-      <c r="K44" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L44" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="M44" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N44" s="15"/>
-    </row>
-    <row r="45" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B45" s="6">
-        <v>35</v>
-      </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="F45" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="G45" s="25">
-        <v>44049</v>
-      </c>
-      <c r="H45" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="I45" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="J45" s="38"/>
-      <c r="K45" s="22">
-        <v>44050</v>
-      </c>
-      <c r="L45" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="M45" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="N45" s="38"/>
-    </row>
-    <row r="46" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B46" s="6">
         <v>36</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="G46" s="10">
-        <v>44049</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J46" s="9"/>
-      <c r="K46" s="34">
-        <v>44050</v>
-      </c>
-      <c r="L46" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="M46" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N46" s="9"/>
-    </row>
-    <row r="47" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B47" s="6">
-        <v>37</v>
-      </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="G47" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="I47" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J47" s="15"/>
-      <c r="K47" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L47" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="M47" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N47" s="15"/>
-    </row>
-    <row r="48" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B48" s="6">
-        <v>38</v>
-      </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="G48" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H48" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="I48" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J48" s="15"/>
-      <c r="K48" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L48" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="M48" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N48" s="15"/>
-    </row>
-    <row r="49" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B49" s="6">
-        <v>39</v>
-      </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="G49" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H49" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="I49" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J49" s="15"/>
-      <c r="K49" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L49" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="M49" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N49" s="15"/>
-    </row>
-    <row r="50" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B50" s="6">
-        <v>40</v>
-      </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="G50" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="I50" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J50" s="15"/>
-      <c r="K50" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L50" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="M50" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N50" s="15"/>
-    </row>
-    <row r="51" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B51" s="6">
-        <v>41</v>
-      </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="G51" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="I51" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J51" s="15"/>
-      <c r="K51" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L51" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="M51" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N51" s="15"/>
-    </row>
-    <row r="52" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B52" s="6">
-        <v>42</v>
-      </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="G52" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H52" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="I52" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J52" s="15"/>
-      <c r="K52" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L52" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="M52" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N52" s="15"/>
-    </row>
-    <row r="53" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B53" s="6">
-        <v>43</v>
-      </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="G53" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H53" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="I53" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J53" s="15"/>
-      <c r="K53" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L53" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="M53" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N53" s="15"/>
-    </row>
-    <row r="54" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B54" s="6">
-        <v>44</v>
-      </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="G54" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H54" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="I54" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J54" s="15"/>
-      <c r="K54" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L54" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="M54" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N54" s="15"/>
-    </row>
-    <row r="55" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B55" s="6">
-        <v>45</v>
-      </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="G55" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H55" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="I55" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J55" s="15"/>
-      <c r="K55" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L55" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="M55" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N55" s="15"/>
-    </row>
-    <row r="56" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B56" s="6">
-        <v>46</v>
-      </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="F56" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="G56" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H56" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="I56" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J56" s="15"/>
-      <c r="K56" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L56" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="M56" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N56" s="15"/>
-    </row>
-    <row r="57" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B57" s="6">
-        <v>47</v>
-      </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G57" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H57" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="I57" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J57" s="15"/>
-      <c r="K57" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L57" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="M57" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N57" s="15"/>
-    </row>
-    <row r="58" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B58" s="6">
-        <v>48</v>
-      </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="F58" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="G58" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H58" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="I58" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J58" s="15"/>
-      <c r="K58" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L58" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="M58" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N58" s="15"/>
-    </row>
-    <row r="59" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B59" s="6">
-        <v>49</v>
-      </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="G59" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H59" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="I59" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J59" s="15"/>
-      <c r="K59" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L59" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="M59" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N59" s="15"/>
-    </row>
-    <row r="60" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B60" s="6">
-        <v>50</v>
-      </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="F60" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="G60" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H60" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="I60" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J60" s="15"/>
-      <c r="K60" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L60" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="M60" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N60" s="15"/>
-    </row>
-    <row r="61" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B61" s="6">
-        <v>51</v>
-      </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="F61" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="G61" s="25">
-        <v>44049</v>
-      </c>
-      <c r="H61" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="I61" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="J61" s="38"/>
-      <c r="K61" s="25">
-        <v>44050</v>
-      </c>
-      <c r="L61" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="M61" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="N61" s="21"/>
-    </row>
-    <row r="62" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B62" s="6">
-        <v>52</v>
-      </c>
-      <c r="C62" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="G62" s="10">
-        <v>44050</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="I62" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J62" s="9"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="42"/>
-      <c r="N62" s="28" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" ht="54.5" thickBot="1">
-      <c r="B63" s="6">
-        <v>53</v>
-      </c>
-      <c r="C63" s="19"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="F63" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="G63" s="22">
-        <v>44050</v>
-      </c>
-      <c r="H63" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="I63" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J63" s="21"/>
-      <c r="K63" s="22">
-        <v>44050</v>
-      </c>
-      <c r="L63" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="M63" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="N63" s="38"/>
-    </row>
-    <row r="64" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B64" s="6">
-        <v>54</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="F64" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="G64" s="34">
-        <v>44049</v>
-      </c>
-      <c r="H64" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="I64" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="J64" s="28"/>
-      <c r="K64" s="34">
-        <v>44050</v>
-      </c>
-      <c r="L64" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="M64" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N64" s="9"/>
-    </row>
-    <row r="65" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B65" s="6">
-        <v>55</v>
-      </c>
-      <c r="C65" s="19"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="F65" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="G65" s="22">
-        <v>44049</v>
-      </c>
-      <c r="H65" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="I65" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J65" s="21"/>
-      <c r="K65" s="25">
-        <v>44050</v>
-      </c>
-      <c r="L65" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="M65" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="N65" s="21"/>
-    </row>
-    <row r="66" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B66" s="6">
-        <v>56</v>
-      </c>
-      <c r="C66" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="D66" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="E66" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="F66" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="G66" s="31">
-        <v>44049</v>
-      </c>
-      <c r="H66" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="I66" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="J66" s="14"/>
-      <c r="K66" s="47">
-        <v>44050</v>
-      </c>
-      <c r="L66" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="M66" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="N66" s="14"/>
-    </row>
-    <row r="67" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B67" s="6">
-        <v>57</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="G67" s="10">
-        <v>44049</v>
-      </c>
-      <c r="H67" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="I67" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J67" s="9"/>
-      <c r="K67" s="34">
-        <v>44050</v>
-      </c>
-      <c r="L67" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="M67" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N67" s="9"/>
-    </row>
-    <row r="68" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B68" s="6">
-        <v>58</v>
-      </c>
-      <c r="C68" s="19"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="F68" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="G68" s="22">
-        <v>44049</v>
-      </c>
-      <c r="H68" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="I68" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J68" s="21"/>
-      <c r="K68" s="22">
-        <v>44050</v>
-      </c>
-      <c r="L68" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="M68" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="N68" s="21"/>
-    </row>
-    <row r="69" spans="2:14" ht="20.5" thickBot="1">
-      <c r="B69" s="6">
-        <v>59</v>
-      </c>
-      <c r="C69" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="D69" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="E69" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="F69" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="G69" s="10">
-        <v>44049</v>
-      </c>
-      <c r="H69" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="I69" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J69" s="29"/>
-      <c r="K69" s="10">
-        <v>44050</v>
-      </c>
-      <c r="L69" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="M69" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N69" s="29"/>
-    </row>
-    <row r="70" spans="2:14" ht="20.5" thickBot="1">
-      <c r="B70" s="6">
-        <v>60</v>
-      </c>
-      <c r="C70" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="D70" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="E70" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="F70" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="G70" s="10">
-        <v>44049</v>
-      </c>
-      <c r="H70" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="I70" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J70" s="29"/>
-      <c r="K70" s="10">
-        <v>44050</v>
-      </c>
-      <c r="L70" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="M70" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N70" s="29"/>
-    </row>
-    <row r="71" spans="2:14" ht="20.5" thickBot="1">
-      <c r="B71" s="6">
-        <v>61</v>
-      </c>
-      <c r="C71" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="D71" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="E71" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="F71" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="G71" s="47">
-        <v>44049</v>
-      </c>
-      <c r="H71" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="I71" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="J71" s="29"/>
-      <c r="K71" s="47">
-        <v>44050</v>
-      </c>
-      <c r="L71" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="M71" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="N71" s="29"/>
-    </row>
-    <row r="73" spans="2:14" ht="22.5">
-      <c r="B73" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="C73" s="49"/>
-      <c r="E73" s="50"/>
-      <c r="H73" s="51" t="s">
+      <c r="C39" s="19"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="65" t="s">
+        <v>309</v>
+      </c>
+      <c r="F39" s="65" t="s">
+        <v>310</v>
+      </c>
+      <c r="G39" s="22"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="21"/>
+    </row>
+    <row r="41" spans="2:14" ht="22.5">
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="E41" s="50"/>
+      <c r="H41" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="I73" s="3">
-        <f>COUNTA(I4:I71)</f>
-        <v>61</v>
-      </c>
-      <c r="L73" s="51" t="s">
+      <c r="I41" s="3">
+        <f>COUNTA(I4:I39)</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="M73" s="3">
-        <f>COUNTA(M4:M71)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14">
-      <c r="H74" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="I74" s="3">
-        <f>COUNTIF(I4:I71,"〇")</f>
-        <v>57</v>
-      </c>
-      <c r="L74" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="M74" s="3">
-        <f>COUNTIF(M4:M71,"〇")</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14">
-      <c r="H75" s="53" t="s">
+      <c r="M41" s="3">
+        <f>COUNTA(M4:M39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14">
+      <c r="H42" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="3">
+        <f>COUNTIF(I4:I39,"〇")</f>
+        <v>0</v>
+      </c>
+      <c r="L42" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="M42" s="3">
+        <f>COUNTIF(M4:M39,"〇")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14">
+      <c r="H43" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="I75" s="3">
-        <f>COUNTIF(I4:I71,"✖")</f>
-        <v>4</v>
-      </c>
-      <c r="L75" s="53" t="s">
+      <c r="I43" s="3">
+        <f>COUNTIF(I4:I39,"✖")</f>
+        <v>0</v>
+      </c>
+      <c r="L43" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="M75" s="3">
-        <f>COUNTIF(M4:M71,"✖")</f>
+      <c r="M43" s="3">
+        <f>COUNTIF(M4:M39,"✖")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:14">
-      <c r="H76" s="52" t="s">
+    <row r="44" spans="2:14">
+      <c r="H44" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="I76" s="54">
-        <f>I75/I73</f>
-        <v>6.5573770491803282E-2</v>
-      </c>
-      <c r="L76" s="52" t="s">
+      <c r="I44" s="54" t="e">
+        <f>I43/I41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L44" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="M76" s="55">
-        <f>M75/M73</f>
-        <v>0</v>
+      <c r="M44" s="55" t="e">
+        <f>M43/M41</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -12135,7 +11341,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/資料/設計書/モグラ叩き_テスト仕様書.xlsx
+++ b/資料/設計書/モグラ叩き_テスト仕様書.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\PICもぐら叩きゲーム\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B2DCB8-5FF7-4097-AA2E-EFD3158B4282}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6508E7F-6EF3-4DFD-A693-2707E3D605C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="システムテスト" sheetId="4" state="hidden" r:id="rId1"/>
     <sheet name="機能テスト" sheetId="2" r:id="rId2"/>
-    <sheet name="単体テスト" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="単体テスト" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,10 +35,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="383">
   <si>
     <t>マイコン：pic16f1827</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>基板：キットで遊ぼう電子回路実験用基板</t>
@@ -60,22 +60,22 @@
     <rPh sb="17" eb="19">
       <t>キバン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>LCD：AQM0802</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>No.</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
       <t>キノウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>機能概要</t>
@@ -85,14 +85,14 @@
     <rPh sb="2" eb="4">
       <t>ガイヨウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>手順</t>
     <rPh sb="0" eb="2">
       <t>テジュン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>期待値</t>
@@ -102,14 +102,14 @@
     <rPh sb="2" eb="3">
       <t>チ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>実施日</t>
     <rPh sb="0" eb="3">
       <t>ジッシビ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>テスト結果値(1回目)</t>
@@ -122,21 +122,21 @@
     <rPh sb="8" eb="10">
       <t>カイメ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>テスト結果</t>
     <rPh sb="3" eb="5">
       <t>ケッカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>テスト結果値(2回目)</t>
@@ -149,15 +149,15 @@
     <rPh sb="8" eb="10">
       <t>カイメ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>キッチンタイマリセット</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>キッチンタイマをリセットする</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．電源を投入する(以降の手順では電源の投入を省略する)</t>
@@ -182,7 +182,7 @@
     <rPh sb="23" eb="25">
       <t>ショウリャク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"＋01"となる</t>
@@ -192,7 +192,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"＋01"</t>
@@ -202,11 +202,11 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．SW1(分スイッチ)を押下して、カウントを”01:00”にする
@@ -226,7 +226,7 @@
     <rPh sb="54" eb="56">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．No.6の手順を行い、カウントダウン状態(CNT_DOWN)に移行する
@@ -249,7 +249,7 @@
     <rPh sb="67" eb="69">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．No.9の手順を行い、カウントダウン停止状態(CNT_STOP)に移行する
@@ -275,7 +275,7 @@
     <rPh sb="53" eb="55">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．No.13の手順を行い、アラーム鳴動状(ALARM)態へ移行する
@@ -304,7 +304,7 @@
     <rPh sb="59" eb="61">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>カウントダウン状態移行</t>
@@ -314,7 +314,7 @@
     <rPh sb="9" eb="11">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>カウントダウン状態(CNT_DOWN)に移行する</t>
@@ -324,7 +324,7 @@
     <rPh sb="20" eb="22">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．SW1(分スイッチ)を押下して、カウントを”01:00”にする
@@ -338,7 +338,7 @@
     <rPh sb="55" eb="57">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"CNT_DOWN"になり、カウント”01:00”からカウントダウンが開始される</t>
@@ -348,7 +348,7 @@
     <rPh sb="37" eb="39">
       <t>カイシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"CNT_DOWN"、
@@ -359,7 +359,7 @@
     <rPh sb="34" eb="36">
       <t>カイシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．状態”SET”、カウント”00:00”のままSW3を押下する</t>
@@ -369,7 +369,7 @@
     <rPh sb="28" eb="30">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>カウントダウン状態に移行しない。
@@ -386,7 +386,7 @@
     <rPh sb="41" eb="43">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態”SET”、カウント”00:00”、カウント単位”+01”</t>
@@ -396,7 +396,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．No.9の手順を行い、カウントダウン停止状態に移行する
@@ -419,7 +419,7 @@
     <rPh sb="36" eb="38">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"CNT_DOWN"になり、カウント”00:30”からカウントダウンが再開される</t>
@@ -429,7 +429,7 @@
     <rPh sb="37" eb="39">
       <t>サイカイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"CNT_DOWN"、
@@ -440,7 +440,7 @@
     <rPh sb="34" eb="36">
       <t>サイカイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>カウントダウン停止状態移行</t>
@@ -453,7 +453,7 @@
     <rPh sb="11" eb="13">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>カウントダウン停止状態(CNT_STOP)に移行する</t>
@@ -466,7 +466,7 @@
     <rPh sb="22" eb="24">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．No.6の手順を行い、カウントダウン状態に移行する
@@ -486,7 +486,7 @@
     <rPh sb="50" eb="52">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"CNT_STOP"になり、カウント”00:30”でカウントダウンが停止される</t>
@@ -496,7 +496,7 @@
     <rPh sb="36" eb="38">
       <t>テイシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"CNT_STOP"、
@@ -507,7 +507,7 @@
     <rPh sb="33" eb="35">
       <t>テイシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>カウント設定状態移行</t>
@@ -520,7 +520,7 @@
     <rPh sb="8" eb="10">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>カウント設定状態(SET)に移行する</t>
@@ -533,7 +533,7 @@
     <rPh sb="14" eb="16">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．No.6の手順を行い、カウントダウン状態に移行する
@@ -559,7 +559,7 @@
     <rPh sb="61" eb="63">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"SET"、カウント”00:30”、カウント単位"＋01"になる</t>
@@ -569,7 +569,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"SET"、カウント”00:30”、カウント単位"＋01"</t>
@@ -579,7 +579,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．No.6の手順を行い、カウントダウン状態に移行する
@@ -590,7 +590,7 @@
     <rPh sb="41" eb="43">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．No.6の手順を行い、カウントダウン状態に移行する
@@ -601,7 +601,7 @@
     <rPh sb="41" eb="43">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>アラーム鳴動状態移行</t>
@@ -614,7 +614,7 @@
     <rPh sb="8" eb="10">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>アラーム鳴動状態(ALARM)に移行する</t>
@@ -624,7 +624,7 @@
     <rPh sb="16" eb="18">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．No.6の手順を行い、カウントダウン状態に移行する
@@ -632,21 +632,21 @@
     <rPh sb="47" eb="48">
       <t>マ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"ALARM"、カウント”00:00(00:30)”になる</t>
     <rPh sb="0" eb="2">
       <t>ジョウタイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"ALARM"、カウント”00:00(00:30)”</t>
     <rPh sb="0" eb="2">
       <t>ジョウタイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>カウント単位(1/10)切替</t>
@@ -656,7 +656,7 @@
     <rPh sb="12" eb="14">
       <t>キリカエ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>カウント単位(01/10)が切り替わる</t>
@@ -669,7 +669,7 @@
     <rPh sb="16" eb="17">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．SW4(カウント単位切替スイッチ)を押下する</t>
@@ -682,7 +682,7 @@
     <rPh sb="20" eb="22">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"＋10"となる</t>
@@ -692,7 +692,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"＋10"</t>
@@ -702,7 +702,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．No.14の手順を行い、カウント単位を"+10"にする
@@ -719,7 +719,7 @@
     <rPh sb="36" eb="38">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．SW1とSW4を同時に押下し、カウント単位を”-01”にする
@@ -736,7 +736,7 @@
     <rPh sb="39" eb="41">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"-10”となる</t>
@@ -746,7 +746,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"-10”</t>
@@ -756,7 +756,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．No.16の手順を行い、カウント単位を”-10”にする
@@ -773,7 +773,7 @@
     <rPh sb="36" eb="38">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"-01”となる</t>
@@ -783,7 +783,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"-01”</t>
@@ -793,7 +793,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>カウント単位(＋/－)切替</t>
@@ -803,7 +803,7 @@
     <rPh sb="11" eb="13">
       <t>キリカエ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>カウント単位(＋/－)が切り替わる</t>
@@ -816,7 +816,7 @@
     <rPh sb="14" eb="15">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．SW1とSW4を同時に押下する</t>
@@ -826,7 +826,7 @@
     <rPh sb="13" eb="15">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"-01"となる</t>
@@ -836,7 +836,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"-01"</t>
@@ -846,11 +846,11 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>✖</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>押下されたSWの数だけ(2回)実行され、カウント単位が元に戻る。</t>
@@ -875,7 +875,7 @@
     <rPh sb="29" eb="30">
       <t>モド</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．SW4を押下し、カウント単位を”+10”にする
@@ -892,7 +892,7 @@
     <rPh sb="39" eb="41">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"-10"となる</t>
@@ -902,7 +902,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"-10"</t>
@@ -912,14 +912,14 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>No.17と同様</t>
     <rPh sb="6" eb="8">
       <t>ドウヨウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．No.18の手順を行い、カウント単位を”-01”にする
@@ -939,7 +939,7 @@
     <rPh sb="44" eb="46">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"+01”となる</t>
@@ -949,7 +949,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"+01”</t>
@@ -959,7 +959,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．No.19の手順を行い、カウント単位を”-10”にする
@@ -979,7 +979,7 @@
     <rPh sb="44" eb="46">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"+10”となる</t>
@@ -989,7 +989,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"+10”</t>
@@ -999,7 +999,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>分設定</t>
@@ -1009,7 +1009,7 @@
     <rPh sb="1" eb="3">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>カウントの分単位が、カウント単位に応じて変化する</t>
@@ -1028,7 +1028,7 @@
     <rPh sb="20" eb="22">
       <t>ヘンカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．SW1を1回押下する</t>
@@ -1038,7 +1038,7 @@
     <rPh sb="8" eb="10">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"SET"、カウント"01：00"、カウント単位"+01"となる</t>
@@ -1048,7 +1048,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"SET"、カウント"01：00"、カウント単位"+01"</t>
@@ -1058,7 +1058,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．No.22の手順を繰り返して、カウントを”09:00”にする
@@ -1078,7 +1078,7 @@
     <rPh sb="41" eb="43">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>分の1桁目が桁上りし、
@@ -1098,7 +1098,7 @@
     <rPh sb="7" eb="8">
       <t>アガ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>分の1桁目が桁上り、
@@ -1118,7 +1118,7 @@
     <rPh sb="7" eb="8">
       <t>アガ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．No.18の手順を行い、カウント単位を"-01"にする
@@ -1155,7 +1155,7 @@
     <rPh sb="96" eb="98">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>分の1桁目と2桁目が桁上りし、
@@ -1181,7 +1181,7 @@
     <rPh sb="11" eb="12">
       <t>アガ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>分の1桁目と2桁目が桁上り、
@@ -1207,7 +1207,7 @@
     <rPh sb="11" eb="12">
       <t>アガ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．No.18の手順を行い、カウント単位を"-01"にする
@@ -1244,7 +1244,7 @@
     <rPh sb="96" eb="98">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>分の1桁目と2桁目が桁上りし、
@@ -1270,7 +1270,7 @@
     <rPh sb="11" eb="12">
       <t>アガ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>分の1桁目と2桁目が桁上り、
@@ -1296,7 +1296,7 @@
     <rPh sb="11" eb="12">
       <t>アガ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．カウントを”00:00”、カウント単位を"+10"にする
@@ -1310,7 +1310,7 @@
     <rPh sb="39" eb="41">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"SET"、カウント"10：00"、カウント単位"+10"となる</t>
@@ -1320,7 +1320,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"SET"、カウント"10：00"、カウント単位"+10"</t>
@@ -1330,7 +1330,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．カウントを”99:00”、カウント単位を”+10”にする
@@ -1341,7 +1341,7 @@
     <rPh sb="38" eb="41">
       <t>カイオウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>分の2桁目が桁上りし、
@@ -1361,7 +1361,7 @@
     <rPh sb="7" eb="8">
       <t>アガ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>分の2桁目が桁上り、
@@ -1381,7 +1381,7 @@
     <rPh sb="7" eb="8">
       <t>アガ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．カウントを”99:59”、カウント単位を”+10”にする
@@ -1392,7 +1392,7 @@
     <rPh sb="38" eb="41">
       <t>カイオウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>分の2桁目が桁上りし、
@@ -1412,7 +1412,7 @@
     <rPh sb="7" eb="8">
       <t>アガ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>分の2桁目が桁上り、
@@ -1432,12 +1432,12 @@
     <rPh sb="7" eb="8">
       <t>アガ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．カウントを”00:00”、カウント単位を"-01"にする
 2．SW1を1回押下する</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>分の1桁目が桁下がりし、
@@ -1457,7 +1457,7 @@
     <rPh sb="7" eb="8">
       <t>サ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>分の1桁目が桁下がり、
@@ -1477,7 +1477,7 @@
     <rPh sb="7" eb="8">
       <t>サ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．カウントを”10:00”、カウント単位を”-01”にする
@@ -1488,7 +1488,7 @@
     <rPh sb="38" eb="41">
       <t>カイオウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>分の2桁目が桁下がりし、
@@ -1508,7 +1508,7 @@
     <rPh sb="7" eb="8">
       <t>サ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>分の2桁目が桁下がり、
@@ -1528,7 +1528,7 @@
     <rPh sb="7" eb="8">
       <t>サ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．カウントを”99:59”、カウント単位を”-01”にする
@@ -1539,7 +1539,7 @@
     <rPh sb="38" eb="41">
       <t>カイオウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"SET"、カウント"98：59"、カウント単位"-01"となる</t>
@@ -1549,7 +1549,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"SET"、カウント"98：59"、カウント単位"-01"</t>
@@ -1559,7 +1559,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．カウントを”00:00”、カウント単位を”-10”にする
@@ -1570,7 +1570,7 @@
     <rPh sb="38" eb="41">
       <t>カイオウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>分の2桁目が桁下がりし、
@@ -1590,7 +1590,7 @@
     <rPh sb="7" eb="8">
       <t>サ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>分の2桁目が桁下がり、
@@ -1610,7 +1610,7 @@
     <rPh sb="7" eb="8">
       <t>サ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．カウントを”09:00”、カウント単位を”-10”にする
@@ -1624,7 +1624,7 @@
     <rPh sb="39" eb="41">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>分の2桁目が桁下がりし、
@@ -1644,7 +1644,7 @@
     <rPh sb="7" eb="8">
       <t>サ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>分の2桁目が桁下がり、
@@ -1664,7 +1664,7 @@
     <rPh sb="7" eb="8">
       <t>サ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．カウントを”99:00”、カウント単位を”-10”にする
@@ -1678,15 +1678,15 @@
     <rPh sb="39" eb="41">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"SET"、カウント"89：00"、カウント単位"-10"となる</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"SET"、カウント"89：00"、カウント単位"-10"</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．カウントを”99:59”、カウント単位を"-10"にする
@@ -1697,15 +1697,15 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"SET"、カウント"89：59"、カウント単位"-10"となる</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"SET"、カウント"89：59"、カウント単位"-10"</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>秒設定</t>
@@ -1715,7 +1715,7 @@
     <rPh sb="1" eb="3">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>カウントの秒単位が、カウント単位に応じて変化する</t>
@@ -1734,7 +1734,7 @@
     <rPh sb="20" eb="22">
       <t>ヘンカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．カウントを”00:00”、カウント単位を"+01"にする
@@ -1742,7 +1742,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：01"、カウント単位"+01"となる</t>
@@ -1752,7 +1752,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：01"、カウント単位"+01"</t>
@@ -1762,7 +1762,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．カウントを”00:59”、カウント単位を"+01"にする
@@ -1770,7 +1770,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>秒の1桁目と2桁目が桁上りし、
@@ -1802,7 +1802,7 @@
     <rPh sb="40" eb="42">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>秒の1桁目と2桁目が桁上り、
@@ -1834,7 +1834,7 @@
     <rPh sb="39" eb="41">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．カウントを”09:59”、カウント単位を"+01"にする
@@ -1842,7 +1842,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>秒の1桁目と2桁目、分の1桁目が桁上りし、
@@ -1883,7 +1883,7 @@
     <rPh sb="46" eb="48">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>秒の1桁目と2桁目、分の1桁目が桁上り、
@@ -1924,7 +1924,7 @@
     <rPh sb="45" eb="47">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．カウントを”99:59”、カウント単位を"+01"にする
@@ -1932,7 +1932,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>秒の1桁目と2桁目、分の1桁目と2桁目が桁上りし、
@@ -1979,7 +1979,7 @@
     <rPh sb="50" eb="52">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>秒の1桁目と2桁目、分の1桁目と2桁目が桁上り、
@@ -2026,7 +2026,7 @@
     <rPh sb="49" eb="51">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．カウントを”00:00”、カウント単位を"+10"にする
@@ -2034,15 +2034,15 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：10"、カウント単位"+10"となる</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：10"、カウント単位"+10"</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．カウントを”00:50”、カウント単位を"+10"にする
@@ -2050,7 +2050,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>秒の2桁目が桁上りし、
@@ -2076,7 +2076,7 @@
     <rPh sb="36" eb="38">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>秒の2桁目が桁上り、
@@ -2102,7 +2102,7 @@
     <rPh sb="35" eb="37">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．カウントを”09:59”、カウント単位を"+10"にする
@@ -2110,7 +2110,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>秒の2桁目、分の1桁目が桁上りし、
@@ -2145,7 +2145,7 @@
     <rPh sb="42" eb="44">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>秒の2桁目、分の1桁目が桁上り、
@@ -2180,7 +2180,7 @@
     <rPh sb="41" eb="43">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．カウントを”99:59”、カウント単位を"+10"にする
@@ -2188,7 +2188,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>秒の2桁目、分の1桁目と2桁目が桁上りし、
@@ -2229,7 +2229,7 @@
     <rPh sb="46" eb="48">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>秒の2桁目、分の1桁目と2桁目が桁上り、
@@ -2270,7 +2270,7 @@
     <rPh sb="45" eb="47">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．カウントを”00:00”、カウント単位を"-01"にする
@@ -2278,7 +2278,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>秒の1桁目と2桁目、分の1桁目と2桁目が桁下がりし、
@@ -2325,7 +2325,7 @@
     <rPh sb="51" eb="53">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>秒の1桁目と2桁目、分の1桁目と2桁目が桁下がり、
@@ -2372,7 +2372,7 @@
     <rPh sb="50" eb="52">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．カウントを”01:00”、カウント単位を"-01"にする
@@ -2380,7 +2380,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>秒の1桁目と2桁目が桁下がりし、
@@ -2412,7 +2412,7 @@
     <rPh sb="41" eb="43">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>秒の1桁目と2桁目が桁下がり、
@@ -2444,7 +2444,7 @@
     <rPh sb="40" eb="42">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．カウントを”10:00”、カウント単位を"-01"にする
@@ -2452,7 +2452,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>秒の1桁目と2桁目、分の1桁目が桁下がりし、
@@ -2493,7 +2493,7 @@
     <rPh sb="47" eb="49">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>秒の1桁目と2桁目、分の1桁目が桁下がり、
@@ -2534,7 +2534,7 @@
     <rPh sb="46" eb="48">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．カウントを”99:59”、カウント単位を"-01"にする
@@ -2542,7 +2542,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"SET"、カウント"99：58"、カウント単位"-01"となる</t>
@@ -2552,7 +2552,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"SET"、カウント"99：58"、カウント単位"-01"</t>
@@ -2562,7 +2562,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．カウントを”00:00”、カウント単位を"-10"にする
@@ -2570,7 +2570,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>秒の2桁目、分の1桁目と2桁目が桁下がりし、
@@ -2611,7 +2611,7 @@
     <rPh sb="47" eb="49">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>秒の2桁目、分の1桁目と2桁目が桁下がり、
@@ -2652,7 +2652,7 @@
     <rPh sb="46" eb="48">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．カウントを”01:00”、カウント単位を"-10"にする
@@ -2660,7 +2660,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>秒の2桁目が桁下がりし、
@@ -2686,7 +2686,7 @@
     <rPh sb="37" eb="39">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>秒の2桁目が桁下がり、
@@ -2712,7 +2712,7 @@
     <rPh sb="36" eb="38">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．カウントを”10:00”、カウント単位を"-10"にする
@@ -2720,7 +2720,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>秒の2桁目、分の1桁目が桁下がりし、
@@ -2755,7 +2755,7 @@
     <rPh sb="43" eb="45">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>秒の2桁目、分の1桁目が桁下がり、
@@ -2790,7 +2790,7 @@
     <rPh sb="42" eb="44">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．カウントを”99:59”、カウント単位を"-10"にする
@@ -2798,7 +2798,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"SET"、カウント"99：49"、カウント単位"-10"となる</t>
@@ -2808,7 +2808,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態"SET"、カウント"99：49"、カウント単位"-10"</t>
@@ -2818,11 +2818,11 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>カウントダウン</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1秒に1ずつカウントが減少する</t>
@@ -2832,7 +2832,7 @@
     <rPh sb="11" eb="13">
       <t>ゲンショウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．No.6の手順を行い、カウントダウン状態に移行する</t>
@@ -2848,7 +2848,7 @@
     <rPh sb="23" eb="25">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>カウントダウンが開始され、誤差±0.5%以内でカウントダウンされる</t>
@@ -2861,14 +2861,14 @@
     <rPh sb="20" eb="22">
       <t>イナイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>誤差0.22%＊</t>
     <rPh sb="0" eb="2">
       <t>ゴサ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>SW入力の変更による影響がないため、実施しない</t>
@@ -2884,7 +2884,7 @@
     <rPh sb="18" eb="20">
       <t>ジッシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．No52の手順を行い、カウントダウンを開始する。
@@ -2910,7 +2910,7 @@
     <rPh sb="62" eb="63">
       <t>カエ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>誤差±0.5%以内でカウントダウンされる</t>
@@ -2920,35 +2920,35 @@
     <rPh sb="7" eb="9">
       <t>イナイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>誤差0.22%</t>
     <rPh sb="0" eb="2">
       <t>ゴサ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>誤差0.26%</t>
     <rPh sb="0" eb="2">
       <t>ゴサ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>カウントダウン停止</t>
     <rPh sb="7" eb="9">
       <t>テイシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>カウントダウンを停止する</t>
     <rPh sb="8" eb="10">
       <t>テイシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．No.9の手順を行い、カウント停止状態に移行する</t>
@@ -2967,7 +2967,7 @@
     <rPh sb="22" eb="24">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>カウントダウンが停止され、
@@ -2975,7 +2975,7 @@
     <rPh sb="8" eb="10">
       <t>テイシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>カウントダウンが停止、
@@ -2983,7 +2983,7 @@
     <rPh sb="8" eb="10">
       <t>テイシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>カウントダウン停止、
@@ -2991,7 +2991,7 @@
     <rPh sb="7" eb="9">
       <t>テイシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．No.4の手順を行い、キッチンタイマリセットをする</t>
@@ -3001,7 +3001,7 @@
     <rPh sb="10" eb="11">
       <t>オコナ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>カウントダウンが停止され、
@@ -3009,7 +3009,7 @@
     <rPh sb="8" eb="10">
       <t>テイシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>カウントダウンが停止、
@@ -3017,7 +3017,7 @@
     <rPh sb="8" eb="10">
       <t>テイシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>カウントダウン停止、
@@ -3025,14 +3025,14 @@
     <rPh sb="7" eb="9">
       <t>テイシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>アラーム鳴動</t>
     <rPh sb="4" eb="6">
       <t>メイドウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>アラーム音が鳴る。</t>
@@ -3042,7 +3042,7 @@
     <rPh sb="6" eb="7">
       <t>ナ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．No.13の動作を行い、アラーム鳴動状態に移行する</t>
@@ -3061,7 +3061,7 @@
     <rPh sb="23" eb="25">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態”ALARM”、カウントが”00:30”*¹になり、
@@ -3078,7 +3078,7 @@
     <rPh sb="46" eb="48">
       <t>カイシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態”ALARM”、カウントが”00:30”、
@@ -3095,14 +3095,14 @@
     <rPh sb="40" eb="42">
       <t>カイシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>アラーム停止</t>
     <rPh sb="4" eb="6">
       <t>テイシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>アラーム音が止まる</t>
@@ -3112,7 +3112,7 @@
     <rPh sb="6" eb="7">
       <t>ト</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．No.13の動作を行い、アラーム鳴動状態に移行する
@@ -3135,7 +3135,7 @@
     <rPh sb="47" eb="48">
       <t>マ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>アラーム鳴動が停止され、
@@ -3152,7 +3152,7 @@
     <rPh sb="37" eb="39">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>アラーム鳴動停止、
@@ -3169,7 +3169,7 @@
     <rPh sb="34" eb="36">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．No.11の動作を行い、アラーム鳴動状態に移行する
@@ -3195,7 +3195,7 @@
     <rPh sb="36" eb="38">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態表示</t>
@@ -3205,11 +3205,11 @@
     <rPh sb="2" eb="4">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>LCDに状態が表示される。</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．No.1～No.13までの動作を行う</t>
@@ -3219,7 +3219,7 @@
     <rPh sb="18" eb="19">
       <t>オコナ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>LCD上段左側5~8マスに、状態の文字列が表示される</t>
@@ -3238,7 +3238,7 @@
     <rPh sb="21" eb="23">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>LCD上段左側5~8マスに状態の文字列表示</t>
@@ -3257,21 +3257,21 @@
     <rPh sb="19" eb="21">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>カウント表示</t>
     <rPh sb="4" eb="6">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>LCDにカウントが表示される。</t>
     <rPh sb="9" eb="11">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>2．No.22～No.51、No.52、No.53の動作を行う</t>
@@ -3281,7 +3281,7 @@
     <rPh sb="29" eb="30">
       <t>オコナ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>LCD下段右側5マスに、カウントの文字列が表示される</t>
@@ -3300,7 +3300,7 @@
     <rPh sb="21" eb="23">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>LCD下段右側5マスにカウントの文字列表示</t>
@@ -3319,7 +3319,7 @@
     <rPh sb="19" eb="21">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>切替設定表示</t>
@@ -3332,7 +3332,7 @@
     <rPh sb="4" eb="6">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>LCDにカウント切替設定が表示される。</t>
@@ -3345,7 +3345,7 @@
     <rPh sb="13" eb="15">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>3．No.13～No.21の動作を行う</t>
@@ -3355,7 +3355,7 @@
     <rPh sb="17" eb="18">
       <t>オコナ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>LCD上段右側3マスに、カウント単位の文字列が表示される</t>
@@ -3374,7 +3374,7 @@
     <rPh sb="23" eb="25">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>LCD上段右側3マスにカウント単位の文字列表示</t>
@@ -3393,14 +3393,14 @@
     <rPh sb="21" eb="23">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>＊カウントダウンの精度について　時間計測テストシート参照</t>
     <rPh sb="9" eb="11">
       <t>セイド</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>テスト項目数</t>
@@ -3410,7 +3410,7 @@
     <rPh sb="5" eb="6">
       <t>スウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>故障率</t>
@@ -3420,7 +3420,7 @@
     <rPh sb="2" eb="3">
       <t>リツ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>モグラ叩き機能テスト</t>
@@ -3430,18 +3430,18 @@
     <rPh sb="5" eb="7">
       <t>キノウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>関数</t>
     <rPh sb="0" eb="2">
       <t>カンスウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>void OutOfHole(void)</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>モグラの状態を「出現中」に変更する。</t>
@@ -3457,20 +3457,7 @@
     <rPh sb="13" eb="15">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>モグラの出現時間をランダムに決定する。</t>
-    <rPh sb="4" eb="6">
-      <t>シュツゲン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ケッテイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>画面遷移</t>
@@ -3480,7 +3467,7 @@
     <rPh sb="2" eb="4">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ゲームの画面状態を変更する。</t>
@@ -3493,7 +3480,7 @@
     <rPh sb="9" eb="11">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>画面状態が「難易度選択」になり、難易度文字列とハイスコアが表示される。</t>
@@ -3518,7 +3505,7 @@
     <rPh sb="29" eb="31">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．No.２の手順を行い、難易度選択画面に遷移する。
@@ -3544,7 +3531,7 @@
     <rPh sb="33" eb="35">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．No.1の手順を行い、タイトル画面に遷移する。
@@ -3564,7 +3551,7 @@
     <rPh sb="32" eb="34">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．No.３の手順を行い、HSクリア確認画面に遷移する。
@@ -3584,7 +3571,7 @@
     <rPh sb="42" eb="44">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>画面状態が「HSクリア確認」となり、「CLEAR HS？」等の文字列が表示される。</t>
@@ -3606,7 +3593,7 @@
     <rPh sb="35" eb="37">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>画面状態が「タイトル」になり、「モグラタタキ」文字列、モグラのイラストが3種類表示される</t>
@@ -3625,7 +3612,7 @@
     <rPh sb="39" eb="41">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．No.２の手順を行い、難易度選択画面に遷移する。
@@ -3651,7 +3638,7 @@
     <rPh sb="33" eb="35">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>画面状態が「ゲーム開始カウントダウン」となり、3の文字列が表示される。</t>
@@ -3667,7 +3654,7 @@
     <rPh sb="29" eb="31">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．No.5の手順を行い、ゲーム開始カウントダウン画面に遷移する。
@@ -3696,7 +3683,7 @@
     <rPh sb="53" eb="54">
       <t>マ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>画面状態が「ゲーム中」となり、画面1行目にスコアと残り時間、2行目にモグラの穴などが表示される。</t>
@@ -3733,7 +3720,7 @@
     <rPh sb="42" eb="44">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.6の手順を行い、ゲーム中画面に遷移する。
@@ -3762,7 +3749,7 @@
     <rPh sb="45" eb="46">
       <t>マ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>画面状態が「リザルト」となり、スコアとハイスコアが表示される。</t>
@@ -3775,7 +3762,7 @@
     <rPh sb="25" eb="27">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.7の手順を行い、リザルト画面に遷移する。
@@ -3795,7 +3782,7 @@
     <rPh sb="32" eb="34">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>難易度設定</t>
@@ -3805,7 +3792,7 @@
     <rPh sb="3" eb="5">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．No.２の手順を行い、難易度選択画面に遷移する。
@@ -3831,7 +3818,7 @@
     <rPh sb="33" eb="35">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>難易度が「EASY」となり、画面1行目に「EASY」、2行目に難易度EASYのハイスコアが表示される。</t>
@@ -3856,7 +3843,7 @@
     <rPh sb="45" eb="47">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．No.２の手順を行い、難易度選択画面に遷移する。
@@ -3882,7 +3869,7 @@
     <rPh sb="33" eb="35">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．No.2の手順を行い、難易度選択画面に遷移する。
@@ -3908,7 +3895,7 @@
     <rPh sb="33" eb="35">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>難易度が「NORMAL」となり、画面1行目に「NORMAL」、2行目に難易度NORMALのハイスコアが表示される。</t>
@@ -3933,7 +3920,7 @@
     <rPh sb="51" eb="53">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>難易度が「HARD」となり、画面1行目に「HARD」、2行目に難易度HARDのハイスコアが表示される。</t>
@@ -3958,11 +3945,11 @@
     <rPh sb="45" eb="47">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ハイスコアクリア</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>設定された難易度のハイスコアをクリアする。</t>
@@ -3972,7 +3959,7 @@
     <rPh sb="5" eb="8">
       <t>ナンイド</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ゲームの難易度を設定する。</t>
@@ -3982,7 +3969,7 @@
     <rPh sb="8" eb="10">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．No.３の手順を行い、HSクリア確認画面に遷移する。
@@ -4002,7 +3989,7 @@
     <rPh sb="35" eb="37">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>設定された難易度のハイスコアがクリアされ、難易度選択画面に遷移する。</t>
@@ -4024,14 +4011,14 @@
     <rPh sb="29" eb="31">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>LED更新</t>
     <rPh sb="3" eb="5">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ゲーム中に遷移したとき、LEDが6つ点灯し、残り時間が10秒減少するごとにLEDを1つ消灯する。</t>
@@ -4059,7 +4046,7 @@
     <rPh sb="43" eb="45">
       <t>ショウトウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．No.6の手順を行い、ゲーム中画面に遷移する。</t>
@@ -4078,14 +4065,14 @@
     <rPh sb="20" eb="22">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>LEDが6つ点灯される。</t>
     <rPh sb="6" eb="8">
       <t>テントウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.　の手順を行い、LEDを6つ点灯させる。
@@ -4108,7 +4095,7 @@
     <rPh sb="43" eb="45">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>残り時間が50,40…,10,00のとき、LEDが1つずつ消灯される。</t>
@@ -4121,11 +4108,11 @@
     <rPh sb="29" eb="31">
       <t>ショウトウ</t>
     </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>カウントダウン</t>
     <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>カウントダウン</t>
-    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>1秒に1ずつ残り時間(カウント)が減少する</t>
@@ -4141,7 +4128,7 @@
     <rPh sb="17" eb="19">
       <t>ゲンショウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．No.5の手順を行い、ゲーム開始カウントダウン画面に遷移する。
@@ -4176,7 +4163,7 @@
     <rPh sb="58" eb="60">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>残り時間が1秒に1減少する。</t>
@@ -4192,7 +4179,7 @@
     <rPh sb="9" eb="11">
       <t>ゲンショウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.6の手順を行い、ゲーム中画面に遷移する。
@@ -4230,14 +4217,14 @@
     <rPh sb="52" eb="53">
       <t>ニン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>モグラの処理</t>
     <rPh sb="4" eb="6">
       <t>ショリ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>モグラの状態を変更する</t>
@@ -4247,7 +4234,7 @@
     <rPh sb="7" eb="9">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．No.6の手順を行い、ゲーム中画面に遷移する。
@@ -4285,7 +4272,7 @@
     <rPh sb="62" eb="64">
       <t>サンショウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．No.6の手順を行い、ゲーム中画面に遷移する。
@@ -4326,7 +4313,7 @@
     <rPh sb="63" eb="65">
       <t>サンショウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>モグラの穴が4つ表示される。</t>
@@ -4336,7 +4323,7 @@
     <rPh sb="8" eb="10">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ランダムな時間、ランダムな位置にモグラが出現し、0.2~2.0秒経過するとモグラの穴に戻る。</t>
@@ -4361,7 +4348,7 @@
     <rPh sb="43" eb="44">
       <t>モド</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．No.6の手順を行い、ゲーム中画面に遷移する。
@@ -4406,7 +4393,7 @@
     <rPh sb="66" eb="68">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>モグラの撃退され、0.3秒経過後にモグラの穴に戻る。</t>
@@ -4428,25 +4415,25 @@
     <rPh sb="23" eb="24">
       <t>モド</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>スコア増加</t>
     <rPh sb="3" eb="5">
       <t>ゾウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>スコアを1増加する。</t>
     <rPh sb="5" eb="7">
       <t>ゾウカ</t>
     </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ペナルティ</t>
     <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ペナルティ</t>
-    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>残り時間を3秒減少させる。</t>
@@ -4462,7 +4449,7 @@
     <rPh sb="7" eb="9">
       <t>ゲンショウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．No.6の手順を行い、ゲーム中画面に遷移する。
@@ -4504,7 +4491,7 @@
     <rPh sb="64" eb="66">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>画面1行目のスコア(S)が1増加する。</t>
@@ -4520,7 +4507,7 @@
     <rPh sb="14" eb="16">
       <t>ゾウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>画面1行目の残り時間(T)が3減少する。</t>
@@ -4542,25 +4529,25 @@
     <rPh sb="15" eb="17">
       <t>ゲンショウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ハイスコア更新</t>
     <rPh sb="5" eb="7">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ブザー</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>SW検知</t>
     <rPh sb="2" eb="4">
       <t>ケンチ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>SWの入力を検知する。</t>
@@ -4570,7 +4557,7 @@
     <rPh sb="6" eb="8">
       <t>ケンチ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>選択された難易度のハイスコアを更新する。</t>
@@ -4583,14 +4570,14 @@
     <rPh sb="15" eb="17">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>BGMやSEを鳴らす。</t>
     <rPh sb="7" eb="8">
       <t>ナ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．タイトル画面に遷移する。
@@ -4610,7 +4597,7 @@
     <rPh sb="32" eb="34">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>難易度選択画面に遷移しない。</t>
@@ -4626,7 +4613,7 @@
     <rPh sb="8" eb="10">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ハイスコアがスコアの値に更新される。</t>
@@ -4636,7 +4623,7 @@
     <rPh sb="12" eb="14">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．No6の手順を行い、ゲーム中画面に遷移する。
@@ -4668,7 +4655,7 @@
     <rPh sb="49" eb="51">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ゲーム中、BGMが流れ続ける。</t>
@@ -4681,7 +4668,7 @@
     <rPh sb="11" eb="12">
       <t>ツヅ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.5の手順を行い、ゲーム開始カウントダウン画面に遷移する。
@@ -4710,7 +4697,7 @@
     <rPh sb="56" eb="58">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>残り時間が減少する度にSEが鳴る。</t>
@@ -4729,7 +4716,7 @@
     <rPh sb="14" eb="15">
       <t>ナ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>モグラ撃退時のSEが鳴る。</t>
@@ -4739,14 +4726,14 @@
     <rPh sb="10" eb="11">
       <t>ナ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ペナルティのSEが鳴る。</t>
     <rPh sb="9" eb="10">
       <t>ナ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ゲーム終了時のSEが鳴る。</t>
@@ -4759,7 +4746,7 @@
     <rPh sb="10" eb="11">
       <t>ナ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.5の手順を行い、ゲーム中画面に遷移する。
@@ -4804,7 +4791,7 @@
     <rPh sb="82" eb="84">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ゲーム終了時(ハイスコア更新ver)のSEが鳴る。</t>
@@ -4820,7 +4807,7 @@
     <rPh sb="22" eb="23">
       <t>ナ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．難易度選択画面に遷移する。
@@ -4853,7 +4840,7 @@
     <rPh sb="50" eb="52">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>難易度がEASYに変更されない。</t>
@@ -4863,7 +4850,7 @@
     <rPh sb="9" eb="11">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．難易度選択画面に遷移する。
@@ -4896,7 +4883,7 @@
     <rPh sb="52" eb="54">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．難易度選択画面に遷移する。
@@ -4929,7 +4916,7 @@
     <rPh sb="50" eb="52">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．難易度選択画面に遷移する。
@@ -4955,7 +4942,7 @@
     <rPh sb="33" eb="35">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>難易度がNORMALに変更されない。</t>
@@ -4965,7 +4952,7 @@
     <rPh sb="11" eb="13">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>難易度がHARDに変更されない。</t>
@@ -4975,7 +4962,7 @@
     <rPh sb="9" eb="11">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．難易度選択画面に遷移する。
@@ -5001,7 +4988,7 @@
     <rPh sb="33" eb="35">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>HSクリア確認画面に遷移しない。</t>
@@ -5014,7 +5001,7 @@
     <rPh sb="10" eb="12">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ゲーム開始カウントダウンに遷移しない。</t>
@@ -5024,7 +5011,7 @@
     <rPh sb="13" eb="15">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．リザルト画面に遷移する。
@@ -5044,7 +5031,7 @@
     <rPh sb="32" eb="34">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>タイトル画面に遷移しない。</t>
@@ -5054,14 +5041,14 @@
     <rPh sb="7" eb="9">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．No.20の手順を行い、モグラを撃退する。</t>
     <rPh sb="18" eb="20">
       <t>ゲキタイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1．No.20の手順2．3．を繰り返し、スコアを1ずつ増加させる。
@@ -5112,7 +5099,7 @@
     <rPh sb="118" eb="120">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.22の手順を行い、ペナルティを発生させる</t>
@@ -5125,7 +5112,7 @@
     <rPh sb="20" eb="22">
       <t>ハッセイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1．No.7の手順を行い、リザルト画面に遷移する。</t>
@@ -5135,7 +5122,7 @@
     <rPh sb="20" eb="22">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>テスト結果値</t>
@@ -5144,6 +5131,886 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>確認項目</t>
+    <rPh sb="0" eb="4">
+      <t>カクニンコウモク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>モグラの出現時間が200ms~2sで設定される</t>
+    <rPh sb="4" eb="6">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>モグラの状態に従って、スコア増加やペナルティが行われる。</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゾウカ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1．ゲーム中画面に遷移する。
+2．SW1～SW4のうち、任意のSWを同時押下する。</t>
+    <rPh sb="5" eb="6">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>void BackToHole(void)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>モグラの状態を「未出現」に変更する。</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ミシュツゲン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>モグラの状態が「出現中」になる</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>モグラの状態を「撃退中」に変更する。</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゲキタイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>モグラの表示時間をランダムに決定する。</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>モグラの表示時間を一定値に決定する。</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>モグラの状態が「未出現」になる</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ミシュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>モグラの状態が「撃退中」になる</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ゲキタイチュウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>モグラの表示時間が300msになる</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>void Attaked(void)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>bool PopDecision(void)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>残り時間によって出現判定値が変更されている</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>取得した乱数が一定のパターンになっていない</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ランスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イッテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>void Penalty(void)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>残り時間を3秒減少する。</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>残り時間が3減少する</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>残り時間が0を下回らない。</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シタマワ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>void IncScore</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>スコアが1増加する</t>
+    <rPh sb="5" eb="7">
+      <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>スコアは999を上回らない</t>
+    <rPh sb="8" eb="10">
+      <t>ウワマワ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>void SaveHighScore(void)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>選択中の難易度のハイスコアを更新、記録する</t>
+    <rPh sb="0" eb="3">
+      <t>センタクチュウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>選択中の難易度のハイスコアがスコアの値に更新される。</t>
+    <rPh sb="0" eb="3">
+      <t>センタクチュウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>選択していない難易度のハイスコアは変化しない</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>void SetLevel(uint8_t)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>難易度を変更する</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>引数が1で難易度がEASYになる。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ナンイド</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>引数が2で難易度がNORMALになる。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>引数が3で難易度がHARDになる。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ナンイド</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>画面状態を変更する</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>void ChangeState(uint8_t)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>引数が0で画面状態がTITLEになる。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>引数が1で画面状態がSELECT_LEVELになる</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>引数が2で画面状態がHS_CLEARになる</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>引数が3で画面状態がSTART_COUNT_DOWNになる</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ガメンジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>引数が4で画面状態がPLAING_GAMEになる</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>引数が5で画面状態がRESULTになる</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>引数を1~3以外の自然数としても、難易度が変更されない</t>
+    <rPh sb="6" eb="8">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>シゼンスウ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>引数を0~5以外の自然数としても、画面状態が変更されない</t>
+    <rPh sb="6" eb="8">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>シゼンスウ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ガメンジョウタイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>void WindowManager(void)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>void BGMManager(void)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>BGMに合わせて音の再生時間とPWMのデューティー比を変更する。</t>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>音の再生時間が変更される。</t>
+    <rPh sb="0" eb="1">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>PWMのデューティー比が変更される。</t>
+    <rPh sb="10" eb="11">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>void SEManager(void)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>SEに合わせて音の再生時間とPWMのデューティー比を変更する。</t>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>void CountDown</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1秒間隔で残り時間を1減少する</t>
+    <rPh sb="1" eb="2">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンカク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>残り時間が1秒に1減少される。</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>残り時間が0のとき、カウントが減少しない。</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>モグラの出現が判定されたとき、TRUEを返す</t>
+    <rPh sb="4" eb="6">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>それ以外のとき、FALSEを返す</t>
+    <rPh sb="2" eb="4">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ハイスコアは999を上回らない</t>
+    <rPh sb="10" eb="12">
+      <t>ウワマワ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>タイトル画面中、タイトル文字列とモグラのイラストが表示される</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>難易度選択画面中、難易度とハイスコアの文字列とハイスコアの数字文字列が表示される。</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>HSクリア確認画面中、クリア確認文字列が表示される</t>
+    <rPh sb="5" eb="9">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ゲーム開始カウントダウン中、残り時間(カウント)が表示される</t>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ゲーム中、スコア(S)と残り時間(T)、モグラのイラストが表示される</t>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>リザルト画面中、スコアとハイスコアの文字列と数値が表示される。</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>画面状態に応じた文字列を作成し、LCDに書き込む</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>他の画面状態のとき、文字列の作成とLCDへの書き込みを行わない。</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1．No.25の手順を行いゲーム中にBGMが流れていることを確認する。
+2．他の画面状態に遷移し、BGMが流れているか確認する。</t>
+    <rPh sb="8" eb="10">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ゲーム中以外はBGMが流れない。</t>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナガ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -5155,12 +6022,20 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5241,6 +6116,12 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -5256,7 +6137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -5400,175 +6281,195 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -5577,13 +6478,22 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5595,35 +6505,146 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8140,7 +9161,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -8148,11 +9169,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85CE931-9A0F-4209-B117-D9C0D8C16592}">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A20" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H9" sqref="H9"/>
+      <selection pane="topRight" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -8208,8 +9229,8 @@
       <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="71" t="s">
-        <v>315</v>
+      <c r="H3" s="70" t="s">
+        <v>314</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>10</v>
@@ -8235,16 +9256,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="56" t="s">
         <v>228</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>229</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="59" t="s">
-        <v>235</v>
+      <c r="F4" s="58" t="s">
+        <v>234</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="9"/>
@@ -8261,11 +9282,11 @@
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="60" t="s">
-        <v>232</v>
-      </c>
-      <c r="F5" s="60" t="s">
-        <v>230</v>
+      <c r="E5" s="59" t="s">
+        <v>231</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>229</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="15"/>
@@ -8282,11 +9303,11 @@
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="60" t="s">
-        <v>231</v>
-      </c>
-      <c r="F6" s="60" t="s">
-        <v>234</v>
+      <c r="E6" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>233</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="15"/>
@@ -8303,11 +9324,11 @@
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="60" t="s">
-        <v>233</v>
-      </c>
-      <c r="F7" s="60" t="s">
-        <v>230</v>
+      <c r="E7" s="59" t="s">
+        <v>232</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>229</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="15"/>
@@ -8324,11 +9345,11 @@
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="F8" s="59" t="s">
         <v>236</v>
-      </c>
-      <c r="F8" s="60" t="s">
-        <v>237</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="15"/>
@@ -8345,11 +9366,11 @@
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="59" t="s">
+        <v>237</v>
+      </c>
+      <c r="F9" s="59" t="s">
         <v>238</v>
-      </c>
-      <c r="F9" s="60" t="s">
-        <v>239</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="15"/>
@@ -8366,11 +9387,11 @@
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="14"/>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="F10" s="59" t="s">
         <v>240</v>
-      </c>
-      <c r="F10" s="60" t="s">
-        <v>241</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="15"/>
@@ -8387,11 +9408,11 @@
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="20"/>
-      <c r="E11" s="61" t="s">
-        <v>242</v>
-      </c>
-      <c r="F11" s="61" t="s">
-        <v>235</v>
+      <c r="E11" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>234</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="21"/>
@@ -8407,16 +9428,16 @@
         <v>9</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="E12" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="D12" s="57" t="s">
-        <v>252</v>
-      </c>
-      <c r="E12" s="59" t="s">
+      <c r="F12" s="58" t="s">
         <v>244</v>
-      </c>
-      <c r="F12" s="59" t="s">
-        <v>245</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="8"/>
@@ -8433,11 +9454,11 @@
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="60" t="s">
-        <v>246</v>
-      </c>
-      <c r="F13" s="60" t="s">
-        <v>248</v>
+      <c r="E13" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="F13" s="59" t="s">
+        <v>247</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="15"/>
@@ -8454,11 +9475,11 @@
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="20"/>
-      <c r="E14" s="61" t="s">
-        <v>247</v>
-      </c>
-      <c r="F14" s="61" t="s">
-        <v>249</v>
+      <c r="E14" s="60" t="s">
+        <v>246</v>
+      </c>
+      <c r="F14" s="60" t="s">
+        <v>248</v>
       </c>
       <c r="G14" s="22"/>
       <c r="H14" s="20"/>
@@ -8474,16 +9495,16 @@
         <v>12</v>
       </c>
       <c r="C15" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="D15" s="57" t="s">
         <v>261</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="E15" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="E15" s="59" t="s">
+      <c r="F15" s="58" t="s">
         <v>263</v>
-      </c>
-      <c r="F15" s="59" t="s">
-        <v>264</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="9"/>
@@ -8499,12 +9520,12 @@
         <v>13</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="61" t="s">
-        <v>265</v>
-      </c>
-      <c r="F16" s="61" t="s">
+      <c r="D16" s="57"/>
+      <c r="E16" s="60" t="s">
         <v>264</v>
+      </c>
+      <c r="F16" s="60" t="s">
+        <v>263</v>
       </c>
       <c r="G16" s="22"/>
       <c r="H16" s="21"/>
@@ -8520,16 +9541,16 @@
         <v>14</v>
       </c>
       <c r="C17" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="D17" s="56" t="s">
         <v>250</v>
       </c>
-      <c r="D17" s="57" t="s">
-        <v>251</v>
-      </c>
-      <c r="E17" s="59" t="s">
+      <c r="E17" s="58" t="s">
+        <v>252</v>
+      </c>
+      <c r="F17" s="58" t="s">
         <v>253</v>
-      </c>
-      <c r="F17" s="59" t="s">
-        <v>254</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="9"/>
@@ -8545,12 +9566,12 @@
         <v>15</v>
       </c>
       <c r="C18" s="19"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="61" t="s">
+      <c r="D18" s="61"/>
+      <c r="E18" s="60" t="s">
+        <v>252</v>
+      </c>
+      <c r="F18" s="60" t="s">
         <v>253</v>
-      </c>
-      <c r="F18" s="61" t="s">
-        <v>254</v>
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="21"/>
@@ -8566,16 +9587,16 @@
         <v>16</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D19" s="56" t="s">
         <v>255</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="E19" s="67" t="s">
         <v>256</v>
       </c>
-      <c r="E19" s="68" t="s">
+      <c r="F19" s="67" t="s">
         <v>257</v>
-      </c>
-      <c r="F19" s="68" t="s">
-        <v>258</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="9"/>
@@ -8590,13 +9611,13 @@
       <c r="B20" s="6">
         <v>17</v>
       </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="61" t="s">
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="F20" s="60" t="s">
         <v>259</v>
-      </c>
-      <c r="F20" s="61" t="s">
-        <v>260</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="21"/>
@@ -8612,16 +9633,16 @@
         <v>18</v>
       </c>
       <c r="C21" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D21" s="57" t="s">
         <v>266</v>
       </c>
-      <c r="D21" s="58" t="s">
-        <v>267</v>
-      </c>
-      <c r="E21" s="59" t="s">
+      <c r="E21" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="F21" s="58" t="s">
         <v>269</v>
-      </c>
-      <c r="F21" s="59" t="s">
-        <v>270</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="9"/>
@@ -8638,11 +9659,11 @@
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
-      <c r="E22" s="60" t="s">
-        <v>268</v>
-      </c>
-      <c r="F22" s="60" t="s">
-        <v>271</v>
+      <c r="E22" s="59" t="s">
+        <v>267</v>
+      </c>
+      <c r="F22" s="59" t="s">
+        <v>270</v>
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="15"/>
@@ -8657,13 +9678,13 @@
       <c r="B23" s="6">
         <v>20</v>
       </c>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="61" t="s">
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="60" t="s">
+        <v>271</v>
+      </c>
+      <c r="F23" s="60" t="s">
         <v>272</v>
-      </c>
-      <c r="F23" s="61" t="s">
-        <v>273</v>
       </c>
       <c r="G23" s="22"/>
       <c r="H23" s="21"/>
@@ -8679,16 +9700,16 @@
         <v>21</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D24" s="56" t="s">
         <v>274</v>
       </c>
-      <c r="D24" s="57" t="s">
-        <v>275</v>
-      </c>
-      <c r="E24" s="63" t="s">
-        <v>311</v>
-      </c>
-      <c r="F24" s="59" t="s">
-        <v>279</v>
+      <c r="E24" s="62" t="s">
+        <v>310</v>
+      </c>
+      <c r="F24" s="58" t="s">
+        <v>278</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="9"/>
@@ -8704,16 +9725,16 @@
         <v>22</v>
       </c>
       <c r="C25" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="D25" s="66" t="s">
         <v>276</v>
       </c>
-      <c r="D25" s="67" t="s">
+      <c r="E25" s="59" t="s">
         <v>277</v>
       </c>
-      <c r="E25" s="60" t="s">
-        <v>278</v>
-      </c>
-      <c r="F25" s="60" t="s">
-        <v>280</v>
+      <c r="F25" s="59" t="s">
+        <v>279</v>
       </c>
       <c r="G25" s="16"/>
       <c r="H25" s="15"/>
@@ -8729,16 +9750,16 @@
         <v>23</v>
       </c>
       <c r="C26" s="44" t="s">
-        <v>281</v>
-      </c>
-      <c r="D26" s="67" t="s">
-        <v>285</v>
-      </c>
-      <c r="E26" s="69" t="s">
-        <v>312</v>
-      </c>
-      <c r="F26" s="65" t="s">
-        <v>289</v>
+        <v>280</v>
+      </c>
+      <c r="D26" s="66" t="s">
+        <v>284</v>
+      </c>
+      <c r="E26" s="68" t="s">
+        <v>311</v>
+      </c>
+      <c r="F26" s="64" t="s">
+        <v>288</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="21"/>
@@ -8754,16 +9775,16 @@
         <v>24</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>282</v>
-      </c>
-      <c r="D27" s="57" t="s">
-        <v>286</v>
-      </c>
-      <c r="E27" s="63" t="s">
+        <v>281</v>
+      </c>
+      <c r="D27" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="E27" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="F27" s="69" t="s">
         <v>292</v>
-      </c>
-      <c r="F27" s="70" t="s">
-        <v>293</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="9"/>
@@ -8779,12 +9800,12 @@
         <v>25</v>
       </c>
       <c r="C28" s="13"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="64" t="s">
+      <c r="D28" s="57"/>
+      <c r="E28" s="63" t="s">
+        <v>289</v>
+      </c>
+      <c r="F28" s="63" t="s">
         <v>290</v>
-      </c>
-      <c r="F28" s="64" t="s">
-        <v>291</v>
       </c>
       <c r="G28" s="16"/>
       <c r="H28" s="15"/>
@@ -8795,17 +9816,17 @@
       <c r="M28" s="17"/>
       <c r="N28" s="15"/>
     </row>
-    <row r="29" spans="2:14" ht="20.5" thickBot="1">
+    <row r="29" spans="2:14" ht="54.5" thickBot="1">
       <c r="B29" s="6">
         <v>26</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="64" t="s">
-        <v>311</v>
-      </c>
-      <c r="F29" s="64" t="s">
-        <v>294</v>
+      <c r="D29" s="57"/>
+      <c r="E29" s="71" t="s">
+        <v>381</v>
+      </c>
+      <c r="F29" s="71" t="s">
+        <v>382</v>
       </c>
       <c r="G29" s="16"/>
       <c r="H29" s="15"/>
@@ -8821,12 +9842,12 @@
         <v>27</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="64" t="s">
-        <v>313</v>
-      </c>
-      <c r="F30" s="64" t="s">
-        <v>295</v>
+      <c r="D30" s="57"/>
+      <c r="E30" s="63" t="s">
+        <v>310</v>
+      </c>
+      <c r="F30" s="63" t="s">
+        <v>293</v>
       </c>
       <c r="G30" s="16"/>
       <c r="H30" s="15"/>
@@ -8842,12 +9863,12 @@
         <v>28</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="64" t="s">
-        <v>314</v>
-      </c>
-      <c r="F31" s="64" t="s">
-        <v>296</v>
+      <c r="D31" s="57"/>
+      <c r="E31" s="63" t="s">
+        <v>312</v>
+      </c>
+      <c r="F31" s="63" t="s">
+        <v>294</v>
       </c>
       <c r="G31" s="16"/>
       <c r="H31" s="15"/>
@@ -8858,72 +9879,72 @@
       <c r="M31" s="17"/>
       <c r="N31" s="15"/>
     </row>
-    <row r="32" spans="2:14" ht="74.5" customHeight="1" thickBot="1">
+    <row r="32" spans="2:14" ht="20.5" thickBot="1">
       <c r="B32" s="6">
         <v>29</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="65" t="s">
-        <v>297</v>
-      </c>
-      <c r="F32" s="65" t="s">
-        <v>298</v>
-      </c>
-      <c r="G32" s="22"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="21"/>
-    </row>
-    <row r="33" spans="2:14" ht="36.5" thickBot="1">
+      <c r="C32" s="13"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="63" t="s">
+        <v>313</v>
+      </c>
+      <c r="F32" s="63" t="s">
+        <v>295</v>
+      </c>
+      <c r="G32" s="16"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="15"/>
+    </row>
+    <row r="33" spans="2:14" ht="74.5" customHeight="1" thickBot="1">
       <c r="B33" s="6">
         <v>30</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="D33" s="57" t="s">
-        <v>284</v>
-      </c>
-      <c r="E33" s="63" t="s">
-        <v>287</v>
-      </c>
-      <c r="F33" s="63" t="s">
-        <v>288</v>
-      </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="9"/>
-    </row>
-    <row r="34" spans="2:14" ht="54.5" thickBot="1">
+      <c r="C33" s="19"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="F33" s="64" t="s">
+        <v>297</v>
+      </c>
+      <c r="G33" s="22"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="21"/>
+    </row>
+    <row r="34" spans="2:14" ht="36.5" thickBot="1">
       <c r="B34" s="6">
         <v>31</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="64" t="s">
-        <v>299</v>
-      </c>
-      <c r="F34" s="64" t="s">
-        <v>300</v>
-      </c>
-      <c r="G34" s="16"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="15"/>
+      <c r="C34" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D34" s="56" t="s">
+        <v>283</v>
+      </c>
+      <c r="E34" s="62" t="s">
+        <v>286</v>
+      </c>
+      <c r="F34" s="62" t="s">
+        <v>287</v>
+      </c>
+      <c r="G34" s="10"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="9"/>
     </row>
     <row r="35" spans="2:14" ht="54.5" thickBot="1">
       <c r="B35" s="6">
@@ -8931,11 +9952,11 @@
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="64" t="s">
-        <v>301</v>
-      </c>
-      <c r="F35" s="64" t="s">
-        <v>304</v>
+      <c r="E35" s="63" t="s">
+        <v>298</v>
+      </c>
+      <c r="F35" s="63" t="s">
+        <v>299</v>
       </c>
       <c r="G35" s="16"/>
       <c r="H35" s="15"/>
@@ -8952,11 +9973,11 @@
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="64" t="s">
-        <v>302</v>
-      </c>
-      <c r="F36" s="64" t="s">
-        <v>305</v>
+      <c r="E36" s="63" t="s">
+        <v>300</v>
+      </c>
+      <c r="F36" s="63" t="s">
+        <v>303</v>
       </c>
       <c r="G36" s="16"/>
       <c r="H36" s="15"/>
@@ -8967,21 +9988,21 @@
       <c r="M36" s="17"/>
       <c r="N36" s="15"/>
     </row>
-    <row r="37" spans="2:14" ht="36.5" thickBot="1">
+    <row r="37" spans="2:14" ht="54.5" thickBot="1">
       <c r="B37" s="6">
         <v>34</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="64" t="s">
-        <v>303</v>
-      </c>
-      <c r="F37" s="64" t="s">
-        <v>307</v>
+      <c r="E37" s="63" t="s">
+        <v>301</v>
+      </c>
+      <c r="F37" s="63" t="s">
+        <v>304</v>
       </c>
       <c r="G37" s="16"/>
       <c r="H37" s="15"/>
-      <c r="I37" s="17"/>
+      <c r="I37" s="35"/>
       <c r="J37" s="15"/>
       <c r="K37" s="16"/>
       <c r="L37" s="15"/>
@@ -8994,11 +10015,11 @@
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="64" t="s">
+      <c r="E38" s="63" t="s">
+        <v>302</v>
+      </c>
+      <c r="F38" s="63" t="s">
         <v>306</v>
-      </c>
-      <c r="F38" s="64" t="s">
-        <v>308</v>
       </c>
       <c r="G38" s="16"/>
       <c r="H38" s="15"/>
@@ -9013,92 +10034,137 @@
       <c r="B39" s="6">
         <v>36</v>
       </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="65" t="s">
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="63" t="s">
+        <v>305</v>
+      </c>
+      <c r="F39" s="63" t="s">
+        <v>307</v>
+      </c>
+      <c r="G39" s="16"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="15"/>
+    </row>
+    <row r="40" spans="2:14" ht="36.5" thickBot="1">
+      <c r="B40" s="6">
+        <v>37</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="72" t="s">
+        <v>308</v>
+      </c>
+      <c r="F40" s="72" t="s">
         <v>309</v>
       </c>
-      <c r="F39" s="65" t="s">
-        <v>310</v>
-      </c>
-      <c r="G39" s="22"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="21"/>
-    </row>
-    <row r="41" spans="2:14" ht="22.5">
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="E41" s="50"/>
-      <c r="H41" s="51" t="s">
+      <c r="G40" s="25"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="38"/>
+    </row>
+    <row r="41" spans="2:14" ht="36.5" thickBot="1">
+      <c r="B41" s="6">
+        <v>38</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="73" t="s">
+        <v>319</v>
+      </c>
+      <c r="F41" s="74" t="s">
+        <v>318</v>
+      </c>
+      <c r="G41" s="22"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="21"/>
+    </row>
+    <row r="42" spans="2:14">
+      <c r="B42" s="111"/>
+    </row>
+    <row r="43" spans="2:14" ht="22.5">
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="E43" s="50"/>
+      <c r="H43" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="I41" s="3">
-        <f>COUNTA(I4:I39)</f>
+      <c r="I43" s="3">
+        <f>COUNTA(I4:I41)</f>
         <v>0</v>
       </c>
-      <c r="L41" s="51" t="s">
+      <c r="L43" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="M41" s="3">
-        <f>COUNTA(M4:M39)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14">
-      <c r="H42" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="I42" s="3">
-        <f>COUNTIF(I4:I39,"〇")</f>
-        <v>0</v>
-      </c>
-      <c r="L42" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="M42" s="3">
-        <f>COUNTIF(M4:M39,"〇")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14">
-      <c r="H43" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="I43" s="3">
-        <f>COUNTIF(I4:I39,"✖")</f>
-        <v>0</v>
-      </c>
-      <c r="L43" s="53" t="s">
-        <v>68</v>
-      </c>
       <c r="M43" s="3">
-        <f>COUNTIF(M4:M39,"✖")</f>
+        <f>COUNTA(M4:M41)</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:14">
       <c r="H44" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="3">
+        <f>COUNTIF(I4:I41,"〇")</f>
+        <v>0</v>
+      </c>
+      <c r="L44" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="M44" s="3">
+        <f>COUNTIF(M4:M41,"〇")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14">
+      <c r="H45" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="I45" s="3">
+        <f>COUNTIF(I4:I41,"✖")</f>
+        <v>0</v>
+      </c>
+      <c r="L45" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="M45" s="3">
+        <f>COUNTIF(M4:M41,"✖")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14">
+      <c r="H46" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="I44" s="54" t="e">
-        <f>I43/I41</f>
+      <c r="I46" s="54" t="e">
+        <f>I45/I43</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L44" s="52" t="s">
+      <c r="L46" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="M44" s="55" t="e">
-        <f>M43/M41</f>
+      <c r="M46" s="55" t="e">
+        <f>M45/M43</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -9106,11 +10172,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC3B0F4-38B8-4D50-B22F-81976C94C56C}">
-  <dimension ref="A1:N69"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="6" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E4" sqref="E4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -9119,16 +10185,16 @@
     <col min="2" max="2" width="4.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="29.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="48.4140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="56.58203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="54.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="66.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.75" style="2" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="11.58203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="49.58203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.25" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="3" customWidth="1"/>
     <col min="10" max="10" width="33.08203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="49.58203125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.25" style="3" customWidth="1"/>
-    <col min="14" max="14" width="49.58203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="49.58203125" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11.25" style="3" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="49.58203125" style="2" hidden="1" customWidth="1"/>
     <col min="15" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
@@ -9147,2201 +10213,1302 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="18.5" thickBot="1"/>
-    <row r="3" spans="1:14" ht="18.5" thickBot="1">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:14" ht="20.5" thickBot="1">
+      <c r="B3" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="77" t="s">
         <v>224</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="D3" s="77" t="s">
+        <v>315</v>
+      </c>
+      <c r="E3" s="77" t="s">
+        <v>316</v>
+      </c>
+      <c r="F3" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="78" t="s">
+        <v>314</v>
+      </c>
+      <c r="I3" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="78" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="20.5" thickBot="1">
-      <c r="B4" s="6">
+      <c r="B4" s="79">
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="82" t="s">
+        <v>317</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="84"/>
+    </row>
+    <row r="5" spans="1:14" ht="20.5" thickBot="1">
+      <c r="B5" s="79">
+        <v>2</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="98" t="s">
+        <v>324</v>
+      </c>
+      <c r="E5" s="92" t="s">
+        <v>322</v>
+      </c>
+      <c r="F5" s="92"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="87"/>
+    </row>
+    <row r="6" spans="1:14" ht="20.5" thickBot="1">
+      <c r="B6" s="79">
+        <v>3</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="D6" s="102" t="s">
+        <v>321</v>
+      </c>
+      <c r="E6" s="102" t="s">
+        <v>326</v>
+      </c>
+      <c r="F6" s="103"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="90"/>
+    </row>
+    <row r="7" spans="1:14" ht="20.5" thickBot="1">
+      <c r="B7" s="79">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="E7" s="82" t="s">
+        <v>327</v>
+      </c>
+      <c r="F7" s="82"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="87"/>
+    </row>
+    <row r="8" spans="1:14" ht="20.5" thickBot="1">
+      <c r="B8" s="79">
+        <v>5</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="98" t="s">
+        <v>325</v>
+      </c>
+      <c r="E8" s="92" t="s">
+        <v>328</v>
+      </c>
+      <c r="F8" s="92"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="87"/>
+    </row>
+    <row r="9" spans="1:14" ht="20.5" thickBot="1">
+      <c r="B9" s="79">
+        <v>6</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>330</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="E9" s="82" t="s">
+        <v>331</v>
+      </c>
+      <c r="F9" s="107"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="87"/>
+    </row>
+    <row r="10" spans="1:14" ht="20.5" thickBot="1">
+      <c r="B10" s="79">
+        <v>7</v>
+      </c>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98" t="s">
+        <v>371</v>
+      </c>
+      <c r="E10" s="92" t="s">
+        <v>332</v>
+      </c>
+      <c r="F10" s="95"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="87"/>
+    </row>
+    <row r="11" spans="1:14" ht="20.5" thickBot="1">
+      <c r="B11" s="79">
+        <v>8</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>333</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="E11" s="82" t="s">
+        <v>335</v>
+      </c>
+      <c r="F11" s="82"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="87"/>
+    </row>
+    <row r="12" spans="1:14" ht="20.5" thickBot="1">
+      <c r="B12" s="79">
+        <v>9</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="92" t="s">
+        <v>336</v>
+      </c>
+      <c r="F12" s="92"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="87"/>
+    </row>
+    <row r="13" spans="1:14" ht="20.5" thickBot="1">
+      <c r="B13" s="79">
+        <v>10</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>337</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E13" s="82" t="s">
+        <v>338</v>
+      </c>
+      <c r="F13" s="82"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="87"/>
+    </row>
+    <row r="14" spans="1:14" ht="20.5" thickBot="1">
+      <c r="B14" s="79">
+        <v>11</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="92" t="s">
+        <v>339</v>
+      </c>
+      <c r="F14" s="92"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="87"/>
+    </row>
+    <row r="15" spans="1:14" ht="20.5" thickBot="1">
+      <c r="B15" s="79">
+        <v>12</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>340</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="E15" s="82" t="s">
+        <v>342</v>
+      </c>
+      <c r="F15" s="82"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="87"/>
+    </row>
+    <row r="16" spans="1:14" ht="20.5" thickBot="1">
+      <c r="B16" s="79">
+        <v>13</v>
+      </c>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="87" t="s">
+        <v>343</v>
+      </c>
+      <c r="F16" s="75"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="87"/>
+    </row>
+    <row r="17" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B17" s="79"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="95" t="s">
+        <v>372</v>
+      </c>
+      <c r="F17" s="92"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="87"/>
+    </row>
+    <row r="18" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B18" s="79">
+        <v>14</v>
+      </c>
+      <c r="C18" s="110" t="s">
+        <v>344</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="E18" s="82" t="s">
+        <v>346</v>
+      </c>
+      <c r="F18" s="82"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="87"/>
+    </row>
+    <row r="19" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B19" s="79">
         <v>15</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="75" t="s">
+        <v>347</v>
+      </c>
+      <c r="F19" s="75"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="87"/>
+    </row>
+    <row r="20" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B20" s="79">
         <v>16</v>
       </c>
-      <c r="G4" s="10">
-        <v>44049</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="C20" s="97"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="75" t="s">
+        <v>348</v>
+      </c>
+      <c r="F20" s="75"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="87"/>
+    </row>
+    <row r="21" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B21" s="79">
         <v>17</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="10">
-        <v>44050</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="12"/>
-    </row>
-    <row r="5" spans="1:14" ht="36.5" thickBot="1">
-      <c r="B5" s="6">
-        <v>2</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="58" t="s">
-        <v>227</v>
-      </c>
-      <c r="E5" s="15" t="s">
+      <c r="C21" s="109"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="95" t="s">
+        <v>357</v>
+      </c>
+      <c r="F21" s="92"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="87"/>
+    </row>
+    <row r="22" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B22" s="79">
+        <v>18</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E22" s="82" t="s">
+        <v>351</v>
+      </c>
+      <c r="F22" s="82"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="75"/>
+    </row>
+    <row r="23" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B23" s="79">
         <v>19</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="18"/>
-    </row>
-    <row r="6" spans="1:14" ht="54.5" thickBot="1">
-      <c r="B6" s="6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15" t="s">
+      <c r="C23" s="13"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="75" t="s">
+        <v>352</v>
+      </c>
+      <c r="F23" s="75"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="87"/>
+    </row>
+    <row r="24" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B24" s="79">
         <v>20</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" s="18"/>
-    </row>
-    <row r="7" spans="1:14" ht="54.5" thickBot="1">
-      <c r="B7" s="6">
-        <v>4</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15" t="s">
+      <c r="C24" s="13"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="75" t="s">
+        <v>353</v>
+      </c>
+      <c r="F24" s="75"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="87"/>
+    </row>
+    <row r="25" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B25" s="79">
         <v>21</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="18"/>
-      <c r="K7" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" s="18"/>
-    </row>
-    <row r="8" spans="1:14" ht="36.5" thickBot="1">
-      <c r="B8" s="6">
-        <v>5</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21" t="s">
+      <c r="C25" s="13"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="87" t="s">
+        <v>354</v>
+      </c>
+      <c r="F25" s="75"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="87"/>
+    </row>
+    <row r="26" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B26" s="79">
         <v>22</v>
       </c>
-      <c r="F8" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="22">
-        <v>44049</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="25">
-        <v>44050</v>
-      </c>
-      <c r="L8" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" s="24"/>
-    </row>
-    <row r="9" spans="1:14" ht="36.5" thickBot="1">
-      <c r="B9" s="6">
-        <v>6</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="C26" s="13"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="75" t="s">
+        <v>355</v>
+      </c>
+      <c r="F26" s="75"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="87"/>
+    </row>
+    <row r="27" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B27" s="79">
         <v>23</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="C27" s="13"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="75" t="s">
+        <v>356</v>
+      </c>
+      <c r="F27" s="75"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="87"/>
+    </row>
+    <row r="28" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B28" s="79">
         <v>24</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="C28" s="19"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="92" t="s">
+        <v>358</v>
+      </c>
+      <c r="F28" s="92"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="87"/>
+    </row>
+    <row r="29" spans="2:14" ht="39.5" customHeight="1" thickBot="1">
+      <c r="B29" s="79">
         <v>25</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="C29" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="E29" s="82" t="s">
+        <v>373</v>
+      </c>
+      <c r="F29" s="82"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="87"/>
+    </row>
+    <row r="30" spans="2:14" ht="40.5" thickBot="1">
+      <c r="B30" s="79">
         <v>26</v>
       </c>
-      <c r="G9" s="10">
-        <v>44049</v>
-      </c>
-      <c r="H9" s="8" t="s">
+      <c r="C30" s="13"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="75" t="s">
+        <v>374</v>
+      </c>
+      <c r="F30" s="75"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="86"/>
+      <c r="N30" s="87"/>
+    </row>
+    <row r="31" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B31" s="79">
         <v>27</v>
       </c>
-      <c r="I9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="10">
-        <v>44050</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" s="12"/>
-    </row>
-    <row r="10" spans="1:14" ht="36.5" thickBot="1">
-      <c r="B10" s="6">
-        <v>7</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15" t="s">
+      <c r="C31" s="13"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="75" t="s">
+        <v>375</v>
+      </c>
+      <c r="F31" s="75"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="75"/>
+      <c r="M31" s="86"/>
+      <c r="N31" s="87"/>
+    </row>
+    <row r="32" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B32" s="79">
         <v>28</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="C32" s="13"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="75" t="s">
+        <v>376</v>
+      </c>
+      <c r="F32" s="75"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="87"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="87"/>
+    </row>
+    <row r="33" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B33" s="79">
         <v>29</v>
       </c>
-      <c r="G10" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H10" s="15" t="s">
+      <c r="C33" s="13"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="75" t="s">
+        <v>377</v>
+      </c>
+      <c r="F33" s="75"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="85"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="87"/>
+    </row>
+    <row r="34" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B34" s="79">
         <v>30</v>
       </c>
-      <c r="I10" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N10" s="18"/>
-    </row>
-    <row r="11" spans="1:14" ht="36.5" thickBot="1">
-      <c r="B11" s="6">
-        <v>8</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20" t="s">
+      <c r="C34" s="13"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="75" t="s">
+        <v>378</v>
+      </c>
+      <c r="F34" s="75"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="86"/>
+      <c r="N34" s="87"/>
+    </row>
+    <row r="35" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B35" s="79">
         <v>31</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="C35" s="19"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="92" t="s">
+        <v>380</v>
+      </c>
+      <c r="F35" s="92"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="86"/>
+      <c r="N35" s="87"/>
+    </row>
+    <row r="36" spans="2:14" ht="40.5" thickBot="1">
+      <c r="B36" s="79">
         <v>32</v>
       </c>
-      <c r="G11" s="22">
-        <v>44049</v>
-      </c>
-      <c r="H11" s="20" t="s">
+      <c r="C36" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="E36" s="82" t="s">
+        <v>362</v>
+      </c>
+      <c r="F36" s="82"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="83"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="85"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="86"/>
+      <c r="N36" s="87"/>
+    </row>
+    <row r="37" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B37" s="79">
         <v>33</v>
       </c>
-      <c r="I11" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="22">
-        <v>44050</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" s="24"/>
-    </row>
-    <row r="12" spans="1:14" ht="36.5" thickBot="1">
-      <c r="B12" s="6">
-        <v>9</v>
-      </c>
-      <c r="C12" s="27" t="s">
+      <c r="C37" s="19"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="92" t="s">
+        <v>363</v>
+      </c>
+      <c r="F37" s="92"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="94"/>
+      <c r="J37" s="95"/>
+      <c r="K37" s="85"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="86"/>
+      <c r="N37" s="87"/>
+    </row>
+    <row r="38" spans="2:14" ht="40.5" thickBot="1">
+      <c r="B38" s="79">
         <v>34</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="C38" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E38" s="82" t="s">
+        <v>362</v>
+      </c>
+      <c r="F38" s="82"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="82"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="84"/>
+      <c r="K38" s="85"/>
+      <c r="L38" s="75"/>
+      <c r="M38" s="86"/>
+      <c r="N38" s="87"/>
+    </row>
+    <row r="39" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B39" s="79">
         <v>35</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="C39" s="19"/>
+      <c r="D39" s="98"/>
+      <c r="E39" s="92" t="s">
+        <v>363</v>
+      </c>
+      <c r="F39" s="92"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="94"/>
+      <c r="J39" s="95"/>
+      <c r="K39" s="85"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="86"/>
+      <c r="N39" s="87"/>
+    </row>
+    <row r="40" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B40" s="79">
         <v>36</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="C40" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="E40" s="82" t="s">
+        <v>368</v>
+      </c>
+      <c r="F40" s="82"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="82"/>
+      <c r="I40" s="83"/>
+      <c r="J40" s="84"/>
+      <c r="K40" s="85"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="86"/>
+      <c r="N40" s="87"/>
+    </row>
+    <row r="41" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B41" s="79">
         <v>37</v>
       </c>
-      <c r="G12" s="10">
-        <v>44049</v>
-      </c>
-      <c r="H12" s="29" t="s">
+      <c r="C41" s="19"/>
+      <c r="D41" s="98"/>
+      <c r="E41" s="92" t="s">
+        <v>369</v>
+      </c>
+      <c r="F41" s="92"/>
+      <c r="G41" s="93"/>
+      <c r="H41" s="92"/>
+      <c r="I41" s="94"/>
+      <c r="J41" s="95"/>
+      <c r="K41" s="85"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="86"/>
+      <c r="N41" s="87"/>
+    </row>
+    <row r="42" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B42" s="79">
         <v>38</v>
       </c>
-      <c r="I12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="30"/>
-      <c r="K12" s="31">
-        <v>44050</v>
-      </c>
-      <c r="L12" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N12" s="30"/>
-    </row>
-    <row r="13" spans="1:14" ht="54.5" thickBot="1">
-      <c r="B13" s="6">
-        <v>10</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="C42" s="27"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="99"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="100"/>
+      <c r="J42" s="101"/>
+      <c r="K42" s="85"/>
+      <c r="L42" s="75"/>
+      <c r="M42" s="86"/>
+      <c r="N42" s="87"/>
+    </row>
+    <row r="43" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B43" s="79">
         <v>39</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="C43" s="32"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="87"/>
+      <c r="K43" s="85"/>
+      <c r="L43" s="75"/>
+      <c r="M43" s="86"/>
+      <c r="N43" s="87"/>
+    </row>
+    <row r="44" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B44" s="79">
         <v>40</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="C44" s="32"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="86"/>
+      <c r="J44" s="87"/>
+      <c r="K44" s="85"/>
+      <c r="L44" s="75"/>
+      <c r="M44" s="86"/>
+      <c r="N44" s="87"/>
+    </row>
+    <row r="45" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B45" s="79">
         <v>41</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="C45" s="32"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="75"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="85"/>
+      <c r="H45" s="75"/>
+      <c r="I45" s="86"/>
+      <c r="J45" s="87"/>
+      <c r="K45" s="85"/>
+      <c r="L45" s="75"/>
+      <c r="M45" s="86"/>
+      <c r="N45" s="87"/>
+    </row>
+    <row r="46" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B46" s="79">
         <v>42</v>
       </c>
-      <c r="G13" s="10">
-        <v>44049</v>
-      </c>
-      <c r="H13" s="9" t="s">
+      <c r="C46" s="32"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="75"/>
+      <c r="I46" s="86"/>
+      <c r="J46" s="87"/>
+      <c r="K46" s="85"/>
+      <c r="L46" s="75"/>
+      <c r="M46" s="86"/>
+      <c r="N46" s="87"/>
+    </row>
+    <row r="47" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B47" s="79">
         <v>43</v>
       </c>
-      <c r="I13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="12"/>
-      <c r="K13" s="10">
-        <v>44050</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N13" s="12"/>
-    </row>
-    <row r="14" spans="1:14" ht="36.5" thickBot="1">
-      <c r="B14" s="6">
-        <v>11</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15" t="s">
+      <c r="C47" s="32"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="75"/>
+      <c r="I47" s="86"/>
+      <c r="J47" s="87"/>
+      <c r="K47" s="85"/>
+      <c r="L47" s="75"/>
+      <c r="M47" s="86"/>
+      <c r="N47" s="87"/>
+    </row>
+    <row r="48" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B48" s="79">
         <v>44</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="M14" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N14" s="18"/>
-    </row>
-    <row r="15" spans="1:14" ht="36.5" thickBot="1">
-      <c r="B15" s="6">
-        <v>12</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="21" t="s">
+      <c r="C48" s="32"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="75"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="75"/>
+      <c r="I48" s="86"/>
+      <c r="J48" s="87"/>
+      <c r="K48" s="85"/>
+      <c r="L48" s="75"/>
+      <c r="M48" s="86"/>
+      <c r="N48" s="87"/>
+    </row>
+    <row r="49" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B49" s="79">
         <v>45</v>
       </c>
-      <c r="F15" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="22">
-        <v>44049</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="24"/>
-      <c r="K15" s="22">
-        <v>44050</v>
-      </c>
-      <c r="L15" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="M15" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="N15" s="24"/>
-    </row>
-    <row r="16" spans="1:14" ht="36.5" thickBot="1">
-      <c r="B16" s="6">
-        <v>13</v>
-      </c>
-      <c r="C16" s="32" t="s">
+      <c r="C49" s="32"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="75"/>
+      <c r="F49" s="75"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="75"/>
+      <c r="I49" s="86"/>
+      <c r="J49" s="87"/>
+      <c r="K49" s="85"/>
+      <c r="L49" s="75"/>
+      <c r="M49" s="86"/>
+      <c r="N49" s="87"/>
+    </row>
+    <row r="50" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B50" s="79">
         <v>46</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="C50" s="32"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="75"/>
+      <c r="F50" s="75"/>
+      <c r="G50" s="85"/>
+      <c r="H50" s="75"/>
+      <c r="I50" s="86"/>
+      <c r="J50" s="87"/>
+      <c r="K50" s="85"/>
+      <c r="L50" s="75"/>
+      <c r="M50" s="86"/>
+      <c r="N50" s="87"/>
+    </row>
+    <row r="51" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B51" s="79">
         <v>47</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="C51" s="32"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="75"/>
+      <c r="F51" s="75"/>
+      <c r="G51" s="85"/>
+      <c r="H51" s="75"/>
+      <c r="I51" s="86"/>
+      <c r="J51" s="87"/>
+      <c r="K51" s="85"/>
+      <c r="L51" s="75"/>
+      <c r="M51" s="86"/>
+      <c r="N51" s="87"/>
+    </row>
+    <row r="52" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B52" s="79">
         <v>48</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="C52" s="32"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="75"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="75"/>
+      <c r="I52" s="86"/>
+      <c r="J52" s="87"/>
+      <c r="K52" s="85"/>
+      <c r="L52" s="75"/>
+      <c r="M52" s="86"/>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B53" s="79">
         <v>49</v>
       </c>
-      <c r="G16" s="10">
-        <v>44049</v>
-      </c>
-      <c r="H16" s="14" t="s">
+      <c r="C53" s="32"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="75"/>
+      <c r="F53" s="75"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="75"/>
+      <c r="I53" s="86"/>
+      <c r="J53" s="87"/>
+      <c r="K53" s="85"/>
+      <c r="L53" s="75"/>
+      <c r="M53" s="86"/>
+      <c r="N53" s="87"/>
+    </row>
+    <row r="54" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B54" s="79">
         <v>50</v>
       </c>
-      <c r="I16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="30"/>
-      <c r="K16" s="31">
-        <v>44050</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N16" s="30"/>
-    </row>
-    <row r="17" spans="2:14" ht="20.5" thickBot="1">
-      <c r="B17" s="6">
-        <v>14</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="C54" s="32"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="85"/>
+      <c r="H54" s="75"/>
+      <c r="I54" s="86"/>
+      <c r="J54" s="87"/>
+      <c r="K54" s="85"/>
+      <c r="L54" s="75"/>
+      <c r="M54" s="86"/>
+      <c r="N54" s="87"/>
+    </row>
+    <row r="55" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B55" s="79">
         <v>51</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="C55" s="32"/>
+      <c r="D55" s="75"/>
+      <c r="E55" s="75"/>
+      <c r="F55" s="75"/>
+      <c r="G55" s="85"/>
+      <c r="H55" s="75"/>
+      <c r="I55" s="86"/>
+      <c r="J55" s="87"/>
+      <c r="K55" s="85"/>
+      <c r="L55" s="75"/>
+      <c r="M55" s="86"/>
+      <c r="N55" s="87"/>
+    </row>
+    <row r="56" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B56" s="79">
         <v>52</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="C56" s="32"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="75"/>
+      <c r="F56" s="75"/>
+      <c r="G56" s="85"/>
+      <c r="H56" s="75"/>
+      <c r="I56" s="86"/>
+      <c r="J56" s="87"/>
+      <c r="K56" s="85"/>
+      <c r="L56" s="75"/>
+      <c r="M56" s="86"/>
+      <c r="N56" s="87"/>
+    </row>
+    <row r="57" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B57" s="79">
         <v>53</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="C57" s="32"/>
+      <c r="D57" s="75"/>
+      <c r="E57" s="75"/>
+      <c r="F57" s="75"/>
+      <c r="G57" s="85"/>
+      <c r="H57" s="75"/>
+      <c r="I57" s="86"/>
+      <c r="J57" s="87"/>
+      <c r="K57" s="85"/>
+      <c r="L57" s="75"/>
+      <c r="M57" s="86"/>
+      <c r="N57" s="87"/>
+    </row>
+    <row r="58" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B58" s="79">
         <v>54</v>
       </c>
-      <c r="G17" s="10">
-        <v>44049</v>
-      </c>
-      <c r="H17" s="9" t="s">
+      <c r="C58" s="75"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="75"/>
+      <c r="F58" s="75"/>
+      <c r="G58" s="85"/>
+      <c r="H58" s="75"/>
+      <c r="I58" s="86"/>
+      <c r="J58" s="87"/>
+      <c r="K58" s="85"/>
+      <c r="L58" s="75"/>
+      <c r="M58" s="86"/>
+      <c r="N58" s="87"/>
+    </row>
+    <row r="59" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B59" s="79">
         <v>55</v>
       </c>
-      <c r="I17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="12"/>
-      <c r="K17" s="10">
-        <v>44050</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N17" s="12"/>
-    </row>
-    <row r="18" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B18" s="6">
-        <v>15</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15" t="s">
+      <c r="C59" s="32"/>
+      <c r="D59" s="75"/>
+      <c r="E59" s="75"/>
+      <c r="F59" s="75"/>
+      <c r="G59" s="85"/>
+      <c r="H59" s="75"/>
+      <c r="I59" s="86"/>
+      <c r="J59" s="87"/>
+      <c r="K59" s="85"/>
+      <c r="L59" s="75"/>
+      <c r="M59" s="86"/>
+      <c r="N59" s="87"/>
+    </row>
+    <row r="60" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B60" s="79">
         <v>56</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M18" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N18" s="18"/>
-    </row>
-    <row r="19" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B19" s="6">
-        <v>16</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15" t="s">
+      <c r="C60" s="32"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="75"/>
+      <c r="F60" s="75"/>
+      <c r="G60" s="85"/>
+      <c r="H60" s="75"/>
+      <c r="I60" s="86"/>
+      <c r="J60" s="87"/>
+      <c r="K60" s="85"/>
+      <c r="L60" s="75"/>
+      <c r="M60" s="86"/>
+      <c r="N60" s="87"/>
+    </row>
+    <row r="61" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B61" s="79">
         <v>57</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="C61" s="75"/>
+      <c r="D61" s="75"/>
+      <c r="E61" s="75"/>
+      <c r="F61" s="75"/>
+      <c r="G61" s="85"/>
+      <c r="H61" s="75"/>
+      <c r="I61" s="86"/>
+      <c r="J61" s="87"/>
+      <c r="K61" s="85"/>
+      <c r="L61" s="75"/>
+      <c r="M61" s="86"/>
+      <c r="N61" s="87"/>
+    </row>
+    <row r="62" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B62" s="79">
         <v>58</v>
       </c>
-      <c r="G19" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H19" s="15" t="s">
+      <c r="C62" s="32"/>
+      <c r="D62" s="75"/>
+      <c r="E62" s="75"/>
+      <c r="F62" s="75"/>
+      <c r="G62" s="85"/>
+      <c r="H62" s="75"/>
+      <c r="I62" s="86"/>
+      <c r="J62" s="87"/>
+      <c r="K62" s="85"/>
+      <c r="L62" s="75"/>
+      <c r="M62" s="86"/>
+      <c r="N62" s="87"/>
+    </row>
+    <row r="63" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B63" s="79">
         <v>59</v>
       </c>
-      <c r="I19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="18"/>
-      <c r="K19" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="M19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N19" s="18"/>
-    </row>
-    <row r="20" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B20" s="6">
-        <v>17</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21" t="s">
+      <c r="C63" s="32"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="75"/>
+      <c r="F63" s="75"/>
+      <c r="G63" s="85"/>
+      <c r="H63" s="75"/>
+      <c r="I63" s="86"/>
+      <c r="J63" s="87"/>
+      <c r="K63" s="85"/>
+      <c r="L63" s="75"/>
+      <c r="M63" s="86"/>
+      <c r="N63" s="87"/>
+    </row>
+    <row r="64" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B64" s="79">
         <v>60</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="C64" s="32"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="75"/>
+      <c r="F64" s="75"/>
+      <c r="G64" s="85"/>
+      <c r="H64" s="75"/>
+      <c r="I64" s="86"/>
+      <c r="J64" s="87"/>
+      <c r="K64" s="85"/>
+      <c r="L64" s="75"/>
+      <c r="M64" s="86"/>
+      <c r="N64" s="87"/>
+    </row>
+    <row r="65" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B65" s="79">
         <v>61</v>
       </c>
-      <c r="G20" s="22">
-        <v>44049</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="24"/>
-      <c r="K20" s="22">
-        <v>44050</v>
-      </c>
-      <c r="L20" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="M20" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="N20" s="24"/>
-    </row>
-    <row r="21" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B21" s="6">
-        <v>18</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" s="10">
-        <v>44049</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I21" s="33" t="s">
+      <c r="C65" s="76"/>
+      <c r="D65" s="92"/>
+      <c r="E65" s="92"/>
+      <c r="F65" s="92"/>
+      <c r="G65" s="93"/>
+      <c r="H65" s="92"/>
+      <c r="I65" s="94"/>
+      <c r="J65" s="95"/>
+      <c r="K65" s="93"/>
+      <c r="L65" s="92"/>
+      <c r="M65" s="94"/>
+      <c r="N65" s="95"/>
+    </row>
+    <row r="67" spans="2:14" ht="22.5">
+      <c r="B67" s="49"/>
+      <c r="C67" s="49"/>
+      <c r="E67" s="50"/>
+      <c r="H67" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="I67" s="3">
+        <f>COUNTA(I4:I65)</f>
+        <v>0</v>
+      </c>
+      <c r="L67" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="M67" s="3">
+        <f>COUNTA(M4:M65)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14">
+      <c r="H68" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" s="3">
+        <f>COUNTIF(I4:I65,"〇")</f>
+        <v>0</v>
+      </c>
+      <c r="L68" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="M68" s="3">
+        <f>COUNTIF(M4:M65,"〇")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14">
+      <c r="H69" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="J21" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="K21" s="34">
-        <v>44050</v>
-      </c>
-      <c r="L21" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="M21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N21" s="9"/>
-    </row>
-    <row r="22" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B22" s="6">
-        <v>19</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G22" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="I22" s="35" t="s">
+      <c r="I69" s="3">
+        <f>COUNTIF(I4:I65,"✖")</f>
+        <v>0</v>
+      </c>
+      <c r="L69" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="J22" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="K22" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L22" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="M22" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N22" s="18"/>
-    </row>
-    <row r="23" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B23" s="6">
-        <v>20</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="I23" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="J23" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="K23" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="M23" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N23" s="18"/>
-    </row>
-    <row r="24" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B24" s="6">
-        <v>21</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="22">
-        <v>44049</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="I24" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="J24" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="K24" s="25">
-        <v>44050</v>
-      </c>
-      <c r="L24" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="M24" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="N24" s="24"/>
-    </row>
-    <row r="25" spans="2:14" ht="20.5" thickBot="1">
-      <c r="B25" s="6">
-        <v>22</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G25" s="10">
-        <v>44049</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" s="12"/>
-      <c r="K25" s="10">
-        <v>44050</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="M25" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N25" s="12"/>
-    </row>
-    <row r="26" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B26" s="6">
-        <v>23</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G26" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="18"/>
-      <c r="K26" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L26" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="M26" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N26" s="18"/>
-    </row>
-    <row r="27" spans="2:14" ht="72.5" thickBot="1">
-      <c r="B27" s="6">
-        <v>24</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" s="18"/>
-      <c r="K27" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L27" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="M27" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N27" s="18"/>
-    </row>
-    <row r="28" spans="2:14" ht="72.5" thickBot="1">
-      <c r="B28" s="6">
-        <v>25</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="G28" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="I28" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J28" s="18"/>
-      <c r="K28" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L28" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="M28" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N28" s="18"/>
-    </row>
-    <row r="29" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B29" s="6">
-        <v>26</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="G29" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="I29" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J29" s="18"/>
-      <c r="K29" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L29" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="M29" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N29" s="18"/>
-    </row>
-    <row r="30" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B30" s="6">
-        <v>27</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="G30" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="I30" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J30" s="18"/>
-      <c r="K30" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L30" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="M30" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N30" s="18"/>
-    </row>
-    <row r="31" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B31" s="6">
-        <v>28</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="G31" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="I31" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31" s="18"/>
-      <c r="K31" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L31" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="M31" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N31" s="18"/>
-    </row>
-    <row r="32" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B32" s="6">
-        <v>29</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="G32" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="I32" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" s="18"/>
-      <c r="K32" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L32" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="M32" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N32" s="18"/>
-    </row>
-    <row r="33" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B33" s="6">
-        <v>30</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G33" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="I33" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J33" s="18"/>
-      <c r="K33" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L33" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="M33" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N33" s="18"/>
-    </row>
-    <row r="34" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B34" s="6">
-        <v>31</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="G34" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="I34" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J34" s="18"/>
-      <c r="K34" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L34" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="M34" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N34" s="18"/>
-    </row>
-    <row r="35" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B35" s="6">
-        <v>32</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="G35" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="I35" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J35" s="18"/>
-      <c r="K35" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L35" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="M35" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N35" s="18"/>
-    </row>
-    <row r="36" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B36" s="6">
-        <v>33</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="G36" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="I36" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J36" s="18"/>
-      <c r="K36" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L36" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="M36" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N36" s="18"/>
-    </row>
-    <row r="37" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B37" s="6">
-        <v>34</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="G37" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="I37" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J37" s="18"/>
-      <c r="K37" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L37" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="M37" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N37" s="18"/>
-    </row>
-    <row r="38" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B38" s="6">
-        <v>35</v>
-      </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="F38" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="G38" s="25">
-        <v>44049</v>
-      </c>
-      <c r="H38" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="I38" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="J38" s="40"/>
-      <c r="K38" s="22">
-        <v>44050</v>
-      </c>
-      <c r="L38" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="M38" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="N38" s="40"/>
-    </row>
-    <row r="39" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B39" s="6">
-        <v>36</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="G39" s="10">
-        <v>44049</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J39" s="12"/>
-      <c r="K39" s="34">
-        <v>44050</v>
-      </c>
-      <c r="L39" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="M39" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N39" s="12"/>
-    </row>
-    <row r="40" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B40" s="6">
-        <v>37</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="G40" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="I40" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J40" s="18"/>
-      <c r="K40" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L40" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="M40" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N40" s="18"/>
-    </row>
-    <row r="41" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B41" s="6">
-        <v>38</v>
-      </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="G41" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="I41" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J41" s="18"/>
-      <c r="K41" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L41" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="M41" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N41" s="18"/>
-    </row>
-    <row r="42" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B42" s="6">
-        <v>39</v>
-      </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="G42" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="I42" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J42" s="18"/>
-      <c r="K42" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L42" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="M42" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N42" s="18"/>
-    </row>
-    <row r="43" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B43" s="6">
-        <v>40</v>
-      </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="G43" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="I43" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J43" s="18"/>
-      <c r="K43" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L43" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="M43" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N43" s="18"/>
-    </row>
-    <row r="44" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B44" s="6">
-        <v>41</v>
-      </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="G44" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="I44" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J44" s="18"/>
-      <c r="K44" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L44" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="M44" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N44" s="18"/>
-    </row>
-    <row r="45" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B45" s="6">
-        <v>42</v>
-      </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="G45" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H45" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="I45" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J45" s="18"/>
-      <c r="K45" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L45" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="M45" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N45" s="18"/>
-    </row>
-    <row r="46" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B46" s="6">
-        <v>43</v>
-      </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="G46" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="I46" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J46" s="18"/>
-      <c r="K46" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L46" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="M46" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N46" s="18"/>
-    </row>
-    <row r="47" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B47" s="6">
-        <v>44</v>
-      </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="G47" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="I47" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J47" s="18"/>
-      <c r="K47" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L47" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="M47" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N47" s="18"/>
-    </row>
-    <row r="48" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B48" s="6">
-        <v>45</v>
-      </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="G48" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H48" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="I48" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J48" s="18"/>
-      <c r="K48" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L48" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="M48" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N48" s="18"/>
-    </row>
-    <row r="49" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B49" s="6">
-        <v>46</v>
-      </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="G49" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H49" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="I49" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J49" s="18"/>
-      <c r="K49" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L49" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="M49" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N49" s="18"/>
-    </row>
-    <row r="50" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B50" s="6">
-        <v>47</v>
-      </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G50" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="I50" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J50" s="18"/>
-      <c r="K50" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L50" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="M50" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N50" s="18"/>
-    </row>
-    <row r="51" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B51" s="6">
-        <v>48</v>
-      </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="G51" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="I51" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J51" s="18"/>
-      <c r="K51" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L51" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="M51" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N51" s="18"/>
-    </row>
-    <row r="52" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B52" s="6">
-        <v>49</v>
-      </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="G52" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H52" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="I52" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J52" s="18"/>
-      <c r="K52" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L52" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="M52" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N52" s="18"/>
-    </row>
-    <row r="53" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B53" s="6">
-        <v>50</v>
-      </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="G53" s="16">
-        <v>44049</v>
-      </c>
-      <c r="H53" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="I53" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J53" s="18"/>
-      <c r="K53" s="16">
-        <v>44050</v>
-      </c>
-      <c r="L53" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="M53" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N53" s="18"/>
-    </row>
-    <row r="54" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B54" s="6">
-        <v>51</v>
-      </c>
-      <c r="C54" s="19"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="F54" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="G54" s="25">
-        <v>44049</v>
-      </c>
-      <c r="H54" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="I54" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="J54" s="40"/>
-      <c r="K54" s="25">
-        <v>44050</v>
-      </c>
-      <c r="L54" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="M54" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="N54" s="24"/>
-    </row>
-    <row r="55" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B55" s="6">
-        <v>52</v>
-      </c>
-      <c r="C55" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="G55" s="10">
-        <v>44050</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J55" s="12"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="42"/>
-      <c r="N55" s="43" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" ht="54.5" thickBot="1">
-      <c r="B56" s="6">
-        <v>53</v>
-      </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="F56" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="G56" s="22">
-        <v>44050</v>
-      </c>
-      <c r="H56" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="I56" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J56" s="24"/>
-      <c r="K56" s="22">
-        <v>44050</v>
-      </c>
-      <c r="L56" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="M56" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="N56" s="40"/>
-    </row>
-    <row r="57" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B57" s="6">
-        <v>54</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="F57" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="G57" s="34">
-        <v>44049</v>
-      </c>
-      <c r="H57" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="I57" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="J57" s="43"/>
-      <c r="K57" s="34">
-        <v>44050</v>
-      </c>
-      <c r="L57" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="M57" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N57" s="12"/>
-    </row>
-    <row r="58" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B58" s="6">
-        <v>55</v>
-      </c>
-      <c r="C58" s="19"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="F58" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="G58" s="22">
-        <v>44049</v>
-      </c>
-      <c r="H58" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="I58" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J58" s="24"/>
-      <c r="K58" s="25">
-        <v>44050</v>
-      </c>
-      <c r="L58" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="M58" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="N58" s="24"/>
-    </row>
-    <row r="59" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B59" s="6">
-        <v>56</v>
-      </c>
-      <c r="C59" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="D59" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="E59" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="F59" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="G59" s="31">
-        <v>44049</v>
-      </c>
-      <c r="H59" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="I59" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="J59" s="46"/>
-      <c r="K59" s="47">
-        <v>44050</v>
-      </c>
-      <c r="L59" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="M59" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="N59" s="46"/>
-    </row>
-    <row r="60" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B60" s="6">
-        <v>57</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="G60" s="10">
-        <v>44049</v>
-      </c>
-      <c r="H60" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="I60" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J60" s="12"/>
-      <c r="K60" s="34">
-        <v>44050</v>
-      </c>
-      <c r="L60" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="M60" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N60" s="12"/>
-    </row>
-    <row r="61" spans="2:14" ht="36.5" thickBot="1">
-      <c r="B61" s="6">
-        <v>58</v>
-      </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="F61" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="G61" s="22">
-        <v>44049</v>
-      </c>
-      <c r="H61" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="I61" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J61" s="24"/>
-      <c r="K61" s="22">
-        <v>44050</v>
-      </c>
-      <c r="L61" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="M61" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="N61" s="24"/>
-    </row>
-    <row r="62" spans="2:14" ht="20.5" thickBot="1">
-      <c r="B62" s="6">
-        <v>59</v>
-      </c>
-      <c r="C62" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="D62" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="E62" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="F62" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="G62" s="10">
-        <v>44049</v>
-      </c>
-      <c r="H62" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="I62" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J62" s="30"/>
-      <c r="K62" s="10">
-        <v>44050</v>
-      </c>
-      <c r="L62" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="M62" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N62" s="30"/>
-    </row>
-    <row r="63" spans="2:14" ht="20.5" thickBot="1">
-      <c r="B63" s="6">
-        <v>60</v>
-      </c>
-      <c r="C63" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="D63" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="E63" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="F63" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="G63" s="10">
-        <v>44049</v>
-      </c>
-      <c r="H63" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="I63" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J63" s="30"/>
-      <c r="K63" s="10">
-        <v>44050</v>
-      </c>
-      <c r="L63" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="M63" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N63" s="30"/>
-    </row>
-    <row r="64" spans="2:14" ht="20.5" thickBot="1">
-      <c r="B64" s="6">
-        <v>61</v>
-      </c>
-      <c r="C64" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="D64" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="E64" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="F64" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="G64" s="47">
-        <v>44049</v>
-      </c>
-      <c r="H64" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="I64" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="J64" s="30"/>
-      <c r="K64" s="47">
-        <v>44050</v>
-      </c>
-      <c r="L64" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="M64" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="N64" s="30"/>
-    </row>
-    <row r="66" spans="2:13" ht="22.5">
-      <c r="B66" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="C66" s="49"/>
-      <c r="E66" s="50"/>
-      <c r="H66" s="51" t="s">
-        <v>221</v>
-      </c>
-      <c r="I66" s="3">
-        <f>COUNTA(I4:I64)</f>
-        <v>61</v>
-      </c>
-      <c r="L66" s="51" t="s">
-        <v>221</v>
-      </c>
-      <c r="M66" s="3">
-        <f>COUNTA(M4:M64)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="67" spans="2:13">
-      <c r="H67" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="I67" s="3">
-        <f>COUNTIF(I4:I64,"〇")</f>
-        <v>57</v>
-      </c>
-      <c r="L67" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="M67" s="3">
-        <f>COUNTIF(M4:M64,"〇")</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="68" spans="2:13">
-      <c r="H68" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="I68" s="3">
-        <f>COUNTIF(I4:I64,"✖")</f>
-        <v>4</v>
-      </c>
-      <c r="L68" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="M68" s="3">
-        <f>COUNTIF(M4:M64,"✖")</f>
+      <c r="M69" s="3">
+        <f>COUNTIF(M4:M65,"✖")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:13">
-      <c r="H69" s="52" t="s">
+    <row r="70" spans="2:14">
+      <c r="H70" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="I69" s="54">
-        <f>I68/I66</f>
-        <v>6.5573770491803282E-2</v>
-      </c>
-      <c r="L69" s="52" t="s">
+      <c r="I70" s="54" t="e">
+        <f>I69/I67</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L70" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="M69" s="55">
-        <f>M68/M66</f>
-        <v>0</v>
+      <c r="M70" s="55" t="e">
+        <f>M69/M67</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/資料/設計書/モグラ叩き_テスト仕様書.xlsx
+++ b/資料/設計書/モグラ叩き_テスト仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\PICもぐら叩きゲーム\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6508E7F-6EF3-4DFD-A693-2707E3D605C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E153D2D-B61E-4227-B2D8-23803D47BE07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="17270" windowHeight="8800" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="システムテスト" sheetId="4" state="hidden" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="397">
   <si>
     <t>マイコン：pic16f1827</t>
     <phoneticPr fontId="7"/>
@@ -5670,16 +5670,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>PWMのデューティー比が変更される。</t>
-    <rPh sb="10" eb="11">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>void SEManager(void)</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -6011,6 +6001,195 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>void ClearHighScore(void)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>選択中の難易度のハイスコアを0にクリアする</t>
+    <rPh sb="0" eb="3">
+      <t>センタクチュウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ナンイド</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>選択中の難易度のハイスコアが0になる</t>
+    <rPh sb="0" eb="3">
+      <t>センタクチュウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ナンイド</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>選択していない難易度のハイスコアは0にならない</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ナンイド</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>void UpdateLED(void)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>モグラ叩き単体テスト</t>
+    <rPh sb="3" eb="4">
+      <t>タタ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タンタイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>残り時間が00のとき、LEDが全て消灯される</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショウトウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>残り時間が41~50の間、LED1~5が点灯される</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>テントウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>残り時間が31~40の間、LED1~4が点灯される</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>テントウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>残り時間が21~30の間、LED1~3が点灯される</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>テントウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>残り時間が11~20の間、LED1~2が点灯される</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>テントウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>残り時間が01~10の間、LED1が点灯される</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テントウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>残り時間によって、LED1~6が最大6個点灯する</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>テントウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>残り時間が51以上のとき、LED1~6が点灯される</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>テントウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>PWMの間隔が変更される。</t>
+    <rPh sb="4" eb="6">
+      <t>カンカク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -6311,7 +6490,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -6646,6 +6825,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="パーセント 2" xfId="2" xr:uid="{B437DFE7-8A85-4377-9C37-B02115642D3E}"/>
@@ -9171,9 +9356,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85CE931-9A0F-4209-B117-D9C0D8C16592}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A20" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F36" sqref="F36"/>
+      <selection pane="topRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -9823,10 +10008,10 @@
       <c r="C29" s="13"/>
       <c r="D29" s="57"/>
       <c r="E29" s="71" t="s">
+        <v>380</v>
+      </c>
+      <c r="F29" s="71" t="s">
         <v>381</v>
-      </c>
-      <c r="F29" s="71" t="s">
-        <v>382</v>
       </c>
       <c r="G29" s="16"/>
       <c r="H29" s="15"/>
@@ -10172,11 +10357,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC3B0F4-38B8-4D50-B22F-81976C94C56C}">
-  <dimension ref="A1:N70"/>
+  <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D13" sqref="D13"/>
+      <selection pane="topRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -10200,7 +10385,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="29">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>387</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -10373,7 +10558,7 @@
         <v>330</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E9" s="82" t="s">
         <v>331</v>
@@ -10394,7 +10579,7 @@
       </c>
       <c r="C10" s="98"/>
       <c r="D10" s="98" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E10" s="92" t="s">
         <v>332</v>
@@ -10536,11 +10721,13 @@
       <c r="N16" s="87"/>
     </row>
     <row r="17" spans="2:14" ht="20.5" thickBot="1">
-      <c r="B17" s="79"/>
+      <c r="B17" s="79">
+        <v>14</v>
+      </c>
       <c r="C17" s="109"/>
       <c r="D17" s="109"/>
       <c r="E17" s="95" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F17" s="92"/>
       <c r="G17" s="93"/>
@@ -10554,22 +10741,22 @@
     </row>
     <row r="18" spans="2:14" ht="20.5" thickBot="1">
       <c r="B18" s="79">
-        <v>14</v>
-      </c>
-      <c r="C18" s="110" t="s">
-        <v>344</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="E18" s="82" t="s">
-        <v>346</v>
-      </c>
-      <c r="F18" s="82"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="84"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="97" t="s">
+        <v>382</v>
+      </c>
+      <c r="D18" s="97" t="s">
+        <v>383</v>
+      </c>
+      <c r="E18" s="97" t="s">
+        <v>384</v>
+      </c>
+      <c r="F18" s="26"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="97"/>
       <c r="K18" s="85"/>
       <c r="L18" s="75"/>
       <c r="M18" s="86"/>
@@ -10577,18 +10764,18 @@
     </row>
     <row r="19" spans="2:14" ht="20.5" thickBot="1">
       <c r="B19" s="79">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" s="97"/>
       <c r="D19" s="97"/>
-      <c r="E19" s="75" t="s">
-        <v>347</v>
-      </c>
-      <c r="F19" s="75"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="87"/>
+      <c r="E19" s="95" t="s">
+        <v>385</v>
+      </c>
+      <c r="F19" s="92"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="95"/>
       <c r="K19" s="85"/>
       <c r="L19" s="75"/>
       <c r="M19" s="86"/>
@@ -10596,18 +10783,22 @@
     </row>
     <row r="20" spans="2:14" ht="20.5" thickBot="1">
       <c r="B20" s="79">
-        <v>16</v>
-      </c>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="75" t="s">
-        <v>348</v>
-      </c>
-      <c r="F20" s="75"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="87"/>
+        <v>17</v>
+      </c>
+      <c r="C20" s="110" t="s">
+        <v>344</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="E20" s="82" t="s">
+        <v>346</v>
+      </c>
+      <c r="F20" s="82"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="84"/>
       <c r="K20" s="85"/>
       <c r="L20" s="75"/>
       <c r="M20" s="86"/>
@@ -10615,18 +10806,18 @@
     </row>
     <row r="21" spans="2:14" ht="20.5" thickBot="1">
       <c r="B21" s="79">
-        <v>17</v>
-      </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="95" t="s">
-        <v>357</v>
-      </c>
-      <c r="F21" s="92"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="95"/>
+        <v>18</v>
+      </c>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="75" t="s">
+        <v>347</v>
+      </c>
+      <c r="F21" s="75"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="87"/>
       <c r="K21" s="85"/>
       <c r="L21" s="75"/>
       <c r="M21" s="86"/>
@@ -10634,41 +10825,37 @@
     </row>
     <row r="22" spans="2:14" ht="20.5" thickBot="1">
       <c r="B22" s="79">
-        <v>18</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="E22" s="82" t="s">
-        <v>351</v>
-      </c>
-      <c r="F22" s="82"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="82"/>
+        <v>19</v>
+      </c>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="75" t="s">
+        <v>348</v>
+      </c>
+      <c r="F22" s="75"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="87"/>
       <c r="K22" s="85"/>
       <c r="L22" s="75"/>
       <c r="M22" s="86"/>
-      <c r="N22" s="75"/>
+      <c r="N22" s="87"/>
     </row>
     <row r="23" spans="2:14" ht="20.5" thickBot="1">
       <c r="B23" s="79">
-        <v>19</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="75" t="s">
-        <v>352</v>
-      </c>
-      <c r="F23" s="75"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="87"/>
+        <v>20</v>
+      </c>
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="95" t="s">
+        <v>357</v>
+      </c>
+      <c r="F23" s="92"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="95"/>
       <c r="K23" s="85"/>
       <c r="L23" s="75"/>
       <c r="M23" s="86"/>
@@ -10676,31 +10863,35 @@
     </row>
     <row r="24" spans="2:14" ht="20.5" thickBot="1">
       <c r="B24" s="79">
-        <v>20</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="75" t="s">
-        <v>353</v>
-      </c>
-      <c r="F24" s="75"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="91"/>
-      <c r="J24" s="87"/>
+        <v>21</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E24" s="82" t="s">
+        <v>351</v>
+      </c>
+      <c r="F24" s="82"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="82"/>
       <c r="K24" s="85"/>
       <c r="L24" s="75"/>
       <c r="M24" s="86"/>
-      <c r="N24" s="87"/>
+      <c r="N24" s="75"/>
     </row>
     <row r="25" spans="2:14" ht="20.5" thickBot="1">
       <c r="B25" s="79">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="26"/>
-      <c r="E25" s="87" t="s">
-        <v>354</v>
+      <c r="E25" s="75" t="s">
+        <v>352</v>
       </c>
       <c r="F25" s="75"/>
       <c r="G25" s="85"/>
@@ -10714,17 +10905,17 @@
     </row>
     <row r="26" spans="2:14" ht="20.5" thickBot="1">
       <c r="B26" s="79">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="26"/>
       <c r="E26" s="75" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F26" s="75"/>
       <c r="G26" s="85"/>
       <c r="H26" s="75"/>
-      <c r="I26" s="86"/>
+      <c r="I26" s="91"/>
       <c r="J26" s="87"/>
       <c r="K26" s="85"/>
       <c r="L26" s="75"/>
@@ -10733,17 +10924,17 @@
     </row>
     <row r="27" spans="2:14" ht="20.5" thickBot="1">
       <c r="B27" s="79">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="26"/>
-      <c r="E27" s="75" t="s">
-        <v>356</v>
+      <c r="E27" s="87" t="s">
+        <v>354</v>
       </c>
       <c r="F27" s="75"/>
       <c r="G27" s="85"/>
       <c r="H27" s="75"/>
-      <c r="I27" s="86"/>
+      <c r="I27" s="91"/>
       <c r="J27" s="87"/>
       <c r="K27" s="85"/>
       <c r="L27" s="75"/>
@@ -10752,92 +10943,92 @@
     </row>
     <row r="28" spans="2:14" ht="20.5" thickBot="1">
       <c r="B28" s="79">
-        <v>24</v>
-      </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="92" t="s">
-        <v>358</v>
-      </c>
-      <c r="F28" s="92"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="94"/>
-      <c r="J28" s="95"/>
+        <v>25</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="75" t="s">
+        <v>355</v>
+      </c>
+      <c r="F28" s="75"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="87"/>
       <c r="K28" s="85"/>
       <c r="L28" s="75"/>
       <c r="M28" s="86"/>
       <c r="N28" s="87"/>
     </row>
-    <row r="29" spans="2:14" ht="39.5" customHeight="1" thickBot="1">
+    <row r="29" spans="2:14" ht="20.5" thickBot="1">
       <c r="B29" s="79">
-        <v>25</v>
-      </c>
-      <c r="C29" s="41" t="s">
-        <v>359</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="E29" s="82" t="s">
-        <v>373</v>
-      </c>
-      <c r="F29" s="82"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="84"/>
+        <v>26</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="75" t="s">
+        <v>356</v>
+      </c>
+      <c r="F29" s="75"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="87"/>
       <c r="K29" s="85"/>
       <c r="L29" s="75"/>
       <c r="M29" s="86"/>
       <c r="N29" s="87"/>
     </row>
-    <row r="30" spans="2:14" ht="40.5" thickBot="1">
+    <row r="30" spans="2:14" ht="20.5" thickBot="1">
       <c r="B30" s="79">
-        <v>26</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="75" t="s">
-        <v>374</v>
-      </c>
-      <c r="F30" s="75"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="87"/>
+        <v>27</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="92" t="s">
+        <v>358</v>
+      </c>
+      <c r="F30" s="92"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="95"/>
       <c r="K30" s="85"/>
       <c r="L30" s="75"/>
       <c r="M30" s="86"/>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="2:14" ht="20.5" thickBot="1">
+    <row r="31" spans="2:14" ht="39.5" customHeight="1" thickBot="1">
       <c r="B31" s="79">
-        <v>27</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="75" t="s">
-        <v>375</v>
-      </c>
-      <c r="F31" s="75"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="87"/>
+        <v>28</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="E31" s="82" t="s">
+        <v>372</v>
+      </c>
+      <c r="F31" s="82"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="84"/>
       <c r="K31" s="85"/>
       <c r="L31" s="75"/>
       <c r="M31" s="86"/>
       <c r="N31" s="87"/>
     </row>
-    <row r="32" spans="2:14" ht="20.5" thickBot="1">
+    <row r="32" spans="2:14" ht="40.5" thickBot="1">
       <c r="B32" s="79">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="26"/>
       <c r="E32" s="75" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F32" s="75"/>
       <c r="G32" s="85"/>
@@ -10851,12 +11042,12 @@
     </row>
     <row r="33" spans="2:14" ht="20.5" thickBot="1">
       <c r="B33" s="79">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="26"/>
       <c r="E33" s="75" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F33" s="75"/>
       <c r="G33" s="85"/>
@@ -10870,12 +11061,12 @@
     </row>
     <row r="34" spans="2:14" ht="20.5" thickBot="1">
       <c r="B34" s="79">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="26"/>
       <c r="E34" s="75" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F34" s="75"/>
       <c r="G34" s="85"/>
@@ -10889,41 +11080,37 @@
     </row>
     <row r="35" spans="2:14" ht="20.5" thickBot="1">
       <c r="B35" s="79">
-        <v>31</v>
-      </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="98"/>
-      <c r="E35" s="92" t="s">
-        <v>380</v>
-      </c>
-      <c r="F35" s="92"/>
-      <c r="G35" s="93"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="95"/>
+        <v>32</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="75" t="s">
+        <v>376</v>
+      </c>
+      <c r="F35" s="75"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="87"/>
       <c r="K35" s="85"/>
       <c r="L35" s="75"/>
       <c r="M35" s="86"/>
       <c r="N35" s="87"/>
     </row>
-    <row r="36" spans="2:14" ht="40.5" thickBot="1">
+    <row r="36" spans="2:14" ht="20.5" thickBot="1">
       <c r="B36" s="79">
-        <v>32</v>
-      </c>
-      <c r="C36" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="E36" s="82" t="s">
-        <v>362</v>
-      </c>
-      <c r="F36" s="82"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="84"/>
+        <v>33</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="75" t="s">
+        <v>377</v>
+      </c>
+      <c r="F36" s="75"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="86"/>
+      <c r="J36" s="87"/>
       <c r="K36" s="85"/>
       <c r="L36" s="75"/>
       <c r="M36" s="86"/>
@@ -10931,12 +11118,12 @@
     </row>
     <row r="37" spans="2:14" ht="20.5" thickBot="1">
       <c r="B37" s="79">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C37" s="19"/>
       <c r="D37" s="98"/>
       <c r="E37" s="92" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="F37" s="92"/>
       <c r="G37" s="93"/>
@@ -10950,13 +11137,13 @@
     </row>
     <row r="38" spans="2:14" ht="40.5" thickBot="1">
       <c r="B38" s="79">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E38" s="82" t="s">
         <v>362</v>
@@ -10973,12 +11160,12 @@
     </row>
     <row r="39" spans="2:14" ht="20.5" thickBot="1">
       <c r="B39" s="79">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="98"/>
       <c r="E39" s="92" t="s">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="F39" s="92"/>
       <c r="G39" s="93"/>
@@ -10990,18 +11177,18 @@
       <c r="M39" s="86"/>
       <c r="N39" s="87"/>
     </row>
-    <row r="40" spans="2:14" ht="20.5" thickBot="1">
+    <row r="40" spans="2:14" ht="40.5" thickBot="1">
       <c r="B40" s="79">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E40" s="82" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="F40" s="82"/>
       <c r="G40" s="81"/>
@@ -11015,12 +11202,12 @@
     </row>
     <row r="41" spans="2:14" ht="20.5" thickBot="1">
       <c r="B41" s="79">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="98"/>
       <c r="E41" s="92" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="F41" s="92"/>
       <c r="G41" s="93"/>
@@ -11034,16 +11221,22 @@
     </row>
     <row r="42" spans="2:14" ht="20.5" thickBot="1">
       <c r="B42" s="79">
-        <v>38</v>
-      </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="99"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="100"/>
-      <c r="J42" s="101"/>
+        <v>39</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="E42" s="82" t="s">
+        <v>395</v>
+      </c>
+      <c r="F42" s="82"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="82"/>
+      <c r="I42" s="83"/>
+      <c r="J42" s="84"/>
       <c r="K42" s="85"/>
       <c r="L42" s="75"/>
       <c r="M42" s="86"/>
@@ -11051,11 +11244,13 @@
     </row>
     <row r="43" spans="2:14" ht="20.5" thickBot="1">
       <c r="B43" s="79">
-        <v>39</v>
-      </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="75"/>
+        <v>40</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="75" t="s">
+        <v>389</v>
+      </c>
       <c r="F43" s="75"/>
       <c r="G43" s="85"/>
       <c r="H43" s="75"/>
@@ -11068,11 +11263,13 @@
     </row>
     <row r="44" spans="2:14" ht="20.5" thickBot="1">
       <c r="B44" s="79">
-        <v>40</v>
-      </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="75"/>
+        <v>41</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="75" t="s">
+        <v>390</v>
+      </c>
       <c r="F44" s="75"/>
       <c r="G44" s="85"/>
       <c r="H44" s="75"/>
@@ -11085,11 +11282,13 @@
     </row>
     <row r="45" spans="2:14" ht="20.5" thickBot="1">
       <c r="B45" s="79">
-        <v>41</v>
-      </c>
-      <c r="C45" s="32"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="75"/>
+        <v>42</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="75" t="s">
+        <v>391</v>
+      </c>
       <c r="F45" s="75"/>
       <c r="G45" s="85"/>
       <c r="H45" s="75"/>
@@ -11102,11 +11301,13 @@
     </row>
     <row r="46" spans="2:14" ht="20.5" thickBot="1">
       <c r="B46" s="79">
-        <v>42</v>
-      </c>
-      <c r="C46" s="32"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="75"/>
+        <v>43</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="75" t="s">
+        <v>392</v>
+      </c>
       <c r="F46" s="75"/>
       <c r="G46" s="85"/>
       <c r="H46" s="75"/>
@@ -11119,11 +11320,13 @@
     </row>
     <row r="47" spans="2:14" ht="20.5" thickBot="1">
       <c r="B47" s="79">
-        <v>43</v>
-      </c>
-      <c r="C47" s="32"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="75"/>
+        <v>44</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="75" t="s">
+        <v>393</v>
+      </c>
       <c r="F47" s="75"/>
       <c r="G47" s="85"/>
       <c r="H47" s="75"/>
@@ -11136,16 +11339,18 @@
     </row>
     <row r="48" spans="2:14" ht="20.5" thickBot="1">
       <c r="B48" s="79">
-        <v>44</v>
-      </c>
-      <c r="C48" s="32"/>
-      <c r="D48" s="75"/>
-      <c r="E48" s="75"/>
-      <c r="F48" s="75"/>
-      <c r="G48" s="85"/>
-      <c r="H48" s="75"/>
-      <c r="I48" s="86"/>
-      <c r="J48" s="87"/>
+        <v>45</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="92" t="s">
+        <v>388</v>
+      </c>
+      <c r="F48" s="92"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="92"/>
+      <c r="I48" s="94"/>
+      <c r="J48" s="95"/>
       <c r="K48" s="85"/>
       <c r="L48" s="75"/>
       <c r="M48" s="86"/>
@@ -11153,16 +11358,22 @@
     </row>
     <row r="49" spans="2:14" ht="20.5" thickBot="1">
       <c r="B49" s="79">
-        <v>45</v>
-      </c>
-      <c r="C49" s="32"/>
-      <c r="D49" s="75"/>
-      <c r="E49" s="75"/>
-      <c r="F49" s="75"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="75"/>
-      <c r="I49" s="86"/>
-      <c r="J49" s="87"/>
+        <v>46</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="E49" s="82" t="s">
+        <v>367</v>
+      </c>
+      <c r="F49" s="82"/>
+      <c r="G49" s="81"/>
+      <c r="H49" s="82"/>
+      <c r="I49" s="83"/>
+      <c r="J49" s="84"/>
       <c r="K49" s="85"/>
       <c r="L49" s="75"/>
       <c r="M49" s="86"/>
@@ -11170,16 +11381,18 @@
     </row>
     <row r="50" spans="2:14" ht="20.5" thickBot="1">
       <c r="B50" s="79">
-        <v>46</v>
-      </c>
-      <c r="C50" s="32"/>
-      <c r="D50" s="75"/>
-      <c r="E50" s="75"/>
-      <c r="F50" s="75"/>
-      <c r="G50" s="85"/>
-      <c r="H50" s="75"/>
-      <c r="I50" s="86"/>
-      <c r="J50" s="87"/>
+        <v>47</v>
+      </c>
+      <c r="C50" s="19"/>
+      <c r="D50" s="98"/>
+      <c r="E50" s="92" t="s">
+        <v>368</v>
+      </c>
+      <c r="F50" s="92"/>
+      <c r="G50" s="93"/>
+      <c r="H50" s="92"/>
+      <c r="I50" s="94"/>
+      <c r="J50" s="95"/>
       <c r="K50" s="85"/>
       <c r="L50" s="75"/>
       <c r="M50" s="86"/>
@@ -11187,16 +11400,16 @@
     </row>
     <row r="51" spans="2:14" ht="20.5" thickBot="1">
       <c r="B51" s="79">
-        <v>47</v>
-      </c>
-      <c r="C51" s="32"/>
-      <c r="D51" s="75"/>
-      <c r="E51" s="75"/>
-      <c r="F51" s="75"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="75"/>
-      <c r="I51" s="86"/>
-      <c r="J51" s="87"/>
+        <v>48</v>
+      </c>
+      <c r="C51" s="27"/>
+      <c r="D51" s="96"/>
+      <c r="E51" s="96"/>
+      <c r="F51" s="96"/>
+      <c r="G51" s="99"/>
+      <c r="H51" s="96"/>
+      <c r="I51" s="100"/>
+      <c r="J51" s="101"/>
       <c r="K51" s="85"/>
       <c r="L51" s="75"/>
       <c r="M51" s="86"/>
@@ -11204,7 +11417,7 @@
     </row>
     <row r="52" spans="2:14" ht="20.5" thickBot="1">
       <c r="B52" s="79">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C52" s="32"/>
       <c r="D52" s="75"/>
@@ -11221,7 +11434,7 @@
     </row>
     <row r="53" spans="2:14" ht="20.5" thickBot="1">
       <c r="B53" s="79">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C53" s="32"/>
       <c r="D53" s="75"/>
@@ -11238,7 +11451,7 @@
     </row>
     <row r="54" spans="2:14" ht="20.5" thickBot="1">
       <c r="B54" s="79">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C54" s="32"/>
       <c r="D54" s="75"/>
@@ -11255,7 +11468,7 @@
     </row>
     <row r="55" spans="2:14" ht="20.5" thickBot="1">
       <c r="B55" s="79">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C55" s="32"/>
       <c r="D55" s="75"/>
@@ -11272,7 +11485,7 @@
     </row>
     <row r="56" spans="2:14" ht="20.5" thickBot="1">
       <c r="B56" s="79">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C56" s="32"/>
       <c r="D56" s="75"/>
@@ -11289,7 +11502,7 @@
     </row>
     <row r="57" spans="2:14" ht="20.5" thickBot="1">
       <c r="B57" s="79">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C57" s="32"/>
       <c r="D57" s="75"/>
@@ -11306,9 +11519,9 @@
     </row>
     <row r="58" spans="2:14" ht="20.5" thickBot="1">
       <c r="B58" s="79">
-        <v>54</v>
-      </c>
-      <c r="C58" s="75"/>
+        <v>55</v>
+      </c>
+      <c r="C58" s="32"/>
       <c r="D58" s="75"/>
       <c r="E58" s="75"/>
       <c r="F58" s="75"/>
@@ -11323,7 +11536,7 @@
     </row>
     <row r="59" spans="2:14" ht="20.5" thickBot="1">
       <c r="B59" s="79">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C59" s="32"/>
       <c r="D59" s="75"/>
@@ -11340,7 +11553,7 @@
     </row>
     <row r="60" spans="2:14" ht="20.5" thickBot="1">
       <c r="B60" s="79">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C60" s="32"/>
       <c r="D60" s="75"/>
@@ -11357,9 +11570,9 @@
     </row>
     <row r="61" spans="2:14" ht="20.5" thickBot="1">
       <c r="B61" s="79">
-        <v>57</v>
-      </c>
-      <c r="C61" s="75"/>
+        <v>58</v>
+      </c>
+      <c r="C61" s="32"/>
       <c r="D61" s="75"/>
       <c r="E61" s="75"/>
       <c r="F61" s="75"/>
@@ -11374,7 +11587,7 @@
     </row>
     <row r="62" spans="2:14" ht="20.5" thickBot="1">
       <c r="B62" s="79">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C62" s="32"/>
       <c r="D62" s="75"/>
@@ -11391,7 +11604,7 @@
     </row>
     <row r="63" spans="2:14" ht="20.5" thickBot="1">
       <c r="B63" s="79">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C63" s="32"/>
       <c r="D63" s="75"/>
@@ -11408,7 +11621,7 @@
     </row>
     <row r="64" spans="2:14" ht="20.5" thickBot="1">
       <c r="B64" s="79">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C64" s="32"/>
       <c r="D64" s="75"/>
@@ -11425,85 +11638,238 @@
     </row>
     <row r="65" spans="2:14" ht="20.5" thickBot="1">
       <c r="B65" s="79">
-        <v>61</v>
-      </c>
-      <c r="C65" s="76"/>
-      <c r="D65" s="92"/>
-      <c r="E65" s="92"/>
-      <c r="F65" s="92"/>
-      <c r="G65" s="93"/>
-      <c r="H65" s="92"/>
-      <c r="I65" s="94"/>
-      <c r="J65" s="95"/>
-      <c r="K65" s="93"/>
-      <c r="L65" s="92"/>
-      <c r="M65" s="94"/>
-      <c r="N65" s="95"/>
-    </row>
-    <row r="67" spans="2:14" ht="22.5">
-      <c r="B67" s="49"/>
-      <c r="C67" s="49"/>
-      <c r="E67" s="50"/>
-      <c r="H67" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" s="32"/>
+      <c r="D65" s="75"/>
+      <c r="E65" s="75"/>
+      <c r="F65" s="75"/>
+      <c r="G65" s="85"/>
+      <c r="H65" s="75"/>
+      <c r="I65" s="86"/>
+      <c r="J65" s="87"/>
+      <c r="K65" s="85"/>
+      <c r="L65" s="75"/>
+      <c r="M65" s="86"/>
+      <c r="N65" s="87"/>
+    </row>
+    <row r="66" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B66" s="79">
+        <v>63</v>
+      </c>
+      <c r="C66" s="32"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="75"/>
+      <c r="F66" s="75"/>
+      <c r="G66" s="85"/>
+      <c r="H66" s="75"/>
+      <c r="I66" s="86"/>
+      <c r="J66" s="87"/>
+      <c r="K66" s="85"/>
+      <c r="L66" s="75"/>
+      <c r="M66" s="86"/>
+      <c r="N66" s="87"/>
+    </row>
+    <row r="67" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B67" s="79">
+        <v>64</v>
+      </c>
+      <c r="C67" s="75"/>
+      <c r="D67" s="75"/>
+      <c r="E67" s="75"/>
+      <c r="F67" s="75"/>
+      <c r="G67" s="85"/>
+      <c r="H67" s="75"/>
+      <c r="I67" s="86"/>
+      <c r="J67" s="87"/>
+      <c r="K67" s="85"/>
+      <c r="L67" s="75"/>
+      <c r="M67" s="86"/>
+      <c r="N67" s="87"/>
+    </row>
+    <row r="68" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B68" s="79">
+        <v>65</v>
+      </c>
+      <c r="C68" s="32"/>
+      <c r="D68" s="75"/>
+      <c r="E68" s="75"/>
+      <c r="F68" s="75"/>
+      <c r="G68" s="85"/>
+      <c r="H68" s="75"/>
+      <c r="I68" s="86"/>
+      <c r="J68" s="87"/>
+      <c r="K68" s="85"/>
+      <c r="L68" s="75"/>
+      <c r="M68" s="86"/>
+      <c r="N68" s="87"/>
+    </row>
+    <row r="69" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B69" s="79">
+        <v>66</v>
+      </c>
+      <c r="C69" s="32"/>
+      <c r="D69" s="75"/>
+      <c r="E69" s="75"/>
+      <c r="F69" s="75"/>
+      <c r="G69" s="85"/>
+      <c r="H69" s="75"/>
+      <c r="I69" s="86"/>
+      <c r="J69" s="87"/>
+      <c r="K69" s="85"/>
+      <c r="L69" s="75"/>
+      <c r="M69" s="86"/>
+      <c r="N69" s="87"/>
+    </row>
+    <row r="70" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B70" s="79">
+        <v>67</v>
+      </c>
+      <c r="C70" s="75"/>
+      <c r="D70" s="75"/>
+      <c r="E70" s="75"/>
+      <c r="F70" s="75"/>
+      <c r="G70" s="85"/>
+      <c r="H70" s="75"/>
+      <c r="I70" s="86"/>
+      <c r="J70" s="87"/>
+      <c r="K70" s="85"/>
+      <c r="L70" s="75"/>
+      <c r="M70" s="86"/>
+      <c r="N70" s="87"/>
+    </row>
+    <row r="71" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B71" s="79">
+        <v>68</v>
+      </c>
+      <c r="C71" s="32"/>
+      <c r="D71" s="75"/>
+      <c r="E71" s="75"/>
+      <c r="F71" s="75"/>
+      <c r="G71" s="85"/>
+      <c r="H71" s="75"/>
+      <c r="I71" s="86"/>
+      <c r="J71" s="87"/>
+      <c r="K71" s="85"/>
+      <c r="L71" s="75"/>
+      <c r="M71" s="86"/>
+      <c r="N71" s="87"/>
+    </row>
+    <row r="72" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B72" s="79">
+        <v>69</v>
+      </c>
+      <c r="C72" s="32"/>
+      <c r="D72" s="75"/>
+      <c r="E72" s="75"/>
+      <c r="F72" s="75"/>
+      <c r="G72" s="85"/>
+      <c r="H72" s="75"/>
+      <c r="I72" s="86"/>
+      <c r="J72" s="87"/>
+      <c r="K72" s="85"/>
+      <c r="L72" s="75"/>
+      <c r="M72" s="86"/>
+      <c r="N72" s="87"/>
+    </row>
+    <row r="73" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B73" s="79">
+        <v>70</v>
+      </c>
+      <c r="C73" s="32"/>
+      <c r="D73" s="75"/>
+      <c r="E73" s="75"/>
+      <c r="F73" s="75"/>
+      <c r="G73" s="85"/>
+      <c r="H73" s="75"/>
+      <c r="I73" s="86"/>
+      <c r="J73" s="87"/>
+      <c r="K73" s="85"/>
+      <c r="L73" s="75"/>
+      <c r="M73" s="86"/>
+      <c r="N73" s="87"/>
+    </row>
+    <row r="74" spans="2:14" ht="20.5" thickBot="1">
+      <c r="B74" s="79">
+        <v>71</v>
+      </c>
+      <c r="C74" s="76"/>
+      <c r="D74" s="92"/>
+      <c r="E74" s="92"/>
+      <c r="F74" s="92"/>
+      <c r="G74" s="93"/>
+      <c r="H74" s="92"/>
+      <c r="I74" s="94"/>
+      <c r="J74" s="95"/>
+      <c r="K74" s="93"/>
+      <c r="L74" s="92"/>
+      <c r="M74" s="94"/>
+      <c r="N74" s="95"/>
+    </row>
+    <row r="76" spans="2:14" ht="22.5">
+      <c r="B76" s="49"/>
+      <c r="C76" s="49"/>
+      <c r="E76" s="50"/>
+      <c r="H76" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="I67" s="3">
-        <f>COUNTA(I4:I65)</f>
+      <c r="I76" s="3">
+        <f>COUNTA(I4:I74)</f>
         <v>0</v>
       </c>
-      <c r="L67" s="51" t="s">
+      <c r="L76" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="M67" s="3">
-        <f>COUNTA(M4:M65)</f>
+      <c r="M76" s="3">
+        <f>COUNTA(M4:M74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:14">
-      <c r="H68" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="I68" s="3">
-        <f>COUNTIF(I4:I65,"〇")</f>
+    <row r="77" spans="2:14">
+      <c r="H77" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="I77" s="3">
+        <f>COUNTIF(I4:I74,"〇")</f>
         <v>0</v>
       </c>
-      <c r="L68" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="M68" s="3">
-        <f>COUNTIF(M4:M65,"〇")</f>
+      <c r="L77" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="M77" s="3">
+        <f>COUNTIF(M4:M74,"〇")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:14">
-      <c r="H69" s="53" t="s">
+    <row r="78" spans="2:14">
+      <c r="H78" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="I69" s="3">
-        <f>COUNTIF(I4:I65,"✖")</f>
+      <c r="I78" s="3">
+        <f>COUNTIF(I4:I74,"✖")</f>
         <v>0</v>
       </c>
-      <c r="L69" s="53" t="s">
+      <c r="L78" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="M69" s="3">
-        <f>COUNTIF(M4:M65,"✖")</f>
+      <c r="M78" s="3">
+        <f>COUNTIF(M4:M74,"✖")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:14">
-      <c r="H70" s="52" t="s">
+    <row r="79" spans="2:14">
+      <c r="H79" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="I70" s="54" t="e">
-        <f>I69/I67</f>
+      <c r="I79" s="54" t="e">
+        <f>I78/I76</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L70" s="52" t="s">
+      <c r="L79" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="M70" s="55" t="e">
-        <f>M69/M67</f>
+      <c r="M79" s="55" t="e">
+        <f>M78/M76</f>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/資料/設計書/モグラ叩き_テスト仕様書.xlsx
+++ b/資料/設計書/モグラ叩き_テスト仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\comp.train.whack-a-mole\資料\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FF960E-5A54-4745-8159-DAE1E1E91EFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B21A9CF-7A24-49C6-B73E-E450310A08E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="438">
   <si>
     <t>マイコン：pic16f1827</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>基板：キットで遊ぼう電子回路実験用基板</t>
@@ -63,22 +63,22 @@
     <rPh sb="17" eb="19">
       <t>キバン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>LCD：AQM0802</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>No.</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
       <t>キノウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>機能概要</t>
@@ -88,14 +88,14 @@
     <rPh sb="2" eb="4">
       <t>ガイヨウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>手順</t>
     <rPh sb="0" eb="2">
       <t>テジュン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>期待値</t>
@@ -105,14 +105,14 @@
     <rPh sb="2" eb="3">
       <t>チ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>実施日</t>
     <rPh sb="0" eb="3">
       <t>ジッシビ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>テスト結果値(1回目)</t>
@@ -125,21 +125,21 @@
     <rPh sb="8" eb="10">
       <t>カイメ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>テスト結果</t>
     <rPh sb="3" eb="5">
       <t>ケッカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>テスト結果値(2回目)</t>
@@ -152,15 +152,15 @@
     <rPh sb="8" eb="10">
       <t>カイメ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>キッチンタイマリセット</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>キッチンタイマをリセットする</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．電源を投入する(以降の手順では電源の投入を省略する)</t>
@@ -185,7 +185,7 @@
     <rPh sb="23" eb="25">
       <t>ショウリャク</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"＋01"となる</t>
@@ -195,7 +195,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"＋01"</t>
@@ -205,11 +205,11 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．SW1(分スイッチ)を押下して、カウントを”01:00”にする
@@ -229,7 +229,7 @@
     <rPh sb="54" eb="56">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.6の手順を行い、カウントダウン状態(CNT_DOWN)に移行する
@@ -252,7 +252,7 @@
     <rPh sb="67" eb="69">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.9の手順を行い、カウントダウン停止状態(CNT_STOP)に移行する
@@ -278,7 +278,7 @@
     <rPh sb="53" eb="55">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.13の手順を行い、アラーム鳴動状(ALARM)態へ移行する
@@ -307,7 +307,7 @@
     <rPh sb="59" eb="61">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>カウントダウン状態移行</t>
@@ -317,7 +317,7 @@
     <rPh sb="9" eb="11">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>カウントダウン状態(CNT_DOWN)に移行する</t>
@@ -327,7 +327,7 @@
     <rPh sb="20" eb="22">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．SW1(分スイッチ)を押下して、カウントを”01:00”にする
@@ -341,7 +341,7 @@
     <rPh sb="55" eb="57">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"CNT_DOWN"になり、カウント”01:00”からカウントダウンが開始される</t>
@@ -351,7 +351,7 @@
     <rPh sb="37" eb="39">
       <t>カイシ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"CNT_DOWN"、
@@ -362,7 +362,7 @@
     <rPh sb="34" eb="36">
       <t>カイシ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．状態”SET”、カウント”00:00”のままSW3を押下する</t>
@@ -372,7 +372,7 @@
     <rPh sb="28" eb="30">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>カウントダウン状態に移行しない。
@@ -389,7 +389,7 @@
     <rPh sb="41" eb="43">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態”SET”、カウント”00:00”、カウント単位”+01”</t>
@@ -399,7 +399,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.9の手順を行い、カウントダウン停止状態に移行する
@@ -422,7 +422,7 @@
     <rPh sb="36" eb="38">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"CNT_DOWN"になり、カウント”00:30”からカウントダウンが再開される</t>
@@ -432,7 +432,7 @@
     <rPh sb="37" eb="39">
       <t>サイカイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"CNT_DOWN"、
@@ -443,7 +443,7 @@
     <rPh sb="34" eb="36">
       <t>サイカイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>カウントダウン停止状態移行</t>
@@ -456,7 +456,7 @@
     <rPh sb="11" eb="13">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>カウントダウン停止状態(CNT_STOP)に移行する</t>
@@ -469,7 +469,7 @@
     <rPh sb="22" eb="24">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.6の手順を行い、カウントダウン状態に移行する
@@ -489,7 +489,7 @@
     <rPh sb="50" eb="52">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"CNT_STOP"になり、カウント”00:30”でカウントダウンが停止される</t>
@@ -499,7 +499,7 @@
     <rPh sb="36" eb="38">
       <t>テイシ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"CNT_STOP"、
@@ -510,7 +510,7 @@
     <rPh sb="33" eb="35">
       <t>テイシ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>カウント設定状態移行</t>
@@ -523,7 +523,7 @@
     <rPh sb="8" eb="10">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>カウント設定状態(SET)に移行する</t>
@@ -536,7 +536,7 @@
     <rPh sb="14" eb="16">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.6の手順を行い、カウントダウン状態に移行する
@@ -562,7 +562,7 @@
     <rPh sb="61" eb="63">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"SET"、カウント”00:30”、カウント単位"＋01"になる</t>
@@ -572,7 +572,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"SET"、カウント”00:30”、カウント単位"＋01"</t>
@@ -582,7 +582,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.6の手順を行い、カウントダウン状態に移行する
@@ -593,7 +593,7 @@
     <rPh sb="41" eb="43">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.6の手順を行い、カウントダウン状態に移行する
@@ -604,7 +604,7 @@
     <rPh sb="41" eb="43">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>アラーム鳴動状態移行</t>
@@ -617,7 +617,7 @@
     <rPh sb="8" eb="10">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>アラーム鳴動状態(ALARM)に移行する</t>
@@ -627,7 +627,7 @@
     <rPh sb="16" eb="18">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.6の手順を行い、カウントダウン状態に移行する
@@ -635,21 +635,21 @@
     <rPh sb="47" eb="48">
       <t>マ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"ALARM"、カウント”00:00(00:30)”になる</t>
     <rPh sb="0" eb="2">
       <t>ジョウタイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"ALARM"、カウント”00:00(00:30)”</t>
     <rPh sb="0" eb="2">
       <t>ジョウタイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>カウント単位(1/10)切替</t>
@@ -659,7 +659,7 @@
     <rPh sb="12" eb="14">
       <t>キリカエ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>カウント単位(01/10)が切り替わる</t>
@@ -672,7 +672,7 @@
     <rPh sb="16" eb="17">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．SW4(カウント単位切替スイッチ)を押下する</t>
@@ -685,7 +685,7 @@
     <rPh sb="20" eb="22">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"＋10"となる</t>
@@ -695,7 +695,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"＋10"</t>
@@ -705,7 +705,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.14の手順を行い、カウント単位を"+10"にする
@@ -722,7 +722,7 @@
     <rPh sb="36" eb="38">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．SW1とSW4を同時に押下し、カウント単位を”-01”にする
@@ -739,7 +739,7 @@
     <rPh sb="39" eb="41">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"-10”となる</t>
@@ -749,7 +749,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"-10”</t>
@@ -759,7 +759,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.16の手順を行い、カウント単位を”-10”にする
@@ -776,7 +776,7 @@
     <rPh sb="36" eb="38">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"-01”となる</t>
@@ -786,7 +786,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"-01”</t>
@@ -796,7 +796,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>カウント単位(＋/－)切替</t>
@@ -806,7 +806,7 @@
     <rPh sb="11" eb="13">
       <t>キリカエ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>カウント単位(＋/－)が切り替わる</t>
@@ -819,7 +819,7 @@
     <rPh sb="14" eb="15">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．SW1とSW4を同時に押下する</t>
@@ -829,7 +829,7 @@
     <rPh sb="13" eb="15">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"-01"となる</t>
@@ -839,7 +839,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"-01"</t>
@@ -849,11 +849,11 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>✖</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>押下されたSWの数だけ(2回)実行され、カウント単位が元に戻る。</t>
@@ -878,7 +878,7 @@
     <rPh sb="29" eb="30">
       <t>モド</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．SW4を押下し、カウント単位を”+10”にする
@@ -895,7 +895,7 @@
     <rPh sb="39" eb="41">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"-10"となる</t>
@@ -905,7 +905,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"-10"</t>
@@ -915,14 +915,14 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>No.17と同様</t>
     <rPh sb="6" eb="8">
       <t>ドウヨウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.18の手順を行い、カウント単位を”-01”にする
@@ -942,7 +942,7 @@
     <rPh sb="44" eb="46">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"+01”となる</t>
@@ -952,7 +952,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"+01”</t>
@@ -962,7 +962,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.19の手順を行い、カウント単位を”-10”にする
@@ -982,7 +982,7 @@
     <rPh sb="44" eb="46">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"+10”となる</t>
@@ -992,7 +992,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：00"、カウント単位"+10”</t>
@@ -1002,7 +1002,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>分設定</t>
@@ -1012,7 +1012,7 @@
     <rPh sb="1" eb="3">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>カウントの分単位が、カウント単位に応じて変化する</t>
@@ -1031,7 +1031,7 @@
     <rPh sb="20" eb="22">
       <t>ヘンカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．SW1を1回押下する</t>
@@ -1041,7 +1041,7 @@
     <rPh sb="8" eb="10">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"SET"、カウント"01：00"、カウント単位"+01"となる</t>
@@ -1051,7 +1051,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"SET"、カウント"01：00"、カウント単位"+01"</t>
@@ -1061,7 +1061,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.22の手順を繰り返して、カウントを”09:00”にする
@@ -1081,7 +1081,7 @@
     <rPh sb="41" eb="43">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>分の1桁目が桁上りし、
@@ -1101,7 +1101,7 @@
     <rPh sb="7" eb="8">
       <t>アガ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>分の1桁目が桁上り、
@@ -1121,7 +1121,7 @@
     <rPh sb="7" eb="8">
       <t>アガ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.18の手順を行い、カウント単位を"-01"にする
@@ -1158,7 +1158,7 @@
     <rPh sb="96" eb="98">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>分の1桁目と2桁目が桁上りし、
@@ -1184,7 +1184,7 @@
     <rPh sb="11" eb="12">
       <t>アガ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>分の1桁目と2桁目が桁上り、
@@ -1210,7 +1210,7 @@
     <rPh sb="11" eb="12">
       <t>アガ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.18の手順を行い、カウント単位を"-01"にする
@@ -1247,7 +1247,7 @@
     <rPh sb="96" eb="98">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>分の1桁目と2桁目が桁上りし、
@@ -1273,7 +1273,7 @@
     <rPh sb="11" eb="12">
       <t>アガ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>分の1桁目と2桁目が桁上り、
@@ -1299,7 +1299,7 @@
     <rPh sb="11" eb="12">
       <t>アガ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．カウントを”00:00”、カウント単位を"+10"にする
@@ -1313,7 +1313,7 @@
     <rPh sb="39" eb="41">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"SET"、カウント"10：00"、カウント単位"+10"となる</t>
@@ -1323,7 +1323,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"SET"、カウント"10：00"、カウント単位"+10"</t>
@@ -1333,7 +1333,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．カウントを”99:00”、カウント単位を”+10”にする
@@ -1344,7 +1344,7 @@
     <rPh sb="38" eb="41">
       <t>カイオウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>分の2桁目が桁上りし、
@@ -1364,7 +1364,7 @@
     <rPh sb="7" eb="8">
       <t>アガ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>分の2桁目が桁上り、
@@ -1384,7 +1384,7 @@
     <rPh sb="7" eb="8">
       <t>アガ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．カウントを”99:59”、カウント単位を”+10”にする
@@ -1395,7 +1395,7 @@
     <rPh sb="38" eb="41">
       <t>カイオウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>分の2桁目が桁上りし、
@@ -1415,7 +1415,7 @@
     <rPh sb="7" eb="8">
       <t>アガ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>分の2桁目が桁上り、
@@ -1435,12 +1435,12 @@
     <rPh sb="7" eb="8">
       <t>アガ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．カウントを”00:00”、カウント単位を"-01"にする
 2．SW1を1回押下する</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>分の1桁目が桁下がりし、
@@ -1460,7 +1460,7 @@
     <rPh sb="7" eb="8">
       <t>サ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>分の1桁目が桁下がり、
@@ -1480,7 +1480,7 @@
     <rPh sb="7" eb="8">
       <t>サ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．カウントを”10:00”、カウント単位を”-01”にする
@@ -1491,7 +1491,7 @@
     <rPh sb="38" eb="41">
       <t>カイオウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>分の2桁目が桁下がりし、
@@ -1511,7 +1511,7 @@
     <rPh sb="7" eb="8">
       <t>サ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>分の2桁目が桁下がり、
@@ -1531,7 +1531,7 @@
     <rPh sb="7" eb="8">
       <t>サ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．カウントを”99:59”、カウント単位を”-01”にする
@@ -1542,7 +1542,7 @@
     <rPh sb="38" eb="41">
       <t>カイオウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"SET"、カウント"98：59"、カウント単位"-01"となる</t>
@@ -1552,7 +1552,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"SET"、カウント"98：59"、カウント単位"-01"</t>
@@ -1562,7 +1562,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．カウントを”00:00”、カウント単位を”-10”にする
@@ -1573,7 +1573,7 @@
     <rPh sb="38" eb="41">
       <t>カイオウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>分の2桁目が桁下がりし、
@@ -1593,7 +1593,7 @@
     <rPh sb="7" eb="8">
       <t>サ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>分の2桁目が桁下がり、
@@ -1613,7 +1613,7 @@
     <rPh sb="7" eb="8">
       <t>サ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．カウントを”09:00”、カウント単位を”-10”にする
@@ -1627,7 +1627,7 @@
     <rPh sb="39" eb="41">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>分の2桁目が桁下がりし、
@@ -1647,7 +1647,7 @@
     <rPh sb="7" eb="8">
       <t>サ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>分の2桁目が桁下がり、
@@ -1667,7 +1667,7 @@
     <rPh sb="7" eb="8">
       <t>サ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．カウントを”99:00”、カウント単位を”-10”にする
@@ -1681,15 +1681,15 @@
     <rPh sb="39" eb="41">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"SET"、カウント"89：00"、カウント単位"-10"となる</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"SET"、カウント"89：00"、カウント単位"-10"</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．カウントを”99:59”、カウント単位を"-10"にする
@@ -1700,15 +1700,15 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"SET"、カウント"89：59"、カウント単位"-10"となる</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"SET"、カウント"89：59"、カウント単位"-10"</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>秒設定</t>
@@ -1718,7 +1718,7 @@
     <rPh sb="1" eb="3">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>カウントの秒単位が、カウント単位に応じて変化する</t>
@@ -1737,7 +1737,7 @@
     <rPh sb="20" eb="22">
       <t>ヘンカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．カウントを”00:00”、カウント単位を"+01"にする
@@ -1745,7 +1745,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：01"、カウント単位"+01"となる</t>
@@ -1755,7 +1755,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：01"、カウント単位"+01"</t>
@@ -1765,7 +1765,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．カウントを”00:59”、カウント単位を"+01"にする
@@ -1773,7 +1773,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>秒の1桁目と2桁目が桁上りし、
@@ -1805,7 +1805,7 @@
     <rPh sb="40" eb="42">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>秒の1桁目と2桁目が桁上り、
@@ -1837,7 +1837,7 @@
     <rPh sb="39" eb="41">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．カウントを”09:59”、カウント単位を"+01"にする
@@ -1845,7 +1845,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>秒の1桁目と2桁目、分の1桁目が桁上りし、
@@ -1886,7 +1886,7 @@
     <rPh sb="46" eb="48">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>秒の1桁目と2桁目、分の1桁目が桁上り、
@@ -1927,7 +1927,7 @@
     <rPh sb="45" eb="47">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．カウントを”99:59”、カウント単位を"+01"にする
@@ -1935,7 +1935,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>秒の1桁目と2桁目、分の1桁目と2桁目が桁上りし、
@@ -1982,7 +1982,7 @@
     <rPh sb="50" eb="52">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>秒の1桁目と2桁目、分の1桁目と2桁目が桁上り、
@@ -2029,7 +2029,7 @@
     <rPh sb="49" eb="51">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．カウントを”00:00”、カウント単位を"+10"にする
@@ -2037,15 +2037,15 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：10"、カウント単位"+10"となる</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"SET"、カウント"00：10"、カウント単位"+10"</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．カウントを”00:50”、カウント単位を"+10"にする
@@ -2053,7 +2053,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>秒の2桁目が桁上りし、
@@ -2079,7 +2079,7 @@
     <rPh sb="36" eb="38">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>秒の2桁目が桁上り、
@@ -2105,7 +2105,7 @@
     <rPh sb="35" eb="37">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．カウントを”09:59”、カウント単位を"+10"にする
@@ -2113,7 +2113,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>秒の2桁目、分の1桁目が桁上りし、
@@ -2148,7 +2148,7 @@
     <rPh sb="42" eb="44">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>秒の2桁目、分の1桁目が桁上り、
@@ -2183,7 +2183,7 @@
     <rPh sb="41" eb="43">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．カウントを”99:59”、カウント単位を"+10"にする
@@ -2191,7 +2191,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>秒の2桁目、分の1桁目と2桁目が桁上りし、
@@ -2232,7 +2232,7 @@
     <rPh sb="46" eb="48">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>秒の2桁目、分の1桁目と2桁目が桁上り、
@@ -2273,7 +2273,7 @@
     <rPh sb="45" eb="47">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．カウントを”00:00”、カウント単位を"-01"にする
@@ -2281,7 +2281,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>秒の1桁目と2桁目、分の1桁目と2桁目が桁下がりし、
@@ -2328,7 +2328,7 @@
     <rPh sb="51" eb="53">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>秒の1桁目と2桁目、分の1桁目と2桁目が桁下がり、
@@ -2375,7 +2375,7 @@
     <rPh sb="50" eb="52">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．カウントを”01:00”、カウント単位を"-01"にする
@@ -2383,7 +2383,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>秒の1桁目と2桁目が桁下がりし、
@@ -2415,7 +2415,7 @@
     <rPh sb="41" eb="43">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>秒の1桁目と2桁目が桁下がり、
@@ -2447,7 +2447,7 @@
     <rPh sb="40" eb="42">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．カウントを”10:00”、カウント単位を"-01"にする
@@ -2455,7 +2455,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>秒の1桁目と2桁目、分の1桁目が桁下がりし、
@@ -2496,7 +2496,7 @@
     <rPh sb="47" eb="49">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>秒の1桁目と2桁目、分の1桁目が桁下がり、
@@ -2537,7 +2537,7 @@
     <rPh sb="46" eb="48">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．カウントを”99:59”、カウント単位を"-01"にする
@@ -2545,7 +2545,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"SET"、カウント"99：58"、カウント単位"-01"となる</t>
@@ -2555,7 +2555,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"SET"、カウント"99：58"、カウント単位"-01"</t>
@@ -2565,7 +2565,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．カウントを”00:00”、カウント単位を"-10"にする
@@ -2573,7 +2573,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>秒の2桁目、分の1桁目と2桁目が桁下がりし、
@@ -2614,7 +2614,7 @@
     <rPh sb="47" eb="49">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>秒の2桁目、分の1桁目と2桁目が桁下がり、
@@ -2655,7 +2655,7 @@
     <rPh sb="46" eb="48">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．カウントを”01:00”、カウント単位を"-10"にする
@@ -2663,7 +2663,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>秒の2桁目が桁下がりし、
@@ -2689,7 +2689,7 @@
     <rPh sb="37" eb="39">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>秒の2桁目が桁下がり、
@@ -2715,7 +2715,7 @@
     <rPh sb="36" eb="38">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．カウントを”10:00”、カウント単位を"-10"にする
@@ -2723,7 +2723,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>秒の2桁目、分の1桁目が桁下がりし、
@@ -2758,7 +2758,7 @@
     <rPh sb="43" eb="45">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>秒の2桁目、分の1桁目が桁下がり、
@@ -2793,7 +2793,7 @@
     <rPh sb="42" eb="44">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．カウントを”99:59”、カウント単位を"-10"にする
@@ -2801,7 +2801,7 @@
     <rPh sb="37" eb="39">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"SET"、カウント"99：49"、カウント単位"-10"となる</t>
@@ -2811,7 +2811,7 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態"SET"、カウント"99：49"、カウント単位"-10"</t>
@@ -2821,11 +2821,11 @@
     <rPh sb="24" eb="26">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>カウントダウン</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1秒に1ずつカウントが減少する</t>
@@ -2835,7 +2835,7 @@
     <rPh sb="11" eb="13">
       <t>ゲンショウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.6の手順を行い、カウントダウン状態に移行する</t>
@@ -2851,7 +2851,7 @@
     <rPh sb="23" eb="25">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>カウントダウンが開始され、誤差±0.5%以内でカウントダウンされる</t>
@@ -2864,14 +2864,14 @@
     <rPh sb="20" eb="22">
       <t>イナイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>誤差0.22%＊</t>
     <rPh sb="0" eb="2">
       <t>ゴサ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>SW入力の変更による影響がないため、実施しない</t>
@@ -2887,7 +2887,7 @@
     <rPh sb="18" eb="20">
       <t>ジッシ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No52の手順を行い、カウントダウンを開始する。
@@ -2913,7 +2913,7 @@
     <rPh sb="62" eb="63">
       <t>カエ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>誤差±0.5%以内でカウントダウンされる</t>
@@ -2923,35 +2923,35 @@
     <rPh sb="7" eb="9">
       <t>イナイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>誤差0.22%</t>
     <rPh sb="0" eb="2">
       <t>ゴサ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>誤差0.26%</t>
     <rPh sb="0" eb="2">
       <t>ゴサ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>カウントダウン停止</t>
     <rPh sb="7" eb="9">
       <t>テイシ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>カウントダウンを停止する</t>
     <rPh sb="8" eb="10">
       <t>テイシ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.9の手順を行い、カウント停止状態に移行する</t>
@@ -2970,7 +2970,7 @@
     <rPh sb="22" eb="24">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>カウントダウンが停止され、
@@ -2978,7 +2978,7 @@
     <rPh sb="8" eb="10">
       <t>テイシ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>カウントダウンが停止、
@@ -2986,7 +2986,7 @@
     <rPh sb="8" eb="10">
       <t>テイシ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>カウントダウン停止、
@@ -2994,7 +2994,7 @@
     <rPh sb="7" eb="9">
       <t>テイシ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.4の手順を行い、キッチンタイマリセットをする</t>
@@ -3004,7 +3004,7 @@
     <rPh sb="10" eb="11">
       <t>オコナ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>カウントダウンが停止され、
@@ -3012,7 +3012,7 @@
     <rPh sb="8" eb="10">
       <t>テイシ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>カウントダウンが停止、
@@ -3020,7 +3020,7 @@
     <rPh sb="8" eb="10">
       <t>テイシ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>カウントダウン停止、
@@ -3028,14 +3028,14 @@
     <rPh sb="7" eb="9">
       <t>テイシ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>アラーム鳴動</t>
     <rPh sb="4" eb="6">
       <t>メイドウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>アラーム音が鳴る。</t>
@@ -3045,7 +3045,7 @@
     <rPh sb="6" eb="7">
       <t>ナ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.13の動作を行い、アラーム鳴動状態に移行する</t>
@@ -3064,7 +3064,7 @@
     <rPh sb="23" eb="25">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態”ALARM”、カウントが”00:30”*¹になり、
@@ -3081,7 +3081,7 @@
     <rPh sb="46" eb="48">
       <t>カイシ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態”ALARM”、カウントが”00:30”、
@@ -3098,14 +3098,14 @@
     <rPh sb="40" eb="42">
       <t>カイシ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>アラーム停止</t>
     <rPh sb="4" eb="6">
       <t>テイシ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>アラーム音が止まる</t>
@@ -3115,7 +3115,7 @@
     <rPh sb="6" eb="7">
       <t>ト</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.13の動作を行い、アラーム鳴動状態に移行する
@@ -3138,7 +3138,7 @@
     <rPh sb="47" eb="48">
       <t>マ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>アラーム鳴動が停止され、
@@ -3155,7 +3155,7 @@
     <rPh sb="37" eb="39">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>アラーム鳴動停止、
@@ -3172,7 +3172,7 @@
     <rPh sb="34" eb="36">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.11の動作を行い、アラーム鳴動状態に移行する
@@ -3198,7 +3198,7 @@
     <rPh sb="36" eb="38">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>状態表示</t>
@@ -3208,11 +3208,11 @@
     <rPh sb="2" eb="4">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>LCDに状態が表示される。</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.1～No.13までの動作を行う</t>
@@ -3222,7 +3222,7 @@
     <rPh sb="18" eb="19">
       <t>オコナ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>LCD上段左側5~8マスに、状態の文字列が表示される</t>
@@ -3241,7 +3241,7 @@
     <rPh sb="21" eb="23">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>LCD上段左側5~8マスに状態の文字列表示</t>
@@ -3260,21 +3260,21 @@
     <rPh sb="19" eb="21">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>カウント表示</t>
     <rPh sb="4" eb="6">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>LCDにカウントが表示される。</t>
     <rPh sb="9" eb="11">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>2．No.22～No.51、No.52、No.53の動作を行う</t>
@@ -3284,7 +3284,7 @@
     <rPh sb="29" eb="30">
       <t>オコナ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>LCD下段右側5マスに、カウントの文字列が表示される</t>
@@ -3303,7 +3303,7 @@
     <rPh sb="21" eb="23">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>LCD下段右側5マスにカウントの文字列表示</t>
@@ -3322,7 +3322,7 @@
     <rPh sb="19" eb="21">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>切替設定表示</t>
@@ -3335,7 +3335,7 @@
     <rPh sb="4" eb="6">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>LCDにカウント切替設定が表示される。</t>
@@ -3348,7 +3348,7 @@
     <rPh sb="13" eb="15">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>3．No.13～No.21の動作を行う</t>
@@ -3358,7 +3358,7 @@
     <rPh sb="17" eb="18">
       <t>オコナ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>LCD上段右側3マスに、カウント単位の文字列が表示される</t>
@@ -3377,7 +3377,7 @@
     <rPh sb="23" eb="25">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>LCD上段右側3マスにカウント単位の文字列表示</t>
@@ -3396,14 +3396,14 @@
     <rPh sb="21" eb="23">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>＊カウントダウンの精度について　時間計測テストシート参照</t>
     <rPh sb="9" eb="11">
       <t>セイド</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>テスト項目数</t>
@@ -3413,7 +3413,7 @@
     <rPh sb="5" eb="6">
       <t>スウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>故障率</t>
@@ -3423,7 +3423,7 @@
     <rPh sb="2" eb="3">
       <t>リツ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>モグラ叩き機能テスト</t>
@@ -3433,14 +3433,14 @@
     <rPh sb="5" eb="7">
       <t>キノウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>関数</t>
     <rPh sb="0" eb="2">
       <t>カンスウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．タイトル画面に遷移する。
@@ -3460,7 +3460,7 @@
     <rPh sb="32" eb="34">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．難易度選択画面に遷移する。
@@ -3493,7 +3493,7 @@
     <rPh sb="50" eb="52">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．難易度選択画面に遷移する。
@@ -3526,7 +3526,7 @@
     <rPh sb="52" eb="54">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．難易度選択画面に遷移する。
@@ -3559,7 +3559,7 @@
     <rPh sb="50" eb="52">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．難易度選択画面に遷移する。
@@ -3585,7 +3585,7 @@
     <rPh sb="33" eb="35">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．リザルト画面に遷移する。
@@ -3605,7 +3605,7 @@
     <rPh sb="32" eb="34">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>テスト結果値</t>
@@ -3615,21 +3615,21 @@
     <rPh sb="5" eb="6">
       <t>チ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
       <t>ガイヨウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>確認項目</t>
     <rPh sb="0" eb="4">
       <t>カクニンコウモク</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>モグラの状態に従って、スコア増加やペナルティが行われる。</t>
@@ -3645,7 +3645,7 @@
     <rPh sb="23" eb="24">
       <t>オコナ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1．ゲーム中画面に遷移する。
@@ -3668,50 +3668,50 @@
     <rPh sb="36" eb="38">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>bool PopDecision(uint16_t i_decisionNumber)</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>LCDの1行目に「モグラタタキ」文字列、
 LCDの2行目にモグラのイラストが3種類表示される</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>LCDの1行目に「CLEAR HS？」の文字列、
 LCDの2行目に「YES1 NO4」の文字列が表示される。</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>LCDの2行4列目に「3」と表示される。</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>LCDの1行目に「S000 T60」、
 LCDの2行目にモグラの穴などが表示される。</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>LCDの1行目に「SCORExxx」
 LCDの2行目に「　　HSxxx」と表示される。</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>LCDの1行目に「EASY」、
 LCDの2行目に「HS xxx」表示される。</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>LCDの1行目に「NORMAL」、
 LCDの2行目に「HS xxx」表示される。</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>LCDの1行目に「HARD」、
 LCDの2行目に「HS xxx」表示される。</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>LCDの2行4列目の数文字が減少する</t>
@@ -3727,7 +3727,7 @@
     <rPh sb="14" eb="16">
       <t>ゲンショウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>LCDの1行7,8列目の数文字列が減少する</t>
@@ -3746,7 +3746,7 @@
     <rPh sb="17" eb="19">
       <t>ゲンショウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1．電源を投入する(以降の手順では電源の投入を省略する)
@@ -3775,7 +3775,7 @@
     <rPh sb="35" eb="37">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.1の手順を行い、タイトル画面に遷移する。
@@ -3799,7 +3799,7 @@
     <rPh sb="44" eb="46">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.２の手順を行い、難易度選択画面に遷移する。
@@ -3829,7 +3829,7 @@
     <rPh sb="45" eb="47">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.３の手順を行い、HSクリア確認画面に遷移する。
@@ -3853,7 +3853,7 @@
     <rPh sb="54" eb="56">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.２の手順を行い、難易度選択画面に遷移する。
@@ -3883,7 +3883,7 @@
     <rPh sb="45" eb="47">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.7の手順を行い、リザルト画面に遷移する。
@@ -3907,7 +3907,7 @@
     <rPh sb="44" eb="46">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.２の手順を行い、難易度選択画面に遷移する。
@@ -3937,7 +3937,7 @@
     <rPh sb="45" eb="47">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.２の手順を行い、難易度選択画面に遷移する。
@@ -3967,7 +3967,7 @@
     <rPh sb="45" eb="47">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.2の手順を行い、難易度選択画面に遷移する。
@@ -3997,7 +3997,7 @@
     <rPh sb="45" eb="47">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.6の手順を行い、ゲーム中画面に遷移する。
@@ -4026,7 +4026,7 @@
     <rPh sb="43" eb="45">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.5の手順を行い、ゲーム開始カウントダウンに遷移する。
@@ -4052,7 +4052,7 @@
     <rPh sb="49" eb="51">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.5の手順を行い、ゲーム開始カウントダウンに遷移する。
@@ -4082,7 +4082,7 @@
     <rPh sb="55" eb="57">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.6の手順を行い、ゲーム中画面に遷移する。
@@ -4115,7 +4115,7 @@
     <rPh sb="49" eb="51">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.３の手順を行い、HSクリア確認画面に遷移する。
@@ -4139,7 +4139,7 @@
     <rPh sb="47" eb="49">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.6の手順を行い、ゲーム中画面に遷移する。
@@ -4162,49 +4162,49 @@
     <rPh sb="32" eb="34">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>LEDが6つ点灯する。</t>
     <rPh sb="6" eb="8">
       <t>テントウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>LEDが5つ点灯する。</t>
     <rPh sb="6" eb="8">
       <t>テントウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>LEDが4つ点灯する。</t>
     <rPh sb="6" eb="8">
       <t>テントウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>LEDが2つ点灯する。</t>
     <rPh sb="6" eb="8">
       <t>テントウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>LEDが3つ点灯する。</t>
     <rPh sb="6" eb="8">
       <t>テントウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>LEDが1つ点灯する。</t>
     <rPh sb="6" eb="8">
       <t>テントウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>モグラの出現が判定されたとき、TRUEを返す
@@ -4218,7 +4218,7 @@
     <rPh sb="20" eb="21">
       <t>カエ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1．タイトル画面に遷移する。
@@ -4241,7 +4241,7 @@
     <rPh sb="32" eb="33">
       <t>フク</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．HSクリア確認画面に遷移する。
@@ -4264,7 +4264,7 @@
     <rPh sb="37" eb="38">
       <t>フク</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>LCDの1行目に「HSCLEAR？」文字列、
@@ -4294,7 +4294,7 @@
     <rPh sb="56" eb="57">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>LCDの1行目に「モグラタタキ」文字列、
@@ -4306,7 +4306,7 @@
     <rPh sb="50" eb="51">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1．ゲーム開始カウントダウンに遷移する。
@@ -4341,7 +4341,7 @@
     <rPh sb="60" eb="62">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>LCDの2行4列目に、残り時間の数文字が表示される。
@@ -4361,7 +4361,7 @@
     <rPh sb="30" eb="31">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1．ゲーム中画面に遷移する。
@@ -4387,7 +4387,7 @@
     <rPh sb="42" eb="44">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1．リザルト画面に遷移する。
@@ -4410,7 +4410,7 @@
     <rPh sb="34" eb="35">
       <t>フク</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>モグラの表示時間を決定する。</t>
@@ -4423,11 +4423,11 @@
     <rPh sb="9" eb="11">
       <t>ケッテイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>uint16_t getRand(uint16_t i_seed)</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>タイトル画面に遷移しない。
@@ -4438,7 +4438,7 @@
     <rPh sb="7" eb="9">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>Visual Studioで単体テストを行う</t>
@@ -4448,11 +4448,11 @@
     <rPh sb="20" eb="21">
       <t>オコナ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>uint8_t getPopTime(uint8_t i_level, uint8_t i_time)</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>モグラ叩きテスト仕様書</t>
@@ -4462,7 +4462,7 @@
     <rPh sb="8" eb="11">
       <t>シヨウショ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>ランダムな値を取得する。
@@ -4482,28 +4482,12 @@
     <rPh sb="20" eb="22">
       <t>ハンイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>マイコン：pic16f1827　基板：キットで遊ぼう電子回路実験用基板　LCD：AQM0802　仕様書を基に作成</t>
-    <rPh sb="48" eb="50">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ショ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>LCDの1行目に難易度「EASY/NORMAL/HARD」の文字列、
 LCDの2行目に「   HS xxx」が表示される</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>LCDの1行目に難易度「EASY/NORMAL/HARD」の文字列、
@@ -4526,7 +4510,7 @@
     <rPh sb="52" eb="54">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>LEDが全て消灯される。</t>
@@ -4536,14 +4520,14 @@
     <rPh sb="6" eb="8">
       <t>ショウトウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>LEDが1つも点灯しない。</t>
     <rPh sb="7" eb="9">
       <t>テントウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1．No.2の手順を行い、難易度選択画面に遷移する。
@@ -4569,7 +4553,7 @@
     <rPh sb="33" eb="35">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1．No.1の手順を行い、タイトル画面に遷移する。
@@ -4589,7 +4573,7 @@
     <rPh sb="32" eb="34">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1．No.3の手順を行い、HSクリア確認画面に遷移する。
@@ -4609,7 +4593,7 @@
     <rPh sb="35" eb="37">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1．No.5の手順を行い、ゲーム開始カウントダウンに遷移する。
@@ -4629,7 +4613,7 @@
     <rPh sb="38" eb="40">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>LCD2行目のモグラが、叩かれたモグラ→モグラの穴に変化する。</t>
@@ -4645,7 +4629,7 @@
     <rPh sb="26" eb="28">
       <t>ヘンカ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1．No.6の手順を行い、ゲーム中画面に遷移する。
@@ -4668,7 +4652,7 @@
     <rPh sb="32" eb="34">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>LCD1行目の7,8列目の2桁の数字が3減少する。</t>
@@ -4693,7 +4677,7 @@
     <rPh sb="20" eb="22">
       <t>ゲンショウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>LCD1行目の7,8列目の2桁の数字が00になり、リザルト画面に遷移する。</t>
@@ -4721,7 +4705,7 @@
     <rPh sb="32" eb="34">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>LCD2行目の文字列が「   HS 000」から「HS 001」となる。</t>
@@ -4731,7 +4715,7 @@
     <rPh sb="7" eb="10">
       <t>モジレツ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>2．ゲーム中に遷移し、リザルト画面に遷移するまでブザーを確認する。</t>
@@ -4750,7 +4734,7 @@
     <rPh sb="28" eb="30">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>BGMが流れる。(確認する周波数は検討中)</t>
@@ -4769,7 +4753,7 @@
     <rPh sb="19" eb="20">
       <t>チュウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>LCD2行4列目が下記の数字のとき、1回ずつSEが鳴る。
@@ -4807,7 +4791,7 @@
     <rPh sb="75" eb="78">
       <t>ケントウチュウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1．ゲーム開始カウントダウンに遷移し、LCDとブザーを確認する。
@@ -4833,7 +4817,7 @@
     <rPh sb="54" eb="56">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>モグラ撃退時のSEが鳴る。(確認する周波数は検討中)</t>
@@ -4855,7 +4839,7 @@
     <rPh sb="22" eb="25">
       <t>ケントウチュウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ペナルティのSEが鳴る。(確認する周波数は検討中)</t>
@@ -4871,7 +4855,7 @@
     <rPh sb="21" eb="24">
       <t>ケントウチュウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ゲーム終了のSE(通常ver)が鳴る。(確認する周波数は検討中)</t>
@@ -4893,7 +4877,7 @@
     <rPh sb="28" eb="31">
       <t>ケントウチュウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ゲーム終了のSE(ハイスコア更新ver)が鳴る。(確認する周波数は検討中)</t>
@@ -4915,7 +4899,7 @@
     <rPh sb="33" eb="36">
       <t>ケントウチュウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>LCDの1行目に難易度「EASY/NORMAL/HARD」の文字列、
@@ -4929,7 +4913,7 @@
     <rPh sb="70" eb="73">
       <t>モジレツ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1．No.19の手順を行い、LEDを6つ点灯させる。
@@ -4955,7 +4939,7 @@
     <rPh sb="46" eb="48">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.19の手順を行い、LEDを6つ点灯させる。
@@ -4981,7 +4965,7 @@
     <rPh sb="46" eb="48">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.19の手順を行い、LEDを6つ点灯させる。
@@ -5007,7 +4991,7 @@
     <rPh sb="46" eb="48">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.19の手順を行い、LEDを6つ点灯させる。
@@ -5033,7 +5017,7 @@
     <rPh sb="46" eb="48">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.19の手順を行い、LEDを6つ点灯させる。
@@ -5059,7 +5043,7 @@
     <rPh sb="46" eb="48">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.19の手順を行い、LEDを6つ点灯させる。
@@ -5088,7 +5072,7 @@
     <rPh sb="54" eb="56">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.26の手順を行い、モグラの穴とモグラを確認する。
@@ -5121,7 +5105,7 @@
     <rPh sb="91" eb="93">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.26の手順を行い、モグラの穴の表示を確認する。
@@ -5153,7 +5137,7 @@
     <rPh sb="52" eb="54">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1．ゲーム中画面に遷移する。
@@ -5176,7 +5160,7 @@
     <rPh sb="35" eb="37">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>実行回数(回目)</t>
@@ -5189,7 +5173,7 @@
     <rPh sb="5" eb="7">
       <t>カイメ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>結果値</t>
@@ -5199,68 +5183,68 @@
     <rPh sb="2" eb="3">
       <t>アタイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>テスト結果</t>
     <rPh sb="3" eb="5">
       <t>ケッカ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>0xFFFF</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>i_time</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>i_level</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>EASY(0)</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>i_decisionNumber</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>x1</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>x2</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>x3</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>結果</t>
     <rPh sb="0" eb="2">
       <t>ケッカ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>NORMAL(1)</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">HARD(3) </t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>その他</t>
     <rPh sb="2" eb="3">
       <t>タ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>実行回数(回目)</t>
@@ -5273,14 +5257,14 @@
     <rPh sb="5" eb="7">
       <t>カイメ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>引数</t>
     <rPh sb="0" eb="2">
       <t>ヒキスウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>戻り値</t>
@@ -5290,7 +5274,7 @@
     <rPh sb="2" eb="3">
       <t>チ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>uint16_t i_seed
@@ -5320,7 +5304,7 @@
     <rPh sb="68" eb="70">
       <t>セイスウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>uint16_t
@@ -5334,7 +5318,7 @@
     <rPh sb="38" eb="39">
       <t>カエ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>出力される戻り値が、0x0000 ~ 0xFFFFの間か。</t>
@@ -5350,7 +5334,7 @@
     <rPh sb="26" eb="27">
       <t>アイダ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>uint8_t i_level
@@ -5405,7 +5389,7 @@
     <rPh sb="134" eb="135">
       <t>チ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">uint8_t
@@ -5436,7 +5420,7 @@
     <rPh sb="44" eb="45">
       <t>コト</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>境界値テスト
@@ -5472,7 +5456,7 @@
     <rPh sb="31" eb="33">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>uint16_t i_decisionNumber
@@ -5512,7 +5496,7 @@
     <rPh sb="83" eb="84">
       <t>アタイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>bool
@@ -5541,7 +5525,7 @@
     <rPh sb="44" eb="46">
       <t>シュツリョク</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>i_decisionNumberが0x0000のとき、FALSEを返す。
@@ -5589,7 +5573,7 @@
     <rPh sb="158" eb="160">
       <t>サンショウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>モグラ叩きテスト仕様書</t>
@@ -5602,7 +5586,7 @@
     <rPh sb="10" eb="11">
       <t>ショ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>項目数</t>
@@ -5612,7 +5596,7 @@
     <rPh sb="2" eb="3">
       <t>スウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -5638,21 +5622,21 @@
     <rPh sb="2" eb="3">
       <t>カズ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>項目数</t>
     <rPh sb="0" eb="3">
       <t>コウモクスウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>✖の数</t>
     <rPh sb="2" eb="3">
       <t>カズ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>LCDの1行目の2~4列目の3桁の数字が1増加する。</t>
@@ -5677,14 +5661,14 @@
     <rPh sb="21" eb="23">
       <t>ゾウカ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>テスト内容</t>
     <rPh sb="3" eb="5">
       <t>ナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>タイトル画面に遷移する</t>
@@ -5694,7 +5678,7 @@
     <rPh sb="7" eb="9">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>難易度選択面に遷移する</t>
@@ -5710,7 +5694,7 @@
     <rPh sb="7" eb="9">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>HSクリア確認画面に遷移する</t>
@@ -5720,7 +5704,7 @@
     <rPh sb="10" eb="12">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>カウントダウン確認画面に遷移する</t>
@@ -5733,7 +5717,7 @@
     <rPh sb="12" eb="14">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ゲーム中画面に遷移する</t>
@@ -5746,7 +5730,7 @@
     <rPh sb="7" eb="9">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>リザルト画面に遷移する</t>
@@ -5756,7 +5740,7 @@
     <rPh sb="7" eb="9">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>リザルト画面からタイトル画面に遷移する</t>
@@ -5769,7 +5753,7 @@
     <rPh sb="15" eb="17">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ゲーム開始カウントダウン画面でカウントダウンする</t>
@@ -5779,7 +5763,7 @@
     <rPh sb="12" eb="14">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ゲーム中画面でカウントダウンする</t>
@@ -5789,11 +5773,11 @@
     <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ハイスコアをクリアする</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>タイトル画面でLEDが点灯しない</t>
@@ -5803,7 +5787,7 @@
     <rPh sb="11" eb="13">
       <t>テントウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>難易度選択画面でLEDが点灯しない</t>
@@ -5819,11 +5803,11 @@
     <rPh sb="12" eb="14">
       <t>テントウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>HSクリア確認画面でLEDが点灯しない</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ゲーム開始カウントダウンでLEDが点灯しない</t>
@@ -5833,7 +5817,7 @@
     <rPh sb="17" eb="19">
       <t>テントウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ゲーム中画面に遷移してから残り時間が51になるまで、
@@ -5856,7 +5840,7 @@
     <rPh sb="33" eb="35">
       <t>テントウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>残り時間が50~41の間、LEDが5つ点灯する</t>
@@ -5872,7 +5856,7 @@
     <rPh sb="19" eb="21">
       <t>テントウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>リザルト画面でLEDが点灯しない</t>
@@ -5882,7 +5866,7 @@
     <rPh sb="11" eb="13">
       <t>テントウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>残り時間が40~31の間、LEDが4つ点灯する</t>
@@ -5898,7 +5882,7 @@
     <rPh sb="19" eb="21">
       <t>テントウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>残り時間が30~21の間、LEDが3つ点灯する</t>
@@ -5914,7 +5898,7 @@
     <rPh sb="19" eb="21">
       <t>テントウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>残り時間が20~11の間、LEDが2つ点灯する</t>
@@ -5930,7 +5914,7 @@
     <rPh sb="19" eb="21">
       <t>テントウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>残り時間が10~01の間、LEDが1つ点灯する</t>
@@ -5946,7 +5930,7 @@
     <rPh sb="19" eb="21">
       <t>テントウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>LCDの2行目に、モグラの穴が合計4つ表示される。</t>
@@ -5962,14 +5946,14 @@
     <rPh sb="19" eb="21">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>スコアが1増加する</t>
     <rPh sb="5" eb="7">
       <t>ゾウカ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>残り時間が3減少する</t>
@@ -5982,7 +5966,7 @@
     <rPh sb="6" eb="8">
       <t>ゲンショウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>残り時間02以下の場合、残り時間が0になる</t>
@@ -6004,14 +5988,14 @@
     <rPh sb="14" eb="16">
       <t>ジカン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ハイスコアを更新する</t>
     <rPh sb="6" eb="8">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ゲーム開始カウントダウン中にSEが鳴る</t>
@@ -6024,7 +6008,7 @@
     <rPh sb="17" eb="18">
       <t>ナ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ゲーム中にBGMが流れる</t>
@@ -6034,7 +6018,7 @@
     <rPh sb="9" eb="10">
       <t>ナガ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>モグラ撃退時にSEが鳴る</t>
@@ -6047,7 +6031,7 @@
     <rPh sb="10" eb="11">
       <t>ナ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ペナルティを発生させたときSEが鳴る</t>
@@ -6057,7 +6041,7 @@
     <rPh sb="16" eb="17">
       <t>ナ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>リザルト画面に遷移したときSEが鳴る</t>
@@ -6070,7 +6054,7 @@
     <rPh sb="16" eb="17">
       <t>ナ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>リザルト画面に遷移したとき
@@ -6087,7 +6071,7 @@
     <rPh sb="28" eb="29">
       <t>ナ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>タイトル画面でSW5と他のSWを同時押下しても、
@@ -6110,7 +6094,7 @@
     <rPh sb="27" eb="28">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>難易度選択画面でSW1と他のSWを同時押下しても、
@@ -6136,7 +6120,7 @@
     <rPh sb="28" eb="29">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>難易度選択画面でSW2と他のSWを同時押下しても、
@@ -6162,7 +6146,7 @@
     <rPh sb="28" eb="29">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>難易度選択画面でSW3と他のSWを同時押下しても、
@@ -6188,7 +6172,7 @@
     <rPh sb="28" eb="29">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>難易度選択画面でSW4と他のSWを同時押下しても、
@@ -6214,7 +6198,7 @@
     <rPh sb="28" eb="29">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>難易度選択画面でSW5と他のSWを同時押下しても、
@@ -6240,7 +6224,7 @@
     <rPh sb="28" eb="29">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>リザルト画面でSW5と他のSWを同時押下しても、
@@ -6263,7 +6247,7 @@
     <rPh sb="27" eb="28">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ゲーム画面中でSWを同時押下したとき、対応するモグラの状態によって処理が行われる</t>
@@ -6291,7 +6275,7 @@
     <rPh sb="36" eb="37">
       <t>オコナ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>タイトル画面でSW5以外を押しても、何も起こらない</t>
@@ -6310,7 +6294,7 @@
     <rPh sb="20" eb="21">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>HSクリア確認画面でSW2,3,5を押しても、何も起こらない</t>
@@ -6326,7 +6310,7 @@
     <rPh sb="25" eb="26">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ゲーム開始カウントダウン中にSWを押しても、何も起こらない</t>
@@ -6345,7 +6329,7 @@
     <rPh sb="24" eb="25">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ゲーム中画面でSW5を押しても、何も起こらない</t>
@@ -6358,7 +6342,7 @@
     <rPh sb="18" eb="19">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>リザルト画面でSW1~4を押しても、何も起こらない</t>
@@ -6371,28 +6355,28 @@
     <rPh sb="20" eb="21">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>難易度をEASYにする</t>
     <rPh sb="0" eb="3">
       <t>ナンイド</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>難易度をNORMALにする</t>
     <rPh sb="0" eb="3">
       <t>ナンイド</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>難易度をHARDにする</t>
     <rPh sb="0" eb="3">
       <t>ナンイド</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1．難易度選択画面に遷移する。
@@ -6418,7 +6402,7 @@
     <rPh sb="33" eb="35">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．難易度選択画面に遷移する。
@@ -6444,7 +6428,7 @@
     <rPh sb="33" eb="35">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>HSクリア確認画面でSW1と他のSWを同時押下しても、
@@ -6461,7 +6445,7 @@
     <rPh sb="30" eb="31">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1．難易度選択画面に遷移する。
@@ -6487,7 +6471,7 @@
     <rPh sb="33" eb="35">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>HSクリア確認画面でSW4と他のSWを同時押下しても、
@@ -6504,7 +6488,7 @@
     <rPh sb="30" eb="31">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>難易度選択画面に遷移しない。(何も起こらない)</t>
@@ -6526,7 +6510,7 @@
     <rPh sb="17" eb="18">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>難易度がEASYに変更されない。(何も起こらない)</t>
@@ -6536,7 +6520,7 @@
     <rPh sb="9" eb="11">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>難易度がNORMALに変更されない。(何も起こらない)</t>
@@ -6546,7 +6530,7 @@
     <rPh sb="11" eb="13">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>難易度がHARDに変更されない。(何も起こらない)</t>
@@ -6556,7 +6540,7 @@
     <rPh sb="9" eb="11">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>HSクリア確認画面に遷移しない。(何も起こらない)</t>
@@ -6569,7 +6553,7 @@
     <rPh sb="10" eb="12">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>ゲーム開始カウントダウンに遷移しない。(何も起こらない)</t>
@@ -6579,7 +6563,7 @@
     <rPh sb="13" eb="15">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>難易度選択画面に遷移しない。(何も起こらない)</t>
@@ -6595,7 +6579,7 @@
     <rPh sb="8" eb="10">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>タイトル画面に遷移しない。(何も起こらない)</t>
@@ -6605,7 +6589,7 @@
     <rPh sb="7" eb="9">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>LCD1行目の7,8列目の数文字列が変化する。
@@ -6647,7 +6631,7 @@
     <rPh sb="60" eb="62">
       <t>ヘンカ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>HSクリア確認画面から難易度選択画面に遷移する</t>
@@ -6663,7 +6647,7 @@
     <rPh sb="19" eb="21">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1．No.26の手順を行い、モグラの穴の表示を確認する。
@@ -6708,7 +6692,7 @@
     <rPh sb="82" eb="83">
       <t>ツヅ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>モグラの穴がモグラに変化する</t>
@@ -6718,14 +6702,14 @@
     <rPh sb="10" eb="12">
       <t>ヘンカ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>モグラが出現する</t>
     <rPh sb="4" eb="6">
       <t>シュツゲン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ゲーム中画面に遷移したとき、モグラの穴が4つ表示される</t>
@@ -6744,7 +6728,7 @@
     <rPh sb="22" eb="24">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1．No.27の手順を行い、モグラを出現させる、
@@ -6767,7 +6751,7 @@
     <rPh sb="38" eb="39">
       <t>ツヅ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>モグラがモグラの穴に変化する</t>
@@ -6777,7 +6761,7 @@
     <rPh sb="10" eb="12">
       <t>ヘンカ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>モグラがモグラの穴に戻る</t>
@@ -6787,14 +6771,14 @@
     <rPh sb="10" eb="11">
       <t>モド</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>モグラを撃退する</t>
     <rPh sb="4" eb="6">
       <t>ゲキタイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1．No.29手順を行い、3．の手順でLCD1行2-4列目の3桁の数字を確認する。</t>
@@ -6825,7 +6809,7 @@
     <rPh sb="36" eb="38">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1．No. 31の2．に「LCD1行7,8列目の数字が02以下のとき」の条件を加えて、同等の手順を行う。</t>
@@ -6856,7 +6840,7 @@
     <rPh sb="49" eb="50">
       <t>オコナ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1．No.14の手順を行い、ハイスコアをクリアし
@@ -6904,7 +6888,7 @@
     <rPh sb="152" eb="154">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1．No.29の手順を行い、LCDに表示されているモグラを叩かれたモグラに変化させる。
@@ -6927,7 +6911,7 @@
     <rPh sb="50" eb="52">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1．No.31の手順を行い、ペナルティを発生させる。
@@ -6944,7 +6928,7 @@
     <rPh sb="33" eb="35">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1．No.33の2．までの手順を行う。
@@ -6964,90 +6948,113 @@
     <rPh sb="40" eb="42">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>画面遷移
-ゲームの画面状態を変更する。</t>
+　　　　ゲームの画面状態を変更する。</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>難易度設定
-ゲームの難易度を設定する。</t>
+　　　　ゲームの難易度を設定する。</t>
     <rPh sb="0" eb="3">
       <t>ナンイド</t>
     </rPh>
     <rPh sb="3" eb="5">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>カウントダウン
+　　　　1秒に1ずつ残り時間が減少する</t>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ハイスコアクリア
-設定された難易度のハイスコアをクリアする。</t>
-    <phoneticPr fontId="12"/>
+　　　　設定された難易度のハイスコア
+　　　　をクリアする。</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>LED更新
+　　　　ゲーム中に遷移したときLEDが
+　　　　6つ点灯し、
+　　　　残り時間が10秒減少するごとに
+　　　　LEDを1つ消灯する。</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>モグラの処理
-モグラの状態を変更する</t>
+　　　　モグラの状態を変更する</t>
     <rPh sb="4" eb="6">
       <t>ショリ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>スコア増加
-スコアを1増加する。</t>
+　　　　スコアを1増加する。</t>
     <rPh sb="3" eb="5">
       <t>ゾウカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>ペナルティ
-残り時間を3秒減少させる。</t>
-    <phoneticPr fontId="11"/>
+　　　　残り時間を3秒減少させる。</t>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ハイスコア更新
-選択された難易度のハイスコアを更新する。</t>
+　　　　選択された難易度のハイスコアを
+　　　　更新する。</t>
     <rPh sb="5" eb="7">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ブザー
-BGMやSEを鳴らす。</t>
-    <phoneticPr fontId="11"/>
+　　　　BGMやSEを鳴らす。</t>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>SW検知
-SWの入力を検知する。</t>
+　　　　SWの入力を検知する。</t>
     <rPh sb="2" eb="4">
       <t>ケンチ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>カウントダウン
-1秒に1ずつ残り時間が減少する</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>LED更新
-ゲーム中に遷移したときLEDが6つ点灯し、
-残り時間が10秒減少するごとにLEDを1つ消灯する。</t>
-    <rPh sb="3" eb="5">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>マイコン：pic16f1827　基板：キットで遊ぼう電子回路実験用基板　LCD：AQM0802　もぐら叩きゲームの仕様書を基に作成</t>
+    <rPh sb="51" eb="52">
+      <t>タタ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
   </si>
 </sst>
 </file>
@@ -7057,20 +7064,12 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7515,10 +7514,10 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -7530,367 +7529,364 @@
   </cellStyleXfs>
   <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyBorder="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7902,6 +7898,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
@@ -7917,121 +7916,121 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8052,34 +8051,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -10611,7 +10610,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -10621,9 +10620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85CE931-9A0F-4209-B117-D9C0D8C16592}">
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C59" sqref="C59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -10635,8 +10633,8 @@
     <col min="5" max="5" width="56.58203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="54.75" style="2" customWidth="1"/>
     <col min="7" max="7" width="11.58203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="49.58203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.25" style="3" customWidth="1"/>
+    <col min="8" max="8" width="49.58203125" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="51.33203125" style="3" customWidth="1"/>
     <col min="10" max="10" width="33.08203125" style="2" customWidth="1"/>
     <col min="11" max="11" width="11.5" style="2" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="49.58203125" style="2" hidden="1" customWidth="1"/>
@@ -10649,8 +10647,8 @@
       <c r="A1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D1" s="73" t="s">
-        <v>284</v>
+      <c r="D1" s="124" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18.5" thickBot="1"/>
@@ -10662,7 +10660,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="173" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>6</v>
@@ -10700,10 +10698,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D4" s="174" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E4" s="67" t="s">
         <v>247</v>
@@ -10726,13 +10724,13 @@
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="169" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E5" s="68" t="s">
         <v>248</v>
       </c>
-      <c r="F5" s="74" t="s">
-        <v>306</v>
+      <c r="F5" s="73" t="s">
+        <v>305</v>
       </c>
       <c r="G5" s="34"/>
       <c r="H5" s="28"/>
@@ -10749,7 +10747,7 @@
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="169" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E6" s="68" t="s">
         <v>249</v>
@@ -10772,13 +10770,13 @@
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="169" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E7" s="68" t="s">
         <v>250</v>
       </c>
-      <c r="F7" s="74" t="s">
-        <v>285</v>
+      <c r="F7" s="73" t="s">
+        <v>284</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="15"/>
@@ -10795,7 +10793,7 @@
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="169" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E8" s="68" t="s">
         <v>251</v>
@@ -10818,7 +10816,7 @@
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="169" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E9" s="68" t="s">
         <v>258</v>
@@ -10841,7 +10839,7 @@
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="169" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E10" s="68" t="s">
         <v>259</v>
@@ -10864,7 +10862,7 @@
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="171" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E11" s="69" t="s">
         <v>252</v>
@@ -10886,10 +10884,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D12" s="174" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E12" s="67" t="s">
         <v>253</v>
@@ -10912,7 +10910,7 @@
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="169" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E13" s="68" t="s">
         <v>254</v>
@@ -10935,7 +10933,7 @@
       </c>
       <c r="C14" s="64"/>
       <c r="D14" s="171" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E14" s="69" t="s">
         <v>255</v>
@@ -10957,10 +10955,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="D15" s="174" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E15" s="67" t="s">
         <v>257</v>
@@ -10983,7 +10981,7 @@
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="171" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E16" s="69" t="s">
         <v>256</v>
@@ -11008,13 +11006,13 @@
         <v>429</v>
       </c>
       <c r="D17" s="172" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E17" s="69" t="s">
         <v>260</v>
       </c>
-      <c r="F17" s="75" t="s">
-        <v>286</v>
+      <c r="F17" s="74" t="s">
+        <v>285</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="9"/>
@@ -11025,21 +11023,21 @@
       <c r="M17" s="11"/>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="2:14" ht="80.5" thickBot="1">
+    <row r="18" spans="2:14" ht="100.5" thickBot="1">
       <c r="B18" s="6">
         <v>15</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="D18" s="174" t="s">
-        <v>360</v>
-      </c>
-      <c r="E18" s="78" t="s">
-        <v>290</v>
-      </c>
-      <c r="F18" s="78" t="s">
-        <v>288</v>
+        <v>359</v>
+      </c>
+      <c r="E18" s="77" t="s">
+        <v>289</v>
+      </c>
+      <c r="F18" s="77" t="s">
+        <v>287</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="9"/>
@@ -11056,13 +11054,13 @@
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="169" t="s">
-        <v>361</v>
-      </c>
-      <c r="E19" s="74" t="s">
-        <v>289</v>
-      </c>
-      <c r="F19" s="74" t="s">
+        <v>360</v>
+      </c>
+      <c r="E19" s="73" t="s">
         <v>288</v>
+      </c>
+      <c r="F19" s="73" t="s">
+        <v>287</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="15"/>
@@ -11079,13 +11077,13 @@
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="169" t="s">
-        <v>362</v>
-      </c>
-      <c r="E20" s="74" t="s">
-        <v>291</v>
-      </c>
-      <c r="F20" s="74" t="s">
-        <v>288</v>
+        <v>361</v>
+      </c>
+      <c r="E20" s="73" t="s">
+        <v>290</v>
+      </c>
+      <c r="F20" s="73" t="s">
+        <v>287</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="15"/>
@@ -11102,13 +11100,13 @@
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="169" t="s">
-        <v>363</v>
-      </c>
-      <c r="E21" s="74" t="s">
-        <v>292</v>
-      </c>
-      <c r="F21" s="74" t="s">
-        <v>288</v>
+        <v>362</v>
+      </c>
+      <c r="E21" s="73" t="s">
+        <v>291</v>
+      </c>
+      <c r="F21" s="73" t="s">
+        <v>287</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="15"/>
@@ -11125,12 +11123,12 @@
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="169" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E22" s="68" t="s">
         <v>261</v>
       </c>
-      <c r="F22" s="83" t="s">
+      <c r="F22" s="82" t="s">
         <v>262</v>
       </c>
       <c r="G22" s="16"/>
@@ -11148,12 +11146,12 @@
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="169" t="s">
-        <v>365</v>
-      </c>
-      <c r="E23" s="74" t="s">
-        <v>307</v>
-      </c>
-      <c r="F23" s="83" t="s">
+        <v>364</v>
+      </c>
+      <c r="E23" s="73" t="s">
+        <v>306</v>
+      </c>
+      <c r="F23" s="82" t="s">
         <v>263</v>
       </c>
       <c r="G23" s="16"/>
@@ -11171,12 +11169,12 @@
       </c>
       <c r="C24" s="46"/>
       <c r="D24" s="169" t="s">
-        <v>367</v>
-      </c>
-      <c r="E24" s="74" t="s">
-        <v>308</v>
-      </c>
-      <c r="F24" s="83" t="s">
+        <v>366</v>
+      </c>
+      <c r="E24" s="73" t="s">
+        <v>307</v>
+      </c>
+      <c r="F24" s="82" t="s">
         <v>264</v>
       </c>
       <c r="G24" s="16"/>
@@ -11194,12 +11192,12 @@
       </c>
       <c r="C25" s="46"/>
       <c r="D25" s="169" t="s">
-        <v>368</v>
-      </c>
-      <c r="E25" s="74" t="s">
-        <v>309</v>
-      </c>
-      <c r="F25" s="83" t="s">
+        <v>367</v>
+      </c>
+      <c r="E25" s="73" t="s">
+        <v>308</v>
+      </c>
+      <c r="F25" s="82" t="s">
         <v>266</v>
       </c>
       <c r="G25" s="16"/>
@@ -11217,12 +11215,12 @@
       </c>
       <c r="C26" s="46"/>
       <c r="D26" s="169" t="s">
-        <v>369</v>
-      </c>
-      <c r="E26" s="74" t="s">
-        <v>310</v>
-      </c>
-      <c r="F26" s="83" t="s">
+        <v>368</v>
+      </c>
+      <c r="E26" s="73" t="s">
+        <v>309</v>
+      </c>
+      <c r="F26" s="82" t="s">
         <v>265</v>
       </c>
       <c r="G26" s="16"/>
@@ -11240,12 +11238,12 @@
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="169" t="s">
-        <v>370</v>
-      </c>
-      <c r="E27" s="74" t="s">
-        <v>311</v>
-      </c>
-      <c r="F27" s="83" t="s">
+        <v>369</v>
+      </c>
+      <c r="E27" s="73" t="s">
+        <v>310</v>
+      </c>
+      <c r="F27" s="82" t="s">
         <v>267</v>
       </c>
       <c r="G27" s="16"/>
@@ -11263,13 +11261,13 @@
       </c>
       <c r="C28" s="58"/>
       <c r="D28" s="185" t="s">
-        <v>366</v>
-      </c>
-      <c r="E28" s="76" t="s">
-        <v>312</v>
-      </c>
-      <c r="F28" s="84" t="s">
-        <v>287</v>
+        <v>365</v>
+      </c>
+      <c r="E28" s="75" t="s">
+        <v>311</v>
+      </c>
+      <c r="F28" s="83" t="s">
+        <v>286</v>
       </c>
       <c r="G28" s="22"/>
       <c r="H28" s="21"/>
@@ -11285,16 +11283,16 @@
         <v>26</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D29" s="174" t="s">
-        <v>416</v>
-      </c>
-      <c r="E29" s="78" t="s">
-        <v>294</v>
+        <v>415</v>
+      </c>
+      <c r="E29" s="77" t="s">
+        <v>293</v>
       </c>
       <c r="F29" s="174" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="9"/>
@@ -11311,13 +11309,13 @@
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="169" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E30" s="169" t="s">
+        <v>412</v>
+      </c>
+      <c r="F30" s="170" t="s">
         <v>413</v>
-      </c>
-      <c r="F30" s="170" t="s">
-        <v>414</v>
       </c>
       <c r="G30" s="34"/>
       <c r="H30" s="28"/>
@@ -11334,13 +11332,13 @@
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="186" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E31" s="186" t="s">
+        <v>416</v>
+      </c>
+      <c r="F31" s="187" t="s">
         <v>417</v>
-      </c>
-      <c r="F31" s="187" t="s">
-        <v>418</v>
       </c>
       <c r="G31" s="31"/>
       <c r="H31" s="14"/>
@@ -11357,13 +11355,13 @@
       </c>
       <c r="C32" s="46"/>
       <c r="D32" s="171" t="s">
-        <v>420</v>
-      </c>
-      <c r="E32" s="76" t="s">
-        <v>313</v>
-      </c>
-      <c r="F32" s="76" t="s">
-        <v>293</v>
+        <v>419</v>
+      </c>
+      <c r="E32" s="75" t="s">
+        <v>312</v>
+      </c>
+      <c r="F32" s="75" t="s">
+        <v>292</v>
       </c>
       <c r="G32" s="25"/>
       <c r="H32" s="38"/>
@@ -11379,20 +11377,20 @@
         <v>30</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D33" s="172" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E33" s="172" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F33" s="172" t="s">
-        <v>348</v>
-      </c>
-      <c r="G33" s="79"/>
+        <v>347</v>
+      </c>
+      <c r="G33" s="78"/>
       <c r="H33" s="8"/>
-      <c r="I33" s="80"/>
+      <c r="I33" s="79"/>
       <c r="J33" s="8"/>
       <c r="K33" s="10"/>
       <c r="L33" s="9"/>
@@ -11404,16 +11402,16 @@
         <v>31</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D34" s="174" t="s">
-        <v>373</v>
-      </c>
-      <c r="E34" s="82" t="s">
-        <v>314</v>
-      </c>
-      <c r="F34" s="82" t="s">
-        <v>295</v>
+        <v>372</v>
+      </c>
+      <c r="E34" s="81" t="s">
+        <v>313</v>
+      </c>
+      <c r="F34" s="81" t="s">
+        <v>294</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="9"/>
@@ -11430,13 +11428,13 @@
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="171" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E35" s="171" t="s">
-        <v>422</v>
-      </c>
-      <c r="F35" s="76" t="s">
-        <v>296</v>
+        <v>421</v>
+      </c>
+      <c r="F35" s="75" t="s">
+        <v>295</v>
       </c>
       <c r="G35" s="22"/>
       <c r="H35" s="21"/>
@@ -11452,18 +11450,18 @@
         <v>33</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D36" s="172" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E36" s="188" t="s">
-        <v>423</v>
-      </c>
-      <c r="F36" s="77" t="s">
-        <v>297</v>
-      </c>
-      <c r="G36" s="81"/>
+        <v>422</v>
+      </c>
+      <c r="F36" s="76" t="s">
+        <v>296</v>
+      </c>
+      <c r="G36" s="80"/>
       <c r="H36" s="20"/>
       <c r="I36" s="48"/>
       <c r="J36" s="20"/>
@@ -11477,16 +11475,16 @@
         <v>34</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D37" s="174" t="s">
-        <v>376</v>
-      </c>
-      <c r="E37" s="78" t="s">
-        <v>301</v>
-      </c>
-      <c r="F37" s="78" t="s">
+        <v>375</v>
+      </c>
+      <c r="E37" s="77" t="s">
         <v>300</v>
+      </c>
+      <c r="F37" s="77" t="s">
+        <v>299</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="9"/>
@@ -11503,13 +11501,13 @@
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="169" t="s">
-        <v>377</v>
-      </c>
-      <c r="E38" s="74" t="s">
+        <v>376</v>
+      </c>
+      <c r="E38" s="73" t="s">
+        <v>297</v>
+      </c>
+      <c r="F38" s="73" t="s">
         <v>298</v>
-      </c>
-      <c r="F38" s="74" t="s">
-        <v>299</v>
       </c>
       <c r="G38" s="16"/>
       <c r="H38" s="15"/>
@@ -11526,13 +11524,13 @@
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="169" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E39" s="169" t="s">
-        <v>424</v>
-      </c>
-      <c r="F39" s="74" t="s">
-        <v>302</v>
+        <v>423</v>
+      </c>
+      <c r="F39" s="73" t="s">
+        <v>301</v>
       </c>
       <c r="G39" s="16"/>
       <c r="H39" s="15"/>
@@ -11549,13 +11547,13 @@
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="169" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E40" s="169" t="s">
-        <v>425</v>
-      </c>
-      <c r="F40" s="74" t="s">
-        <v>303</v>
+        <v>424</v>
+      </c>
+      <c r="F40" s="73" t="s">
+        <v>302</v>
       </c>
       <c r="G40" s="16"/>
       <c r="H40" s="15"/>
@@ -11572,13 +11570,13 @@
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="169" t="s">
-        <v>380</v>
-      </c>
-      <c r="E41" s="74" t="s">
-        <v>315</v>
-      </c>
-      <c r="F41" s="74" t="s">
-        <v>304</v>
+        <v>379</v>
+      </c>
+      <c r="E41" s="73" t="s">
+        <v>314</v>
+      </c>
+      <c r="F41" s="73" t="s">
+        <v>303</v>
       </c>
       <c r="G41" s="16"/>
       <c r="H41" s="15"/>
@@ -11595,13 +11593,13 @@
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="171" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E42" s="171" t="s">
-        <v>426</v>
-      </c>
-      <c r="F42" s="76" t="s">
-        <v>305</v>
+        <v>425</v>
+      </c>
+      <c r="F42" s="75" t="s">
+        <v>304</v>
       </c>
       <c r="G42" s="16"/>
       <c r="H42" s="15"/>
@@ -11617,16 +11615,16 @@
         <v>40</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D43" s="174" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E43" s="56" t="s">
         <v>225</v>
       </c>
       <c r="F43" s="174" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="9"/>
@@ -11643,13 +11641,13 @@
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="169" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E44" s="57" t="s">
         <v>226</v>
       </c>
       <c r="F44" s="169" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G44" s="16"/>
       <c r="H44" s="15"/>
@@ -11666,13 +11664,13 @@
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="169" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E45" s="57" t="s">
         <v>227</v>
       </c>
       <c r="F45" s="169" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G45" s="16"/>
       <c r="H45" s="15"/>
@@ -11689,13 +11687,13 @@
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="169" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E46" s="57" t="s">
         <v>228</v>
       </c>
       <c r="F46" s="169" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G46" s="16"/>
       <c r="H46" s="15"/>
@@ -11712,13 +11710,13 @@
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="169" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E47" s="57" t="s">
         <v>229</v>
       </c>
       <c r="F47" s="169" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G47" s="16"/>
       <c r="H47" s="15"/>
@@ -11735,13 +11733,13 @@
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="169" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E48" s="169" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F48" s="169" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G48" s="16"/>
       <c r="H48" s="15"/>
@@ -11758,13 +11756,13 @@
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="169" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E49" s="169" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F49" s="169" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G49" s="16"/>
       <c r="H49" s="15"/>
@@ -11781,13 +11779,13 @@
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="169" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E50" s="169" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F50" s="169" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G50" s="16"/>
       <c r="H50" s="15"/>
@@ -11804,13 +11802,13 @@
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="169" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E51" s="57" t="s">
         <v>230</v>
       </c>
       <c r="F51" s="169" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G51" s="16"/>
       <c r="H51" s="15"/>
@@ -11827,12 +11825,12 @@
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="169" t="s">
-        <v>389</v>
-      </c>
-      <c r="E52" s="85" t="s">
+        <v>388</v>
+      </c>
+      <c r="E52" s="84" t="s">
         <v>235</v>
       </c>
-      <c r="F52" s="86" t="s">
+      <c r="F52" s="85" t="s">
         <v>234</v>
       </c>
       <c r="G52" s="16"/>
@@ -11850,7 +11848,7 @@
       </c>
       <c r="C53" s="26"/>
       <c r="D53" s="169" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E53" s="68" t="s">
         <v>269</v>
@@ -11873,7 +11871,7 @@
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="169" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E54" s="70" t="s">
         <v>270</v>
@@ -11896,7 +11894,7 @@
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="169" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E55" s="70" t="s">
         <v>273</v>
@@ -11919,13 +11917,13 @@
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="169" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E56" s="70" t="s">
         <v>275</v>
       </c>
       <c r="F56" s="169" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G56" s="16"/>
       <c r="H56" s="15"/>
@@ -11942,7 +11940,7 @@
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="171" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E57" s="176" t="s">
         <v>276</v>
@@ -11992,7 +11990,7 @@
     </row>
     <row r="61" spans="2:14">
       <c r="H61" s="167" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I61" s="3">
         <f>COUNT(L4,L58)</f>
@@ -12008,7 +12006,7 @@
     </row>
     <row r="62" spans="2:14">
       <c r="H62" s="168" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I62" s="3">
         <f>COUNTIF(L4:L58,"✖")</f>
@@ -12023,7 +12021,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -12035,7 +12033,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane xSplit="8" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D4" sqref="D4"/>
+      <selection pane="topRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18"/>
@@ -12061,7 +12059,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="29">
       <c r="A1" s="165" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D1" s="125" t="s">
         <v>280</v>
@@ -12082,10 +12080,10 @@
         <v>232</v>
       </c>
       <c r="E3" s="164" t="s">
+        <v>331</v>
+      </c>
+      <c r="F3" s="164" t="s">
         <v>332</v>
-      </c>
-      <c r="F3" s="164" t="s">
-        <v>333</v>
       </c>
       <c r="G3" s="164" t="s">
         <v>233</v>
@@ -12129,13 +12127,13 @@
         <v>283</v>
       </c>
       <c r="E4" s="166" t="s">
+        <v>333</v>
+      </c>
+      <c r="F4" s="166" t="s">
         <v>334</v>
       </c>
-      <c r="F4" s="166" t="s">
+      <c r="G4" s="136" t="s">
         <v>335</v>
-      </c>
-      <c r="G4" s="136" t="s">
-        <v>336</v>
       </c>
       <c r="H4" s="136"/>
       <c r="I4" s="159"/>
@@ -12158,13 +12156,13 @@
         <v>277</v>
       </c>
       <c r="E5" s="160" t="s">
+        <v>336</v>
+      </c>
+      <c r="F5" s="160" t="s">
         <v>337</v>
       </c>
-      <c r="F5" s="160" t="s">
+      <c r="G5" s="136" t="s">
         <v>338</v>
-      </c>
-      <c r="G5" s="136" t="s">
-        <v>339</v>
       </c>
       <c r="H5" s="136"/>
       <c r="I5" s="159"/>
@@ -12187,13 +12185,13 @@
         <v>268</v>
       </c>
       <c r="E6" s="155" t="s">
+        <v>339</v>
+      </c>
+      <c r="F6" s="155" t="s">
         <v>340</v>
       </c>
-      <c r="F6" s="155" t="s">
+      <c r="G6" s="155" t="s">
         <v>341</v>
-      </c>
-      <c r="G6" s="155" t="s">
-        <v>342</v>
       </c>
       <c r="H6" s="148"/>
       <c r="I6" s="156"/>
@@ -12232,7 +12230,7 @@
       <c r="H8" s="140"/>
       <c r="I8" s="141"/>
       <c r="J8" s="140" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K8" s="126">
         <f>COUNTA(K4:K6)</f>
@@ -12254,7 +12252,7 @@
       <c r="H9" s="140"/>
       <c r="I9" s="141"/>
       <c r="J9" s="140" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K9" s="139">
         <f>COUNTIF(K4:K6,"✖")</f>
@@ -13373,7 +13371,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -13399,21 +13397,21 @@
       <c r="C2" s="72"/>
     </row>
     <row r="3" spans="2:4" ht="16.5" customHeight="1">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="86" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3" s="87" t="s">
         <v>316</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="D3" s="86" t="s">
         <v>317</v>
-      </c>
-      <c r="D3" s="87" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="16.5" customHeight="1">
       <c r="B4" s="60">
         <v>1</v>
       </c>
-      <c r="C4" s="89">
+      <c r="C4" s="88">
         <v>1</v>
       </c>
       <c r="D4" s="60" t="str">
@@ -13425,7 +13423,7 @@
       <c r="B5" s="60">
         <v>2</v>
       </c>
-      <c r="C5" s="89"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="60" t="str">
         <f t="shared" ref="D5:D44" si="0">IF(C5="","",IF(AND(C5&gt;=0,C5&lt;65536),"○","✖"))</f>
         <v/>
@@ -13455,7 +13453,7 @@
       <c r="B8" s="60">
         <v>5</v>
       </c>
-      <c r="C8" s="90"/>
+      <c r="C8" s="89"/>
       <c r="D8" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13475,7 +13473,7 @@
       <c r="B10" s="60">
         <v>7</v>
       </c>
-      <c r="C10" s="90"/>
+      <c r="C10" s="89"/>
       <c r="D10" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13515,7 +13513,7 @@
       <c r="B14" s="60">
         <v>11</v>
       </c>
-      <c r="C14" s="90"/>
+      <c r="C14" s="89"/>
       <c r="D14" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13525,7 +13523,7 @@
       <c r="B15" s="60">
         <v>12</v>
       </c>
-      <c r="C15" s="89"/>
+      <c r="C15" s="88"/>
       <c r="D15" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13535,7 +13533,7 @@
       <c r="B16" s="60">
         <v>13</v>
       </c>
-      <c r="C16" s="89"/>
+      <c r="C16" s="88"/>
       <c r="D16" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13545,7 +13543,7 @@
       <c r="B17" s="60">
         <v>14</v>
       </c>
-      <c r="C17" s="89"/>
+      <c r="C17" s="88"/>
       <c r="D17" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13555,7 +13553,7 @@
       <c r="B18" s="60">
         <v>15</v>
       </c>
-      <c r="C18" s="90"/>
+      <c r="C18" s="89"/>
       <c r="D18" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13565,7 +13563,7 @@
       <c r="B19" s="60">
         <v>16</v>
       </c>
-      <c r="C19" s="89"/>
+      <c r="C19" s="88"/>
       <c r="D19" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13575,7 +13573,7 @@
       <c r="B20" s="60">
         <v>17</v>
       </c>
-      <c r="C20" s="89"/>
+      <c r="C20" s="88"/>
       <c r="D20" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13585,7 +13583,7 @@
       <c r="B21" s="60">
         <v>18</v>
       </c>
-      <c r="C21" s="89"/>
+      <c r="C21" s="88"/>
       <c r="D21" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13595,7 +13593,7 @@
       <c r="B22" s="60">
         <v>19</v>
       </c>
-      <c r="C22" s="89"/>
+      <c r="C22" s="88"/>
       <c r="D22" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13605,7 +13603,7 @@
       <c r="B23" s="60">
         <v>20</v>
       </c>
-      <c r="C23" s="89"/>
+      <c r="C23" s="88"/>
       <c r="D23" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13615,7 +13613,7 @@
       <c r="B24" s="60">
         <v>21</v>
       </c>
-      <c r="C24" s="89"/>
+      <c r="C24" s="88"/>
       <c r="D24" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13625,7 +13623,7 @@
       <c r="B25" s="60">
         <v>22</v>
       </c>
-      <c r="C25" s="89"/>
+      <c r="C25" s="88"/>
       <c r="D25" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13635,7 +13633,7 @@
       <c r="B26" s="60">
         <v>23</v>
       </c>
-      <c r="C26" s="89"/>
+      <c r="C26" s="88"/>
       <c r="D26" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13645,7 +13643,7 @@
       <c r="B27" s="60">
         <v>24</v>
       </c>
-      <c r="C27" s="89"/>
+      <c r="C27" s="88"/>
       <c r="D27" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13655,7 +13653,7 @@
       <c r="B28" s="60">
         <v>25</v>
       </c>
-      <c r="C28" s="89"/>
+      <c r="C28" s="88"/>
       <c r="D28" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13665,7 +13663,7 @@
       <c r="B29" s="60">
         <v>26</v>
       </c>
-      <c r="C29" s="89"/>
+      <c r="C29" s="88"/>
       <c r="D29" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13675,7 +13673,7 @@
       <c r="B30" s="60">
         <v>27</v>
       </c>
-      <c r="C30" s="89"/>
+      <c r="C30" s="88"/>
       <c r="D30" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13685,7 +13683,7 @@
       <c r="B31" s="60">
         <v>28</v>
       </c>
-      <c r="C31" s="89"/>
+      <c r="C31" s="88"/>
       <c r="D31" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13695,7 +13693,7 @@
       <c r="B32" s="60">
         <v>29</v>
       </c>
-      <c r="C32" s="89"/>
+      <c r="C32" s="88"/>
       <c r="D32" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13705,7 +13703,7 @@
       <c r="B33" s="60">
         <v>30</v>
       </c>
-      <c r="C33" s="89"/>
+      <c r="C33" s="88"/>
       <c r="D33" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13715,7 +13713,7 @@
       <c r="B34" s="60">
         <v>31</v>
       </c>
-      <c r="C34" s="89"/>
+      <c r="C34" s="88"/>
       <c r="D34" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13725,7 +13723,7 @@
       <c r="B35" s="60">
         <v>32</v>
       </c>
-      <c r="C35" s="89"/>
+      <c r="C35" s="88"/>
       <c r="D35" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13735,7 +13733,7 @@
       <c r="B36" s="60">
         <v>33</v>
       </c>
-      <c r="C36" s="89"/>
+      <c r="C36" s="88"/>
       <c r="D36" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13745,7 +13743,7 @@
       <c r="B37" s="60">
         <v>34</v>
       </c>
-      <c r="C37" s="89"/>
+      <c r="C37" s="88"/>
       <c r="D37" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13755,7 +13753,7 @@
       <c r="B38" s="60">
         <v>35</v>
       </c>
-      <c r="C38" s="89"/>
+      <c r="C38" s="88"/>
       <c r="D38" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13765,7 +13763,7 @@
       <c r="B39" s="60">
         <v>36</v>
       </c>
-      <c r="C39" s="89"/>
+      <c r="C39" s="88"/>
       <c r="D39" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13775,7 +13773,7 @@
       <c r="B40" s="60">
         <v>37</v>
       </c>
-      <c r="C40" s="89"/>
+      <c r="C40" s="88"/>
       <c r="D40" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13785,7 +13783,7 @@
       <c r="B41" s="60">
         <v>38</v>
       </c>
-      <c r="C41" s="89"/>
+      <c r="C41" s="88"/>
       <c r="D41" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13795,7 +13793,7 @@
       <c r="B42" s="60">
         <v>39</v>
       </c>
-      <c r="C42" s="89"/>
+      <c r="C42" s="88"/>
       <c r="D42" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13805,7 +13803,7 @@
       <c r="B43" s="60">
         <v>40</v>
       </c>
-      <c r="C43" s="89"/>
+      <c r="C43" s="88"/>
       <c r="D43" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13815,14 +13813,14 @@
       <c r="B44" s="60">
         <v>41</v>
       </c>
-      <c r="C44" s="91"/>
+      <c r="C44" s="90"/>
       <c r="D44" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13837,922 +13835,922 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="5" max="5" width="8.6640625" style="96"/>
-    <col min="7" max="7" width="8.6640625" style="96"/>
-    <col min="9" max="9" width="8.6640625" style="96"/>
-    <col min="11" max="11" width="8.6640625" style="96"/>
+    <col min="5" max="5" width="8.6640625" style="95"/>
+    <col min="7" max="7" width="8.6640625" style="95"/>
+    <col min="9" max="9" width="8.6640625" style="95"/>
+    <col min="11" max="11" width="8.6640625" style="95"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="3" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="118" t="s">
+      <c r="B3" s="111"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="117" t="s">
+        <v>320</v>
+      </c>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="119"/>
+    </row>
+    <row r="4" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B4" s="113"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="110" t="s">
         <v>321</v>
       </c>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="120"/>
-    </row>
-    <row r="4" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B4" s="114"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="111" t="s">
-        <v>322</v>
-      </c>
-      <c r="E4" s="107" t="s">
+      <c r="E4" s="106" t="s">
+        <v>326</v>
+      </c>
+      <c r="F4" s="110" t="s">
         <v>327</v>
       </c>
-      <c r="F4" s="111" t="s">
+      <c r="G4" s="108" t="s">
+        <v>326</v>
+      </c>
+      <c r="H4" s="110" t="s">
         <v>328</v>
       </c>
-      <c r="G4" s="109" t="s">
-        <v>327</v>
-      </c>
-      <c r="H4" s="111" t="s">
+      <c r="I4" s="106" t="s">
+        <v>326</v>
+      </c>
+      <c r="J4" s="110" t="s">
         <v>329</v>
       </c>
-      <c r="I4" s="107" t="s">
-        <v>327</v>
-      </c>
-      <c r="J4" s="111" t="s">
-        <v>330</v>
-      </c>
-      <c r="K4" s="109" t="s">
-        <v>327</v>
+      <c r="K4" s="108" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B5" s="116" t="s">
-        <v>320</v>
+      <c r="B5" s="115" t="s">
+        <v>319</v>
       </c>
       <c r="C5" s="43">
         <v>0</v>
       </c>
       <c r="D5" s="18"/>
-      <c r="E5" s="93" t="str">
+      <c r="E5" s="92" t="str">
         <f>IF(D5="","",IF(AND(D5&gt;=50,D5&lt;200),"○","✖"))</f>
         <v/>
       </c>
       <c r="F5" s="18"/>
-      <c r="G5" s="110" t="str">
+      <c r="G5" s="109" t="str">
         <f>IF(F5="","",IF(AND(F5&gt;=20,F5&lt;150),"○","✖"))</f>
         <v/>
       </c>
       <c r="H5" s="18"/>
-      <c r="I5" s="93" t="str">
+      <c r="I5" s="92" t="str">
         <f>IF(H5="","",IF(AND(H5&gt;=20,H5&lt;100),"○","✖"))</f>
         <v/>
       </c>
       <c r="J5" s="18"/>
-      <c r="K5" s="93" t="str">
+      <c r="K5" s="92" t="str">
         <f>IF(J5="","",IF(J5=0,"○","✖"))</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B6" s="116"/>
+      <c r="B6" s="115"/>
       <c r="C6" s="18">
         <v>1</v>
       </c>
       <c r="D6" s="60"/>
-      <c r="E6" s="95"/>
+      <c r="E6" s="94"/>
       <c r="F6" s="60"/>
-      <c r="G6" s="110"/>
+      <c r="G6" s="109"/>
       <c r="H6" s="60"/>
-      <c r="I6" s="95"/>
+      <c r="I6" s="94"/>
       <c r="J6" s="60"/>
-      <c r="K6" s="110"/>
+      <c r="K6" s="109"/>
     </row>
     <row r="7" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B7" s="116"/>
+      <c r="B7" s="115"/>
       <c r="C7" s="18">
         <v>2</v>
       </c>
       <c r="D7" s="60"/>
-      <c r="E7" s="95"/>
+      <c r="E7" s="94"/>
       <c r="F7" s="60"/>
-      <c r="G7" s="110"/>
+      <c r="G7" s="109"/>
       <c r="H7" s="60"/>
-      <c r="I7" s="95"/>
+      <c r="I7" s="94"/>
       <c r="J7" s="60"/>
-      <c r="K7" s="110"/>
+      <c r="K7" s="109"/>
     </row>
     <row r="8" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B8" s="116"/>
+      <c r="B8" s="115"/>
       <c r="C8" s="18">
         <v>3</v>
       </c>
       <c r="D8" s="60"/>
-      <c r="E8" s="95"/>
+      <c r="E8" s="94"/>
       <c r="F8" s="60"/>
-      <c r="G8" s="110"/>
+      <c r="G8" s="109"/>
       <c r="H8" s="60"/>
-      <c r="I8" s="95"/>
+      <c r="I8" s="94"/>
       <c r="J8" s="60"/>
-      <c r="K8" s="110"/>
+      <c r="K8" s="109"/>
     </row>
     <row r="9" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B9" s="116"/>
+      <c r="B9" s="115"/>
       <c r="C9" s="18">
         <v>4</v>
       </c>
       <c r="D9" s="60"/>
-      <c r="E9" s="95"/>
+      <c r="E9" s="94"/>
       <c r="F9" s="60"/>
-      <c r="G9" s="110"/>
+      <c r="G9" s="109"/>
       <c r="H9" s="60"/>
-      <c r="I9" s="95"/>
+      <c r="I9" s="94"/>
       <c r="J9" s="60"/>
-      <c r="K9" s="110"/>
+      <c r="K9" s="109"/>
     </row>
     <row r="10" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B10" s="116"/>
+      <c r="B10" s="115"/>
       <c r="C10" s="18">
         <v>5</v>
       </c>
       <c r="D10" s="60"/>
-      <c r="E10" s="95"/>
+      <c r="E10" s="94"/>
       <c r="F10" s="60"/>
-      <c r="G10" s="110"/>
+      <c r="G10" s="109"/>
       <c r="H10" s="60"/>
-      <c r="I10" s="95"/>
+      <c r="I10" s="94"/>
       <c r="J10" s="60"/>
-      <c r="K10" s="110"/>
+      <c r="K10" s="109"/>
     </row>
     <row r="11" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B11" s="116"/>
+      <c r="B11" s="115"/>
       <c r="C11" s="18">
         <v>6</v>
       </c>
       <c r="D11" s="60"/>
-      <c r="E11" s="95"/>
+      <c r="E11" s="94"/>
       <c r="F11" s="60"/>
-      <c r="G11" s="110"/>
+      <c r="G11" s="109"/>
       <c r="H11" s="60"/>
-      <c r="I11" s="95"/>
+      <c r="I11" s="94"/>
       <c r="J11" s="60"/>
-      <c r="K11" s="110"/>
+      <c r="K11" s="109"/>
     </row>
     <row r="12" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B12" s="116"/>
+      <c r="B12" s="115"/>
       <c r="C12" s="18">
         <v>7</v>
       </c>
       <c r="D12" s="60"/>
-      <c r="E12" s="95"/>
+      <c r="E12" s="94"/>
       <c r="F12" s="60"/>
-      <c r="G12" s="110"/>
+      <c r="G12" s="109"/>
       <c r="H12" s="60"/>
-      <c r="I12" s="95"/>
+      <c r="I12" s="94"/>
       <c r="J12" s="60"/>
-      <c r="K12" s="110"/>
+      <c r="K12" s="109"/>
     </row>
     <row r="13" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B13" s="116"/>
+      <c r="B13" s="115"/>
       <c r="C13" s="18">
         <v>8</v>
       </c>
       <c r="D13" s="60"/>
-      <c r="E13" s="95"/>
+      <c r="E13" s="94"/>
       <c r="F13" s="60"/>
-      <c r="G13" s="110"/>
+      <c r="G13" s="109"/>
       <c r="H13" s="60"/>
-      <c r="I13" s="95"/>
+      <c r="I13" s="94"/>
       <c r="J13" s="60"/>
-      <c r="K13" s="110"/>
+      <c r="K13" s="109"/>
     </row>
     <row r="14" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B14" s="116"/>
+      <c r="B14" s="115"/>
       <c r="C14" s="18">
         <v>9</v>
       </c>
       <c r="D14" s="60"/>
-      <c r="E14" s="95"/>
+      <c r="E14" s="94"/>
       <c r="F14" s="60"/>
-      <c r="G14" s="110"/>
+      <c r="G14" s="109"/>
       <c r="H14" s="60"/>
-      <c r="I14" s="95"/>
+      <c r="I14" s="94"/>
       <c r="J14" s="60"/>
-      <c r="K14" s="110"/>
+      <c r="K14" s="109"/>
     </row>
     <row r="15" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B15" s="116"/>
+      <c r="B15" s="115"/>
       <c r="C15" s="18">
         <v>10</v>
       </c>
       <c r="D15" s="60"/>
-      <c r="E15" s="95"/>
+      <c r="E15" s="94"/>
       <c r="F15" s="60"/>
-      <c r="G15" s="110"/>
+      <c r="G15" s="109"/>
       <c r="H15" s="60"/>
-      <c r="I15" s="95"/>
+      <c r="I15" s="94"/>
       <c r="J15" s="60"/>
-      <c r="K15" s="110"/>
+      <c r="K15" s="109"/>
     </row>
     <row r="16" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B16" s="116"/>
+      <c r="B16" s="115"/>
       <c r="C16" s="18">
         <v>11</v>
       </c>
       <c r="D16" s="60"/>
-      <c r="E16" s="95"/>
+      <c r="E16" s="94"/>
       <c r="F16" s="60"/>
-      <c r="G16" s="110"/>
+      <c r="G16" s="109"/>
       <c r="H16" s="60"/>
-      <c r="I16" s="95"/>
+      <c r="I16" s="94"/>
       <c r="J16" s="60"/>
-      <c r="K16" s="110"/>
+      <c r="K16" s="109"/>
     </row>
     <row r="17" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B17" s="116"/>
+      <c r="B17" s="115"/>
       <c r="C17" s="18">
         <v>12</v>
       </c>
       <c r="D17" s="60"/>
-      <c r="E17" s="95"/>
+      <c r="E17" s="94"/>
       <c r="F17" s="60"/>
-      <c r="G17" s="110"/>
+      <c r="G17" s="109"/>
       <c r="H17" s="60"/>
-      <c r="I17" s="95"/>
+      <c r="I17" s="94"/>
       <c r="J17" s="60"/>
-      <c r="K17" s="110"/>
+      <c r="K17" s="109"/>
     </row>
     <row r="18" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B18" s="116"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="18">
         <v>13</v>
       </c>
       <c r="D18" s="60"/>
-      <c r="E18" s="95"/>
+      <c r="E18" s="94"/>
       <c r="F18" s="60"/>
-      <c r="G18" s="110"/>
+      <c r="G18" s="109"/>
       <c r="H18" s="60"/>
-      <c r="I18" s="95"/>
+      <c r="I18" s="94"/>
       <c r="J18" s="60"/>
-      <c r="K18" s="110"/>
+      <c r="K18" s="109"/>
     </row>
     <row r="19" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B19" s="116"/>
+      <c r="B19" s="115"/>
       <c r="C19" s="18">
         <v>14</v>
       </c>
       <c r="D19" s="60"/>
       <c r="E19" s="62"/>
       <c r="F19" s="60"/>
-      <c r="G19" s="110"/>
+      <c r="G19" s="109"/>
       <c r="H19" s="60"/>
       <c r="I19" s="62"/>
       <c r="J19" s="60"/>
-      <c r="K19" s="110"/>
+      <c r="K19" s="109"/>
     </row>
     <row r="20" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B20" s="116"/>
+      <c r="B20" s="115"/>
       <c r="C20" s="18">
         <v>15</v>
       </c>
       <c r="D20" s="60"/>
       <c r="E20" s="62"/>
       <c r="F20" s="60"/>
-      <c r="G20" s="110"/>
+      <c r="G20" s="109"/>
       <c r="H20" s="60"/>
       <c r="I20" s="62"/>
       <c r="J20" s="60"/>
-      <c r="K20" s="110"/>
+      <c r="K20" s="109"/>
     </row>
     <row r="21" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B21" s="116"/>
+      <c r="B21" s="115"/>
       <c r="C21" s="18">
         <v>16</v>
       </c>
       <c r="D21" s="60"/>
       <c r="E21" s="62"/>
       <c r="F21" s="60"/>
-      <c r="G21" s="110"/>
+      <c r="G21" s="109"/>
       <c r="H21" s="60"/>
       <c r="I21" s="62"/>
       <c r="J21" s="60"/>
-      <c r="K21" s="110"/>
+      <c r="K21" s="109"/>
     </row>
     <row r="22" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B22" s="116"/>
+      <c r="B22" s="115"/>
       <c r="C22" s="18">
         <v>17</v>
       </c>
       <c r="D22" s="60"/>
       <c r="E22" s="62"/>
       <c r="F22" s="60"/>
-      <c r="G22" s="110"/>
+      <c r="G22" s="109"/>
       <c r="H22" s="60"/>
       <c r="I22" s="62"/>
       <c r="J22" s="60"/>
-      <c r="K22" s="110"/>
+      <c r="K22" s="109"/>
     </row>
     <row r="23" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B23" s="116"/>
+      <c r="B23" s="115"/>
       <c r="C23" s="18">
         <v>18</v>
       </c>
       <c r="D23" s="18"/>
-      <c r="E23" s="93"/>
+      <c r="E23" s="92"/>
       <c r="F23" s="18"/>
-      <c r="G23" s="93"/>
+      <c r="G23" s="92"/>
       <c r="H23" s="18"/>
-      <c r="I23" s="93"/>
+      <c r="I23" s="92"/>
       <c r="J23" s="18"/>
-      <c r="K23" s="93"/>
+      <c r="K23" s="92"/>
     </row>
     <row r="24" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B24" s="116"/>
+      <c r="B24" s="115"/>
       <c r="C24" s="18">
         <v>19</v>
       </c>
       <c r="D24" s="18"/>
-      <c r="E24" s="108"/>
+      <c r="E24" s="107"/>
       <c r="F24" s="18"/>
-      <c r="G24" s="93"/>
+      <c r="G24" s="92"/>
       <c r="H24" s="18"/>
-      <c r="I24" s="108"/>
+      <c r="I24" s="107"/>
       <c r="J24" s="18"/>
-      <c r="K24" s="93"/>
+      <c r="K24" s="92"/>
     </row>
     <row r="25" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B25" s="116"/>
+      <c r="B25" s="115"/>
       <c r="C25" s="18">
         <v>20</v>
       </c>
       <c r="D25" s="18"/>
-      <c r="E25" s="93"/>
+      <c r="E25" s="92"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="93"/>
+      <c r="G25" s="92"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="93"/>
+      <c r="I25" s="92"/>
       <c r="J25" s="18"/>
-      <c r="K25" s="93"/>
+      <c r="K25" s="92"/>
     </row>
     <row r="26" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B26" s="116"/>
+      <c r="B26" s="115"/>
       <c r="C26" s="18">
         <v>21</v>
       </c>
       <c r="D26" s="18"/>
-      <c r="E26" s="93"/>
+      <c r="E26" s="92"/>
       <c r="F26" s="18"/>
-      <c r="G26" s="93"/>
+      <c r="G26" s="92"/>
       <c r="H26" s="18"/>
-      <c r="I26" s="93"/>
+      <c r="I26" s="92"/>
       <c r="J26" s="18"/>
-      <c r="K26" s="93"/>
+      <c r="K26" s="92"/>
     </row>
     <row r="27" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B27" s="116"/>
+      <c r="B27" s="115"/>
       <c r="C27" s="18">
         <v>22</v>
       </c>
       <c r="D27" s="18"/>
-      <c r="E27" s="93"/>
+      <c r="E27" s="92"/>
       <c r="F27" s="18"/>
-      <c r="G27" s="93"/>
+      <c r="G27" s="92"/>
       <c r="H27" s="18"/>
-      <c r="I27" s="93"/>
+      <c r="I27" s="92"/>
       <c r="J27" s="18"/>
-      <c r="K27" s="93"/>
+      <c r="K27" s="92"/>
     </row>
     <row r="28" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B28" s="116"/>
+      <c r="B28" s="115"/>
       <c r="C28" s="18">
         <v>23</v>
       </c>
       <c r="D28" s="18"/>
-      <c r="E28" s="93"/>
+      <c r="E28" s="92"/>
       <c r="F28" s="18"/>
-      <c r="G28" s="93"/>
+      <c r="G28" s="92"/>
       <c r="H28" s="18"/>
-      <c r="I28" s="93"/>
+      <c r="I28" s="92"/>
       <c r="J28" s="18"/>
-      <c r="K28" s="93"/>
+      <c r="K28" s="92"/>
     </row>
     <row r="29" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B29" s="116"/>
+      <c r="B29" s="115"/>
       <c r="C29" s="18">
         <v>24</v>
       </c>
       <c r="D29" s="18"/>
-      <c r="E29" s="93"/>
+      <c r="E29" s="92"/>
       <c r="F29" s="18"/>
-      <c r="G29" s="93"/>
+      <c r="G29" s="92"/>
       <c r="H29" s="18"/>
-      <c r="I29" s="93"/>
+      <c r="I29" s="92"/>
       <c r="J29" s="18"/>
-      <c r="K29" s="93"/>
+      <c r="K29" s="92"/>
     </row>
     <row r="30" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B30" s="116"/>
+      <c r="B30" s="115"/>
       <c r="C30" s="18">
         <v>25</v>
       </c>
       <c r="D30" s="18"/>
-      <c r="E30" s="93"/>
+      <c r="E30" s="92"/>
       <c r="F30" s="18"/>
-      <c r="G30" s="93"/>
+      <c r="G30" s="92"/>
       <c r="H30" s="18"/>
-      <c r="I30" s="93"/>
+      <c r="I30" s="92"/>
       <c r="J30" s="18"/>
-      <c r="K30" s="93"/>
+      <c r="K30" s="92"/>
     </row>
     <row r="31" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B31" s="116"/>
+      <c r="B31" s="115"/>
       <c r="C31" s="18">
         <v>26</v>
       </c>
       <c r="D31" s="18"/>
-      <c r="E31" s="93"/>
+      <c r="E31" s="92"/>
       <c r="F31" s="18"/>
-      <c r="G31" s="93"/>
+      <c r="G31" s="92"/>
       <c r="H31" s="18"/>
-      <c r="I31" s="93"/>
+      <c r="I31" s="92"/>
       <c r="J31" s="18"/>
-      <c r="K31" s="93"/>
+      <c r="K31" s="92"/>
     </row>
     <row r="32" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B32" s="116"/>
+      <c r="B32" s="115"/>
       <c r="C32" s="18">
         <v>27</v>
       </c>
       <c r="D32" s="18"/>
-      <c r="E32" s="93"/>
+      <c r="E32" s="92"/>
       <c r="F32" s="18"/>
-      <c r="G32" s="93"/>
+      <c r="G32" s="92"/>
       <c r="H32" s="18"/>
-      <c r="I32" s="93"/>
+      <c r="I32" s="92"/>
       <c r="J32" s="18"/>
-      <c r="K32" s="93"/>
+      <c r="K32" s="92"/>
     </row>
     <row r="33" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B33" s="116"/>
+      <c r="B33" s="115"/>
       <c r="C33" s="18">
         <v>28</v>
       </c>
       <c r="D33" s="18"/>
-      <c r="E33" s="93"/>
+      <c r="E33" s="92"/>
       <c r="F33" s="18"/>
-      <c r="G33" s="93"/>
+      <c r="G33" s="92"/>
       <c r="H33" s="18"/>
-      <c r="I33" s="93"/>
+      <c r="I33" s="92"/>
       <c r="J33" s="18"/>
-      <c r="K33" s="93"/>
+      <c r="K33" s="92"/>
     </row>
     <row r="34" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B34" s="116"/>
+      <c r="B34" s="115"/>
       <c r="C34" s="18">
         <v>29</v>
       </c>
       <c r="D34" s="18"/>
-      <c r="E34" s="93"/>
+      <c r="E34" s="92"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="93"/>
+      <c r="G34" s="92"/>
       <c r="H34" s="18"/>
-      <c r="I34" s="93"/>
+      <c r="I34" s="92"/>
       <c r="J34" s="18"/>
-      <c r="K34" s="93"/>
+      <c r="K34" s="92"/>
     </row>
     <row r="35" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B35" s="116"/>
+      <c r="B35" s="115"/>
       <c r="C35" s="18">
         <v>30</v>
       </c>
       <c r="D35" s="18"/>
-      <c r="E35" s="93"/>
+      <c r="E35" s="92"/>
       <c r="F35" s="18"/>
-      <c r="G35" s="93"/>
+      <c r="G35" s="92"/>
       <c r="H35" s="18"/>
-      <c r="I35" s="93"/>
+      <c r="I35" s="92"/>
       <c r="J35" s="18"/>
-      <c r="K35" s="93"/>
+      <c r="K35" s="92"/>
     </row>
     <row r="36" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B36" s="116"/>
+      <c r="B36" s="115"/>
       <c r="C36" s="18">
         <v>31</v>
       </c>
       <c r="D36" s="18"/>
-      <c r="E36" s="93"/>
+      <c r="E36" s="92"/>
       <c r="F36" s="18"/>
-      <c r="G36" s="93"/>
+      <c r="G36" s="92"/>
       <c r="H36" s="18"/>
-      <c r="I36" s="93"/>
+      <c r="I36" s="92"/>
       <c r="J36" s="18"/>
-      <c r="K36" s="93"/>
+      <c r="K36" s="92"/>
     </row>
     <row r="37" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B37" s="116"/>
+      <c r="B37" s="115"/>
       <c r="C37" s="18">
         <v>32</v>
       </c>
       <c r="D37" s="18"/>
-      <c r="E37" s="93"/>
+      <c r="E37" s="92"/>
       <c r="F37" s="18"/>
-      <c r="G37" s="93"/>
+      <c r="G37" s="92"/>
       <c r="H37" s="18"/>
-      <c r="I37" s="93"/>
+      <c r="I37" s="92"/>
       <c r="J37" s="18"/>
-      <c r="K37" s="93"/>
+      <c r="K37" s="92"/>
     </row>
     <row r="38" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B38" s="116"/>
+      <c r="B38" s="115"/>
       <c r="C38" s="18">
         <v>33</v>
       </c>
       <c r="D38" s="18"/>
-      <c r="E38" s="93"/>
+      <c r="E38" s="92"/>
       <c r="F38" s="18"/>
-      <c r="G38" s="93"/>
+      <c r="G38" s="92"/>
       <c r="H38" s="18"/>
-      <c r="I38" s="93"/>
+      <c r="I38" s="92"/>
       <c r="J38" s="18"/>
-      <c r="K38" s="93"/>
+      <c r="K38" s="92"/>
     </row>
     <row r="39" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B39" s="116"/>
+      <c r="B39" s="115"/>
       <c r="C39" s="18">
         <v>34</v>
       </c>
       <c r="D39" s="18"/>
-      <c r="E39" s="93"/>
+      <c r="E39" s="92"/>
       <c r="F39" s="18"/>
-      <c r="G39" s="93"/>
+      <c r="G39" s="92"/>
       <c r="H39" s="18"/>
-      <c r="I39" s="93"/>
+      <c r="I39" s="92"/>
       <c r="J39" s="18"/>
-      <c r="K39" s="93"/>
+      <c r="K39" s="92"/>
     </row>
     <row r="40" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B40" s="116"/>
+      <c r="B40" s="115"/>
       <c r="C40" s="18">
         <v>35</v>
       </c>
       <c r="D40" s="18"/>
-      <c r="E40" s="93"/>
+      <c r="E40" s="92"/>
       <c r="F40" s="18"/>
-      <c r="G40" s="93"/>
+      <c r="G40" s="92"/>
       <c r="H40" s="18"/>
-      <c r="I40" s="93"/>
+      <c r="I40" s="92"/>
       <c r="J40" s="18"/>
-      <c r="K40" s="93"/>
+      <c r="K40" s="92"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B41" s="116"/>
+      <c r="B41" s="115"/>
       <c r="C41" s="18">
         <v>36</v>
       </c>
       <c r="D41" s="18"/>
-      <c r="E41" s="93"/>
+      <c r="E41" s="92"/>
       <c r="F41" s="18"/>
-      <c r="G41" s="93"/>
+      <c r="G41" s="92"/>
       <c r="H41" s="18"/>
-      <c r="I41" s="93"/>
+      <c r="I41" s="92"/>
       <c r="J41" s="18"/>
-      <c r="K41" s="93"/>
+      <c r="K41" s="92"/>
     </row>
     <row r="42" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B42" s="116"/>
+      <c r="B42" s="115"/>
       <c r="C42" s="18">
         <v>37</v>
       </c>
       <c r="D42" s="18"/>
-      <c r="E42" s="93"/>
+      <c r="E42" s="92"/>
       <c r="F42" s="18"/>
-      <c r="G42" s="93"/>
+      <c r="G42" s="92"/>
       <c r="H42" s="18"/>
-      <c r="I42" s="93"/>
+      <c r="I42" s="92"/>
       <c r="J42" s="18"/>
-      <c r="K42" s="93"/>
+      <c r="K42" s="92"/>
     </row>
     <row r="43" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B43" s="116"/>
+      <c r="B43" s="115"/>
       <c r="C43" s="18">
         <v>38</v>
       </c>
       <c r="D43" s="18"/>
-      <c r="E43" s="93"/>
+      <c r="E43" s="92"/>
       <c r="F43" s="18"/>
-      <c r="G43" s="93"/>
+      <c r="G43" s="92"/>
       <c r="H43" s="18"/>
-      <c r="I43" s="93"/>
+      <c r="I43" s="92"/>
       <c r="J43" s="18"/>
-      <c r="K43" s="93"/>
+      <c r="K43" s="92"/>
     </row>
     <row r="44" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B44" s="116"/>
+      <c r="B44" s="115"/>
       <c r="C44" s="18">
         <v>39</v>
       </c>
       <c r="D44" s="18"/>
-      <c r="E44" s="93"/>
+      <c r="E44" s="92"/>
       <c r="F44" s="18"/>
-      <c r="G44" s="93"/>
+      <c r="G44" s="92"/>
       <c r="H44" s="18"/>
-      <c r="I44" s="93"/>
+      <c r="I44" s="92"/>
       <c r="J44" s="18"/>
-      <c r="K44" s="93"/>
+      <c r="K44" s="92"/>
     </row>
     <row r="45" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B45" s="116"/>
+      <c r="B45" s="115"/>
       <c r="C45" s="18">
         <v>40</v>
       </c>
       <c r="D45" s="18"/>
-      <c r="E45" s="93"/>
+      <c r="E45" s="92"/>
       <c r="F45" s="18"/>
-      <c r="G45" s="93"/>
+      <c r="G45" s="92"/>
       <c r="H45" s="18"/>
-      <c r="I45" s="93"/>
+      <c r="I45" s="92"/>
       <c r="J45" s="18"/>
-      <c r="K45" s="93"/>
+      <c r="K45" s="92"/>
     </row>
     <row r="46" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B46" s="116"/>
+      <c r="B46" s="115"/>
       <c r="C46" s="18">
         <v>41</v>
       </c>
       <c r="D46" s="18"/>
-      <c r="E46" s="93"/>
+      <c r="E46" s="92"/>
       <c r="F46" s="18"/>
-      <c r="G46" s="93"/>
+      <c r="G46" s="92"/>
       <c r="H46" s="18"/>
-      <c r="I46" s="93"/>
+      <c r="I46" s="92"/>
       <c r="J46" s="18"/>
-      <c r="K46" s="93"/>
+      <c r="K46" s="92"/>
     </row>
     <row r="47" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B47" s="116"/>
+      <c r="B47" s="115"/>
       <c r="C47" s="18">
         <v>42</v>
       </c>
       <c r="D47" s="18"/>
-      <c r="E47" s="93"/>
+      <c r="E47" s="92"/>
       <c r="F47" s="18"/>
-      <c r="G47" s="93"/>
+      <c r="G47" s="92"/>
       <c r="H47" s="18"/>
-      <c r="I47" s="93"/>
+      <c r="I47" s="92"/>
       <c r="J47" s="18"/>
-      <c r="K47" s="93"/>
+      <c r="K47" s="92"/>
     </row>
     <row r="48" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B48" s="116"/>
+      <c r="B48" s="115"/>
       <c r="C48" s="18">
         <v>43</v>
       </c>
       <c r="D48" s="18"/>
-      <c r="E48" s="93"/>
+      <c r="E48" s="92"/>
       <c r="F48" s="18"/>
-      <c r="G48" s="93"/>
+      <c r="G48" s="92"/>
       <c r="H48" s="18"/>
-      <c r="I48" s="93"/>
+      <c r="I48" s="92"/>
       <c r="J48" s="18"/>
-      <c r="K48" s="93"/>
+      <c r="K48" s="92"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B49" s="116"/>
+      <c r="B49" s="115"/>
       <c r="C49" s="18">
         <v>44</v>
       </c>
       <c r="D49" s="18"/>
-      <c r="E49" s="93"/>
+      <c r="E49" s="92"/>
       <c r="F49" s="18"/>
-      <c r="G49" s="93"/>
+      <c r="G49" s="92"/>
       <c r="H49" s="18"/>
-      <c r="I49" s="93"/>
+      <c r="I49" s="92"/>
       <c r="J49" s="18"/>
-      <c r="K49" s="93"/>
+      <c r="K49" s="92"/>
     </row>
     <row r="50" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B50" s="116"/>
+      <c r="B50" s="115"/>
       <c r="C50" s="18">
         <v>45</v>
       </c>
       <c r="D50" s="18"/>
-      <c r="E50" s="93"/>
+      <c r="E50" s="92"/>
       <c r="F50" s="18"/>
-      <c r="G50" s="93"/>
+      <c r="G50" s="92"/>
       <c r="H50" s="18"/>
-      <c r="I50" s="93"/>
+      <c r="I50" s="92"/>
       <c r="J50" s="18"/>
-      <c r="K50" s="93"/>
+      <c r="K50" s="92"/>
     </row>
     <row r="51" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B51" s="116"/>
+      <c r="B51" s="115"/>
       <c r="C51" s="18">
         <v>46</v>
       </c>
       <c r="D51" s="18"/>
-      <c r="E51" s="93"/>
+      <c r="E51" s="92"/>
       <c r="F51" s="18"/>
-      <c r="G51" s="93"/>
+      <c r="G51" s="92"/>
       <c r="H51" s="18"/>
-      <c r="I51" s="93"/>
+      <c r="I51" s="92"/>
       <c r="J51" s="18"/>
-      <c r="K51" s="93"/>
+      <c r="K51" s="92"/>
     </row>
     <row r="52" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B52" s="116"/>
+      <c r="B52" s="115"/>
       <c r="C52" s="18">
         <v>47</v>
       </c>
       <c r="D52" s="18"/>
-      <c r="E52" s="93"/>
+      <c r="E52" s="92"/>
       <c r="F52" s="18"/>
-      <c r="G52" s="93"/>
+      <c r="G52" s="92"/>
       <c r="H52" s="18"/>
-      <c r="I52" s="93"/>
+      <c r="I52" s="92"/>
       <c r="J52" s="18"/>
-      <c r="K52" s="93"/>
+      <c r="K52" s="92"/>
     </row>
     <row r="53" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B53" s="116"/>
+      <c r="B53" s="115"/>
       <c r="C53" s="18">
         <v>48</v>
       </c>
       <c r="D53" s="18"/>
-      <c r="E53" s="93"/>
+      <c r="E53" s="92"/>
       <c r="F53" s="18"/>
-      <c r="G53" s="93"/>
+      <c r="G53" s="92"/>
       <c r="H53" s="18"/>
-      <c r="I53" s="93"/>
+      <c r="I53" s="92"/>
       <c r="J53" s="18"/>
-      <c r="K53" s="93"/>
+      <c r="K53" s="92"/>
     </row>
     <row r="54" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B54" s="116"/>
+      <c r="B54" s="115"/>
       <c r="C54" s="18">
         <v>49</v>
       </c>
       <c r="D54" s="18"/>
-      <c r="E54" s="93"/>
+      <c r="E54" s="92"/>
       <c r="F54" s="18"/>
-      <c r="G54" s="93"/>
+      <c r="G54" s="92"/>
       <c r="H54" s="18"/>
-      <c r="I54" s="93"/>
+      <c r="I54" s="92"/>
       <c r="J54" s="18"/>
-      <c r="K54" s="93"/>
+      <c r="K54" s="92"/>
     </row>
     <row r="55" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B55" s="116"/>
+      <c r="B55" s="115"/>
       <c r="C55" s="18">
         <v>50</v>
       </c>
       <c r="D55" s="18"/>
-      <c r="E55" s="93"/>
+      <c r="E55" s="92"/>
       <c r="F55" s="18"/>
-      <c r="G55" s="93"/>
+      <c r="G55" s="92"/>
       <c r="H55" s="18"/>
-      <c r="I55" s="93"/>
+      <c r="I55" s="92"/>
       <c r="J55" s="18"/>
-      <c r="K55" s="93"/>
+      <c r="K55" s="92"/>
     </row>
     <row r="56" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B56" s="116"/>
+      <c r="B56" s="115"/>
       <c r="C56" s="18">
         <v>51</v>
       </c>
       <c r="D56" s="18"/>
-      <c r="E56" s="93"/>
+      <c r="E56" s="92"/>
       <c r="F56" s="18"/>
-      <c r="G56" s="93"/>
+      <c r="G56" s="92"/>
       <c r="H56" s="18"/>
-      <c r="I56" s="93"/>
+      <c r="I56" s="92"/>
       <c r="J56" s="18"/>
-      <c r="K56" s="93"/>
+      <c r="K56" s="92"/>
     </row>
     <row r="57" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B57" s="116"/>
+      <c r="B57" s="115"/>
       <c r="C57" s="18">
         <v>52</v>
       </c>
       <c r="D57" s="18"/>
-      <c r="E57" s="93"/>
+      <c r="E57" s="92"/>
       <c r="F57" s="18"/>
-      <c r="G57" s="93"/>
+      <c r="G57" s="92"/>
       <c r="H57" s="18"/>
-      <c r="I57" s="93"/>
+      <c r="I57" s="92"/>
       <c r="J57" s="18"/>
-      <c r="K57" s="93"/>
+      <c r="K57" s="92"/>
     </row>
     <row r="58" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B58" s="116"/>
+      <c r="B58" s="115"/>
       <c r="C58" s="18">
         <v>53</v>
       </c>
       <c r="D58" s="18"/>
-      <c r="E58" s="93"/>
+      <c r="E58" s="92"/>
       <c r="F58" s="18"/>
-      <c r="G58" s="93"/>
+      <c r="G58" s="92"/>
       <c r="H58" s="18"/>
-      <c r="I58" s="93"/>
+      <c r="I58" s="92"/>
       <c r="J58" s="18"/>
-      <c r="K58" s="93"/>
+      <c r="K58" s="92"/>
     </row>
     <row r="59" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B59" s="116"/>
+      <c r="B59" s="115"/>
       <c r="C59" s="18">
         <v>54</v>
       </c>
       <c r="D59" s="18"/>
-      <c r="E59" s="93"/>
+      <c r="E59" s="92"/>
       <c r="F59" s="18"/>
-      <c r="G59" s="93"/>
+      <c r="G59" s="92"/>
       <c r="H59" s="18"/>
-      <c r="I59" s="93"/>
+      <c r="I59" s="92"/>
       <c r="J59" s="18"/>
-      <c r="K59" s="93"/>
+      <c r="K59" s="92"/>
     </row>
     <row r="60" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B60" s="116"/>
+      <c r="B60" s="115"/>
       <c r="C60" s="18">
         <v>55</v>
       </c>
       <c r="D60" s="18"/>
-      <c r="E60" s="93"/>
+      <c r="E60" s="92"/>
       <c r="F60" s="18"/>
-      <c r="G60" s="93"/>
+      <c r="G60" s="92"/>
       <c r="H60" s="18"/>
-      <c r="I60" s="93"/>
+      <c r="I60" s="92"/>
       <c r="J60" s="18"/>
-      <c r="K60" s="93"/>
+      <c r="K60" s="92"/>
     </row>
     <row r="61" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B61" s="116"/>
+      <c r="B61" s="115"/>
       <c r="C61" s="18">
         <v>56</v>
       </c>
       <c r="D61" s="18"/>
-      <c r="E61" s="93"/>
+      <c r="E61" s="92"/>
       <c r="F61" s="18"/>
-      <c r="G61" s="93"/>
+      <c r="G61" s="92"/>
       <c r="H61" s="18"/>
-      <c r="I61" s="93"/>
+      <c r="I61" s="92"/>
       <c r="J61" s="18"/>
-      <c r="K61" s="93"/>
+      <c r="K61" s="92"/>
     </row>
     <row r="62" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B62" s="116"/>
+      <c r="B62" s="115"/>
       <c r="C62" s="18">
         <v>57</v>
       </c>
       <c r="D62" s="18"/>
-      <c r="E62" s="93"/>
+      <c r="E62" s="92"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="93"/>
+      <c r="G62" s="92"/>
       <c r="H62" s="18"/>
-      <c r="I62" s="93"/>
+      <c r="I62" s="92"/>
       <c r="J62" s="18"/>
-      <c r="K62" s="93"/>
+      <c r="K62" s="92"/>
     </row>
     <row r="63" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B63" s="116"/>
+      <c r="B63" s="115"/>
       <c r="C63" s="18">
         <v>58</v>
       </c>
       <c r="D63" s="18"/>
-      <c r="E63" s="93"/>
+      <c r="E63" s="92"/>
       <c r="F63" s="18"/>
-      <c r="G63" s="93"/>
+      <c r="G63" s="92"/>
       <c r="H63" s="18"/>
-      <c r="I63" s="93"/>
+      <c r="I63" s="92"/>
       <c r="J63" s="18"/>
-      <c r="K63" s="93"/>
+      <c r="K63" s="92"/>
     </row>
     <row r="64" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B64" s="116"/>
+      <c r="B64" s="115"/>
       <c r="C64" s="18">
         <v>59</v>
       </c>
       <c r="D64" s="18"/>
-      <c r="E64" s="93"/>
+      <c r="E64" s="92"/>
       <c r="F64" s="18"/>
-      <c r="G64" s="93"/>
+      <c r="G64" s="92"/>
       <c r="H64" s="18"/>
-      <c r="I64" s="93"/>
+      <c r="I64" s="92"/>
       <c r="J64" s="18"/>
-      <c r="K64" s="93"/>
+      <c r="K64" s="92"/>
     </row>
     <row r="65" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B65" s="117"/>
+      <c r="B65" s="116"/>
       <c r="C65" s="24">
         <v>60</v>
       </c>
       <c r="D65" s="24"/>
-      <c r="E65" s="94"/>
+      <c r="E65" s="93"/>
       <c r="F65" s="24"/>
-      <c r="G65" s="94"/>
+      <c r="G65" s="93"/>
       <c r="H65" s="24"/>
-      <c r="I65" s="94"/>
+      <c r="I65" s="93"/>
       <c r="J65" s="24"/>
-      <c r="K65" s="94"/>
+      <c r="K65" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -14760,7 +14758,7 @@
     <mergeCell ref="B5:B65"/>
     <mergeCell ref="D3:K3"/>
   </mergeCells>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14780,192 +14778,192 @@
   <sheetData>
     <row r="2" spans="2:8" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="3" spans="2:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="C3" s="98"/>
-      <c r="D3" s="121" t="s">
+      <c r="C3" s="97"/>
+      <c r="D3" s="120" t="s">
+        <v>322</v>
+      </c>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="30"/>
+    </row>
+    <row r="4" spans="2:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="C4" s="98"/>
+      <c r="D4" s="99">
+        <v>0</v>
+      </c>
+      <c r="E4" s="100" t="s">
         <v>323</v>
       </c>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="30"/>
-    </row>
-    <row r="4" spans="2:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="C4" s="99"/>
-      <c r="D4" s="100">
-        <v>0</v>
-      </c>
-      <c r="E4" s="101" t="s">
+      <c r="F4" s="99" t="s">
         <v>324</v>
       </c>
-      <c r="F4" s="100" t="s">
+      <c r="G4" s="101" t="s">
         <v>325</v>
       </c>
-      <c r="G4" s="102" t="s">
-        <v>326</v>
-      </c>
-      <c r="H4" s="103" t="s">
-        <v>319</v>
+      <c r="H4" s="102" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B5" s="122" t="s">
-        <v>331</v>
-      </c>
-      <c r="C5" s="104">
+      <c r="B5" s="121" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5" s="103">
         <v>0</v>
       </c>
       <c r="D5" s="43"/>
       <c r="E5" s="43"/>
       <c r="F5" s="43"/>
-      <c r="G5" s="97"/>
+      <c r="G5" s="96"/>
       <c r="H5" s="43"/>
     </row>
     <row r="6" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B6" s="123"/>
-      <c r="C6" s="105">
+      <c r="B6" s="122"/>
+      <c r="C6" s="104">
         <v>1</v>
       </c>
       <c r="D6" s="60"/>
-      <c r="E6" s="89"/>
+      <c r="E6" s="88"/>
       <c r="F6" s="60"/>
       <c r="G6" s="61"/>
       <c r="H6" s="18"/>
     </row>
     <row r="7" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B7" s="123"/>
-      <c r="C7" s="105">
+      <c r="B7" s="122"/>
+      <c r="C7" s="104">
         <v>2</v>
       </c>
       <c r="D7" s="60"/>
-      <c r="E7" s="89"/>
+      <c r="E7" s="88"/>
       <c r="F7" s="60"/>
       <c r="G7" s="61"/>
       <c r="H7" s="18"/>
     </row>
     <row r="8" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B8" s="123"/>
-      <c r="C8" s="105">
+      <c r="B8" s="122"/>
+      <c r="C8" s="104">
         <v>3</v>
       </c>
       <c r="D8" s="60"/>
-      <c r="E8" s="89"/>
+      <c r="E8" s="88"/>
       <c r="F8" s="60"/>
       <c r="G8" s="61"/>
       <c r="H8" s="18"/>
     </row>
     <row r="9" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B9" s="123"/>
-      <c r="C9" s="105">
+      <c r="B9" s="122"/>
+      <c r="C9" s="104">
         <v>4</v>
       </c>
       <c r="D9" s="60"/>
-      <c r="E9" s="89"/>
+      <c r="E9" s="88"/>
       <c r="F9" s="60"/>
       <c r="G9" s="61"/>
       <c r="H9" s="18"/>
     </row>
     <row r="10" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B10" s="123"/>
-      <c r="C10" s="105">
+      <c r="B10" s="122"/>
+      <c r="C10" s="104">
         <v>5</v>
       </c>
       <c r="D10" s="60"/>
-      <c r="E10" s="89"/>
+      <c r="E10" s="88"/>
       <c r="F10" s="60"/>
       <c r="G10" s="61"/>
       <c r="H10" s="18"/>
     </row>
     <row r="11" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B11" s="123"/>
-      <c r="C11" s="105">
+      <c r="B11" s="122"/>
+      <c r="C11" s="104">
         <v>6</v>
       </c>
       <c r="D11" s="60"/>
-      <c r="E11" s="89"/>
+      <c r="E11" s="88"/>
       <c r="F11" s="60"/>
       <c r="G11" s="61"/>
       <c r="H11" s="18"/>
     </row>
     <row r="12" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B12" s="123"/>
-      <c r="C12" s="105">
+      <c r="B12" s="122"/>
+      <c r="C12" s="104">
         <v>7</v>
       </c>
       <c r="D12" s="60"/>
-      <c r="E12" s="89"/>
+      <c r="E12" s="88"/>
       <c r="F12" s="60"/>
       <c r="G12" s="61"/>
       <c r="H12" s="18"/>
     </row>
     <row r="13" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B13" s="123"/>
-      <c r="C13" s="105">
+      <c r="B13" s="122"/>
+      <c r="C13" s="104">
         <v>8</v>
       </c>
       <c r="D13" s="60"/>
-      <c r="E13" s="89"/>
+      <c r="E13" s="88"/>
       <c r="F13" s="60"/>
       <c r="G13" s="61"/>
       <c r="H13" s="18"/>
     </row>
     <row r="14" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B14" s="123"/>
-      <c r="C14" s="105">
+      <c r="B14" s="122"/>
+      <c r="C14" s="104">
         <v>9</v>
       </c>
       <c r="D14" s="60"/>
-      <c r="E14" s="89"/>
+      <c r="E14" s="88"/>
       <c r="F14" s="60"/>
       <c r="G14" s="61"/>
       <c r="H14" s="18"/>
     </row>
     <row r="15" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B15" s="123"/>
-      <c r="C15" s="105">
+      <c r="B15" s="122"/>
+      <c r="C15" s="104">
         <v>10</v>
       </c>
       <c r="D15" s="60"/>
-      <c r="E15" s="89"/>
+      <c r="E15" s="88"/>
       <c r="F15" s="60"/>
       <c r="G15" s="61"/>
       <c r="H15" s="18"/>
     </row>
     <row r="16" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B16" s="123"/>
-      <c r="C16" s="105">
+      <c r="B16" s="122"/>
+      <c r="C16" s="104">
         <v>11</v>
       </c>
       <c r="D16" s="60"/>
-      <c r="E16" s="89"/>
+      <c r="E16" s="88"/>
       <c r="F16" s="60"/>
       <c r="G16" s="61"/>
       <c r="H16" s="18"/>
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B17" s="123"/>
-      <c r="C17" s="105">
+      <c r="B17" s="122"/>
+      <c r="C17" s="104">
         <v>12</v>
       </c>
       <c r="D17" s="60"/>
-      <c r="E17" s="89"/>
+      <c r="E17" s="88"/>
       <c r="F17" s="60"/>
       <c r="G17" s="61"/>
       <c r="H17" s="18"/>
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B18" s="123"/>
-      <c r="C18" s="105">
+      <c r="B18" s="122"/>
+      <c r="C18" s="104">
         <v>13</v>
       </c>
       <c r="D18" s="60"/>
-      <c r="E18" s="89"/>
+      <c r="E18" s="88"/>
       <c r="F18" s="60"/>
       <c r="G18" s="61"/>
       <c r="H18" s="18"/>
     </row>
     <row r="19" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B19" s="123"/>
-      <c r="C19" s="105">
+      <c r="B19" s="122"/>
+      <c r="C19" s="104">
         <v>14</v>
       </c>
       <c r="D19" s="60"/>
@@ -14975,8 +14973,8 @@
       <c r="H19" s="18"/>
     </row>
     <row r="20" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B20" s="123"/>
-      <c r="C20" s="105">
+      <c r="B20" s="122"/>
+      <c r="C20" s="104">
         <v>15</v>
       </c>
       <c r="D20" s="60"/>
@@ -14986,8 +14984,8 @@
       <c r="H20" s="18"/>
     </row>
     <row r="21" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B21" s="123"/>
-      <c r="C21" s="105">
+      <c r="B21" s="122"/>
+      <c r="C21" s="104">
         <v>16</v>
       </c>
       <c r="D21" s="60"/>
@@ -14997,8 +14995,8 @@
       <c r="H21" s="18"/>
     </row>
     <row r="22" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B22" s="123"/>
-      <c r="C22" s="105">
+      <c r="B22" s="122"/>
+      <c r="C22" s="104">
         <v>17</v>
       </c>
       <c r="D22" s="60"/>
@@ -15008,8 +15006,8 @@
       <c r="H22" s="18"/>
     </row>
     <row r="23" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B23" s="123"/>
-      <c r="C23" s="105">
+      <c r="B23" s="122"/>
+      <c r="C23" s="104">
         <v>18</v>
       </c>
       <c r="D23" s="18"/>
@@ -15019,19 +15017,19 @@
       <c r="H23" s="18"/>
     </row>
     <row r="24" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B24" s="123"/>
-      <c r="C24" s="105">
+      <c r="B24" s="122"/>
+      <c r="C24" s="104">
         <v>19</v>
       </c>
       <c r="D24" s="18"/>
-      <c r="E24" s="92"/>
+      <c r="E24" s="91"/>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
     </row>
     <row r="25" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B25" s="123"/>
-      <c r="C25" s="105">
+      <c r="B25" s="122"/>
+      <c r="C25" s="104">
         <v>20</v>
       </c>
       <c r="D25" s="18"/>
@@ -15041,8 +15039,8 @@
       <c r="H25" s="18"/>
     </row>
     <row r="26" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B26" s="123"/>
-      <c r="C26" s="105">
+      <c r="B26" s="122"/>
+      <c r="C26" s="104">
         <v>21</v>
       </c>
       <c r="D26" s="18"/>
@@ -15052,8 +15050,8 @@
       <c r="H26" s="18"/>
     </row>
     <row r="27" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B27" s="123"/>
-      <c r="C27" s="105">
+      <c r="B27" s="122"/>
+      <c r="C27" s="104">
         <v>22</v>
       </c>
       <c r="D27" s="18"/>
@@ -15063,8 +15061,8 @@
       <c r="H27" s="18"/>
     </row>
     <row r="28" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B28" s="123"/>
-      <c r="C28" s="105">
+      <c r="B28" s="122"/>
+      <c r="C28" s="104">
         <v>23</v>
       </c>
       <c r="D28" s="18"/>
@@ -15074,8 +15072,8 @@
       <c r="H28" s="18"/>
     </row>
     <row r="29" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B29" s="123"/>
-      <c r="C29" s="105">
+      <c r="B29" s="122"/>
+      <c r="C29" s="104">
         <v>24</v>
       </c>
       <c r="D29" s="18"/>
@@ -15085,8 +15083,8 @@
       <c r="H29" s="18"/>
     </row>
     <row r="30" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B30" s="123"/>
-      <c r="C30" s="105">
+      <c r="B30" s="122"/>
+      <c r="C30" s="104">
         <v>25</v>
       </c>
       <c r="D30" s="18"/>
@@ -15096,8 +15094,8 @@
       <c r="H30" s="18"/>
     </row>
     <row r="31" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B31" s="123"/>
-      <c r="C31" s="105">
+      <c r="B31" s="122"/>
+      <c r="C31" s="104">
         <v>26</v>
       </c>
       <c r="D31" s="18"/>
@@ -15107,8 +15105,8 @@
       <c r="H31" s="18"/>
     </row>
     <row r="32" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B32" s="123"/>
-      <c r="C32" s="105">
+      <c r="B32" s="122"/>
+      <c r="C32" s="104">
         <v>27</v>
       </c>
       <c r="D32" s="18"/>
@@ -15118,8 +15116,8 @@
       <c r="H32" s="18"/>
     </row>
     <row r="33" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B33" s="123"/>
-      <c r="C33" s="105">
+      <c r="B33" s="122"/>
+      <c r="C33" s="104">
         <v>28</v>
       </c>
       <c r="D33" s="18"/>
@@ -15129,19 +15127,19 @@
       <c r="H33" s="18"/>
     </row>
     <row r="34" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B34" s="123"/>
-      <c r="C34" s="105">
+      <c r="B34" s="122"/>
+      <c r="C34" s="104">
         <v>29</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
-      <c r="H34" s="93"/>
+      <c r="H34" s="92"/>
     </row>
     <row r="35" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B35" s="123"/>
-      <c r="C35" s="105">
+      <c r="B35" s="122"/>
+      <c r="C35" s="104">
         <v>30</v>
       </c>
       <c r="D35" s="18"/>
@@ -15151,8 +15149,8 @@
       <c r="H35" s="18"/>
     </row>
     <row r="36" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B36" s="123"/>
-      <c r="C36" s="105">
+      <c r="B36" s="122"/>
+      <c r="C36" s="104">
         <v>31</v>
       </c>
       <c r="D36" s="18"/>
@@ -15162,8 +15160,8 @@
       <c r="H36" s="18"/>
     </row>
     <row r="37" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B37" s="123"/>
-      <c r="C37" s="105">
+      <c r="B37" s="122"/>
+      <c r="C37" s="104">
         <v>32</v>
       </c>
       <c r="D37" s="18"/>
@@ -15173,8 +15171,8 @@
       <c r="H37" s="18"/>
     </row>
     <row r="38" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B38" s="123"/>
-      <c r="C38" s="105">
+      <c r="B38" s="122"/>
+      <c r="C38" s="104">
         <v>33</v>
       </c>
       <c r="D38" s="18"/>
@@ -15184,8 +15182,8 @@
       <c r="H38" s="18"/>
     </row>
     <row r="39" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B39" s="123"/>
-      <c r="C39" s="105">
+      <c r="B39" s="122"/>
+      <c r="C39" s="104">
         <v>34</v>
       </c>
       <c r="D39" s="18"/>
@@ -15195,8 +15193,8 @@
       <c r="H39" s="18"/>
     </row>
     <row r="40" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B40" s="123"/>
-      <c r="C40" s="105">
+      <c r="B40" s="122"/>
+      <c r="C40" s="104">
         <v>35</v>
       </c>
       <c r="D40" s="18"/>
@@ -15206,8 +15204,8 @@
       <c r="H40" s="18"/>
     </row>
     <row r="41" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B41" s="123"/>
-      <c r="C41" s="105">
+      <c r="B41" s="122"/>
+      <c r="C41" s="104">
         <v>36</v>
       </c>
       <c r="D41" s="18"/>
@@ -15217,8 +15215,8 @@
       <c r="H41" s="18"/>
     </row>
     <row r="42" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B42" s="123"/>
-      <c r="C42" s="105">
+      <c r="B42" s="122"/>
+      <c r="C42" s="104">
         <v>37</v>
       </c>
       <c r="D42" s="18"/>
@@ -15228,8 +15226,8 @@
       <c r="H42" s="18"/>
     </row>
     <row r="43" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B43" s="123"/>
-      <c r="C43" s="105">
+      <c r="B43" s="122"/>
+      <c r="C43" s="104">
         <v>38</v>
       </c>
       <c r="D43" s="18"/>
@@ -15239,8 +15237,8 @@
       <c r="H43" s="18"/>
     </row>
     <row r="44" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B44" s="123"/>
-      <c r="C44" s="105">
+      <c r="B44" s="122"/>
+      <c r="C44" s="104">
         <v>39</v>
       </c>
       <c r="D44" s="18"/>
@@ -15250,8 +15248,8 @@
       <c r="H44" s="18"/>
     </row>
     <row r="45" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B45" s="123"/>
-      <c r="C45" s="105">
+      <c r="B45" s="122"/>
+      <c r="C45" s="104">
         <v>40</v>
       </c>
       <c r="D45" s="18"/>
@@ -15261,8 +15259,8 @@
       <c r="H45" s="18"/>
     </row>
     <row r="46" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B46" s="123"/>
-      <c r="C46" s="105">
+      <c r="B46" s="122"/>
+      <c r="C46" s="104">
         <v>41</v>
       </c>
       <c r="D46" s="18"/>
@@ -15272,8 +15270,8 @@
       <c r="H46" s="18"/>
     </row>
     <row r="47" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B47" s="123"/>
-      <c r="C47" s="105">
+      <c r="B47" s="122"/>
+      <c r="C47" s="104">
         <v>42</v>
       </c>
       <c r="D47" s="18"/>
@@ -15283,8 +15281,8 @@
       <c r="H47" s="18"/>
     </row>
     <row r="48" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B48" s="123"/>
-      <c r="C48" s="105">
+      <c r="B48" s="122"/>
+      <c r="C48" s="104">
         <v>43</v>
       </c>
       <c r="D48" s="18"/>
@@ -15294,8 +15292,8 @@
       <c r="H48" s="18"/>
     </row>
     <row r="49" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B49" s="123"/>
-      <c r="C49" s="105">
+      <c r="B49" s="122"/>
+      <c r="C49" s="104">
         <v>44</v>
       </c>
       <c r="D49" s="18"/>
@@ -15305,8 +15303,8 @@
       <c r="H49" s="18"/>
     </row>
     <row r="50" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B50" s="123"/>
-      <c r="C50" s="105">
+      <c r="B50" s="122"/>
+      <c r="C50" s="104">
         <v>45</v>
       </c>
       <c r="D50" s="18"/>
@@ -15316,8 +15314,8 @@
       <c r="H50" s="18"/>
     </row>
     <row r="51" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B51" s="123"/>
-      <c r="C51" s="105">
+      <c r="B51" s="122"/>
+      <c r="C51" s="104">
         <v>46</v>
       </c>
       <c r="D51" s="18"/>
@@ -15327,8 +15325,8 @@
       <c r="H51" s="18"/>
     </row>
     <row r="52" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B52" s="123"/>
-      <c r="C52" s="105">
+      <c r="B52" s="122"/>
+      <c r="C52" s="104">
         <v>47</v>
       </c>
       <c r="D52" s="18"/>
@@ -15338,8 +15336,8 @@
       <c r="H52" s="18"/>
     </row>
     <row r="53" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B53" s="123"/>
-      <c r="C53" s="105">
+      <c r="B53" s="122"/>
+      <c r="C53" s="104">
         <v>48</v>
       </c>
       <c r="D53" s="18"/>
@@ -15349,8 +15347,8 @@
       <c r="H53" s="18"/>
     </row>
     <row r="54" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B54" s="123"/>
-      <c r="C54" s="105">
+      <c r="B54" s="122"/>
+      <c r="C54" s="104">
         <v>49</v>
       </c>
       <c r="D54" s="18"/>
@@ -15360,8 +15358,8 @@
       <c r="H54" s="18"/>
     </row>
     <row r="55" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B55" s="123"/>
-      <c r="C55" s="105">
+      <c r="B55" s="122"/>
+      <c r="C55" s="104">
         <v>50</v>
       </c>
       <c r="D55" s="18"/>
@@ -15371,8 +15369,8 @@
       <c r="H55" s="18"/>
     </row>
     <row r="56" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B56" s="123"/>
-      <c r="C56" s="105">
+      <c r="B56" s="122"/>
+      <c r="C56" s="104">
         <v>51</v>
       </c>
       <c r="D56" s="18"/>
@@ -15382,8 +15380,8 @@
       <c r="H56" s="18"/>
     </row>
     <row r="57" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B57" s="123"/>
-      <c r="C57" s="105">
+      <c r="B57" s="122"/>
+      <c r="C57" s="104">
         <v>52</v>
       </c>
       <c r="D57" s="18"/>
@@ -15393,8 +15391,8 @@
       <c r="H57" s="18"/>
     </row>
     <row r="58" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B58" s="123"/>
-      <c r="C58" s="105">
+      <c r="B58" s="122"/>
+      <c r="C58" s="104">
         <v>53</v>
       </c>
       <c r="D58" s="18"/>
@@ -15404,8 +15402,8 @@
       <c r="H58" s="18"/>
     </row>
     <row r="59" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B59" s="123"/>
-      <c r="C59" s="105">
+      <c r="B59" s="122"/>
+      <c r="C59" s="104">
         <v>54</v>
       </c>
       <c r="D59" s="18"/>
@@ -15415,8 +15413,8 @@
       <c r="H59" s="18"/>
     </row>
     <row r="60" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B60" s="123"/>
-      <c r="C60" s="105">
+      <c r="B60" s="122"/>
+      <c r="C60" s="104">
         <v>55</v>
       </c>
       <c r="D60" s="18"/>
@@ -15426,8 +15424,8 @@
       <c r="H60" s="18"/>
     </row>
     <row r="61" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B61" s="123"/>
-      <c r="C61" s="105">
+      <c r="B61" s="122"/>
+      <c r="C61" s="104">
         <v>56</v>
       </c>
       <c r="D61" s="18"/>
@@ -15437,8 +15435,8 @@
       <c r="H61" s="18"/>
     </row>
     <row r="62" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B62" s="123"/>
-      <c r="C62" s="105">
+      <c r="B62" s="122"/>
+      <c r="C62" s="104">
         <v>57</v>
       </c>
       <c r="D62" s="18"/>
@@ -15448,8 +15446,8 @@
       <c r="H62" s="18"/>
     </row>
     <row r="63" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B63" s="123"/>
-      <c r="C63" s="105">
+      <c r="B63" s="122"/>
+      <c r="C63" s="104">
         <v>58</v>
       </c>
       <c r="D63" s="18"/>
@@ -15459,8 +15457,8 @@
       <c r="H63" s="18"/>
     </row>
     <row r="64" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B64" s="123"/>
-      <c r="C64" s="105">
+      <c r="B64" s="122"/>
+      <c r="C64" s="104">
         <v>59</v>
       </c>
       <c r="D64" s="18"/>
@@ -15470,8 +15468,8 @@
       <c r="H64" s="18"/>
     </row>
     <row r="65" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B65" s="123"/>
-      <c r="C65" s="105">
+      <c r="B65" s="122"/>
+      <c r="C65" s="104">
         <v>60</v>
       </c>
       <c r="D65" s="18"/>
@@ -15481,8 +15479,8 @@
       <c r="H65" s="18"/>
     </row>
     <row r="66" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B66" s="123"/>
-      <c r="C66" s="105">
+      <c r="B66" s="122"/>
+      <c r="C66" s="104">
         <v>61</v>
       </c>
       <c r="D66" s="18"/>
@@ -15492,8 +15490,8 @@
       <c r="H66" s="18"/>
     </row>
     <row r="67" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B67" s="123"/>
-      <c r="C67" s="105">
+      <c r="B67" s="122"/>
+      <c r="C67" s="104">
         <v>62</v>
       </c>
       <c r="D67" s="18"/>
@@ -15503,8 +15501,8 @@
       <c r="H67" s="18"/>
     </row>
     <row r="68" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B68" s="123"/>
-      <c r="C68" s="105">
+      <c r="B68" s="122"/>
+      <c r="C68" s="104">
         <v>63</v>
       </c>
       <c r="D68" s="18"/>
@@ -15514,8 +15512,8 @@
       <c r="H68" s="18"/>
     </row>
     <row r="69" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B69" s="123"/>
-      <c r="C69" s="105">
+      <c r="B69" s="122"/>
+      <c r="C69" s="104">
         <v>64</v>
       </c>
       <c r="D69" s="18"/>
@@ -15525,8 +15523,8 @@
       <c r="H69" s="18"/>
     </row>
     <row r="70" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B70" s="123"/>
-      <c r="C70" s="105">
+      <c r="B70" s="122"/>
+      <c r="C70" s="104">
         <v>65</v>
       </c>
       <c r="D70" s="18"/>
@@ -15536,8 +15534,8 @@
       <c r="H70" s="18"/>
     </row>
     <row r="71" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B71" s="123"/>
-      <c r="C71" s="105">
+      <c r="B71" s="122"/>
+      <c r="C71" s="104">
         <v>66</v>
       </c>
       <c r="D71" s="18"/>
@@ -15547,8 +15545,8 @@
       <c r="H71" s="18"/>
     </row>
     <row r="72" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B72" s="123"/>
-      <c r="C72" s="105">
+      <c r="B72" s="122"/>
+      <c r="C72" s="104">
         <v>67</v>
       </c>
       <c r="D72" s="18"/>
@@ -15558,8 +15556,8 @@
       <c r="H72" s="18"/>
     </row>
     <row r="73" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B73" s="123"/>
-      <c r="C73" s="105">
+      <c r="B73" s="122"/>
+      <c r="C73" s="104">
         <v>68</v>
       </c>
       <c r="D73" s="18"/>
@@ -15569,8 +15567,8 @@
       <c r="H73" s="18"/>
     </row>
     <row r="74" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B74" s="123"/>
-      <c r="C74" s="105">
+      <c r="B74" s="122"/>
+      <c r="C74" s="104">
         <v>69</v>
       </c>
       <c r="D74" s="18"/>
@@ -15580,8 +15578,8 @@
       <c r="H74" s="18"/>
     </row>
     <row r="75" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B75" s="123"/>
-      <c r="C75" s="105">
+      <c r="B75" s="122"/>
+      <c r="C75" s="104">
         <v>70</v>
       </c>
       <c r="D75" s="18"/>
@@ -15591,8 +15589,8 @@
       <c r="H75" s="18"/>
     </row>
     <row r="76" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B76" s="123"/>
-      <c r="C76" s="105">
+      <c r="B76" s="122"/>
+      <c r="C76" s="104">
         <v>71</v>
       </c>
       <c r="D76" s="18"/>
@@ -15602,8 +15600,8 @@
       <c r="H76" s="18"/>
     </row>
     <row r="77" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B77" s="123"/>
-      <c r="C77" s="105">
+      <c r="B77" s="122"/>
+      <c r="C77" s="104">
         <v>72</v>
       </c>
       <c r="D77" s="18"/>
@@ -15613,8 +15611,8 @@
       <c r="H77" s="18"/>
     </row>
     <row r="78" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B78" s="123"/>
-      <c r="C78" s="105">
+      <c r="B78" s="122"/>
+      <c r="C78" s="104">
         <v>73</v>
       </c>
       <c r="D78" s="18"/>
@@ -15624,8 +15622,8 @@
       <c r="H78" s="18"/>
     </row>
     <row r="79" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B79" s="123"/>
-      <c r="C79" s="105">
+      <c r="B79" s="122"/>
+      <c r="C79" s="104">
         <v>74</v>
       </c>
       <c r="D79" s="18"/>
@@ -15635,8 +15633,8 @@
       <c r="H79" s="18"/>
     </row>
     <row r="80" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B80" s="123"/>
-      <c r="C80" s="105">
+      <c r="B80" s="122"/>
+      <c r="C80" s="104">
         <v>75</v>
       </c>
       <c r="D80" s="18"/>
@@ -15646,8 +15644,8 @@
       <c r="H80" s="18"/>
     </row>
     <row r="81" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B81" s="123"/>
-      <c r="C81" s="105">
+      <c r="B81" s="122"/>
+      <c r="C81" s="104">
         <v>76</v>
       </c>
       <c r="D81" s="18"/>
@@ -15657,8 +15655,8 @@
       <c r="H81" s="18"/>
     </row>
     <row r="82" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B82" s="123"/>
-      <c r="C82" s="105">
+      <c r="B82" s="122"/>
+      <c r="C82" s="104">
         <v>77</v>
       </c>
       <c r="D82" s="18"/>
@@ -15668,8 +15666,8 @@
       <c r="H82" s="18"/>
     </row>
     <row r="83" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B83" s="123"/>
-      <c r="C83" s="105">
+      <c r="B83" s="122"/>
+      <c r="C83" s="104">
         <v>78</v>
       </c>
       <c r="D83" s="18"/>
@@ -15679,8 +15677,8 @@
       <c r="H83" s="18"/>
     </row>
     <row r="84" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B84" s="123"/>
-      <c r="C84" s="105">
+      <c r="B84" s="122"/>
+      <c r="C84" s="104">
         <v>79</v>
       </c>
       <c r="D84" s="18"/>
@@ -15690,8 +15688,8 @@
       <c r="H84" s="18"/>
     </row>
     <row r="85" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B85" s="123"/>
-      <c r="C85" s="105">
+      <c r="B85" s="122"/>
+      <c r="C85" s="104">
         <v>80</v>
       </c>
       <c r="D85" s="18"/>
@@ -15701,8 +15699,8 @@
       <c r="H85" s="18"/>
     </row>
     <row r="86" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B86" s="123"/>
-      <c r="C86" s="105">
+      <c r="B86" s="122"/>
+      <c r="C86" s="104">
         <v>81</v>
       </c>
       <c r="D86" s="18"/>
@@ -15712,8 +15710,8 @@
       <c r="H86" s="18"/>
     </row>
     <row r="87" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B87" s="123"/>
-      <c r="C87" s="105">
+      <c r="B87" s="122"/>
+      <c r="C87" s="104">
         <v>82</v>
       </c>
       <c r="D87" s="18"/>
@@ -15723,8 +15721,8 @@
       <c r="H87" s="18"/>
     </row>
     <row r="88" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B88" s="123"/>
-      <c r="C88" s="105">
+      <c r="B88" s="122"/>
+      <c r="C88" s="104">
         <v>83</v>
       </c>
       <c r="D88" s="18"/>
@@ -15734,8 +15732,8 @@
       <c r="H88" s="18"/>
     </row>
     <row r="89" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B89" s="123"/>
-      <c r="C89" s="105">
+      <c r="B89" s="122"/>
+      <c r="C89" s="104">
         <v>84</v>
       </c>
       <c r="D89" s="18"/>
@@ -15745,8 +15743,8 @@
       <c r="H89" s="18"/>
     </row>
     <row r="90" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B90" s="123"/>
-      <c r="C90" s="105">
+      <c r="B90" s="122"/>
+      <c r="C90" s="104">
         <v>85</v>
       </c>
       <c r="D90" s="18"/>
@@ -15756,8 +15754,8 @@
       <c r="H90" s="18"/>
     </row>
     <row r="91" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B91" s="123"/>
-      <c r="C91" s="105">
+      <c r="B91" s="122"/>
+      <c r="C91" s="104">
         <v>86</v>
       </c>
       <c r="D91" s="18"/>
@@ -15767,8 +15765,8 @@
       <c r="H91" s="18"/>
     </row>
     <row r="92" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B92" s="123"/>
-      <c r="C92" s="105">
+      <c r="B92" s="122"/>
+      <c r="C92" s="104">
         <v>87</v>
       </c>
       <c r="D92" s="18"/>
@@ -15778,8 +15776,8 @@
       <c r="H92" s="18"/>
     </row>
     <row r="93" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B93" s="123"/>
-      <c r="C93" s="105">
+      <c r="B93" s="122"/>
+      <c r="C93" s="104">
         <v>88</v>
       </c>
       <c r="D93" s="18"/>
@@ -15789,8 +15787,8 @@
       <c r="H93" s="18"/>
     </row>
     <row r="94" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B94" s="123"/>
-      <c r="C94" s="105">
+      <c r="B94" s="122"/>
+      <c r="C94" s="104">
         <v>89</v>
       </c>
       <c r="D94" s="18"/>
@@ -15800,8 +15798,8 @@
       <c r="H94" s="18"/>
     </row>
     <row r="95" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B95" s="123"/>
-      <c r="C95" s="105">
+      <c r="B95" s="122"/>
+      <c r="C95" s="104">
         <v>90</v>
       </c>
       <c r="D95" s="18"/>
@@ -15811,8 +15809,8 @@
       <c r="H95" s="18"/>
     </row>
     <row r="96" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B96" s="123"/>
-      <c r="C96" s="105">
+      <c r="B96" s="122"/>
+      <c r="C96" s="104">
         <v>91</v>
       </c>
       <c r="D96" s="18"/>
@@ -15822,8 +15820,8 @@
       <c r="H96" s="18"/>
     </row>
     <row r="97" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B97" s="123"/>
-      <c r="C97" s="105">
+      <c r="B97" s="122"/>
+      <c r="C97" s="104">
         <v>92</v>
       </c>
       <c r="D97" s="18"/>
@@ -15833,8 +15831,8 @@
       <c r="H97" s="18"/>
     </row>
     <row r="98" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B98" s="123"/>
-      <c r="C98" s="105">
+      <c r="B98" s="122"/>
+      <c r="C98" s="104">
         <v>93</v>
       </c>
       <c r="D98" s="18"/>
@@ -15844,8 +15842,8 @@
       <c r="H98" s="18"/>
     </row>
     <row r="99" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B99" s="123"/>
-      <c r="C99" s="105">
+      <c r="B99" s="122"/>
+      <c r="C99" s="104">
         <v>94</v>
       </c>
       <c r="D99" s="18"/>
@@ -15855,8 +15853,8 @@
       <c r="H99" s="18"/>
     </row>
     <row r="100" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B100" s="123"/>
-      <c r="C100" s="105">
+      <c r="B100" s="122"/>
+      <c r="C100" s="104">
         <v>95</v>
       </c>
       <c r="D100" s="18"/>
@@ -15866,8 +15864,8 @@
       <c r="H100" s="18"/>
     </row>
     <row r="101" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B101" s="123"/>
-      <c r="C101" s="105">
+      <c r="B101" s="122"/>
+      <c r="C101" s="104">
         <v>96</v>
       </c>
       <c r="D101" s="18"/>
@@ -15877,8 +15875,8 @@
       <c r="H101" s="18"/>
     </row>
     <row r="102" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B102" s="123"/>
-      <c r="C102" s="105">
+      <c r="B102" s="122"/>
+      <c r="C102" s="104">
         <v>97</v>
       </c>
       <c r="D102" s="18"/>
@@ -15888,8 +15886,8 @@
       <c r="H102" s="18"/>
     </row>
     <row r="103" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B103" s="123"/>
-      <c r="C103" s="105">
+      <c r="B103" s="122"/>
+      <c r="C103" s="104">
         <v>98</v>
       </c>
       <c r="D103" s="18"/>
@@ -15899,8 +15897,8 @@
       <c r="H103" s="18"/>
     </row>
     <row r="104" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B104" s="123"/>
-      <c r="C104" s="105">
+      <c r="B104" s="122"/>
+      <c r="C104" s="104">
         <v>99</v>
       </c>
       <c r="D104" s="18"/>
@@ -15910,8 +15908,8 @@
       <c r="H104" s="18"/>
     </row>
     <row r="105" spans="2:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B105" s="124"/>
-      <c r="C105" s="106">
+      <c r="B105" s="123"/>
+      <c r="C105" s="105">
         <v>100</v>
       </c>
       <c r="D105" s="24"/>
@@ -15925,7 +15923,7 @@
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="B5:B105"/>
   </mergeCells>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/資料/設計書/モグラ叩き_テスト仕様書.xlsx
+++ b/資料/設計書/モグラ叩き_テスト仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\hakoishi\TechTrain\PIC_Train\C\comp.train.whack-a-mole\資料\設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\comp.train.whack-a-mole\資料\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC102D79-FF7B-4271-8B6F-F96E6E15EA36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAB7FCE-4E90-4E49-ABC4-076DE5A47331}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1230" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1540" windowWidth="17270" windowHeight="8800" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="システムテスト" sheetId="4" state="hidden" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="447">
   <si>
     <t>マイコン：pic16f1827</t>
     <phoneticPr fontId="12"/>
@@ -7322,28 +7322,25 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
+    <t>TRUEを返す。</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
     <t>TRUEを返した回数が 50回 ±5% 以内か。
-(モグラ出現率.xlsx 出現率シート 参照)</t>
+(仕様書の「モグラの出現率」シート 参照)</t>
     <rPh sb="14" eb="15">
       <t>カイ</t>
     </rPh>
-    <rPh sb="29" eb="31">
+    <rPh sb="26" eb="28">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
       <t>シュツゲン</t>
     </rPh>
-    <rPh sb="31" eb="32">
-      <t>リツ</t>
-    </rPh>
     <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>TRUEを返す。</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>COUNTIF(I4:I71,"✖")</t>
-  </si>
-  <si>
-    <t>I75/I8</t>
   </si>
 </sst>
 </file>
@@ -8246,6 +8243,180 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8284,180 +8455,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -8752,26 +8749,26 @@
       <selection pane="topRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="3.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="48.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="56.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="48.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="56.58203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="54.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="49.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.58203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="49.58203125" style="2" customWidth="1"/>
     <col min="9" max="9" width="11.25" style="3" customWidth="1"/>
-    <col min="10" max="10" width="33.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="33.08203125" style="2" customWidth="1"/>
     <col min="11" max="11" width="11.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="49.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="49.58203125" style="2" customWidth="1"/>
     <col min="13" max="13" width="11.25" style="3" customWidth="1"/>
-    <col min="14" max="14" width="49.625" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="8.625" style="2"/>
+    <col min="14" max="14" width="49.58203125" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.58203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30">
+    <row r="1" spans="1:14" ht="29">
       <c r="A1" s="1" t="s">
         <v>223</v>
       </c>
@@ -8785,8 +8782,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="19.5" thickBot="1"/>
-    <row r="3" spans="1:14" ht="19.5" thickBot="1">
+    <row r="2" spans="1:14" ht="18.5" thickBot="1"/>
+    <row r="3" spans="1:14" ht="18.5" thickBot="1">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -8827,7 +8824,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="20.25" thickBot="1">
+    <row r="4" spans="1:14" ht="20.5" thickBot="1">
       <c r="B4" s="6">
         <v>1</v>
       </c>
@@ -8864,7 +8861,7 @@
       </c>
       <c r="N4" s="12"/>
     </row>
-    <row r="5" spans="1:14" ht="38.25" thickBot="1">
+    <row r="5" spans="1:14" ht="36.5" thickBot="1">
       <c r="B5" s="6">
         <v>2</v>
       </c>
@@ -8897,7 +8894,7 @@
       </c>
       <c r="N5" s="18"/>
     </row>
-    <row r="6" spans="1:14" ht="57" thickBot="1">
+    <row r="6" spans="1:14" ht="54.5" thickBot="1">
       <c r="B6" s="6">
         <v>3</v>
       </c>
@@ -8930,7 +8927,7 @@
       </c>
       <c r="N6" s="18"/>
     </row>
-    <row r="7" spans="1:14" ht="57" thickBot="1">
+    <row r="7" spans="1:14" ht="54.5" thickBot="1">
       <c r="B7" s="6">
         <v>4</v>
       </c>
@@ -8963,7 +8960,7 @@
       </c>
       <c r="N7" s="18"/>
     </row>
-    <row r="8" spans="1:14" ht="38.25" thickBot="1">
+    <row r="8" spans="1:14" ht="36.5" thickBot="1">
       <c r="B8" s="6">
         <v>5</v>
       </c>
@@ -8996,7 +8993,7 @@
       </c>
       <c r="N8" s="24"/>
     </row>
-    <row r="9" spans="1:14" ht="38.25" thickBot="1">
+    <row r="9" spans="1:14" ht="36.5" thickBot="1">
       <c r="B9" s="6">
         <v>6</v>
       </c>
@@ -9033,7 +9030,7 @@
       </c>
       <c r="N9" s="12"/>
     </row>
-    <row r="10" spans="1:14" ht="38.25" thickBot="1">
+    <row r="10" spans="1:14" ht="36.5" thickBot="1">
       <c r="B10" s="6">
         <v>7</v>
       </c>
@@ -9066,7 +9063,7 @@
       </c>
       <c r="N10" s="18"/>
     </row>
-    <row r="11" spans="1:14" ht="38.25" thickBot="1">
+    <row r="11" spans="1:14" ht="36.5" thickBot="1">
       <c r="B11" s="6">
         <v>8</v>
       </c>
@@ -9099,7 +9096,7 @@
       </c>
       <c r="N11" s="24"/>
     </row>
-    <row r="12" spans="1:14" ht="38.25" thickBot="1">
+    <row r="12" spans="1:14" ht="36.5" thickBot="1">
       <c r="B12" s="6">
         <v>9</v>
       </c>
@@ -9136,7 +9133,7 @@
       </c>
       <c r="N12" s="30"/>
     </row>
-    <row r="13" spans="1:14" ht="57" thickBot="1">
+    <row r="13" spans="1:14" ht="54.5" thickBot="1">
       <c r="B13" s="6">
         <v>10</v>
       </c>
@@ -9173,7 +9170,7 @@
       </c>
       <c r="N13" s="12"/>
     </row>
-    <row r="14" spans="1:14" ht="38.25" thickBot="1">
+    <row r="14" spans="1:14" ht="36.5" thickBot="1">
       <c r="B14" s="6">
         <v>11</v>
       </c>
@@ -9206,7 +9203,7 @@
       </c>
       <c r="N14" s="18"/>
     </row>
-    <row r="15" spans="1:14" ht="38.25" thickBot="1">
+    <row r="15" spans="1:14" ht="36.5" thickBot="1">
       <c r="B15" s="6">
         <v>12</v>
       </c>
@@ -9239,7 +9236,7 @@
       </c>
       <c r="N15" s="24"/>
     </row>
-    <row r="16" spans="1:14" ht="38.25" thickBot="1">
+    <row r="16" spans="1:14" ht="36.5" thickBot="1">
       <c r="B16" s="6">
         <v>13</v>
       </c>
@@ -9276,7 +9273,7 @@
       </c>
       <c r="N16" s="30"/>
     </row>
-    <row r="17" spans="2:14" ht="20.25" thickBot="1">
+    <row r="17" spans="2:14" ht="20.5" thickBot="1">
       <c r="B17" s="6">
         <v>14</v>
       </c>
@@ -9313,7 +9310,7 @@
       </c>
       <c r="N17" s="12"/>
     </row>
-    <row r="18" spans="2:14" ht="38.25" thickBot="1">
+    <row r="18" spans="2:14" ht="36.5" thickBot="1">
       <c r="B18" s="6">
         <v>15</v>
       </c>
@@ -9346,7 +9343,7 @@
       </c>
       <c r="N18" s="18"/>
     </row>
-    <row r="19" spans="2:14" ht="38.25" thickBot="1">
+    <row r="19" spans="2:14" ht="36.5" thickBot="1">
       <c r="B19" s="6">
         <v>16</v>
       </c>
@@ -9379,7 +9376,7 @@
       </c>
       <c r="N19" s="18"/>
     </row>
-    <row r="20" spans="2:14" ht="38.25" thickBot="1">
+    <row r="20" spans="2:14" ht="36.5" thickBot="1">
       <c r="B20" s="6">
         <v>17</v>
       </c>
@@ -9412,7 +9409,7 @@
       </c>
       <c r="N20" s="24"/>
     </row>
-    <row r="21" spans="2:14" ht="38.25" thickBot="1">
+    <row r="21" spans="2:14" ht="36.5" thickBot="1">
       <c r="B21" s="6">
         <v>18</v>
       </c>
@@ -9451,7 +9448,7 @@
       </c>
       <c r="N21" s="9"/>
     </row>
-    <row r="22" spans="2:14" ht="38.25" thickBot="1">
+    <row r="22" spans="2:14" ht="36.5" thickBot="1">
       <c r="B22" s="6">
         <v>19</v>
       </c>
@@ -9486,7 +9483,7 @@
       </c>
       <c r="N22" s="18"/>
     </row>
-    <row r="23" spans="2:14" ht="38.25" thickBot="1">
+    <row r="23" spans="2:14" ht="36.5" thickBot="1">
       <c r="B23" s="6">
         <v>20</v>
       </c>
@@ -9521,7 +9518,7 @@
       </c>
       <c r="N23" s="18"/>
     </row>
-    <row r="24" spans="2:14" ht="38.25" thickBot="1">
+    <row r="24" spans="2:14" ht="36.5" thickBot="1">
       <c r="B24" s="6">
         <v>21</v>
       </c>
@@ -9556,7 +9553,7 @@
       </c>
       <c r="N24" s="24"/>
     </row>
-    <row r="25" spans="2:14" ht="20.25" thickBot="1">
+    <row r="25" spans="2:14" ht="20.5" thickBot="1">
       <c r="B25" s="6">
         <v>22</v>
       </c>
@@ -9593,7 +9590,7 @@
       </c>
       <c r="N25" s="12"/>
     </row>
-    <row r="26" spans="2:14" ht="38.25" thickBot="1">
+    <row r="26" spans="2:14" ht="36.5" thickBot="1">
       <c r="B26" s="6">
         <v>23</v>
       </c>
@@ -9626,7 +9623,7 @@
       </c>
       <c r="N26" s="18"/>
     </row>
-    <row r="27" spans="2:14" ht="75.75" thickBot="1">
+    <row r="27" spans="2:14" ht="72.5" thickBot="1">
       <c r="B27" s="6">
         <v>24</v>
       </c>
@@ -9659,7 +9656,7 @@
       </c>
       <c r="N27" s="18"/>
     </row>
-    <row r="28" spans="2:14" ht="75.75" thickBot="1">
+    <row r="28" spans="2:14" ht="72.5" thickBot="1">
       <c r="B28" s="6">
         <v>25</v>
       </c>
@@ -9692,7 +9689,7 @@
       </c>
       <c r="N28" s="18"/>
     </row>
-    <row r="29" spans="2:14" ht="38.25" thickBot="1">
+    <row r="29" spans="2:14" ht="36.5" thickBot="1">
       <c r="B29" s="6">
         <v>26</v>
       </c>
@@ -9725,7 +9722,7 @@
       </c>
       <c r="N29" s="18"/>
     </row>
-    <row r="30" spans="2:14" ht="38.25" thickBot="1">
+    <row r="30" spans="2:14" ht="36.5" thickBot="1">
       <c r="B30" s="6">
         <v>27</v>
       </c>
@@ -9758,7 +9755,7 @@
       </c>
       <c r="N30" s="18"/>
     </row>
-    <row r="31" spans="2:14" ht="38.25" thickBot="1">
+    <row r="31" spans="2:14" ht="36.5" thickBot="1">
       <c r="B31" s="6">
         <v>28</v>
       </c>
@@ -9791,7 +9788,7 @@
       </c>
       <c r="N31" s="18"/>
     </row>
-    <row r="32" spans="2:14" ht="38.25" thickBot="1">
+    <row r="32" spans="2:14" ht="36.5" thickBot="1">
       <c r="B32" s="6">
         <v>29</v>
       </c>
@@ -9824,7 +9821,7 @@
       </c>
       <c r="N32" s="18"/>
     </row>
-    <row r="33" spans="2:14" ht="38.25" thickBot="1">
+    <row r="33" spans="2:14" ht="36.5" thickBot="1">
       <c r="B33" s="6">
         <v>30</v>
       </c>
@@ -9857,7 +9854,7 @@
       </c>
       <c r="N33" s="18"/>
     </row>
-    <row r="34" spans="2:14" ht="38.25" thickBot="1">
+    <row r="34" spans="2:14" ht="36.5" thickBot="1">
       <c r="B34" s="6">
         <v>31</v>
       </c>
@@ -9890,7 +9887,7 @@
       </c>
       <c r="N34" s="18"/>
     </row>
-    <row r="35" spans="2:14" ht="38.25" thickBot="1">
+    <row r="35" spans="2:14" ht="36.5" thickBot="1">
       <c r="B35" s="6">
         <v>32</v>
       </c>
@@ -9923,7 +9920,7 @@
       </c>
       <c r="N35" s="18"/>
     </row>
-    <row r="36" spans="2:14" ht="38.25" thickBot="1">
+    <row r="36" spans="2:14" ht="36.5" thickBot="1">
       <c r="B36" s="6">
         <v>33</v>
       </c>
@@ -9956,7 +9953,7 @@
       </c>
       <c r="N36" s="18"/>
     </row>
-    <row r="37" spans="2:14" ht="38.25" thickBot="1">
+    <row r="37" spans="2:14" ht="36.5" thickBot="1">
       <c r="B37" s="6">
         <v>34</v>
       </c>
@@ -9989,7 +9986,7 @@
       </c>
       <c r="N37" s="18"/>
     </row>
-    <row r="38" spans="2:14" ht="38.25" thickBot="1">
+    <row r="38" spans="2:14" ht="36.5" thickBot="1">
       <c r="B38" s="6">
         <v>35</v>
       </c>
@@ -10022,7 +10019,7 @@
       </c>
       <c r="N38" s="40"/>
     </row>
-    <row r="39" spans="2:14" ht="38.25" thickBot="1">
+    <row r="39" spans="2:14" ht="36.5" thickBot="1">
       <c r="B39" s="6">
         <v>36</v>
       </c>
@@ -10059,7 +10056,7 @@
       </c>
       <c r="N39" s="12"/>
     </row>
-    <row r="40" spans="2:14" ht="38.25" thickBot="1">
+    <row r="40" spans="2:14" ht="36.5" thickBot="1">
       <c r="B40" s="6">
         <v>37</v>
       </c>
@@ -10092,7 +10089,7 @@
       </c>
       <c r="N40" s="18"/>
     </row>
-    <row r="41" spans="2:14" ht="38.25" thickBot="1">
+    <row r="41" spans="2:14" ht="36.5" thickBot="1">
       <c r="B41" s="6">
         <v>38</v>
       </c>
@@ -10125,7 +10122,7 @@
       </c>
       <c r="N41" s="18"/>
     </row>
-    <row r="42" spans="2:14" ht="38.25" thickBot="1">
+    <row r="42" spans="2:14" ht="36.5" thickBot="1">
       <c r="B42" s="6">
         <v>39</v>
       </c>
@@ -10158,7 +10155,7 @@
       </c>
       <c r="N42" s="18"/>
     </row>
-    <row r="43" spans="2:14" ht="38.25" thickBot="1">
+    <row r="43" spans="2:14" ht="36.5" thickBot="1">
       <c r="B43" s="6">
         <v>40</v>
       </c>
@@ -10191,7 +10188,7 @@
       </c>
       <c r="N43" s="18"/>
     </row>
-    <row r="44" spans="2:14" ht="38.25" thickBot="1">
+    <row r="44" spans="2:14" ht="36.5" thickBot="1">
       <c r="B44" s="6">
         <v>41</v>
       </c>
@@ -10224,7 +10221,7 @@
       </c>
       <c r="N44" s="18"/>
     </row>
-    <row r="45" spans="2:14" ht="38.25" thickBot="1">
+    <row r="45" spans="2:14" ht="36.5" thickBot="1">
       <c r="B45" s="6">
         <v>42</v>
       </c>
@@ -10257,7 +10254,7 @@
       </c>
       <c r="N45" s="18"/>
     </row>
-    <row r="46" spans="2:14" ht="38.25" thickBot="1">
+    <row r="46" spans="2:14" ht="36.5" thickBot="1">
       <c r="B46" s="6">
         <v>43</v>
       </c>
@@ -10290,7 +10287,7 @@
       </c>
       <c r="N46" s="18"/>
     </row>
-    <row r="47" spans="2:14" ht="38.25" thickBot="1">
+    <row r="47" spans="2:14" ht="36.5" thickBot="1">
       <c r="B47" s="6">
         <v>44</v>
       </c>
@@ -10323,7 +10320,7 @@
       </c>
       <c r="N47" s="18"/>
     </row>
-    <row r="48" spans="2:14" ht="38.25" thickBot="1">
+    <row r="48" spans="2:14" ht="36.5" thickBot="1">
       <c r="B48" s="6">
         <v>45</v>
       </c>
@@ -10356,7 +10353,7 @@
       </c>
       <c r="N48" s="18"/>
     </row>
-    <row r="49" spans="2:14" ht="38.25" thickBot="1">
+    <row r="49" spans="2:14" ht="36.5" thickBot="1">
       <c r="B49" s="6">
         <v>46</v>
       </c>
@@ -10389,7 +10386,7 @@
       </c>
       <c r="N49" s="18"/>
     </row>
-    <row r="50" spans="2:14" ht="38.25" thickBot="1">
+    <row r="50" spans="2:14" ht="36.5" thickBot="1">
       <c r="B50" s="6">
         <v>47</v>
       </c>
@@ -10422,7 +10419,7 @@
       </c>
       <c r="N50" s="18"/>
     </row>
-    <row r="51" spans="2:14" ht="38.25" thickBot="1">
+    <row r="51" spans="2:14" ht="36.5" thickBot="1">
       <c r="B51" s="6">
         <v>48</v>
       </c>
@@ -10455,7 +10452,7 @@
       </c>
       <c r="N51" s="18"/>
     </row>
-    <row r="52" spans="2:14" ht="38.25" thickBot="1">
+    <row r="52" spans="2:14" ht="36.5" thickBot="1">
       <c r="B52" s="6">
         <v>49</v>
       </c>
@@ -10488,7 +10485,7 @@
       </c>
       <c r="N52" s="18"/>
     </row>
-    <row r="53" spans="2:14" ht="38.25" thickBot="1">
+    <row r="53" spans="2:14" ht="36.5" thickBot="1">
       <c r="B53" s="6">
         <v>50</v>
       </c>
@@ -10521,7 +10518,7 @@
       </c>
       <c r="N53" s="18"/>
     </row>
-    <row r="54" spans="2:14" ht="38.25" thickBot="1">
+    <row r="54" spans="2:14" ht="36.5" thickBot="1">
       <c r="B54" s="6">
         <v>51</v>
       </c>
@@ -10554,7 +10551,7 @@
       </c>
       <c r="N54" s="24"/>
     </row>
-    <row r="55" spans="2:14" ht="38.25" thickBot="1">
+    <row r="55" spans="2:14" ht="36.5" thickBot="1">
       <c r="B55" s="6">
         <v>52</v>
       </c>
@@ -10587,7 +10584,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="56" spans="2:14" ht="57" thickBot="1">
+    <row r="56" spans="2:14" ht="54.5" thickBot="1">
       <c r="B56" s="6">
         <v>53</v>
       </c>
@@ -10620,7 +10617,7 @@
       </c>
       <c r="N56" s="40"/>
     </row>
-    <row r="57" spans="2:14" ht="38.25" thickBot="1">
+    <row r="57" spans="2:14" ht="36.5" thickBot="1">
       <c r="B57" s="6">
         <v>54</v>
       </c>
@@ -10657,7 +10654,7 @@
       </c>
       <c r="N57" s="12"/>
     </row>
-    <row r="58" spans="2:14" ht="38.25" thickBot="1">
+    <row r="58" spans="2:14" ht="36.5" thickBot="1">
       <c r="B58" s="6">
         <v>55</v>
       </c>
@@ -10690,7 +10687,7 @@
       </c>
       <c r="N58" s="24"/>
     </row>
-    <row r="59" spans="2:14" ht="38.25" thickBot="1">
+    <row r="59" spans="2:14" ht="36.5" thickBot="1">
       <c r="B59" s="6">
         <v>56</v>
       </c>
@@ -10727,7 +10724,7 @@
       </c>
       <c r="N59" s="46"/>
     </row>
-    <row r="60" spans="2:14" ht="38.25" thickBot="1">
+    <row r="60" spans="2:14" ht="36.5" thickBot="1">
       <c r="B60" s="6">
         <v>57</v>
       </c>
@@ -10764,7 +10761,7 @@
       </c>
       <c r="N60" s="12"/>
     </row>
-    <row r="61" spans="2:14" ht="38.25" thickBot="1">
+    <row r="61" spans="2:14" ht="36.5" thickBot="1">
       <c r="B61" s="6">
         <v>58</v>
       </c>
@@ -10797,7 +10794,7 @@
       </c>
       <c r="N61" s="24"/>
     </row>
-    <row r="62" spans="2:14" ht="20.25" thickBot="1">
+    <row r="62" spans="2:14" ht="20.5" thickBot="1">
       <c r="B62" s="6">
         <v>59</v>
       </c>
@@ -10834,7 +10831,7 @@
       </c>
       <c r="N62" s="30"/>
     </row>
-    <row r="63" spans="2:14" ht="20.25" thickBot="1">
+    <row r="63" spans="2:14" ht="20.5" thickBot="1">
       <c r="B63" s="6">
         <v>60</v>
       </c>
@@ -10871,7 +10868,7 @@
       </c>
       <c r="N63" s="30"/>
     </row>
-    <row r="64" spans="2:14" ht="20.25" thickBot="1">
+    <row r="64" spans="2:14" ht="20.5" thickBot="1">
       <c r="B64" s="6">
         <v>61</v>
       </c>
@@ -10908,7 +10905,7 @@
       </c>
       <c r="N64" s="30"/>
     </row>
-    <row r="66" spans="2:13" ht="24">
+    <row r="66" spans="2:13" ht="22.5">
       <c r="B66" s="49" t="s">
         <v>220</v>
       </c>
@@ -10988,30 +10985,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85CE931-9A0F-4209-B117-D9C0D8C16592}">
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="3.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="40.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="48.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="56.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="40.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="48.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="56.58203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="54.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="49.625" style="2" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="51.375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="33.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.58203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="49.58203125" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="51.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="33.08203125" style="2" customWidth="1"/>
     <col min="11" max="11" width="11.5" style="2" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="49.625" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="49.58203125" style="2" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="11.25" style="3" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="49.625" style="2" hidden="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.625" style="2"/>
+    <col min="14" max="14" width="49.58203125" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.58203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30">
+    <row r="1" spans="1:14" ht="29">
       <c r="A1" s="1" t="s">
         <v>274</v>
       </c>
@@ -11019,8 +11016,8 @@
         <v>417</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="19.5" thickBot="1"/>
-    <row r="3" spans="1:14" ht="19.5" thickBot="1">
+    <row r="2" spans="1:14" ht="18.5" thickBot="1"/>
+    <row r="3" spans="1:14" ht="18.5" thickBot="1">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -11061,7 +11058,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="39.75" thickBot="1">
+    <row r="4" spans="1:14" ht="40.5" thickBot="1">
       <c r="B4" s="6">
         <v>1</v>
       </c>
@@ -11086,7 +11083,7 @@
       <c r="M4" s="11"/>
       <c r="N4" s="9"/>
     </row>
-    <row r="5" spans="1:14" ht="54.95" customHeight="1" thickBot="1">
+    <row r="5" spans="1:14" ht="55" customHeight="1" thickBot="1">
       <c r="B5" s="6">
         <v>2</v>
       </c>
@@ -11109,7 +11106,7 @@
       <c r="M5" s="42"/>
       <c r="N5" s="28"/>
     </row>
-    <row r="6" spans="1:14" ht="57" thickBot="1">
+    <row r="6" spans="1:14" ht="54.5" thickBot="1">
       <c r="B6" s="6">
         <v>3</v>
       </c>
@@ -11132,7 +11129,7 @@
       <c r="M6" s="17"/>
       <c r="N6" s="15"/>
     </row>
-    <row r="7" spans="1:14" ht="57" thickBot="1">
+    <row r="7" spans="1:14" ht="54.5" thickBot="1">
       <c r="B7" s="6">
         <v>4</v>
       </c>
@@ -11155,7 +11152,7 @@
       <c r="M7" s="17"/>
       <c r="N7" s="15"/>
     </row>
-    <row r="8" spans="1:14" ht="57" thickBot="1">
+    <row r="8" spans="1:14" ht="54.5" thickBot="1">
       <c r="B8" s="6">
         <v>5</v>
       </c>
@@ -11178,7 +11175,7 @@
       <c r="M8" s="17"/>
       <c r="N8" s="15"/>
     </row>
-    <row r="9" spans="1:14" ht="57" thickBot="1">
+    <row r="9" spans="1:14" ht="54.5" thickBot="1">
       <c r="B9" s="6">
         <v>6</v>
       </c>
@@ -11201,7 +11198,7 @@
       <c r="M9" s="17"/>
       <c r="N9" s="15"/>
     </row>
-    <row r="10" spans="1:14" ht="57" thickBot="1">
+    <row r="10" spans="1:14" ht="54.5" thickBot="1">
       <c r="B10" s="6">
         <v>7</v>
       </c>
@@ -11224,7 +11221,7 @@
       <c r="M10" s="17"/>
       <c r="N10" s="15"/>
     </row>
-    <row r="11" spans="1:14" ht="57" thickBot="1">
+    <row r="11" spans="1:14" ht="54.5" thickBot="1">
       <c r="B11" s="6">
         <v>8</v>
       </c>
@@ -11247,7 +11244,7 @@
       <c r="M11" s="39"/>
       <c r="N11" s="38"/>
     </row>
-    <row r="12" spans="1:14" ht="57" thickBot="1">
+    <row r="12" spans="1:14" ht="54.5" thickBot="1">
       <c r="B12" s="6">
         <v>9</v>
       </c>
@@ -11272,7 +11269,7 @@
       <c r="M12" s="11"/>
       <c r="N12" s="9"/>
     </row>
-    <row r="13" spans="1:14" ht="57" thickBot="1">
+    <row r="13" spans="1:14" ht="54.5" thickBot="1">
       <c r="B13" s="6">
         <v>10</v>
       </c>
@@ -11295,7 +11292,7 @@
       <c r="M13" s="42"/>
       <c r="N13" s="28"/>
     </row>
-    <row r="14" spans="1:14" ht="57" thickBot="1">
+    <row r="14" spans="1:14" ht="54.5" thickBot="1">
       <c r="B14" s="6">
         <v>11</v>
       </c>
@@ -11318,7 +11315,7 @@
       <c r="M14" s="39"/>
       <c r="N14" s="38"/>
     </row>
-    <row r="15" spans="1:14" ht="39.75" thickBot="1">
+    <row r="15" spans="1:14" ht="40.5" thickBot="1">
       <c r="B15" s="6">
         <v>12</v>
       </c>
@@ -11343,7 +11340,7 @@
       <c r="M15" s="11"/>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="1:14" ht="38.25" thickBot="1">
+    <row r="16" spans="1:14" ht="36.5" thickBot="1">
       <c r="B16" s="6">
         <v>13</v>
       </c>
@@ -11366,7 +11363,7 @@
       <c r="M16" s="45"/>
       <c r="N16" s="14"/>
     </row>
-    <row r="17" spans="2:14" ht="59.25" thickBot="1">
+    <row r="17" spans="2:14" ht="60.5" thickBot="1">
       <c r="B17" s="6">
         <v>14</v>
       </c>
@@ -11391,7 +11388,7 @@
       <c r="M17" s="11"/>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="2:14" ht="98.25" thickBot="1">
+    <row r="18" spans="2:14" ht="100.5" thickBot="1">
       <c r="B18" s="6">
         <v>15</v>
       </c>
@@ -11416,7 +11413,7 @@
       <c r="M18" s="11"/>
       <c r="N18" s="9"/>
     </row>
-    <row r="19" spans="2:14" ht="38.25" thickBot="1">
+    <row r="19" spans="2:14" ht="36.5" thickBot="1">
       <c r="B19" s="6">
         <v>16</v>
       </c>
@@ -11439,7 +11436,7 @@
       <c r="M19" s="11"/>
       <c r="N19" s="9"/>
     </row>
-    <row r="20" spans="2:14" ht="38.25" thickBot="1">
+    <row r="20" spans="2:14" ht="36.5" thickBot="1">
       <c r="B20" s="6">
         <v>17</v>
       </c>
@@ -11462,7 +11459,7 @@
       <c r="M20" s="11"/>
       <c r="N20" s="9"/>
     </row>
-    <row r="21" spans="2:14" ht="38.25" thickBot="1">
+    <row r="21" spans="2:14" ht="36.5" thickBot="1">
       <c r="B21" s="6">
         <v>18</v>
       </c>
@@ -11485,7 +11482,7 @@
       <c r="M21" s="11"/>
       <c r="N21" s="9"/>
     </row>
-    <row r="22" spans="2:14" ht="38.25" thickBot="1">
+    <row r="22" spans="2:14" ht="36.5" thickBot="1">
       <c r="B22" s="6">
         <v>19</v>
       </c>
@@ -11508,7 +11505,7 @@
       <c r="M22" s="11"/>
       <c r="N22" s="9"/>
     </row>
-    <row r="23" spans="2:14" ht="38.25" thickBot="1">
+    <row r="23" spans="2:14" ht="36.5" thickBot="1">
       <c r="B23" s="6">
         <v>20</v>
       </c>
@@ -11531,7 +11528,7 @@
       <c r="M23" s="45"/>
       <c r="N23" s="14"/>
     </row>
-    <row r="24" spans="2:14" ht="38.25" thickBot="1">
+    <row r="24" spans="2:14" ht="36.5" thickBot="1">
       <c r="B24" s="6">
         <v>21</v>
       </c>
@@ -11554,7 +11551,7 @@
       <c r="M24" s="23"/>
       <c r="N24" s="21"/>
     </row>
-    <row r="25" spans="2:14" ht="38.25" thickBot="1">
+    <row r="25" spans="2:14" ht="36.5" thickBot="1">
       <c r="B25" s="6">
         <v>22</v>
       </c>
@@ -11577,7 +11574,7 @@
       <c r="M25" s="23"/>
       <c r="N25" s="21"/>
     </row>
-    <row r="26" spans="2:14" ht="38.25" thickBot="1">
+    <row r="26" spans="2:14" ht="36.5" thickBot="1">
       <c r="B26" s="6">
         <v>23</v>
       </c>
@@ -11600,7 +11597,7 @@
       <c r="M26" s="23"/>
       <c r="N26" s="21"/>
     </row>
-    <row r="27" spans="2:14" ht="38.25" thickBot="1">
+    <row r="27" spans="2:14" ht="36.5" thickBot="1">
       <c r="B27" s="6">
         <v>24</v>
       </c>
@@ -11623,7 +11620,7 @@
       <c r="M27" s="23"/>
       <c r="N27" s="21"/>
     </row>
-    <row r="28" spans="2:14" ht="57" thickBot="1">
+    <row r="28" spans="2:14" ht="36.5" thickBot="1">
       <c r="B28" s="6">
         <v>25</v>
       </c>
@@ -11646,7 +11643,7 @@
       <c r="M28" s="23"/>
       <c r="N28" s="21"/>
     </row>
-    <row r="29" spans="2:14" ht="39.75" thickBot="1">
+    <row r="29" spans="2:14" ht="40.5" thickBot="1">
       <c r="B29" s="6">
         <v>26</v>
       </c>
@@ -11671,7 +11668,7 @@
       <c r="M29" s="11"/>
       <c r="N29" s="9"/>
     </row>
-    <row r="30" spans="2:14" ht="75.75" thickBot="1">
+    <row r="30" spans="2:14" ht="72.5" thickBot="1">
       <c r="B30" s="6">
         <v>27</v>
       </c>
@@ -11694,7 +11691,7 @@
       <c r="M30" s="42"/>
       <c r="N30" s="28"/>
     </row>
-    <row r="31" spans="2:14" ht="38.25" thickBot="1">
+    <row r="31" spans="2:14" ht="36.5" thickBot="1">
       <c r="B31" s="6">
         <v>28</v>
       </c>
@@ -11717,7 +11714,7 @@
       <c r="M31" s="45"/>
       <c r="N31" s="14"/>
     </row>
-    <row r="32" spans="2:14" ht="75.75" thickBot="1">
+    <row r="32" spans="2:14" ht="72.5" thickBot="1">
       <c r="B32" s="6">
         <v>29</v>
       </c>
@@ -11740,7 +11737,7 @@
       <c r="M32" s="39"/>
       <c r="N32" s="38"/>
     </row>
-    <row r="33" spans="2:14" ht="39.75" thickBot="1">
+    <row r="33" spans="2:14" ht="40.5" thickBot="1">
       <c r="B33" s="6">
         <v>30</v>
       </c>
@@ -11765,7 +11762,7 @@
       <c r="M33" s="11"/>
       <c r="N33" s="9"/>
     </row>
-    <row r="34" spans="2:14" ht="39.75" thickBot="1">
+    <row r="34" spans="2:14" ht="40.5" thickBot="1">
       <c r="B34" s="6">
         <v>31</v>
       </c>
@@ -11790,7 +11787,7 @@
       <c r="M34" s="17"/>
       <c r="N34" s="15"/>
     </row>
-    <row r="35" spans="2:14" ht="38.25" thickBot="1">
+    <row r="35" spans="2:14" ht="36.5" thickBot="1">
       <c r="B35" s="6">
         <v>32</v>
       </c>
@@ -11813,7 +11810,7 @@
       <c r="M35" s="17"/>
       <c r="N35" s="15"/>
     </row>
-    <row r="36" spans="2:14" ht="113.25" thickBot="1">
+    <row r="36" spans="2:14" ht="108.5" thickBot="1">
       <c r="B36" s="6">
         <v>33</v>
       </c>
@@ -11838,7 +11835,7 @@
       <c r="M36" s="23"/>
       <c r="N36" s="21"/>
     </row>
-    <row r="37" spans="2:14" ht="94.5" thickBot="1">
+    <row r="37" spans="2:14" ht="90.5" thickBot="1">
       <c r="B37" s="6">
         <v>34</v>
       </c>
@@ -11863,7 +11860,7 @@
       <c r="M37" s="11"/>
       <c r="N37" s="9"/>
     </row>
-    <row r="38" spans="2:14" ht="38.25" thickBot="1">
+    <row r="38" spans="2:14" ht="36.5" thickBot="1">
       <c r="B38" s="6">
         <v>35</v>
       </c>
@@ -11886,7 +11883,7 @@
       <c r="M38" s="17"/>
       <c r="N38" s="15"/>
     </row>
-    <row r="39" spans="2:14" ht="57" thickBot="1">
+    <row r="39" spans="2:14" ht="54.5" thickBot="1">
       <c r="B39" s="6">
         <v>36</v>
       </c>
@@ -11909,7 +11906,7 @@
       <c r="M39" s="17"/>
       <c r="N39" s="15"/>
     </row>
-    <row r="40" spans="2:14" ht="38.25" thickBot="1">
+    <row r="40" spans="2:14" ht="36.5" thickBot="1">
       <c r="B40" s="6">
         <v>37</v>
       </c>
@@ -11932,7 +11929,7 @@
       <c r="M40" s="17"/>
       <c r="N40" s="15"/>
     </row>
-    <row r="41" spans="2:14" ht="38.25" thickBot="1">
+    <row r="41" spans="2:14" ht="36.5" thickBot="1">
       <c r="B41" s="6">
         <v>38</v>
       </c>
@@ -11955,7 +11952,7 @@
       <c r="M41" s="17"/>
       <c r="N41" s="15"/>
     </row>
-    <row r="42" spans="2:14" ht="38.25" thickBot="1">
+    <row r="42" spans="2:14" ht="36.5" thickBot="1">
       <c r="B42" s="6">
         <v>39</v>
       </c>
@@ -11978,7 +11975,7 @@
       <c r="M42" s="17"/>
       <c r="N42" s="15"/>
     </row>
-    <row r="43" spans="2:14" ht="39.75" thickBot="1">
+    <row r="43" spans="2:14" ht="40.5" thickBot="1">
       <c r="B43" s="6">
         <v>40</v>
       </c>
@@ -12003,7 +12000,7 @@
       <c r="M43" s="11"/>
       <c r="N43" s="9"/>
     </row>
-    <row r="44" spans="2:14" ht="57" thickBot="1">
+    <row r="44" spans="2:14" ht="54.5" thickBot="1">
       <c r="B44" s="6">
         <v>41</v>
       </c>
@@ -12026,7 +12023,7 @@
       <c r="M44" s="17"/>
       <c r="N44" s="15"/>
     </row>
-    <row r="45" spans="2:14" ht="57" thickBot="1">
+    <row r="45" spans="2:14" ht="54.5" thickBot="1">
       <c r="B45" s="6">
         <v>42</v>
       </c>
@@ -12049,7 +12046,7 @@
       <c r="M45" s="17"/>
       <c r="N45" s="15"/>
     </row>
-    <row r="46" spans="2:14" ht="57" thickBot="1">
+    <row r="46" spans="2:14" ht="54.5" thickBot="1">
       <c r="B46" s="6">
         <v>43</v>
       </c>
@@ -12072,7 +12069,7 @@
       <c r="M46" s="17"/>
       <c r="N46" s="15"/>
     </row>
-    <row r="47" spans="2:14" ht="38.25" thickBot="1">
+    <row r="47" spans="2:14" ht="36.5" thickBot="1">
       <c r="B47" s="6">
         <v>44</v>
       </c>
@@ -12095,7 +12092,7 @@
       <c r="M47" s="17"/>
       <c r="N47" s="15"/>
     </row>
-    <row r="48" spans="2:14" ht="38.25" thickBot="1">
+    <row r="48" spans="2:14" ht="36.5" thickBot="1">
       <c r="B48" s="6">
         <v>45</v>
       </c>
@@ -12118,7 +12115,7 @@
       <c r="M48" s="17"/>
       <c r="N48" s="15"/>
     </row>
-    <row r="49" spans="2:14" ht="38.25" thickBot="1">
+    <row r="49" spans="2:14" ht="36.5" thickBot="1">
       <c r="B49" s="6">
         <v>46</v>
       </c>
@@ -12141,7 +12138,7 @@
       <c r="M49" s="39"/>
       <c r="N49" s="38"/>
     </row>
-    <row r="50" spans="2:14" ht="38.25" thickBot="1">
+    <row r="50" spans="2:14" ht="36.5" thickBot="1">
       <c r="B50" s="6">
         <v>47</v>
       </c>
@@ -12164,7 +12161,7 @@
       <c r="M50" s="39"/>
       <c r="N50" s="38"/>
     </row>
-    <row r="51" spans="2:14" ht="38.25" thickBot="1">
+    <row r="51" spans="2:14" ht="36.5" thickBot="1">
       <c r="B51" s="6">
         <v>48</v>
       </c>
@@ -12187,7 +12184,7 @@
       <c r="M51" s="39"/>
       <c r="N51" s="38"/>
     </row>
-    <row r="52" spans="2:14" ht="38.25" thickBot="1">
+    <row r="52" spans="2:14" ht="36.5" thickBot="1">
       <c r="B52" s="6">
         <v>49</v>
       </c>
@@ -12210,7 +12207,7 @@
       <c r="M52" s="23"/>
       <c r="N52" s="21"/>
     </row>
-    <row r="53" spans="2:14" ht="57" thickBot="1">
+    <row r="53" spans="2:14" ht="54.5" thickBot="1">
       <c r="B53" s="6">
         <v>50</v>
       </c>
@@ -12233,7 +12230,7 @@
       <c r="M53" s="11"/>
       <c r="N53" s="9"/>
     </row>
-    <row r="54" spans="2:14" ht="57" thickBot="1">
+    <row r="54" spans="2:14" ht="54.5" thickBot="1">
       <c r="B54" s="6">
         <v>51</v>
       </c>
@@ -12256,7 +12253,7 @@
       <c r="M54" s="17"/>
       <c r="N54" s="15"/>
     </row>
-    <row r="55" spans="2:14" ht="57" thickBot="1">
+    <row r="55" spans="2:14" ht="54.5" thickBot="1">
       <c r="B55" s="6">
         <v>52</v>
       </c>
@@ -12279,7 +12276,7 @@
       <c r="M55" s="17"/>
       <c r="N55" s="15"/>
     </row>
-    <row r="56" spans="2:14" ht="57" thickBot="1">
+    <row r="56" spans="2:14" ht="54.5" thickBot="1">
       <c r="B56" s="6">
         <v>53</v>
       </c>
@@ -12302,7 +12299,7 @@
       <c r="M56" s="17"/>
       <c r="N56" s="15"/>
     </row>
-    <row r="57" spans="2:14" ht="38.25" thickBot="1">
+    <row r="57" spans="2:14" ht="36.5" thickBot="1">
       <c r="B57" s="6">
         <v>54</v>
       </c>
@@ -12325,7 +12322,7 @@
       <c r="M57" s="39"/>
       <c r="N57" s="38"/>
     </row>
-    <row r="58" spans="2:14" ht="20.25" thickBot="1">
+    <row r="58" spans="2:14" ht="20.5" thickBot="1">
       <c r="B58" s="65"/>
       <c r="C58" s="124"/>
       <c r="D58" s="125"/>
@@ -12343,7 +12340,7 @@
     <row r="59" spans="2:14">
       <c r="B59" s="123"/>
     </row>
-    <row r="60" spans="2:14" ht="24">
+    <row r="60" spans="2:14" ht="22.5">
       <c r="B60" s="49"/>
       <c r="C60" s="49"/>
       <c r="E60" s="50"/>
@@ -12360,10 +12357,6 @@
       <c r="H61" s="112" t="s">
         <v>325</v>
       </c>
-      <c r="I61" s="3">
-        <f>COUNT(L4,L58)</f>
-        <v>0</v>
-      </c>
       <c r="L61" s="52" t="s">
         <v>18</v>
       </c>
@@ -12375,10 +12368,6 @@
     <row r="62" spans="2:14">
       <c r="H62" s="113" t="s">
         <v>326</v>
-      </c>
-      <c r="I62" s="3">
-        <f>COUNTIF(L4:L58,"✖")</f>
-        <v>0</v>
       </c>
       <c r="L62" s="53" t="s">
         <v>68</v>
@@ -12399,2264 +12388,2256 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFB9B61-49CD-4A84-BB87-A2EDBB8DA8A8}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="148" customWidth="1"/>
-    <col min="2" max="2" width="5.375" style="148" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.625" style="148" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.875" style="148" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.25" style="148" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="148" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="91.75" style="148" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.125" style="148" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.5" style="148" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.75" style="148" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" style="149" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.75" style="148" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5" style="148" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="49.625" style="148" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="11.25" style="149" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="49.625" style="148" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.625" style="148"/>
+    <col min="1" max="1" width="3.25" style="135" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" style="135" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.58203125" style="135" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.83203125" style="135" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.25" style="135" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.08203125" style="135" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="91.75" style="135" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.08203125" style="135" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.5" style="135" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.75" style="135" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="136" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.75" style="135" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5" style="135" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="49.58203125" style="135" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="11.25" style="136" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="49.58203125" style="135" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.58203125" style="135"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30">
-      <c r="A1" s="147" t="s">
+    <row r="1" spans="1:17" ht="29">
+      <c r="A1" s="134" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="19.5" thickBot="1"/>
-    <row r="3" spans="1:17" ht="39.75" thickBot="1">
-      <c r="B3" s="150" t="s">
+    <row r="2" spans="1:17" ht="18.5" thickBot="1"/>
+    <row r="3" spans="1:17" ht="40.5" thickBot="1">
+      <c r="B3" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="150" t="s">
+      <c r="C3" s="137" t="s">
         <v>224</v>
       </c>
-      <c r="D3" s="150" t="s">
+      <c r="D3" s="137" t="s">
         <v>322</v>
       </c>
-      <c r="E3" s="150" t="s">
+      <c r="E3" s="137" t="s">
         <v>323</v>
       </c>
-      <c r="F3" s="150" t="s">
+      <c r="F3" s="137" t="s">
         <v>328</v>
       </c>
-      <c r="G3" s="150" t="s">
+      <c r="G3" s="137" t="s">
         <v>419</v>
       </c>
-      <c r="H3" s="150" t="s">
+      <c r="H3" s="137" t="s">
         <v>420</v>
       </c>
-      <c r="I3" s="150" t="s">
+      <c r="I3" s="137" t="s">
         <v>421</v>
       </c>
-      <c r="J3" s="150" t="s">
+      <c r="J3" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="150" t="s">
+      <c r="K3" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="150" t="s">
+      <c r="L3" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="151" t="s">
+      <c r="M3" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="150" t="s">
+      <c r="N3" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="151" t="s">
+      <c r="O3" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="150" t="s">
+      <c r="P3" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="151" t="s">
+      <c r="Q3" s="138" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="137.25" thickBot="1">
-      <c r="B4" s="152">
+    <row r="4" spans="1:17" ht="140.5" thickBot="1">
+      <c r="B4" s="139">
         <f>ROW(B4)-ROW($B$3)</f>
         <v>1</v>
       </c>
-      <c r="C4" s="153" t="s">
+      <c r="C4" s="140" t="s">
         <v>422</v>
       </c>
-      <c r="D4" s="154" t="s">
+      <c r="D4" s="141" t="s">
         <v>423</v>
       </c>
-      <c r="E4" s="154" t="s">
+      <c r="E4" s="141" t="s">
         <v>424</v>
       </c>
-      <c r="F4" s="154" t="s">
+      <c r="F4" s="141" t="s">
         <v>425</v>
       </c>
-      <c r="G4" s="154" t="s">
+      <c r="G4" s="141" t="s">
         <v>426</v>
       </c>
-      <c r="H4" s="155" t="s">
+      <c r="H4" s="142" t="s">
         <v>427</v>
       </c>
-      <c r="I4" s="155" t="s">
+      <c r="I4" s="142" t="s">
         <v>427</v>
       </c>
-      <c r="J4" s="156" t="s">
+      <c r="J4" s="143" t="s">
         <v>428</v>
       </c>
-      <c r="K4" s="157"/>
-      <c r="L4" s="158"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="160"/>
-      <c r="O4" s="161"/>
-      <c r="P4" s="162"/>
-      <c r="Q4" s="163"/>
-    </row>
-    <row r="5" spans="1:17" ht="20.25" thickBot="1">
-      <c r="B5" s="152">
+      <c r="K4" s="144"/>
+      <c r="L4" s="145"/>
+      <c r="M4" s="146"/>
+      <c r="N4" s="147"/>
+      <c r="O4" s="148"/>
+      <c r="P4" s="149"/>
+      <c r="Q4" s="150"/>
+    </row>
+    <row r="5" spans="1:17" ht="20.5" thickBot="1">
+      <c r="B5" s="139">
         <f t="shared" ref="B5:B37" si="0">ROW(B5)-ROW($B$3)</f>
         <v>2</v>
       </c>
-      <c r="C5" s="164" t="s">
+      <c r="C5" s="186" t="s">
         <v>429</v>
       </c>
-      <c r="D5" s="165" t="s">
+      <c r="D5" s="189" t="s">
         <v>430</v>
       </c>
-      <c r="E5" s="165" t="s">
+      <c r="E5" s="189" t="s">
         <v>324</v>
       </c>
-      <c r="F5" s="165" t="s">
+      <c r="F5" s="189" t="s">
         <v>431</v>
       </c>
-      <c r="G5" s="165" t="s">
+      <c r="G5" s="189" t="s">
         <v>432</v>
       </c>
-      <c r="H5" s="166">
+      <c r="H5" s="151">
         <v>0</v>
       </c>
-      <c r="I5" s="166">
+      <c r="I5" s="151">
         <v>0</v>
       </c>
-      <c r="J5" s="167" t="s">
+      <c r="J5" s="152" t="s">
         <v>433</v>
       </c>
-      <c r="K5" s="168"/>
-      <c r="L5" s="169"/>
-      <c r="M5" s="170"/>
-      <c r="N5" s="160"/>
-      <c r="O5" s="161"/>
-      <c r="P5" s="162"/>
-      <c r="Q5" s="163"/>
-    </row>
-    <row r="6" spans="1:17" ht="20.25" thickBot="1">
-      <c r="B6" s="152">
+      <c r="K5" s="153"/>
+      <c r="L5" s="154"/>
+      <c r="M5" s="155"/>
+      <c r="N5" s="147"/>
+      <c r="O5" s="148"/>
+      <c r="P5" s="149"/>
+      <c r="Q5" s="150"/>
+    </row>
+    <row r="6" spans="1:17" ht="20.5" thickBot="1">
+      <c r="B6" s="139">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="171"/>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="172"/>
-      <c r="H6" s="166">
+      <c r="C6" s="187"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="190"/>
+      <c r="G6" s="190"/>
+      <c r="H6" s="151">
         <v>0</v>
       </c>
-      <c r="I6" s="166">
+      <c r="I6" s="151">
         <v>30</v>
       </c>
-      <c r="J6" s="167" t="s">
+      <c r="J6" s="152" t="s">
         <v>433</v>
       </c>
-      <c r="K6" s="168"/>
-      <c r="L6" s="169"/>
-      <c r="M6" s="170"/>
-      <c r="N6" s="160"/>
-      <c r="O6" s="161"/>
-      <c r="P6" s="162"/>
-      <c r="Q6" s="163"/>
-    </row>
-    <row r="7" spans="1:17" ht="20.25" thickBot="1">
-      <c r="B7" s="152">
+      <c r="K6" s="153"/>
+      <c r="L6" s="154"/>
+      <c r="M6" s="155"/>
+      <c r="N6" s="147"/>
+      <c r="O6" s="148"/>
+      <c r="P6" s="149"/>
+      <c r="Q6" s="150"/>
+    </row>
+    <row r="7" spans="1:17" ht="20.5" thickBot="1">
+      <c r="B7" s="139">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="171"/>
-      <c r="D7" s="172"/>
-      <c r="E7" s="172"/>
-      <c r="F7" s="172"/>
-      <c r="G7" s="172"/>
-      <c r="H7" s="166">
+      <c r="C7" s="187"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="190"/>
+      <c r="H7" s="151">
         <v>0</v>
       </c>
-      <c r="I7" s="166">
+      <c r="I7" s="151">
         <v>60</v>
       </c>
-      <c r="J7" s="167" t="s">
+      <c r="J7" s="152" t="s">
         <v>433</v>
       </c>
-      <c r="K7" s="168"/>
-      <c r="L7" s="169"/>
-      <c r="M7" s="170"/>
-      <c r="N7" s="160"/>
-      <c r="O7" s="161"/>
-      <c r="P7" s="162"/>
-      <c r="Q7" s="163"/>
-    </row>
-    <row r="8" spans="1:17" ht="20.25" thickBot="1">
-      <c r="B8" s="152">
+      <c r="K7" s="153"/>
+      <c r="L7" s="154"/>
+      <c r="M7" s="155"/>
+      <c r="N7" s="147"/>
+      <c r="O7" s="148"/>
+      <c r="P7" s="149"/>
+      <c r="Q7" s="150"/>
+    </row>
+    <row r="8" spans="1:17" ht="20.5" thickBot="1">
+      <c r="B8" s="139">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="171"/>
-      <c r="D8" s="172"/>
-      <c r="E8" s="172"/>
-      <c r="F8" s="172"/>
-      <c r="G8" s="172"/>
-      <c r="H8" s="166">
+      <c r="C8" s="187"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="190"/>
+      <c r="H8" s="151">
         <v>0</v>
       </c>
-      <c r="I8" s="166">
+      <c r="I8" s="151">
         <v>61</v>
       </c>
-      <c r="J8" s="167" t="s">
+      <c r="J8" s="152" t="s">
         <v>433</v>
       </c>
-      <c r="K8" s="168"/>
-      <c r="L8" s="169"/>
-      <c r="M8" s="170"/>
-      <c r="N8" s="160"/>
-      <c r="O8" s="161"/>
-      <c r="P8" s="162"/>
-      <c r="Q8" s="163"/>
-    </row>
-    <row r="9" spans="1:17" ht="20.25" thickBot="1">
-      <c r="B9" s="152">
+      <c r="K8" s="153"/>
+      <c r="L8" s="154"/>
+      <c r="M8" s="155"/>
+      <c r="N8" s="147"/>
+      <c r="O8" s="148"/>
+      <c r="P8" s="149"/>
+      <c r="Q8" s="150"/>
+    </row>
+    <row r="9" spans="1:17" ht="20.5" thickBot="1">
+      <c r="B9" s="139">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="171"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="172"/>
-      <c r="H9" s="166">
+      <c r="C9" s="187"/>
+      <c r="D9" s="190"/>
+      <c r="E9" s="190"/>
+      <c r="F9" s="190"/>
+      <c r="G9" s="190"/>
+      <c r="H9" s="151">
         <v>0</v>
       </c>
-      <c r="I9" s="166">
+      <c r="I9" s="151">
         <v>255</v>
       </c>
-      <c r="J9" s="167" t="s">
+      <c r="J9" s="152" t="s">
         <v>433</v>
       </c>
-      <c r="K9" s="168"/>
-      <c r="L9" s="169"/>
-      <c r="M9" s="170"/>
-      <c r="N9" s="160"/>
-      <c r="O9" s="161"/>
-      <c r="P9" s="162"/>
-      <c r="Q9" s="163"/>
-    </row>
-    <row r="10" spans="1:17" ht="20.25" thickBot="1">
-      <c r="B10" s="152">
+      <c r="K9" s="153"/>
+      <c r="L9" s="154"/>
+      <c r="M9" s="155"/>
+      <c r="N9" s="147"/>
+      <c r="O9" s="148"/>
+      <c r="P9" s="149"/>
+      <c r="Q9" s="150"/>
+    </row>
+    <row r="10" spans="1:17" ht="20.5" thickBot="1">
+      <c r="B10" s="139">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="171"/>
-      <c r="D10" s="172"/>
-      <c r="E10" s="172"/>
-      <c r="F10" s="172"/>
-      <c r="G10" s="172"/>
-      <c r="H10" s="166">
+      <c r="C10" s="187"/>
+      <c r="D10" s="190"/>
+      <c r="E10" s="190"/>
+      <c r="F10" s="190"/>
+      <c r="G10" s="190"/>
+      <c r="H10" s="151">
         <v>1</v>
       </c>
-      <c r="I10" s="166">
+      <c r="I10" s="151">
         <v>0</v>
       </c>
-      <c r="J10" s="167" t="s">
+      <c r="J10" s="152" t="s">
         <v>434</v>
       </c>
-      <c r="K10" s="168"/>
-      <c r="L10" s="169"/>
-      <c r="M10" s="170"/>
-      <c r="N10" s="160"/>
-      <c r="O10" s="161"/>
-      <c r="P10" s="162"/>
-      <c r="Q10" s="163"/>
-    </row>
-    <row r="11" spans="1:17" ht="20.25" thickBot="1">
-      <c r="B11" s="152">
+      <c r="K10" s="153"/>
+      <c r="L10" s="154"/>
+      <c r="M10" s="155"/>
+      <c r="N10" s="147"/>
+      <c r="O10" s="148"/>
+      <c r="P10" s="149"/>
+      <c r="Q10" s="150"/>
+    </row>
+    <row r="11" spans="1:17" ht="20.5" thickBot="1">
+      <c r="B11" s="139">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="171"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="172"/>
-      <c r="F11" s="172"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="166">
+      <c r="C11" s="187"/>
+      <c r="D11" s="190"/>
+      <c r="E11" s="190"/>
+      <c r="F11" s="190"/>
+      <c r="G11" s="190"/>
+      <c r="H11" s="151">
         <v>1</v>
       </c>
-      <c r="I11" s="166">
+      <c r="I11" s="151">
         <v>30</v>
       </c>
-      <c r="J11" s="167" t="s">
+      <c r="J11" s="152" t="s">
         <v>434</v>
       </c>
-      <c r="K11" s="168"/>
-      <c r="L11" s="169"/>
-      <c r="M11" s="170"/>
-      <c r="N11" s="160"/>
-      <c r="O11" s="161"/>
-      <c r="P11" s="162"/>
-      <c r="Q11" s="163"/>
-    </row>
-    <row r="12" spans="1:17" ht="20.25" thickBot="1">
-      <c r="B12" s="152">
+      <c r="K11" s="153"/>
+      <c r="L11" s="154"/>
+      <c r="M11" s="155"/>
+      <c r="N11" s="147"/>
+      <c r="O11" s="148"/>
+      <c r="P11" s="149"/>
+      <c r="Q11" s="150"/>
+    </row>
+    <row r="12" spans="1:17" ht="20.5" thickBot="1">
+      <c r="B12" s="139">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="171"/>
-      <c r="D12" s="172"/>
-      <c r="E12" s="172"/>
-      <c r="F12" s="172"/>
-      <c r="G12" s="172"/>
-      <c r="H12" s="166">
+      <c r="C12" s="187"/>
+      <c r="D12" s="190"/>
+      <c r="E12" s="190"/>
+      <c r="F12" s="190"/>
+      <c r="G12" s="190"/>
+      <c r="H12" s="151">
         <v>1</v>
       </c>
-      <c r="I12" s="166">
+      <c r="I12" s="151">
         <v>60</v>
       </c>
-      <c r="J12" s="167" t="s">
+      <c r="J12" s="152" t="s">
         <v>434</v>
       </c>
-      <c r="K12" s="168"/>
-      <c r="L12" s="169"/>
-      <c r="M12" s="170"/>
-      <c r="N12" s="160"/>
-      <c r="O12" s="161"/>
-      <c r="P12" s="162"/>
-      <c r="Q12" s="163"/>
-    </row>
-    <row r="13" spans="1:17" ht="20.25" thickBot="1">
-      <c r="B13" s="152">
+      <c r="K12" s="153"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="155"/>
+      <c r="N12" s="147"/>
+      <c r="O12" s="148"/>
+      <c r="P12" s="149"/>
+      <c r="Q12" s="150"/>
+    </row>
+    <row r="13" spans="1:17" ht="20.5" thickBot="1">
+      <c r="B13" s="139">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C13" s="171"/>
-      <c r="D13" s="172"/>
-      <c r="E13" s="172"/>
-      <c r="F13" s="172"/>
-      <c r="G13" s="172"/>
-      <c r="H13" s="166">
+      <c r="C13" s="187"/>
+      <c r="D13" s="190"/>
+      <c r="E13" s="190"/>
+      <c r="F13" s="190"/>
+      <c r="G13" s="190"/>
+      <c r="H13" s="151">
         <v>1</v>
       </c>
-      <c r="I13" s="166">
+      <c r="I13" s="151">
         <v>61</v>
       </c>
-      <c r="J13" s="167" t="s">
+      <c r="J13" s="152" t="s">
         <v>434</v>
       </c>
-      <c r="K13" s="168"/>
-      <c r="L13" s="169"/>
-      <c r="M13" s="170"/>
-      <c r="N13" s="160"/>
-      <c r="O13" s="161"/>
-      <c r="P13" s="162"/>
-      <c r="Q13" s="163"/>
-    </row>
-    <row r="14" spans="1:17" ht="20.25" thickBot="1">
-      <c r="B14" s="152">
+      <c r="K13" s="153"/>
+      <c r="L13" s="154"/>
+      <c r="M13" s="155"/>
+      <c r="N13" s="147"/>
+      <c r="O13" s="148"/>
+      <c r="P13" s="149"/>
+      <c r="Q13" s="150"/>
+    </row>
+    <row r="14" spans="1:17" ht="20.5" thickBot="1">
+      <c r="B14" s="139">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="171"/>
-      <c r="D14" s="172"/>
-      <c r="E14" s="172"/>
-      <c r="F14" s="172"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="166">
+      <c r="C14" s="187"/>
+      <c r="D14" s="190"/>
+      <c r="E14" s="190"/>
+      <c r="F14" s="190"/>
+      <c r="G14" s="190"/>
+      <c r="H14" s="151">
         <v>1</v>
       </c>
-      <c r="I14" s="166">
+      <c r="I14" s="151">
         <v>255</v>
       </c>
-      <c r="J14" s="167" t="s">
+      <c r="J14" s="152" t="s">
         <v>434</v>
       </c>
-      <c r="K14" s="168"/>
-      <c r="L14" s="169"/>
-      <c r="M14" s="170"/>
-      <c r="N14" s="160"/>
-      <c r="O14" s="161"/>
-      <c r="P14" s="162"/>
-      <c r="Q14" s="163"/>
-    </row>
-    <row r="15" spans="1:17" ht="20.25" thickBot="1">
-      <c r="B15" s="152">
+      <c r="K14" s="153"/>
+      <c r="L14" s="154"/>
+      <c r="M14" s="155"/>
+      <c r="N14" s="147"/>
+      <c r="O14" s="148"/>
+      <c r="P14" s="149"/>
+      <c r="Q14" s="150"/>
+    </row>
+    <row r="15" spans="1:17" ht="20.5" thickBot="1">
+      <c r="B15" s="139">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C15" s="171"/>
-      <c r="D15" s="172"/>
-      <c r="E15" s="172"/>
-      <c r="F15" s="172"/>
-      <c r="G15" s="172"/>
-      <c r="H15" s="166">
+      <c r="C15" s="187"/>
+      <c r="D15" s="190"/>
+      <c r="E15" s="190"/>
+      <c r="F15" s="190"/>
+      <c r="G15" s="190"/>
+      <c r="H15" s="151">
         <v>2</v>
       </c>
-      <c r="I15" s="166">
+      <c r="I15" s="151">
         <v>0</v>
       </c>
-      <c r="J15" s="167" t="s">
+      <c r="J15" s="152" t="s">
         <v>435</v>
       </c>
-      <c r="K15" s="168"/>
-      <c r="L15" s="169"/>
-      <c r="M15" s="170"/>
-      <c r="N15" s="160"/>
-      <c r="O15" s="161"/>
-      <c r="P15" s="162"/>
-      <c r="Q15" s="163"/>
-    </row>
-    <row r="16" spans="1:17" ht="20.25" thickBot="1">
-      <c r="B16" s="152">
+      <c r="K15" s="153"/>
+      <c r="L15" s="154"/>
+      <c r="M15" s="155"/>
+      <c r="N15" s="147"/>
+      <c r="O15" s="148"/>
+      <c r="P15" s="149"/>
+      <c r="Q15" s="150"/>
+    </row>
+    <row r="16" spans="1:17" ht="20.5" thickBot="1">
+      <c r="B16" s="139">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C16" s="171"/>
-      <c r="D16" s="172"/>
-      <c r="E16" s="172"/>
-      <c r="F16" s="172"/>
-      <c r="G16" s="172"/>
-      <c r="H16" s="166">
+      <c r="C16" s="187"/>
+      <c r="D16" s="190"/>
+      <c r="E16" s="190"/>
+      <c r="F16" s="190"/>
+      <c r="G16" s="190"/>
+      <c r="H16" s="151">
         <v>2</v>
       </c>
-      <c r="I16" s="166">
+      <c r="I16" s="151">
         <v>30</v>
       </c>
-      <c r="J16" s="167" t="s">
+      <c r="J16" s="152" t="s">
         <v>435</v>
       </c>
-      <c r="K16" s="168"/>
-      <c r="L16" s="169"/>
-      <c r="M16" s="170"/>
-      <c r="N16" s="160"/>
-      <c r="O16" s="161"/>
-      <c r="P16" s="162"/>
-      <c r="Q16" s="163"/>
-    </row>
-    <row r="17" spans="2:17" ht="20.25" thickBot="1">
-      <c r="B17" s="152">
+      <c r="K16" s="153"/>
+      <c r="L16" s="154"/>
+      <c r="M16" s="155"/>
+      <c r="N16" s="147"/>
+      <c r="O16" s="148"/>
+      <c r="P16" s="149"/>
+      <c r="Q16" s="150"/>
+    </row>
+    <row r="17" spans="2:17" ht="20.5" thickBot="1">
+      <c r="B17" s="139">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C17" s="171"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="166">
+      <c r="C17" s="187"/>
+      <c r="D17" s="190"/>
+      <c r="E17" s="190"/>
+      <c r="F17" s="190"/>
+      <c r="G17" s="190"/>
+      <c r="H17" s="151">
         <v>2</v>
       </c>
-      <c r="I17" s="166">
+      <c r="I17" s="151">
         <v>60</v>
       </c>
-      <c r="J17" s="167" t="s">
+      <c r="J17" s="152" t="s">
         <v>435</v>
       </c>
-      <c r="K17" s="168"/>
-      <c r="L17" s="169"/>
-      <c r="M17" s="170"/>
-      <c r="N17" s="160"/>
-      <c r="O17" s="161"/>
-      <c r="P17" s="162"/>
-      <c r="Q17" s="163"/>
-    </row>
-    <row r="18" spans="2:17" ht="20.25" thickBot="1">
-      <c r="B18" s="152">
+      <c r="K17" s="153"/>
+      <c r="L17" s="154"/>
+      <c r="M17" s="155"/>
+      <c r="N17" s="147"/>
+      <c r="O17" s="148"/>
+      <c r="P17" s="149"/>
+      <c r="Q17" s="150"/>
+    </row>
+    <row r="18" spans="2:17" ht="20.5" thickBot="1">
+      <c r="B18" s="139">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C18" s="171"/>
-      <c r="D18" s="172"/>
-      <c r="E18" s="172"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="166">
+      <c r="C18" s="187"/>
+      <c r="D18" s="190"/>
+      <c r="E18" s="190"/>
+      <c r="F18" s="190"/>
+      <c r="G18" s="190"/>
+      <c r="H18" s="151">
         <v>2</v>
       </c>
-      <c r="I18" s="166">
+      <c r="I18" s="151">
         <v>61</v>
       </c>
-      <c r="J18" s="167" t="s">
+      <c r="J18" s="152" t="s">
         <v>435</v>
       </c>
-      <c r="K18" s="168"/>
-      <c r="L18" s="169"/>
-      <c r="M18" s="170"/>
-      <c r="N18" s="160"/>
-      <c r="O18" s="161"/>
-      <c r="P18" s="162"/>
-      <c r="Q18" s="163"/>
-    </row>
-    <row r="19" spans="2:17" ht="20.25" thickBot="1">
-      <c r="B19" s="152">
+      <c r="K18" s="153"/>
+      <c r="L18" s="154"/>
+      <c r="M18" s="155"/>
+      <c r="N18" s="147"/>
+      <c r="O18" s="148"/>
+      <c r="P18" s="149"/>
+      <c r="Q18" s="150"/>
+    </row>
+    <row r="19" spans="2:17" ht="20.5" thickBot="1">
+      <c r="B19" s="139">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C19" s="171"/>
-      <c r="D19" s="172"/>
-      <c r="E19" s="172"/>
-      <c r="F19" s="172"/>
-      <c r="G19" s="172"/>
-      <c r="H19" s="166">
+      <c r="C19" s="187"/>
+      <c r="D19" s="190"/>
+      <c r="E19" s="190"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="190"/>
+      <c r="H19" s="151">
         <v>2</v>
       </c>
-      <c r="I19" s="166">
+      <c r="I19" s="151">
         <v>255</v>
       </c>
-      <c r="J19" s="167" t="s">
+      <c r="J19" s="152" t="s">
         <v>435</v>
       </c>
-      <c r="K19" s="168"/>
-      <c r="L19" s="169"/>
-      <c r="M19" s="170"/>
-      <c r="N19" s="160"/>
-      <c r="O19" s="161"/>
-      <c r="P19" s="162"/>
-      <c r="Q19" s="163"/>
-    </row>
-    <row r="20" spans="2:17" ht="20.25" thickBot="1">
-      <c r="B20" s="152">
+      <c r="K19" s="153"/>
+      <c r="L19" s="154"/>
+      <c r="M19" s="155"/>
+      <c r="N19" s="147"/>
+      <c r="O19" s="148"/>
+      <c r="P19" s="149"/>
+      <c r="Q19" s="150"/>
+    </row>
+    <row r="20" spans="2:17" ht="20.5" thickBot="1">
+      <c r="B20" s="139">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C20" s="171"/>
-      <c r="D20" s="172"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="166">
+      <c r="C20" s="187"/>
+      <c r="D20" s="190"/>
+      <c r="E20" s="190"/>
+      <c r="F20" s="190"/>
+      <c r="G20" s="190"/>
+      <c r="H20" s="151">
         <v>3</v>
       </c>
-      <c r="I20" s="166">
+      <c r="I20" s="151">
         <v>0</v>
       </c>
-      <c r="J20" s="167" t="s">
+      <c r="J20" s="152" t="s">
         <v>436</v>
       </c>
-      <c r="K20" s="168"/>
-      <c r="L20" s="169"/>
-      <c r="M20" s="170"/>
-      <c r="N20" s="160"/>
-      <c r="O20" s="161"/>
-      <c r="P20" s="162"/>
-      <c r="Q20" s="163"/>
-    </row>
-    <row r="21" spans="2:17" ht="20.25" thickBot="1">
-      <c r="B21" s="152">
+      <c r="K20" s="153"/>
+      <c r="L20" s="154"/>
+      <c r="M20" s="155"/>
+      <c r="N20" s="147"/>
+      <c r="O20" s="148"/>
+      <c r="P20" s="149"/>
+      <c r="Q20" s="150"/>
+    </row>
+    <row r="21" spans="2:17" ht="20.5" thickBot="1">
+      <c r="B21" s="139">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C21" s="171"/>
-      <c r="D21" s="172"/>
-      <c r="E21" s="172"/>
-      <c r="F21" s="172"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="166">
+      <c r="C21" s="187"/>
+      <c r="D21" s="190"/>
+      <c r="E21" s="190"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="190"/>
+      <c r="H21" s="151">
         <v>3</v>
       </c>
-      <c r="I21" s="166">
+      <c r="I21" s="151">
         <v>30</v>
       </c>
-      <c r="J21" s="167" t="s">
+      <c r="J21" s="152" t="s">
         <v>436</v>
       </c>
-      <c r="K21" s="168"/>
-      <c r="L21" s="169"/>
-      <c r="M21" s="170"/>
-      <c r="N21" s="160"/>
-      <c r="O21" s="161"/>
-      <c r="P21" s="162"/>
-      <c r="Q21" s="163"/>
-    </row>
-    <row r="22" spans="2:17" ht="20.25" thickBot="1">
-      <c r="B22" s="152">
+      <c r="K21" s="153"/>
+      <c r="L21" s="154"/>
+      <c r="M21" s="155"/>
+      <c r="N21" s="147"/>
+      <c r="O21" s="148"/>
+      <c r="P21" s="149"/>
+      <c r="Q21" s="150"/>
+    </row>
+    <row r="22" spans="2:17" ht="20.5" thickBot="1">
+      <c r="B22" s="139">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C22" s="171"/>
-      <c r="D22" s="172"/>
-      <c r="E22" s="172"/>
-      <c r="F22" s="172"/>
-      <c r="G22" s="172"/>
-      <c r="H22" s="166">
+      <c r="C22" s="187"/>
+      <c r="D22" s="190"/>
+      <c r="E22" s="190"/>
+      <c r="F22" s="190"/>
+      <c r="G22" s="190"/>
+      <c r="H22" s="151">
         <v>3</v>
       </c>
-      <c r="I22" s="166">
+      <c r="I22" s="151">
         <v>60</v>
       </c>
-      <c r="J22" s="167" t="s">
+      <c r="J22" s="152" t="s">
         <v>436</v>
       </c>
-      <c r="K22" s="168"/>
-      <c r="L22" s="169"/>
-      <c r="M22" s="170"/>
-      <c r="N22" s="160"/>
-      <c r="O22" s="161"/>
-      <c r="P22" s="162"/>
-      <c r="Q22" s="163"/>
-    </row>
-    <row r="23" spans="2:17" ht="20.25" thickBot="1">
-      <c r="B23" s="152">
+      <c r="K22" s="153"/>
+      <c r="L22" s="154"/>
+      <c r="M22" s="155"/>
+      <c r="N22" s="147"/>
+      <c r="O22" s="148"/>
+      <c r="P22" s="149"/>
+      <c r="Q22" s="150"/>
+    </row>
+    <row r="23" spans="2:17" ht="20.5" thickBot="1">
+      <c r="B23" s="139">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C23" s="171"/>
-      <c r="D23" s="172"/>
-      <c r="E23" s="172"/>
-      <c r="F23" s="172"/>
-      <c r="G23" s="172"/>
-      <c r="H23" s="166">
+      <c r="C23" s="187"/>
+      <c r="D23" s="190"/>
+      <c r="E23" s="190"/>
+      <c r="F23" s="190"/>
+      <c r="G23" s="190"/>
+      <c r="H23" s="151">
         <v>3</v>
       </c>
-      <c r="I23" s="166">
+      <c r="I23" s="151">
         <v>61</v>
       </c>
-      <c r="J23" s="167" t="s">
+      <c r="J23" s="152" t="s">
         <v>436</v>
       </c>
-      <c r="K23" s="168"/>
-      <c r="L23" s="169"/>
-      <c r="M23" s="170"/>
-      <c r="N23" s="160"/>
-      <c r="O23" s="161"/>
-      <c r="P23" s="162"/>
-      <c r="Q23" s="163"/>
-    </row>
-    <row r="24" spans="2:17" ht="20.25" thickBot="1">
-      <c r="B24" s="152">
+      <c r="K23" s="153"/>
+      <c r="L23" s="154"/>
+      <c r="M23" s="155"/>
+      <c r="N23" s="147"/>
+      <c r="O23" s="148"/>
+      <c r="P23" s="149"/>
+      <c r="Q23" s="150"/>
+    </row>
+    <row r="24" spans="2:17" ht="20.5" thickBot="1">
+      <c r="B24" s="139">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C24" s="171"/>
-      <c r="D24" s="172"/>
-      <c r="E24" s="172"/>
-      <c r="F24" s="172"/>
-      <c r="G24" s="172"/>
-      <c r="H24" s="166">
+      <c r="C24" s="187"/>
+      <c r="D24" s="190"/>
+      <c r="E24" s="190"/>
+      <c r="F24" s="190"/>
+      <c r="G24" s="190"/>
+      <c r="H24" s="151">
         <v>3</v>
       </c>
-      <c r="I24" s="166">
+      <c r="I24" s="151">
         <v>255</v>
       </c>
-      <c r="J24" s="167" t="s">
+      <c r="J24" s="152" t="s">
         <v>436</v>
       </c>
-      <c r="K24" s="168"/>
-      <c r="L24" s="169"/>
-      <c r="M24" s="170"/>
-      <c r="N24" s="160"/>
-      <c r="O24" s="161"/>
-      <c r="P24" s="162"/>
-      <c r="Q24" s="163"/>
-    </row>
-    <row r="25" spans="2:17" ht="20.25" thickBot="1">
-      <c r="B25" s="152">
+      <c r="K24" s="153"/>
+      <c r="L24" s="154"/>
+      <c r="M24" s="155"/>
+      <c r="N24" s="147"/>
+      <c r="O24" s="148"/>
+      <c r="P24" s="149"/>
+      <c r="Q24" s="150"/>
+    </row>
+    <row r="25" spans="2:17" ht="20.5" thickBot="1">
+      <c r="B25" s="139">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C25" s="171"/>
-      <c r="D25" s="172"/>
-      <c r="E25" s="172"/>
-      <c r="F25" s="172"/>
-      <c r="G25" s="172"/>
-      <c r="H25" s="166">
+      <c r="C25" s="187"/>
+      <c r="D25" s="190"/>
+      <c r="E25" s="190"/>
+      <c r="F25" s="190"/>
+      <c r="G25" s="190"/>
+      <c r="H25" s="151">
         <v>4</v>
       </c>
-      <c r="I25" s="166">
+      <c r="I25" s="151">
         <v>0</v>
       </c>
-      <c r="J25" s="167" t="s">
+      <c r="J25" s="152" t="s">
         <v>433</v>
       </c>
-      <c r="K25" s="168"/>
-      <c r="L25" s="169"/>
-      <c r="M25" s="170"/>
-      <c r="N25" s="160"/>
-      <c r="O25" s="161"/>
-      <c r="P25" s="162"/>
-      <c r="Q25" s="163"/>
-    </row>
-    <row r="26" spans="2:17" ht="20.25" thickBot="1">
-      <c r="B26" s="152">
+      <c r="K25" s="153"/>
+      <c r="L25" s="154"/>
+      <c r="M25" s="155"/>
+      <c r="N25" s="147"/>
+      <c r="O25" s="148"/>
+      <c r="P25" s="149"/>
+      <c r="Q25" s="150"/>
+    </row>
+    <row r="26" spans="2:17" ht="20.5" thickBot="1">
+      <c r="B26" s="139">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C26" s="171"/>
-      <c r="D26" s="172"/>
-      <c r="E26" s="172"/>
-      <c r="F26" s="172"/>
-      <c r="G26" s="172"/>
-      <c r="H26" s="166">
+      <c r="C26" s="187"/>
+      <c r="D26" s="190"/>
+      <c r="E26" s="190"/>
+      <c r="F26" s="190"/>
+      <c r="G26" s="190"/>
+      <c r="H26" s="151">
         <v>4</v>
       </c>
-      <c r="I26" s="166">
+      <c r="I26" s="151">
         <v>30</v>
       </c>
-      <c r="J26" s="167" t="s">
+      <c r="J26" s="152" t="s">
         <v>433</v>
       </c>
-      <c r="K26" s="168"/>
-      <c r="L26" s="169"/>
-      <c r="M26" s="170"/>
-      <c r="N26" s="160"/>
-      <c r="O26" s="161"/>
-      <c r="P26" s="162"/>
-      <c r="Q26" s="163"/>
-    </row>
-    <row r="27" spans="2:17" ht="20.25" thickBot="1">
-      <c r="B27" s="152">
+      <c r="K26" s="153"/>
+      <c r="L26" s="154"/>
+      <c r="M26" s="155"/>
+      <c r="N26" s="147"/>
+      <c r="O26" s="148"/>
+      <c r="P26" s="149"/>
+      <c r="Q26" s="150"/>
+    </row>
+    <row r="27" spans="2:17" ht="20.5" thickBot="1">
+      <c r="B27" s="139">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C27" s="171"/>
-      <c r="D27" s="172"/>
-      <c r="E27" s="172"/>
-      <c r="F27" s="172"/>
-      <c r="G27" s="172"/>
-      <c r="H27" s="166">
+      <c r="C27" s="187"/>
+      <c r="D27" s="190"/>
+      <c r="E27" s="190"/>
+      <c r="F27" s="190"/>
+      <c r="G27" s="190"/>
+      <c r="H27" s="151">
         <v>4</v>
       </c>
-      <c r="I27" s="166">
+      <c r="I27" s="151">
         <v>60</v>
       </c>
-      <c r="J27" s="167" t="s">
+      <c r="J27" s="152" t="s">
         <v>433</v>
       </c>
-      <c r="K27" s="168"/>
-      <c r="L27" s="169"/>
-      <c r="M27" s="170"/>
-      <c r="N27" s="160"/>
-      <c r="O27" s="161"/>
-      <c r="P27" s="162"/>
-      <c r="Q27" s="163"/>
-    </row>
-    <row r="28" spans="2:17" ht="20.25" thickBot="1">
-      <c r="B28" s="152">
+      <c r="K27" s="153"/>
+      <c r="L27" s="154"/>
+      <c r="M27" s="155"/>
+      <c r="N27" s="147"/>
+      <c r="O27" s="148"/>
+      <c r="P27" s="149"/>
+      <c r="Q27" s="150"/>
+    </row>
+    <row r="28" spans="2:17" ht="20.5" thickBot="1">
+      <c r="B28" s="139">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C28" s="171"/>
-      <c r="D28" s="172"/>
-      <c r="E28" s="172"/>
-      <c r="F28" s="172"/>
-      <c r="G28" s="172"/>
-      <c r="H28" s="166">
+      <c r="C28" s="187"/>
+      <c r="D28" s="190"/>
+      <c r="E28" s="190"/>
+      <c r="F28" s="190"/>
+      <c r="G28" s="190"/>
+      <c r="H28" s="151">
         <v>4</v>
       </c>
-      <c r="I28" s="166">
+      <c r="I28" s="151">
         <v>61</v>
       </c>
-      <c r="J28" s="167" t="s">
+      <c r="J28" s="152" t="s">
         <v>433</v>
       </c>
-      <c r="K28" s="168"/>
-      <c r="L28" s="169"/>
-      <c r="M28" s="170"/>
-      <c r="N28" s="160"/>
-      <c r="O28" s="161"/>
-      <c r="P28" s="162"/>
-      <c r="Q28" s="163"/>
-    </row>
-    <row r="29" spans="2:17" ht="20.25" thickBot="1">
-      <c r="B29" s="152">
+      <c r="K28" s="153"/>
+      <c r="L28" s="154"/>
+      <c r="M28" s="155"/>
+      <c r="N28" s="147"/>
+      <c r="O28" s="148"/>
+      <c r="P28" s="149"/>
+      <c r="Q28" s="150"/>
+    </row>
+    <row r="29" spans="2:17" ht="20.5" thickBot="1">
+      <c r="B29" s="139">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C29" s="171"/>
-      <c r="D29" s="172"/>
-      <c r="E29" s="172"/>
-      <c r="F29" s="172"/>
-      <c r="G29" s="172"/>
-      <c r="H29" s="166">
+      <c r="C29" s="187"/>
+      <c r="D29" s="190"/>
+      <c r="E29" s="190"/>
+      <c r="F29" s="190"/>
+      <c r="G29" s="190"/>
+      <c r="H29" s="151">
         <v>4</v>
       </c>
-      <c r="I29" s="166">
+      <c r="I29" s="151">
         <v>255</v>
       </c>
-      <c r="J29" s="167" t="s">
+      <c r="J29" s="152" t="s">
         <v>433</v>
       </c>
-      <c r="K29" s="168"/>
-      <c r="L29" s="169"/>
-      <c r="M29" s="170"/>
-      <c r="N29" s="160"/>
-      <c r="O29" s="161"/>
-      <c r="P29" s="162"/>
-      <c r="Q29" s="163"/>
-    </row>
-    <row r="30" spans="2:17" ht="20.25" thickBot="1">
-      <c r="B30" s="152">
+      <c r="K29" s="153"/>
+      <c r="L29" s="154"/>
+      <c r="M29" s="155"/>
+      <c r="N29" s="147"/>
+      <c r="O29" s="148"/>
+      <c r="P29" s="149"/>
+      <c r="Q29" s="150"/>
+    </row>
+    <row r="30" spans="2:17" ht="20.5" thickBot="1">
+      <c r="B30" s="139">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C30" s="171"/>
-      <c r="D30" s="172"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="172"/>
-      <c r="G30" s="172"/>
-      <c r="H30" s="166">
+      <c r="C30" s="187"/>
+      <c r="D30" s="190"/>
+      <c r="E30" s="190"/>
+      <c r="F30" s="190"/>
+      <c r="G30" s="190"/>
+      <c r="H30" s="151">
         <v>255</v>
       </c>
-      <c r="I30" s="166">
+      <c r="I30" s="151">
         <v>0</v>
       </c>
-      <c r="J30" s="167" t="s">
+      <c r="J30" s="152" t="s">
         <v>433</v>
       </c>
-      <c r="K30" s="168"/>
-      <c r="L30" s="169"/>
-      <c r="M30" s="170"/>
-      <c r="N30" s="160"/>
-      <c r="O30" s="161"/>
-      <c r="P30" s="162"/>
-      <c r="Q30" s="163"/>
-    </row>
-    <row r="31" spans="2:17" ht="20.25" thickBot="1">
-      <c r="B31" s="152">
+      <c r="K30" s="153"/>
+      <c r="L30" s="154"/>
+      <c r="M30" s="155"/>
+      <c r="N30" s="147"/>
+      <c r="O30" s="148"/>
+      <c r="P30" s="149"/>
+      <c r="Q30" s="150"/>
+    </row>
+    <row r="31" spans="2:17" ht="20.5" thickBot="1">
+      <c r="B31" s="139">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C31" s="171"/>
-      <c r="D31" s="172"/>
-      <c r="E31" s="172"/>
-      <c r="F31" s="172"/>
-      <c r="G31" s="172"/>
-      <c r="H31" s="166">
+      <c r="C31" s="187"/>
+      <c r="D31" s="190"/>
+      <c r="E31" s="190"/>
+      <c r="F31" s="190"/>
+      <c r="G31" s="190"/>
+      <c r="H31" s="151">
         <v>255</v>
       </c>
-      <c r="I31" s="166">
+      <c r="I31" s="151">
         <v>30</v>
       </c>
-      <c r="J31" s="167" t="s">
+      <c r="J31" s="152" t="s">
         <v>433</v>
       </c>
-      <c r="K31" s="168"/>
-      <c r="L31" s="169"/>
-      <c r="M31" s="170"/>
-      <c r="N31" s="160"/>
-      <c r="O31" s="161"/>
-      <c r="P31" s="162"/>
-      <c r="Q31" s="163"/>
-    </row>
-    <row r="32" spans="2:17" ht="20.25" thickBot="1">
-      <c r="B32" s="152">
+      <c r="K31" s="153"/>
+      <c r="L31" s="154"/>
+      <c r="M31" s="155"/>
+      <c r="N31" s="147"/>
+      <c r="O31" s="148"/>
+      <c r="P31" s="149"/>
+      <c r="Q31" s="150"/>
+    </row>
+    <row r="32" spans="2:17" ht="20.5" thickBot="1">
+      <c r="B32" s="139">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C32" s="171"/>
-      <c r="D32" s="172"/>
-      <c r="E32" s="172"/>
-      <c r="F32" s="172"/>
-      <c r="G32" s="172"/>
-      <c r="H32" s="166">
+      <c r="C32" s="187"/>
+      <c r="D32" s="190"/>
+      <c r="E32" s="190"/>
+      <c r="F32" s="190"/>
+      <c r="G32" s="190"/>
+      <c r="H32" s="151">
         <v>255</v>
       </c>
-      <c r="I32" s="166">
+      <c r="I32" s="151">
         <v>60</v>
       </c>
-      <c r="J32" s="167" t="s">
+      <c r="J32" s="152" t="s">
         <v>433</v>
       </c>
-      <c r="K32" s="168"/>
-      <c r="L32" s="169"/>
-      <c r="M32" s="170"/>
-      <c r="N32" s="160"/>
-      <c r="O32" s="161"/>
-      <c r="P32" s="162"/>
-      <c r="Q32" s="163"/>
-    </row>
-    <row r="33" spans="2:17" ht="20.25" thickBot="1">
-      <c r="B33" s="152">
+      <c r="K32" s="153"/>
+      <c r="L32" s="154"/>
+      <c r="M32" s="155"/>
+      <c r="N32" s="147"/>
+      <c r="O32" s="148"/>
+      <c r="P32" s="149"/>
+      <c r="Q32" s="150"/>
+    </row>
+    <row r="33" spans="2:17" ht="20.5" thickBot="1">
+      <c r="B33" s="139">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C33" s="171"/>
-      <c r="D33" s="172"/>
-      <c r="E33" s="172"/>
-      <c r="F33" s="172"/>
-      <c r="G33" s="172"/>
-      <c r="H33" s="166">
+      <c r="C33" s="187"/>
+      <c r="D33" s="190"/>
+      <c r="E33" s="190"/>
+      <c r="F33" s="190"/>
+      <c r="G33" s="190"/>
+      <c r="H33" s="151">
         <v>255</v>
       </c>
-      <c r="I33" s="166">
+      <c r="I33" s="151">
         <v>61</v>
       </c>
-      <c r="J33" s="167" t="s">
+      <c r="J33" s="152" t="s">
         <v>433</v>
       </c>
-      <c r="K33" s="168"/>
-      <c r="L33" s="169"/>
-      <c r="M33" s="170"/>
-      <c r="N33" s="160"/>
-      <c r="O33" s="161"/>
-      <c r="P33" s="162"/>
-      <c r="Q33" s="163"/>
-    </row>
-    <row r="34" spans="2:17" ht="20.25" thickBot="1">
-      <c r="B34" s="152">
+      <c r="K33" s="153"/>
+      <c r="L33" s="154"/>
+      <c r="M33" s="155"/>
+      <c r="N33" s="147"/>
+      <c r="O33" s="148"/>
+      <c r="P33" s="149"/>
+      <c r="Q33" s="150"/>
+    </row>
+    <row r="34" spans="2:17" ht="20.5" thickBot="1">
+      <c r="B34" s="139">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C34" s="173"/>
-      <c r="D34" s="174"/>
-      <c r="E34" s="174"/>
-      <c r="F34" s="174"/>
-      <c r="G34" s="174"/>
-      <c r="H34" s="166">
+      <c r="C34" s="188"/>
+      <c r="D34" s="191"/>
+      <c r="E34" s="191"/>
+      <c r="F34" s="191"/>
+      <c r="G34" s="191"/>
+      <c r="H34" s="151">
         <v>255</v>
       </c>
-      <c r="I34" s="166">
+      <c r="I34" s="151">
         <v>255</v>
       </c>
-      <c r="J34" s="167" t="s">
+      <c r="J34" s="152" t="s">
         <v>433</v>
       </c>
-      <c r="K34" s="175"/>
-      <c r="L34" s="176"/>
-      <c r="M34" s="177"/>
-      <c r="N34" s="160"/>
-      <c r="O34" s="161"/>
-      <c r="P34" s="162"/>
-      <c r="Q34" s="163"/>
-    </row>
-    <row r="35" spans="2:17" ht="20.25" thickBot="1">
-      <c r="B35" s="152">
+      <c r="K34" s="156"/>
+      <c r="L34" s="157"/>
+      <c r="M34" s="158"/>
+      <c r="N34" s="147"/>
+      <c r="O34" s="148"/>
+      <c r="P34" s="149"/>
+      <c r="Q34" s="150"/>
+    </row>
+    <row r="35" spans="2:17" ht="20.5" thickBot="1">
+      <c r="B35" s="139">
         <f>ROW(B35)-ROW($B$3)</f>
         <v>32</v>
       </c>
-      <c r="C35" s="164" t="s">
+      <c r="C35" s="186" t="s">
         <v>437</v>
       </c>
-      <c r="D35" s="165" t="s">
+      <c r="D35" s="189" t="s">
         <v>438</v>
       </c>
-      <c r="E35" s="165" t="s">
+      <c r="E35" s="189" t="s">
         <v>439</v>
       </c>
-      <c r="F35" s="165" t="s">
+      <c r="F35" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="G35" s="165" t="s">
+      <c r="G35" s="189" t="s">
         <v>441</v>
       </c>
-      <c r="H35" s="178" t="s">
+      <c r="H35" s="159" t="s">
         <v>442</v>
       </c>
-      <c r="I35" s="179" t="s">
+      <c r="I35" s="160" t="s">
         <v>427</v>
       </c>
-      <c r="J35" s="167" t="s">
+      <c r="J35" s="152" t="s">
         <v>443</v>
       </c>
-      <c r="K35" s="180"/>
-      <c r="L35" s="181"/>
-      <c r="M35" s="182"/>
-      <c r="N35" s="160"/>
-      <c r="O35" s="161"/>
-      <c r="P35" s="162"/>
-      <c r="Q35" s="163"/>
-    </row>
-    <row r="36" spans="2:17" ht="39.75" thickBot="1">
-      <c r="B36" s="152">
+      <c r="K35" s="161"/>
+      <c r="L35" s="162"/>
+      <c r="M35" s="163"/>
+      <c r="N35" s="147"/>
+      <c r="O35" s="148"/>
+      <c r="P35" s="149"/>
+      <c r="Q35" s="150"/>
+    </row>
+    <row r="36" spans="2:17" ht="40.5" thickBot="1">
+      <c r="B36" s="139">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C36" s="171"/>
-      <c r="D36" s="172"/>
-      <c r="E36" s="172"/>
-      <c r="F36" s="172"/>
-      <c r="G36" s="172"/>
-      <c r="H36" s="183" t="s">
+      <c r="C36" s="187"/>
+      <c r="D36" s="190"/>
+      <c r="E36" s="190"/>
+      <c r="F36" s="190"/>
+      <c r="G36" s="190"/>
+      <c r="H36" s="164" t="s">
         <v>444</v>
       </c>
-      <c r="I36" s="179" t="s">
+      <c r="I36" s="160" t="s">
         <v>427</v>
       </c>
-      <c r="J36" s="184" t="s">
-        <v>445</v>
-      </c>
-      <c r="K36" s="180"/>
-      <c r="L36" s="181"/>
-      <c r="M36" s="182"/>
-      <c r="N36" s="185"/>
-      <c r="O36" s="161"/>
-      <c r="P36" s="162"/>
-      <c r="Q36" s="163"/>
-    </row>
-    <row r="37" spans="2:17" ht="20.25" thickBot="1">
-      <c r="B37" s="152">
+      <c r="J36" s="165" t="s">
+        <v>446</v>
+      </c>
+      <c r="K36" s="161"/>
+      <c r="L36" s="162"/>
+      <c r="M36" s="163"/>
+      <c r="N36" s="166"/>
+      <c r="O36" s="148"/>
+      <c r="P36" s="149"/>
+      <c r="Q36" s="150"/>
+    </row>
+    <row r="37" spans="2:17" ht="20.5" thickBot="1">
+      <c r="B37" s="139">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C37" s="173"/>
-      <c r="D37" s="174"/>
-      <c r="E37" s="174"/>
-      <c r="F37" s="174"/>
-      <c r="G37" s="174"/>
-      <c r="H37" s="183" t="s">
+      <c r="C37" s="188"/>
+      <c r="D37" s="191"/>
+      <c r="E37" s="191"/>
+      <c r="F37" s="191"/>
+      <c r="G37" s="191"/>
+      <c r="H37" s="164" t="s">
         <v>309</v>
       </c>
-      <c r="I37" s="179" t="s">
+      <c r="I37" s="160" t="s">
         <v>427</v>
       </c>
-      <c r="J37" s="184" t="s">
-        <v>446</v>
-      </c>
-      <c r="K37" s="168"/>
-      <c r="L37" s="169"/>
-      <c r="M37" s="170"/>
-      <c r="N37" s="185"/>
-      <c r="O37" s="161"/>
-      <c r="P37" s="162"/>
-      <c r="Q37" s="163"/>
-    </row>
-    <row r="38" spans="2:17" ht="19.5">
-      <c r="B38" s="186"/>
-      <c r="C38" s="187"/>
-      <c r="D38" s="187"/>
-      <c r="E38" s="187"/>
-      <c r="F38" s="187"/>
-      <c r="G38" s="187"/>
-      <c r="H38" s="186"/>
-      <c r="I38" s="186"/>
-      <c r="J38" s="186"/>
-      <c r="K38" s="188"/>
-      <c r="L38" s="189"/>
-      <c r="M38" s="190"/>
-      <c r="N38" s="185"/>
-      <c r="O38" s="161"/>
-      <c r="P38" s="162"/>
-      <c r="Q38" s="163"/>
-    </row>
-    <row r="39" spans="2:17" ht="19.5">
-      <c r="B39" s="187"/>
-      <c r="C39" s="191"/>
-      <c r="D39" s="187"/>
-      <c r="E39" s="187"/>
-      <c r="F39" s="187"/>
-      <c r="G39" s="187"/>
-      <c r="H39" s="187"/>
-      <c r="I39" s="187"/>
-      <c r="J39" s="187"/>
-      <c r="K39" s="192"/>
-      <c r="L39" s="149">
-        <f>COUNTA(L4:L35)</f>
-        <v>0</v>
-      </c>
-      <c r="M39" s="193"/>
-      <c r="N39" s="185"/>
-      <c r="O39" s="161"/>
-      <c r="P39" s="162"/>
-      <c r="Q39" s="163"/>
-    </row>
-    <row r="40" spans="2:17" ht="39">
-      <c r="B40" s="187"/>
-      <c r="C40" s="191"/>
-      <c r="D40" s="187"/>
-      <c r="E40" s="187"/>
-      <c r="F40" s="187"/>
-      <c r="G40" s="187"/>
-      <c r="H40" s="187"/>
-      <c r="I40" s="187"/>
-      <c r="J40" s="187"/>
-      <c r="K40" s="192"/>
-      <c r="L40" s="194" t="s">
-        <v>447</v>
-      </c>
-      <c r="M40" s="193"/>
-      <c r="N40" s="185"/>
-      <c r="O40" s="161"/>
-      <c r="P40" s="162"/>
-      <c r="Q40" s="163"/>
-    </row>
-    <row r="41" spans="2:17" ht="19.5">
-      <c r="B41" s="187"/>
-      <c r="C41" s="191"/>
-      <c r="D41" s="187"/>
-      <c r="E41" s="187"/>
-      <c r="F41" s="187"/>
-      <c r="G41" s="187"/>
-      <c r="H41" s="187"/>
-      <c r="I41" s="187"/>
-      <c r="J41" s="187"/>
-      <c r="K41" s="192"/>
-      <c r="L41" s="194" t="s">
-        <v>448</v>
-      </c>
-      <c r="M41" s="193"/>
-      <c r="N41" s="185"/>
-      <c r="O41" s="161"/>
-      <c r="P41" s="162"/>
-      <c r="Q41" s="163"/>
-    </row>
-    <row r="42" spans="2:17" ht="19.5">
-      <c r="B42" s="187"/>
-      <c r="C42" s="191"/>
-      <c r="D42" s="187"/>
-      <c r="E42" s="187"/>
-      <c r="F42" s="187"/>
-      <c r="G42" s="187"/>
-      <c r="H42" s="187"/>
-      <c r="I42" s="187"/>
-      <c r="J42" s="187"/>
-      <c r="K42" s="192"/>
-      <c r="L42" s="194"/>
-      <c r="M42" s="193"/>
-      <c r="N42" s="185"/>
-      <c r="O42" s="161"/>
-      <c r="P42" s="162"/>
-      <c r="Q42" s="163"/>
-    </row>
-    <row r="43" spans="2:17" ht="19.5">
-      <c r="B43" s="187"/>
-      <c r="C43" s="191"/>
-      <c r="D43" s="187"/>
-      <c r="E43" s="187"/>
-      <c r="F43" s="187"/>
-      <c r="G43" s="187"/>
-      <c r="H43" s="187"/>
-      <c r="I43" s="187"/>
-      <c r="J43" s="187"/>
-      <c r="K43" s="192"/>
-      <c r="L43" s="194"/>
-      <c r="M43" s="193"/>
-      <c r="N43" s="185"/>
-      <c r="O43" s="161"/>
-      <c r="P43" s="162"/>
-      <c r="Q43" s="163"/>
-    </row>
-    <row r="44" spans="2:17" ht="19.5">
-      <c r="B44" s="187"/>
-      <c r="C44" s="193"/>
-      <c r="D44" s="193"/>
-      <c r="E44" s="193"/>
-      <c r="F44" s="193"/>
-      <c r="G44" s="193"/>
-      <c r="H44" s="193"/>
-      <c r="I44" s="193"/>
-      <c r="J44" s="193"/>
-      <c r="K44" s="192"/>
-      <c r="L44" s="194"/>
-      <c r="M44" s="193"/>
-      <c r="N44" s="185"/>
-      <c r="O44" s="161"/>
-      <c r="P44" s="162"/>
-      <c r="Q44" s="163"/>
-    </row>
-    <row r="45" spans="2:17" ht="19.5">
-      <c r="B45" s="187"/>
-      <c r="C45" s="193"/>
-      <c r="D45" s="193"/>
-      <c r="E45" s="193"/>
-      <c r="F45" s="193"/>
-      <c r="G45" s="193"/>
-      <c r="H45" s="193"/>
-      <c r="I45" s="193"/>
-      <c r="J45" s="193"/>
-      <c r="K45" s="192"/>
-      <c r="L45" s="194"/>
-      <c r="M45" s="193"/>
-      <c r="N45" s="185"/>
-      <c r="O45" s="161"/>
-      <c r="P45" s="162"/>
-      <c r="Q45" s="163"/>
-    </row>
-    <row r="46" spans="2:17" ht="19.5">
-      <c r="B46" s="187"/>
-      <c r="C46" s="193"/>
-      <c r="D46" s="193"/>
-      <c r="E46" s="193"/>
-      <c r="F46" s="193"/>
-      <c r="G46" s="193"/>
-      <c r="H46" s="193"/>
-      <c r="I46" s="193"/>
-      <c r="J46" s="193"/>
-      <c r="K46" s="192"/>
-      <c r="L46" s="194"/>
-      <c r="M46" s="193"/>
-      <c r="N46" s="185"/>
-      <c r="O46" s="161"/>
-      <c r="P46" s="162"/>
-      <c r="Q46" s="163"/>
-    </row>
-    <row r="47" spans="2:17" ht="19.5">
-      <c r="B47" s="187"/>
-      <c r="C47" s="193"/>
-      <c r="D47" s="193"/>
-      <c r="E47" s="193"/>
-      <c r="F47" s="193"/>
-      <c r="G47" s="193"/>
-      <c r="H47" s="193"/>
-      <c r="I47" s="193"/>
-      <c r="J47" s="193"/>
-      <c r="K47" s="192"/>
-      <c r="L47" s="194"/>
-      <c r="M47" s="193"/>
-      <c r="N47" s="185"/>
-      <c r="O47" s="161"/>
-      <c r="P47" s="162"/>
-      <c r="Q47" s="163"/>
-    </row>
-    <row r="48" spans="2:17" ht="19.5">
-      <c r="B48" s="187"/>
-      <c r="C48" s="193"/>
-      <c r="D48" s="187"/>
-      <c r="E48" s="187"/>
-      <c r="F48" s="187"/>
-      <c r="G48" s="187"/>
-      <c r="H48" s="187"/>
-      <c r="I48" s="187"/>
-      <c r="J48" s="187"/>
-      <c r="K48" s="192"/>
-      <c r="L48" s="194"/>
-      <c r="M48" s="193"/>
-      <c r="N48" s="185"/>
-      <c r="O48" s="161"/>
-      <c r="P48" s="162"/>
-      <c r="Q48" s="163"/>
-    </row>
-    <row r="49" spans="2:17" ht="19.5">
-      <c r="B49" s="187"/>
-      <c r="C49" s="193"/>
-      <c r="D49" s="193"/>
-      <c r="E49" s="193"/>
-      <c r="F49" s="193"/>
-      <c r="G49" s="193"/>
-      <c r="H49" s="193"/>
-      <c r="I49" s="193"/>
-      <c r="J49" s="187"/>
-      <c r="K49" s="192"/>
-      <c r="L49" s="194"/>
-      <c r="M49" s="193"/>
-      <c r="N49" s="185"/>
-      <c r="O49" s="161"/>
-      <c r="P49" s="162"/>
-      <c r="Q49" s="163"/>
-    </row>
-    <row r="50" spans="2:17" ht="19.5">
-      <c r="B50" s="187"/>
-      <c r="C50" s="193"/>
-      <c r="D50" s="193"/>
-      <c r="E50" s="193"/>
-      <c r="F50" s="193"/>
-      <c r="G50" s="193"/>
-      <c r="H50" s="193"/>
-      <c r="I50" s="193"/>
-      <c r="J50" s="187"/>
-      <c r="K50" s="192"/>
-      <c r="L50" s="194"/>
-      <c r="M50" s="193"/>
-      <c r="N50" s="185"/>
-      <c r="O50" s="161"/>
-      <c r="P50" s="162"/>
-      <c r="Q50" s="163"/>
-    </row>
-    <row r="51" spans="2:17" ht="19.5">
-      <c r="B51" s="187"/>
-      <c r="C51" s="193"/>
-      <c r="D51" s="193"/>
-      <c r="E51" s="193"/>
-      <c r="F51" s="193"/>
-      <c r="G51" s="193"/>
-      <c r="H51" s="193"/>
-      <c r="I51" s="193"/>
-      <c r="J51" s="193"/>
-      <c r="K51" s="192"/>
-      <c r="L51" s="194"/>
-      <c r="M51" s="193"/>
-      <c r="N51" s="185"/>
-      <c r="O51" s="161"/>
-      <c r="P51" s="162"/>
-      <c r="Q51" s="163"/>
-    </row>
-    <row r="52" spans="2:17" ht="19.5">
-      <c r="B52" s="187"/>
-      <c r="C52" s="187"/>
-      <c r="D52" s="187"/>
-      <c r="E52" s="187"/>
-      <c r="F52" s="187"/>
-      <c r="G52" s="187"/>
-      <c r="H52" s="187"/>
-      <c r="I52" s="187"/>
-      <c r="J52" s="187"/>
-      <c r="K52" s="192"/>
-      <c r="L52" s="195"/>
-      <c r="M52" s="187"/>
-      <c r="N52" s="185"/>
-      <c r="O52" s="161"/>
-      <c r="P52" s="162"/>
-      <c r="Q52" s="161"/>
-    </row>
-    <row r="53" spans="2:17" ht="19.5">
-      <c r="B53" s="187"/>
-      <c r="C53" s="191"/>
-      <c r="D53" s="187"/>
-      <c r="E53" s="187"/>
-      <c r="F53" s="187"/>
-      <c r="G53" s="187"/>
-      <c r="H53" s="187"/>
-      <c r="I53" s="187"/>
-      <c r="J53" s="187"/>
-      <c r="K53" s="192"/>
-      <c r="L53" s="195"/>
-      <c r="M53" s="193"/>
-      <c r="N53" s="185"/>
-      <c r="O53" s="161"/>
-      <c r="P53" s="162"/>
-      <c r="Q53" s="163"/>
-    </row>
-    <row r="54" spans="2:17" ht="19.5">
-      <c r="B54" s="187"/>
-      <c r="C54" s="191"/>
-      <c r="D54" s="187"/>
-      <c r="E54" s="187"/>
-      <c r="F54" s="187"/>
-      <c r="G54" s="187"/>
-      <c r="H54" s="187"/>
-      <c r="I54" s="187"/>
-      <c r="J54" s="187"/>
-      <c r="K54" s="192"/>
-      <c r="L54" s="195"/>
-      <c r="M54" s="193"/>
-      <c r="N54" s="185"/>
-      <c r="O54" s="161"/>
-      <c r="P54" s="162"/>
-      <c r="Q54" s="163"/>
-    </row>
-    <row r="55" spans="2:17" ht="19.5">
-      <c r="B55" s="187"/>
-      <c r="C55" s="191"/>
-      <c r="D55" s="187"/>
-      <c r="E55" s="187"/>
-      <c r="F55" s="187"/>
-      <c r="G55" s="187"/>
-      <c r="H55" s="187"/>
-      <c r="I55" s="187"/>
-      <c r="J55" s="193"/>
-      <c r="K55" s="192"/>
-      <c r="L55" s="195"/>
-      <c r="M55" s="193"/>
-      <c r="N55" s="185"/>
-      <c r="O55" s="161"/>
-      <c r="P55" s="162"/>
-      <c r="Q55" s="163"/>
-    </row>
-    <row r="56" spans="2:17" ht="19.5">
-      <c r="B56" s="187"/>
-      <c r="C56" s="191"/>
-      <c r="D56" s="187"/>
-      <c r="E56" s="187"/>
-      <c r="F56" s="187"/>
-      <c r="G56" s="187"/>
-      <c r="H56" s="187"/>
-      <c r="I56" s="187"/>
-      <c r="J56" s="187"/>
-      <c r="K56" s="192"/>
-      <c r="L56" s="194"/>
-      <c r="M56" s="193"/>
-      <c r="N56" s="185"/>
-      <c r="O56" s="161"/>
-      <c r="P56" s="162"/>
-      <c r="Q56" s="163"/>
-    </row>
-    <row r="57" spans="2:17" ht="19.5">
-      <c r="B57" s="187"/>
-      <c r="C57" s="191"/>
-      <c r="D57" s="187"/>
-      <c r="E57" s="187"/>
-      <c r="F57" s="187"/>
-      <c r="G57" s="187"/>
-      <c r="H57" s="187"/>
-      <c r="I57" s="187"/>
-      <c r="J57" s="187"/>
-      <c r="K57" s="192"/>
-      <c r="L57" s="194"/>
-      <c r="M57" s="193"/>
-      <c r="N57" s="185"/>
-      <c r="O57" s="161"/>
-      <c r="P57" s="162"/>
-      <c r="Q57" s="163"/>
-    </row>
-    <row r="58" spans="2:17" ht="19.5">
-      <c r="B58" s="187"/>
-      <c r="C58" s="191"/>
-      <c r="D58" s="187"/>
-      <c r="E58" s="187"/>
-      <c r="F58" s="187"/>
-      <c r="G58" s="187"/>
-      <c r="H58" s="187"/>
-      <c r="I58" s="187"/>
-      <c r="J58" s="187"/>
-      <c r="K58" s="192"/>
-      <c r="L58" s="194"/>
-      <c r="M58" s="193"/>
-      <c r="N58" s="185"/>
-      <c r="O58" s="161"/>
-      <c r="P58" s="162"/>
-      <c r="Q58" s="163"/>
-    </row>
-    <row r="59" spans="2:17" ht="19.5">
-      <c r="B59" s="187"/>
-      <c r="C59" s="191"/>
-      <c r="D59" s="187"/>
-      <c r="E59" s="187"/>
-      <c r="F59" s="187"/>
-      <c r="G59" s="187"/>
-      <c r="H59" s="187"/>
-      <c r="I59" s="187"/>
-      <c r="J59" s="187"/>
-      <c r="K59" s="192"/>
-      <c r="L59" s="194"/>
-      <c r="M59" s="193"/>
-      <c r="N59" s="185"/>
-      <c r="O59" s="161"/>
-      <c r="P59" s="162"/>
-      <c r="Q59" s="163"/>
-    </row>
-    <row r="60" spans="2:17" ht="19.5">
-      <c r="B60" s="187"/>
-      <c r="C60" s="191"/>
-      <c r="D60" s="187"/>
-      <c r="E60" s="187"/>
-      <c r="F60" s="187"/>
-      <c r="G60" s="187"/>
-      <c r="H60" s="187"/>
-      <c r="I60" s="187"/>
-      <c r="J60" s="187"/>
-      <c r="K60" s="192"/>
-      <c r="L60" s="194"/>
-      <c r="M60" s="193"/>
-      <c r="N60" s="185"/>
-      <c r="O60" s="161"/>
-      <c r="P60" s="162"/>
-      <c r="Q60" s="163"/>
-    </row>
-    <row r="61" spans="2:17" ht="19.5">
-      <c r="B61" s="187"/>
-      <c r="C61" s="191"/>
-      <c r="D61" s="187"/>
-      <c r="E61" s="187"/>
-      <c r="F61" s="187"/>
-      <c r="G61" s="187"/>
-      <c r="H61" s="187"/>
-      <c r="I61" s="187"/>
-      <c r="J61" s="187"/>
-      <c r="K61" s="192"/>
-      <c r="L61" s="194"/>
-      <c r="M61" s="193"/>
-      <c r="N61" s="185"/>
-      <c r="O61" s="161"/>
-      <c r="P61" s="162"/>
-      <c r="Q61" s="163"/>
-    </row>
-    <row r="62" spans="2:17" ht="19.5">
-      <c r="B62" s="187"/>
-      <c r="C62" s="191"/>
-      <c r="D62" s="187"/>
-      <c r="E62" s="187"/>
-      <c r="F62" s="187"/>
-      <c r="G62" s="187"/>
-      <c r="H62" s="187"/>
-      <c r="I62" s="187"/>
-      <c r="J62" s="187"/>
-      <c r="K62" s="192"/>
-      <c r="L62" s="194"/>
-      <c r="M62" s="193"/>
-      <c r="N62" s="185"/>
-      <c r="O62" s="161"/>
-      <c r="P62" s="162"/>
-      <c r="Q62" s="163"/>
-    </row>
-    <row r="63" spans="2:17" ht="19.5">
-      <c r="B63" s="187"/>
-      <c r="C63" s="191"/>
-      <c r="D63" s="187"/>
-      <c r="E63" s="187"/>
-      <c r="F63" s="187"/>
-      <c r="G63" s="187"/>
-      <c r="H63" s="187"/>
-      <c r="I63" s="187"/>
-      <c r="J63" s="187"/>
-      <c r="K63" s="192"/>
-      <c r="L63" s="194"/>
-      <c r="M63" s="193"/>
-      <c r="N63" s="185"/>
-      <c r="O63" s="161"/>
-      <c r="P63" s="162"/>
-      <c r="Q63" s="163"/>
-    </row>
-    <row r="64" spans="2:17" ht="19.5">
-      <c r="B64" s="187"/>
-      <c r="C64" s="191"/>
-      <c r="D64" s="187"/>
-      <c r="E64" s="187"/>
-      <c r="F64" s="187"/>
-      <c r="G64" s="187"/>
-      <c r="H64" s="187"/>
-      <c r="I64" s="187"/>
-      <c r="J64" s="187"/>
-      <c r="K64" s="192"/>
-      <c r="L64" s="194"/>
-      <c r="M64" s="193"/>
-      <c r="N64" s="185"/>
-      <c r="O64" s="161"/>
-      <c r="P64" s="162"/>
-      <c r="Q64" s="163"/>
-    </row>
-    <row r="65" spans="2:17" ht="19.5">
-      <c r="B65" s="187"/>
-      <c r="C65" s="191"/>
-      <c r="D65" s="187"/>
-      <c r="E65" s="187"/>
-      <c r="F65" s="187"/>
-      <c r="G65" s="187"/>
-      <c r="H65" s="187"/>
-      <c r="I65" s="187"/>
-      <c r="J65" s="187"/>
-      <c r="K65" s="192"/>
-      <c r="L65" s="194"/>
-      <c r="M65" s="193"/>
-      <c r="N65" s="185"/>
-      <c r="O65" s="161"/>
-      <c r="P65" s="162"/>
-      <c r="Q65" s="163"/>
-    </row>
-    <row r="66" spans="2:17" ht="19.5">
-      <c r="B66" s="187"/>
-      <c r="C66" s="191"/>
-      <c r="D66" s="187"/>
-      <c r="E66" s="187"/>
-      <c r="F66" s="187"/>
-      <c r="G66" s="187"/>
-      <c r="H66" s="187"/>
-      <c r="I66" s="187"/>
-      <c r="J66" s="187"/>
-      <c r="K66" s="192"/>
-      <c r="L66" s="194"/>
-      <c r="M66" s="193"/>
-      <c r="N66" s="185"/>
-      <c r="O66" s="161"/>
-      <c r="P66" s="162"/>
-      <c r="Q66" s="163"/>
-    </row>
-    <row r="67" spans="2:17" ht="19.5">
-      <c r="B67" s="187"/>
-      <c r="C67" s="191"/>
-      <c r="D67" s="187"/>
-      <c r="E67" s="187"/>
-      <c r="F67" s="187"/>
-      <c r="G67" s="187"/>
-      <c r="H67" s="187"/>
-      <c r="I67" s="187"/>
-      <c r="J67" s="187"/>
-      <c r="K67" s="192"/>
-      <c r="L67" s="194"/>
-      <c r="M67" s="193"/>
-      <c r="N67" s="185"/>
-      <c r="O67" s="161"/>
-      <c r="P67" s="162"/>
-      <c r="Q67" s="163"/>
-    </row>
-    <row r="68" spans="2:17" ht="19.5">
-      <c r="B68" s="187"/>
-      <c r="C68" s="191"/>
-      <c r="D68" s="187"/>
-      <c r="E68" s="187"/>
-      <c r="F68" s="187"/>
-      <c r="G68" s="187"/>
-      <c r="H68" s="187"/>
-      <c r="I68" s="187"/>
-      <c r="J68" s="187"/>
-      <c r="K68" s="192"/>
-      <c r="L68" s="194"/>
-      <c r="M68" s="193"/>
-      <c r="N68" s="185"/>
-      <c r="O68" s="161"/>
-      <c r="P68" s="162"/>
-      <c r="Q68" s="163"/>
-    </row>
-    <row r="69" spans="2:17" ht="19.5">
-      <c r="B69" s="187"/>
-      <c r="C69" s="191"/>
-      <c r="D69" s="187"/>
-      <c r="E69" s="187"/>
-      <c r="F69" s="187"/>
-      <c r="G69" s="187"/>
-      <c r="H69" s="187"/>
-      <c r="I69" s="187"/>
-      <c r="J69" s="187"/>
-      <c r="K69" s="192"/>
-      <c r="L69" s="194"/>
-      <c r="M69" s="193"/>
-      <c r="N69" s="185"/>
-      <c r="O69" s="161"/>
-      <c r="P69" s="162"/>
-      <c r="Q69" s="163"/>
-    </row>
-    <row r="70" spans="2:17" ht="19.5">
-      <c r="B70" s="187"/>
-      <c r="C70" s="191"/>
-      <c r="D70" s="187"/>
-      <c r="E70" s="187"/>
-      <c r="F70" s="187"/>
-      <c r="G70" s="187"/>
-      <c r="H70" s="187"/>
-      <c r="I70" s="187"/>
-      <c r="J70" s="187"/>
-      <c r="K70" s="192"/>
-      <c r="L70" s="194"/>
-      <c r="M70" s="193"/>
-      <c r="N70" s="185"/>
-      <c r="O70" s="161"/>
-      <c r="P70" s="162"/>
-      <c r="Q70" s="163"/>
-    </row>
-    <row r="71" spans="2:17" ht="19.5">
-      <c r="B71" s="187"/>
-      <c r="C71" s="191"/>
-      <c r="D71" s="187"/>
-      <c r="E71" s="187"/>
-      <c r="F71" s="187"/>
-      <c r="G71" s="187"/>
-      <c r="H71" s="187"/>
-      <c r="I71" s="187"/>
-      <c r="J71" s="187"/>
-      <c r="K71" s="192"/>
-      <c r="L71" s="194"/>
-      <c r="M71" s="193"/>
-      <c r="N71" s="185"/>
-      <c r="O71" s="161"/>
-      <c r="P71" s="162"/>
-      <c r="Q71" s="163"/>
-    </row>
-    <row r="72" spans="2:17" ht="19.5">
-      <c r="B72" s="187"/>
-      <c r="C72" s="191"/>
-      <c r="D72" s="187"/>
-      <c r="E72" s="187"/>
-      <c r="F72" s="187"/>
-      <c r="G72" s="187"/>
-      <c r="H72" s="187"/>
-      <c r="I72" s="187"/>
-      <c r="J72" s="187"/>
-      <c r="K72" s="192"/>
-      <c r="L72" s="194"/>
-      <c r="M72" s="193"/>
-      <c r="N72" s="185"/>
-      <c r="O72" s="161"/>
-      <c r="P72" s="162"/>
-      <c r="Q72" s="163"/>
-    </row>
-    <row r="73" spans="2:17" ht="19.5">
-      <c r="B73" s="187"/>
-      <c r="C73" s="191"/>
-      <c r="D73" s="187"/>
-      <c r="E73" s="187"/>
-      <c r="F73" s="187"/>
-      <c r="G73" s="187"/>
-      <c r="H73" s="187"/>
-      <c r="I73" s="187"/>
-      <c r="J73" s="187"/>
-      <c r="K73" s="192"/>
-      <c r="L73" s="194"/>
-      <c r="M73" s="193"/>
-      <c r="N73" s="185"/>
-      <c r="O73" s="161"/>
-      <c r="P73" s="162"/>
-      <c r="Q73" s="163"/>
-    </row>
-    <row r="74" spans="2:17" ht="19.5">
-      <c r="B74" s="187"/>
-      <c r="C74" s="191"/>
-      <c r="D74" s="187"/>
-      <c r="E74" s="187"/>
-      <c r="F74" s="187"/>
-      <c r="G74" s="187"/>
-      <c r="H74" s="187"/>
-      <c r="I74" s="187"/>
-      <c r="J74" s="187"/>
-      <c r="K74" s="192"/>
-      <c r="L74" s="194"/>
-      <c r="M74" s="193"/>
-      <c r="N74" s="185"/>
-      <c r="O74" s="161"/>
-      <c r="P74" s="162"/>
-      <c r="Q74" s="163"/>
-    </row>
-    <row r="75" spans="2:17" ht="19.5">
-      <c r="B75" s="187"/>
-      <c r="C75" s="191"/>
-      <c r="D75" s="187"/>
-      <c r="E75" s="187"/>
-      <c r="F75" s="187"/>
-      <c r="G75" s="187"/>
-      <c r="H75" s="187"/>
-      <c r="I75" s="187"/>
-      <c r="J75" s="187"/>
-      <c r="K75" s="192"/>
-      <c r="L75" s="194"/>
-      <c r="M75" s="193"/>
-      <c r="N75" s="185"/>
-      <c r="O75" s="161"/>
-      <c r="P75" s="162"/>
-      <c r="Q75" s="163"/>
-    </row>
-    <row r="76" spans="2:17" ht="19.5">
-      <c r="B76" s="187"/>
-      <c r="C76" s="191"/>
-      <c r="D76" s="187"/>
-      <c r="E76" s="187"/>
-      <c r="F76" s="187"/>
-      <c r="G76" s="187"/>
-      <c r="H76" s="187"/>
-      <c r="I76" s="187"/>
-      <c r="J76" s="187"/>
-      <c r="K76" s="192"/>
-      <c r="L76" s="194"/>
-      <c r="M76" s="193"/>
-      <c r="N76" s="185"/>
-      <c r="O76" s="161"/>
-      <c r="P76" s="162"/>
-      <c r="Q76" s="163"/>
-    </row>
-    <row r="77" spans="2:17" ht="19.5">
-      <c r="B77" s="187"/>
-      <c r="C77" s="191"/>
-      <c r="D77" s="187"/>
-      <c r="E77" s="187"/>
-      <c r="F77" s="187"/>
-      <c r="G77" s="187"/>
-      <c r="H77" s="187"/>
-      <c r="I77" s="187"/>
-      <c r="J77" s="187"/>
-      <c r="K77" s="192"/>
-      <c r="L77" s="194"/>
-      <c r="M77" s="193"/>
-      <c r="N77" s="185"/>
-      <c r="O77" s="161"/>
-      <c r="P77" s="162"/>
-      <c r="Q77" s="163"/>
-    </row>
-    <row r="78" spans="2:17" ht="19.5">
-      <c r="B78" s="187"/>
-      <c r="C78" s="191"/>
-      <c r="D78" s="187"/>
-      <c r="E78" s="187"/>
-      <c r="F78" s="187"/>
-      <c r="G78" s="187"/>
-      <c r="H78" s="187"/>
-      <c r="I78" s="187"/>
-      <c r="J78" s="187"/>
-      <c r="K78" s="192"/>
-      <c r="L78" s="194"/>
-      <c r="M78" s="193"/>
-      <c r="N78" s="185"/>
-      <c r="O78" s="161"/>
-      <c r="P78" s="162"/>
-      <c r="Q78" s="163"/>
-    </row>
-    <row r="79" spans="2:17" ht="19.5">
-      <c r="B79" s="187"/>
-      <c r="C79" s="191"/>
-      <c r="D79" s="187"/>
-      <c r="E79" s="187"/>
-      <c r="F79" s="187"/>
-      <c r="G79" s="187"/>
-      <c r="H79" s="187"/>
-      <c r="I79" s="187"/>
-      <c r="J79" s="187"/>
-      <c r="K79" s="192"/>
-      <c r="L79" s="194"/>
-      <c r="M79" s="193"/>
-      <c r="N79" s="185"/>
-      <c r="O79" s="161"/>
-      <c r="P79" s="162"/>
-      <c r="Q79" s="163"/>
-    </row>
-    <row r="80" spans="2:17" ht="19.5">
-      <c r="B80" s="187"/>
-      <c r="C80" s="191"/>
-      <c r="D80" s="187"/>
-      <c r="E80" s="187"/>
-      <c r="F80" s="187"/>
-      <c r="G80" s="187"/>
-      <c r="H80" s="187"/>
-      <c r="I80" s="187"/>
-      <c r="J80" s="187"/>
-      <c r="K80" s="192"/>
-      <c r="L80" s="194"/>
-      <c r="M80" s="193"/>
-      <c r="N80" s="185"/>
-      <c r="O80" s="161"/>
-      <c r="P80" s="162"/>
-      <c r="Q80" s="163"/>
-    </row>
-    <row r="81" spans="2:17" ht="19.5">
-      <c r="B81" s="187"/>
-      <c r="C81" s="191"/>
-      <c r="D81" s="187"/>
-      <c r="E81" s="187"/>
-      <c r="F81" s="187"/>
-      <c r="G81" s="187"/>
-      <c r="H81" s="187"/>
-      <c r="I81" s="187"/>
-      <c r="J81" s="187"/>
-      <c r="K81" s="192"/>
-      <c r="L81" s="194"/>
-      <c r="M81" s="193"/>
-      <c r="N81" s="185"/>
-      <c r="O81" s="161"/>
-      <c r="P81" s="162"/>
-      <c r="Q81" s="163"/>
-    </row>
-    <row r="82" spans="2:17" ht="19.5">
-      <c r="B82" s="187"/>
-      <c r="C82" s="191"/>
-      <c r="D82" s="187"/>
-      <c r="E82" s="187"/>
-      <c r="F82" s="187"/>
-      <c r="G82" s="187"/>
-      <c r="H82" s="187"/>
-      <c r="I82" s="187"/>
-      <c r="J82" s="187"/>
-      <c r="K82" s="192"/>
-      <c r="L82" s="194"/>
-      <c r="M82" s="193"/>
-      <c r="N82" s="185"/>
-      <c r="O82" s="161"/>
-      <c r="P82" s="162"/>
-      <c r="Q82" s="163"/>
-    </row>
-    <row r="83" spans="2:17" ht="19.5">
-      <c r="B83" s="187"/>
-      <c r="C83" s="191"/>
-      <c r="D83" s="187"/>
-      <c r="E83" s="187"/>
-      <c r="F83" s="187"/>
-      <c r="G83" s="187"/>
-      <c r="H83" s="187"/>
-      <c r="I83" s="187"/>
-      <c r="J83" s="187"/>
-      <c r="K83" s="192"/>
-      <c r="L83" s="194"/>
-      <c r="M83" s="193"/>
-      <c r="N83" s="185"/>
-      <c r="O83" s="161"/>
-      <c r="P83" s="162"/>
-      <c r="Q83" s="163"/>
-    </row>
-    <row r="84" spans="2:17" ht="19.5">
-      <c r="B84" s="187"/>
-      <c r="C84" s="191"/>
-      <c r="D84" s="187"/>
-      <c r="E84" s="187"/>
-      <c r="F84" s="187"/>
-      <c r="G84" s="187"/>
-      <c r="H84" s="187"/>
-      <c r="I84" s="187"/>
-      <c r="J84" s="187"/>
-      <c r="K84" s="192"/>
-      <c r="L84" s="194"/>
-      <c r="M84" s="193"/>
-      <c r="N84" s="185"/>
-      <c r="O84" s="161"/>
-      <c r="P84" s="162"/>
-      <c r="Q84" s="163"/>
-    </row>
-    <row r="85" spans="2:17" ht="19.5">
-      <c r="B85" s="187"/>
-      <c r="C85" s="191"/>
-      <c r="D85" s="187"/>
-      <c r="E85" s="187"/>
-      <c r="F85" s="187"/>
-      <c r="G85" s="187"/>
-      <c r="H85" s="187"/>
-      <c r="I85" s="187"/>
-      <c r="J85" s="187"/>
-      <c r="K85" s="192"/>
-      <c r="L85" s="194"/>
-      <c r="M85" s="193"/>
-      <c r="N85" s="185"/>
-      <c r="O85" s="161"/>
-      <c r="P85" s="162"/>
-      <c r="Q85" s="163"/>
-    </row>
-    <row r="86" spans="2:17" ht="19.5">
-      <c r="B86" s="187"/>
-      <c r="C86" s="191"/>
-      <c r="D86" s="187"/>
-      <c r="E86" s="187"/>
-      <c r="F86" s="187"/>
-      <c r="G86" s="187"/>
-      <c r="H86" s="187"/>
-      <c r="I86" s="187"/>
-      <c r="J86" s="187"/>
-      <c r="K86" s="192"/>
-      <c r="L86" s="194"/>
-      <c r="M86" s="193"/>
-      <c r="N86" s="185"/>
-      <c r="O86" s="161"/>
-      <c r="P86" s="162"/>
-      <c r="Q86" s="163"/>
-    </row>
-    <row r="87" spans="2:17" ht="19.5">
-      <c r="B87" s="187"/>
-      <c r="C87" s="191"/>
-      <c r="D87" s="187"/>
-      <c r="E87" s="187"/>
-      <c r="F87" s="187"/>
-      <c r="G87" s="187"/>
-      <c r="H87" s="187"/>
-      <c r="I87" s="187"/>
-      <c r="J87" s="187"/>
-      <c r="K87" s="192"/>
-      <c r="L87" s="194"/>
-      <c r="M87" s="193"/>
-      <c r="N87" s="185"/>
-      <c r="O87" s="161"/>
-      <c r="P87" s="162"/>
-      <c r="Q87" s="163"/>
-    </row>
-    <row r="88" spans="2:17" ht="19.5">
-      <c r="B88" s="187"/>
-      <c r="C88" s="191"/>
-      <c r="D88" s="187"/>
-      <c r="E88" s="187"/>
-      <c r="F88" s="187"/>
-      <c r="G88" s="187"/>
-      <c r="H88" s="187"/>
-      <c r="I88" s="187"/>
-      <c r="J88" s="187"/>
-      <c r="K88" s="192"/>
-      <c r="L88" s="194"/>
-      <c r="M88" s="193"/>
-      <c r="N88" s="185"/>
-      <c r="O88" s="161"/>
-      <c r="P88" s="162"/>
-      <c r="Q88" s="163"/>
-    </row>
-    <row r="89" spans="2:17" ht="19.5">
-      <c r="B89" s="187"/>
-      <c r="C89" s="191"/>
-      <c r="D89" s="187"/>
-      <c r="E89" s="187"/>
-      <c r="F89" s="187"/>
-      <c r="G89" s="187"/>
-      <c r="H89" s="187"/>
-      <c r="I89" s="187"/>
-      <c r="J89" s="187"/>
-      <c r="K89" s="192"/>
-      <c r="L89" s="194"/>
-      <c r="M89" s="193"/>
-      <c r="N89" s="185"/>
-      <c r="O89" s="161"/>
-      <c r="P89" s="162"/>
-      <c r="Q89" s="163"/>
-    </row>
-    <row r="90" spans="2:17" ht="19.5">
-      <c r="B90" s="187"/>
-      <c r="C90" s="191"/>
-      <c r="D90" s="187"/>
-      <c r="E90" s="187"/>
-      <c r="F90" s="187"/>
-      <c r="G90" s="187"/>
-      <c r="H90" s="187"/>
-      <c r="I90" s="187"/>
-      <c r="J90" s="187"/>
-      <c r="K90" s="192"/>
-      <c r="L90" s="194"/>
-      <c r="M90" s="193"/>
-      <c r="N90" s="185"/>
-      <c r="O90" s="161"/>
-      <c r="P90" s="162"/>
-      <c r="Q90" s="163"/>
-    </row>
-    <row r="91" spans="2:17" ht="19.5">
-      <c r="B91" s="187"/>
-      <c r="C91" s="191"/>
-      <c r="D91" s="187"/>
-      <c r="E91" s="187"/>
-      <c r="F91" s="187"/>
-      <c r="G91" s="187"/>
-      <c r="H91" s="187"/>
-      <c r="I91" s="187"/>
-      <c r="J91" s="187"/>
-      <c r="K91" s="192"/>
-      <c r="L91" s="194"/>
-      <c r="M91" s="193"/>
-      <c r="N91" s="185"/>
-      <c r="O91" s="161"/>
-      <c r="P91" s="162"/>
-      <c r="Q91" s="163"/>
-    </row>
-    <row r="92" spans="2:17" ht="19.5">
-      <c r="B92" s="187"/>
-      <c r="C92" s="191"/>
-      <c r="D92" s="187"/>
-      <c r="E92" s="187"/>
-      <c r="F92" s="187"/>
-      <c r="G92" s="187"/>
-      <c r="H92" s="187"/>
-      <c r="I92" s="187"/>
-      <c r="J92" s="187"/>
-      <c r="K92" s="192"/>
-      <c r="L92" s="194"/>
-      <c r="M92" s="193"/>
-      <c r="N92" s="185"/>
-      <c r="O92" s="161"/>
-      <c r="P92" s="162"/>
-      <c r="Q92" s="163"/>
-    </row>
-    <row r="93" spans="2:17" ht="19.5">
-      <c r="B93" s="187"/>
-      <c r="C93" s="191"/>
-      <c r="D93" s="187"/>
-      <c r="E93" s="187"/>
-      <c r="F93" s="187"/>
-      <c r="G93" s="187"/>
-      <c r="H93" s="187"/>
-      <c r="I93" s="187"/>
-      <c r="J93" s="187"/>
-      <c r="K93" s="192"/>
-      <c r="L93" s="194"/>
-      <c r="M93" s="193"/>
-      <c r="N93" s="185"/>
-      <c r="O93" s="161"/>
-      <c r="P93" s="162"/>
-      <c r="Q93" s="163"/>
-    </row>
-    <row r="94" spans="2:17" ht="19.5">
-      <c r="B94" s="187"/>
-      <c r="C94" s="191"/>
-      <c r="D94" s="187"/>
-      <c r="E94" s="187"/>
-      <c r="F94" s="187"/>
-      <c r="G94" s="187"/>
-      <c r="H94" s="187"/>
-      <c r="I94" s="187"/>
-      <c r="J94" s="187"/>
-      <c r="K94" s="192"/>
-      <c r="L94" s="194"/>
-      <c r="M94" s="193"/>
-      <c r="N94" s="185"/>
-      <c r="O94" s="161"/>
-      <c r="P94" s="162"/>
-      <c r="Q94" s="163"/>
-    </row>
-    <row r="95" spans="2:17" ht="19.5">
-      <c r="B95" s="187"/>
-      <c r="C95" s="187"/>
-      <c r="D95" s="187"/>
-      <c r="E95" s="187"/>
-      <c r="F95" s="187"/>
-      <c r="G95" s="187"/>
-      <c r="H95" s="187"/>
-      <c r="I95" s="187"/>
-      <c r="J95" s="187"/>
-      <c r="K95" s="192"/>
-      <c r="L95" s="194"/>
-      <c r="M95" s="193"/>
-      <c r="N95" s="185"/>
-      <c r="O95" s="161"/>
-      <c r="P95" s="162"/>
-      <c r="Q95" s="163"/>
-    </row>
-    <row r="96" spans="2:17" ht="19.5">
-      <c r="B96" s="187"/>
-      <c r="C96" s="191"/>
-      <c r="D96" s="187"/>
-      <c r="E96" s="187"/>
-      <c r="F96" s="187"/>
-      <c r="G96" s="187"/>
-      <c r="H96" s="187"/>
-      <c r="I96" s="187"/>
-      <c r="J96" s="187"/>
-      <c r="K96" s="192"/>
-      <c r="L96" s="194"/>
-      <c r="M96" s="193"/>
-      <c r="N96" s="185"/>
-      <c r="O96" s="161"/>
-      <c r="P96" s="162"/>
-      <c r="Q96" s="163"/>
-    </row>
-    <row r="97" spans="2:17" ht="19.5">
-      <c r="B97" s="187"/>
-      <c r="C97" s="191"/>
-      <c r="D97" s="187"/>
-      <c r="E97" s="187"/>
-      <c r="F97" s="187"/>
-      <c r="G97" s="187"/>
-      <c r="H97" s="187"/>
-      <c r="I97" s="187"/>
-      <c r="J97" s="187"/>
-      <c r="K97" s="192"/>
-      <c r="L97" s="194"/>
-      <c r="M97" s="193"/>
-      <c r="N97" s="185"/>
-      <c r="O97" s="161"/>
-      <c r="P97" s="162"/>
-      <c r="Q97" s="163"/>
-    </row>
-    <row r="98" spans="2:17" ht="19.5">
-      <c r="B98" s="187"/>
-      <c r="C98" s="187"/>
-      <c r="D98" s="187"/>
-      <c r="E98" s="187"/>
-      <c r="F98" s="187"/>
-      <c r="G98" s="187"/>
-      <c r="H98" s="187"/>
-      <c r="I98" s="187"/>
-      <c r="J98" s="187"/>
-      <c r="K98" s="192"/>
-      <c r="L98" s="194"/>
-      <c r="M98" s="193"/>
-      <c r="N98" s="185"/>
-      <c r="O98" s="161"/>
-      <c r="P98" s="162"/>
-      <c r="Q98" s="163"/>
-    </row>
-    <row r="99" spans="2:17" ht="19.5">
-      <c r="B99" s="187"/>
-      <c r="C99" s="191"/>
-      <c r="D99" s="187"/>
-      <c r="E99" s="187"/>
-      <c r="F99" s="187"/>
-      <c r="G99" s="187"/>
-      <c r="H99" s="187"/>
-      <c r="I99" s="187"/>
-      <c r="J99" s="187"/>
-      <c r="K99" s="192"/>
-      <c r="L99" s="194"/>
-      <c r="M99" s="193"/>
-      <c r="N99" s="185"/>
-      <c r="O99" s="161"/>
-      <c r="P99" s="162"/>
-      <c r="Q99" s="163"/>
-    </row>
-    <row r="100" spans="2:17" ht="19.5">
-      <c r="B100" s="187"/>
-      <c r="C100" s="191"/>
-      <c r="D100" s="187"/>
-      <c r="E100" s="187"/>
-      <c r="F100" s="187"/>
-      <c r="G100" s="187"/>
-      <c r="H100" s="187"/>
-      <c r="I100" s="187"/>
-      <c r="J100" s="187"/>
-      <c r="K100" s="192"/>
-      <c r="L100" s="194"/>
-      <c r="M100" s="193"/>
-      <c r="N100" s="185"/>
-      <c r="O100" s="161"/>
-      <c r="P100" s="162"/>
-      <c r="Q100" s="163"/>
-    </row>
-    <row r="101" spans="2:17" ht="19.5">
-      <c r="B101" s="187"/>
-      <c r="C101" s="191"/>
-      <c r="D101" s="187"/>
-      <c r="E101" s="187"/>
-      <c r="F101" s="187"/>
-      <c r="G101" s="187"/>
-      <c r="H101" s="187"/>
-      <c r="I101" s="187"/>
-      <c r="J101" s="187"/>
-      <c r="K101" s="192"/>
-      <c r="L101" s="194"/>
-      <c r="M101" s="193"/>
-      <c r="N101" s="185"/>
-      <c r="O101" s="161"/>
-      <c r="P101" s="162"/>
-      <c r="Q101" s="163"/>
-    </row>
-    <row r="102" spans="2:17" ht="20.25" thickBot="1">
-      <c r="B102" s="187"/>
-      <c r="C102" s="191"/>
-      <c r="D102" s="187"/>
-      <c r="E102" s="187"/>
-      <c r="F102" s="187"/>
-      <c r="G102" s="187"/>
-      <c r="H102" s="187"/>
-      <c r="I102" s="187"/>
-      <c r="J102" s="187"/>
-      <c r="K102" s="192"/>
-      <c r="L102" s="194"/>
-      <c r="M102" s="193"/>
-      <c r="N102" s="196"/>
-      <c r="O102" s="197"/>
-      <c r="P102" s="158"/>
-      <c r="Q102" s="159"/>
-    </row>
-    <row r="104" spans="2:17" ht="24">
-      <c r="B104" s="198"/>
-      <c r="C104" s="198"/>
-      <c r="J104" s="199"/>
-      <c r="O104" s="200" t="s">
+      <c r="J37" s="165" t="s">
+        <v>445</v>
+      </c>
+      <c r="K37" s="153"/>
+      <c r="L37" s="154"/>
+      <c r="M37" s="155"/>
+      <c r="N37" s="166"/>
+      <c r="O37" s="148"/>
+      <c r="P37" s="149"/>
+      <c r="Q37" s="150"/>
+    </row>
+    <row r="38" spans="2:17" ht="20">
+      <c r="B38" s="167"/>
+      <c r="C38" s="168"/>
+      <c r="D38" s="168"/>
+      <c r="E38" s="168"/>
+      <c r="F38" s="168"/>
+      <c r="G38" s="168"/>
+      <c r="H38" s="167"/>
+      <c r="I38" s="167"/>
+      <c r="J38" s="167"/>
+      <c r="K38" s="169"/>
+      <c r="L38" s="170"/>
+      <c r="M38" s="171"/>
+      <c r="N38" s="166"/>
+      <c r="O38" s="148"/>
+      <c r="P38" s="149"/>
+      <c r="Q38" s="150"/>
+    </row>
+    <row r="39" spans="2:17" ht="20">
+      <c r="B39" s="168"/>
+      <c r="C39" s="172"/>
+      <c r="D39" s="168"/>
+      <c r="E39" s="168"/>
+      <c r="F39" s="168"/>
+      <c r="G39" s="168"/>
+      <c r="H39" s="168"/>
+      <c r="I39" s="168"/>
+      <c r="J39" s="168"/>
+      <c r="K39" s="173"/>
+      <c r="M39" s="174"/>
+      <c r="N39" s="166"/>
+      <c r="O39" s="148"/>
+      <c r="P39" s="149"/>
+      <c r="Q39" s="150"/>
+    </row>
+    <row r="40" spans="2:17" ht="20">
+      <c r="B40" s="168"/>
+      <c r="C40" s="172"/>
+      <c r="D40" s="168"/>
+      <c r="E40" s="168"/>
+      <c r="F40" s="168"/>
+      <c r="G40" s="168"/>
+      <c r="H40" s="168"/>
+      <c r="I40" s="168"/>
+      <c r="J40" s="168"/>
+      <c r="K40" s="173"/>
+      <c r="L40" s="175"/>
+      <c r="M40" s="174"/>
+      <c r="N40" s="166"/>
+      <c r="O40" s="148"/>
+      <c r="P40" s="149"/>
+      <c r="Q40" s="150"/>
+    </row>
+    <row r="41" spans="2:17" ht="20">
+      <c r="B41" s="168"/>
+      <c r="C41" s="172"/>
+      <c r="D41" s="168"/>
+      <c r="E41" s="168"/>
+      <c r="F41" s="168"/>
+      <c r="G41" s="168"/>
+      <c r="H41" s="168"/>
+      <c r="I41" s="168"/>
+      <c r="J41" s="168"/>
+      <c r="K41" s="173"/>
+      <c r="L41" s="175"/>
+      <c r="M41" s="174"/>
+      <c r="N41" s="166"/>
+      <c r="O41" s="148"/>
+      <c r="P41" s="149"/>
+      <c r="Q41" s="150"/>
+    </row>
+    <row r="42" spans="2:17" ht="20">
+      <c r="B42" s="168"/>
+      <c r="C42" s="172"/>
+      <c r="D42" s="168"/>
+      <c r="E42" s="168"/>
+      <c r="F42" s="168"/>
+      <c r="G42" s="168"/>
+      <c r="H42" s="168"/>
+      <c r="I42" s="168"/>
+      <c r="J42" s="168"/>
+      <c r="K42" s="173"/>
+      <c r="L42" s="175"/>
+      <c r="M42" s="174"/>
+      <c r="N42" s="166"/>
+      <c r="O42" s="148"/>
+      <c r="P42" s="149"/>
+      <c r="Q42" s="150"/>
+    </row>
+    <row r="43" spans="2:17" ht="20">
+      <c r="B43" s="168"/>
+      <c r="C43" s="172"/>
+      <c r="D43" s="168"/>
+      <c r="E43" s="168"/>
+      <c r="F43" s="168"/>
+      <c r="G43" s="168"/>
+      <c r="H43" s="168"/>
+      <c r="I43" s="168"/>
+      <c r="J43" s="168"/>
+      <c r="K43" s="173"/>
+      <c r="L43" s="175"/>
+      <c r="M43" s="174"/>
+      <c r="N43" s="166"/>
+      <c r="O43" s="148"/>
+      <c r="P43" s="149"/>
+      <c r="Q43" s="150"/>
+    </row>
+    <row r="44" spans="2:17" ht="20">
+      <c r="B44" s="168"/>
+      <c r="C44" s="174"/>
+      <c r="D44" s="174"/>
+      <c r="E44" s="174"/>
+      <c r="F44" s="174"/>
+      <c r="G44" s="174"/>
+      <c r="H44" s="174"/>
+      <c r="I44" s="174"/>
+      <c r="J44" s="174"/>
+      <c r="K44" s="173"/>
+      <c r="L44" s="175"/>
+      <c r="M44" s="174"/>
+      <c r="N44" s="166"/>
+      <c r="O44" s="148"/>
+      <c r="P44" s="149"/>
+      <c r="Q44" s="150"/>
+    </row>
+    <row r="45" spans="2:17" ht="20">
+      <c r="B45" s="168"/>
+      <c r="C45" s="174"/>
+      <c r="D45" s="174"/>
+      <c r="E45" s="174"/>
+      <c r="F45" s="174"/>
+      <c r="G45" s="174"/>
+      <c r="H45" s="174"/>
+      <c r="I45" s="174"/>
+      <c r="J45" s="174"/>
+      <c r="K45" s="173"/>
+      <c r="L45" s="175"/>
+      <c r="M45" s="174"/>
+      <c r="N45" s="166"/>
+      <c r="O45" s="148"/>
+      <c r="P45" s="149"/>
+      <c r="Q45" s="150"/>
+    </row>
+    <row r="46" spans="2:17" ht="20">
+      <c r="B46" s="168"/>
+      <c r="C46" s="174"/>
+      <c r="D46" s="174"/>
+      <c r="E46" s="174"/>
+      <c r="F46" s="174"/>
+      <c r="G46" s="174"/>
+      <c r="H46" s="174"/>
+      <c r="I46" s="174"/>
+      <c r="J46" s="174"/>
+      <c r="K46" s="173"/>
+      <c r="L46" s="175"/>
+      <c r="M46" s="174"/>
+      <c r="N46" s="166"/>
+      <c r="O46" s="148"/>
+      <c r="P46" s="149"/>
+      <c r="Q46" s="150"/>
+    </row>
+    <row r="47" spans="2:17" ht="20">
+      <c r="B47" s="168"/>
+      <c r="C47" s="174"/>
+      <c r="D47" s="174"/>
+      <c r="E47" s="174"/>
+      <c r="F47" s="174"/>
+      <c r="G47" s="174"/>
+      <c r="H47" s="174"/>
+      <c r="I47" s="174"/>
+      <c r="J47" s="174"/>
+      <c r="K47" s="173"/>
+      <c r="L47" s="175"/>
+      <c r="M47" s="174"/>
+      <c r="N47" s="166"/>
+      <c r="O47" s="148"/>
+      <c r="P47" s="149"/>
+      <c r="Q47" s="150"/>
+    </row>
+    <row r="48" spans="2:17" ht="20">
+      <c r="B48" s="168"/>
+      <c r="C48" s="174"/>
+      <c r="D48" s="168"/>
+      <c r="E48" s="168"/>
+      <c r="F48" s="168"/>
+      <c r="G48" s="168"/>
+      <c r="H48" s="168"/>
+      <c r="I48" s="168"/>
+      <c r="J48" s="168"/>
+      <c r="K48" s="173"/>
+      <c r="L48" s="175"/>
+      <c r="M48" s="174"/>
+      <c r="N48" s="166"/>
+      <c r="O48" s="148"/>
+      <c r="P48" s="149"/>
+      <c r="Q48" s="150"/>
+    </row>
+    <row r="49" spans="2:17" ht="20">
+      <c r="B49" s="168"/>
+      <c r="C49" s="174"/>
+      <c r="D49" s="174"/>
+      <c r="E49" s="174"/>
+      <c r="F49" s="174"/>
+      <c r="G49" s="174"/>
+      <c r="H49" s="174"/>
+      <c r="I49" s="174"/>
+      <c r="J49" s="168"/>
+      <c r="K49" s="173"/>
+      <c r="L49" s="175"/>
+      <c r="M49" s="174"/>
+      <c r="N49" s="166"/>
+      <c r="O49" s="148"/>
+      <c r="P49" s="149"/>
+      <c r="Q49" s="150"/>
+    </row>
+    <row r="50" spans="2:17" ht="20">
+      <c r="B50" s="168"/>
+      <c r="C50" s="174"/>
+      <c r="D50" s="174"/>
+      <c r="E50" s="174"/>
+      <c r="F50" s="174"/>
+      <c r="G50" s="174"/>
+      <c r="H50" s="174"/>
+      <c r="I50" s="174"/>
+      <c r="J50" s="168"/>
+      <c r="K50" s="173"/>
+      <c r="L50" s="175"/>
+      <c r="M50" s="174"/>
+      <c r="N50" s="166"/>
+      <c r="O50" s="148"/>
+      <c r="P50" s="149"/>
+      <c r="Q50" s="150"/>
+    </row>
+    <row r="51" spans="2:17" ht="20">
+      <c r="B51" s="168"/>
+      <c r="C51" s="174"/>
+      <c r="D51" s="174"/>
+      <c r="E51" s="174"/>
+      <c r="F51" s="174"/>
+      <c r="G51" s="174"/>
+      <c r="H51" s="174"/>
+      <c r="I51" s="174"/>
+      <c r="J51" s="174"/>
+      <c r="K51" s="173"/>
+      <c r="L51" s="175"/>
+      <c r="M51" s="174"/>
+      <c r="N51" s="166"/>
+      <c r="O51" s="148"/>
+      <c r="P51" s="149"/>
+      <c r="Q51" s="150"/>
+    </row>
+    <row r="52" spans="2:17" ht="20">
+      <c r="B52" s="168"/>
+      <c r="C52" s="168"/>
+      <c r="D52" s="168"/>
+      <c r="E52" s="168"/>
+      <c r="F52" s="168"/>
+      <c r="G52" s="168"/>
+      <c r="H52" s="168"/>
+      <c r="I52" s="168"/>
+      <c r="J52" s="168"/>
+      <c r="K52" s="173"/>
+      <c r="L52" s="176"/>
+      <c r="M52" s="168"/>
+      <c r="N52" s="166"/>
+      <c r="O52" s="148"/>
+      <c r="P52" s="149"/>
+      <c r="Q52" s="148"/>
+    </row>
+    <row r="53" spans="2:17" ht="20">
+      <c r="B53" s="168"/>
+      <c r="C53" s="172"/>
+      <c r="D53" s="168"/>
+      <c r="E53" s="168"/>
+      <c r="F53" s="168"/>
+      <c r="G53" s="168"/>
+      <c r="H53" s="168"/>
+      <c r="I53" s="168"/>
+      <c r="J53" s="168"/>
+      <c r="K53" s="173"/>
+      <c r="L53" s="176"/>
+      <c r="M53" s="174"/>
+      <c r="N53" s="166"/>
+      <c r="O53" s="148"/>
+      <c r="P53" s="149"/>
+      <c r="Q53" s="150"/>
+    </row>
+    <row r="54" spans="2:17" ht="20">
+      <c r="B54" s="168"/>
+      <c r="C54" s="172"/>
+      <c r="D54" s="168"/>
+      <c r="E54" s="168"/>
+      <c r="F54" s="168"/>
+      <c r="G54" s="168"/>
+      <c r="H54" s="168"/>
+      <c r="I54" s="168"/>
+      <c r="J54" s="168"/>
+      <c r="K54" s="173"/>
+      <c r="L54" s="176"/>
+      <c r="M54" s="174"/>
+      <c r="N54" s="166"/>
+      <c r="O54" s="148"/>
+      <c r="P54" s="149"/>
+      <c r="Q54" s="150"/>
+    </row>
+    <row r="55" spans="2:17" ht="20">
+      <c r="B55" s="168"/>
+      <c r="C55" s="172"/>
+      <c r="D55" s="168"/>
+      <c r="E55" s="168"/>
+      <c r="F55" s="168"/>
+      <c r="G55" s="168"/>
+      <c r="H55" s="168"/>
+      <c r="I55" s="168"/>
+      <c r="J55" s="174"/>
+      <c r="K55" s="173"/>
+      <c r="L55" s="176"/>
+      <c r="M55" s="174"/>
+      <c r="N55" s="166"/>
+      <c r="O55" s="148"/>
+      <c r="P55" s="149"/>
+      <c r="Q55" s="150"/>
+    </row>
+    <row r="56" spans="2:17" ht="20">
+      <c r="B56" s="168"/>
+      <c r="C56" s="172"/>
+      <c r="D56" s="168"/>
+      <c r="E56" s="168"/>
+      <c r="F56" s="168"/>
+      <c r="G56" s="168"/>
+      <c r="H56" s="168"/>
+      <c r="I56" s="168"/>
+      <c r="J56" s="168"/>
+      <c r="K56" s="173"/>
+      <c r="L56" s="175"/>
+      <c r="M56" s="174"/>
+      <c r="N56" s="166"/>
+      <c r="O56" s="148"/>
+      <c r="P56" s="149"/>
+      <c r="Q56" s="150"/>
+    </row>
+    <row r="57" spans="2:17" ht="20">
+      <c r="B57" s="168"/>
+      <c r="C57" s="172"/>
+      <c r="D57" s="168"/>
+      <c r="E57" s="168"/>
+      <c r="F57" s="168"/>
+      <c r="G57" s="168"/>
+      <c r="H57" s="168"/>
+      <c r="I57" s="168"/>
+      <c r="J57" s="168"/>
+      <c r="K57" s="173"/>
+      <c r="L57" s="175"/>
+      <c r="M57" s="174"/>
+      <c r="N57" s="166"/>
+      <c r="O57" s="148"/>
+      <c r="P57" s="149"/>
+      <c r="Q57" s="150"/>
+    </row>
+    <row r="58" spans="2:17" ht="20">
+      <c r="B58" s="168"/>
+      <c r="C58" s="172"/>
+      <c r="D58" s="168"/>
+      <c r="E58" s="168"/>
+      <c r="F58" s="168"/>
+      <c r="G58" s="168"/>
+      <c r="H58" s="168"/>
+      <c r="I58" s="168"/>
+      <c r="J58" s="168"/>
+      <c r="K58" s="173"/>
+      <c r="L58" s="175"/>
+      <c r="M58" s="174"/>
+      <c r="N58" s="166"/>
+      <c r="O58" s="148"/>
+      <c r="P58" s="149"/>
+      <c r="Q58" s="150"/>
+    </row>
+    <row r="59" spans="2:17" ht="20">
+      <c r="B59" s="168"/>
+      <c r="C59" s="172"/>
+      <c r="D59" s="168"/>
+      <c r="E59" s="168"/>
+      <c r="F59" s="168"/>
+      <c r="G59" s="168"/>
+      <c r="H59" s="168"/>
+      <c r="I59" s="168"/>
+      <c r="J59" s="168"/>
+      <c r="K59" s="173"/>
+      <c r="L59" s="175"/>
+      <c r="M59" s="174"/>
+      <c r="N59" s="166"/>
+      <c r="O59" s="148"/>
+      <c r="P59" s="149"/>
+      <c r="Q59" s="150"/>
+    </row>
+    <row r="60" spans="2:17" ht="20">
+      <c r="B60" s="168"/>
+      <c r="C60" s="172"/>
+      <c r="D60" s="168"/>
+      <c r="E60" s="168"/>
+      <c r="F60" s="168"/>
+      <c r="G60" s="168"/>
+      <c r="H60" s="168"/>
+      <c r="I60" s="168"/>
+      <c r="J60" s="168"/>
+      <c r="K60" s="173"/>
+      <c r="L60" s="175"/>
+      <c r="M60" s="174"/>
+      <c r="N60" s="166"/>
+      <c r="O60" s="148"/>
+      <c r="P60" s="149"/>
+      <c r="Q60" s="150"/>
+    </row>
+    <row r="61" spans="2:17" ht="20">
+      <c r="B61" s="168"/>
+      <c r="C61" s="172"/>
+      <c r="D61" s="168"/>
+      <c r="E61" s="168"/>
+      <c r="F61" s="168"/>
+      <c r="G61" s="168"/>
+      <c r="H61" s="168"/>
+      <c r="I61" s="168"/>
+      <c r="J61" s="168"/>
+      <c r="K61" s="173"/>
+      <c r="L61" s="175"/>
+      <c r="M61" s="174"/>
+      <c r="N61" s="166"/>
+      <c r="O61" s="148"/>
+      <c r="P61" s="149"/>
+      <c r="Q61" s="150"/>
+    </row>
+    <row r="62" spans="2:17" ht="20">
+      <c r="B62" s="168"/>
+      <c r="C62" s="172"/>
+      <c r="D62" s="168"/>
+      <c r="E62" s="168"/>
+      <c r="F62" s="168"/>
+      <c r="G62" s="168"/>
+      <c r="H62" s="168"/>
+      <c r="I62" s="168"/>
+      <c r="J62" s="168"/>
+      <c r="K62" s="173"/>
+      <c r="L62" s="175"/>
+      <c r="M62" s="174"/>
+      <c r="N62" s="166"/>
+      <c r="O62" s="148"/>
+      <c r="P62" s="149"/>
+      <c r="Q62" s="150"/>
+    </row>
+    <row r="63" spans="2:17" ht="20">
+      <c r="B63" s="168"/>
+      <c r="C63" s="172"/>
+      <c r="D63" s="168"/>
+      <c r="E63" s="168"/>
+      <c r="F63" s="168"/>
+      <c r="G63" s="168"/>
+      <c r="H63" s="168"/>
+      <c r="I63" s="168"/>
+      <c r="J63" s="168"/>
+      <c r="K63" s="173"/>
+      <c r="L63" s="175"/>
+      <c r="M63" s="174"/>
+      <c r="N63" s="166"/>
+      <c r="O63" s="148"/>
+      <c r="P63" s="149"/>
+      <c r="Q63" s="150"/>
+    </row>
+    <row r="64" spans="2:17" ht="20">
+      <c r="B64" s="168"/>
+      <c r="C64" s="172"/>
+      <c r="D64" s="168"/>
+      <c r="E64" s="168"/>
+      <c r="F64" s="168"/>
+      <c r="G64" s="168"/>
+      <c r="H64" s="168"/>
+      <c r="I64" s="168"/>
+      <c r="J64" s="168"/>
+      <c r="K64" s="173"/>
+      <c r="L64" s="175"/>
+      <c r="M64" s="174"/>
+      <c r="N64" s="166"/>
+      <c r="O64" s="148"/>
+      <c r="P64" s="149"/>
+      <c r="Q64" s="150"/>
+    </row>
+    <row r="65" spans="2:17" ht="20">
+      <c r="B65" s="168"/>
+      <c r="C65" s="172"/>
+      <c r="D65" s="168"/>
+      <c r="E65" s="168"/>
+      <c r="F65" s="168"/>
+      <c r="G65" s="168"/>
+      <c r="H65" s="168"/>
+      <c r="I65" s="168"/>
+      <c r="J65" s="168"/>
+      <c r="K65" s="173"/>
+      <c r="L65" s="175"/>
+      <c r="M65" s="174"/>
+      <c r="N65" s="166"/>
+      <c r="O65" s="148"/>
+      <c r="P65" s="149"/>
+      <c r="Q65" s="150"/>
+    </row>
+    <row r="66" spans="2:17" ht="20">
+      <c r="B66" s="168"/>
+      <c r="C66" s="172"/>
+      <c r="D66" s="168"/>
+      <c r="E66" s="168"/>
+      <c r="F66" s="168"/>
+      <c r="G66" s="168"/>
+      <c r="H66" s="168"/>
+      <c r="I66" s="168"/>
+      <c r="J66" s="168"/>
+      <c r="K66" s="173"/>
+      <c r="L66" s="175"/>
+      <c r="M66" s="174"/>
+      <c r="N66" s="166"/>
+      <c r="O66" s="148"/>
+      <c r="P66" s="149"/>
+      <c r="Q66" s="150"/>
+    </row>
+    <row r="67" spans="2:17" ht="20">
+      <c r="B67" s="168"/>
+      <c r="C67" s="172"/>
+      <c r="D67" s="168"/>
+      <c r="E67" s="168"/>
+      <c r="F67" s="168"/>
+      <c r="G67" s="168"/>
+      <c r="H67" s="168"/>
+      <c r="I67" s="168"/>
+      <c r="J67" s="168"/>
+      <c r="K67" s="173"/>
+      <c r="L67" s="175"/>
+      <c r="M67" s="174"/>
+      <c r="N67" s="166"/>
+      <c r="O67" s="148"/>
+      <c r="P67" s="149"/>
+      <c r="Q67" s="150"/>
+    </row>
+    <row r="68" spans="2:17" ht="20">
+      <c r="B68" s="168"/>
+      <c r="C68" s="172"/>
+      <c r="D68" s="168"/>
+      <c r="E68" s="168"/>
+      <c r="F68" s="168"/>
+      <c r="G68" s="168"/>
+      <c r="H68" s="168"/>
+      <c r="I68" s="168"/>
+      <c r="J68" s="168"/>
+      <c r="K68" s="173"/>
+      <c r="L68" s="175"/>
+      <c r="M68" s="174"/>
+      <c r="N68" s="166"/>
+      <c r="O68" s="148"/>
+      <c r="P68" s="149"/>
+      <c r="Q68" s="150"/>
+    </row>
+    <row r="69" spans="2:17" ht="20">
+      <c r="B69" s="168"/>
+      <c r="C69" s="172"/>
+      <c r="D69" s="168"/>
+      <c r="E69" s="168"/>
+      <c r="F69" s="168"/>
+      <c r="G69" s="168"/>
+      <c r="H69" s="168"/>
+      <c r="I69" s="168"/>
+      <c r="J69" s="168"/>
+      <c r="K69" s="173"/>
+      <c r="L69" s="175"/>
+      <c r="M69" s="174"/>
+      <c r="N69" s="166"/>
+      <c r="O69" s="148"/>
+      <c r="P69" s="149"/>
+      <c r="Q69" s="150"/>
+    </row>
+    <row r="70" spans="2:17" ht="20">
+      <c r="B70" s="168"/>
+      <c r="C70" s="172"/>
+      <c r="D70" s="168"/>
+      <c r="E70" s="168"/>
+      <c r="F70" s="168"/>
+      <c r="G70" s="168"/>
+      <c r="H70" s="168"/>
+      <c r="I70" s="168"/>
+      <c r="J70" s="168"/>
+      <c r="K70" s="173"/>
+      <c r="L70" s="175"/>
+      <c r="M70" s="174"/>
+      <c r="N70" s="166"/>
+      <c r="O70" s="148"/>
+      <c r="P70" s="149"/>
+      <c r="Q70" s="150"/>
+    </row>
+    <row r="71" spans="2:17" ht="20">
+      <c r="B71" s="168"/>
+      <c r="C71" s="172"/>
+      <c r="D71" s="168"/>
+      <c r="E71" s="168"/>
+      <c r="F71" s="168"/>
+      <c r="G71" s="168"/>
+      <c r="H71" s="168"/>
+      <c r="I71" s="168"/>
+      <c r="J71" s="168"/>
+      <c r="K71" s="173"/>
+      <c r="L71" s="175"/>
+      <c r="M71" s="174"/>
+      <c r="N71" s="166"/>
+      <c r="O71" s="148"/>
+      <c r="P71" s="149"/>
+      <c r="Q71" s="150"/>
+    </row>
+    <row r="72" spans="2:17" ht="20">
+      <c r="B72" s="168"/>
+      <c r="C72" s="172"/>
+      <c r="D72" s="168"/>
+      <c r="E72" s="168"/>
+      <c r="F72" s="168"/>
+      <c r="G72" s="168"/>
+      <c r="H72" s="168"/>
+      <c r="I72" s="168"/>
+      <c r="J72" s="168"/>
+      <c r="K72" s="173"/>
+      <c r="L72" s="175"/>
+      <c r="M72" s="174"/>
+      <c r="N72" s="166"/>
+      <c r="O72" s="148"/>
+      <c r="P72" s="149"/>
+      <c r="Q72" s="150"/>
+    </row>
+    <row r="73" spans="2:17" ht="20">
+      <c r="B73" s="168"/>
+      <c r="C73" s="172"/>
+      <c r="D73" s="168"/>
+      <c r="E73" s="168"/>
+      <c r="F73" s="168"/>
+      <c r="G73" s="168"/>
+      <c r="H73" s="168"/>
+      <c r="I73" s="168"/>
+      <c r="J73" s="168"/>
+      <c r="K73" s="173"/>
+      <c r="L73" s="175"/>
+      <c r="M73" s="174"/>
+      <c r="N73" s="166"/>
+      <c r="O73" s="148"/>
+      <c r="P73" s="149"/>
+      <c r="Q73" s="150"/>
+    </row>
+    <row r="74" spans="2:17" ht="20">
+      <c r="B74" s="168"/>
+      <c r="C74" s="172"/>
+      <c r="D74" s="168"/>
+      <c r="E74" s="168"/>
+      <c r="F74" s="168"/>
+      <c r="G74" s="168"/>
+      <c r="H74" s="168"/>
+      <c r="I74" s="168"/>
+      <c r="J74" s="168"/>
+      <c r="K74" s="173"/>
+      <c r="L74" s="175"/>
+      <c r="M74" s="174"/>
+      <c r="N74" s="166"/>
+      <c r="O74" s="148"/>
+      <c r="P74" s="149"/>
+      <c r="Q74" s="150"/>
+    </row>
+    <row r="75" spans="2:17" ht="20">
+      <c r="B75" s="168"/>
+      <c r="C75" s="172"/>
+      <c r="D75" s="168"/>
+      <c r="E75" s="168"/>
+      <c r="F75" s="168"/>
+      <c r="G75" s="168"/>
+      <c r="H75" s="168"/>
+      <c r="I75" s="168"/>
+      <c r="J75" s="168"/>
+      <c r="K75" s="173"/>
+      <c r="L75" s="175"/>
+      <c r="M75" s="174"/>
+      <c r="N75" s="166"/>
+      <c r="O75" s="148"/>
+      <c r="P75" s="149"/>
+      <c r="Q75" s="150"/>
+    </row>
+    <row r="76" spans="2:17" ht="20">
+      <c r="B76" s="168"/>
+      <c r="C76" s="172"/>
+      <c r="D76" s="168"/>
+      <c r="E76" s="168"/>
+      <c r="F76" s="168"/>
+      <c r="G76" s="168"/>
+      <c r="H76" s="168"/>
+      <c r="I76" s="168"/>
+      <c r="J76" s="168"/>
+      <c r="K76" s="173"/>
+      <c r="L76" s="175"/>
+      <c r="M76" s="174"/>
+      <c r="N76" s="166"/>
+      <c r="O76" s="148"/>
+      <c r="P76" s="149"/>
+      <c r="Q76" s="150"/>
+    </row>
+    <row r="77" spans="2:17" ht="20">
+      <c r="B77" s="168"/>
+      <c r="C77" s="172"/>
+      <c r="D77" s="168"/>
+      <c r="E77" s="168"/>
+      <c r="F77" s="168"/>
+      <c r="G77" s="168"/>
+      <c r="H77" s="168"/>
+      <c r="I77" s="168"/>
+      <c r="J77" s="168"/>
+      <c r="K77" s="173"/>
+      <c r="L77" s="175"/>
+      <c r="M77" s="174"/>
+      <c r="N77" s="166"/>
+      <c r="O77" s="148"/>
+      <c r="P77" s="149"/>
+      <c r="Q77" s="150"/>
+    </row>
+    <row r="78" spans="2:17" ht="20">
+      <c r="B78" s="168"/>
+      <c r="C78" s="172"/>
+      <c r="D78" s="168"/>
+      <c r="E78" s="168"/>
+      <c r="F78" s="168"/>
+      <c r="G78" s="168"/>
+      <c r="H78" s="168"/>
+      <c r="I78" s="168"/>
+      <c r="J78" s="168"/>
+      <c r="K78" s="173"/>
+      <c r="L78" s="175"/>
+      <c r="M78" s="174"/>
+      <c r="N78" s="166"/>
+      <c r="O78" s="148"/>
+      <c r="P78" s="149"/>
+      <c r="Q78" s="150"/>
+    </row>
+    <row r="79" spans="2:17" ht="20">
+      <c r="B79" s="168"/>
+      <c r="C79" s="172"/>
+      <c r="D79" s="168"/>
+      <c r="E79" s="168"/>
+      <c r="F79" s="168"/>
+      <c r="G79" s="168"/>
+      <c r="H79" s="168"/>
+      <c r="I79" s="168"/>
+      <c r="J79" s="168"/>
+      <c r="K79" s="173"/>
+      <c r="L79" s="175"/>
+      <c r="M79" s="174"/>
+      <c r="N79" s="166"/>
+      <c r="O79" s="148"/>
+      <c r="P79" s="149"/>
+      <c r="Q79" s="150"/>
+    </row>
+    <row r="80" spans="2:17" ht="20">
+      <c r="B80" s="168"/>
+      <c r="C80" s="172"/>
+      <c r="D80" s="168"/>
+      <c r="E80" s="168"/>
+      <c r="F80" s="168"/>
+      <c r="G80" s="168"/>
+      <c r="H80" s="168"/>
+      <c r="I80" s="168"/>
+      <c r="J80" s="168"/>
+      <c r="K80" s="173"/>
+      <c r="L80" s="175"/>
+      <c r="M80" s="174"/>
+      <c r="N80" s="166"/>
+      <c r="O80" s="148"/>
+      <c r="P80" s="149"/>
+      <c r="Q80" s="150"/>
+    </row>
+    <row r="81" spans="2:17" ht="20">
+      <c r="B81" s="168"/>
+      <c r="C81" s="172"/>
+      <c r="D81" s="168"/>
+      <c r="E81" s="168"/>
+      <c r="F81" s="168"/>
+      <c r="G81" s="168"/>
+      <c r="H81" s="168"/>
+      <c r="I81" s="168"/>
+      <c r="J81" s="168"/>
+      <c r="K81" s="173"/>
+      <c r="L81" s="175"/>
+      <c r="M81" s="174"/>
+      <c r="N81" s="166"/>
+      <c r="O81" s="148"/>
+      <c r="P81" s="149"/>
+      <c r="Q81" s="150"/>
+    </row>
+    <row r="82" spans="2:17" ht="20">
+      <c r="B82" s="168"/>
+      <c r="C82" s="172"/>
+      <c r="D82" s="168"/>
+      <c r="E82" s="168"/>
+      <c r="F82" s="168"/>
+      <c r="G82" s="168"/>
+      <c r="H82" s="168"/>
+      <c r="I82" s="168"/>
+      <c r="J82" s="168"/>
+      <c r="K82" s="173"/>
+      <c r="L82" s="175"/>
+      <c r="M82" s="174"/>
+      <c r="N82" s="166"/>
+      <c r="O82" s="148"/>
+      <c r="P82" s="149"/>
+      <c r="Q82" s="150"/>
+    </row>
+    <row r="83" spans="2:17" ht="20">
+      <c r="B83" s="168"/>
+      <c r="C83" s="172"/>
+      <c r="D83" s="168"/>
+      <c r="E83" s="168"/>
+      <c r="F83" s="168"/>
+      <c r="G83" s="168"/>
+      <c r="H83" s="168"/>
+      <c r="I83" s="168"/>
+      <c r="J83" s="168"/>
+      <c r="K83" s="173"/>
+      <c r="L83" s="175"/>
+      <c r="M83" s="174"/>
+      <c r="N83" s="166"/>
+      <c r="O83" s="148"/>
+      <c r="P83" s="149"/>
+      <c r="Q83" s="150"/>
+    </row>
+    <row r="84" spans="2:17" ht="20">
+      <c r="B84" s="168"/>
+      <c r="C84" s="172"/>
+      <c r="D84" s="168"/>
+      <c r="E84" s="168"/>
+      <c r="F84" s="168"/>
+      <c r="G84" s="168"/>
+      <c r="H84" s="168"/>
+      <c r="I84" s="168"/>
+      <c r="J84" s="168"/>
+      <c r="K84" s="173"/>
+      <c r="L84" s="175"/>
+      <c r="M84" s="174"/>
+      <c r="N84" s="166"/>
+      <c r="O84" s="148"/>
+      <c r="P84" s="149"/>
+      <c r="Q84" s="150"/>
+    </row>
+    <row r="85" spans="2:17" ht="20">
+      <c r="B85" s="168"/>
+      <c r="C85" s="172"/>
+      <c r="D85" s="168"/>
+      <c r="E85" s="168"/>
+      <c r="F85" s="168"/>
+      <c r="G85" s="168"/>
+      <c r="H85" s="168"/>
+      <c r="I85" s="168"/>
+      <c r="J85" s="168"/>
+      <c r="K85" s="173"/>
+      <c r="L85" s="175"/>
+      <c r="M85" s="174"/>
+      <c r="N85" s="166"/>
+      <c r="O85" s="148"/>
+      <c r="P85" s="149"/>
+      <c r="Q85" s="150"/>
+    </row>
+    <row r="86" spans="2:17" ht="20">
+      <c r="B86" s="168"/>
+      <c r="C86" s="172"/>
+      <c r="D86" s="168"/>
+      <c r="E86" s="168"/>
+      <c r="F86" s="168"/>
+      <c r="G86" s="168"/>
+      <c r="H86" s="168"/>
+      <c r="I86" s="168"/>
+      <c r="J86" s="168"/>
+      <c r="K86" s="173"/>
+      <c r="L86" s="175"/>
+      <c r="M86" s="174"/>
+      <c r="N86" s="166"/>
+      <c r="O86" s="148"/>
+      <c r="P86" s="149"/>
+      <c r="Q86" s="150"/>
+    </row>
+    <row r="87" spans="2:17" ht="20">
+      <c r="B87" s="168"/>
+      <c r="C87" s="172"/>
+      <c r="D87" s="168"/>
+      <c r="E87" s="168"/>
+      <c r="F87" s="168"/>
+      <c r="G87" s="168"/>
+      <c r="H87" s="168"/>
+      <c r="I87" s="168"/>
+      <c r="J87" s="168"/>
+      <c r="K87" s="173"/>
+      <c r="L87" s="175"/>
+      <c r="M87" s="174"/>
+      <c r="N87" s="166"/>
+      <c r="O87" s="148"/>
+      <c r="P87" s="149"/>
+      <c r="Q87" s="150"/>
+    </row>
+    <row r="88" spans="2:17" ht="20">
+      <c r="B88" s="168"/>
+      <c r="C88" s="172"/>
+      <c r="D88" s="168"/>
+      <c r="E88" s="168"/>
+      <c r="F88" s="168"/>
+      <c r="G88" s="168"/>
+      <c r="H88" s="168"/>
+      <c r="I88" s="168"/>
+      <c r="J88" s="168"/>
+      <c r="K88" s="173"/>
+      <c r="L88" s="175"/>
+      <c r="M88" s="174"/>
+      <c r="N88" s="166"/>
+      <c r="O88" s="148"/>
+      <c r="P88" s="149"/>
+      <c r="Q88" s="150"/>
+    </row>
+    <row r="89" spans="2:17" ht="20">
+      <c r="B89" s="168"/>
+      <c r="C89" s="172"/>
+      <c r="D89" s="168"/>
+      <c r="E89" s="168"/>
+      <c r="F89" s="168"/>
+      <c r="G89" s="168"/>
+      <c r="H89" s="168"/>
+      <c r="I89" s="168"/>
+      <c r="J89" s="168"/>
+      <c r="K89" s="173"/>
+      <c r="L89" s="175"/>
+      <c r="M89" s="174"/>
+      <c r="N89" s="166"/>
+      <c r="O89" s="148"/>
+      <c r="P89" s="149"/>
+      <c r="Q89" s="150"/>
+    </row>
+    <row r="90" spans="2:17" ht="20">
+      <c r="B90" s="168"/>
+      <c r="C90" s="172"/>
+      <c r="D90" s="168"/>
+      <c r="E90" s="168"/>
+      <c r="F90" s="168"/>
+      <c r="G90" s="168"/>
+      <c r="H90" s="168"/>
+      <c r="I90" s="168"/>
+      <c r="J90" s="168"/>
+      <c r="K90" s="173"/>
+      <c r="L90" s="175"/>
+      <c r="M90" s="174"/>
+      <c r="N90" s="166"/>
+      <c r="O90" s="148"/>
+      <c r="P90" s="149"/>
+      <c r="Q90" s="150"/>
+    </row>
+    <row r="91" spans="2:17" ht="20">
+      <c r="B91" s="168"/>
+      <c r="C91" s="172"/>
+      <c r="D91" s="168"/>
+      <c r="E91" s="168"/>
+      <c r="F91" s="168"/>
+      <c r="G91" s="168"/>
+      <c r="H91" s="168"/>
+      <c r="I91" s="168"/>
+      <c r="J91" s="168"/>
+      <c r="K91" s="173"/>
+      <c r="L91" s="175"/>
+      <c r="M91" s="174"/>
+      <c r="N91" s="166"/>
+      <c r="O91" s="148"/>
+      <c r="P91" s="149"/>
+      <c r="Q91" s="150"/>
+    </row>
+    <row r="92" spans="2:17" ht="20">
+      <c r="B92" s="168"/>
+      <c r="C92" s="172"/>
+      <c r="D92" s="168"/>
+      <c r="E92" s="168"/>
+      <c r="F92" s="168"/>
+      <c r="G92" s="168"/>
+      <c r="H92" s="168"/>
+      <c r="I92" s="168"/>
+      <c r="J92" s="168"/>
+      <c r="K92" s="173"/>
+      <c r="L92" s="175"/>
+      <c r="M92" s="174"/>
+      <c r="N92" s="166"/>
+      <c r="O92" s="148"/>
+      <c r="P92" s="149"/>
+      <c r="Q92" s="150"/>
+    </row>
+    <row r="93" spans="2:17" ht="20">
+      <c r="B93" s="168"/>
+      <c r="C93" s="172"/>
+      <c r="D93" s="168"/>
+      <c r="E93" s="168"/>
+      <c r="F93" s="168"/>
+      <c r="G93" s="168"/>
+      <c r="H93" s="168"/>
+      <c r="I93" s="168"/>
+      <c r="J93" s="168"/>
+      <c r="K93" s="173"/>
+      <c r="L93" s="175"/>
+      <c r="M93" s="174"/>
+      <c r="N93" s="166"/>
+      <c r="O93" s="148"/>
+      <c r="P93" s="149"/>
+      <c r="Q93" s="150"/>
+    </row>
+    <row r="94" spans="2:17" ht="20">
+      <c r="B94" s="168"/>
+      <c r="C94" s="172"/>
+      <c r="D94" s="168"/>
+      <c r="E94" s="168"/>
+      <c r="F94" s="168"/>
+      <c r="G94" s="168"/>
+      <c r="H94" s="168"/>
+      <c r="I94" s="168"/>
+      <c r="J94" s="168"/>
+      <c r="K94" s="173"/>
+      <c r="L94" s="175"/>
+      <c r="M94" s="174"/>
+      <c r="N94" s="166"/>
+      <c r="O94" s="148"/>
+      <c r="P94" s="149"/>
+      <c r="Q94" s="150"/>
+    </row>
+    <row r="95" spans="2:17" ht="20">
+      <c r="B95" s="168"/>
+      <c r="C95" s="168"/>
+      <c r="D95" s="168"/>
+      <c r="E95" s="168"/>
+      <c r="F95" s="168"/>
+      <c r="G95" s="168"/>
+      <c r="H95" s="168"/>
+      <c r="I95" s="168"/>
+      <c r="J95" s="168"/>
+      <c r="K95" s="173"/>
+      <c r="L95" s="175"/>
+      <c r="M95" s="174"/>
+      <c r="N95" s="166"/>
+      <c r="O95" s="148"/>
+      <c r="P95" s="149"/>
+      <c r="Q95" s="150"/>
+    </row>
+    <row r="96" spans="2:17" ht="20">
+      <c r="B96" s="168"/>
+      <c r="C96" s="172"/>
+      <c r="D96" s="168"/>
+      <c r="E96" s="168"/>
+      <c r="F96" s="168"/>
+      <c r="G96" s="168"/>
+      <c r="H96" s="168"/>
+      <c r="I96" s="168"/>
+      <c r="J96" s="168"/>
+      <c r="K96" s="173"/>
+      <c r="L96" s="175"/>
+      <c r="M96" s="174"/>
+      <c r="N96" s="166"/>
+      <c r="O96" s="148"/>
+      <c r="P96" s="149"/>
+      <c r="Q96" s="150"/>
+    </row>
+    <row r="97" spans="2:17" ht="20">
+      <c r="B97" s="168"/>
+      <c r="C97" s="172"/>
+      <c r="D97" s="168"/>
+      <c r="E97" s="168"/>
+      <c r="F97" s="168"/>
+      <c r="G97" s="168"/>
+      <c r="H97" s="168"/>
+      <c r="I97" s="168"/>
+      <c r="J97" s="168"/>
+      <c r="K97" s="173"/>
+      <c r="L97" s="175"/>
+      <c r="M97" s="174"/>
+      <c r="N97" s="166"/>
+      <c r="O97" s="148"/>
+      <c r="P97" s="149"/>
+      <c r="Q97" s="150"/>
+    </row>
+    <row r="98" spans="2:17" ht="20">
+      <c r="B98" s="168"/>
+      <c r="C98" s="168"/>
+      <c r="D98" s="168"/>
+      <c r="E98" s="168"/>
+      <c r="F98" s="168"/>
+      <c r="G98" s="168"/>
+      <c r="H98" s="168"/>
+      <c r="I98" s="168"/>
+      <c r="J98" s="168"/>
+      <c r="K98" s="173"/>
+      <c r="L98" s="175"/>
+      <c r="M98" s="174"/>
+      <c r="N98" s="166"/>
+      <c r="O98" s="148"/>
+      <c r="P98" s="149"/>
+      <c r="Q98" s="150"/>
+    </row>
+    <row r="99" spans="2:17" ht="20">
+      <c r="B99" s="168"/>
+      <c r="C99" s="172"/>
+      <c r="D99" s="168"/>
+      <c r="E99" s="168"/>
+      <c r="F99" s="168"/>
+      <c r="G99" s="168"/>
+      <c r="H99" s="168"/>
+      <c r="I99" s="168"/>
+      <c r="J99" s="168"/>
+      <c r="K99" s="173"/>
+      <c r="L99" s="175"/>
+      <c r="M99" s="174"/>
+      <c r="N99" s="166"/>
+      <c r="O99" s="148"/>
+      <c r="P99" s="149"/>
+      <c r="Q99" s="150"/>
+    </row>
+    <row r="100" spans="2:17" ht="20">
+      <c r="B100" s="168"/>
+      <c r="C100" s="172"/>
+      <c r="D100" s="168"/>
+      <c r="E100" s="168"/>
+      <c r="F100" s="168"/>
+      <c r="G100" s="168"/>
+      <c r="H100" s="168"/>
+      <c r="I100" s="168"/>
+      <c r="J100" s="168"/>
+      <c r="K100" s="173"/>
+      <c r="L100" s="175"/>
+      <c r="M100" s="174"/>
+      <c r="N100" s="166"/>
+      <c r="O100" s="148"/>
+      <c r="P100" s="149"/>
+      <c r="Q100" s="150"/>
+    </row>
+    <row r="101" spans="2:17" ht="20">
+      <c r="B101" s="168"/>
+      <c r="C101" s="172"/>
+      <c r="D101" s="168"/>
+      <c r="E101" s="168"/>
+      <c r="F101" s="168"/>
+      <c r="G101" s="168"/>
+      <c r="H101" s="168"/>
+      <c r="I101" s="168"/>
+      <c r="J101" s="168"/>
+      <c r="K101" s="173"/>
+      <c r="L101" s="175"/>
+      <c r="M101" s="174"/>
+      <c r="N101" s="166"/>
+      <c r="O101" s="148"/>
+      <c r="P101" s="149"/>
+      <c r="Q101" s="150"/>
+    </row>
+    <row r="102" spans="2:17" ht="20.5" thickBot="1">
+      <c r="B102" s="168"/>
+      <c r="C102" s="172"/>
+      <c r="D102" s="168"/>
+      <c r="E102" s="168"/>
+      <c r="F102" s="168"/>
+      <c r="G102" s="168"/>
+      <c r="H102" s="168"/>
+      <c r="I102" s="168"/>
+      <c r="J102" s="168"/>
+      <c r="K102" s="173"/>
+      <c r="L102" s="175"/>
+      <c r="M102" s="174"/>
+      <c r="N102" s="177"/>
+      <c r="O102" s="178"/>
+      <c r="P102" s="145"/>
+      <c r="Q102" s="146"/>
+    </row>
+    <row r="104" spans="2:17" ht="22.5">
+      <c r="B104" s="179"/>
+      <c r="C104" s="179"/>
+      <c r="J104" s="180"/>
+      <c r="O104" s="181" t="s">
         <v>221</v>
       </c>
-      <c r="P104" s="149">
+      <c r="P104" s="136">
         <f>COUNTA(P4:P102)</f>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="2:17">
-      <c r="O105" s="201" t="s">
+      <c r="O105" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="P105" s="149">
+      <c r="P105" s="136">
         <f>COUNTIF(P4:P102,"〇")</f>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="2:17">
-      <c r="O106" s="202" t="s">
+      <c r="O106" s="183" t="s">
         <v>68</v>
       </c>
-      <c r="P106" s="149">
+      <c r="P106" s="136">
         <f>COUNTIF(P4:P102,"✖")</f>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="2:17">
-      <c r="L107" s="203"/>
-      <c r="O107" s="201" t="s">
+      <c r="L107" s="184"/>
+      <c r="O107" s="182" t="s">
         <v>222</v>
       </c>
-      <c r="P107" s="204" t="e">
+      <c r="P107" s="185" t="e">
         <f>P106/P104</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="G35:G37"/>
     <mergeCell ref="C5:C34"/>
     <mergeCell ref="D5:D34"/>
     <mergeCell ref="E5:E34"/>
     <mergeCell ref="F5:F34"/>
     <mergeCell ref="G5:G34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="G35:G37"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14674,8 +14655,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="8.625" customWidth="1"/>
+    <col min="2" max="2" width="16.58203125" customWidth="1"/>
+    <col min="3" max="3" width="8.58203125" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15122,30 +15103,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="5" max="5" width="8.625" style="95"/>
-    <col min="7" max="7" width="8.625" style="95"/>
-    <col min="9" max="9" width="8.625" style="95"/>
-    <col min="11" max="11" width="8.625" style="95"/>
+    <col min="5" max="5" width="8.58203125" style="95"/>
+    <col min="7" max="7" width="8.58203125" style="95"/>
+    <col min="9" max="9" width="8.58203125" style="95"/>
+    <col min="11" max="11" width="8.58203125" style="95"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="3" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="134"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="140" t="s">
+      <c r="B3" s="192"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="198" t="s">
         <v>311</v>
       </c>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="142"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="200"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B4" s="136"/>
-      <c r="C4" s="137"/>
+      <c r="B4" s="194"/>
+      <c r="C4" s="195"/>
       <c r="D4" s="110" t="s">
         <v>312</v>
       </c>
@@ -15172,7 +15153,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B5" s="138" t="s">
+      <c r="B5" s="196" t="s">
         <v>310</v>
       </c>
       <c r="C5" s="43">
@@ -15200,7 +15181,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B6" s="138"/>
+      <c r="B6" s="196"/>
       <c r="C6" s="18">
         <v>1</v>
       </c>
@@ -15214,7 +15195,7 @@
       <c r="K6" s="109"/>
     </row>
     <row r="7" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B7" s="138"/>
+      <c r="B7" s="196"/>
       <c r="C7" s="18">
         <v>2</v>
       </c>
@@ -15228,7 +15209,7 @@
       <c r="K7" s="109"/>
     </row>
     <row r="8" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B8" s="138"/>
+      <c r="B8" s="196"/>
       <c r="C8" s="18">
         <v>3</v>
       </c>
@@ -15242,7 +15223,7 @@
       <c r="K8" s="109"/>
     </row>
     <row r="9" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B9" s="138"/>
+      <c r="B9" s="196"/>
       <c r="C9" s="18">
         <v>4</v>
       </c>
@@ -15256,7 +15237,7 @@
       <c r="K9" s="109"/>
     </row>
     <row r="10" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B10" s="138"/>
+      <c r="B10" s="196"/>
       <c r="C10" s="18">
         <v>5</v>
       </c>
@@ -15270,7 +15251,7 @@
       <c r="K10" s="109"/>
     </row>
     <row r="11" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B11" s="138"/>
+      <c r="B11" s="196"/>
       <c r="C11" s="18">
         <v>6</v>
       </c>
@@ -15284,7 +15265,7 @@
       <c r="K11" s="109"/>
     </row>
     <row r="12" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B12" s="138"/>
+      <c r="B12" s="196"/>
       <c r="C12" s="18">
         <v>7</v>
       </c>
@@ -15298,7 +15279,7 @@
       <c r="K12" s="109"/>
     </row>
     <row r="13" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B13" s="138"/>
+      <c r="B13" s="196"/>
       <c r="C13" s="18">
         <v>8</v>
       </c>
@@ -15312,7 +15293,7 @@
       <c r="K13" s="109"/>
     </row>
     <row r="14" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B14" s="138"/>
+      <c r="B14" s="196"/>
       <c r="C14" s="18">
         <v>9</v>
       </c>
@@ -15326,7 +15307,7 @@
       <c r="K14" s="109"/>
     </row>
     <row r="15" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B15" s="138"/>
+      <c r="B15" s="196"/>
       <c r="C15" s="18">
         <v>10</v>
       </c>
@@ -15340,7 +15321,7 @@
       <c r="K15" s="109"/>
     </row>
     <row r="16" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B16" s="138"/>
+      <c r="B16" s="196"/>
       <c r="C16" s="18">
         <v>11</v>
       </c>
@@ -15354,7 +15335,7 @@
       <c r="K16" s="109"/>
     </row>
     <row r="17" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B17" s="138"/>
+      <c r="B17" s="196"/>
       <c r="C17" s="18">
         <v>12</v>
       </c>
@@ -15368,7 +15349,7 @@
       <c r="K17" s="109"/>
     </row>
     <row r="18" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B18" s="138"/>
+      <c r="B18" s="196"/>
       <c r="C18" s="18">
         <v>13</v>
       </c>
@@ -15382,7 +15363,7 @@
       <c r="K18" s="109"/>
     </row>
     <row r="19" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B19" s="138"/>
+      <c r="B19" s="196"/>
       <c r="C19" s="18">
         <v>14</v>
       </c>
@@ -15396,7 +15377,7 @@
       <c r="K19" s="109"/>
     </row>
     <row r="20" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B20" s="138"/>
+      <c r="B20" s="196"/>
       <c r="C20" s="18">
         <v>15</v>
       </c>
@@ -15410,7 +15391,7 @@
       <c r="K20" s="109"/>
     </row>
     <row r="21" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B21" s="138"/>
+      <c r="B21" s="196"/>
       <c r="C21" s="18">
         <v>16</v>
       </c>
@@ -15424,7 +15405,7 @@
       <c r="K21" s="109"/>
     </row>
     <row r="22" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B22" s="138"/>
+      <c r="B22" s="196"/>
       <c r="C22" s="18">
         <v>17</v>
       </c>
@@ -15438,7 +15419,7 @@
       <c r="K22" s="109"/>
     </row>
     <row r="23" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B23" s="138"/>
+      <c r="B23" s="196"/>
       <c r="C23" s="18">
         <v>18</v>
       </c>
@@ -15452,7 +15433,7 @@
       <c r="K23" s="92"/>
     </row>
     <row r="24" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B24" s="138"/>
+      <c r="B24" s="196"/>
       <c r="C24" s="18">
         <v>19</v>
       </c>
@@ -15466,7 +15447,7 @@
       <c r="K24" s="92"/>
     </row>
     <row r="25" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B25" s="138"/>
+      <c r="B25" s="196"/>
       <c r="C25" s="18">
         <v>20</v>
       </c>
@@ -15480,7 +15461,7 @@
       <c r="K25" s="92"/>
     </row>
     <row r="26" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B26" s="138"/>
+      <c r="B26" s="196"/>
       <c r="C26" s="18">
         <v>21</v>
       </c>
@@ -15494,7 +15475,7 @@
       <c r="K26" s="92"/>
     </row>
     <row r="27" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B27" s="138"/>
+      <c r="B27" s="196"/>
       <c r="C27" s="18">
         <v>22</v>
       </c>
@@ -15508,7 +15489,7 @@
       <c r="K27" s="92"/>
     </row>
     <row r="28" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B28" s="138"/>
+      <c r="B28" s="196"/>
       <c r="C28" s="18">
         <v>23</v>
       </c>
@@ -15522,7 +15503,7 @@
       <c r="K28" s="92"/>
     </row>
     <row r="29" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B29" s="138"/>
+      <c r="B29" s="196"/>
       <c r="C29" s="18">
         <v>24</v>
       </c>
@@ -15536,7 +15517,7 @@
       <c r="K29" s="92"/>
     </row>
     <row r="30" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B30" s="138"/>
+      <c r="B30" s="196"/>
       <c r="C30" s="18">
         <v>25</v>
       </c>
@@ -15550,7 +15531,7 @@
       <c r="K30" s="92"/>
     </row>
     <row r="31" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B31" s="138"/>
+      <c r="B31" s="196"/>
       <c r="C31" s="18">
         <v>26</v>
       </c>
@@ -15564,7 +15545,7 @@
       <c r="K31" s="92"/>
     </row>
     <row r="32" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B32" s="138"/>
+      <c r="B32" s="196"/>
       <c r="C32" s="18">
         <v>27</v>
       </c>
@@ -15578,7 +15559,7 @@
       <c r="K32" s="92"/>
     </row>
     <row r="33" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B33" s="138"/>
+      <c r="B33" s="196"/>
       <c r="C33" s="18">
         <v>28</v>
       </c>
@@ -15592,7 +15573,7 @@
       <c r="K33" s="92"/>
     </row>
     <row r="34" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B34" s="138"/>
+      <c r="B34" s="196"/>
       <c r="C34" s="18">
         <v>29</v>
       </c>
@@ -15606,7 +15587,7 @@
       <c r="K34" s="92"/>
     </row>
     <row r="35" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B35" s="138"/>
+      <c r="B35" s="196"/>
       <c r="C35" s="18">
         <v>30</v>
       </c>
@@ -15620,7 +15601,7 @@
       <c r="K35" s="92"/>
     </row>
     <row r="36" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B36" s="138"/>
+      <c r="B36" s="196"/>
       <c r="C36" s="18">
         <v>31</v>
       </c>
@@ -15634,7 +15615,7 @@
       <c r="K36" s="92"/>
     </row>
     <row r="37" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B37" s="138"/>
+      <c r="B37" s="196"/>
       <c r="C37" s="18">
         <v>32</v>
       </c>
@@ -15648,7 +15629,7 @@
       <c r="K37" s="92"/>
     </row>
     <row r="38" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B38" s="138"/>
+      <c r="B38" s="196"/>
       <c r="C38" s="18">
         <v>33</v>
       </c>
@@ -15662,7 +15643,7 @@
       <c r="K38" s="92"/>
     </row>
     <row r="39" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B39" s="138"/>
+      <c r="B39" s="196"/>
       <c r="C39" s="18">
         <v>34</v>
       </c>
@@ -15676,7 +15657,7 @@
       <c r="K39" s="92"/>
     </row>
     <row r="40" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B40" s="138"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="18">
         <v>35</v>
       </c>
@@ -15690,7 +15671,7 @@
       <c r="K40" s="92"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B41" s="138"/>
+      <c r="B41" s="196"/>
       <c r="C41" s="18">
         <v>36</v>
       </c>
@@ -15704,7 +15685,7 @@
       <c r="K41" s="92"/>
     </row>
     <row r="42" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B42" s="138"/>
+      <c r="B42" s="196"/>
       <c r="C42" s="18">
         <v>37</v>
       </c>
@@ -15718,7 +15699,7 @@
       <c r="K42" s="92"/>
     </row>
     <row r="43" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B43" s="138"/>
+      <c r="B43" s="196"/>
       <c r="C43" s="18">
         <v>38</v>
       </c>
@@ -15732,7 +15713,7 @@
       <c r="K43" s="92"/>
     </row>
     <row r="44" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B44" s="138"/>
+      <c r="B44" s="196"/>
       <c r="C44" s="18">
         <v>39</v>
       </c>
@@ -15746,7 +15727,7 @@
       <c r="K44" s="92"/>
     </row>
     <row r="45" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B45" s="138"/>
+      <c r="B45" s="196"/>
       <c r="C45" s="18">
         <v>40</v>
       </c>
@@ -15760,7 +15741,7 @@
       <c r="K45" s="92"/>
     </row>
     <row r="46" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B46" s="138"/>
+      <c r="B46" s="196"/>
       <c r="C46" s="18">
         <v>41</v>
       </c>
@@ -15774,7 +15755,7 @@
       <c r="K46" s="92"/>
     </row>
     <row r="47" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B47" s="138"/>
+      <c r="B47" s="196"/>
       <c r="C47" s="18">
         <v>42</v>
       </c>
@@ -15788,7 +15769,7 @@
       <c r="K47" s="92"/>
     </row>
     <row r="48" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B48" s="138"/>
+      <c r="B48" s="196"/>
       <c r="C48" s="18">
         <v>43</v>
       </c>
@@ -15802,7 +15783,7 @@
       <c r="K48" s="92"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B49" s="138"/>
+      <c r="B49" s="196"/>
       <c r="C49" s="18">
         <v>44</v>
       </c>
@@ -15816,7 +15797,7 @@
       <c r="K49" s="92"/>
     </row>
     <row r="50" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B50" s="138"/>
+      <c r="B50" s="196"/>
       <c r="C50" s="18">
         <v>45</v>
       </c>
@@ -15830,7 +15811,7 @@
       <c r="K50" s="92"/>
     </row>
     <row r="51" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B51" s="138"/>
+      <c r="B51" s="196"/>
       <c r="C51" s="18">
         <v>46</v>
       </c>
@@ -15844,7 +15825,7 @@
       <c r="K51" s="92"/>
     </row>
     <row r="52" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B52" s="138"/>
+      <c r="B52" s="196"/>
       <c r="C52" s="18">
         <v>47</v>
       </c>
@@ -15858,7 +15839,7 @@
       <c r="K52" s="92"/>
     </row>
     <row r="53" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B53" s="138"/>
+      <c r="B53" s="196"/>
       <c r="C53" s="18">
         <v>48</v>
       </c>
@@ -15872,7 +15853,7 @@
       <c r="K53" s="92"/>
     </row>
     <row r="54" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B54" s="138"/>
+      <c r="B54" s="196"/>
       <c r="C54" s="18">
         <v>49</v>
       </c>
@@ -15886,7 +15867,7 @@
       <c r="K54" s="92"/>
     </row>
     <row r="55" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B55" s="138"/>
+      <c r="B55" s="196"/>
       <c r="C55" s="18">
         <v>50</v>
       </c>
@@ -15900,7 +15881,7 @@
       <c r="K55" s="92"/>
     </row>
     <row r="56" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B56" s="138"/>
+      <c r="B56" s="196"/>
       <c r="C56" s="18">
         <v>51</v>
       </c>
@@ -15914,7 +15895,7 @@
       <c r="K56" s="92"/>
     </row>
     <row r="57" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B57" s="138"/>
+      <c r="B57" s="196"/>
       <c r="C57" s="18">
         <v>52</v>
       </c>
@@ -15928,7 +15909,7 @@
       <c r="K57" s="92"/>
     </row>
     <row r="58" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B58" s="138"/>
+      <c r="B58" s="196"/>
       <c r="C58" s="18">
         <v>53</v>
       </c>
@@ -15942,7 +15923,7 @@
       <c r="K58" s="92"/>
     </row>
     <row r="59" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B59" s="138"/>
+      <c r="B59" s="196"/>
       <c r="C59" s="18">
         <v>54</v>
       </c>
@@ -15956,7 +15937,7 @@
       <c r="K59" s="92"/>
     </row>
     <row r="60" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B60" s="138"/>
+      <c r="B60" s="196"/>
       <c r="C60" s="18">
         <v>55</v>
       </c>
@@ -15970,7 +15951,7 @@
       <c r="K60" s="92"/>
     </row>
     <row r="61" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B61" s="138"/>
+      <c r="B61" s="196"/>
       <c r="C61" s="18">
         <v>56</v>
       </c>
@@ -15984,7 +15965,7 @@
       <c r="K61" s="92"/>
     </row>
     <row r="62" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B62" s="138"/>
+      <c r="B62" s="196"/>
       <c r="C62" s="18">
         <v>57</v>
       </c>
@@ -15998,7 +15979,7 @@
       <c r="K62" s="92"/>
     </row>
     <row r="63" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B63" s="138"/>
+      <c r="B63" s="196"/>
       <c r="C63" s="18">
         <v>58</v>
       </c>
@@ -16012,7 +15993,7 @@
       <c r="K63" s="92"/>
     </row>
     <row r="64" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B64" s="138"/>
+      <c r="B64" s="196"/>
       <c r="C64" s="18">
         <v>59</v>
       </c>
@@ -16026,7 +16007,7 @@
       <c r="K64" s="92"/>
     </row>
     <row r="65" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B65" s="139"/>
+      <c r="B65" s="197"/>
       <c r="C65" s="24">
         <v>60</v>
       </c>
@@ -16060,18 +16041,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="3" spans="2:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="C3" s="97"/>
-      <c r="D3" s="143" t="s">
+      <c r="D3" s="201" t="s">
         <v>313</v>
       </c>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="201"/>
+      <c r="G3" s="201"/>
       <c r="H3" s="30"/>
     </row>
     <row r="4" spans="2:8" ht="16.5" customHeight="1" thickBot="1">
@@ -16093,7 +16074,7 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B5" s="144" t="s">
+      <c r="B5" s="202" t="s">
         <v>321</v>
       </c>
       <c r="C5" s="103">
@@ -16106,7 +16087,7 @@
       <c r="H5" s="43"/>
     </row>
     <row r="6" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B6" s="145"/>
+      <c r="B6" s="203"/>
       <c r="C6" s="104">
         <v>1</v>
       </c>
@@ -16117,7 +16098,7 @@
       <c r="H6" s="18"/>
     </row>
     <row r="7" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B7" s="145"/>
+      <c r="B7" s="203"/>
       <c r="C7" s="104">
         <v>2</v>
       </c>
@@ -16128,7 +16109,7 @@
       <c r="H7" s="18"/>
     </row>
     <row r="8" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B8" s="145"/>
+      <c r="B8" s="203"/>
       <c r="C8" s="104">
         <v>3</v>
       </c>
@@ -16139,7 +16120,7 @@
       <c r="H8" s="18"/>
     </row>
     <row r="9" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B9" s="145"/>
+      <c r="B9" s="203"/>
       <c r="C9" s="104">
         <v>4</v>
       </c>
@@ -16150,7 +16131,7 @@
       <c r="H9" s="18"/>
     </row>
     <row r="10" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B10" s="145"/>
+      <c r="B10" s="203"/>
       <c r="C10" s="104">
         <v>5</v>
       </c>
@@ -16161,7 +16142,7 @@
       <c r="H10" s="18"/>
     </row>
     <row r="11" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B11" s="145"/>
+      <c r="B11" s="203"/>
       <c r="C11" s="104">
         <v>6</v>
       </c>
@@ -16172,7 +16153,7 @@
       <c r="H11" s="18"/>
     </row>
     <row r="12" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B12" s="145"/>
+      <c r="B12" s="203"/>
       <c r="C12" s="104">
         <v>7</v>
       </c>
@@ -16183,7 +16164,7 @@
       <c r="H12" s="18"/>
     </row>
     <row r="13" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B13" s="145"/>
+      <c r="B13" s="203"/>
       <c r="C13" s="104">
         <v>8</v>
       </c>
@@ -16194,7 +16175,7 @@
       <c r="H13" s="18"/>
     </row>
     <row r="14" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B14" s="145"/>
+      <c r="B14" s="203"/>
       <c r="C14" s="104">
         <v>9</v>
       </c>
@@ -16205,7 +16186,7 @@
       <c r="H14" s="18"/>
     </row>
     <row r="15" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B15" s="145"/>
+      <c r="B15" s="203"/>
       <c r="C15" s="104">
         <v>10</v>
       </c>
@@ -16216,7 +16197,7 @@
       <c r="H15" s="18"/>
     </row>
     <row r="16" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B16" s="145"/>
+      <c r="B16" s="203"/>
       <c r="C16" s="104">
         <v>11</v>
       </c>
@@ -16227,7 +16208,7 @@
       <c r="H16" s="18"/>
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B17" s="145"/>
+      <c r="B17" s="203"/>
       <c r="C17" s="104">
         <v>12</v>
       </c>
@@ -16238,7 +16219,7 @@
       <c r="H17" s="18"/>
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B18" s="145"/>
+      <c r="B18" s="203"/>
       <c r="C18" s="104">
         <v>13</v>
       </c>
@@ -16249,7 +16230,7 @@
       <c r="H18" s="18"/>
     </row>
     <row r="19" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B19" s="145"/>
+      <c r="B19" s="203"/>
       <c r="C19" s="104">
         <v>14</v>
       </c>
@@ -16260,7 +16241,7 @@
       <c r="H19" s="18"/>
     </row>
     <row r="20" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B20" s="145"/>
+      <c r="B20" s="203"/>
       <c r="C20" s="104">
         <v>15</v>
       </c>
@@ -16271,7 +16252,7 @@
       <c r="H20" s="18"/>
     </row>
     <row r="21" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B21" s="145"/>
+      <c r="B21" s="203"/>
       <c r="C21" s="104">
         <v>16</v>
       </c>
@@ -16282,7 +16263,7 @@
       <c r="H21" s="18"/>
     </row>
     <row r="22" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B22" s="145"/>
+      <c r="B22" s="203"/>
       <c r="C22" s="104">
         <v>17</v>
       </c>
@@ -16293,7 +16274,7 @@
       <c r="H22" s="18"/>
     </row>
     <row r="23" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B23" s="145"/>
+      <c r="B23" s="203"/>
       <c r="C23" s="104">
         <v>18</v>
       </c>
@@ -16304,7 +16285,7 @@
       <c r="H23" s="18"/>
     </row>
     <row r="24" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B24" s="145"/>
+      <c r="B24" s="203"/>
       <c r="C24" s="104">
         <v>19</v>
       </c>
@@ -16315,7 +16296,7 @@
       <c r="H24" s="18"/>
     </row>
     <row r="25" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B25" s="145"/>
+      <c r="B25" s="203"/>
       <c r="C25" s="104">
         <v>20</v>
       </c>
@@ -16326,7 +16307,7 @@
       <c r="H25" s="18"/>
     </row>
     <row r="26" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B26" s="145"/>
+      <c r="B26" s="203"/>
       <c r="C26" s="104">
         <v>21</v>
       </c>
@@ -16337,7 +16318,7 @@
       <c r="H26" s="18"/>
     </row>
     <row r="27" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B27" s="145"/>
+      <c r="B27" s="203"/>
       <c r="C27" s="104">
         <v>22</v>
       </c>
@@ -16348,7 +16329,7 @@
       <c r="H27" s="18"/>
     </row>
     <row r="28" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B28" s="145"/>
+      <c r="B28" s="203"/>
       <c r="C28" s="104">
         <v>23</v>
       </c>
@@ -16359,7 +16340,7 @@
       <c r="H28" s="18"/>
     </row>
     <row r="29" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B29" s="145"/>
+      <c r="B29" s="203"/>
       <c r="C29" s="104">
         <v>24</v>
       </c>
@@ -16370,7 +16351,7 @@
       <c r="H29" s="18"/>
     </row>
     <row r="30" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B30" s="145"/>
+      <c r="B30" s="203"/>
       <c r="C30" s="104">
         <v>25</v>
       </c>
@@ -16381,7 +16362,7 @@
       <c r="H30" s="18"/>
     </row>
     <row r="31" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B31" s="145"/>
+      <c r="B31" s="203"/>
       <c r="C31" s="104">
         <v>26</v>
       </c>
@@ -16392,7 +16373,7 @@
       <c r="H31" s="18"/>
     </row>
     <row r="32" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B32" s="145"/>
+      <c r="B32" s="203"/>
       <c r="C32" s="104">
         <v>27</v>
       </c>
@@ -16403,7 +16384,7 @@
       <c r="H32" s="18"/>
     </row>
     <row r="33" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B33" s="145"/>
+      <c r="B33" s="203"/>
       <c r="C33" s="104">
         <v>28</v>
       </c>
@@ -16414,7 +16395,7 @@
       <c r="H33" s="18"/>
     </row>
     <row r="34" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B34" s="145"/>
+      <c r="B34" s="203"/>
       <c r="C34" s="104">
         <v>29</v>
       </c>
@@ -16425,7 +16406,7 @@
       <c r="H34" s="92"/>
     </row>
     <row r="35" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B35" s="145"/>
+      <c r="B35" s="203"/>
       <c r="C35" s="104">
         <v>30</v>
       </c>
@@ -16436,7 +16417,7 @@
       <c r="H35" s="18"/>
     </row>
     <row r="36" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B36" s="145"/>
+      <c r="B36" s="203"/>
       <c r="C36" s="104">
         <v>31</v>
       </c>
@@ -16447,7 +16428,7 @@
       <c r="H36" s="18"/>
     </row>
     <row r="37" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B37" s="145"/>
+      <c r="B37" s="203"/>
       <c r="C37" s="104">
         <v>32</v>
       </c>
@@ -16458,7 +16439,7 @@
       <c r="H37" s="18"/>
     </row>
     <row r="38" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B38" s="145"/>
+      <c r="B38" s="203"/>
       <c r="C38" s="104">
         <v>33</v>
       </c>
@@ -16469,7 +16450,7 @@
       <c r="H38" s="18"/>
     </row>
     <row r="39" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B39" s="145"/>
+      <c r="B39" s="203"/>
       <c r="C39" s="104">
         <v>34</v>
       </c>
@@ -16480,7 +16461,7 @@
       <c r="H39" s="18"/>
     </row>
     <row r="40" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B40" s="145"/>
+      <c r="B40" s="203"/>
       <c r="C40" s="104">
         <v>35</v>
       </c>
@@ -16491,7 +16472,7 @@
       <c r="H40" s="18"/>
     </row>
     <row r="41" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B41" s="145"/>
+      <c r="B41" s="203"/>
       <c r="C41" s="104">
         <v>36</v>
       </c>
@@ -16502,7 +16483,7 @@
       <c r="H41" s="18"/>
     </row>
     <row r="42" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B42" s="145"/>
+      <c r="B42" s="203"/>
       <c r="C42" s="104">
         <v>37</v>
       </c>
@@ -16513,7 +16494,7 @@
       <c r="H42" s="18"/>
     </row>
     <row r="43" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B43" s="145"/>
+      <c r="B43" s="203"/>
       <c r="C43" s="104">
         <v>38</v>
       </c>
@@ -16524,7 +16505,7 @@
       <c r="H43" s="18"/>
     </row>
     <row r="44" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B44" s="145"/>
+      <c r="B44" s="203"/>
       <c r="C44" s="104">
         <v>39</v>
       </c>
@@ -16535,7 +16516,7 @@
       <c r="H44" s="18"/>
     </row>
     <row r="45" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B45" s="145"/>
+      <c r="B45" s="203"/>
       <c r="C45" s="104">
         <v>40</v>
       </c>
@@ -16546,7 +16527,7 @@
       <c r="H45" s="18"/>
     </row>
     <row r="46" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B46" s="145"/>
+      <c r="B46" s="203"/>
       <c r="C46" s="104">
         <v>41</v>
       </c>
@@ -16557,7 +16538,7 @@
       <c r="H46" s="18"/>
     </row>
     <row r="47" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B47" s="145"/>
+      <c r="B47" s="203"/>
       <c r="C47" s="104">
         <v>42</v>
       </c>
@@ -16568,7 +16549,7 @@
       <c r="H47" s="18"/>
     </row>
     <row r="48" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B48" s="145"/>
+      <c r="B48" s="203"/>
       <c r="C48" s="104">
         <v>43</v>
       </c>
@@ -16579,7 +16560,7 @@
       <c r="H48" s="18"/>
     </row>
     <row r="49" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B49" s="145"/>
+      <c r="B49" s="203"/>
       <c r="C49" s="104">
         <v>44</v>
       </c>
@@ -16590,7 +16571,7 @@
       <c r="H49" s="18"/>
     </row>
     <row r="50" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B50" s="145"/>
+      <c r="B50" s="203"/>
       <c r="C50" s="104">
         <v>45</v>
       </c>
@@ -16601,7 +16582,7 @@
       <c r="H50" s="18"/>
     </row>
     <row r="51" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B51" s="145"/>
+      <c r="B51" s="203"/>
       <c r="C51" s="104">
         <v>46</v>
       </c>
@@ -16612,7 +16593,7 @@
       <c r="H51" s="18"/>
     </row>
     <row r="52" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B52" s="145"/>
+      <c r="B52" s="203"/>
       <c r="C52" s="104">
         <v>47</v>
       </c>
@@ -16623,7 +16604,7 @@
       <c r="H52" s="18"/>
     </row>
     <row r="53" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B53" s="145"/>
+      <c r="B53" s="203"/>
       <c r="C53" s="104">
         <v>48</v>
       </c>
@@ -16634,7 +16615,7 @@
       <c r="H53" s="18"/>
     </row>
     <row r="54" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B54" s="145"/>
+      <c r="B54" s="203"/>
       <c r="C54" s="104">
         <v>49</v>
       </c>
@@ -16645,7 +16626,7 @@
       <c r="H54" s="18"/>
     </row>
     <row r="55" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B55" s="145"/>
+      <c r="B55" s="203"/>
       <c r="C55" s="104">
         <v>50</v>
       </c>
@@ -16656,7 +16637,7 @@
       <c r="H55" s="18"/>
     </row>
     <row r="56" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B56" s="145"/>
+      <c r="B56" s="203"/>
       <c r="C56" s="104">
         <v>51</v>
       </c>
@@ -16667,7 +16648,7 @@
       <c r="H56" s="18"/>
     </row>
     <row r="57" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B57" s="145"/>
+      <c r="B57" s="203"/>
       <c r="C57" s="104">
         <v>52</v>
       </c>
@@ -16678,7 +16659,7 @@
       <c r="H57" s="18"/>
     </row>
     <row r="58" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B58" s="145"/>
+      <c r="B58" s="203"/>
       <c r="C58" s="104">
         <v>53</v>
       </c>
@@ -16689,7 +16670,7 @@
       <c r="H58" s="18"/>
     </row>
     <row r="59" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B59" s="145"/>
+      <c r="B59" s="203"/>
       <c r="C59" s="104">
         <v>54</v>
       </c>
@@ -16700,7 +16681,7 @@
       <c r="H59" s="18"/>
     </row>
     <row r="60" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B60" s="145"/>
+      <c r="B60" s="203"/>
       <c r="C60" s="104">
         <v>55</v>
       </c>
@@ -16711,7 +16692,7 @@
       <c r="H60" s="18"/>
     </row>
     <row r="61" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B61" s="145"/>
+      <c r="B61" s="203"/>
       <c r="C61" s="104">
         <v>56</v>
       </c>
@@ -16722,7 +16703,7 @@
       <c r="H61" s="18"/>
     </row>
     <row r="62" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B62" s="145"/>
+      <c r="B62" s="203"/>
       <c r="C62" s="104">
         <v>57</v>
       </c>
@@ -16733,7 +16714,7 @@
       <c r="H62" s="18"/>
     </row>
     <row r="63" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B63" s="145"/>
+      <c r="B63" s="203"/>
       <c r="C63" s="104">
         <v>58</v>
       </c>
@@ -16744,7 +16725,7 @@
       <c r="H63" s="18"/>
     </row>
     <row r="64" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B64" s="145"/>
+      <c r="B64" s="203"/>
       <c r="C64" s="104">
         <v>59</v>
       </c>
@@ -16755,7 +16736,7 @@
       <c r="H64" s="18"/>
     </row>
     <row r="65" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B65" s="145"/>
+      <c r="B65" s="203"/>
       <c r="C65" s="104">
         <v>60</v>
       </c>
@@ -16766,7 +16747,7 @@
       <c r="H65" s="18"/>
     </row>
     <row r="66" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B66" s="145"/>
+      <c r="B66" s="203"/>
       <c r="C66" s="104">
         <v>61</v>
       </c>
@@ -16777,7 +16758,7 @@
       <c r="H66" s="18"/>
     </row>
     <row r="67" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B67" s="145"/>
+      <c r="B67" s="203"/>
       <c r="C67" s="104">
         <v>62</v>
       </c>
@@ -16788,7 +16769,7 @@
       <c r="H67" s="18"/>
     </row>
     <row r="68" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B68" s="145"/>
+      <c r="B68" s="203"/>
       <c r="C68" s="104">
         <v>63</v>
       </c>
@@ -16799,7 +16780,7 @@
       <c r="H68" s="18"/>
     </row>
     <row r="69" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B69" s="145"/>
+      <c r="B69" s="203"/>
       <c r="C69" s="104">
         <v>64</v>
       </c>
@@ -16810,7 +16791,7 @@
       <c r="H69" s="18"/>
     </row>
     <row r="70" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B70" s="145"/>
+      <c r="B70" s="203"/>
       <c r="C70" s="104">
         <v>65</v>
       </c>
@@ -16821,7 +16802,7 @@
       <c r="H70" s="18"/>
     </row>
     <row r="71" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B71" s="145"/>
+      <c r="B71" s="203"/>
       <c r="C71" s="104">
         <v>66</v>
       </c>
@@ -16832,7 +16813,7 @@
       <c r="H71" s="18"/>
     </row>
     <row r="72" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B72" s="145"/>
+      <c r="B72" s="203"/>
       <c r="C72" s="104">
         <v>67</v>
       </c>
@@ -16843,7 +16824,7 @@
       <c r="H72" s="18"/>
     </row>
     <row r="73" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B73" s="145"/>
+      <c r="B73" s="203"/>
       <c r="C73" s="104">
         <v>68</v>
       </c>
@@ -16854,7 +16835,7 @@
       <c r="H73" s="18"/>
     </row>
     <row r="74" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B74" s="145"/>
+      <c r="B74" s="203"/>
       <c r="C74" s="104">
         <v>69</v>
       </c>
@@ -16865,7 +16846,7 @@
       <c r="H74" s="18"/>
     </row>
     <row r="75" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B75" s="145"/>
+      <c r="B75" s="203"/>
       <c r="C75" s="104">
         <v>70</v>
       </c>
@@ -16876,7 +16857,7 @@
       <c r="H75" s="18"/>
     </row>
     <row r="76" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B76" s="145"/>
+      <c r="B76" s="203"/>
       <c r="C76" s="104">
         <v>71</v>
       </c>
@@ -16887,7 +16868,7 @@
       <c r="H76" s="18"/>
     </row>
     <row r="77" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B77" s="145"/>
+      <c r="B77" s="203"/>
       <c r="C77" s="104">
         <v>72</v>
       </c>
@@ -16898,7 +16879,7 @@
       <c r="H77" s="18"/>
     </row>
     <row r="78" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B78" s="145"/>
+      <c r="B78" s="203"/>
       <c r="C78" s="104">
         <v>73</v>
       </c>
@@ -16909,7 +16890,7 @@
       <c r="H78" s="18"/>
     </row>
     <row r="79" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B79" s="145"/>
+      <c r="B79" s="203"/>
       <c r="C79" s="104">
         <v>74</v>
       </c>
@@ -16920,7 +16901,7 @@
       <c r="H79" s="18"/>
     </row>
     <row r="80" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B80" s="145"/>
+      <c r="B80" s="203"/>
       <c r="C80" s="104">
         <v>75</v>
       </c>
@@ -16931,7 +16912,7 @@
       <c r="H80" s="18"/>
     </row>
     <row r="81" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B81" s="145"/>
+      <c r="B81" s="203"/>
       <c r="C81" s="104">
         <v>76</v>
       </c>
@@ -16942,7 +16923,7 @@
       <c r="H81" s="18"/>
     </row>
     <row r="82" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B82" s="145"/>
+      <c r="B82" s="203"/>
       <c r="C82" s="104">
         <v>77</v>
       </c>
@@ -16953,7 +16934,7 @@
       <c r="H82" s="18"/>
     </row>
     <row r="83" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B83" s="145"/>
+      <c r="B83" s="203"/>
       <c r="C83" s="104">
         <v>78</v>
       </c>
@@ -16964,7 +16945,7 @@
       <c r="H83" s="18"/>
     </row>
     <row r="84" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B84" s="145"/>
+      <c r="B84" s="203"/>
       <c r="C84" s="104">
         <v>79</v>
       </c>
@@ -16975,7 +16956,7 @@
       <c r="H84" s="18"/>
     </row>
     <row r="85" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B85" s="145"/>
+      <c r="B85" s="203"/>
       <c r="C85" s="104">
         <v>80</v>
       </c>
@@ -16986,7 +16967,7 @@
       <c r="H85" s="18"/>
     </row>
     <row r="86" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B86" s="145"/>
+      <c r="B86" s="203"/>
       <c r="C86" s="104">
         <v>81</v>
       </c>
@@ -16997,7 +16978,7 @@
       <c r="H86" s="18"/>
     </row>
     <row r="87" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B87" s="145"/>
+      <c r="B87" s="203"/>
       <c r="C87" s="104">
         <v>82</v>
       </c>
@@ -17008,7 +16989,7 @@
       <c r="H87" s="18"/>
     </row>
     <row r="88" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B88" s="145"/>
+      <c r="B88" s="203"/>
       <c r="C88" s="104">
         <v>83</v>
       </c>
@@ -17019,7 +17000,7 @@
       <c r="H88" s="18"/>
     </row>
     <row r="89" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B89" s="145"/>
+      <c r="B89" s="203"/>
       <c r="C89" s="104">
         <v>84</v>
       </c>
@@ -17030,7 +17011,7 @@
       <c r="H89" s="18"/>
     </row>
     <row r="90" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B90" s="145"/>
+      <c r="B90" s="203"/>
       <c r="C90" s="104">
         <v>85</v>
       </c>
@@ -17041,7 +17022,7 @@
       <c r="H90" s="18"/>
     </row>
     <row r="91" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B91" s="145"/>
+      <c r="B91" s="203"/>
       <c r="C91" s="104">
         <v>86</v>
       </c>
@@ -17052,7 +17033,7 @@
       <c r="H91" s="18"/>
     </row>
     <row r="92" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B92" s="145"/>
+      <c r="B92" s="203"/>
       <c r="C92" s="104">
         <v>87</v>
       </c>
@@ -17063,7 +17044,7 @@
       <c r="H92" s="18"/>
     </row>
     <row r="93" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B93" s="145"/>
+      <c r="B93" s="203"/>
       <c r="C93" s="104">
         <v>88</v>
       </c>
@@ -17074,7 +17055,7 @@
       <c r="H93" s="18"/>
     </row>
     <row r="94" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B94" s="145"/>
+      <c r="B94" s="203"/>
       <c r="C94" s="104">
         <v>89</v>
       </c>
@@ -17085,7 +17066,7 @@
       <c r="H94" s="18"/>
     </row>
     <row r="95" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B95" s="145"/>
+      <c r="B95" s="203"/>
       <c r="C95" s="104">
         <v>90</v>
       </c>
@@ -17096,7 +17077,7 @@
       <c r="H95" s="18"/>
     </row>
     <row r="96" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B96" s="145"/>
+      <c r="B96" s="203"/>
       <c r="C96" s="104">
         <v>91</v>
       </c>
@@ -17107,7 +17088,7 @@
       <c r="H96" s="18"/>
     </row>
     <row r="97" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B97" s="145"/>
+      <c r="B97" s="203"/>
       <c r="C97" s="104">
         <v>92</v>
       </c>
@@ -17118,7 +17099,7 @@
       <c r="H97" s="18"/>
     </row>
     <row r="98" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B98" s="145"/>
+      <c r="B98" s="203"/>
       <c r="C98" s="104">
         <v>93</v>
       </c>
@@ -17129,7 +17110,7 @@
       <c r="H98" s="18"/>
     </row>
     <row r="99" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B99" s="145"/>
+      <c r="B99" s="203"/>
       <c r="C99" s="104">
         <v>94</v>
       </c>
@@ -17140,7 +17121,7 @@
       <c r="H99" s="18"/>
     </row>
     <row r="100" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B100" s="145"/>
+      <c r="B100" s="203"/>
       <c r="C100" s="104">
         <v>95</v>
       </c>
@@ -17151,7 +17132,7 @@
       <c r="H100" s="18"/>
     </row>
     <row r="101" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B101" s="145"/>
+      <c r="B101" s="203"/>
       <c r="C101" s="104">
         <v>96</v>
       </c>
@@ -17162,7 +17143,7 @@
       <c r="H101" s="18"/>
     </row>
     <row r="102" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B102" s="145"/>
+      <c r="B102" s="203"/>
       <c r="C102" s="104">
         <v>97</v>
       </c>
@@ -17173,7 +17154,7 @@
       <c r="H102" s="18"/>
     </row>
     <row r="103" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B103" s="145"/>
+      <c r="B103" s="203"/>
       <c r="C103" s="104">
         <v>98</v>
       </c>
@@ -17184,7 +17165,7 @@
       <c r="H103" s="18"/>
     </row>
     <row r="104" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B104" s="145"/>
+      <c r="B104" s="203"/>
       <c r="C104" s="104">
         <v>99</v>
       </c>
@@ -17195,7 +17176,7 @@
       <c r="H104" s="18"/>
     </row>
     <row r="105" spans="2:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B105" s="146"/>
+      <c r="B105" s="204"/>
       <c r="C105" s="105">
         <v>100</v>
       </c>

--- a/資料/設計書/モグラ叩き_テスト仕様書.xlsx
+++ b/資料/設計書/モグラ叩き_テスト仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\comp.train.whack-a-mole\資料\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC447B1A-3494-42BB-BEEC-81FA339C5A47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96027CF-E7E5-43A7-B916-94E37B190F62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="システムテスト" sheetId="4" state="hidden" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="470">
   <si>
     <t>マイコン：pic16f1827</t>
     <phoneticPr fontId="13"/>
@@ -8437,7 +8437,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -8909,9 +8909,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -13017,8 +13014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFB9B61-49CD-4A84-BB87-A2EDBB8DA8A8}">
   <dimension ref="A1:Q102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18"/>
@@ -13146,19 +13143,19 @@
         <f t="shared" ref="B5:B33" si="0">ROW(B5)-ROW($B$3)</f>
         <v>2</v>
       </c>
-      <c r="C5" s="189" t="s">
+      <c r="C5" s="188" t="s">
         <v>429</v>
       </c>
-      <c r="D5" s="192" t="s">
+      <c r="D5" s="191" t="s">
         <v>468</v>
       </c>
-      <c r="E5" s="192" t="s">
+      <c r="E5" s="191" t="s">
         <v>324</v>
       </c>
-      <c r="F5" s="192" t="s">
+      <c r="F5" s="191" t="s">
         <v>430</v>
       </c>
-      <c r="G5" s="192" t="s">
+      <c r="G5" s="191" t="s">
         <v>431</v>
       </c>
       <c r="H5" s="151">
@@ -13167,7 +13164,7 @@
       <c r="I5" s="151">
         <v>0</v>
       </c>
-      <c r="J5" s="185" t="s">
+      <c r="J5" s="184" t="s">
         <v>443</v>
       </c>
       <c r="K5" s="153">
@@ -13176,7 +13173,7 @@
       <c r="L5" s="154" t="s">
         <v>444</v>
       </c>
-      <c r="M5" s="187" t="s">
+      <c r="M5" s="186" t="s">
         <v>467</v>
       </c>
       <c r="N5" s="147"/>
@@ -13189,18 +13186,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="190"/>
-      <c r="D6" s="193"/>
-      <c r="E6" s="193"/>
-      <c r="F6" s="193"/>
-      <c r="G6" s="193"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="192"/>
+      <c r="F6" s="192"/>
+      <c r="G6" s="192"/>
       <c r="H6" s="151">
         <v>0</v>
       </c>
       <c r="I6" s="151">
         <v>30</v>
       </c>
-      <c r="J6" s="185" t="s">
+      <c r="J6" s="184" t="s">
         <v>443</v>
       </c>
       <c r="K6" s="153">
@@ -13220,18 +13217,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="190"/>
-      <c r="D7" s="193"/>
-      <c r="E7" s="193"/>
-      <c r="F7" s="193"/>
-      <c r="G7" s="193"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="192"/>
+      <c r="E7" s="192"/>
+      <c r="F7" s="192"/>
+      <c r="G7" s="192"/>
       <c r="H7" s="151">
         <v>0</v>
       </c>
       <c r="I7" s="151">
         <v>60</v>
       </c>
-      <c r="J7" s="185" t="s">
+      <c r="J7" s="184" t="s">
         <v>443</v>
       </c>
       <c r="K7" s="153">
@@ -13251,18 +13248,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="190"/>
-      <c r="D8" s="193"/>
-      <c r="E8" s="193"/>
-      <c r="F8" s="193"/>
-      <c r="G8" s="193"/>
-      <c r="H8" s="208">
+      <c r="C8" s="189"/>
+      <c r="D8" s="192"/>
+      <c r="E8" s="192"/>
+      <c r="F8" s="192"/>
+      <c r="G8" s="192"/>
+      <c r="H8" s="207">
         <v>0</v>
       </c>
-      <c r="I8" s="185">
+      <c r="I8" s="184">
         <v>61</v>
       </c>
-      <c r="J8" s="185" t="s">
+      <c r="J8" s="184" t="s">
         <v>454</v>
       </c>
       <c r="K8" s="153">
@@ -13284,18 +13281,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="190"/>
-      <c r="D9" s="193"/>
-      <c r="E9" s="193"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="208">
+      <c r="C9" s="189"/>
+      <c r="D9" s="192"/>
+      <c r="E9" s="192"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="207">
         <v>0</v>
       </c>
-      <c r="I9" s="185">
+      <c r="I9" s="184">
         <v>255</v>
       </c>
-      <c r="J9" s="185" t="s">
+      <c r="J9" s="184" t="s">
         <v>454</v>
       </c>
       <c r="K9" s="153">
@@ -13317,18 +13314,18 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="190"/>
-      <c r="D10" s="193"/>
-      <c r="E10" s="193"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="193"/>
+      <c r="C10" s="189"/>
+      <c r="D10" s="192"/>
+      <c r="E10" s="192"/>
+      <c r="F10" s="192"/>
+      <c r="G10" s="192"/>
       <c r="H10" s="151">
         <v>1</v>
       </c>
       <c r="I10" s="151">
         <v>0</v>
       </c>
-      <c r="J10" s="185" t="s">
+      <c r="J10" s="184" t="s">
         <v>447</v>
       </c>
       <c r="K10" s="153">
@@ -13348,18 +13345,18 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="190"/>
-      <c r="D11" s="193"/>
-      <c r="E11" s="193"/>
-      <c r="F11" s="193"/>
-      <c r="G11" s="193"/>
+      <c r="C11" s="189"/>
+      <c r="D11" s="192"/>
+      <c r="E11" s="192"/>
+      <c r="F11" s="192"/>
+      <c r="G11" s="192"/>
       <c r="H11" s="151">
         <v>1</v>
       </c>
       <c r="I11" s="151">
         <v>30</v>
       </c>
-      <c r="J11" s="185" t="s">
+      <c r="J11" s="184" t="s">
         <v>447</v>
       </c>
       <c r="K11" s="153">
@@ -13379,18 +13376,18 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="190"/>
-      <c r="D12" s="193"/>
-      <c r="E12" s="193"/>
-      <c r="F12" s="193"/>
-      <c r="G12" s="193"/>
+      <c r="C12" s="189"/>
+      <c r="D12" s="192"/>
+      <c r="E12" s="192"/>
+      <c r="F12" s="192"/>
+      <c r="G12" s="192"/>
       <c r="H12" s="151">
         <v>1</v>
       </c>
       <c r="I12" s="151">
         <v>60</v>
       </c>
-      <c r="J12" s="185" t="s">
+      <c r="J12" s="184" t="s">
         <v>447</v>
       </c>
       <c r="K12" s="153">
@@ -13410,18 +13407,18 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C13" s="190"/>
-      <c r="D13" s="193"/>
-      <c r="E13" s="193"/>
-      <c r="F13" s="193"/>
-      <c r="G13" s="193"/>
-      <c r="H13" s="208">
+      <c r="C13" s="189"/>
+      <c r="D13" s="192"/>
+      <c r="E13" s="192"/>
+      <c r="F13" s="192"/>
+      <c r="G13" s="192"/>
+      <c r="H13" s="207">
         <v>1</v>
       </c>
-      <c r="I13" s="185">
+      <c r="I13" s="184">
         <v>61</v>
       </c>
-      <c r="J13" s="185" t="s">
+      <c r="J13" s="184" t="s">
         <v>454</v>
       </c>
       <c r="K13" s="153">
@@ -13443,18 +13440,18 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="190"/>
-      <c r="D14" s="193"/>
-      <c r="E14" s="193"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="208">
+      <c r="C14" s="189"/>
+      <c r="D14" s="192"/>
+      <c r="E14" s="192"/>
+      <c r="F14" s="192"/>
+      <c r="G14" s="192"/>
+      <c r="H14" s="207">
         <v>1</v>
       </c>
-      <c r="I14" s="185">
+      <c r="I14" s="184">
         <v>255</v>
       </c>
-      <c r="J14" s="185" t="s">
+      <c r="J14" s="184" t="s">
         <v>454</v>
       </c>
       <c r="K14" s="153">
@@ -13476,18 +13473,18 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C15" s="190"/>
-      <c r="D15" s="193"/>
-      <c r="E15" s="193"/>
-      <c r="F15" s="193"/>
-      <c r="G15" s="193"/>
+      <c r="C15" s="189"/>
+      <c r="D15" s="192"/>
+      <c r="E15" s="192"/>
+      <c r="F15" s="192"/>
+      <c r="G15" s="192"/>
       <c r="H15" s="151">
         <v>2</v>
       </c>
       <c r="I15" s="151">
         <v>0</v>
       </c>
-      <c r="J15" s="185" t="s">
+      <c r="J15" s="184" t="s">
         <v>448</v>
       </c>
       <c r="K15" s="153">
@@ -13507,18 +13504,18 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C16" s="190"/>
-      <c r="D16" s="193"/>
-      <c r="E16" s="193"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="193"/>
+      <c r="C16" s="189"/>
+      <c r="D16" s="192"/>
+      <c r="E16" s="192"/>
+      <c r="F16" s="192"/>
+      <c r="G16" s="192"/>
       <c r="H16" s="151">
         <v>2</v>
       </c>
       <c r="I16" s="151">
         <v>30</v>
       </c>
-      <c r="J16" s="185" t="s">
+      <c r="J16" s="184" t="s">
         <v>448</v>
       </c>
       <c r="K16" s="153">
@@ -13538,18 +13535,18 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C17" s="190"/>
-      <c r="D17" s="193"/>
-      <c r="E17" s="193"/>
-      <c r="F17" s="193"/>
-      <c r="G17" s="193"/>
+      <c r="C17" s="189"/>
+      <c r="D17" s="192"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="192"/>
+      <c r="G17" s="192"/>
       <c r="H17" s="151">
         <v>2</v>
       </c>
       <c r="I17" s="151">
         <v>60</v>
       </c>
-      <c r="J17" s="185" t="s">
+      <c r="J17" s="184" t="s">
         <v>448</v>
       </c>
       <c r="K17" s="153">
@@ -13569,18 +13566,18 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C18" s="190"/>
-      <c r="D18" s="193"/>
-      <c r="E18" s="193"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="208">
+      <c r="C18" s="189"/>
+      <c r="D18" s="192"/>
+      <c r="E18" s="192"/>
+      <c r="F18" s="192"/>
+      <c r="G18" s="192"/>
+      <c r="H18" s="207">
         <v>2</v>
       </c>
-      <c r="I18" s="185">
+      <c r="I18" s="184">
         <v>61</v>
       </c>
-      <c r="J18" s="185" t="s">
+      <c r="J18" s="184" t="s">
         <v>454</v>
       </c>
       <c r="K18" s="153">
@@ -13602,18 +13599,18 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C19" s="190"/>
-      <c r="D19" s="193"/>
-      <c r="E19" s="193"/>
-      <c r="F19" s="193"/>
-      <c r="G19" s="193"/>
-      <c r="H19" s="208">
+      <c r="C19" s="189"/>
+      <c r="D19" s="192"/>
+      <c r="E19" s="192"/>
+      <c r="F19" s="192"/>
+      <c r="G19" s="192"/>
+      <c r="H19" s="207">
         <v>2</v>
       </c>
-      <c r="I19" s="185">
+      <c r="I19" s="184">
         <v>255</v>
       </c>
-      <c r="J19" s="185" t="s">
+      <c r="J19" s="184" t="s">
         <v>454</v>
       </c>
       <c r="K19" s="153">
@@ -13635,18 +13632,18 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C20" s="190"/>
-      <c r="D20" s="193"/>
-      <c r="E20" s="193"/>
-      <c r="F20" s="193"/>
-      <c r="G20" s="193"/>
+      <c r="C20" s="189"/>
+      <c r="D20" s="192"/>
+      <c r="E20" s="192"/>
+      <c r="F20" s="192"/>
+      <c r="G20" s="192"/>
       <c r="H20" s="151">
         <v>3</v>
       </c>
       <c r="I20" s="151">
         <v>0</v>
       </c>
-      <c r="J20" s="185" t="s">
+      <c r="J20" s="184" t="s">
         <v>454</v>
       </c>
       <c r="K20" s="153">
@@ -13668,18 +13665,18 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C21" s="190"/>
-      <c r="D21" s="193"/>
-      <c r="E21" s="193"/>
-      <c r="F21" s="193"/>
-      <c r="G21" s="193"/>
+      <c r="C21" s="189"/>
+      <c r="D21" s="192"/>
+      <c r="E21" s="192"/>
+      <c r="F21" s="192"/>
+      <c r="G21" s="192"/>
       <c r="H21" s="151">
         <v>3</v>
       </c>
       <c r="I21" s="151">
         <v>30</v>
       </c>
-      <c r="J21" s="185" t="s">
+      <c r="J21" s="184" t="s">
         <v>454</v>
       </c>
       <c r="K21" s="153">
@@ -13701,18 +13698,18 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C22" s="190"/>
-      <c r="D22" s="193"/>
-      <c r="E22" s="193"/>
-      <c r="F22" s="193"/>
-      <c r="G22" s="193"/>
+      <c r="C22" s="189"/>
+      <c r="D22" s="192"/>
+      <c r="E22" s="192"/>
+      <c r="F22" s="192"/>
+      <c r="G22" s="192"/>
       <c r="H22" s="151">
         <v>3</v>
       </c>
       <c r="I22" s="151">
         <v>60</v>
       </c>
-      <c r="J22" s="185" t="s">
+      <c r="J22" s="184" t="s">
         <v>454</v>
       </c>
       <c r="K22" s="153">
@@ -13734,18 +13731,18 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C23" s="190"/>
-      <c r="D23" s="193"/>
-      <c r="E23" s="193"/>
-      <c r="F23" s="193"/>
-      <c r="G23" s="193"/>
-      <c r="H23" s="208">
+      <c r="C23" s="189"/>
+      <c r="D23" s="192"/>
+      <c r="E23" s="192"/>
+      <c r="F23" s="192"/>
+      <c r="G23" s="192"/>
+      <c r="H23" s="207">
         <v>3</v>
       </c>
-      <c r="I23" s="185">
+      <c r="I23" s="184">
         <v>61</v>
       </c>
-      <c r="J23" s="185" t="s">
+      <c r="J23" s="184" t="s">
         <v>454</v>
       </c>
       <c r="K23" s="153">
@@ -13767,18 +13764,18 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C24" s="190"/>
-      <c r="D24" s="193"/>
-      <c r="E24" s="193"/>
-      <c r="F24" s="193"/>
-      <c r="G24" s="193"/>
-      <c r="H24" s="208">
+      <c r="C24" s="189"/>
+      <c r="D24" s="192"/>
+      <c r="E24" s="192"/>
+      <c r="F24" s="192"/>
+      <c r="G24" s="192"/>
+      <c r="H24" s="207">
         <v>3</v>
       </c>
-      <c r="I24" s="185">
+      <c r="I24" s="184">
         <v>255</v>
       </c>
-      <c r="J24" s="185" t="s">
+      <c r="J24" s="184" t="s">
         <v>454</v>
       </c>
       <c r="K24" s="153">
@@ -13800,18 +13797,18 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C25" s="190"/>
-      <c r="D25" s="193"/>
-      <c r="E25" s="193"/>
-      <c r="F25" s="193"/>
-      <c r="G25" s="193"/>
+      <c r="C25" s="189"/>
+      <c r="D25" s="192"/>
+      <c r="E25" s="192"/>
+      <c r="F25" s="192"/>
+      <c r="G25" s="192"/>
       <c r="H25" s="151">
         <v>255</v>
       </c>
       <c r="I25" s="151">
         <v>0</v>
       </c>
-      <c r="J25" s="185" t="s">
+      <c r="J25" s="184" t="s">
         <v>454</v>
       </c>
       <c r="K25" s="153">
@@ -13831,18 +13828,18 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C26" s="190"/>
-      <c r="D26" s="193"/>
-      <c r="E26" s="193"/>
-      <c r="F26" s="193"/>
-      <c r="G26" s="193"/>
+      <c r="C26" s="189"/>
+      <c r="D26" s="192"/>
+      <c r="E26" s="192"/>
+      <c r="F26" s="192"/>
+      <c r="G26" s="192"/>
       <c r="H26" s="151">
         <v>255</v>
       </c>
       <c r="I26" s="151">
         <v>30</v>
       </c>
-      <c r="J26" s="185" t="s">
+      <c r="J26" s="184" t="s">
         <v>454</v>
       </c>
       <c r="K26" s="153">
@@ -13864,18 +13861,18 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C27" s="190"/>
-      <c r="D27" s="193"/>
-      <c r="E27" s="193"/>
-      <c r="F27" s="193"/>
-      <c r="G27" s="193"/>
+      <c r="C27" s="189"/>
+      <c r="D27" s="192"/>
+      <c r="E27" s="192"/>
+      <c r="F27" s="192"/>
+      <c r="G27" s="192"/>
       <c r="H27" s="151">
         <v>255</v>
       </c>
       <c r="I27" s="151">
         <v>60</v>
       </c>
-      <c r="J27" s="185" t="s">
+      <c r="J27" s="184" t="s">
         <v>454</v>
       </c>
       <c r="K27" s="153">
@@ -13897,18 +13894,18 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C28" s="190"/>
-      <c r="D28" s="193"/>
-      <c r="E28" s="193"/>
-      <c r="F28" s="193"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="208">
+      <c r="C28" s="189"/>
+      <c r="D28" s="192"/>
+      <c r="E28" s="192"/>
+      <c r="F28" s="192"/>
+      <c r="G28" s="192"/>
+      <c r="H28" s="207">
         <v>255</v>
       </c>
-      <c r="I28" s="185">
+      <c r="I28" s="184">
         <v>61</v>
       </c>
-      <c r="J28" s="185" t="s">
+      <c r="J28" s="184" t="s">
         <v>454</v>
       </c>
       <c r="K28" s="153">
@@ -13930,18 +13927,18 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C29" s="190"/>
-      <c r="D29" s="193"/>
-      <c r="E29" s="193"/>
-      <c r="F29" s="193"/>
-      <c r="G29" s="193"/>
-      <c r="H29" s="208">
+      <c r="C29" s="189"/>
+      <c r="D29" s="192"/>
+      <c r="E29" s="192"/>
+      <c r="F29" s="192"/>
+      <c r="G29" s="192"/>
+      <c r="H29" s="207">
         <v>255</v>
       </c>
-      <c r="I29" s="185">
+      <c r="I29" s="184">
         <v>255</v>
       </c>
-      <c r="J29" s="185" t="s">
+      <c r="J29" s="184" t="s">
         <v>454</v>
       </c>
       <c r="K29" s="153">
@@ -13963,19 +13960,19 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C30" s="189" t="s">
+      <c r="C30" s="188" t="s">
         <v>432</v>
       </c>
-      <c r="D30" s="192" t="s">
+      <c r="D30" s="191" t="s">
         <v>433</v>
       </c>
-      <c r="E30" s="192" t="s">
+      <c r="E30" s="191" t="s">
         <v>434</v>
       </c>
-      <c r="F30" s="192" t="s">
+      <c r="F30" s="191" t="s">
         <v>435</v>
       </c>
-      <c r="G30" s="192" t="s">
+      <c r="G30" s="191" t="s">
         <v>436</v>
       </c>
       <c r="H30" s="156" t="s">
@@ -13990,10 +13987,10 @@
       <c r="K30" s="144">
         <v>44098</v>
       </c>
-      <c r="L30" s="159" t="s">
+      <c r="L30" s="158" t="s">
         <v>444</v>
       </c>
-      <c r="M30" s="160"/>
+      <c r="M30" s="159"/>
       <c r="N30" s="147"/>
       <c r="O30" s="148"/>
       <c r="P30" s="149"/>
@@ -14004,30 +14001,30 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C31" s="190"/>
-      <c r="D31" s="193"/>
-      <c r="E31" s="193"/>
-      <c r="F31" s="193"/>
-      <c r="G31" s="193"/>
-      <c r="H31" s="161" t="s">
+      <c r="C31" s="189"/>
+      <c r="D31" s="192"/>
+      <c r="E31" s="192"/>
+      <c r="F31" s="192"/>
+      <c r="G31" s="192"/>
+      <c r="H31" s="160" t="s">
         <v>439</v>
       </c>
       <c r="I31" s="157" t="s">
         <v>427</v>
       </c>
-      <c r="J31" s="162" t="s">
+      <c r="J31" s="161" t="s">
         <v>441</v>
       </c>
       <c r="K31" s="144">
         <v>44098</v>
       </c>
-      <c r="L31" s="159" t="s">
+      <c r="L31" s="158" t="s">
         <v>442</v>
       </c>
-      <c r="M31" s="186" t="s">
+      <c r="M31" s="185" t="s">
         <v>445</v>
       </c>
-      <c r="N31" s="163"/>
+      <c r="N31" s="162"/>
       <c r="O31" s="148"/>
       <c r="P31" s="149"/>
       <c r="Q31" s="150"/>
@@ -14037,18 +14034,18 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C32" s="191"/>
-      <c r="D32" s="194"/>
-      <c r="E32" s="194"/>
-      <c r="F32" s="194"/>
-      <c r="G32" s="194"/>
-      <c r="H32" s="161" t="s">
+      <c r="C32" s="190"/>
+      <c r="D32" s="193"/>
+      <c r="E32" s="193"/>
+      <c r="F32" s="193"/>
+      <c r="G32" s="193"/>
+      <c r="H32" s="160" t="s">
         <v>309</v>
       </c>
       <c r="I32" s="157" t="s">
         <v>427</v>
       </c>
-      <c r="J32" s="162" t="s">
+      <c r="J32" s="161" t="s">
         <v>440</v>
       </c>
       <c r="K32" s="144">
@@ -14058,1185 +14055,1185 @@
         <v>444</v>
       </c>
       <c r="M32" s="155"/>
-      <c r="N32" s="163"/>
+      <c r="N32" s="162"/>
       <c r="O32" s="148"/>
       <c r="P32" s="149"/>
       <c r="Q32" s="150"/>
     </row>
     <row r="33" spans="2:17" ht="20">
-      <c r="B33" s="164"/>
-      <c r="C33" s="165"/>
-      <c r="D33" s="165"/>
-      <c r="E33" s="165"/>
-      <c r="F33" s="165"/>
-      <c r="G33" s="165"/>
-      <c r="H33" s="164"/>
-      <c r="I33" s="164"/>
-      <c r="J33" s="164"/>
-      <c r="K33" s="166"/>
-      <c r="L33" s="167"/>
-      <c r="M33" s="168"/>
-      <c r="N33" s="163"/>
+      <c r="B33" s="163"/>
+      <c r="C33" s="164"/>
+      <c r="D33" s="164"/>
+      <c r="E33" s="164"/>
+      <c r="F33" s="164"/>
+      <c r="G33" s="164"/>
+      <c r="H33" s="163"/>
+      <c r="I33" s="163"/>
+      <c r="J33" s="163"/>
+      <c r="K33" s="165"/>
+      <c r="L33" s="166"/>
+      <c r="M33" s="167"/>
+      <c r="N33" s="162"/>
       <c r="O33" s="148"/>
       <c r="P33" s="149"/>
       <c r="Q33" s="150"/>
     </row>
     <row r="34" spans="2:17" ht="20">
-      <c r="B34" s="165"/>
-      <c r="C34" s="169"/>
-      <c r="D34" s="165"/>
-      <c r="E34" s="165"/>
-      <c r="F34" s="165"/>
-      <c r="G34" s="165"/>
-      <c r="H34" s="165"/>
-      <c r="I34" s="165"/>
-      <c r="J34" s="165"/>
-      <c r="K34" s="170"/>
-      <c r="M34" s="171"/>
-      <c r="N34" s="163"/>
+      <c r="B34" s="164"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="164"/>
+      <c r="E34" s="164"/>
+      <c r="F34" s="164"/>
+      <c r="G34" s="164"/>
+      <c r="H34" s="164"/>
+      <c r="I34" s="164"/>
+      <c r="J34" s="164"/>
+      <c r="K34" s="169"/>
+      <c r="M34" s="170"/>
+      <c r="N34" s="162"/>
       <c r="O34" s="148"/>
       <c r="P34" s="149"/>
       <c r="Q34" s="150"/>
     </row>
     <row r="35" spans="2:17" ht="20">
-      <c r="B35" s="165"/>
-      <c r="C35" s="169"/>
-      <c r="D35" s="165"/>
-      <c r="E35" s="165"/>
-      <c r="F35" s="165"/>
-      <c r="G35" s="165"/>
-      <c r="H35" s="165"/>
-      <c r="I35" s="165"/>
-      <c r="J35" s="165"/>
-      <c r="K35" s="170"/>
-      <c r="L35" s="172"/>
-      <c r="M35" s="171"/>
-      <c r="N35" s="163"/>
+      <c r="B35" s="164"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="164"/>
+      <c r="E35" s="164"/>
+      <c r="F35" s="164"/>
+      <c r="G35" s="164"/>
+      <c r="H35" s="164"/>
+      <c r="I35" s="164"/>
+      <c r="J35" s="164"/>
+      <c r="K35" s="169"/>
+      <c r="L35" s="171"/>
+      <c r="M35" s="170"/>
+      <c r="N35" s="162"/>
       <c r="O35" s="148"/>
       <c r="P35" s="149"/>
       <c r="Q35" s="150"/>
     </row>
     <row r="36" spans="2:17" ht="20">
-      <c r="B36" s="165"/>
-      <c r="C36" s="169"/>
-      <c r="D36" s="165"/>
-      <c r="E36" s="165"/>
-      <c r="F36" s="165"/>
-      <c r="G36" s="165"/>
-      <c r="H36" s="165"/>
-      <c r="I36" s="165"/>
-      <c r="J36" s="165"/>
-      <c r="K36" s="170"/>
-      <c r="L36" s="172"/>
-      <c r="M36" s="171"/>
-      <c r="N36" s="163"/>
+      <c r="B36" s="164"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="164"/>
+      <c r="E36" s="164"/>
+      <c r="F36" s="164"/>
+      <c r="G36" s="164"/>
+      <c r="H36" s="164"/>
+      <c r="I36" s="164"/>
+      <c r="J36" s="164"/>
+      <c r="K36" s="169"/>
+      <c r="L36" s="171"/>
+      <c r="M36" s="170"/>
+      <c r="N36" s="162"/>
       <c r="O36" s="148"/>
       <c r="P36" s="149"/>
       <c r="Q36" s="150"/>
     </row>
     <row r="37" spans="2:17" ht="20">
-      <c r="B37" s="165"/>
-      <c r="C37" s="169"/>
-      <c r="D37" s="165"/>
-      <c r="E37" s="165"/>
-      <c r="F37" s="165"/>
-      <c r="G37" s="165"/>
-      <c r="H37" s="165"/>
-      <c r="I37" s="165"/>
-      <c r="J37" s="165"/>
-      <c r="K37" s="170"/>
-      <c r="L37" s="172"/>
-      <c r="M37" s="171"/>
-      <c r="N37" s="163"/>
+      <c r="B37" s="164"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="164"/>
+      <c r="E37" s="164"/>
+      <c r="F37" s="164"/>
+      <c r="G37" s="164"/>
+      <c r="H37" s="164"/>
+      <c r="I37" s="164"/>
+      <c r="J37" s="164"/>
+      <c r="K37" s="169"/>
+      <c r="L37" s="171"/>
+      <c r="M37" s="170"/>
+      <c r="N37" s="162"/>
       <c r="O37" s="148"/>
       <c r="P37" s="149"/>
       <c r="Q37" s="150"/>
     </row>
     <row r="38" spans="2:17" ht="20">
-      <c r="B38" s="165"/>
-      <c r="C38" s="169"/>
-      <c r="D38" s="165"/>
-      <c r="E38" s="165"/>
-      <c r="F38" s="165"/>
-      <c r="G38" s="165"/>
-      <c r="H38" s="165"/>
-      <c r="I38" s="165"/>
-      <c r="J38" s="165"/>
-      <c r="K38" s="170"/>
-      <c r="L38" s="172"/>
-      <c r="M38" s="171"/>
-      <c r="N38" s="163"/>
+      <c r="B38" s="164"/>
+      <c r="C38" s="168"/>
+      <c r="D38" s="164"/>
+      <c r="E38" s="164"/>
+      <c r="F38" s="164"/>
+      <c r="G38" s="164"/>
+      <c r="H38" s="164"/>
+      <c r="I38" s="164"/>
+      <c r="J38" s="164"/>
+      <c r="K38" s="169"/>
+      <c r="L38" s="171"/>
+      <c r="M38" s="170"/>
+      <c r="N38" s="162"/>
       <c r="O38" s="148"/>
       <c r="P38" s="149"/>
       <c r="Q38" s="150"/>
     </row>
     <row r="39" spans="2:17" ht="20">
-      <c r="B39" s="165"/>
-      <c r="C39" s="171"/>
-      <c r="D39" s="171"/>
-      <c r="E39" s="171"/>
-      <c r="F39" s="171"/>
-      <c r="G39" s="171"/>
-      <c r="H39" s="171"/>
-      <c r="I39" s="171"/>
-      <c r="J39" s="171"/>
-      <c r="K39" s="170"/>
-      <c r="L39" s="172"/>
-      <c r="M39" s="171"/>
-      <c r="N39" s="163"/>
+      <c r="B39" s="164"/>
+      <c r="C39" s="170"/>
+      <c r="D39" s="170"/>
+      <c r="E39" s="170"/>
+      <c r="F39" s="170"/>
+      <c r="G39" s="170"/>
+      <c r="H39" s="170"/>
+      <c r="I39" s="170"/>
+      <c r="J39" s="170"/>
+      <c r="K39" s="169"/>
+      <c r="L39" s="171"/>
+      <c r="M39" s="170"/>
+      <c r="N39" s="162"/>
       <c r="O39" s="148"/>
       <c r="P39" s="149"/>
       <c r="Q39" s="150"/>
     </row>
     <row r="40" spans="2:17" ht="20">
-      <c r="B40" s="165"/>
-      <c r="C40" s="171"/>
-      <c r="D40" s="171"/>
-      <c r="E40" s="171"/>
-      <c r="F40" s="171"/>
-      <c r="G40" s="171"/>
-      <c r="H40" s="171"/>
-      <c r="I40" s="171"/>
-      <c r="J40" s="171"/>
-      <c r="K40" s="170"/>
-      <c r="L40" s="172"/>
-      <c r="M40" s="171"/>
-      <c r="N40" s="163"/>
+      <c r="B40" s="164"/>
+      <c r="C40" s="170"/>
+      <c r="D40" s="170"/>
+      <c r="E40" s="170"/>
+      <c r="F40" s="170"/>
+      <c r="G40" s="170"/>
+      <c r="H40" s="170"/>
+      <c r="I40" s="170"/>
+      <c r="J40" s="170"/>
+      <c r="K40" s="169"/>
+      <c r="L40" s="171"/>
+      <c r="M40" s="170"/>
+      <c r="N40" s="162"/>
       <c r="O40" s="148"/>
       <c r="P40" s="149"/>
       <c r="Q40" s="150"/>
     </row>
     <row r="41" spans="2:17" ht="20">
-      <c r="B41" s="165"/>
-      <c r="C41" s="171"/>
-      <c r="D41" s="171"/>
-      <c r="E41" s="171"/>
-      <c r="F41" s="171"/>
-      <c r="G41" s="171"/>
-      <c r="H41" s="171"/>
-      <c r="I41" s="171"/>
-      <c r="J41" s="171"/>
-      <c r="K41" s="170"/>
-      <c r="L41" s="172"/>
-      <c r="M41" s="171"/>
-      <c r="N41" s="163"/>
+      <c r="B41" s="164"/>
+      <c r="C41" s="170"/>
+      <c r="D41" s="170"/>
+      <c r="E41" s="170"/>
+      <c r="F41" s="170"/>
+      <c r="G41" s="170"/>
+      <c r="H41" s="170"/>
+      <c r="I41" s="170"/>
+      <c r="J41" s="170"/>
+      <c r="K41" s="169"/>
+      <c r="L41" s="171"/>
+      <c r="M41" s="170"/>
+      <c r="N41" s="162"/>
       <c r="O41" s="148"/>
       <c r="P41" s="149"/>
       <c r="Q41" s="150"/>
     </row>
     <row r="42" spans="2:17" ht="20">
-      <c r="B42" s="165"/>
-      <c r="C42" s="171"/>
-      <c r="D42" s="171"/>
-      <c r="E42" s="171"/>
-      <c r="F42" s="171"/>
-      <c r="G42" s="171"/>
-      <c r="H42" s="171"/>
-      <c r="I42" s="171"/>
-      <c r="J42" s="171"/>
-      <c r="K42" s="170"/>
-      <c r="L42" s="172"/>
-      <c r="M42" s="171"/>
-      <c r="N42" s="163"/>
+      <c r="B42" s="164"/>
+      <c r="C42" s="170"/>
+      <c r="D42" s="170"/>
+      <c r="E42" s="170"/>
+      <c r="F42" s="170"/>
+      <c r="G42" s="170"/>
+      <c r="H42" s="170"/>
+      <c r="I42" s="170"/>
+      <c r="J42" s="170"/>
+      <c r="K42" s="169"/>
+      <c r="L42" s="171"/>
+      <c r="M42" s="170"/>
+      <c r="N42" s="162"/>
       <c r="O42" s="148"/>
       <c r="P42" s="149"/>
       <c r="Q42" s="150"/>
     </row>
     <row r="43" spans="2:17" ht="20">
-      <c r="B43" s="165"/>
-      <c r="C43" s="171"/>
-      <c r="D43" s="165"/>
-      <c r="E43" s="165"/>
-      <c r="F43" s="165"/>
-      <c r="G43" s="165"/>
-      <c r="H43" s="165"/>
-      <c r="I43" s="165"/>
-      <c r="J43" s="165"/>
-      <c r="K43" s="170"/>
-      <c r="L43" s="172"/>
-      <c r="M43" s="171"/>
-      <c r="N43" s="163"/>
+      <c r="B43" s="164"/>
+      <c r="C43" s="170"/>
+      <c r="D43" s="164"/>
+      <c r="E43" s="164"/>
+      <c r="F43" s="164"/>
+      <c r="G43" s="164"/>
+      <c r="H43" s="164"/>
+      <c r="I43" s="164"/>
+      <c r="J43" s="164"/>
+      <c r="K43" s="169"/>
+      <c r="L43" s="171"/>
+      <c r="M43" s="170"/>
+      <c r="N43" s="162"/>
       <c r="O43" s="148"/>
       <c r="P43" s="149"/>
       <c r="Q43" s="150"/>
     </row>
     <row r="44" spans="2:17" ht="20">
-      <c r="B44" s="165"/>
-      <c r="C44" s="171"/>
-      <c r="D44" s="171"/>
-      <c r="E44" s="171"/>
-      <c r="F44" s="171"/>
-      <c r="G44" s="171"/>
-      <c r="H44" s="171"/>
-      <c r="I44" s="171"/>
-      <c r="J44" s="165"/>
-      <c r="K44" s="170"/>
-      <c r="L44" s="172"/>
-      <c r="M44" s="171"/>
-      <c r="N44" s="163"/>
+      <c r="B44" s="164"/>
+      <c r="C44" s="170"/>
+      <c r="D44" s="170"/>
+      <c r="E44" s="170"/>
+      <c r="F44" s="170"/>
+      <c r="G44" s="170"/>
+      <c r="H44" s="170"/>
+      <c r="I44" s="170"/>
+      <c r="J44" s="164"/>
+      <c r="K44" s="169"/>
+      <c r="L44" s="171"/>
+      <c r="M44" s="170"/>
+      <c r="N44" s="162"/>
       <c r="O44" s="148"/>
       <c r="P44" s="149"/>
       <c r="Q44" s="150"/>
     </row>
     <row r="45" spans="2:17" ht="20">
-      <c r="B45" s="165"/>
-      <c r="C45" s="171"/>
-      <c r="D45" s="171"/>
-      <c r="E45" s="171"/>
-      <c r="F45" s="171"/>
-      <c r="G45" s="171"/>
-      <c r="H45" s="171"/>
-      <c r="I45" s="171"/>
-      <c r="J45" s="165"/>
-      <c r="K45" s="170"/>
-      <c r="L45" s="172"/>
-      <c r="M45" s="171"/>
-      <c r="N45" s="163"/>
+      <c r="B45" s="164"/>
+      <c r="C45" s="170"/>
+      <c r="D45" s="170"/>
+      <c r="E45" s="170"/>
+      <c r="F45" s="170"/>
+      <c r="G45" s="170"/>
+      <c r="H45" s="170"/>
+      <c r="I45" s="170"/>
+      <c r="J45" s="164"/>
+      <c r="K45" s="169"/>
+      <c r="L45" s="171"/>
+      <c r="M45" s="170"/>
+      <c r="N45" s="162"/>
       <c r="O45" s="148"/>
       <c r="P45" s="149"/>
       <c r="Q45" s="150"/>
     </row>
     <row r="46" spans="2:17" ht="20">
-      <c r="B46" s="165"/>
-      <c r="C46" s="171"/>
-      <c r="D46" s="171"/>
-      <c r="E46" s="171"/>
-      <c r="F46" s="171"/>
-      <c r="G46" s="171"/>
-      <c r="H46" s="171"/>
-      <c r="I46" s="171"/>
-      <c r="J46" s="171"/>
-      <c r="K46" s="170"/>
-      <c r="L46" s="172"/>
-      <c r="M46" s="171"/>
-      <c r="N46" s="163"/>
+      <c r="B46" s="164"/>
+      <c r="C46" s="170"/>
+      <c r="D46" s="170"/>
+      <c r="E46" s="170"/>
+      <c r="F46" s="170"/>
+      <c r="G46" s="170"/>
+      <c r="H46" s="170"/>
+      <c r="I46" s="170"/>
+      <c r="J46" s="170"/>
+      <c r="K46" s="169"/>
+      <c r="L46" s="171"/>
+      <c r="M46" s="170"/>
+      <c r="N46" s="162"/>
       <c r="O46" s="148"/>
       <c r="P46" s="149"/>
       <c r="Q46" s="150"/>
     </row>
     <row r="47" spans="2:17" ht="20">
-      <c r="B47" s="165"/>
-      <c r="C47" s="165"/>
-      <c r="D47" s="165"/>
-      <c r="E47" s="165"/>
-      <c r="F47" s="165"/>
-      <c r="G47" s="165"/>
-      <c r="H47" s="165"/>
-      <c r="I47" s="165"/>
-      <c r="J47" s="165"/>
-      <c r="K47" s="170"/>
-      <c r="L47" s="173"/>
-      <c r="M47" s="165"/>
-      <c r="N47" s="163"/>
+      <c r="B47" s="164"/>
+      <c r="C47" s="164"/>
+      <c r="D47" s="164"/>
+      <c r="E47" s="164"/>
+      <c r="F47" s="164"/>
+      <c r="G47" s="164"/>
+      <c r="H47" s="164"/>
+      <c r="I47" s="164"/>
+      <c r="J47" s="164"/>
+      <c r="K47" s="169"/>
+      <c r="L47" s="172"/>
+      <c r="M47" s="164"/>
+      <c r="N47" s="162"/>
       <c r="O47" s="148"/>
       <c r="P47" s="149"/>
       <c r="Q47" s="148"/>
     </row>
     <row r="48" spans="2:17" ht="20">
-      <c r="B48" s="165"/>
-      <c r="C48" s="169"/>
-      <c r="D48" s="165"/>
-      <c r="E48" s="165"/>
-      <c r="F48" s="165"/>
-      <c r="G48" s="165"/>
-      <c r="H48" s="165"/>
-      <c r="I48" s="165"/>
-      <c r="J48" s="165"/>
-      <c r="K48" s="170"/>
-      <c r="L48" s="173"/>
-      <c r="M48" s="171"/>
-      <c r="N48" s="163"/>
+      <c r="B48" s="164"/>
+      <c r="C48" s="168"/>
+      <c r="D48" s="164"/>
+      <c r="E48" s="164"/>
+      <c r="F48" s="164"/>
+      <c r="G48" s="164"/>
+      <c r="H48" s="164"/>
+      <c r="I48" s="164"/>
+      <c r="J48" s="164"/>
+      <c r="K48" s="169"/>
+      <c r="L48" s="172"/>
+      <c r="M48" s="170"/>
+      <c r="N48" s="162"/>
       <c r="O48" s="148"/>
       <c r="P48" s="149"/>
       <c r="Q48" s="150"/>
     </row>
     <row r="49" spans="2:17" ht="20">
-      <c r="B49" s="165"/>
-      <c r="C49" s="169"/>
-      <c r="D49" s="165"/>
-      <c r="E49" s="165"/>
-      <c r="F49" s="165"/>
-      <c r="G49" s="165"/>
-      <c r="H49" s="165"/>
-      <c r="I49" s="165"/>
-      <c r="J49" s="165"/>
-      <c r="K49" s="170"/>
-      <c r="L49" s="173"/>
-      <c r="M49" s="171"/>
-      <c r="N49" s="163"/>
+      <c r="B49" s="164"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="164"/>
+      <c r="E49" s="164"/>
+      <c r="F49" s="164"/>
+      <c r="G49" s="164"/>
+      <c r="H49" s="164"/>
+      <c r="I49" s="164"/>
+      <c r="J49" s="164"/>
+      <c r="K49" s="169"/>
+      <c r="L49" s="172"/>
+      <c r="M49" s="170"/>
+      <c r="N49" s="162"/>
       <c r="O49" s="148"/>
       <c r="P49" s="149"/>
       <c r="Q49" s="150"/>
     </row>
     <row r="50" spans="2:17" ht="20">
-      <c r="B50" s="165"/>
-      <c r="C50" s="169"/>
-      <c r="D50" s="165"/>
-      <c r="E50" s="165"/>
-      <c r="F50" s="165"/>
-      <c r="G50" s="165"/>
-      <c r="H50" s="165"/>
-      <c r="I50" s="165"/>
-      <c r="J50" s="171"/>
-      <c r="K50" s="170"/>
-      <c r="L50" s="173"/>
-      <c r="M50" s="171"/>
-      <c r="N50" s="163"/>
+      <c r="B50" s="164"/>
+      <c r="C50" s="168"/>
+      <c r="D50" s="164"/>
+      <c r="E50" s="164"/>
+      <c r="F50" s="164"/>
+      <c r="G50" s="164"/>
+      <c r="H50" s="164"/>
+      <c r="I50" s="164"/>
+      <c r="J50" s="170"/>
+      <c r="K50" s="169"/>
+      <c r="L50" s="172"/>
+      <c r="M50" s="170"/>
+      <c r="N50" s="162"/>
       <c r="O50" s="148"/>
       <c r="P50" s="149"/>
       <c r="Q50" s="150"/>
     </row>
     <row r="51" spans="2:17" ht="20">
-      <c r="B51" s="165"/>
-      <c r="C51" s="169"/>
-      <c r="D51" s="165"/>
-      <c r="E51" s="165"/>
-      <c r="F51" s="165"/>
-      <c r="G51" s="165"/>
-      <c r="H51" s="165"/>
-      <c r="I51" s="165"/>
-      <c r="J51" s="165"/>
-      <c r="K51" s="170"/>
-      <c r="L51" s="172"/>
-      <c r="M51" s="171"/>
-      <c r="N51" s="163"/>
+      <c r="B51" s="164"/>
+      <c r="C51" s="168"/>
+      <c r="D51" s="164"/>
+      <c r="E51" s="164"/>
+      <c r="F51" s="164"/>
+      <c r="G51" s="164"/>
+      <c r="H51" s="164"/>
+      <c r="I51" s="164"/>
+      <c r="J51" s="164"/>
+      <c r="K51" s="169"/>
+      <c r="L51" s="171"/>
+      <c r="M51" s="170"/>
+      <c r="N51" s="162"/>
       <c r="O51" s="148"/>
       <c r="P51" s="149"/>
       <c r="Q51" s="150"/>
     </row>
     <row r="52" spans="2:17" ht="20">
-      <c r="B52" s="165"/>
-      <c r="C52" s="169"/>
-      <c r="D52" s="165"/>
-      <c r="E52" s="165"/>
-      <c r="F52" s="165"/>
-      <c r="G52" s="165"/>
-      <c r="H52" s="165"/>
-      <c r="I52" s="165"/>
-      <c r="J52" s="165"/>
-      <c r="K52" s="170"/>
-      <c r="L52" s="172"/>
-      <c r="M52" s="171"/>
-      <c r="N52" s="163"/>
+      <c r="B52" s="164"/>
+      <c r="C52" s="168"/>
+      <c r="D52" s="164"/>
+      <c r="E52" s="164"/>
+      <c r="F52" s="164"/>
+      <c r="G52" s="164"/>
+      <c r="H52" s="164"/>
+      <c r="I52" s="164"/>
+      <c r="J52" s="164"/>
+      <c r="K52" s="169"/>
+      <c r="L52" s="171"/>
+      <c r="M52" s="170"/>
+      <c r="N52" s="162"/>
       <c r="O52" s="148"/>
       <c r="P52" s="149"/>
       <c r="Q52" s="150"/>
     </row>
     <row r="53" spans="2:17" ht="20">
-      <c r="B53" s="165"/>
-      <c r="C53" s="169"/>
-      <c r="D53" s="165"/>
-      <c r="E53" s="165"/>
-      <c r="F53" s="165"/>
-      <c r="G53" s="165"/>
-      <c r="H53" s="165"/>
-      <c r="I53" s="165"/>
-      <c r="J53" s="165"/>
-      <c r="K53" s="170"/>
-      <c r="L53" s="172"/>
-      <c r="M53" s="171"/>
-      <c r="N53" s="163"/>
+      <c r="B53" s="164"/>
+      <c r="C53" s="168"/>
+      <c r="D53" s="164"/>
+      <c r="E53" s="164"/>
+      <c r="F53" s="164"/>
+      <c r="G53" s="164"/>
+      <c r="H53" s="164"/>
+      <c r="I53" s="164"/>
+      <c r="J53" s="164"/>
+      <c r="K53" s="169"/>
+      <c r="L53" s="171"/>
+      <c r="M53" s="170"/>
+      <c r="N53" s="162"/>
       <c r="O53" s="148"/>
       <c r="P53" s="149"/>
       <c r="Q53" s="150"/>
     </row>
     <row r="54" spans="2:17" ht="20">
-      <c r="B54" s="165"/>
-      <c r="C54" s="169"/>
-      <c r="D54" s="165"/>
-      <c r="E54" s="165"/>
-      <c r="F54" s="165"/>
-      <c r="G54" s="165"/>
-      <c r="H54" s="165"/>
-      <c r="I54" s="165"/>
-      <c r="J54" s="165"/>
-      <c r="K54" s="170"/>
-      <c r="L54" s="172"/>
-      <c r="M54" s="171"/>
-      <c r="N54" s="163"/>
+      <c r="B54" s="164"/>
+      <c r="C54" s="168"/>
+      <c r="D54" s="164"/>
+      <c r="E54" s="164"/>
+      <c r="F54" s="164"/>
+      <c r="G54" s="164"/>
+      <c r="H54" s="164"/>
+      <c r="I54" s="164"/>
+      <c r="J54" s="164"/>
+      <c r="K54" s="169"/>
+      <c r="L54" s="171"/>
+      <c r="M54" s="170"/>
+      <c r="N54" s="162"/>
       <c r="O54" s="148"/>
       <c r="P54" s="149"/>
       <c r="Q54" s="150"/>
     </row>
     <row r="55" spans="2:17" ht="20">
-      <c r="B55" s="165"/>
-      <c r="C55" s="169"/>
-      <c r="D55" s="165"/>
-      <c r="E55" s="165"/>
-      <c r="F55" s="165"/>
-      <c r="G55" s="165"/>
-      <c r="H55" s="165"/>
-      <c r="I55" s="165"/>
-      <c r="J55" s="165"/>
-      <c r="K55" s="170"/>
-      <c r="L55" s="172"/>
-      <c r="M55" s="171"/>
-      <c r="N55" s="163"/>
+      <c r="B55" s="164"/>
+      <c r="C55" s="168"/>
+      <c r="D55" s="164"/>
+      <c r="E55" s="164"/>
+      <c r="F55" s="164"/>
+      <c r="G55" s="164"/>
+      <c r="H55" s="164"/>
+      <c r="I55" s="164"/>
+      <c r="J55" s="164"/>
+      <c r="K55" s="169"/>
+      <c r="L55" s="171"/>
+      <c r="M55" s="170"/>
+      <c r="N55" s="162"/>
       <c r="O55" s="148"/>
       <c r="P55" s="149"/>
       <c r="Q55" s="150"/>
     </row>
     <row r="56" spans="2:17" ht="20">
-      <c r="B56" s="165"/>
-      <c r="C56" s="169"/>
-      <c r="D56" s="165"/>
-      <c r="E56" s="165"/>
-      <c r="F56" s="165"/>
-      <c r="G56" s="165"/>
-      <c r="H56" s="165"/>
-      <c r="I56" s="165"/>
-      <c r="J56" s="165"/>
-      <c r="K56" s="170"/>
-      <c r="L56" s="172"/>
-      <c r="M56" s="171"/>
-      <c r="N56" s="163"/>
+      <c r="B56" s="164"/>
+      <c r="C56" s="168"/>
+      <c r="D56" s="164"/>
+      <c r="E56" s="164"/>
+      <c r="F56" s="164"/>
+      <c r="G56" s="164"/>
+      <c r="H56" s="164"/>
+      <c r="I56" s="164"/>
+      <c r="J56" s="164"/>
+      <c r="K56" s="169"/>
+      <c r="L56" s="171"/>
+      <c r="M56" s="170"/>
+      <c r="N56" s="162"/>
       <c r="O56" s="148"/>
       <c r="P56" s="149"/>
       <c r="Q56" s="150"/>
     </row>
     <row r="57" spans="2:17" ht="20">
-      <c r="B57" s="165"/>
-      <c r="C57" s="169"/>
-      <c r="D57" s="165"/>
-      <c r="E57" s="165"/>
-      <c r="F57" s="165"/>
-      <c r="G57" s="165"/>
-      <c r="H57" s="165"/>
-      <c r="I57" s="165"/>
-      <c r="J57" s="165"/>
-      <c r="K57" s="170"/>
-      <c r="L57" s="172"/>
-      <c r="M57" s="171"/>
-      <c r="N57" s="163"/>
+      <c r="B57" s="164"/>
+      <c r="C57" s="168"/>
+      <c r="D57" s="164"/>
+      <c r="E57" s="164"/>
+      <c r="F57" s="164"/>
+      <c r="G57" s="164"/>
+      <c r="H57" s="164"/>
+      <c r="I57" s="164"/>
+      <c r="J57" s="164"/>
+      <c r="K57" s="169"/>
+      <c r="L57" s="171"/>
+      <c r="M57" s="170"/>
+      <c r="N57" s="162"/>
       <c r="O57" s="148"/>
       <c r="P57" s="149"/>
       <c r="Q57" s="150"/>
     </row>
     <row r="58" spans="2:17" ht="20">
-      <c r="B58" s="165"/>
-      <c r="C58" s="169"/>
-      <c r="D58" s="165"/>
-      <c r="E58" s="165"/>
-      <c r="F58" s="165"/>
-      <c r="G58" s="165"/>
-      <c r="H58" s="165"/>
-      <c r="I58" s="165"/>
-      <c r="J58" s="165"/>
-      <c r="K58" s="170"/>
-      <c r="L58" s="172"/>
-      <c r="M58" s="171"/>
-      <c r="N58" s="163"/>
+      <c r="B58" s="164"/>
+      <c r="C58" s="168"/>
+      <c r="D58" s="164"/>
+      <c r="E58" s="164"/>
+      <c r="F58" s="164"/>
+      <c r="G58" s="164"/>
+      <c r="H58" s="164"/>
+      <c r="I58" s="164"/>
+      <c r="J58" s="164"/>
+      <c r="K58" s="169"/>
+      <c r="L58" s="171"/>
+      <c r="M58" s="170"/>
+      <c r="N58" s="162"/>
       <c r="O58" s="148"/>
       <c r="P58" s="149"/>
       <c r="Q58" s="150"/>
     </row>
     <row r="59" spans="2:17" ht="20">
-      <c r="B59" s="165"/>
-      <c r="C59" s="169"/>
-      <c r="D59" s="165"/>
-      <c r="E59" s="165"/>
-      <c r="F59" s="165"/>
-      <c r="G59" s="165"/>
-      <c r="H59" s="165"/>
-      <c r="I59" s="165"/>
-      <c r="J59" s="165"/>
-      <c r="K59" s="170"/>
-      <c r="L59" s="172"/>
-      <c r="M59" s="171"/>
-      <c r="N59" s="163"/>
+      <c r="B59" s="164"/>
+      <c r="C59" s="168"/>
+      <c r="D59" s="164"/>
+      <c r="E59" s="164"/>
+      <c r="F59" s="164"/>
+      <c r="G59" s="164"/>
+      <c r="H59" s="164"/>
+      <c r="I59" s="164"/>
+      <c r="J59" s="164"/>
+      <c r="K59" s="169"/>
+      <c r="L59" s="171"/>
+      <c r="M59" s="170"/>
+      <c r="N59" s="162"/>
       <c r="O59" s="148"/>
       <c r="P59" s="149"/>
       <c r="Q59" s="150"/>
     </row>
     <row r="60" spans="2:17" ht="20">
-      <c r="B60" s="165"/>
-      <c r="C60" s="169"/>
-      <c r="D60" s="165"/>
-      <c r="E60" s="165"/>
-      <c r="F60" s="165"/>
-      <c r="G60" s="165"/>
-      <c r="H60" s="165"/>
-      <c r="I60" s="165"/>
-      <c r="J60" s="165"/>
-      <c r="K60" s="170"/>
-      <c r="L60" s="172"/>
-      <c r="M60" s="171"/>
-      <c r="N60" s="163"/>
+      <c r="B60" s="164"/>
+      <c r="C60" s="168"/>
+      <c r="D60" s="164"/>
+      <c r="E60" s="164"/>
+      <c r="F60" s="164"/>
+      <c r="G60" s="164"/>
+      <c r="H60" s="164"/>
+      <c r="I60" s="164"/>
+      <c r="J60" s="164"/>
+      <c r="K60" s="169"/>
+      <c r="L60" s="171"/>
+      <c r="M60" s="170"/>
+      <c r="N60" s="162"/>
       <c r="O60" s="148"/>
       <c r="P60" s="149"/>
       <c r="Q60" s="150"/>
     </row>
     <row r="61" spans="2:17" ht="20">
-      <c r="B61" s="165"/>
-      <c r="C61" s="169"/>
-      <c r="D61" s="165"/>
-      <c r="E61" s="165"/>
-      <c r="F61" s="165"/>
-      <c r="G61" s="165"/>
-      <c r="H61" s="165"/>
-      <c r="I61" s="165"/>
-      <c r="J61" s="165"/>
-      <c r="K61" s="170"/>
-      <c r="L61" s="172"/>
-      <c r="M61" s="171"/>
-      <c r="N61" s="163"/>
+      <c r="B61" s="164"/>
+      <c r="C61" s="168"/>
+      <c r="D61" s="164"/>
+      <c r="E61" s="164"/>
+      <c r="F61" s="164"/>
+      <c r="G61" s="164"/>
+      <c r="H61" s="164"/>
+      <c r="I61" s="164"/>
+      <c r="J61" s="164"/>
+      <c r="K61" s="169"/>
+      <c r="L61" s="171"/>
+      <c r="M61" s="170"/>
+      <c r="N61" s="162"/>
       <c r="O61" s="148"/>
       <c r="P61" s="149"/>
       <c r="Q61" s="150"/>
     </row>
     <row r="62" spans="2:17" ht="20">
-      <c r="B62" s="165"/>
-      <c r="C62" s="169"/>
-      <c r="D62" s="165"/>
-      <c r="E62" s="165"/>
-      <c r="F62" s="165"/>
-      <c r="G62" s="165"/>
-      <c r="H62" s="165"/>
-      <c r="I62" s="165"/>
-      <c r="J62" s="165"/>
-      <c r="K62" s="170"/>
-      <c r="L62" s="172"/>
-      <c r="M62" s="171"/>
-      <c r="N62" s="163"/>
+      <c r="B62" s="164"/>
+      <c r="C62" s="168"/>
+      <c r="D62" s="164"/>
+      <c r="E62" s="164"/>
+      <c r="F62" s="164"/>
+      <c r="G62" s="164"/>
+      <c r="H62" s="164"/>
+      <c r="I62" s="164"/>
+      <c r="J62" s="164"/>
+      <c r="K62" s="169"/>
+      <c r="L62" s="171"/>
+      <c r="M62" s="170"/>
+      <c r="N62" s="162"/>
       <c r="O62" s="148"/>
       <c r="P62" s="149"/>
       <c r="Q62" s="150"/>
     </row>
     <row r="63" spans="2:17" ht="20">
-      <c r="B63" s="165"/>
-      <c r="C63" s="169"/>
-      <c r="D63" s="165"/>
-      <c r="E63" s="165"/>
-      <c r="F63" s="165"/>
-      <c r="G63" s="165"/>
-      <c r="H63" s="165"/>
-      <c r="I63" s="165"/>
-      <c r="J63" s="165"/>
-      <c r="K63" s="170"/>
-      <c r="L63" s="172"/>
-      <c r="M63" s="171"/>
-      <c r="N63" s="163"/>
+      <c r="B63" s="164"/>
+      <c r="C63" s="168"/>
+      <c r="D63" s="164"/>
+      <c r="E63" s="164"/>
+      <c r="F63" s="164"/>
+      <c r="G63" s="164"/>
+      <c r="H63" s="164"/>
+      <c r="I63" s="164"/>
+      <c r="J63" s="164"/>
+      <c r="K63" s="169"/>
+      <c r="L63" s="171"/>
+      <c r="M63" s="170"/>
+      <c r="N63" s="162"/>
       <c r="O63" s="148"/>
       <c r="P63" s="149"/>
       <c r="Q63" s="150"/>
     </row>
     <row r="64" spans="2:17" ht="20">
-      <c r="B64" s="165"/>
-      <c r="C64" s="169"/>
-      <c r="D64" s="165"/>
-      <c r="E64" s="165"/>
-      <c r="F64" s="165"/>
-      <c r="G64" s="165"/>
-      <c r="H64" s="165"/>
-      <c r="I64" s="165"/>
-      <c r="J64" s="165"/>
-      <c r="K64" s="170"/>
-      <c r="L64" s="172"/>
-      <c r="M64" s="171"/>
-      <c r="N64" s="163"/>
+      <c r="B64" s="164"/>
+      <c r="C64" s="168"/>
+      <c r="D64" s="164"/>
+      <c r="E64" s="164"/>
+      <c r="F64" s="164"/>
+      <c r="G64" s="164"/>
+      <c r="H64" s="164"/>
+      <c r="I64" s="164"/>
+      <c r="J64" s="164"/>
+      <c r="K64" s="169"/>
+      <c r="L64" s="171"/>
+      <c r="M64" s="170"/>
+      <c r="N64" s="162"/>
       <c r="O64" s="148"/>
       <c r="P64" s="149"/>
       <c r="Q64" s="150"/>
     </row>
     <row r="65" spans="2:17" ht="20">
-      <c r="B65" s="165"/>
-      <c r="C65" s="169"/>
-      <c r="D65" s="165"/>
-      <c r="E65" s="165"/>
-      <c r="F65" s="165"/>
-      <c r="G65" s="165"/>
-      <c r="H65" s="165"/>
-      <c r="I65" s="165"/>
-      <c r="J65" s="165"/>
-      <c r="K65" s="170"/>
-      <c r="L65" s="172"/>
-      <c r="M65" s="171"/>
-      <c r="N65" s="163"/>
+      <c r="B65" s="164"/>
+      <c r="C65" s="168"/>
+      <c r="D65" s="164"/>
+      <c r="E65" s="164"/>
+      <c r="F65" s="164"/>
+      <c r="G65" s="164"/>
+      <c r="H65" s="164"/>
+      <c r="I65" s="164"/>
+      <c r="J65" s="164"/>
+      <c r="K65" s="169"/>
+      <c r="L65" s="171"/>
+      <c r="M65" s="170"/>
+      <c r="N65" s="162"/>
       <c r="O65" s="148"/>
       <c r="P65" s="149"/>
       <c r="Q65" s="150"/>
     </row>
     <row r="66" spans="2:17" ht="20">
-      <c r="B66" s="165"/>
-      <c r="C66" s="169"/>
-      <c r="D66" s="165"/>
-      <c r="E66" s="165"/>
-      <c r="F66" s="165"/>
-      <c r="G66" s="165"/>
-      <c r="H66" s="165"/>
-      <c r="I66" s="165"/>
-      <c r="J66" s="165"/>
-      <c r="K66" s="170"/>
-      <c r="L66" s="172"/>
-      <c r="M66" s="171"/>
-      <c r="N66" s="163"/>
+      <c r="B66" s="164"/>
+      <c r="C66" s="168"/>
+      <c r="D66" s="164"/>
+      <c r="E66" s="164"/>
+      <c r="F66" s="164"/>
+      <c r="G66" s="164"/>
+      <c r="H66" s="164"/>
+      <c r="I66" s="164"/>
+      <c r="J66" s="164"/>
+      <c r="K66" s="169"/>
+      <c r="L66" s="171"/>
+      <c r="M66" s="170"/>
+      <c r="N66" s="162"/>
       <c r="O66" s="148"/>
       <c r="P66" s="149"/>
       <c r="Q66" s="150"/>
     </row>
     <row r="67" spans="2:17" ht="20">
-      <c r="B67" s="165"/>
-      <c r="C67" s="169"/>
-      <c r="D67" s="165"/>
-      <c r="E67" s="165"/>
-      <c r="F67" s="165"/>
-      <c r="G67" s="165"/>
-      <c r="H67" s="165"/>
-      <c r="I67" s="165"/>
-      <c r="J67" s="165"/>
-      <c r="K67" s="170"/>
-      <c r="L67" s="172"/>
-      <c r="M67" s="171"/>
-      <c r="N67" s="163"/>
+      <c r="B67" s="164"/>
+      <c r="C67" s="168"/>
+      <c r="D67" s="164"/>
+      <c r="E67" s="164"/>
+      <c r="F67" s="164"/>
+      <c r="G67" s="164"/>
+      <c r="H67" s="164"/>
+      <c r="I67" s="164"/>
+      <c r="J67" s="164"/>
+      <c r="K67" s="169"/>
+      <c r="L67" s="171"/>
+      <c r="M67" s="170"/>
+      <c r="N67" s="162"/>
       <c r="O67" s="148"/>
       <c r="P67" s="149"/>
       <c r="Q67" s="150"/>
     </row>
     <row r="68" spans="2:17" ht="20">
-      <c r="B68" s="165"/>
-      <c r="C68" s="169"/>
-      <c r="D68" s="165"/>
-      <c r="E68" s="165"/>
-      <c r="F68" s="165"/>
-      <c r="G68" s="165"/>
-      <c r="H68" s="165"/>
-      <c r="I68" s="165"/>
-      <c r="J68" s="165"/>
-      <c r="K68" s="170"/>
-      <c r="L68" s="172"/>
-      <c r="M68" s="171"/>
-      <c r="N68" s="163"/>
+      <c r="B68" s="164"/>
+      <c r="C68" s="168"/>
+      <c r="D68" s="164"/>
+      <c r="E68" s="164"/>
+      <c r="F68" s="164"/>
+      <c r="G68" s="164"/>
+      <c r="H68" s="164"/>
+      <c r="I68" s="164"/>
+      <c r="J68" s="164"/>
+      <c r="K68" s="169"/>
+      <c r="L68" s="171"/>
+      <c r="M68" s="170"/>
+      <c r="N68" s="162"/>
       <c r="O68" s="148"/>
       <c r="P68" s="149"/>
       <c r="Q68" s="150"/>
     </row>
     <row r="69" spans="2:17" ht="20">
-      <c r="B69" s="165"/>
-      <c r="C69" s="169"/>
-      <c r="D69" s="165"/>
-      <c r="E69" s="165"/>
-      <c r="F69" s="165"/>
-      <c r="G69" s="165"/>
-      <c r="H69" s="165"/>
-      <c r="I69" s="165"/>
-      <c r="J69" s="165"/>
-      <c r="K69" s="170"/>
-      <c r="L69" s="172"/>
-      <c r="M69" s="171"/>
-      <c r="N69" s="163"/>
+      <c r="B69" s="164"/>
+      <c r="C69" s="168"/>
+      <c r="D69" s="164"/>
+      <c r="E69" s="164"/>
+      <c r="F69" s="164"/>
+      <c r="G69" s="164"/>
+      <c r="H69" s="164"/>
+      <c r="I69" s="164"/>
+      <c r="J69" s="164"/>
+      <c r="K69" s="169"/>
+      <c r="L69" s="171"/>
+      <c r="M69" s="170"/>
+      <c r="N69" s="162"/>
       <c r="O69" s="148"/>
       <c r="P69" s="149"/>
       <c r="Q69" s="150"/>
     </row>
     <row r="70" spans="2:17" ht="20">
-      <c r="B70" s="165"/>
-      <c r="C70" s="169"/>
-      <c r="D70" s="165"/>
-      <c r="E70" s="165"/>
-      <c r="F70" s="165"/>
-      <c r="G70" s="165"/>
-      <c r="H70" s="165"/>
-      <c r="I70" s="165"/>
-      <c r="J70" s="165"/>
-      <c r="K70" s="170"/>
-      <c r="L70" s="172"/>
-      <c r="M70" s="171"/>
-      <c r="N70" s="163"/>
+      <c r="B70" s="164"/>
+      <c r="C70" s="168"/>
+      <c r="D70" s="164"/>
+      <c r="E70" s="164"/>
+      <c r="F70" s="164"/>
+      <c r="G70" s="164"/>
+      <c r="H70" s="164"/>
+      <c r="I70" s="164"/>
+      <c r="J70" s="164"/>
+      <c r="K70" s="169"/>
+      <c r="L70" s="171"/>
+      <c r="M70" s="170"/>
+      <c r="N70" s="162"/>
       <c r="O70" s="148"/>
       <c r="P70" s="149"/>
       <c r="Q70" s="150"/>
     </row>
     <row r="71" spans="2:17" ht="20">
-      <c r="B71" s="165"/>
-      <c r="C71" s="169"/>
-      <c r="D71" s="165"/>
-      <c r="E71" s="165"/>
-      <c r="F71" s="165"/>
-      <c r="G71" s="165"/>
-      <c r="H71" s="165"/>
-      <c r="I71" s="165"/>
-      <c r="J71" s="165"/>
-      <c r="K71" s="170"/>
-      <c r="L71" s="172"/>
-      <c r="M71" s="171"/>
-      <c r="N71" s="163"/>
+      <c r="B71" s="164"/>
+      <c r="C71" s="168"/>
+      <c r="D71" s="164"/>
+      <c r="E71" s="164"/>
+      <c r="F71" s="164"/>
+      <c r="G71" s="164"/>
+      <c r="H71" s="164"/>
+      <c r="I71" s="164"/>
+      <c r="J71" s="164"/>
+      <c r="K71" s="169"/>
+      <c r="L71" s="171"/>
+      <c r="M71" s="170"/>
+      <c r="N71" s="162"/>
       <c r="O71" s="148"/>
       <c r="P71" s="149"/>
       <c r="Q71" s="150"/>
     </row>
     <row r="72" spans="2:17" ht="20">
-      <c r="B72" s="165"/>
-      <c r="C72" s="169"/>
-      <c r="D72" s="165"/>
-      <c r="E72" s="165"/>
-      <c r="F72" s="165"/>
-      <c r="G72" s="165"/>
-      <c r="H72" s="165"/>
-      <c r="I72" s="165"/>
-      <c r="J72" s="165"/>
-      <c r="K72" s="170"/>
-      <c r="L72" s="172"/>
-      <c r="M72" s="171"/>
-      <c r="N72" s="163"/>
+      <c r="B72" s="164"/>
+      <c r="C72" s="168"/>
+      <c r="D72" s="164"/>
+      <c r="E72" s="164"/>
+      <c r="F72" s="164"/>
+      <c r="G72" s="164"/>
+      <c r="H72" s="164"/>
+      <c r="I72" s="164"/>
+      <c r="J72" s="164"/>
+      <c r="K72" s="169"/>
+      <c r="L72" s="171"/>
+      <c r="M72" s="170"/>
+      <c r="N72" s="162"/>
       <c r="O72" s="148"/>
       <c r="P72" s="149"/>
       <c r="Q72" s="150"/>
     </row>
     <row r="73" spans="2:17" ht="20">
-      <c r="B73" s="165"/>
-      <c r="C73" s="169"/>
-      <c r="D73" s="165"/>
-      <c r="E73" s="165"/>
-      <c r="F73" s="165"/>
-      <c r="G73" s="165"/>
-      <c r="H73" s="165"/>
-      <c r="I73" s="165"/>
-      <c r="J73" s="165"/>
-      <c r="K73" s="170"/>
-      <c r="L73" s="172"/>
-      <c r="M73" s="171"/>
-      <c r="N73" s="163"/>
+      <c r="B73" s="164"/>
+      <c r="C73" s="168"/>
+      <c r="D73" s="164"/>
+      <c r="E73" s="164"/>
+      <c r="F73" s="164"/>
+      <c r="G73" s="164"/>
+      <c r="H73" s="164"/>
+      <c r="I73" s="164"/>
+      <c r="J73" s="164"/>
+      <c r="K73" s="169"/>
+      <c r="L73" s="171"/>
+      <c r="M73" s="170"/>
+      <c r="N73" s="162"/>
       <c r="O73" s="148"/>
       <c r="P73" s="149"/>
       <c r="Q73" s="150"/>
     </row>
     <row r="74" spans="2:17" ht="20">
-      <c r="B74" s="165"/>
-      <c r="C74" s="169"/>
-      <c r="D74" s="165"/>
-      <c r="E74" s="165"/>
-      <c r="F74" s="165"/>
-      <c r="G74" s="165"/>
-      <c r="H74" s="165"/>
-      <c r="I74" s="165"/>
-      <c r="J74" s="165"/>
-      <c r="K74" s="170"/>
-      <c r="L74" s="172"/>
-      <c r="M74" s="171"/>
-      <c r="N74" s="163"/>
+      <c r="B74" s="164"/>
+      <c r="C74" s="168"/>
+      <c r="D74" s="164"/>
+      <c r="E74" s="164"/>
+      <c r="F74" s="164"/>
+      <c r="G74" s="164"/>
+      <c r="H74" s="164"/>
+      <c r="I74" s="164"/>
+      <c r="J74" s="164"/>
+      <c r="K74" s="169"/>
+      <c r="L74" s="171"/>
+      <c r="M74" s="170"/>
+      <c r="N74" s="162"/>
       <c r="O74" s="148"/>
       <c r="P74" s="149"/>
       <c r="Q74" s="150"/>
     </row>
     <row r="75" spans="2:17" ht="20">
-      <c r="B75" s="165"/>
-      <c r="C75" s="169"/>
-      <c r="D75" s="165"/>
-      <c r="E75" s="165"/>
-      <c r="F75" s="165"/>
-      <c r="G75" s="165"/>
-      <c r="H75" s="165"/>
-      <c r="I75" s="165"/>
-      <c r="J75" s="165"/>
-      <c r="K75" s="170"/>
-      <c r="L75" s="172"/>
-      <c r="M75" s="171"/>
-      <c r="N75" s="163"/>
+      <c r="B75" s="164"/>
+      <c r="C75" s="168"/>
+      <c r="D75" s="164"/>
+      <c r="E75" s="164"/>
+      <c r="F75" s="164"/>
+      <c r="G75" s="164"/>
+      <c r="H75" s="164"/>
+      <c r="I75" s="164"/>
+      <c r="J75" s="164"/>
+      <c r="K75" s="169"/>
+      <c r="L75" s="171"/>
+      <c r="M75" s="170"/>
+      <c r="N75" s="162"/>
       <c r="O75" s="148"/>
       <c r="P75" s="149"/>
       <c r="Q75" s="150"/>
     </row>
     <row r="76" spans="2:17" ht="20">
-      <c r="B76" s="165"/>
-      <c r="C76" s="169"/>
-      <c r="D76" s="165"/>
-      <c r="E76" s="165"/>
-      <c r="F76" s="165"/>
-      <c r="G76" s="165"/>
-      <c r="H76" s="165"/>
-      <c r="I76" s="165"/>
-      <c r="J76" s="165"/>
-      <c r="K76" s="170"/>
-      <c r="L76" s="172"/>
-      <c r="M76" s="171"/>
-      <c r="N76" s="163"/>
+      <c r="B76" s="164"/>
+      <c r="C76" s="168"/>
+      <c r="D76" s="164"/>
+      <c r="E76" s="164"/>
+      <c r="F76" s="164"/>
+      <c r="G76" s="164"/>
+      <c r="H76" s="164"/>
+      <c r="I76" s="164"/>
+      <c r="J76" s="164"/>
+      <c r="K76" s="169"/>
+      <c r="L76" s="171"/>
+      <c r="M76" s="170"/>
+      <c r="N76" s="162"/>
       <c r="O76" s="148"/>
       <c r="P76" s="149"/>
       <c r="Q76" s="150"/>
     </row>
     <row r="77" spans="2:17" ht="20">
-      <c r="B77" s="165"/>
-      <c r="C77" s="169"/>
-      <c r="D77" s="165"/>
-      <c r="E77" s="165"/>
-      <c r="F77" s="165"/>
-      <c r="G77" s="165"/>
-      <c r="H77" s="165"/>
-      <c r="I77" s="165"/>
-      <c r="J77" s="165"/>
-      <c r="K77" s="170"/>
-      <c r="L77" s="172"/>
-      <c r="M77" s="171"/>
-      <c r="N77" s="163"/>
+      <c r="B77" s="164"/>
+      <c r="C77" s="168"/>
+      <c r="D77" s="164"/>
+      <c r="E77" s="164"/>
+      <c r="F77" s="164"/>
+      <c r="G77" s="164"/>
+      <c r="H77" s="164"/>
+      <c r="I77" s="164"/>
+      <c r="J77" s="164"/>
+      <c r="K77" s="169"/>
+      <c r="L77" s="171"/>
+      <c r="M77" s="170"/>
+      <c r="N77" s="162"/>
       <c r="O77" s="148"/>
       <c r="P77" s="149"/>
       <c r="Q77" s="150"/>
     </row>
     <row r="78" spans="2:17" ht="20">
-      <c r="B78" s="165"/>
-      <c r="C78" s="169"/>
-      <c r="D78" s="165"/>
-      <c r="E78" s="165"/>
-      <c r="F78" s="165"/>
-      <c r="G78" s="165"/>
-      <c r="H78" s="165"/>
-      <c r="I78" s="165"/>
-      <c r="J78" s="165"/>
-      <c r="K78" s="170"/>
-      <c r="L78" s="172"/>
-      <c r="M78" s="171"/>
-      <c r="N78" s="163"/>
+      <c r="B78" s="164"/>
+      <c r="C78" s="168"/>
+      <c r="D78" s="164"/>
+      <c r="E78" s="164"/>
+      <c r="F78" s="164"/>
+      <c r="G78" s="164"/>
+      <c r="H78" s="164"/>
+      <c r="I78" s="164"/>
+      <c r="J78" s="164"/>
+      <c r="K78" s="169"/>
+      <c r="L78" s="171"/>
+      <c r="M78" s="170"/>
+      <c r="N78" s="162"/>
       <c r="O78" s="148"/>
       <c r="P78" s="149"/>
       <c r="Q78" s="150"/>
     </row>
     <row r="79" spans="2:17" ht="20">
-      <c r="B79" s="165"/>
-      <c r="C79" s="169"/>
-      <c r="D79" s="165"/>
-      <c r="E79" s="165"/>
-      <c r="F79" s="165"/>
-      <c r="G79" s="165"/>
-      <c r="H79" s="165"/>
-      <c r="I79" s="165"/>
-      <c r="J79" s="165"/>
-      <c r="K79" s="170"/>
-      <c r="L79" s="172"/>
-      <c r="M79" s="171"/>
-      <c r="N79" s="163"/>
+      <c r="B79" s="164"/>
+      <c r="C79" s="168"/>
+      <c r="D79" s="164"/>
+      <c r="E79" s="164"/>
+      <c r="F79" s="164"/>
+      <c r="G79" s="164"/>
+      <c r="H79" s="164"/>
+      <c r="I79" s="164"/>
+      <c r="J79" s="164"/>
+      <c r="K79" s="169"/>
+      <c r="L79" s="171"/>
+      <c r="M79" s="170"/>
+      <c r="N79" s="162"/>
       <c r="O79" s="148"/>
       <c r="P79" s="149"/>
       <c r="Q79" s="150"/>
     </row>
     <row r="80" spans="2:17" ht="20">
-      <c r="B80" s="165"/>
-      <c r="C80" s="169"/>
-      <c r="D80" s="165"/>
-      <c r="E80" s="165"/>
-      <c r="F80" s="165"/>
-      <c r="G80" s="165"/>
-      <c r="H80" s="165"/>
-      <c r="I80" s="165"/>
-      <c r="J80" s="165"/>
-      <c r="K80" s="170"/>
-      <c r="L80" s="172"/>
-      <c r="M80" s="171"/>
-      <c r="N80" s="163"/>
+      <c r="B80" s="164"/>
+      <c r="C80" s="168"/>
+      <c r="D80" s="164"/>
+      <c r="E80" s="164"/>
+      <c r="F80" s="164"/>
+      <c r="G80" s="164"/>
+      <c r="H80" s="164"/>
+      <c r="I80" s="164"/>
+      <c r="J80" s="164"/>
+      <c r="K80" s="169"/>
+      <c r="L80" s="171"/>
+      <c r="M80" s="170"/>
+      <c r="N80" s="162"/>
       <c r="O80" s="148"/>
       <c r="P80" s="149"/>
       <c r="Q80" s="150"/>
     </row>
     <row r="81" spans="2:17" ht="20">
-      <c r="B81" s="165"/>
-      <c r="C81" s="169"/>
-      <c r="D81" s="165"/>
-      <c r="E81" s="165"/>
-      <c r="F81" s="165"/>
-      <c r="G81" s="165"/>
-      <c r="H81" s="165"/>
-      <c r="I81" s="165"/>
-      <c r="J81" s="165"/>
-      <c r="K81" s="170"/>
-      <c r="L81" s="172"/>
-      <c r="M81" s="171"/>
-      <c r="N81" s="163"/>
+      <c r="B81" s="164"/>
+      <c r="C81" s="168"/>
+      <c r="D81" s="164"/>
+      <c r="E81" s="164"/>
+      <c r="F81" s="164"/>
+      <c r="G81" s="164"/>
+      <c r="H81" s="164"/>
+      <c r="I81" s="164"/>
+      <c r="J81" s="164"/>
+      <c r="K81" s="169"/>
+      <c r="L81" s="171"/>
+      <c r="M81" s="170"/>
+      <c r="N81" s="162"/>
       <c r="O81" s="148"/>
       <c r="P81" s="149"/>
       <c r="Q81" s="150"/>
     </row>
     <row r="82" spans="2:17" ht="20">
-      <c r="B82" s="165"/>
-      <c r="C82" s="169"/>
-      <c r="D82" s="165"/>
-      <c r="E82" s="165"/>
-      <c r="F82" s="165"/>
-      <c r="G82" s="165"/>
-      <c r="H82" s="165"/>
-      <c r="I82" s="165"/>
-      <c r="J82" s="165"/>
-      <c r="K82" s="170"/>
-      <c r="L82" s="172"/>
-      <c r="M82" s="171"/>
-      <c r="N82" s="163"/>
+      <c r="B82" s="164"/>
+      <c r="C82" s="168"/>
+      <c r="D82" s="164"/>
+      <c r="E82" s="164"/>
+      <c r="F82" s="164"/>
+      <c r="G82" s="164"/>
+      <c r="H82" s="164"/>
+      <c r="I82" s="164"/>
+      <c r="J82" s="164"/>
+      <c r="K82" s="169"/>
+      <c r="L82" s="171"/>
+      <c r="M82" s="170"/>
+      <c r="N82" s="162"/>
       <c r="O82" s="148"/>
       <c r="P82" s="149"/>
       <c r="Q82" s="150"/>
     </row>
     <row r="83" spans="2:17" ht="20">
-      <c r="B83" s="165"/>
-      <c r="C83" s="169"/>
-      <c r="D83" s="165"/>
-      <c r="E83" s="165"/>
-      <c r="F83" s="165"/>
-      <c r="G83" s="165"/>
-      <c r="H83" s="165"/>
-      <c r="I83" s="165"/>
-      <c r="J83" s="165"/>
-      <c r="K83" s="170"/>
-      <c r="L83" s="172"/>
-      <c r="M83" s="171"/>
-      <c r="N83" s="163"/>
+      <c r="B83" s="164"/>
+      <c r="C83" s="168"/>
+      <c r="D83" s="164"/>
+      <c r="E83" s="164"/>
+      <c r="F83" s="164"/>
+      <c r="G83" s="164"/>
+      <c r="H83" s="164"/>
+      <c r="I83" s="164"/>
+      <c r="J83" s="164"/>
+      <c r="K83" s="169"/>
+      <c r="L83" s="171"/>
+      <c r="M83" s="170"/>
+      <c r="N83" s="162"/>
       <c r="O83" s="148"/>
       <c r="P83" s="149"/>
       <c r="Q83" s="150"/>
     </row>
     <row r="84" spans="2:17" ht="20">
-      <c r="B84" s="165"/>
-      <c r="C84" s="169"/>
-      <c r="D84" s="165"/>
-      <c r="E84" s="165"/>
-      <c r="F84" s="165"/>
-      <c r="G84" s="165"/>
-      <c r="H84" s="165"/>
-      <c r="I84" s="165"/>
-      <c r="J84" s="165"/>
-      <c r="K84" s="170"/>
-      <c r="L84" s="172"/>
-      <c r="M84" s="171"/>
-      <c r="N84" s="163"/>
+      <c r="B84" s="164"/>
+      <c r="C84" s="168"/>
+      <c r="D84" s="164"/>
+      <c r="E84" s="164"/>
+      <c r="F84" s="164"/>
+      <c r="G84" s="164"/>
+      <c r="H84" s="164"/>
+      <c r="I84" s="164"/>
+      <c r="J84" s="164"/>
+      <c r="K84" s="169"/>
+      <c r="L84" s="171"/>
+      <c r="M84" s="170"/>
+      <c r="N84" s="162"/>
       <c r="O84" s="148"/>
       <c r="P84" s="149"/>
       <c r="Q84" s="150"/>
     </row>
     <row r="85" spans="2:17" ht="20">
-      <c r="B85" s="165"/>
-      <c r="C85" s="169"/>
-      <c r="D85" s="165"/>
-      <c r="E85" s="165"/>
-      <c r="F85" s="165"/>
-      <c r="G85" s="165"/>
-      <c r="H85" s="165"/>
-      <c r="I85" s="165"/>
-      <c r="J85" s="165"/>
-      <c r="K85" s="170"/>
-      <c r="L85" s="172"/>
-      <c r="M85" s="171"/>
-      <c r="N85" s="163"/>
+      <c r="B85" s="164"/>
+      <c r="C85" s="168"/>
+      <c r="D85" s="164"/>
+      <c r="E85" s="164"/>
+      <c r="F85" s="164"/>
+      <c r="G85" s="164"/>
+      <c r="H85" s="164"/>
+      <c r="I85" s="164"/>
+      <c r="J85" s="164"/>
+      <c r="K85" s="169"/>
+      <c r="L85" s="171"/>
+      <c r="M85" s="170"/>
+      <c r="N85" s="162"/>
       <c r="O85" s="148"/>
       <c r="P85" s="149"/>
       <c r="Q85" s="150"/>
     </row>
     <row r="86" spans="2:17" ht="20">
-      <c r="B86" s="165"/>
-      <c r="C86" s="169"/>
-      <c r="D86" s="165"/>
-      <c r="E86" s="165"/>
-      <c r="F86" s="165"/>
-      <c r="G86" s="165"/>
-      <c r="H86" s="165"/>
-      <c r="I86" s="165"/>
-      <c r="J86" s="165"/>
-      <c r="K86" s="170"/>
-      <c r="L86" s="172"/>
-      <c r="M86" s="171"/>
-      <c r="N86" s="163"/>
+      <c r="B86" s="164"/>
+      <c r="C86" s="168"/>
+      <c r="D86" s="164"/>
+      <c r="E86" s="164"/>
+      <c r="F86" s="164"/>
+      <c r="G86" s="164"/>
+      <c r="H86" s="164"/>
+      <c r="I86" s="164"/>
+      <c r="J86" s="164"/>
+      <c r="K86" s="169"/>
+      <c r="L86" s="171"/>
+      <c r="M86" s="170"/>
+      <c r="N86" s="162"/>
       <c r="O86" s="148"/>
       <c r="P86" s="149"/>
       <c r="Q86" s="150"/>
     </row>
     <row r="87" spans="2:17" ht="20">
-      <c r="B87" s="165"/>
-      <c r="C87" s="169"/>
-      <c r="D87" s="165"/>
-      <c r="E87" s="165"/>
-      <c r="F87" s="165"/>
-      <c r="G87" s="165"/>
-      <c r="H87" s="165"/>
-      <c r="I87" s="165"/>
-      <c r="J87" s="165"/>
-      <c r="K87" s="170"/>
-      <c r="L87" s="172"/>
-      <c r="M87" s="171"/>
-      <c r="N87" s="163"/>
+      <c r="B87" s="164"/>
+      <c r="C87" s="168"/>
+      <c r="D87" s="164"/>
+      <c r="E87" s="164"/>
+      <c r="F87" s="164"/>
+      <c r="G87" s="164"/>
+      <c r="H87" s="164"/>
+      <c r="I87" s="164"/>
+      <c r="J87" s="164"/>
+      <c r="K87" s="169"/>
+      <c r="L87" s="171"/>
+      <c r="M87" s="170"/>
+      <c r="N87" s="162"/>
       <c r="O87" s="148"/>
       <c r="P87" s="149"/>
       <c r="Q87" s="150"/>
     </row>
     <row r="88" spans="2:17" ht="20">
-      <c r="B88" s="165"/>
-      <c r="C88" s="169"/>
-      <c r="D88" s="165"/>
-      <c r="E88" s="165"/>
-      <c r="F88" s="165"/>
-      <c r="G88" s="165"/>
-      <c r="H88" s="165"/>
-      <c r="I88" s="165"/>
-      <c r="J88" s="165"/>
-      <c r="K88" s="170"/>
-      <c r="L88" s="172"/>
-      <c r="M88" s="171"/>
-      <c r="N88" s="163"/>
+      <c r="B88" s="164"/>
+      <c r="C88" s="168"/>
+      <c r="D88" s="164"/>
+      <c r="E88" s="164"/>
+      <c r="F88" s="164"/>
+      <c r="G88" s="164"/>
+      <c r="H88" s="164"/>
+      <c r="I88" s="164"/>
+      <c r="J88" s="164"/>
+      <c r="K88" s="169"/>
+      <c r="L88" s="171"/>
+      <c r="M88" s="170"/>
+      <c r="N88" s="162"/>
       <c r="O88" s="148"/>
       <c r="P88" s="149"/>
       <c r="Q88" s="150"/>
     </row>
     <row r="89" spans="2:17" ht="20">
-      <c r="B89" s="165"/>
-      <c r="C89" s="169"/>
-      <c r="D89" s="165"/>
-      <c r="E89" s="165"/>
-      <c r="F89" s="165"/>
-      <c r="G89" s="165"/>
-      <c r="H89" s="165"/>
-      <c r="I89" s="165"/>
-      <c r="J89" s="165"/>
-      <c r="K89" s="170"/>
-      <c r="L89" s="172"/>
-      <c r="M89" s="171"/>
-      <c r="N89" s="163"/>
+      <c r="B89" s="164"/>
+      <c r="C89" s="168"/>
+      <c r="D89" s="164"/>
+      <c r="E89" s="164"/>
+      <c r="F89" s="164"/>
+      <c r="G89" s="164"/>
+      <c r="H89" s="164"/>
+      <c r="I89" s="164"/>
+      <c r="J89" s="164"/>
+      <c r="K89" s="169"/>
+      <c r="L89" s="171"/>
+      <c r="M89" s="170"/>
+      <c r="N89" s="162"/>
       <c r="O89" s="148"/>
       <c r="P89" s="149"/>
       <c r="Q89" s="150"/>
     </row>
     <row r="90" spans="2:17" ht="20">
-      <c r="B90" s="165"/>
-      <c r="C90" s="165"/>
-      <c r="D90" s="165"/>
-      <c r="E90" s="165"/>
-      <c r="F90" s="165"/>
-      <c r="G90" s="165"/>
-      <c r="H90" s="165"/>
-      <c r="I90" s="165"/>
-      <c r="J90" s="165"/>
-      <c r="K90" s="170"/>
-      <c r="L90" s="172"/>
-      <c r="M90" s="171"/>
-      <c r="N90" s="163"/>
+      <c r="B90" s="164"/>
+      <c r="C90" s="164"/>
+      <c r="D90" s="164"/>
+      <c r="E90" s="164"/>
+      <c r="F90" s="164"/>
+      <c r="G90" s="164"/>
+      <c r="H90" s="164"/>
+      <c r="I90" s="164"/>
+      <c r="J90" s="164"/>
+      <c r="K90" s="169"/>
+      <c r="L90" s="171"/>
+      <c r="M90" s="170"/>
+      <c r="N90" s="162"/>
       <c r="O90" s="148"/>
       <c r="P90" s="149"/>
       <c r="Q90" s="150"/>
     </row>
     <row r="91" spans="2:17" ht="20">
-      <c r="B91" s="165"/>
-      <c r="C91" s="169"/>
-      <c r="D91" s="165"/>
-      <c r="E91" s="165"/>
-      <c r="F91" s="165"/>
-      <c r="G91" s="165"/>
-      <c r="H91" s="165"/>
-      <c r="I91" s="165"/>
-      <c r="J91" s="165"/>
-      <c r="K91" s="170"/>
-      <c r="L91" s="172"/>
-      <c r="M91" s="171"/>
-      <c r="N91" s="163"/>
+      <c r="B91" s="164"/>
+      <c r="C91" s="168"/>
+      <c r="D91" s="164"/>
+      <c r="E91" s="164"/>
+      <c r="F91" s="164"/>
+      <c r="G91" s="164"/>
+      <c r="H91" s="164"/>
+      <c r="I91" s="164"/>
+      <c r="J91" s="164"/>
+      <c r="K91" s="169"/>
+      <c r="L91" s="171"/>
+      <c r="M91" s="170"/>
+      <c r="N91" s="162"/>
       <c r="O91" s="148"/>
       <c r="P91" s="149"/>
       <c r="Q91" s="150"/>
     </row>
     <row r="92" spans="2:17" ht="20">
-      <c r="B92" s="165"/>
-      <c r="C92" s="169"/>
-      <c r="D92" s="165"/>
-      <c r="E92" s="165"/>
-      <c r="F92" s="165"/>
-      <c r="G92" s="165"/>
-      <c r="H92" s="165"/>
-      <c r="I92" s="165"/>
-      <c r="J92" s="165"/>
-      <c r="K92" s="170"/>
-      <c r="L92" s="172"/>
-      <c r="M92" s="171"/>
-      <c r="N92" s="163"/>
+      <c r="B92" s="164"/>
+      <c r="C92" s="168"/>
+      <c r="D92" s="164"/>
+      <c r="E92" s="164"/>
+      <c r="F92" s="164"/>
+      <c r="G92" s="164"/>
+      <c r="H92" s="164"/>
+      <c r="I92" s="164"/>
+      <c r="J92" s="164"/>
+      <c r="K92" s="169"/>
+      <c r="L92" s="171"/>
+      <c r="M92" s="170"/>
+      <c r="N92" s="162"/>
       <c r="O92" s="148"/>
       <c r="P92" s="149"/>
       <c r="Q92" s="150"/>
     </row>
     <row r="93" spans="2:17" ht="20">
-      <c r="B93" s="165"/>
-      <c r="C93" s="165"/>
-      <c r="D93" s="165"/>
-      <c r="E93" s="165"/>
-      <c r="F93" s="165"/>
-      <c r="G93" s="165"/>
-      <c r="H93" s="165"/>
-      <c r="I93" s="165"/>
-      <c r="J93" s="165"/>
-      <c r="K93" s="170"/>
-      <c r="L93" s="172"/>
-      <c r="M93" s="171"/>
-      <c r="N93" s="163"/>
+      <c r="B93" s="164"/>
+      <c r="C93" s="164"/>
+      <c r="D93" s="164"/>
+      <c r="E93" s="164"/>
+      <c r="F93" s="164"/>
+      <c r="G93" s="164"/>
+      <c r="H93" s="164"/>
+      <c r="I93" s="164"/>
+      <c r="J93" s="164"/>
+      <c r="K93" s="169"/>
+      <c r="L93" s="171"/>
+      <c r="M93" s="170"/>
+      <c r="N93" s="162"/>
       <c r="O93" s="148"/>
       <c r="P93" s="149"/>
       <c r="Q93" s="150"/>
     </row>
     <row r="94" spans="2:17" ht="20">
-      <c r="B94" s="165"/>
-      <c r="C94" s="169"/>
-      <c r="D94" s="165"/>
-      <c r="E94" s="165"/>
-      <c r="F94" s="165"/>
-      <c r="G94" s="165"/>
-      <c r="H94" s="165"/>
-      <c r="I94" s="165"/>
-      <c r="J94" s="165"/>
-      <c r="K94" s="170"/>
-      <c r="L94" s="172"/>
-      <c r="M94" s="171"/>
-      <c r="N94" s="163"/>
+      <c r="B94" s="164"/>
+      <c r="C94" s="168"/>
+      <c r="D94" s="164"/>
+      <c r="E94" s="164"/>
+      <c r="F94" s="164"/>
+      <c r="G94" s="164"/>
+      <c r="H94" s="164"/>
+      <c r="I94" s="164"/>
+      <c r="J94" s="164"/>
+      <c r="K94" s="169"/>
+      <c r="L94" s="171"/>
+      <c r="M94" s="170"/>
+      <c r="N94" s="162"/>
       <c r="O94" s="148"/>
       <c r="P94" s="149"/>
       <c r="Q94" s="150"/>
     </row>
     <row r="95" spans="2:17" ht="20">
-      <c r="B95" s="165"/>
-      <c r="C95" s="169"/>
-      <c r="D95" s="165"/>
-      <c r="E95" s="165"/>
-      <c r="F95" s="165"/>
-      <c r="G95" s="165"/>
-      <c r="H95" s="165"/>
-      <c r="I95" s="165"/>
-      <c r="J95" s="165"/>
-      <c r="K95" s="170"/>
-      <c r="L95" s="172"/>
-      <c r="M95" s="171"/>
-      <c r="N95" s="163"/>
+      <c r="B95" s="164"/>
+      <c r="C95" s="168"/>
+      <c r="D95" s="164"/>
+      <c r="E95" s="164"/>
+      <c r="F95" s="164"/>
+      <c r="G95" s="164"/>
+      <c r="H95" s="164"/>
+      <c r="I95" s="164"/>
+      <c r="J95" s="164"/>
+      <c r="K95" s="169"/>
+      <c r="L95" s="171"/>
+      <c r="M95" s="170"/>
+      <c r="N95" s="162"/>
       <c r="O95" s="148"/>
       <c r="P95" s="149"/>
       <c r="Q95" s="150"/>
     </row>
     <row r="96" spans="2:17" ht="20">
-      <c r="B96" s="165"/>
-      <c r="C96" s="169"/>
-      <c r="D96" s="165"/>
-      <c r="E96" s="165"/>
-      <c r="F96" s="165"/>
-      <c r="G96" s="165"/>
-      <c r="H96" s="165"/>
-      <c r="I96" s="165"/>
-      <c r="J96" s="165"/>
-      <c r="K96" s="170"/>
-      <c r="L96" s="172"/>
-      <c r="M96" s="171"/>
-      <c r="N96" s="163"/>
+      <c r="B96" s="164"/>
+      <c r="C96" s="168"/>
+      <c r="D96" s="164"/>
+      <c r="E96" s="164"/>
+      <c r="F96" s="164"/>
+      <c r="G96" s="164"/>
+      <c r="H96" s="164"/>
+      <c r="I96" s="164"/>
+      <c r="J96" s="164"/>
+      <c r="K96" s="169"/>
+      <c r="L96" s="171"/>
+      <c r="M96" s="170"/>
+      <c r="N96" s="162"/>
       <c r="O96" s="148"/>
       <c r="P96" s="149"/>
       <c r="Q96" s="150"/>
     </row>
     <row r="97" spans="2:17" ht="20.5" thickBot="1">
-      <c r="B97" s="165"/>
-      <c r="C97" s="169"/>
-      <c r="D97" s="165"/>
-      <c r="E97" s="165"/>
-      <c r="F97" s="165"/>
-      <c r="G97" s="165"/>
-      <c r="H97" s="165"/>
-      <c r="I97" s="165"/>
-      <c r="J97" s="165"/>
-      <c r="K97" s="170"/>
-      <c r="L97" s="172"/>
-      <c r="M97" s="171"/>
-      <c r="N97" s="174"/>
-      <c r="O97" s="175"/>
+      <c r="B97" s="164"/>
+      <c r="C97" s="168"/>
+      <c r="D97" s="164"/>
+      <c r="E97" s="164"/>
+      <c r="F97" s="164"/>
+      <c r="G97" s="164"/>
+      <c r="H97" s="164"/>
+      <c r="I97" s="164"/>
+      <c r="J97" s="164"/>
+      <c r="K97" s="169"/>
+      <c r="L97" s="171"/>
+      <c r="M97" s="170"/>
+      <c r="N97" s="173"/>
+      <c r="O97" s="174"/>
       <c r="P97" s="145"/>
       <c r="Q97" s="146"/>
     </row>
     <row r="99" spans="2:17" ht="22.5">
-      <c r="B99" s="176"/>
-      <c r="C99" s="176"/>
-      <c r="J99" s="177"/>
-      <c r="O99" s="178" t="s">
+      <c r="B99" s="175"/>
+      <c r="C99" s="175"/>
+      <c r="J99" s="176"/>
+      <c r="O99" s="177" t="s">
         <v>221</v>
       </c>
       <c r="P99" s="136">
@@ -15245,7 +15242,7 @@
       </c>
     </row>
     <row r="100" spans="2:17">
-      <c r="O100" s="179" t="s">
+      <c r="O100" s="178" t="s">
         <v>18</v>
       </c>
       <c r="P100" s="136">
@@ -15254,7 +15251,7 @@
       </c>
     </row>
     <row r="101" spans="2:17">
-      <c r="O101" s="180" t="s">
+      <c r="O101" s="179" t="s">
         <v>68</v>
       </c>
       <c r="P101" s="136">
@@ -15263,11 +15260,11 @@
       </c>
     </row>
     <row r="102" spans="2:17">
-      <c r="L102" s="181"/>
-      <c r="O102" s="179" t="s">
+      <c r="L102" s="180"/>
+      <c r="O102" s="178" t="s">
         <v>222</v>
       </c>
-      <c r="P102" s="182" t="e">
+      <c r="P102" s="181" t="e">
         <f>P101/P99</f>
         <v>#DIV/0!</v>
       </c>
@@ -15295,8 +15292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0AE119-65D3-49E1-9EEC-FB514797854E}">
   <dimension ref="A1:Q102"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:J29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18"/>
@@ -15312,7 +15309,7 @@
     <col min="10" max="10" width="43.5" style="135" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.6640625" style="135" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="136" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.75" style="135" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.75" style="135" customWidth="1"/>
     <col min="14" max="14" width="11.5" style="135" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="49.58203125" style="135" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="11.25" style="136" hidden="1" customWidth="1"/>
@@ -15324,7 +15321,7 @@
       <c r="A1" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="D1" s="188"/>
+      <c r="D1" s="187"/>
     </row>
     <row r="2" spans="1:17" ht="18.5" thickBot="1"/>
     <row r="3" spans="1:17" ht="40.5" thickBot="1">
@@ -15382,7 +15379,7 @@
         <f>ROW(B4)-ROW($B$3)</f>
         <v>1</v>
       </c>
-      <c r="C4" s="183" t="s">
+      <c r="C4" s="182" t="s">
         <v>422</v>
       </c>
       <c r="D4" s="141" t="s">
@@ -15406,8 +15403,12 @@
       <c r="J4" s="143" t="s">
         <v>453</v>
       </c>
-      <c r="K4" s="144"/>
-      <c r="L4" s="145"/>
+      <c r="K4" s="144">
+        <v>44099</v>
+      </c>
+      <c r="L4" s="145" t="s">
+        <v>444</v>
+      </c>
       <c r="M4" s="146"/>
       <c r="N4" s="147"/>
       <c r="O4" s="148"/>
@@ -15419,19 +15420,19 @@
         <f t="shared" ref="B5:B32" si="0">ROW(B5)-ROW($B$3)</f>
         <v>2</v>
       </c>
-      <c r="C5" s="209" t="s">
+      <c r="C5" s="208" t="s">
         <v>429</v>
       </c>
-      <c r="D5" s="212" t="s">
+      <c r="D5" s="211" t="s">
         <v>451</v>
       </c>
-      <c r="E5" s="192" t="s">
+      <c r="E5" s="191" t="s">
         <v>324</v>
       </c>
-      <c r="F5" s="192" t="s">
+      <c r="F5" s="191" t="s">
         <v>430</v>
       </c>
-      <c r="G5" s="192" t="s">
+      <c r="G5" s="191" t="s">
         <v>455</v>
       </c>
       <c r="H5" s="151">
@@ -15440,11 +15441,15 @@
       <c r="I5" s="151">
         <v>0</v>
       </c>
-      <c r="J5" s="184" t="s">
+      <c r="J5" s="183" t="s">
         <v>443</v>
       </c>
-      <c r="K5" s="153"/>
-      <c r="L5" s="154"/>
+      <c r="K5" s="144">
+        <v>44099</v>
+      </c>
+      <c r="L5" s="154" t="s">
+        <v>444</v>
+      </c>
       <c r="M5" s="155"/>
       <c r="N5" s="147"/>
       <c r="O5" s="148"/>
@@ -15456,22 +15461,26 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="210"/>
-      <c r="D6" s="213"/>
-      <c r="E6" s="193"/>
-      <c r="F6" s="193"/>
-      <c r="G6" s="193"/>
+      <c r="C6" s="209"/>
+      <c r="D6" s="212"/>
+      <c r="E6" s="192"/>
+      <c r="F6" s="192"/>
+      <c r="G6" s="192"/>
       <c r="H6" s="151">
         <v>0</v>
       </c>
       <c r="I6" s="151">
         <v>30</v>
       </c>
-      <c r="J6" s="184" t="s">
+      <c r="J6" s="183" t="s">
         <v>443</v>
       </c>
-      <c r="K6" s="153"/>
-      <c r="L6" s="154"/>
+      <c r="K6" s="144">
+        <v>44099</v>
+      </c>
+      <c r="L6" s="154" t="s">
+        <v>444</v>
+      </c>
       <c r="M6" s="155"/>
       <c r="N6" s="147"/>
       <c r="O6" s="148"/>
@@ -15483,22 +15492,26 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="210"/>
-      <c r="D7" s="213"/>
-      <c r="E7" s="193"/>
-      <c r="F7" s="193"/>
-      <c r="G7" s="193"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="192"/>
+      <c r="F7" s="192"/>
+      <c r="G7" s="192"/>
       <c r="H7" s="151">
         <v>0</v>
       </c>
       <c r="I7" s="151">
         <v>60</v>
       </c>
-      <c r="J7" s="184" t="s">
+      <c r="J7" s="183" t="s">
         <v>443</v>
       </c>
-      <c r="K7" s="153"/>
-      <c r="L7" s="154"/>
+      <c r="K7" s="144">
+        <v>44099</v>
+      </c>
+      <c r="L7" s="154" t="s">
+        <v>444</v>
+      </c>
       <c r="M7" s="155"/>
       <c r="N7" s="147"/>
       <c r="O7" s="148"/>
@@ -15507,23 +15520,27 @@
     </row>
     <row r="8" spans="1:17" ht="20.5" thickBot="1">
       <c r="B8" s="139"/>
-      <c r="C8" s="210"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="193"/>
-      <c r="F8" s="193"/>
-      <c r="G8" s="193"/>
-      <c r="H8" s="208">
+      <c r="C8" s="209"/>
+      <c r="D8" s="212"/>
+      <c r="E8" s="192"/>
+      <c r="F8" s="192"/>
+      <c r="G8" s="192"/>
+      <c r="H8" s="207">
         <v>0</v>
       </c>
-      <c r="I8" s="185">
+      <c r="I8" s="184">
         <v>61</v>
       </c>
-      <c r="J8" s="185" t="s">
+      <c r="J8" s="184" t="s">
         <v>454</v>
       </c>
-      <c r="K8" s="158"/>
-      <c r="L8" s="159"/>
-      <c r="M8" s="160"/>
+      <c r="K8" s="144">
+        <v>44099</v>
+      </c>
+      <c r="L8" s="158" t="s">
+        <v>444</v>
+      </c>
+      <c r="M8" s="159"/>
       <c r="N8" s="147"/>
       <c r="O8" s="148"/>
       <c r="P8" s="149"/>
@@ -15531,23 +15548,27 @@
     </row>
     <row r="9" spans="1:17" ht="20.5" thickBot="1">
       <c r="B9" s="139"/>
-      <c r="C9" s="210"/>
-      <c r="D9" s="213"/>
-      <c r="E9" s="193"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="208">
+      <c r="C9" s="209"/>
+      <c r="D9" s="212"/>
+      <c r="E9" s="192"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="207">
         <v>0</v>
       </c>
-      <c r="I9" s="185">
+      <c r="I9" s="184">
         <v>255</v>
       </c>
-      <c r="J9" s="185" t="s">
+      <c r="J9" s="184" t="s">
         <v>454</v>
       </c>
-      <c r="K9" s="158"/>
-      <c r="L9" s="159"/>
-      <c r="M9" s="160"/>
+      <c r="K9" s="144">
+        <v>44099</v>
+      </c>
+      <c r="L9" s="158" t="s">
+        <v>444</v>
+      </c>
+      <c r="M9" s="159"/>
       <c r="N9" s="147"/>
       <c r="O9" s="148"/>
       <c r="P9" s="149"/>
@@ -15558,22 +15579,26 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="210"/>
-      <c r="D10" s="213"/>
-      <c r="E10" s="193"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="193"/>
+      <c r="C10" s="209"/>
+      <c r="D10" s="212"/>
+      <c r="E10" s="192"/>
+      <c r="F10" s="192"/>
+      <c r="G10" s="192"/>
       <c r="H10" s="151">
         <v>1</v>
       </c>
       <c r="I10" s="151">
         <v>0</v>
       </c>
-      <c r="J10" s="184" t="s">
+      <c r="J10" s="183" t="s">
         <v>447</v>
       </c>
-      <c r="K10" s="153"/>
-      <c r="L10" s="154"/>
+      <c r="K10" s="144">
+        <v>44099</v>
+      </c>
+      <c r="L10" s="154" t="s">
+        <v>444</v>
+      </c>
       <c r="M10" s="155"/>
       <c r="N10" s="147"/>
       <c r="O10" s="148"/>
@@ -15585,22 +15610,26 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="210"/>
-      <c r="D11" s="213"/>
-      <c r="E11" s="193"/>
-      <c r="F11" s="193"/>
-      <c r="G11" s="193"/>
+      <c r="C11" s="209"/>
+      <c r="D11" s="212"/>
+      <c r="E11" s="192"/>
+      <c r="F11" s="192"/>
+      <c r="G11" s="192"/>
       <c r="H11" s="151">
         <v>1</v>
       </c>
       <c r="I11" s="151">
         <v>30</v>
       </c>
-      <c r="J11" s="184" t="s">
+      <c r="J11" s="183" t="s">
         <v>447</v>
       </c>
-      <c r="K11" s="153"/>
-      <c r="L11" s="154"/>
+      <c r="K11" s="144">
+        <v>44099</v>
+      </c>
+      <c r="L11" s="154" t="s">
+        <v>444</v>
+      </c>
       <c r="M11" s="155"/>
       <c r="N11" s="147"/>
       <c r="O11" s="148"/>
@@ -15612,22 +15641,26 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="210"/>
-      <c r="D12" s="213"/>
-      <c r="E12" s="193"/>
-      <c r="F12" s="193"/>
-      <c r="G12" s="193"/>
+      <c r="C12" s="209"/>
+      <c r="D12" s="212"/>
+      <c r="E12" s="192"/>
+      <c r="F12" s="192"/>
+      <c r="G12" s="192"/>
       <c r="H12" s="151">
         <v>1</v>
       </c>
       <c r="I12" s="151">
         <v>60</v>
       </c>
-      <c r="J12" s="184" t="s">
+      <c r="J12" s="183" t="s">
         <v>447</v>
       </c>
-      <c r="K12" s="153"/>
-      <c r="L12" s="154"/>
+      <c r="K12" s="144">
+        <v>44099</v>
+      </c>
+      <c r="L12" s="154" t="s">
+        <v>444</v>
+      </c>
       <c r="M12" s="155"/>
       <c r="N12" s="147"/>
       <c r="O12" s="148"/>
@@ -15636,23 +15669,27 @@
     </row>
     <row r="13" spans="1:17" ht="20.5" thickBot="1">
       <c r="B13" s="139"/>
-      <c r="C13" s="210"/>
-      <c r="D13" s="213"/>
-      <c r="E13" s="193"/>
-      <c r="F13" s="193"/>
-      <c r="G13" s="193"/>
-      <c r="H13" s="208">
+      <c r="C13" s="209"/>
+      <c r="D13" s="212"/>
+      <c r="E13" s="192"/>
+      <c r="F13" s="192"/>
+      <c r="G13" s="192"/>
+      <c r="H13" s="207">
         <v>1</v>
       </c>
-      <c r="I13" s="185">
+      <c r="I13" s="184">
         <v>61</v>
       </c>
-      <c r="J13" s="185" t="s">
+      <c r="J13" s="184" t="s">
         <v>454</v>
       </c>
-      <c r="K13" s="158"/>
-      <c r="L13" s="159"/>
-      <c r="M13" s="160"/>
+      <c r="K13" s="144">
+        <v>44099</v>
+      </c>
+      <c r="L13" s="158" t="s">
+        <v>444</v>
+      </c>
+      <c r="M13" s="159"/>
       <c r="N13" s="147"/>
       <c r="O13" s="148"/>
       <c r="P13" s="149"/>
@@ -15660,23 +15697,27 @@
     </row>
     <row r="14" spans="1:17" ht="20.5" thickBot="1">
       <c r="B14" s="139"/>
-      <c r="C14" s="210"/>
-      <c r="D14" s="213"/>
-      <c r="E14" s="193"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="208">
+      <c r="C14" s="209"/>
+      <c r="D14" s="212"/>
+      <c r="E14" s="192"/>
+      <c r="F14" s="192"/>
+      <c r="G14" s="192"/>
+      <c r="H14" s="207">
         <v>1</v>
       </c>
-      <c r="I14" s="185">
+      <c r="I14" s="184">
         <v>255</v>
       </c>
-      <c r="J14" s="185" t="s">
+      <c r="J14" s="184" t="s">
         <v>454</v>
       </c>
-      <c r="K14" s="158"/>
-      <c r="L14" s="159"/>
-      <c r="M14" s="160"/>
+      <c r="K14" s="144">
+        <v>44099</v>
+      </c>
+      <c r="L14" s="158" t="s">
+        <v>444</v>
+      </c>
+      <c r="M14" s="159"/>
       <c r="N14" s="147"/>
       <c r="O14" s="148"/>
       <c r="P14" s="149"/>
@@ -15687,22 +15728,26 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C15" s="210"/>
-      <c r="D15" s="213"/>
-      <c r="E15" s="193"/>
-      <c r="F15" s="193"/>
-      <c r="G15" s="193"/>
+      <c r="C15" s="209"/>
+      <c r="D15" s="212"/>
+      <c r="E15" s="192"/>
+      <c r="F15" s="192"/>
+      <c r="G15" s="192"/>
       <c r="H15" s="151">
         <v>2</v>
       </c>
       <c r="I15" s="151">
         <v>0</v>
       </c>
-      <c r="J15" s="184" t="s">
+      <c r="J15" s="183" t="s">
         <v>448</v>
       </c>
-      <c r="K15" s="153"/>
-      <c r="L15" s="154"/>
+      <c r="K15" s="144">
+        <v>44099</v>
+      </c>
+      <c r="L15" s="154" t="s">
+        <v>444</v>
+      </c>
       <c r="M15" s="155"/>
       <c r="N15" s="147"/>
       <c r="O15" s="148"/>
@@ -15714,22 +15759,26 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C16" s="210"/>
-      <c r="D16" s="213"/>
-      <c r="E16" s="193"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="193"/>
+      <c r="C16" s="209"/>
+      <c r="D16" s="212"/>
+      <c r="E16" s="192"/>
+      <c r="F16" s="192"/>
+      <c r="G16" s="192"/>
       <c r="H16" s="151">
         <v>2</v>
       </c>
       <c r="I16" s="151">
         <v>30</v>
       </c>
-      <c r="J16" s="184" t="s">
+      <c r="J16" s="183" t="s">
         <v>448</v>
       </c>
-      <c r="K16" s="153"/>
-      <c r="L16" s="154"/>
+      <c r="K16" s="144">
+        <v>44099</v>
+      </c>
+      <c r="L16" s="154" t="s">
+        <v>444</v>
+      </c>
       <c r="M16" s="155"/>
       <c r="N16" s="147"/>
       <c r="O16" s="148"/>
@@ -15741,22 +15790,26 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C17" s="210"/>
-      <c r="D17" s="213"/>
-      <c r="E17" s="193"/>
-      <c r="F17" s="193"/>
-      <c r="G17" s="193"/>
+      <c r="C17" s="209"/>
+      <c r="D17" s="212"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="192"/>
+      <c r="G17" s="192"/>
       <c r="H17" s="151">
         <v>2</v>
       </c>
       <c r="I17" s="151">
         <v>60</v>
       </c>
-      <c r="J17" s="184" t="s">
+      <c r="J17" s="183" t="s">
         <v>448</v>
       </c>
-      <c r="K17" s="153"/>
-      <c r="L17" s="154"/>
+      <c r="K17" s="144">
+        <v>44099</v>
+      </c>
+      <c r="L17" s="154" t="s">
+        <v>444</v>
+      </c>
       <c r="M17" s="155"/>
       <c r="N17" s="147"/>
       <c r="O17" s="148"/>
@@ -15765,23 +15818,27 @@
     </row>
     <row r="18" spans="2:17" ht="20.5" thickBot="1">
       <c r="B18" s="139"/>
-      <c r="C18" s="210"/>
-      <c r="D18" s="213"/>
-      <c r="E18" s="193"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="208">
+      <c r="C18" s="209"/>
+      <c r="D18" s="212"/>
+      <c r="E18" s="192"/>
+      <c r="F18" s="192"/>
+      <c r="G18" s="192"/>
+      <c r="H18" s="207">
         <v>2</v>
       </c>
-      <c r="I18" s="185">
+      <c r="I18" s="184">
         <v>61</v>
       </c>
-      <c r="J18" s="185" t="s">
+      <c r="J18" s="184" t="s">
         <v>454</v>
       </c>
-      <c r="K18" s="158"/>
-      <c r="L18" s="159"/>
-      <c r="M18" s="160"/>
+      <c r="K18" s="144">
+        <v>44099</v>
+      </c>
+      <c r="L18" s="158" t="s">
+        <v>444</v>
+      </c>
+      <c r="M18" s="159"/>
       <c r="N18" s="147"/>
       <c r="O18" s="148"/>
       <c r="P18" s="149"/>
@@ -15789,23 +15846,27 @@
     </row>
     <row r="19" spans="2:17" ht="20.5" thickBot="1">
       <c r="B19" s="139"/>
-      <c r="C19" s="210"/>
-      <c r="D19" s="213"/>
-      <c r="E19" s="193"/>
-      <c r="F19" s="193"/>
-      <c r="G19" s="193"/>
-      <c r="H19" s="208">
+      <c r="C19" s="209"/>
+      <c r="D19" s="212"/>
+      <c r="E19" s="192"/>
+      <c r="F19" s="192"/>
+      <c r="G19" s="192"/>
+      <c r="H19" s="207">
         <v>2</v>
       </c>
-      <c r="I19" s="185">
+      <c r="I19" s="184">
         <v>255</v>
       </c>
-      <c r="J19" s="185" t="s">
+      <c r="J19" s="184" t="s">
         <v>454</v>
       </c>
-      <c r="K19" s="158"/>
-      <c r="L19" s="159"/>
-      <c r="M19" s="160"/>
+      <c r="K19" s="144">
+        <v>44099</v>
+      </c>
+      <c r="L19" s="158" t="s">
+        <v>444</v>
+      </c>
+      <c r="M19" s="159"/>
       <c r="N19" s="147"/>
       <c r="O19" s="148"/>
       <c r="P19" s="149"/>
@@ -15816,22 +15877,26 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C20" s="210"/>
-      <c r="D20" s="213"/>
-      <c r="E20" s="193"/>
-      <c r="F20" s="193"/>
-      <c r="G20" s="193"/>
+      <c r="C20" s="209"/>
+      <c r="D20" s="212"/>
+      <c r="E20" s="192"/>
+      <c r="F20" s="192"/>
+      <c r="G20" s="192"/>
       <c r="H20" s="151">
         <v>3</v>
       </c>
       <c r="I20" s="151">
         <v>0</v>
       </c>
-      <c r="J20" s="185" t="s">
+      <c r="J20" s="184" t="s">
         <v>454</v>
       </c>
-      <c r="K20" s="153"/>
-      <c r="L20" s="154"/>
+      <c r="K20" s="144">
+        <v>44099</v>
+      </c>
+      <c r="L20" s="154" t="s">
+        <v>444</v>
+      </c>
       <c r="M20" s="155"/>
       <c r="N20" s="147"/>
       <c r="O20" s="148"/>
@@ -15843,22 +15908,26 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C21" s="210"/>
-      <c r="D21" s="213"/>
-      <c r="E21" s="193"/>
-      <c r="F21" s="193"/>
-      <c r="G21" s="193"/>
+      <c r="C21" s="209"/>
+      <c r="D21" s="212"/>
+      <c r="E21" s="192"/>
+      <c r="F21" s="192"/>
+      <c r="G21" s="192"/>
       <c r="H21" s="151">
         <v>3</v>
       </c>
       <c r="I21" s="151">
         <v>30</v>
       </c>
-      <c r="J21" s="185" t="s">
+      <c r="J21" s="184" t="s">
         <v>454</v>
       </c>
-      <c r="K21" s="153"/>
-      <c r="L21" s="154"/>
+      <c r="K21" s="144">
+        <v>44099</v>
+      </c>
+      <c r="L21" s="154" t="s">
+        <v>444</v>
+      </c>
       <c r="M21" s="155"/>
       <c r="N21" s="147"/>
       <c r="O21" s="148"/>
@@ -15870,22 +15939,26 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C22" s="210"/>
-      <c r="D22" s="213"/>
-      <c r="E22" s="193"/>
-      <c r="F22" s="193"/>
-      <c r="G22" s="193"/>
+      <c r="C22" s="209"/>
+      <c r="D22" s="212"/>
+      <c r="E22" s="192"/>
+      <c r="F22" s="192"/>
+      <c r="G22" s="192"/>
       <c r="H22" s="151">
         <v>3</v>
       </c>
       <c r="I22" s="151">
         <v>60</v>
       </c>
-      <c r="J22" s="185" t="s">
+      <c r="J22" s="184" t="s">
         <v>454</v>
       </c>
-      <c r="K22" s="153"/>
-      <c r="L22" s="154"/>
+      <c r="K22" s="144">
+        <v>44099</v>
+      </c>
+      <c r="L22" s="154" t="s">
+        <v>444</v>
+      </c>
       <c r="M22" s="155"/>
       <c r="N22" s="147"/>
       <c r="O22" s="148"/>
@@ -15894,23 +15967,27 @@
     </row>
     <row r="23" spans="2:17" ht="20.5" thickBot="1">
       <c r="B23" s="139"/>
-      <c r="C23" s="210"/>
-      <c r="D23" s="213"/>
-      <c r="E23" s="193"/>
-      <c r="F23" s="193"/>
-      <c r="G23" s="193"/>
-      <c r="H23" s="208">
+      <c r="C23" s="209"/>
+      <c r="D23" s="212"/>
+      <c r="E23" s="192"/>
+      <c r="F23" s="192"/>
+      <c r="G23" s="192"/>
+      <c r="H23" s="207">
         <v>3</v>
       </c>
-      <c r="I23" s="185">
+      <c r="I23" s="184">
         <v>61</v>
       </c>
-      <c r="J23" s="185" t="s">
+      <c r="J23" s="184" t="s">
         <v>454</v>
       </c>
-      <c r="K23" s="158"/>
-      <c r="L23" s="159"/>
-      <c r="M23" s="160"/>
+      <c r="K23" s="144">
+        <v>44099</v>
+      </c>
+      <c r="L23" s="158" t="s">
+        <v>444</v>
+      </c>
+      <c r="M23" s="159"/>
       <c r="N23" s="147"/>
       <c r="O23" s="148"/>
       <c r="P23" s="149"/>
@@ -15918,23 +15995,27 @@
     </row>
     <row r="24" spans="2:17" ht="20.5" thickBot="1">
       <c r="B24" s="139"/>
-      <c r="C24" s="210"/>
-      <c r="D24" s="213"/>
-      <c r="E24" s="193"/>
-      <c r="F24" s="193"/>
-      <c r="G24" s="193"/>
-      <c r="H24" s="208">
+      <c r="C24" s="209"/>
+      <c r="D24" s="212"/>
+      <c r="E24" s="192"/>
+      <c r="F24" s="192"/>
+      <c r="G24" s="192"/>
+      <c r="H24" s="207">
         <v>3</v>
       </c>
-      <c r="I24" s="185">
+      <c r="I24" s="184">
         <v>255</v>
       </c>
-      <c r="J24" s="185" t="s">
+      <c r="J24" s="184" t="s">
         <v>454</v>
       </c>
-      <c r="K24" s="158"/>
-      <c r="L24" s="159"/>
-      <c r="M24" s="160"/>
+      <c r="K24" s="144">
+        <v>44099</v>
+      </c>
+      <c r="L24" s="158" t="s">
+        <v>444</v>
+      </c>
+      <c r="M24" s="159"/>
       <c r="N24" s="147"/>
       <c r="O24" s="148"/>
       <c r="P24" s="149"/>
@@ -15945,22 +16026,26 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C25" s="210"/>
-      <c r="D25" s="213"/>
-      <c r="E25" s="193"/>
-      <c r="F25" s="193"/>
-      <c r="G25" s="193"/>
+      <c r="C25" s="209"/>
+      <c r="D25" s="212"/>
+      <c r="E25" s="192"/>
+      <c r="F25" s="192"/>
+      <c r="G25" s="192"/>
       <c r="H25" s="151">
         <v>255</v>
       </c>
       <c r="I25" s="151">
         <v>0</v>
       </c>
-      <c r="J25" s="185" t="s">
+      <c r="J25" s="184" t="s">
         <v>454</v>
       </c>
-      <c r="K25" s="153"/>
-      <c r="L25" s="154"/>
+      <c r="K25" s="144">
+        <v>44099</v>
+      </c>
+      <c r="L25" s="154" t="s">
+        <v>444</v>
+      </c>
       <c r="M25" s="155"/>
       <c r="N25" s="147"/>
       <c r="O25" s="148"/>
@@ -15972,22 +16057,26 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C26" s="210"/>
-      <c r="D26" s="213"/>
-      <c r="E26" s="193"/>
-      <c r="F26" s="193"/>
-      <c r="G26" s="193"/>
+      <c r="C26" s="209"/>
+      <c r="D26" s="212"/>
+      <c r="E26" s="192"/>
+      <c r="F26" s="192"/>
+      <c r="G26" s="192"/>
       <c r="H26" s="151">
         <v>255</v>
       </c>
       <c r="I26" s="151">
         <v>30</v>
       </c>
-      <c r="J26" s="185" t="s">
+      <c r="J26" s="184" t="s">
         <v>454</v>
       </c>
-      <c r="K26" s="153"/>
-      <c r="L26" s="154"/>
+      <c r="K26" s="144">
+        <v>44099</v>
+      </c>
+      <c r="L26" s="154" t="s">
+        <v>444</v>
+      </c>
       <c r="M26" s="155"/>
       <c r="N26" s="147"/>
       <c r="O26" s="148"/>
@@ -15999,22 +16088,26 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C27" s="210"/>
-      <c r="D27" s="213"/>
-      <c r="E27" s="193"/>
-      <c r="F27" s="193"/>
-      <c r="G27" s="193"/>
+      <c r="C27" s="209"/>
+      <c r="D27" s="212"/>
+      <c r="E27" s="192"/>
+      <c r="F27" s="192"/>
+      <c r="G27" s="192"/>
       <c r="H27" s="151">
         <v>255</v>
       </c>
       <c r="I27" s="151">
         <v>60</v>
       </c>
-      <c r="J27" s="185" t="s">
+      <c r="J27" s="184" t="s">
         <v>454</v>
       </c>
-      <c r="K27" s="153"/>
-      <c r="L27" s="154"/>
+      <c r="K27" s="144">
+        <v>44099</v>
+      </c>
+      <c r="L27" s="154" t="s">
+        <v>444</v>
+      </c>
       <c r="M27" s="155"/>
       <c r="N27" s="147"/>
       <c r="O27" s="148"/>
@@ -16023,23 +16116,27 @@
     </row>
     <row r="28" spans="2:17" ht="20.5" thickBot="1">
       <c r="B28" s="139"/>
-      <c r="C28" s="210"/>
-      <c r="D28" s="213"/>
-      <c r="E28" s="193"/>
-      <c r="F28" s="193"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="208">
+      <c r="C28" s="209"/>
+      <c r="D28" s="212"/>
+      <c r="E28" s="192"/>
+      <c r="F28" s="192"/>
+      <c r="G28" s="192"/>
+      <c r="H28" s="207">
         <v>255</v>
       </c>
-      <c r="I28" s="185">
+      <c r="I28" s="184">
         <v>61</v>
       </c>
-      <c r="J28" s="185" t="s">
+      <c r="J28" s="184" t="s">
         <v>454</v>
       </c>
-      <c r="K28" s="158"/>
-      <c r="L28" s="159"/>
-      <c r="M28" s="160"/>
+      <c r="K28" s="144">
+        <v>44099</v>
+      </c>
+      <c r="L28" s="158" t="s">
+        <v>444</v>
+      </c>
+      <c r="M28" s="159"/>
       <c r="N28" s="147"/>
       <c r="O28" s="148"/>
       <c r="P28" s="149"/>
@@ -16047,23 +16144,27 @@
     </row>
     <row r="29" spans="2:17" ht="20.5" thickBot="1">
       <c r="B29" s="139"/>
-      <c r="C29" s="211"/>
-      <c r="D29" s="214"/>
-      <c r="E29" s="194"/>
-      <c r="F29" s="194"/>
-      <c r="G29" s="194"/>
-      <c r="H29" s="208">
+      <c r="C29" s="210"/>
+      <c r="D29" s="213"/>
+      <c r="E29" s="193"/>
+      <c r="F29" s="193"/>
+      <c r="G29" s="193"/>
+      <c r="H29" s="207">
         <v>255</v>
       </c>
-      <c r="I29" s="185">
+      <c r="I29" s="184">
         <v>255</v>
       </c>
-      <c r="J29" s="185" t="s">
+      <c r="J29" s="184" t="s">
         <v>454</v>
       </c>
-      <c r="K29" s="158"/>
-      <c r="L29" s="159"/>
-      <c r="M29" s="160"/>
+      <c r="K29" s="144">
+        <v>44099</v>
+      </c>
+      <c r="L29" s="158" t="s">
+        <v>444</v>
+      </c>
+      <c r="M29" s="159"/>
       <c r="N29" s="147"/>
       <c r="O29" s="148"/>
       <c r="P29" s="149"/>
@@ -16074,19 +16175,19 @@
         <f>ROW(B30)-ROW($B$3)</f>
         <v>27</v>
       </c>
-      <c r="C30" s="189" t="s">
+      <c r="C30" s="188" t="s">
         <v>432</v>
       </c>
-      <c r="D30" s="192" t="s">
+      <c r="D30" s="191" t="s">
         <v>433</v>
       </c>
-      <c r="E30" s="192" t="s">
+      <c r="E30" s="191" t="s">
         <v>434</v>
       </c>
-      <c r="F30" s="192" t="s">
+      <c r="F30" s="191" t="s">
         <v>435</v>
       </c>
-      <c r="G30" s="192" t="s">
+      <c r="G30" s="191" t="s">
         <v>449</v>
       </c>
       <c r="H30" s="156" t="s">
@@ -16095,14 +16196,16 @@
       <c r="I30" s="157" t="s">
         <v>427</v>
       </c>
-      <c r="J30" s="184" t="s">
+      <c r="J30" s="183" t="s">
         <v>438</v>
       </c>
-      <c r="K30" s="158"/>
-      <c r="L30" s="159" t="s">
+      <c r="K30" s="144">
+        <v>44099</v>
+      </c>
+      <c r="L30" s="158" t="s">
         <v>444</v>
       </c>
-      <c r="M30" s="160"/>
+      <c r="M30" s="159"/>
       <c r="N30" s="147"/>
       <c r="O30" s="148"/>
       <c r="P30" s="149"/>
@@ -16113,24 +16216,28 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C31" s="190"/>
-      <c r="D31" s="193"/>
-      <c r="E31" s="193"/>
-      <c r="F31" s="193"/>
-      <c r="G31" s="193"/>
-      <c r="H31" s="161" t="s">
+      <c r="C31" s="189"/>
+      <c r="D31" s="192"/>
+      <c r="E31" s="192"/>
+      <c r="F31" s="192"/>
+      <c r="G31" s="192"/>
+      <c r="H31" s="160" t="s">
         <v>439</v>
       </c>
       <c r="I31" s="157" t="s">
         <v>427</v>
       </c>
-      <c r="J31" s="162" t="s">
+      <c r="J31" s="161" t="s">
         <v>450</v>
       </c>
-      <c r="K31" s="158"/>
-      <c r="L31" s="159"/>
-      <c r="M31" s="186"/>
-      <c r="N31" s="163"/>
+      <c r="K31" s="144">
+        <v>44099</v>
+      </c>
+      <c r="L31" s="158" t="s">
+        <v>444</v>
+      </c>
+      <c r="M31" s="185"/>
+      <c r="N31" s="162"/>
       <c r="O31" s="148"/>
       <c r="P31" s="149"/>
       <c r="Q31" s="150"/>
@@ -16140,1204 +16247,1206 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C32" s="191"/>
-      <c r="D32" s="194"/>
-      <c r="E32" s="194"/>
-      <c r="F32" s="194"/>
-      <c r="G32" s="194"/>
-      <c r="H32" s="161" t="s">
+      <c r="C32" s="190"/>
+      <c r="D32" s="193"/>
+      <c r="E32" s="193"/>
+      <c r="F32" s="193"/>
+      <c r="G32" s="193"/>
+      <c r="H32" s="160" t="s">
         <v>309</v>
       </c>
       <c r="I32" s="157" t="s">
         <v>427</v>
       </c>
-      <c r="J32" s="162" t="s">
+      <c r="J32" s="161" t="s">
         <v>440</v>
       </c>
-      <c r="K32" s="153"/>
+      <c r="K32" s="144">
+        <v>44099</v>
+      </c>
       <c r="L32" s="154" t="s">
         <v>444</v>
       </c>
       <c r="M32" s="155"/>
-      <c r="N32" s="163"/>
+      <c r="N32" s="162"/>
       <c r="O32" s="148"/>
       <c r="P32" s="149"/>
       <c r="Q32" s="150"/>
     </row>
     <row r="33" spans="2:17" ht="20">
-      <c r="B33" s="164"/>
-      <c r="C33" s="165"/>
-      <c r="D33" s="165"/>
-      <c r="E33" s="165"/>
-      <c r="F33" s="165"/>
-      <c r="G33" s="165"/>
-      <c r="H33" s="164"/>
-      <c r="I33" s="164"/>
-      <c r="J33" s="164"/>
-      <c r="K33" s="166"/>
-      <c r="L33" s="167"/>
-      <c r="M33" s="168"/>
-      <c r="N33" s="163"/>
+      <c r="B33" s="163"/>
+      <c r="C33" s="164"/>
+      <c r="D33" s="164"/>
+      <c r="E33" s="164"/>
+      <c r="F33" s="164"/>
+      <c r="G33" s="164"/>
+      <c r="H33" s="163"/>
+      <c r="I33" s="163"/>
+      <c r="J33" s="163"/>
+      <c r="K33" s="165"/>
+      <c r="L33" s="166"/>
+      <c r="M33" s="167"/>
+      <c r="N33" s="162"/>
       <c r="O33" s="148"/>
       <c r="P33" s="149"/>
       <c r="Q33" s="150"/>
     </row>
     <row r="34" spans="2:17" ht="20">
-      <c r="B34" s="165"/>
-      <c r="C34" s="169"/>
-      <c r="D34" s="165"/>
-      <c r="E34" s="165"/>
-      <c r="F34" s="165"/>
-      <c r="G34" s="165"/>
-      <c r="H34" s="165"/>
-      <c r="I34" s="165"/>
-      <c r="J34" s="165"/>
-      <c r="K34" s="170"/>
-      <c r="M34" s="171"/>
-      <c r="N34" s="163"/>
+      <c r="B34" s="164"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="164"/>
+      <c r="E34" s="164"/>
+      <c r="F34" s="164"/>
+      <c r="G34" s="164"/>
+      <c r="H34" s="164"/>
+      <c r="I34" s="164"/>
+      <c r="J34" s="164"/>
+      <c r="K34" s="169"/>
+      <c r="M34" s="170"/>
+      <c r="N34" s="162"/>
       <c r="O34" s="148"/>
       <c r="P34" s="149"/>
       <c r="Q34" s="150"/>
     </row>
     <row r="35" spans="2:17" ht="20">
-      <c r="B35" s="165"/>
-      <c r="C35" s="169"/>
-      <c r="D35" s="165"/>
-      <c r="E35" s="165"/>
-      <c r="F35" s="165"/>
-      <c r="G35" s="165"/>
-      <c r="H35" s="165"/>
-      <c r="I35" s="165"/>
-      <c r="J35" s="165"/>
-      <c r="K35" s="170"/>
-      <c r="L35" s="172"/>
-      <c r="M35" s="171"/>
-      <c r="N35" s="163"/>
+      <c r="B35" s="164"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="164"/>
+      <c r="E35" s="164"/>
+      <c r="F35" s="164"/>
+      <c r="G35" s="164"/>
+      <c r="H35" s="164"/>
+      <c r="I35" s="164"/>
+      <c r="J35" s="164"/>
+      <c r="K35" s="169"/>
+      <c r="L35" s="171"/>
+      <c r="M35" s="170"/>
+      <c r="N35" s="162"/>
       <c r="O35" s="148"/>
       <c r="P35" s="149"/>
       <c r="Q35" s="150"/>
     </row>
     <row r="36" spans="2:17" ht="20">
-      <c r="B36" s="165"/>
-      <c r="C36" s="169"/>
-      <c r="D36" s="165"/>
-      <c r="E36" s="165"/>
-      <c r="F36" s="165"/>
-      <c r="G36" s="165"/>
-      <c r="H36" s="165"/>
-      <c r="I36" s="165"/>
-      <c r="J36" s="165"/>
-      <c r="K36" s="170"/>
-      <c r="L36" s="172"/>
-      <c r="M36" s="171"/>
-      <c r="N36" s="163"/>
+      <c r="B36" s="164"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="164"/>
+      <c r="E36" s="164"/>
+      <c r="F36" s="164"/>
+      <c r="G36" s="164"/>
+      <c r="H36" s="164"/>
+      <c r="I36" s="164"/>
+      <c r="J36" s="164"/>
+      <c r="K36" s="169"/>
+      <c r="L36" s="171"/>
+      <c r="M36" s="170"/>
+      <c r="N36" s="162"/>
       <c r="O36" s="148"/>
       <c r="P36" s="149"/>
       <c r="Q36" s="150"/>
     </row>
     <row r="37" spans="2:17" ht="20">
-      <c r="B37" s="165"/>
-      <c r="C37" s="169"/>
-      <c r="D37" s="165"/>
-      <c r="E37" s="165"/>
-      <c r="F37" s="165"/>
-      <c r="G37" s="165"/>
-      <c r="H37" s="165"/>
-      <c r="I37" s="165"/>
-      <c r="J37" s="165"/>
-      <c r="K37" s="170"/>
-      <c r="L37" s="172"/>
-      <c r="M37" s="171"/>
-      <c r="N37" s="163"/>
+      <c r="B37" s="164"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="164"/>
+      <c r="E37" s="164"/>
+      <c r="F37" s="164"/>
+      <c r="G37" s="164"/>
+      <c r="H37" s="164"/>
+      <c r="I37" s="164"/>
+      <c r="J37" s="164"/>
+      <c r="K37" s="169"/>
+      <c r="L37" s="171"/>
+      <c r="M37" s="170"/>
+      <c r="N37" s="162"/>
       <c r="O37" s="148"/>
       <c r="P37" s="149"/>
       <c r="Q37" s="150"/>
     </row>
     <row r="38" spans="2:17" ht="20">
-      <c r="B38" s="165"/>
-      <c r="C38" s="169"/>
-      <c r="D38" s="165"/>
-      <c r="E38" s="165"/>
-      <c r="F38" s="165"/>
-      <c r="G38" s="165"/>
-      <c r="H38" s="165"/>
-      <c r="I38" s="165"/>
-      <c r="J38" s="165"/>
-      <c r="K38" s="170"/>
-      <c r="L38" s="172"/>
-      <c r="M38" s="171"/>
-      <c r="N38" s="163"/>
+      <c r="B38" s="164"/>
+      <c r="C38" s="168"/>
+      <c r="D38" s="164"/>
+      <c r="E38" s="164"/>
+      <c r="F38" s="164"/>
+      <c r="G38" s="164"/>
+      <c r="H38" s="164"/>
+      <c r="I38" s="164"/>
+      <c r="J38" s="164"/>
+      <c r="K38" s="169"/>
+      <c r="L38" s="171"/>
+      <c r="M38" s="170"/>
+      <c r="N38" s="162"/>
       <c r="O38" s="148"/>
       <c r="P38" s="149"/>
       <c r="Q38" s="150"/>
     </row>
     <row r="39" spans="2:17" ht="20">
-      <c r="B39" s="165"/>
-      <c r="C39" s="171"/>
-      <c r="D39" s="171"/>
-      <c r="E39" s="171"/>
-      <c r="F39" s="171"/>
-      <c r="G39" s="171"/>
-      <c r="H39" s="171"/>
-      <c r="I39" s="171"/>
-      <c r="J39" s="171"/>
-      <c r="K39" s="170"/>
-      <c r="L39" s="172"/>
-      <c r="M39" s="171"/>
-      <c r="N39" s="163"/>
+      <c r="B39" s="164"/>
+      <c r="C39" s="170"/>
+      <c r="D39" s="170"/>
+      <c r="E39" s="170"/>
+      <c r="F39" s="170"/>
+      <c r="G39" s="170"/>
+      <c r="H39" s="170"/>
+      <c r="I39" s="170"/>
+      <c r="J39" s="170"/>
+      <c r="K39" s="169"/>
+      <c r="L39" s="171"/>
+      <c r="M39" s="170"/>
+      <c r="N39" s="162"/>
       <c r="O39" s="148"/>
       <c r="P39" s="149"/>
       <c r="Q39" s="150"/>
     </row>
     <row r="40" spans="2:17" ht="20">
-      <c r="B40" s="165"/>
-      <c r="C40" s="171"/>
-      <c r="D40" s="171"/>
-      <c r="E40" s="171"/>
-      <c r="F40" s="171"/>
-      <c r="G40" s="171"/>
-      <c r="H40" s="171"/>
-      <c r="I40" s="171"/>
-      <c r="J40" s="171"/>
-      <c r="K40" s="170"/>
-      <c r="L40" s="172"/>
-      <c r="M40" s="171"/>
-      <c r="N40" s="163"/>
+      <c r="B40" s="164"/>
+      <c r="C40" s="170"/>
+      <c r="D40" s="170"/>
+      <c r="E40" s="170"/>
+      <c r="F40" s="170"/>
+      <c r="G40" s="170"/>
+      <c r="H40" s="170"/>
+      <c r="I40" s="170"/>
+      <c r="J40" s="170"/>
+      <c r="K40" s="169"/>
+      <c r="L40" s="171"/>
+      <c r="M40" s="170"/>
+      <c r="N40" s="162"/>
       <c r="O40" s="148"/>
       <c r="P40" s="149"/>
       <c r="Q40" s="150"/>
     </row>
     <row r="41" spans="2:17" ht="20">
-      <c r="B41" s="165"/>
-      <c r="C41" s="171"/>
-      <c r="D41" s="171"/>
-      <c r="E41" s="171"/>
-      <c r="F41" s="171"/>
-      <c r="G41" s="171"/>
-      <c r="H41" s="171"/>
-      <c r="I41" s="171"/>
-      <c r="J41" s="171"/>
-      <c r="K41" s="170"/>
-      <c r="L41" s="172"/>
-      <c r="M41" s="171"/>
-      <c r="N41" s="163"/>
+      <c r="B41" s="164"/>
+      <c r="C41" s="170"/>
+      <c r="D41" s="170"/>
+      <c r="E41" s="170"/>
+      <c r="F41" s="170"/>
+      <c r="G41" s="170"/>
+      <c r="H41" s="170"/>
+      <c r="I41" s="170"/>
+      <c r="J41" s="170"/>
+      <c r="K41" s="169"/>
+      <c r="L41" s="171"/>
+      <c r="M41" s="170"/>
+      <c r="N41" s="162"/>
       <c r="O41" s="148"/>
       <c r="P41" s="149"/>
       <c r="Q41" s="150"/>
     </row>
     <row r="42" spans="2:17" ht="20">
-      <c r="B42" s="165"/>
-      <c r="C42" s="171"/>
-      <c r="D42" s="171"/>
-      <c r="E42" s="171"/>
-      <c r="F42" s="171"/>
-      <c r="G42" s="171"/>
-      <c r="H42" s="171"/>
-      <c r="I42" s="171"/>
-      <c r="J42" s="171"/>
-      <c r="K42" s="170"/>
-      <c r="L42" s="172"/>
-      <c r="M42" s="171"/>
-      <c r="N42" s="163"/>
+      <c r="B42" s="164"/>
+      <c r="C42" s="170"/>
+      <c r="D42" s="170"/>
+      <c r="E42" s="170"/>
+      <c r="F42" s="170"/>
+      <c r="G42" s="170"/>
+      <c r="H42" s="170"/>
+      <c r="I42" s="170"/>
+      <c r="J42" s="170"/>
+      <c r="K42" s="169"/>
+      <c r="L42" s="171"/>
+      <c r="M42" s="170"/>
+      <c r="N42" s="162"/>
       <c r="O42" s="148"/>
       <c r="P42" s="149"/>
       <c r="Q42" s="150"/>
     </row>
     <row r="43" spans="2:17" ht="20">
-      <c r="B43" s="165"/>
-      <c r="C43" s="171"/>
-      <c r="D43" s="165"/>
-      <c r="E43" s="165"/>
-      <c r="F43" s="165"/>
-      <c r="G43" s="165"/>
-      <c r="H43" s="165"/>
-      <c r="I43" s="165"/>
-      <c r="J43" s="165"/>
-      <c r="K43" s="170"/>
-      <c r="L43" s="172"/>
-      <c r="M43" s="171"/>
-      <c r="N43" s="163"/>
+      <c r="B43" s="164"/>
+      <c r="C43" s="170"/>
+      <c r="D43" s="164"/>
+      <c r="E43" s="164"/>
+      <c r="F43" s="164"/>
+      <c r="G43" s="164"/>
+      <c r="H43" s="164"/>
+      <c r="I43" s="164"/>
+      <c r="J43" s="164"/>
+      <c r="K43" s="169"/>
+      <c r="L43" s="171"/>
+      <c r="M43" s="170"/>
+      <c r="N43" s="162"/>
       <c r="O43" s="148"/>
       <c r="P43" s="149"/>
       <c r="Q43" s="150"/>
     </row>
     <row r="44" spans="2:17" ht="20">
-      <c r="B44" s="165"/>
-      <c r="C44" s="171"/>
-      <c r="D44" s="171"/>
-      <c r="E44" s="171"/>
-      <c r="F44" s="171"/>
-      <c r="G44" s="171"/>
-      <c r="H44" s="171"/>
-      <c r="I44" s="171"/>
-      <c r="J44" s="165"/>
-      <c r="K44" s="170"/>
-      <c r="L44" s="172"/>
-      <c r="M44" s="171"/>
-      <c r="N44" s="163"/>
+      <c r="B44" s="164"/>
+      <c r="C44" s="170"/>
+      <c r="D44" s="170"/>
+      <c r="E44" s="170"/>
+      <c r="F44" s="170"/>
+      <c r="G44" s="170"/>
+      <c r="H44" s="170"/>
+      <c r="I44" s="170"/>
+      <c r="J44" s="164"/>
+      <c r="K44" s="169"/>
+      <c r="L44" s="171"/>
+      <c r="M44" s="170"/>
+      <c r="N44" s="162"/>
       <c r="O44" s="148"/>
       <c r="P44" s="149"/>
       <c r="Q44" s="150"/>
     </row>
     <row r="45" spans="2:17" ht="20">
-      <c r="B45" s="165"/>
-      <c r="C45" s="171"/>
-      <c r="D45" s="171"/>
-      <c r="E45" s="171"/>
-      <c r="F45" s="171"/>
-      <c r="G45" s="171"/>
-      <c r="H45" s="171"/>
-      <c r="I45" s="171"/>
-      <c r="J45" s="165"/>
-      <c r="K45" s="170"/>
-      <c r="L45" s="172"/>
-      <c r="M45" s="171"/>
-      <c r="N45" s="163"/>
+      <c r="B45" s="164"/>
+      <c r="C45" s="170"/>
+      <c r="D45" s="170"/>
+      <c r="E45" s="170"/>
+      <c r="F45" s="170"/>
+      <c r="G45" s="170"/>
+      <c r="H45" s="170"/>
+      <c r="I45" s="170"/>
+      <c r="J45" s="164"/>
+      <c r="K45" s="169"/>
+      <c r="L45" s="171"/>
+      <c r="M45" s="170"/>
+      <c r="N45" s="162"/>
       <c r="O45" s="148"/>
       <c r="P45" s="149"/>
       <c r="Q45" s="150"/>
     </row>
     <row r="46" spans="2:17" ht="20">
-      <c r="B46" s="165"/>
-      <c r="C46" s="171"/>
-      <c r="D46" s="171"/>
-      <c r="E46" s="171"/>
-      <c r="F46" s="171"/>
-      <c r="G46" s="171"/>
-      <c r="H46" s="171"/>
-      <c r="I46" s="171"/>
-      <c r="J46" s="171"/>
-      <c r="K46" s="170"/>
-      <c r="L46" s="172"/>
-      <c r="M46" s="171"/>
-      <c r="N46" s="163"/>
+      <c r="B46" s="164"/>
+      <c r="C46" s="170"/>
+      <c r="D46" s="170"/>
+      <c r="E46" s="170"/>
+      <c r="F46" s="170"/>
+      <c r="G46" s="170"/>
+      <c r="H46" s="170"/>
+      <c r="I46" s="170"/>
+      <c r="J46" s="170"/>
+      <c r="K46" s="169"/>
+      <c r="L46" s="171"/>
+      <c r="M46" s="170"/>
+      <c r="N46" s="162"/>
       <c r="O46" s="148"/>
       <c r="P46" s="149"/>
       <c r="Q46" s="150"/>
     </row>
     <row r="47" spans="2:17" ht="20">
-      <c r="B47" s="165"/>
-      <c r="C47" s="165"/>
-      <c r="D47" s="165"/>
-      <c r="E47" s="165"/>
-      <c r="F47" s="165"/>
-      <c r="G47" s="165"/>
-      <c r="H47" s="165"/>
-      <c r="I47" s="165"/>
-      <c r="J47" s="165"/>
-      <c r="K47" s="170"/>
-      <c r="L47" s="173"/>
-      <c r="M47" s="165"/>
-      <c r="N47" s="163"/>
+      <c r="B47" s="164"/>
+      <c r="C47" s="164"/>
+      <c r="D47" s="164"/>
+      <c r="E47" s="164"/>
+      <c r="F47" s="164"/>
+      <c r="G47" s="164"/>
+      <c r="H47" s="164"/>
+      <c r="I47" s="164"/>
+      <c r="J47" s="164"/>
+      <c r="K47" s="169"/>
+      <c r="L47" s="172"/>
+      <c r="M47" s="164"/>
+      <c r="N47" s="162"/>
       <c r="O47" s="148"/>
       <c r="P47" s="149"/>
       <c r="Q47" s="148"/>
     </row>
     <row r="48" spans="2:17" ht="20">
-      <c r="B48" s="165"/>
-      <c r="C48" s="169"/>
-      <c r="D48" s="165"/>
-      <c r="E48" s="165"/>
-      <c r="F48" s="165"/>
-      <c r="G48" s="165"/>
-      <c r="H48" s="165"/>
-      <c r="I48" s="165"/>
-      <c r="J48" s="165"/>
-      <c r="K48" s="170"/>
-      <c r="L48" s="173"/>
-      <c r="M48" s="171"/>
-      <c r="N48" s="163"/>
+      <c r="B48" s="164"/>
+      <c r="C48" s="168"/>
+      <c r="D48" s="164"/>
+      <c r="E48" s="164"/>
+      <c r="F48" s="164"/>
+      <c r="G48" s="164"/>
+      <c r="H48" s="164"/>
+      <c r="I48" s="164"/>
+      <c r="J48" s="164"/>
+      <c r="K48" s="169"/>
+      <c r="L48" s="172"/>
+      <c r="M48" s="170"/>
+      <c r="N48" s="162"/>
       <c r="O48" s="148"/>
       <c r="P48" s="149"/>
       <c r="Q48" s="150"/>
     </row>
     <row r="49" spans="2:17" ht="20">
-      <c r="B49" s="165"/>
-      <c r="C49" s="169"/>
-      <c r="D49" s="165"/>
-      <c r="E49" s="165"/>
-      <c r="F49" s="165"/>
-      <c r="G49" s="165"/>
-      <c r="H49" s="165"/>
-      <c r="I49" s="165"/>
-      <c r="J49" s="165"/>
-      <c r="K49" s="170"/>
-      <c r="L49" s="173"/>
-      <c r="M49" s="171"/>
-      <c r="N49" s="163"/>
+      <c r="B49" s="164"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="164"/>
+      <c r="E49" s="164"/>
+      <c r="F49" s="164"/>
+      <c r="G49" s="164"/>
+      <c r="H49" s="164"/>
+      <c r="I49" s="164"/>
+      <c r="J49" s="164"/>
+      <c r="K49" s="169"/>
+      <c r="L49" s="172"/>
+      <c r="M49" s="170"/>
+      <c r="N49" s="162"/>
       <c r="O49" s="148"/>
       <c r="P49" s="149"/>
       <c r="Q49" s="150"/>
     </row>
     <row r="50" spans="2:17" ht="20">
-      <c r="B50" s="165"/>
-      <c r="C50" s="169"/>
-      <c r="D50" s="165"/>
-      <c r="E50" s="165"/>
-      <c r="F50" s="165"/>
-      <c r="G50" s="165"/>
-      <c r="H50" s="165"/>
-      <c r="I50" s="165"/>
-      <c r="J50" s="171"/>
-      <c r="K50" s="170"/>
-      <c r="L50" s="173"/>
-      <c r="M50" s="171"/>
-      <c r="N50" s="163"/>
+      <c r="B50" s="164"/>
+      <c r="C50" s="168"/>
+      <c r="D50" s="164"/>
+      <c r="E50" s="164"/>
+      <c r="F50" s="164"/>
+      <c r="G50" s="164"/>
+      <c r="H50" s="164"/>
+      <c r="I50" s="164"/>
+      <c r="J50" s="170"/>
+      <c r="K50" s="169"/>
+      <c r="L50" s="172"/>
+      <c r="M50" s="170"/>
+      <c r="N50" s="162"/>
       <c r="O50" s="148"/>
       <c r="P50" s="149"/>
       <c r="Q50" s="150"/>
     </row>
     <row r="51" spans="2:17" ht="20">
-      <c r="B51" s="165"/>
-      <c r="C51" s="169"/>
-      <c r="D51" s="165"/>
-      <c r="E51" s="165"/>
-      <c r="F51" s="165"/>
-      <c r="G51" s="165"/>
-      <c r="H51" s="165"/>
-      <c r="I51" s="165"/>
-      <c r="J51" s="165"/>
-      <c r="K51" s="170"/>
-      <c r="L51" s="172"/>
-      <c r="M51" s="171"/>
-      <c r="N51" s="163"/>
+      <c r="B51" s="164"/>
+      <c r="C51" s="168"/>
+      <c r="D51" s="164"/>
+      <c r="E51" s="164"/>
+      <c r="F51" s="164"/>
+      <c r="G51" s="164"/>
+      <c r="H51" s="164"/>
+      <c r="I51" s="164"/>
+      <c r="J51" s="164"/>
+      <c r="K51" s="169"/>
+      <c r="L51" s="171"/>
+      <c r="M51" s="170"/>
+      <c r="N51" s="162"/>
       <c r="O51" s="148"/>
       <c r="P51" s="149"/>
       <c r="Q51" s="150"/>
     </row>
     <row r="52" spans="2:17" ht="20">
-      <c r="B52" s="165"/>
-      <c r="C52" s="169"/>
-      <c r="D52" s="165"/>
-      <c r="E52" s="165"/>
-      <c r="F52" s="165"/>
-      <c r="G52" s="165"/>
-      <c r="H52" s="165"/>
-      <c r="I52" s="165"/>
-      <c r="J52" s="165"/>
-      <c r="K52" s="170"/>
-      <c r="L52" s="172"/>
-      <c r="M52" s="171"/>
-      <c r="N52" s="163"/>
+      <c r="B52" s="164"/>
+      <c r="C52" s="168"/>
+      <c r="D52" s="164"/>
+      <c r="E52" s="164"/>
+      <c r="F52" s="164"/>
+      <c r="G52" s="164"/>
+      <c r="H52" s="164"/>
+      <c r="I52" s="164"/>
+      <c r="J52" s="164"/>
+      <c r="K52" s="169"/>
+      <c r="L52" s="171"/>
+      <c r="M52" s="170"/>
+      <c r="N52" s="162"/>
       <c r="O52" s="148"/>
       <c r="P52" s="149"/>
       <c r="Q52" s="150"/>
     </row>
     <row r="53" spans="2:17" ht="20.5" thickBot="1">
-      <c r="B53" s="165"/>
-      <c r="C53" s="169"/>
-      <c r="D53" s="165"/>
-      <c r="E53" s="165"/>
-      <c r="F53" s="165"/>
-      <c r="G53" s="165"/>
-      <c r="H53" s="165"/>
-      <c r="I53" s="165"/>
-      <c r="J53" s="165"/>
-      <c r="K53" s="170"/>
-      <c r="L53" s="172"/>
-      <c r="M53" s="171"/>
-      <c r="N53" s="163"/>
+      <c r="B53" s="164"/>
+      <c r="C53" s="168"/>
+      <c r="D53" s="164"/>
+      <c r="E53" s="164"/>
+      <c r="F53" s="164"/>
+      <c r="G53" s="164"/>
+      <c r="H53" s="164"/>
+      <c r="I53" s="164"/>
+      <c r="J53" s="164"/>
+      <c r="K53" s="169"/>
+      <c r="L53" s="171"/>
+      <c r="M53" s="170"/>
+      <c r="N53" s="162"/>
       <c r="O53" s="148"/>
       <c r="P53" s="149"/>
       <c r="Q53" s="150"/>
     </row>
     <row r="54" spans="2:17" ht="20.5" thickBot="1">
-      <c r="B54" s="165"/>
-      <c r="C54" s="169"/>
-      <c r="D54" s="165"/>
-      <c r="E54" s="165"/>
-      <c r="F54" s="165"/>
-      <c r="G54" s="165"/>
-      <c r="H54" s="165"/>
-      <c r="I54" s="165"/>
-      <c r="J54" s="165"/>
-      <c r="K54" s="170"/>
-      <c r="L54" s="172"/>
-      <c r="M54" s="171"/>
-      <c r="N54" s="163"/>
+      <c r="B54" s="164"/>
+      <c r="C54" s="168"/>
+      <c r="D54" s="164"/>
+      <c r="E54" s="164"/>
+      <c r="F54" s="164"/>
+      <c r="G54" s="164"/>
+      <c r="H54" s="164"/>
+      <c r="I54" s="164"/>
+      <c r="J54" s="164"/>
+      <c r="K54" s="169"/>
+      <c r="L54" s="171"/>
+      <c r="M54" s="170"/>
+      <c r="N54" s="162"/>
       <c r="O54" s="148"/>
       <c r="P54" s="149"/>
       <c r="Q54" s="150"/>
     </row>
     <row r="55" spans="2:17" ht="20.5" thickBot="1">
-      <c r="B55" s="165"/>
-      <c r="C55" s="169"/>
-      <c r="D55" s="165"/>
-      <c r="E55" s="165"/>
-      <c r="F55" s="165"/>
-      <c r="G55" s="165"/>
-      <c r="H55" s="165"/>
-      <c r="I55" s="165"/>
-      <c r="J55" s="165"/>
-      <c r="K55" s="170"/>
-      <c r="L55" s="172"/>
-      <c r="M55" s="171"/>
-      <c r="N55" s="163"/>
+      <c r="B55" s="164"/>
+      <c r="C55" s="168"/>
+      <c r="D55" s="164"/>
+      <c r="E55" s="164"/>
+      <c r="F55" s="164"/>
+      <c r="G55" s="164"/>
+      <c r="H55" s="164"/>
+      <c r="I55" s="164"/>
+      <c r="J55" s="164"/>
+      <c r="K55" s="169"/>
+      <c r="L55" s="171"/>
+      <c r="M55" s="170"/>
+      <c r="N55" s="162"/>
       <c r="O55" s="148"/>
       <c r="P55" s="149"/>
       <c r="Q55" s="150"/>
     </row>
     <row r="56" spans="2:17" ht="20.5" thickBot="1">
-      <c r="B56" s="165"/>
-      <c r="C56" s="169"/>
-      <c r="D56" s="165"/>
-      <c r="E56" s="165"/>
-      <c r="F56" s="165"/>
-      <c r="G56" s="165"/>
-      <c r="H56" s="165"/>
-      <c r="I56" s="165"/>
-      <c r="J56" s="165"/>
-      <c r="K56" s="170"/>
-      <c r="L56" s="172"/>
-      <c r="M56" s="171"/>
-      <c r="N56" s="163"/>
+      <c r="B56" s="164"/>
+      <c r="C56" s="168"/>
+      <c r="D56" s="164"/>
+      <c r="E56" s="164"/>
+      <c r="F56" s="164"/>
+      <c r="G56" s="164"/>
+      <c r="H56" s="164"/>
+      <c r="I56" s="164"/>
+      <c r="J56" s="164"/>
+      <c r="K56" s="169"/>
+      <c r="L56" s="171"/>
+      <c r="M56" s="170"/>
+      <c r="N56" s="162"/>
       <c r="O56" s="148"/>
       <c r="P56" s="149"/>
       <c r="Q56" s="150"/>
     </row>
     <row r="57" spans="2:17" ht="20.5" thickBot="1">
-      <c r="B57" s="165"/>
-      <c r="C57" s="169"/>
-      <c r="D57" s="165"/>
-      <c r="E57" s="165"/>
-      <c r="F57" s="165"/>
-      <c r="G57" s="165"/>
-      <c r="H57" s="165"/>
-      <c r="I57" s="165"/>
-      <c r="J57" s="165"/>
-      <c r="K57" s="170"/>
-      <c r="L57" s="172"/>
-      <c r="M57" s="171"/>
-      <c r="N57" s="163"/>
+      <c r="B57" s="164"/>
+      <c r="C57" s="168"/>
+      <c r="D57" s="164"/>
+      <c r="E57" s="164"/>
+      <c r="F57" s="164"/>
+      <c r="G57" s="164"/>
+      <c r="H57" s="164"/>
+      <c r="I57" s="164"/>
+      <c r="J57" s="164"/>
+      <c r="K57" s="169"/>
+      <c r="L57" s="171"/>
+      <c r="M57" s="170"/>
+      <c r="N57" s="162"/>
       <c r="O57" s="148"/>
       <c r="P57" s="149"/>
       <c r="Q57" s="150"/>
     </row>
     <row r="58" spans="2:17" ht="20.5" thickBot="1">
-      <c r="B58" s="165"/>
-      <c r="C58" s="169"/>
-      <c r="D58" s="165"/>
-      <c r="E58" s="165"/>
-      <c r="F58" s="165"/>
-      <c r="G58" s="165"/>
-      <c r="H58" s="165"/>
-      <c r="I58" s="165"/>
-      <c r="J58" s="165"/>
-      <c r="K58" s="170"/>
-      <c r="L58" s="172"/>
-      <c r="M58" s="171"/>
-      <c r="N58" s="163"/>
+      <c r="B58" s="164"/>
+      <c r="C58" s="168"/>
+      <c r="D58" s="164"/>
+      <c r="E58" s="164"/>
+      <c r="F58" s="164"/>
+      <c r="G58" s="164"/>
+      <c r="H58" s="164"/>
+      <c r="I58" s="164"/>
+      <c r="J58" s="164"/>
+      <c r="K58" s="169"/>
+      <c r="L58" s="171"/>
+      <c r="M58" s="170"/>
+      <c r="N58" s="162"/>
       <c r="O58" s="148"/>
       <c r="P58" s="149"/>
       <c r="Q58" s="150"/>
     </row>
     <row r="59" spans="2:17" ht="20.5" thickBot="1">
-      <c r="B59" s="165"/>
-      <c r="C59" s="169"/>
-      <c r="D59" s="165"/>
-      <c r="E59" s="165"/>
-      <c r="F59" s="165"/>
-      <c r="G59" s="165"/>
-      <c r="H59" s="165"/>
-      <c r="I59" s="165"/>
-      <c r="J59" s="165"/>
-      <c r="K59" s="170"/>
-      <c r="L59" s="172"/>
-      <c r="M59" s="171"/>
-      <c r="N59" s="163"/>
+      <c r="B59" s="164"/>
+      <c r="C59" s="168"/>
+      <c r="D59" s="164"/>
+      <c r="E59" s="164"/>
+      <c r="F59" s="164"/>
+      <c r="G59" s="164"/>
+      <c r="H59" s="164"/>
+      <c r="I59" s="164"/>
+      <c r="J59" s="164"/>
+      <c r="K59" s="169"/>
+      <c r="L59" s="171"/>
+      <c r="M59" s="170"/>
+      <c r="N59" s="162"/>
       <c r="O59" s="148"/>
       <c r="P59" s="149"/>
       <c r="Q59" s="150"/>
     </row>
     <row r="60" spans="2:17" ht="20.5" thickBot="1">
-      <c r="B60" s="165"/>
-      <c r="C60" s="169"/>
-      <c r="D60" s="165"/>
-      <c r="E60" s="165"/>
-      <c r="F60" s="165"/>
-      <c r="G60" s="165"/>
-      <c r="H60" s="165"/>
-      <c r="I60" s="165"/>
-      <c r="J60" s="165"/>
-      <c r="K60" s="170"/>
-      <c r="L60" s="172"/>
-      <c r="M60" s="171"/>
-      <c r="N60" s="163"/>
+      <c r="B60" s="164"/>
+      <c r="C60" s="168"/>
+      <c r="D60" s="164"/>
+      <c r="E60" s="164"/>
+      <c r="F60" s="164"/>
+      <c r="G60" s="164"/>
+      <c r="H60" s="164"/>
+      <c r="I60" s="164"/>
+      <c r="J60" s="164"/>
+      <c r="K60" s="169"/>
+      <c r="L60" s="171"/>
+      <c r="M60" s="170"/>
+      <c r="N60" s="162"/>
       <c r="O60" s="148"/>
       <c r="P60" s="149"/>
       <c r="Q60" s="150"/>
     </row>
     <row r="61" spans="2:17" ht="20.5" thickBot="1">
-      <c r="B61" s="165"/>
-      <c r="C61" s="169"/>
-      <c r="D61" s="165"/>
-      <c r="E61" s="165"/>
-      <c r="F61" s="165"/>
-      <c r="G61" s="165"/>
-      <c r="H61" s="165"/>
-      <c r="I61" s="165"/>
-      <c r="J61" s="165"/>
-      <c r="K61" s="170"/>
-      <c r="L61" s="172"/>
-      <c r="M61" s="171"/>
-      <c r="N61" s="163"/>
+      <c r="B61" s="164"/>
+      <c r="C61" s="168"/>
+      <c r="D61" s="164"/>
+      <c r="E61" s="164"/>
+      <c r="F61" s="164"/>
+      <c r="G61" s="164"/>
+      <c r="H61" s="164"/>
+      <c r="I61" s="164"/>
+      <c r="J61" s="164"/>
+      <c r="K61" s="169"/>
+      <c r="L61" s="171"/>
+      <c r="M61" s="170"/>
+      <c r="N61" s="162"/>
       <c r="O61" s="148"/>
       <c r="P61" s="149"/>
       <c r="Q61" s="150"/>
     </row>
     <row r="62" spans="2:17" ht="20.5" thickBot="1">
-      <c r="B62" s="165"/>
-      <c r="C62" s="169"/>
-      <c r="D62" s="165"/>
-      <c r="E62" s="165"/>
-      <c r="F62" s="165"/>
-      <c r="G62" s="165"/>
-      <c r="H62" s="165"/>
-      <c r="I62" s="165"/>
-      <c r="J62" s="165"/>
-      <c r="K62" s="170"/>
-      <c r="L62" s="172"/>
-      <c r="M62" s="171"/>
-      <c r="N62" s="163"/>
+      <c r="B62" s="164"/>
+      <c r="C62" s="168"/>
+      <c r="D62" s="164"/>
+      <c r="E62" s="164"/>
+      <c r="F62" s="164"/>
+      <c r="G62" s="164"/>
+      <c r="H62" s="164"/>
+      <c r="I62" s="164"/>
+      <c r="J62" s="164"/>
+      <c r="K62" s="169"/>
+      <c r="L62" s="171"/>
+      <c r="M62" s="170"/>
+      <c r="N62" s="162"/>
       <c r="O62" s="148"/>
       <c r="P62" s="149"/>
       <c r="Q62" s="150"/>
     </row>
     <row r="63" spans="2:17" ht="20.5" thickBot="1">
-      <c r="B63" s="165"/>
-      <c r="C63" s="169"/>
-      <c r="D63" s="165"/>
-      <c r="E63" s="165"/>
-      <c r="F63" s="165"/>
-      <c r="G63" s="165"/>
-      <c r="H63" s="165"/>
-      <c r="I63" s="165"/>
-      <c r="J63" s="165"/>
-      <c r="K63" s="170"/>
-      <c r="L63" s="172"/>
-      <c r="M63" s="171"/>
-      <c r="N63" s="163"/>
+      <c r="B63" s="164"/>
+      <c r="C63" s="168"/>
+      <c r="D63" s="164"/>
+      <c r="E63" s="164"/>
+      <c r="F63" s="164"/>
+      <c r="G63" s="164"/>
+      <c r="H63" s="164"/>
+      <c r="I63" s="164"/>
+      <c r="J63" s="164"/>
+      <c r="K63" s="169"/>
+      <c r="L63" s="171"/>
+      <c r="M63" s="170"/>
+      <c r="N63" s="162"/>
       <c r="O63" s="148"/>
       <c r="P63" s="149"/>
       <c r="Q63" s="150"/>
     </row>
     <row r="64" spans="2:17" ht="20.5" thickBot="1">
-      <c r="B64" s="165"/>
-      <c r="C64" s="169"/>
-      <c r="D64" s="165"/>
-      <c r="E64" s="165"/>
-      <c r="F64" s="165"/>
-      <c r="G64" s="165"/>
-      <c r="H64" s="165"/>
-      <c r="I64" s="165"/>
-      <c r="J64" s="165"/>
-      <c r="K64" s="170"/>
-      <c r="L64" s="172"/>
-      <c r="M64" s="171"/>
-      <c r="N64" s="163"/>
+      <c r="B64" s="164"/>
+      <c r="C64" s="168"/>
+      <c r="D64" s="164"/>
+      <c r="E64" s="164"/>
+      <c r="F64" s="164"/>
+      <c r="G64" s="164"/>
+      <c r="H64" s="164"/>
+      <c r="I64" s="164"/>
+      <c r="J64" s="164"/>
+      <c r="K64" s="169"/>
+      <c r="L64" s="171"/>
+      <c r="M64" s="170"/>
+      <c r="N64" s="162"/>
       <c r="O64" s="148"/>
       <c r="P64" s="149"/>
       <c r="Q64" s="150"/>
     </row>
     <row r="65" spans="2:17" ht="20.5" thickBot="1">
-      <c r="B65" s="165"/>
-      <c r="C65" s="169"/>
-      <c r="D65" s="165"/>
-      <c r="E65" s="165"/>
-      <c r="F65" s="165"/>
-      <c r="G65" s="165"/>
-      <c r="H65" s="165"/>
-      <c r="I65" s="165"/>
-      <c r="J65" s="165"/>
-      <c r="K65" s="170"/>
-      <c r="L65" s="172"/>
-      <c r="M65" s="171"/>
-      <c r="N65" s="163"/>
+      <c r="B65" s="164"/>
+      <c r="C65" s="168"/>
+      <c r="D65" s="164"/>
+      <c r="E65" s="164"/>
+      <c r="F65" s="164"/>
+      <c r="G65" s="164"/>
+      <c r="H65" s="164"/>
+      <c r="I65" s="164"/>
+      <c r="J65" s="164"/>
+      <c r="K65" s="169"/>
+      <c r="L65" s="171"/>
+      <c r="M65" s="170"/>
+      <c r="N65" s="162"/>
       <c r="O65" s="148"/>
       <c r="P65" s="149"/>
       <c r="Q65" s="150"/>
     </row>
     <row r="66" spans="2:17" ht="20.5" thickBot="1">
-      <c r="B66" s="165"/>
-      <c r="C66" s="169"/>
-      <c r="D66" s="165"/>
-      <c r="E66" s="165"/>
-      <c r="F66" s="165"/>
-      <c r="G66" s="165"/>
-      <c r="H66" s="165"/>
-      <c r="I66" s="165"/>
-      <c r="J66" s="165"/>
-      <c r="K66" s="170"/>
-      <c r="L66" s="172"/>
-      <c r="M66" s="171"/>
-      <c r="N66" s="163"/>
+      <c r="B66" s="164"/>
+      <c r="C66" s="168"/>
+      <c r="D66" s="164"/>
+      <c r="E66" s="164"/>
+      <c r="F66" s="164"/>
+      <c r="G66" s="164"/>
+      <c r="H66" s="164"/>
+      <c r="I66" s="164"/>
+      <c r="J66" s="164"/>
+      <c r="K66" s="169"/>
+      <c r="L66" s="171"/>
+      <c r="M66" s="170"/>
+      <c r="N66" s="162"/>
       <c r="O66" s="148"/>
       <c r="P66" s="149"/>
       <c r="Q66" s="150"/>
     </row>
     <row r="67" spans="2:17" ht="20.5" thickBot="1">
-      <c r="B67" s="165"/>
-      <c r="C67" s="169"/>
-      <c r="D67" s="165"/>
-      <c r="E67" s="165"/>
-      <c r="F67" s="165"/>
-      <c r="G67" s="165"/>
-      <c r="H67" s="165"/>
-      <c r="I67" s="165"/>
-      <c r="J67" s="165"/>
-      <c r="K67" s="170"/>
-      <c r="L67" s="172"/>
-      <c r="M67" s="171"/>
-      <c r="N67" s="163"/>
+      <c r="B67" s="164"/>
+      <c r="C67" s="168"/>
+      <c r="D67" s="164"/>
+      <c r="E67" s="164"/>
+      <c r="F67" s="164"/>
+      <c r="G67" s="164"/>
+      <c r="H67" s="164"/>
+      <c r="I67" s="164"/>
+      <c r="J67" s="164"/>
+      <c r="K67" s="169"/>
+      <c r="L67" s="171"/>
+      <c r="M67" s="170"/>
+      <c r="N67" s="162"/>
       <c r="O67" s="148"/>
       <c r="P67" s="149"/>
       <c r="Q67" s="150"/>
     </row>
     <row r="68" spans="2:17" ht="20.5" thickBot="1">
-      <c r="B68" s="165"/>
-      <c r="C68" s="169"/>
-      <c r="D68" s="165"/>
-      <c r="E68" s="165"/>
-      <c r="F68" s="165"/>
-      <c r="G68" s="165"/>
-      <c r="H68" s="165"/>
-      <c r="I68" s="165"/>
-      <c r="J68" s="165"/>
-      <c r="K68" s="170"/>
-      <c r="L68" s="172"/>
-      <c r="M68" s="171"/>
-      <c r="N68" s="163"/>
+      <c r="B68" s="164"/>
+      <c r="C68" s="168"/>
+      <c r="D68" s="164"/>
+      <c r="E68" s="164"/>
+      <c r="F68" s="164"/>
+      <c r="G68" s="164"/>
+      <c r="H68" s="164"/>
+      <c r="I68" s="164"/>
+      <c r="J68" s="164"/>
+      <c r="K68" s="169"/>
+      <c r="L68" s="171"/>
+      <c r="M68" s="170"/>
+      <c r="N68" s="162"/>
       <c r="O68" s="148"/>
       <c r="P68" s="149"/>
       <c r="Q68" s="150"/>
     </row>
     <row r="69" spans="2:17" ht="20.5" thickBot="1">
-      <c r="B69" s="165"/>
-      <c r="C69" s="169"/>
-      <c r="D69" s="165"/>
-      <c r="E69" s="165"/>
-      <c r="F69" s="165"/>
-      <c r="G69" s="165"/>
-      <c r="H69" s="165"/>
-      <c r="I69" s="165"/>
-      <c r="J69" s="165"/>
-      <c r="K69" s="170"/>
-      <c r="L69" s="172"/>
-      <c r="M69" s="171"/>
-      <c r="N69" s="163"/>
+      <c r="B69" s="164"/>
+      <c r="C69" s="168"/>
+      <c r="D69" s="164"/>
+      <c r="E69" s="164"/>
+      <c r="F69" s="164"/>
+      <c r="G69" s="164"/>
+      <c r="H69" s="164"/>
+      <c r="I69" s="164"/>
+      <c r="J69" s="164"/>
+      <c r="K69" s="169"/>
+      <c r="L69" s="171"/>
+      <c r="M69" s="170"/>
+      <c r="N69" s="162"/>
       <c r="O69" s="148"/>
       <c r="P69" s="149"/>
       <c r="Q69" s="150"/>
     </row>
     <row r="70" spans="2:17" ht="20.5" thickBot="1">
-      <c r="B70" s="165"/>
-      <c r="C70" s="169"/>
-      <c r="D70" s="165"/>
-      <c r="E70" s="165"/>
-      <c r="F70" s="165"/>
-      <c r="G70" s="165"/>
-      <c r="H70" s="165"/>
-      <c r="I70" s="165"/>
-      <c r="J70" s="165"/>
-      <c r="K70" s="170"/>
-      <c r="L70" s="172"/>
-      <c r="M70" s="171"/>
-      <c r="N70" s="163"/>
+      <c r="B70" s="164"/>
+      <c r="C70" s="168"/>
+      <c r="D70" s="164"/>
+      <c r="E70" s="164"/>
+      <c r="F70" s="164"/>
+      <c r="G70" s="164"/>
+      <c r="H70" s="164"/>
+      <c r="I70" s="164"/>
+      <c r="J70" s="164"/>
+      <c r="K70" s="169"/>
+      <c r="L70" s="171"/>
+      <c r="M70" s="170"/>
+      <c r="N70" s="162"/>
       <c r="O70" s="148"/>
       <c r="P70" s="149"/>
       <c r="Q70" s="150"/>
     </row>
     <row r="71" spans="2:17" ht="20.5" thickBot="1">
-      <c r="B71" s="165"/>
-      <c r="C71" s="169"/>
-      <c r="D71" s="165"/>
-      <c r="E71" s="165"/>
-      <c r="F71" s="165"/>
-      <c r="G71" s="165"/>
-      <c r="H71" s="165"/>
-      <c r="I71" s="165"/>
-      <c r="J71" s="165"/>
-      <c r="K71" s="170"/>
-      <c r="L71" s="172"/>
-      <c r="M71" s="171"/>
-      <c r="N71" s="163"/>
+      <c r="B71" s="164"/>
+      <c r="C71" s="168"/>
+      <c r="D71" s="164"/>
+      <c r="E71" s="164"/>
+      <c r="F71" s="164"/>
+      <c r="G71" s="164"/>
+      <c r="H71" s="164"/>
+      <c r="I71" s="164"/>
+      <c r="J71" s="164"/>
+      <c r="K71" s="169"/>
+      <c r="L71" s="171"/>
+      <c r="M71" s="170"/>
+      <c r="N71" s="162"/>
       <c r="O71" s="148"/>
       <c r="P71" s="149"/>
       <c r="Q71" s="150"/>
     </row>
     <row r="72" spans="2:17" ht="20">
-      <c r="B72" s="165"/>
-      <c r="C72" s="169"/>
-      <c r="D72" s="165"/>
-      <c r="E72" s="165"/>
-      <c r="F72" s="165"/>
-      <c r="G72" s="165"/>
-      <c r="H72" s="165"/>
-      <c r="I72" s="165"/>
-      <c r="J72" s="165"/>
-      <c r="K72" s="170"/>
-      <c r="L72" s="172"/>
-      <c r="M72" s="171"/>
-      <c r="N72" s="163"/>
+      <c r="B72" s="164"/>
+      <c r="C72" s="168"/>
+      <c r="D72" s="164"/>
+      <c r="E72" s="164"/>
+      <c r="F72" s="164"/>
+      <c r="G72" s="164"/>
+      <c r="H72" s="164"/>
+      <c r="I72" s="164"/>
+      <c r="J72" s="164"/>
+      <c r="K72" s="169"/>
+      <c r="L72" s="171"/>
+      <c r="M72" s="170"/>
+      <c r="N72" s="162"/>
       <c r="O72" s="148"/>
       <c r="P72" s="149"/>
       <c r="Q72" s="150"/>
     </row>
     <row r="73" spans="2:17" ht="20">
-      <c r="B73" s="165"/>
-      <c r="C73" s="169"/>
-      <c r="D73" s="165"/>
-      <c r="E73" s="165"/>
-      <c r="F73" s="165"/>
-      <c r="G73" s="165"/>
-      <c r="H73" s="165"/>
-      <c r="I73" s="165"/>
-      <c r="J73" s="165"/>
-      <c r="K73" s="170"/>
-      <c r="L73" s="172"/>
-      <c r="M73" s="171"/>
-      <c r="N73" s="163"/>
+      <c r="B73" s="164"/>
+      <c r="C73" s="168"/>
+      <c r="D73" s="164"/>
+      <c r="E73" s="164"/>
+      <c r="F73" s="164"/>
+      <c r="G73" s="164"/>
+      <c r="H73" s="164"/>
+      <c r="I73" s="164"/>
+      <c r="J73" s="164"/>
+      <c r="K73" s="169"/>
+      <c r="L73" s="171"/>
+      <c r="M73" s="170"/>
+      <c r="N73" s="162"/>
       <c r="O73" s="148"/>
       <c r="P73" s="149"/>
       <c r="Q73" s="150"/>
     </row>
     <row r="74" spans="2:17" ht="20">
-      <c r="B74" s="165"/>
-      <c r="C74" s="169"/>
-      <c r="D74" s="165"/>
-      <c r="E74" s="165"/>
-      <c r="F74" s="165"/>
-      <c r="G74" s="165"/>
-      <c r="H74" s="165"/>
-      <c r="I74" s="165"/>
-      <c r="J74" s="165"/>
-      <c r="K74" s="170"/>
-      <c r="L74" s="172"/>
-      <c r="M74" s="171"/>
-      <c r="N74" s="163"/>
+      <c r="B74" s="164"/>
+      <c r="C74" s="168"/>
+      <c r="D74" s="164"/>
+      <c r="E74" s="164"/>
+      <c r="F74" s="164"/>
+      <c r="G74" s="164"/>
+      <c r="H74" s="164"/>
+      <c r="I74" s="164"/>
+      <c r="J74" s="164"/>
+      <c r="K74" s="169"/>
+      <c r="L74" s="171"/>
+      <c r="M74" s="170"/>
+      <c r="N74" s="162"/>
       <c r="O74" s="148"/>
       <c r="P74" s="149"/>
       <c r="Q74" s="150"/>
     </row>
     <row r="75" spans="2:17" ht="20">
-      <c r="B75" s="165"/>
-      <c r="C75" s="169"/>
-      <c r="D75" s="165"/>
-      <c r="E75" s="165"/>
-      <c r="F75" s="165"/>
-      <c r="G75" s="165"/>
-      <c r="H75" s="165"/>
-      <c r="I75" s="165"/>
-      <c r="J75" s="165"/>
-      <c r="K75" s="170"/>
-      <c r="L75" s="172"/>
-      <c r="M75" s="171"/>
-      <c r="N75" s="163"/>
+      <c r="B75" s="164"/>
+      <c r="C75" s="168"/>
+      <c r="D75" s="164"/>
+      <c r="E75" s="164"/>
+      <c r="F75" s="164"/>
+      <c r="G75" s="164"/>
+      <c r="H75" s="164"/>
+      <c r="I75" s="164"/>
+      <c r="J75" s="164"/>
+      <c r="K75" s="169"/>
+      <c r="L75" s="171"/>
+      <c r="M75" s="170"/>
+      <c r="N75" s="162"/>
       <c r="O75" s="148"/>
       <c r="P75" s="149"/>
       <c r="Q75" s="150"/>
     </row>
     <row r="76" spans="2:17" ht="20">
-      <c r="B76" s="165"/>
-      <c r="C76" s="169"/>
-      <c r="D76" s="165"/>
-      <c r="E76" s="165"/>
-      <c r="F76" s="165"/>
-      <c r="G76" s="165"/>
-      <c r="H76" s="165"/>
-      <c r="I76" s="165"/>
-      <c r="J76" s="165"/>
-      <c r="K76" s="170"/>
-      <c r="L76" s="172"/>
-      <c r="M76" s="171"/>
-      <c r="N76" s="163"/>
+      <c r="B76" s="164"/>
+      <c r="C76" s="168"/>
+      <c r="D76" s="164"/>
+      <c r="E76" s="164"/>
+      <c r="F76" s="164"/>
+      <c r="G76" s="164"/>
+      <c r="H76" s="164"/>
+      <c r="I76" s="164"/>
+      <c r="J76" s="164"/>
+      <c r="K76" s="169"/>
+      <c r="L76" s="171"/>
+      <c r="M76" s="170"/>
+      <c r="N76" s="162"/>
       <c r="O76" s="148"/>
       <c r="P76" s="149"/>
       <c r="Q76" s="150"/>
     </row>
     <row r="77" spans="2:17" ht="20">
-      <c r="B77" s="165"/>
-      <c r="C77" s="169"/>
-      <c r="D77" s="165"/>
-      <c r="E77" s="165"/>
-      <c r="F77" s="165"/>
-      <c r="G77" s="165"/>
-      <c r="H77" s="165"/>
-      <c r="I77" s="165"/>
-      <c r="J77" s="165"/>
-      <c r="K77" s="170"/>
-      <c r="L77" s="172"/>
-      <c r="M77" s="171"/>
-      <c r="N77" s="163"/>
+      <c r="B77" s="164"/>
+      <c r="C77" s="168"/>
+      <c r="D77" s="164"/>
+      <c r="E77" s="164"/>
+      <c r="F77" s="164"/>
+      <c r="G77" s="164"/>
+      <c r="H77" s="164"/>
+      <c r="I77" s="164"/>
+      <c r="J77" s="164"/>
+      <c r="K77" s="169"/>
+      <c r="L77" s="171"/>
+      <c r="M77" s="170"/>
+      <c r="N77" s="162"/>
       <c r="O77" s="148"/>
       <c r="P77" s="149"/>
       <c r="Q77" s="150"/>
     </row>
     <row r="78" spans="2:17" ht="20">
-      <c r="B78" s="165"/>
-      <c r="C78" s="169"/>
-      <c r="D78" s="165"/>
-      <c r="E78" s="165"/>
-      <c r="F78" s="165"/>
-      <c r="G78" s="165"/>
-      <c r="H78" s="165"/>
-      <c r="I78" s="165"/>
-      <c r="J78" s="165"/>
-      <c r="K78" s="170"/>
-      <c r="L78" s="172"/>
-      <c r="M78" s="171"/>
-      <c r="N78" s="163"/>
+      <c r="B78" s="164"/>
+      <c r="C78" s="168"/>
+      <c r="D78" s="164"/>
+      <c r="E78" s="164"/>
+      <c r="F78" s="164"/>
+      <c r="G78" s="164"/>
+      <c r="H78" s="164"/>
+      <c r="I78" s="164"/>
+      <c r="J78" s="164"/>
+      <c r="K78" s="169"/>
+      <c r="L78" s="171"/>
+      <c r="M78" s="170"/>
+      <c r="N78" s="162"/>
       <c r="O78" s="148"/>
       <c r="P78" s="149"/>
       <c r="Q78" s="150"/>
     </row>
     <row r="79" spans="2:17" ht="20">
-      <c r="B79" s="165"/>
-      <c r="C79" s="169"/>
-      <c r="D79" s="165"/>
-      <c r="E79" s="165"/>
-      <c r="F79" s="165"/>
-      <c r="G79" s="165"/>
-      <c r="H79" s="165"/>
-      <c r="I79" s="165"/>
-      <c r="J79" s="165"/>
-      <c r="K79" s="170"/>
-      <c r="L79" s="172"/>
-      <c r="M79" s="171"/>
-      <c r="N79" s="163"/>
+      <c r="B79" s="164"/>
+      <c r="C79" s="168"/>
+      <c r="D79" s="164"/>
+      <c r="E79" s="164"/>
+      <c r="F79" s="164"/>
+      <c r="G79" s="164"/>
+      <c r="H79" s="164"/>
+      <c r="I79" s="164"/>
+      <c r="J79" s="164"/>
+      <c r="K79" s="169"/>
+      <c r="L79" s="171"/>
+      <c r="M79" s="170"/>
+      <c r="N79" s="162"/>
       <c r="O79" s="148"/>
       <c r="P79" s="149"/>
       <c r="Q79" s="150"/>
     </row>
     <row r="80" spans="2:17" ht="20">
-      <c r="B80" s="165"/>
-      <c r="C80" s="169"/>
-      <c r="D80" s="165"/>
-      <c r="E80" s="165"/>
-      <c r="F80" s="165"/>
-      <c r="G80" s="165"/>
-      <c r="H80" s="165"/>
-      <c r="I80" s="165"/>
-      <c r="J80" s="165"/>
-      <c r="K80" s="170"/>
-      <c r="L80" s="172"/>
-      <c r="M80" s="171"/>
-      <c r="N80" s="163"/>
+      <c r="B80" s="164"/>
+      <c r="C80" s="168"/>
+      <c r="D80" s="164"/>
+      <c r="E80" s="164"/>
+      <c r="F80" s="164"/>
+      <c r="G80" s="164"/>
+      <c r="H80" s="164"/>
+      <c r="I80" s="164"/>
+      <c r="J80" s="164"/>
+      <c r="K80" s="169"/>
+      <c r="L80" s="171"/>
+      <c r="M80" s="170"/>
+      <c r="N80" s="162"/>
       <c r="O80" s="148"/>
       <c r="P80" s="149"/>
       <c r="Q80" s="150"/>
     </row>
     <row r="81" spans="2:17" ht="20">
-      <c r="B81" s="165"/>
-      <c r="C81" s="169"/>
-      <c r="D81" s="165"/>
-      <c r="E81" s="165"/>
-      <c r="F81" s="165"/>
-      <c r="G81" s="165"/>
-      <c r="H81" s="165"/>
-      <c r="I81" s="165"/>
-      <c r="J81" s="165"/>
-      <c r="K81" s="170"/>
-      <c r="L81" s="172"/>
-      <c r="M81" s="171"/>
-      <c r="N81" s="163"/>
+      <c r="B81" s="164"/>
+      <c r="C81" s="168"/>
+      <c r="D81" s="164"/>
+      <c r="E81" s="164"/>
+      <c r="F81" s="164"/>
+      <c r="G81" s="164"/>
+      <c r="H81" s="164"/>
+      <c r="I81" s="164"/>
+      <c r="J81" s="164"/>
+      <c r="K81" s="169"/>
+      <c r="L81" s="171"/>
+      <c r="M81" s="170"/>
+      <c r="N81" s="162"/>
       <c r="O81" s="148"/>
       <c r="P81" s="149"/>
       <c r="Q81" s="150"/>
     </row>
     <row r="82" spans="2:17" ht="20">
-      <c r="B82" s="165"/>
-      <c r="C82" s="169"/>
-      <c r="D82" s="165"/>
-      <c r="E82" s="165"/>
-      <c r="F82" s="165"/>
-      <c r="G82" s="165"/>
-      <c r="H82" s="165"/>
-      <c r="I82" s="165"/>
-      <c r="J82" s="165"/>
-      <c r="K82" s="170"/>
-      <c r="L82" s="172"/>
-      <c r="M82" s="171"/>
-      <c r="N82" s="163"/>
+      <c r="B82" s="164"/>
+      <c r="C82" s="168"/>
+      <c r="D82" s="164"/>
+      <c r="E82" s="164"/>
+      <c r="F82" s="164"/>
+      <c r="G82" s="164"/>
+      <c r="H82" s="164"/>
+      <c r="I82" s="164"/>
+      <c r="J82" s="164"/>
+      <c r="K82" s="169"/>
+      <c r="L82" s="171"/>
+      <c r="M82" s="170"/>
+      <c r="N82" s="162"/>
       <c r="O82" s="148"/>
       <c r="P82" s="149"/>
       <c r="Q82" s="150"/>
     </row>
     <row r="83" spans="2:17" ht="20">
-      <c r="B83" s="165"/>
-      <c r="C83" s="169"/>
-      <c r="D83" s="165"/>
-      <c r="E83" s="165"/>
-      <c r="F83" s="165"/>
-      <c r="G83" s="165"/>
-      <c r="H83" s="165"/>
-      <c r="I83" s="165"/>
-      <c r="J83" s="165"/>
-      <c r="K83" s="170"/>
-      <c r="L83" s="172"/>
-      <c r="M83" s="171"/>
-      <c r="N83" s="163"/>
+      <c r="B83" s="164"/>
+      <c r="C83" s="168"/>
+      <c r="D83" s="164"/>
+      <c r="E83" s="164"/>
+      <c r="F83" s="164"/>
+      <c r="G83" s="164"/>
+      <c r="H83" s="164"/>
+      <c r="I83" s="164"/>
+      <c r="J83" s="164"/>
+      <c r="K83" s="169"/>
+      <c r="L83" s="171"/>
+      <c r="M83" s="170"/>
+      <c r="N83" s="162"/>
       <c r="O83" s="148"/>
       <c r="P83" s="149"/>
       <c r="Q83" s="150"/>
     </row>
     <row r="84" spans="2:17" ht="20">
-      <c r="B84" s="165"/>
-      <c r="C84" s="169"/>
-      <c r="D84" s="165"/>
-      <c r="E84" s="165"/>
-      <c r="F84" s="165"/>
-      <c r="G84" s="165"/>
-      <c r="H84" s="165"/>
-      <c r="I84" s="165"/>
-      <c r="J84" s="165"/>
-      <c r="K84" s="170"/>
-      <c r="L84" s="172"/>
-      <c r="M84" s="171"/>
-      <c r="N84" s="163"/>
+      <c r="B84" s="164"/>
+      <c r="C84" s="168"/>
+      <c r="D84" s="164"/>
+      <c r="E84" s="164"/>
+      <c r="F84" s="164"/>
+      <c r="G84" s="164"/>
+      <c r="H84" s="164"/>
+      <c r="I84" s="164"/>
+      <c r="J84" s="164"/>
+      <c r="K84" s="169"/>
+      <c r="L84" s="171"/>
+      <c r="M84" s="170"/>
+      <c r="N84" s="162"/>
       <c r="O84" s="148"/>
       <c r="P84" s="149"/>
       <c r="Q84" s="150"/>
     </row>
     <row r="85" spans="2:17" ht="20">
-      <c r="B85" s="165"/>
-      <c r="C85" s="169"/>
-      <c r="D85" s="165"/>
-      <c r="E85" s="165"/>
-      <c r="F85" s="165"/>
-      <c r="G85" s="165"/>
-      <c r="H85" s="165"/>
-      <c r="I85" s="165"/>
-      <c r="J85" s="165"/>
-      <c r="K85" s="170"/>
-      <c r="L85" s="172"/>
-      <c r="M85" s="171"/>
-      <c r="N85" s="163"/>
+      <c r="B85" s="164"/>
+      <c r="C85" s="168"/>
+      <c r="D85" s="164"/>
+      <c r="E85" s="164"/>
+      <c r="F85" s="164"/>
+      <c r="G85" s="164"/>
+      <c r="H85" s="164"/>
+      <c r="I85" s="164"/>
+      <c r="J85" s="164"/>
+      <c r="K85" s="169"/>
+      <c r="L85" s="171"/>
+      <c r="M85" s="170"/>
+      <c r="N85" s="162"/>
       <c r="O85" s="148"/>
       <c r="P85" s="149"/>
       <c r="Q85" s="150"/>
     </row>
     <row r="86" spans="2:17" ht="20">
-      <c r="B86" s="165"/>
-      <c r="C86" s="169"/>
-      <c r="D86" s="165"/>
-      <c r="E86" s="165"/>
-      <c r="F86" s="165"/>
-      <c r="G86" s="165"/>
-      <c r="H86" s="165"/>
-      <c r="I86" s="165"/>
-      <c r="J86" s="165"/>
-      <c r="K86" s="170"/>
-      <c r="L86" s="172"/>
-      <c r="M86" s="171"/>
-      <c r="N86" s="163"/>
+      <c r="B86" s="164"/>
+      <c r="C86" s="168"/>
+      <c r="D86" s="164"/>
+      <c r="E86" s="164"/>
+      <c r="F86" s="164"/>
+      <c r="G86" s="164"/>
+      <c r="H86" s="164"/>
+      <c r="I86" s="164"/>
+      <c r="J86" s="164"/>
+      <c r="K86" s="169"/>
+      <c r="L86" s="171"/>
+      <c r="M86" s="170"/>
+      <c r="N86" s="162"/>
       <c r="O86" s="148"/>
       <c r="P86" s="149"/>
       <c r="Q86" s="150"/>
     </row>
     <row r="87" spans="2:17" ht="20">
-      <c r="B87" s="165"/>
-      <c r="C87" s="169"/>
-      <c r="D87" s="165"/>
-      <c r="E87" s="165"/>
-      <c r="F87" s="165"/>
-      <c r="G87" s="165"/>
-      <c r="H87" s="165"/>
-      <c r="I87" s="165"/>
-      <c r="J87" s="165"/>
-      <c r="K87" s="170"/>
-      <c r="L87" s="172"/>
-      <c r="M87" s="171"/>
-      <c r="N87" s="163"/>
+      <c r="B87" s="164"/>
+      <c r="C87" s="168"/>
+      <c r="D87" s="164"/>
+      <c r="E87" s="164"/>
+      <c r="F87" s="164"/>
+      <c r="G87" s="164"/>
+      <c r="H87" s="164"/>
+      <c r="I87" s="164"/>
+      <c r="J87" s="164"/>
+      <c r="K87" s="169"/>
+      <c r="L87" s="171"/>
+      <c r="M87" s="170"/>
+      <c r="N87" s="162"/>
       <c r="O87" s="148"/>
       <c r="P87" s="149"/>
       <c r="Q87" s="150"/>
     </row>
     <row r="88" spans="2:17" ht="20">
-      <c r="B88" s="165"/>
-      <c r="C88" s="169"/>
-      <c r="D88" s="165"/>
-      <c r="E88" s="165"/>
-      <c r="F88" s="165"/>
-      <c r="G88" s="165"/>
-      <c r="H88" s="165"/>
-      <c r="I88" s="165"/>
-      <c r="J88" s="165"/>
-      <c r="K88" s="170"/>
-      <c r="L88" s="172"/>
-      <c r="M88" s="171"/>
-      <c r="N88" s="163"/>
+      <c r="B88" s="164"/>
+      <c r="C88" s="168"/>
+      <c r="D88" s="164"/>
+      <c r="E88" s="164"/>
+      <c r="F88" s="164"/>
+      <c r="G88" s="164"/>
+      <c r="H88" s="164"/>
+      <c r="I88" s="164"/>
+      <c r="J88" s="164"/>
+      <c r="K88" s="169"/>
+      <c r="L88" s="171"/>
+      <c r="M88" s="170"/>
+      <c r="N88" s="162"/>
       <c r="O88" s="148"/>
       <c r="P88" s="149"/>
       <c r="Q88" s="150"/>
     </row>
     <row r="89" spans="2:17" ht="20">
-      <c r="B89" s="165"/>
-      <c r="C89" s="169"/>
-      <c r="D89" s="165"/>
-      <c r="E89" s="165"/>
-      <c r="F89" s="165"/>
-      <c r="G89" s="165"/>
-      <c r="H89" s="165"/>
-      <c r="I89" s="165"/>
-      <c r="J89" s="165"/>
-      <c r="K89" s="170"/>
-      <c r="L89" s="172"/>
-      <c r="M89" s="171"/>
-      <c r="N89" s="163"/>
+      <c r="B89" s="164"/>
+      <c r="C89" s="168"/>
+      <c r="D89" s="164"/>
+      <c r="E89" s="164"/>
+      <c r="F89" s="164"/>
+      <c r="G89" s="164"/>
+      <c r="H89" s="164"/>
+      <c r="I89" s="164"/>
+      <c r="J89" s="164"/>
+      <c r="K89" s="169"/>
+      <c r="L89" s="171"/>
+      <c r="M89" s="170"/>
+      <c r="N89" s="162"/>
       <c r="O89" s="148"/>
       <c r="P89" s="149"/>
       <c r="Q89" s="150"/>
     </row>
     <row r="90" spans="2:17" ht="20">
-      <c r="B90" s="165"/>
-      <c r="C90" s="165"/>
-      <c r="D90" s="165"/>
-      <c r="E90" s="165"/>
-      <c r="F90" s="165"/>
-      <c r="G90" s="165"/>
-      <c r="H90" s="165"/>
-      <c r="I90" s="165"/>
-      <c r="J90" s="165"/>
-      <c r="K90" s="170"/>
-      <c r="L90" s="172"/>
-      <c r="M90" s="171"/>
-      <c r="N90" s="163"/>
+      <c r="B90" s="164"/>
+      <c r="C90" s="164"/>
+      <c r="D90" s="164"/>
+      <c r="E90" s="164"/>
+      <c r="F90" s="164"/>
+      <c r="G90" s="164"/>
+      <c r="H90" s="164"/>
+      <c r="I90" s="164"/>
+      <c r="J90" s="164"/>
+      <c r="K90" s="169"/>
+      <c r="L90" s="171"/>
+      <c r="M90" s="170"/>
+      <c r="N90" s="162"/>
       <c r="O90" s="148"/>
       <c r="P90" s="149"/>
       <c r="Q90" s="150"/>
     </row>
     <row r="91" spans="2:17" ht="20">
-      <c r="B91" s="165"/>
-      <c r="C91" s="169"/>
-      <c r="D91" s="165"/>
-      <c r="E91" s="165"/>
-      <c r="F91" s="165"/>
-      <c r="G91" s="165"/>
-      <c r="H91" s="165"/>
-      <c r="I91" s="165"/>
-      <c r="J91" s="165"/>
-      <c r="K91" s="170"/>
-      <c r="L91" s="172"/>
-      <c r="M91" s="171"/>
-      <c r="N91" s="163"/>
+      <c r="B91" s="164"/>
+      <c r="C91" s="168"/>
+      <c r="D91" s="164"/>
+      <c r="E91" s="164"/>
+      <c r="F91" s="164"/>
+      <c r="G91" s="164"/>
+      <c r="H91" s="164"/>
+      <c r="I91" s="164"/>
+      <c r="J91" s="164"/>
+      <c r="K91" s="169"/>
+      <c r="L91" s="171"/>
+      <c r="M91" s="170"/>
+      <c r="N91" s="162"/>
       <c r="O91" s="148"/>
       <c r="P91" s="149"/>
       <c r="Q91" s="150"/>
     </row>
     <row r="92" spans="2:17" ht="20">
-      <c r="B92" s="165"/>
-      <c r="C92" s="169"/>
-      <c r="D92" s="165"/>
-      <c r="E92" s="165"/>
-      <c r="F92" s="165"/>
-      <c r="G92" s="165"/>
-      <c r="H92" s="165"/>
-      <c r="I92" s="165"/>
-      <c r="J92" s="165"/>
-      <c r="K92" s="170"/>
-      <c r="L92" s="172"/>
-      <c r="M92" s="171"/>
-      <c r="N92" s="163"/>
+      <c r="B92" s="164"/>
+      <c r="C92" s="168"/>
+      <c r="D92" s="164"/>
+      <c r="E92" s="164"/>
+      <c r="F92" s="164"/>
+      <c r="G92" s="164"/>
+      <c r="H92" s="164"/>
+      <c r="I92" s="164"/>
+      <c r="J92" s="164"/>
+      <c r="K92" s="169"/>
+      <c r="L92" s="171"/>
+      <c r="M92" s="170"/>
+      <c r="N92" s="162"/>
       <c r="O92" s="148"/>
       <c r="P92" s="149"/>
       <c r="Q92" s="150"/>
     </row>
     <row r="93" spans="2:17" ht="20">
-      <c r="B93" s="165"/>
-      <c r="C93" s="165"/>
-      <c r="D93" s="165"/>
-      <c r="E93" s="165"/>
-      <c r="F93" s="165"/>
-      <c r="G93" s="165"/>
-      <c r="H93" s="165"/>
-      <c r="I93" s="165"/>
-      <c r="J93" s="165"/>
-      <c r="K93" s="170"/>
-      <c r="L93" s="172"/>
-      <c r="M93" s="171"/>
-      <c r="N93" s="163"/>
+      <c r="B93" s="164"/>
+      <c r="C93" s="164"/>
+      <c r="D93" s="164"/>
+      <c r="E93" s="164"/>
+      <c r="F93" s="164"/>
+      <c r="G93" s="164"/>
+      <c r="H93" s="164"/>
+      <c r="I93" s="164"/>
+      <c r="J93" s="164"/>
+      <c r="K93" s="169"/>
+      <c r="L93" s="171"/>
+      <c r="M93" s="170"/>
+      <c r="N93" s="162"/>
       <c r="O93" s="148"/>
       <c r="P93" s="149"/>
       <c r="Q93" s="150"/>
     </row>
     <row r="94" spans="2:17" ht="20">
-      <c r="B94" s="165"/>
-      <c r="C94" s="169"/>
-      <c r="D94" s="165"/>
-      <c r="E94" s="165"/>
-      <c r="F94" s="165"/>
-      <c r="G94" s="165"/>
-      <c r="H94" s="165"/>
-      <c r="I94" s="165"/>
-      <c r="J94" s="165"/>
-      <c r="K94" s="170"/>
-      <c r="L94" s="172"/>
-      <c r="M94" s="171"/>
-      <c r="N94" s="163"/>
+      <c r="B94" s="164"/>
+      <c r="C94" s="168"/>
+      <c r="D94" s="164"/>
+      <c r="E94" s="164"/>
+      <c r="F94" s="164"/>
+      <c r="G94" s="164"/>
+      <c r="H94" s="164"/>
+      <c r="I94" s="164"/>
+      <c r="J94" s="164"/>
+      <c r="K94" s="169"/>
+      <c r="L94" s="171"/>
+      <c r="M94" s="170"/>
+      <c r="N94" s="162"/>
       <c r="O94" s="148"/>
       <c r="P94" s="149"/>
       <c r="Q94" s="150"/>
     </row>
     <row r="95" spans="2:17" ht="20">
-      <c r="B95" s="165"/>
-      <c r="C95" s="169"/>
-      <c r="D95" s="165"/>
-      <c r="E95" s="165"/>
-      <c r="F95" s="165"/>
-      <c r="G95" s="165"/>
-      <c r="H95" s="165"/>
-      <c r="I95" s="165"/>
-      <c r="J95" s="165"/>
-      <c r="K95" s="170"/>
-      <c r="L95" s="172"/>
-      <c r="M95" s="171"/>
-      <c r="N95" s="163"/>
+      <c r="B95" s="164"/>
+      <c r="C95" s="168"/>
+      <c r="D95" s="164"/>
+      <c r="E95" s="164"/>
+      <c r="F95" s="164"/>
+      <c r="G95" s="164"/>
+      <c r="H95" s="164"/>
+      <c r="I95" s="164"/>
+      <c r="J95" s="164"/>
+      <c r="K95" s="169"/>
+      <c r="L95" s="171"/>
+      <c r="M95" s="170"/>
+      <c r="N95" s="162"/>
       <c r="O95" s="148"/>
       <c r="P95" s="149"/>
       <c r="Q95" s="150"/>
     </row>
     <row r="96" spans="2:17" ht="20">
-      <c r="B96" s="165"/>
-      <c r="C96" s="169"/>
-      <c r="D96" s="165"/>
-      <c r="E96" s="165"/>
-      <c r="F96" s="165"/>
-      <c r="G96" s="165"/>
-      <c r="H96" s="165"/>
-      <c r="I96" s="165"/>
-      <c r="J96" s="165"/>
-      <c r="K96" s="170"/>
-      <c r="L96" s="172"/>
-      <c r="M96" s="171"/>
-      <c r="N96" s="163"/>
+      <c r="B96" s="164"/>
+      <c r="C96" s="168"/>
+      <c r="D96" s="164"/>
+      <c r="E96" s="164"/>
+      <c r="F96" s="164"/>
+      <c r="G96" s="164"/>
+      <c r="H96" s="164"/>
+      <c r="I96" s="164"/>
+      <c r="J96" s="164"/>
+      <c r="K96" s="169"/>
+      <c r="L96" s="171"/>
+      <c r="M96" s="170"/>
+      <c r="N96" s="162"/>
       <c r="O96" s="148"/>
       <c r="P96" s="149"/>
       <c r="Q96" s="150"/>
     </row>
     <row r="97" spans="2:17" ht="20.5" thickBot="1">
-      <c r="B97" s="165"/>
-      <c r="C97" s="169"/>
-      <c r="D97" s="165"/>
-      <c r="E97" s="165"/>
-      <c r="F97" s="165"/>
-      <c r="G97" s="165"/>
-      <c r="H97" s="165"/>
-      <c r="I97" s="165"/>
-      <c r="J97" s="165"/>
-      <c r="K97" s="170"/>
-      <c r="L97" s="172"/>
-      <c r="M97" s="171"/>
-      <c r="N97" s="174"/>
-      <c r="O97" s="175"/>
+      <c r="B97" s="164"/>
+      <c r="C97" s="168"/>
+      <c r="D97" s="164"/>
+      <c r="E97" s="164"/>
+      <c r="F97" s="164"/>
+      <c r="G97" s="164"/>
+      <c r="H97" s="164"/>
+      <c r="I97" s="164"/>
+      <c r="J97" s="164"/>
+      <c r="K97" s="169"/>
+      <c r="L97" s="171"/>
+      <c r="M97" s="170"/>
+      <c r="N97" s="173"/>
+      <c r="O97" s="174"/>
       <c r="P97" s="145"/>
       <c r="Q97" s="146"/>
     </row>
     <row r="99" spans="2:17" ht="22.5">
-      <c r="B99" s="176"/>
-      <c r="C99" s="176"/>
-      <c r="J99" s="177"/>
-      <c r="O99" s="178" t="s">
+      <c r="B99" s="175"/>
+      <c r="C99" s="175"/>
+      <c r="J99" s="176"/>
+      <c r="O99" s="177" t="s">
         <v>221</v>
       </c>
       <c r="P99" s="136">
@@ -17346,7 +17455,7 @@
       </c>
     </row>
     <row r="100" spans="2:17">
-      <c r="O100" s="179" t="s">
+      <c r="O100" s="178" t="s">
         <v>18</v>
       </c>
       <c r="P100" s="136">
@@ -17355,7 +17464,7 @@
       </c>
     </row>
     <row r="101" spans="2:17">
-      <c r="O101" s="180" t="s">
+      <c r="O101" s="179" t="s">
         <v>68</v>
       </c>
       <c r="P101" s="136">
@@ -17364,11 +17473,11 @@
       </c>
     </row>
     <row r="102" spans="2:17">
-      <c r="L102" s="181"/>
-      <c r="O102" s="179" t="s">
+      <c r="L102" s="180"/>
+      <c r="O102" s="178" t="s">
         <v>222</v>
       </c>
-      <c r="P102" s="182" t="e">
+      <c r="P102" s="181" t="e">
         <f>P101/P99</f>
         <v>#DIV/0!</v>
       </c>
@@ -17397,7 +17506,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1"/>
@@ -17406,15 +17515,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="216" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="B3" s="218">
+      <c r="B3" s="217">
         <v>44098</v>
       </c>
-      <c r="D3" s="216" t="s">
+      <c r="D3" s="215" t="s">
         <v>458</v>
       </c>
     </row>
@@ -17422,7 +17531,7 @@
       <c r="E4" t="s">
         <v>457</v>
       </c>
-      <c r="F4" s="215" t="s">
+      <c r="F4" s="214" t="s">
         <v>460</v>
       </c>
     </row>
@@ -17443,10 +17552,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1">
-      <c r="B8" s="218">
+      <c r="B8" s="217">
         <v>44099</v>
       </c>
-      <c r="D8" s="216" t="s">
+      <c r="D8" s="215" t="s">
         <v>458</v>
       </c>
     </row>
@@ -17454,7 +17563,7 @@
       <c r="D9" t="s">
         <v>457</v>
       </c>
-      <c r="E9" s="215" t="s">
+      <c r="E9" s="214" t="s">
         <v>459</v>
       </c>
     </row>
@@ -17470,7 +17579,7 @@
       <c r="D11" t="s">
         <v>457</v>
       </c>
-      <c r="E11" s="215" t="s">
+      <c r="E11" s="214" t="s">
         <v>464</v>
       </c>
     </row>
@@ -17962,22 +18071,22 @@
   <sheetData>
     <row r="2" spans="2:11" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="3" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="195"/>
-      <c r="C3" s="196"/>
-      <c r="D3" s="201" t="s">
+      <c r="B3" s="194"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="200" t="s">
         <v>311</v>
       </c>
-      <c r="E3" s="202"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
-      <c r="K3" s="203"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="201"/>
+      <c r="G3" s="201"/>
+      <c r="H3" s="201"/>
+      <c r="I3" s="201"/>
+      <c r="J3" s="201"/>
+      <c r="K3" s="202"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B4" s="197"/>
-      <c r="C4" s="198"/>
+      <c r="B4" s="196"/>
+      <c r="C4" s="197"/>
       <c r="D4" s="110" t="s">
         <v>312</v>
       </c>
@@ -18004,7 +18113,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B5" s="199" t="s">
+      <c r="B5" s="198" t="s">
         <v>310</v>
       </c>
       <c r="C5" s="43">
@@ -18032,7 +18141,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B6" s="199"/>
+      <c r="B6" s="198"/>
       <c r="C6" s="18">
         <v>1</v>
       </c>
@@ -18046,7 +18155,7 @@
       <c r="K6" s="109"/>
     </row>
     <row r="7" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B7" s="199"/>
+      <c r="B7" s="198"/>
       <c r="C7" s="18">
         <v>2</v>
       </c>
@@ -18060,7 +18169,7 @@
       <c r="K7" s="109"/>
     </row>
     <row r="8" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B8" s="199"/>
+      <c r="B8" s="198"/>
       <c r="C8" s="18">
         <v>3</v>
       </c>
@@ -18074,7 +18183,7 @@
       <c r="K8" s="109"/>
     </row>
     <row r="9" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B9" s="199"/>
+      <c r="B9" s="198"/>
       <c r="C9" s="18">
         <v>4</v>
       </c>
@@ -18088,7 +18197,7 @@
       <c r="K9" s="109"/>
     </row>
     <row r="10" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B10" s="199"/>
+      <c r="B10" s="198"/>
       <c r="C10" s="18">
         <v>5</v>
       </c>
@@ -18102,7 +18211,7 @@
       <c r="K10" s="109"/>
     </row>
     <row r="11" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B11" s="199"/>
+      <c r="B11" s="198"/>
       <c r="C11" s="18">
         <v>6</v>
       </c>
@@ -18116,7 +18225,7 @@
       <c r="K11" s="109"/>
     </row>
     <row r="12" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B12" s="199"/>
+      <c r="B12" s="198"/>
       <c r="C12" s="18">
         <v>7</v>
       </c>
@@ -18130,7 +18239,7 @@
       <c r="K12" s="109"/>
     </row>
     <row r="13" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B13" s="199"/>
+      <c r="B13" s="198"/>
       <c r="C13" s="18">
         <v>8</v>
       </c>
@@ -18144,7 +18253,7 @@
       <c r="K13" s="109"/>
     </row>
     <row r="14" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B14" s="199"/>
+      <c r="B14" s="198"/>
       <c r="C14" s="18">
         <v>9</v>
       </c>
@@ -18158,7 +18267,7 @@
       <c r="K14" s="109"/>
     </row>
     <row r="15" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B15" s="199"/>
+      <c r="B15" s="198"/>
       <c r="C15" s="18">
         <v>10</v>
       </c>
@@ -18172,7 +18281,7 @@
       <c r="K15" s="109"/>
     </row>
     <row r="16" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B16" s="199"/>
+      <c r="B16" s="198"/>
       <c r="C16" s="18">
         <v>11</v>
       </c>
@@ -18186,7 +18295,7 @@
       <c r="K16" s="109"/>
     </row>
     <row r="17" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B17" s="199"/>
+      <c r="B17" s="198"/>
       <c r="C17" s="18">
         <v>12</v>
       </c>
@@ -18200,7 +18309,7 @@
       <c r="K17" s="109"/>
     </row>
     <row r="18" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B18" s="199"/>
+      <c r="B18" s="198"/>
       <c r="C18" s="18">
         <v>13</v>
       </c>
@@ -18214,7 +18323,7 @@
       <c r="K18" s="109"/>
     </row>
     <row r="19" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B19" s="199"/>
+      <c r="B19" s="198"/>
       <c r="C19" s="18">
         <v>14</v>
       </c>
@@ -18228,7 +18337,7 @@
       <c r="K19" s="109"/>
     </row>
     <row r="20" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B20" s="199"/>
+      <c r="B20" s="198"/>
       <c r="C20" s="18">
         <v>15</v>
       </c>
@@ -18242,7 +18351,7 @@
       <c r="K20" s="109"/>
     </row>
     <row r="21" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B21" s="199"/>
+      <c r="B21" s="198"/>
       <c r="C21" s="18">
         <v>16</v>
       </c>
@@ -18256,7 +18365,7 @@
       <c r="K21" s="109"/>
     </row>
     <row r="22" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B22" s="199"/>
+      <c r="B22" s="198"/>
       <c r="C22" s="18">
         <v>17</v>
       </c>
@@ -18270,7 +18379,7 @@
       <c r="K22" s="109"/>
     </row>
     <row r="23" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B23" s="199"/>
+      <c r="B23" s="198"/>
       <c r="C23" s="18">
         <v>18</v>
       </c>
@@ -18284,7 +18393,7 @@
       <c r="K23" s="92"/>
     </row>
     <row r="24" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B24" s="199"/>
+      <c r="B24" s="198"/>
       <c r="C24" s="18">
         <v>19</v>
       </c>
@@ -18298,7 +18407,7 @@
       <c r="K24" s="92"/>
     </row>
     <row r="25" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B25" s="199"/>
+      <c r="B25" s="198"/>
       <c r="C25" s="18">
         <v>20</v>
       </c>
@@ -18312,7 +18421,7 @@
       <c r="K25" s="92"/>
     </row>
     <row r="26" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B26" s="199"/>
+      <c r="B26" s="198"/>
       <c r="C26" s="18">
         <v>21</v>
       </c>
@@ -18326,7 +18435,7 @@
       <c r="K26" s="92"/>
     </row>
     <row r="27" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B27" s="199"/>
+      <c r="B27" s="198"/>
       <c r="C27" s="18">
         <v>22</v>
       </c>
@@ -18340,7 +18449,7 @@
       <c r="K27" s="92"/>
     </row>
     <row r="28" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B28" s="199"/>
+      <c r="B28" s="198"/>
       <c r="C28" s="18">
         <v>23</v>
       </c>
@@ -18354,7 +18463,7 @@
       <c r="K28" s="92"/>
     </row>
     <row r="29" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B29" s="199"/>
+      <c r="B29" s="198"/>
       <c r="C29" s="18">
         <v>24</v>
       </c>
@@ -18368,7 +18477,7 @@
       <c r="K29" s="92"/>
     </row>
     <row r="30" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B30" s="199"/>
+      <c r="B30" s="198"/>
       <c r="C30" s="18">
         <v>25</v>
       </c>
@@ -18382,7 +18491,7 @@
       <c r="K30" s="92"/>
     </row>
     <row r="31" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B31" s="199"/>
+      <c r="B31" s="198"/>
       <c r="C31" s="18">
         <v>26</v>
       </c>
@@ -18396,7 +18505,7 @@
       <c r="K31" s="92"/>
     </row>
     <row r="32" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B32" s="199"/>
+      <c r="B32" s="198"/>
       <c r="C32" s="18">
         <v>27</v>
       </c>
@@ -18410,7 +18519,7 @@
       <c r="K32" s="92"/>
     </row>
     <row r="33" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B33" s="199"/>
+      <c r="B33" s="198"/>
       <c r="C33" s="18">
         <v>28</v>
       </c>
@@ -18424,7 +18533,7 @@
       <c r="K33" s="92"/>
     </row>
     <row r="34" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B34" s="199"/>
+      <c r="B34" s="198"/>
       <c r="C34" s="18">
         <v>29</v>
       </c>
@@ -18438,7 +18547,7 @@
       <c r="K34" s="92"/>
     </row>
     <row r="35" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B35" s="199"/>
+      <c r="B35" s="198"/>
       <c r="C35" s="18">
         <v>30</v>
       </c>
@@ -18452,7 +18561,7 @@
       <c r="K35" s="92"/>
     </row>
     <row r="36" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B36" s="199"/>
+      <c r="B36" s="198"/>
       <c r="C36" s="18">
         <v>31</v>
       </c>
@@ -18466,7 +18575,7 @@
       <c r="K36" s="92"/>
     </row>
     <row r="37" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B37" s="199"/>
+      <c r="B37" s="198"/>
       <c r="C37" s="18">
         <v>32</v>
       </c>
@@ -18480,7 +18589,7 @@
       <c r="K37" s="92"/>
     </row>
     <row r="38" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B38" s="199"/>
+      <c r="B38" s="198"/>
       <c r="C38" s="18">
         <v>33</v>
       </c>
@@ -18494,7 +18603,7 @@
       <c r="K38" s="92"/>
     </row>
     <row r="39" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B39" s="199"/>
+      <c r="B39" s="198"/>
       <c r="C39" s="18">
         <v>34</v>
       </c>
@@ -18508,7 +18617,7 @@
       <c r="K39" s="92"/>
     </row>
     <row r="40" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B40" s="199"/>
+      <c r="B40" s="198"/>
       <c r="C40" s="18">
         <v>35</v>
       </c>
@@ -18522,7 +18631,7 @@
       <c r="K40" s="92"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B41" s="199"/>
+      <c r="B41" s="198"/>
       <c r="C41" s="18">
         <v>36</v>
       </c>
@@ -18536,7 +18645,7 @@
       <c r="K41" s="92"/>
     </row>
     <row r="42" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B42" s="199"/>
+      <c r="B42" s="198"/>
       <c r="C42" s="18">
         <v>37</v>
       </c>
@@ -18550,7 +18659,7 @@
       <c r="K42" s="92"/>
     </row>
     <row r="43" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B43" s="199"/>
+      <c r="B43" s="198"/>
       <c r="C43" s="18">
         <v>38</v>
       </c>
@@ -18564,7 +18673,7 @@
       <c r="K43" s="92"/>
     </row>
     <row r="44" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B44" s="199"/>
+      <c r="B44" s="198"/>
       <c r="C44" s="18">
         <v>39</v>
       </c>
@@ -18578,7 +18687,7 @@
       <c r="K44" s="92"/>
     </row>
     <row r="45" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B45" s="199"/>
+      <c r="B45" s="198"/>
       <c r="C45" s="18">
         <v>40</v>
       </c>
@@ -18592,7 +18701,7 @@
       <c r="K45" s="92"/>
     </row>
     <row r="46" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B46" s="199"/>
+      <c r="B46" s="198"/>
       <c r="C46" s="18">
         <v>41</v>
       </c>
@@ -18606,7 +18715,7 @@
       <c r="K46" s="92"/>
     </row>
     <row r="47" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B47" s="199"/>
+      <c r="B47" s="198"/>
       <c r="C47" s="18">
         <v>42</v>
       </c>
@@ -18620,7 +18729,7 @@
       <c r="K47" s="92"/>
     </row>
     <row r="48" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B48" s="199"/>
+      <c r="B48" s="198"/>
       <c r="C48" s="18">
         <v>43</v>
       </c>
@@ -18634,7 +18743,7 @@
       <c r="K48" s="92"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B49" s="199"/>
+      <c r="B49" s="198"/>
       <c r="C49" s="18">
         <v>44</v>
       </c>
@@ -18648,7 +18757,7 @@
       <c r="K49" s="92"/>
     </row>
     <row r="50" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B50" s="199"/>
+      <c r="B50" s="198"/>
       <c r="C50" s="18">
         <v>45</v>
       </c>
@@ -18662,7 +18771,7 @@
       <c r="K50" s="92"/>
     </row>
     <row r="51" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B51" s="199"/>
+      <c r="B51" s="198"/>
       <c r="C51" s="18">
         <v>46</v>
       </c>
@@ -18676,7 +18785,7 @@
       <c r="K51" s="92"/>
     </row>
     <row r="52" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B52" s="199"/>
+      <c r="B52" s="198"/>
       <c r="C52" s="18">
         <v>47</v>
       </c>
@@ -18690,7 +18799,7 @@
       <c r="K52" s="92"/>
     </row>
     <row r="53" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B53" s="199"/>
+      <c r="B53" s="198"/>
       <c r="C53" s="18">
         <v>48</v>
       </c>
@@ -18704,7 +18813,7 @@
       <c r="K53" s="92"/>
     </row>
     <row r="54" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B54" s="199"/>
+      <c r="B54" s="198"/>
       <c r="C54" s="18">
         <v>49</v>
       </c>
@@ -18718,7 +18827,7 @@
       <c r="K54" s="92"/>
     </row>
     <row r="55" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B55" s="199"/>
+      <c r="B55" s="198"/>
       <c r="C55" s="18">
         <v>50</v>
       </c>
@@ -18732,7 +18841,7 @@
       <c r="K55" s="92"/>
     </row>
     <row r="56" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B56" s="199"/>
+      <c r="B56" s="198"/>
       <c r="C56" s="18">
         <v>51</v>
       </c>
@@ -18746,7 +18855,7 @@
       <c r="K56" s="92"/>
     </row>
     <row r="57" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B57" s="199"/>
+      <c r="B57" s="198"/>
       <c r="C57" s="18">
         <v>52</v>
       </c>
@@ -18760,7 +18869,7 @@
       <c r="K57" s="92"/>
     </row>
     <row r="58" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B58" s="199"/>
+      <c r="B58" s="198"/>
       <c r="C58" s="18">
         <v>53</v>
       </c>
@@ -18774,7 +18883,7 @@
       <c r="K58" s="92"/>
     </row>
     <row r="59" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B59" s="199"/>
+      <c r="B59" s="198"/>
       <c r="C59" s="18">
         <v>54</v>
       </c>
@@ -18788,7 +18897,7 @@
       <c r="K59" s="92"/>
     </row>
     <row r="60" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B60" s="199"/>
+      <c r="B60" s="198"/>
       <c r="C60" s="18">
         <v>55</v>
       </c>
@@ -18802,7 +18911,7 @@
       <c r="K60" s="92"/>
     </row>
     <row r="61" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B61" s="199"/>
+      <c r="B61" s="198"/>
       <c r="C61" s="18">
         <v>56</v>
       </c>
@@ -18816,7 +18925,7 @@
       <c r="K61" s="92"/>
     </row>
     <row r="62" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B62" s="199"/>
+      <c r="B62" s="198"/>
       <c r="C62" s="18">
         <v>57</v>
       </c>
@@ -18830,7 +18939,7 @@
       <c r="K62" s="92"/>
     </row>
     <row r="63" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B63" s="199"/>
+      <c r="B63" s="198"/>
       <c r="C63" s="18">
         <v>58</v>
       </c>
@@ -18844,7 +18953,7 @@
       <c r="K63" s="92"/>
     </row>
     <row r="64" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B64" s="199"/>
+      <c r="B64" s="198"/>
       <c r="C64" s="18">
         <v>59</v>
       </c>
@@ -18858,7 +18967,7 @@
       <c r="K64" s="92"/>
     </row>
     <row r="65" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B65" s="200"/>
+      <c r="B65" s="199"/>
       <c r="C65" s="24">
         <v>60</v>
       </c>
@@ -18898,12 +19007,12 @@
     <row r="2" spans="2:8" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="3" spans="2:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="C3" s="97"/>
-      <c r="D3" s="204" t="s">
+      <c r="D3" s="203" t="s">
         <v>313</v>
       </c>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
+      <c r="E3" s="203"/>
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
       <c r="H3" s="30"/>
     </row>
     <row r="4" spans="2:8" ht="16.5" customHeight="1" thickBot="1">
@@ -18925,7 +19034,7 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B5" s="205" t="s">
+      <c r="B5" s="204" t="s">
         <v>321</v>
       </c>
       <c r="C5" s="103">
@@ -18938,7 +19047,7 @@
       <c r="H5" s="43"/>
     </row>
     <row r="6" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B6" s="206"/>
+      <c r="B6" s="205"/>
       <c r="C6" s="104">
         <v>1</v>
       </c>
@@ -18949,7 +19058,7 @@
       <c r="H6" s="18"/>
     </row>
     <row r="7" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B7" s="206"/>
+      <c r="B7" s="205"/>
       <c r="C7" s="104">
         <v>2</v>
       </c>
@@ -18960,7 +19069,7 @@
       <c r="H7" s="18"/>
     </row>
     <row r="8" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B8" s="206"/>
+      <c r="B8" s="205"/>
       <c r="C8" s="104">
         <v>3</v>
       </c>
@@ -18971,7 +19080,7 @@
       <c r="H8" s="18"/>
     </row>
     <row r="9" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B9" s="206"/>
+      <c r="B9" s="205"/>
       <c r="C9" s="104">
         <v>4</v>
       </c>
@@ -18982,7 +19091,7 @@
       <c r="H9" s="18"/>
     </row>
     <row r="10" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B10" s="206"/>
+      <c r="B10" s="205"/>
       <c r="C10" s="104">
         <v>5</v>
       </c>
@@ -18993,7 +19102,7 @@
       <c r="H10" s="18"/>
     </row>
     <row r="11" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B11" s="206"/>
+      <c r="B11" s="205"/>
       <c r="C11" s="104">
         <v>6</v>
       </c>
@@ -19004,7 +19113,7 @@
       <c r="H11" s="18"/>
     </row>
     <row r="12" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B12" s="206"/>
+      <c r="B12" s="205"/>
       <c r="C12" s="104">
         <v>7</v>
       </c>
@@ -19015,7 +19124,7 @@
       <c r="H12" s="18"/>
     </row>
     <row r="13" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B13" s="206"/>
+      <c r="B13" s="205"/>
       <c r="C13" s="104">
         <v>8</v>
       </c>
@@ -19026,7 +19135,7 @@
       <c r="H13" s="18"/>
     </row>
     <row r="14" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B14" s="206"/>
+      <c r="B14" s="205"/>
       <c r="C14" s="104">
         <v>9</v>
       </c>
@@ -19037,7 +19146,7 @@
       <c r="H14" s="18"/>
     </row>
     <row r="15" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B15" s="206"/>
+      <c r="B15" s="205"/>
       <c r="C15" s="104">
         <v>10</v>
       </c>
@@ -19048,7 +19157,7 @@
       <c r="H15" s="18"/>
     </row>
     <row r="16" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B16" s="206"/>
+      <c r="B16" s="205"/>
       <c r="C16" s="104">
         <v>11</v>
       </c>
@@ -19059,7 +19168,7 @@
       <c r="H16" s="18"/>
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B17" s="206"/>
+      <c r="B17" s="205"/>
       <c r="C17" s="104">
         <v>12</v>
       </c>
@@ -19070,7 +19179,7 @@
       <c r="H17" s="18"/>
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B18" s="206"/>
+      <c r="B18" s="205"/>
       <c r="C18" s="104">
         <v>13</v>
       </c>
@@ -19081,7 +19190,7 @@
       <c r="H18" s="18"/>
     </row>
     <row r="19" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B19" s="206"/>
+      <c r="B19" s="205"/>
       <c r="C19" s="104">
         <v>14</v>
       </c>
@@ -19092,7 +19201,7 @@
       <c r="H19" s="18"/>
     </row>
     <row r="20" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B20" s="206"/>
+      <c r="B20" s="205"/>
       <c r="C20" s="104">
         <v>15</v>
       </c>
@@ -19103,7 +19212,7 @@
       <c r="H20" s="18"/>
     </row>
     <row r="21" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B21" s="206"/>
+      <c r="B21" s="205"/>
       <c r="C21" s="104">
         <v>16</v>
       </c>
@@ -19114,7 +19223,7 @@
       <c r="H21" s="18"/>
     </row>
     <row r="22" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B22" s="206"/>
+      <c r="B22" s="205"/>
       <c r="C22" s="104">
         <v>17</v>
       </c>
@@ -19125,7 +19234,7 @@
       <c r="H22" s="18"/>
     </row>
     <row r="23" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B23" s="206"/>
+      <c r="B23" s="205"/>
       <c r="C23" s="104">
         <v>18</v>
       </c>
@@ -19136,7 +19245,7 @@
       <c r="H23" s="18"/>
     </row>
     <row r="24" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B24" s="206"/>
+      <c r="B24" s="205"/>
       <c r="C24" s="104">
         <v>19</v>
       </c>
@@ -19147,7 +19256,7 @@
       <c r="H24" s="18"/>
     </row>
     <row r="25" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B25" s="206"/>
+      <c r="B25" s="205"/>
       <c r="C25" s="104">
         <v>20</v>
       </c>
@@ -19158,7 +19267,7 @@
       <c r="H25" s="18"/>
     </row>
     <row r="26" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B26" s="206"/>
+      <c r="B26" s="205"/>
       <c r="C26" s="104">
         <v>21</v>
       </c>
@@ -19169,7 +19278,7 @@
       <c r="H26" s="18"/>
     </row>
     <row r="27" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B27" s="206"/>
+      <c r="B27" s="205"/>
       <c r="C27" s="104">
         <v>22</v>
       </c>
@@ -19180,7 +19289,7 @@
       <c r="H27" s="18"/>
     </row>
     <row r="28" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B28" s="206"/>
+      <c r="B28" s="205"/>
       <c r="C28" s="104">
         <v>23</v>
       </c>
@@ -19191,7 +19300,7 @@
       <c r="H28" s="18"/>
     </row>
     <row r="29" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B29" s="206"/>
+      <c r="B29" s="205"/>
       <c r="C29" s="104">
         <v>24</v>
       </c>
@@ -19202,7 +19311,7 @@
       <c r="H29" s="18"/>
     </row>
     <row r="30" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B30" s="206"/>
+      <c r="B30" s="205"/>
       <c r="C30" s="104">
         <v>25</v>
       </c>
@@ -19213,7 +19322,7 @@
       <c r="H30" s="18"/>
     </row>
     <row r="31" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B31" s="206"/>
+      <c r="B31" s="205"/>
       <c r="C31" s="104">
         <v>26</v>
       </c>
@@ -19224,7 +19333,7 @@
       <c r="H31" s="18"/>
     </row>
     <row r="32" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B32" s="206"/>
+      <c r="B32" s="205"/>
       <c r="C32" s="104">
         <v>27</v>
       </c>
@@ -19235,7 +19344,7 @@
       <c r="H32" s="18"/>
     </row>
     <row r="33" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B33" s="206"/>
+      <c r="B33" s="205"/>
       <c r="C33" s="104">
         <v>28</v>
       </c>
@@ -19246,7 +19355,7 @@
       <c r="H33" s="18"/>
     </row>
     <row r="34" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B34" s="206"/>
+      <c r="B34" s="205"/>
       <c r="C34" s="104">
         <v>29</v>
       </c>
@@ -19257,7 +19366,7 @@
       <c r="H34" s="92"/>
     </row>
     <row r="35" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B35" s="206"/>
+      <c r="B35" s="205"/>
       <c r="C35" s="104">
         <v>30</v>
       </c>
@@ -19268,7 +19377,7 @@
       <c r="H35" s="18"/>
     </row>
     <row r="36" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B36" s="206"/>
+      <c r="B36" s="205"/>
       <c r="C36" s="104">
         <v>31</v>
       </c>
@@ -19279,7 +19388,7 @@
       <c r="H36" s="18"/>
     </row>
     <row r="37" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B37" s="206"/>
+      <c r="B37" s="205"/>
       <c r="C37" s="104">
         <v>32</v>
       </c>
@@ -19290,7 +19399,7 @@
       <c r="H37" s="18"/>
     </row>
     <row r="38" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B38" s="206"/>
+      <c r="B38" s="205"/>
       <c r="C38" s="104">
         <v>33</v>
       </c>
@@ -19301,7 +19410,7 @@
       <c r="H38" s="18"/>
     </row>
     <row r="39" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B39" s="206"/>
+      <c r="B39" s="205"/>
       <c r="C39" s="104">
         <v>34</v>
       </c>
@@ -19312,7 +19421,7 @@
       <c r="H39" s="18"/>
     </row>
     <row r="40" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B40" s="206"/>
+      <c r="B40" s="205"/>
       <c r="C40" s="104">
         <v>35</v>
       </c>
@@ -19323,7 +19432,7 @@
       <c r="H40" s="18"/>
     </row>
     <row r="41" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B41" s="206"/>
+      <c r="B41" s="205"/>
       <c r="C41" s="104">
         <v>36</v>
       </c>
@@ -19334,7 +19443,7 @@
       <c r="H41" s="18"/>
     </row>
     <row r="42" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B42" s="206"/>
+      <c r="B42" s="205"/>
       <c r="C42" s="104">
         <v>37</v>
       </c>
@@ -19345,7 +19454,7 @@
       <c r="H42" s="18"/>
     </row>
     <row r="43" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B43" s="206"/>
+      <c r="B43" s="205"/>
       <c r="C43" s="104">
         <v>38</v>
       </c>
@@ -19356,7 +19465,7 @@
       <c r="H43" s="18"/>
     </row>
     <row r="44" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B44" s="206"/>
+      <c r="B44" s="205"/>
       <c r="C44" s="104">
         <v>39</v>
       </c>
@@ -19367,7 +19476,7 @@
       <c r="H44" s="18"/>
     </row>
     <row r="45" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B45" s="206"/>
+      <c r="B45" s="205"/>
       <c r="C45" s="104">
         <v>40</v>
       </c>
@@ -19378,7 +19487,7 @@
       <c r="H45" s="18"/>
     </row>
     <row r="46" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B46" s="206"/>
+      <c r="B46" s="205"/>
       <c r="C46" s="104">
         <v>41</v>
       </c>
@@ -19389,7 +19498,7 @@
       <c r="H46" s="18"/>
     </row>
     <row r="47" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B47" s="206"/>
+      <c r="B47" s="205"/>
       <c r="C47" s="104">
         <v>42</v>
       </c>
@@ -19400,7 +19509,7 @@
       <c r="H47" s="18"/>
     </row>
     <row r="48" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B48" s="206"/>
+      <c r="B48" s="205"/>
       <c r="C48" s="104">
         <v>43</v>
       </c>
@@ -19411,7 +19520,7 @@
       <c r="H48" s="18"/>
     </row>
     <row r="49" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B49" s="206"/>
+      <c r="B49" s="205"/>
       <c r="C49" s="104">
         <v>44</v>
       </c>
@@ -19422,7 +19531,7 @@
       <c r="H49" s="18"/>
     </row>
     <row r="50" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B50" s="206"/>
+      <c r="B50" s="205"/>
       <c r="C50" s="104">
         <v>45</v>
       </c>
@@ -19433,7 +19542,7 @@
       <c r="H50" s="18"/>
     </row>
     <row r="51" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B51" s="206"/>
+      <c r="B51" s="205"/>
       <c r="C51" s="104">
         <v>46</v>
       </c>
@@ -19444,7 +19553,7 @@
       <c r="H51" s="18"/>
     </row>
     <row r="52" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B52" s="206"/>
+      <c r="B52" s="205"/>
       <c r="C52" s="104">
         <v>47</v>
       </c>
@@ -19455,7 +19564,7 @@
       <c r="H52" s="18"/>
     </row>
     <row r="53" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B53" s="206"/>
+      <c r="B53" s="205"/>
       <c r="C53" s="104">
         <v>48</v>
       </c>
@@ -19466,7 +19575,7 @@
       <c r="H53" s="18"/>
     </row>
     <row r="54" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B54" s="206"/>
+      <c r="B54" s="205"/>
       <c r="C54" s="104">
         <v>49</v>
       </c>
@@ -19477,7 +19586,7 @@
       <c r="H54" s="18"/>
     </row>
     <row r="55" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B55" s="206"/>
+      <c r="B55" s="205"/>
       <c r="C55" s="104">
         <v>50</v>
       </c>
@@ -19488,7 +19597,7 @@
       <c r="H55" s="18"/>
     </row>
     <row r="56" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B56" s="206"/>
+      <c r="B56" s="205"/>
       <c r="C56" s="104">
         <v>51</v>
       </c>
@@ -19499,7 +19608,7 @@
       <c r="H56" s="18"/>
     </row>
     <row r="57" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B57" s="206"/>
+      <c r="B57" s="205"/>
       <c r="C57" s="104">
         <v>52</v>
       </c>
@@ -19510,7 +19619,7 @@
       <c r="H57" s="18"/>
     </row>
     <row r="58" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B58" s="206"/>
+      <c r="B58" s="205"/>
       <c r="C58" s="104">
         <v>53</v>
       </c>
@@ -19521,7 +19630,7 @@
       <c r="H58" s="18"/>
     </row>
     <row r="59" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B59" s="206"/>
+      <c r="B59" s="205"/>
       <c r="C59" s="104">
         <v>54</v>
       </c>
@@ -19532,7 +19641,7 @@
       <c r="H59" s="18"/>
     </row>
     <row r="60" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B60" s="206"/>
+      <c r="B60" s="205"/>
       <c r="C60" s="104">
         <v>55</v>
       </c>
@@ -19543,7 +19652,7 @@
       <c r="H60" s="18"/>
     </row>
     <row r="61" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B61" s="206"/>
+      <c r="B61" s="205"/>
       <c r="C61" s="104">
         <v>56</v>
       </c>
@@ -19554,7 +19663,7 @@
       <c r="H61" s="18"/>
     </row>
     <row r="62" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B62" s="206"/>
+      <c r="B62" s="205"/>
       <c r="C62" s="104">
         <v>57</v>
       </c>
@@ -19565,7 +19674,7 @@
       <c r="H62" s="18"/>
     </row>
     <row r="63" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B63" s="206"/>
+      <c r="B63" s="205"/>
       <c r="C63" s="104">
         <v>58</v>
       </c>
@@ -19576,7 +19685,7 @@
       <c r="H63" s="18"/>
     </row>
     <row r="64" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B64" s="206"/>
+      <c r="B64" s="205"/>
       <c r="C64" s="104">
         <v>59</v>
       </c>
@@ -19587,7 +19696,7 @@
       <c r="H64" s="18"/>
     </row>
     <row r="65" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B65" s="206"/>
+      <c r="B65" s="205"/>
       <c r="C65" s="104">
         <v>60</v>
       </c>
@@ -19598,7 +19707,7 @@
       <c r="H65" s="18"/>
     </row>
     <row r="66" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B66" s="206"/>
+      <c r="B66" s="205"/>
       <c r="C66" s="104">
         <v>61</v>
       </c>
@@ -19609,7 +19718,7 @@
       <c r="H66" s="18"/>
     </row>
     <row r="67" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B67" s="206"/>
+      <c r="B67" s="205"/>
       <c r="C67" s="104">
         <v>62</v>
       </c>
@@ -19620,7 +19729,7 @@
       <c r="H67" s="18"/>
     </row>
     <row r="68" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B68" s="206"/>
+      <c r="B68" s="205"/>
       <c r="C68" s="104">
         <v>63</v>
       </c>
@@ -19631,7 +19740,7 @@
       <c r="H68" s="18"/>
     </row>
     <row r="69" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B69" s="206"/>
+      <c r="B69" s="205"/>
       <c r="C69" s="104">
         <v>64</v>
       </c>
@@ -19642,7 +19751,7 @@
       <c r="H69" s="18"/>
     </row>
     <row r="70" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B70" s="206"/>
+      <c r="B70" s="205"/>
       <c r="C70" s="104">
         <v>65</v>
       </c>
@@ -19653,7 +19762,7 @@
       <c r="H70" s="18"/>
     </row>
     <row r="71" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B71" s="206"/>
+      <c r="B71" s="205"/>
       <c r="C71" s="104">
         <v>66</v>
       </c>
@@ -19664,7 +19773,7 @@
       <c r="H71" s="18"/>
     </row>
     <row r="72" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B72" s="206"/>
+      <c r="B72" s="205"/>
       <c r="C72" s="104">
         <v>67</v>
       </c>
@@ -19675,7 +19784,7 @@
       <c r="H72" s="18"/>
     </row>
     <row r="73" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B73" s="206"/>
+      <c r="B73" s="205"/>
       <c r="C73" s="104">
         <v>68</v>
       </c>
@@ -19686,7 +19795,7 @@
       <c r="H73" s="18"/>
     </row>
     <row r="74" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B74" s="206"/>
+      <c r="B74" s="205"/>
       <c r="C74" s="104">
         <v>69</v>
       </c>
@@ -19697,7 +19806,7 @@
       <c r="H74" s="18"/>
     </row>
     <row r="75" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B75" s="206"/>
+      <c r="B75" s="205"/>
       <c r="C75" s="104">
         <v>70</v>
       </c>
@@ -19708,7 +19817,7 @@
       <c r="H75" s="18"/>
     </row>
     <row r="76" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B76" s="206"/>
+      <c r="B76" s="205"/>
       <c r="C76" s="104">
         <v>71</v>
       </c>
@@ -19719,7 +19828,7 @@
       <c r="H76" s="18"/>
     </row>
     <row r="77" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B77" s="206"/>
+      <c r="B77" s="205"/>
       <c r="C77" s="104">
         <v>72</v>
       </c>
@@ -19730,7 +19839,7 @@
       <c r="H77" s="18"/>
     </row>
     <row r="78" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B78" s="206"/>
+      <c r="B78" s="205"/>
       <c r="C78" s="104">
         <v>73</v>
       </c>
@@ -19741,7 +19850,7 @@
       <c r="H78" s="18"/>
     </row>
     <row r="79" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B79" s="206"/>
+      <c r="B79" s="205"/>
       <c r="C79" s="104">
         <v>74</v>
       </c>
@@ -19752,7 +19861,7 @@
       <c r="H79" s="18"/>
     </row>
     <row r="80" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B80" s="206"/>
+      <c r="B80" s="205"/>
       <c r="C80" s="104">
         <v>75</v>
       </c>
@@ -19763,7 +19872,7 @@
       <c r="H80" s="18"/>
     </row>
     <row r="81" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B81" s="206"/>
+      <c r="B81" s="205"/>
       <c r="C81" s="104">
         <v>76</v>
       </c>
@@ -19774,7 +19883,7 @@
       <c r="H81" s="18"/>
     </row>
     <row r="82" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B82" s="206"/>
+      <c r="B82" s="205"/>
       <c r="C82" s="104">
         <v>77</v>
       </c>
@@ -19785,7 +19894,7 @@
       <c r="H82" s="18"/>
     </row>
     <row r="83" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B83" s="206"/>
+      <c r="B83" s="205"/>
       <c r="C83" s="104">
         <v>78</v>
       </c>
@@ -19796,7 +19905,7 @@
       <c r="H83" s="18"/>
     </row>
     <row r="84" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B84" s="206"/>
+      <c r="B84" s="205"/>
       <c r="C84" s="104">
         <v>79</v>
       </c>
@@ -19807,7 +19916,7 @@
       <c r="H84" s="18"/>
     </row>
     <row r="85" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B85" s="206"/>
+      <c r="B85" s="205"/>
       <c r="C85" s="104">
         <v>80</v>
       </c>
@@ -19818,7 +19927,7 @@
       <c r="H85" s="18"/>
     </row>
     <row r="86" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B86" s="206"/>
+      <c r="B86" s="205"/>
       <c r="C86" s="104">
         <v>81</v>
       </c>
@@ -19829,7 +19938,7 @@
       <c r="H86" s="18"/>
     </row>
     <row r="87" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B87" s="206"/>
+      <c r="B87" s="205"/>
       <c r="C87" s="104">
         <v>82</v>
       </c>
@@ -19840,7 +19949,7 @@
       <c r="H87" s="18"/>
     </row>
     <row r="88" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B88" s="206"/>
+      <c r="B88" s="205"/>
       <c r="C88" s="104">
         <v>83</v>
       </c>
@@ -19851,7 +19960,7 @@
       <c r="H88" s="18"/>
     </row>
     <row r="89" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B89" s="206"/>
+      <c r="B89" s="205"/>
       <c r="C89" s="104">
         <v>84</v>
       </c>
@@ -19862,7 +19971,7 @@
       <c r="H89" s="18"/>
     </row>
     <row r="90" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B90" s="206"/>
+      <c r="B90" s="205"/>
       <c r="C90" s="104">
         <v>85</v>
       </c>
@@ -19873,7 +19982,7 @@
       <c r="H90" s="18"/>
     </row>
     <row r="91" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B91" s="206"/>
+      <c r="B91" s="205"/>
       <c r="C91" s="104">
         <v>86</v>
       </c>
@@ -19884,7 +19993,7 @@
       <c r="H91" s="18"/>
     </row>
     <row r="92" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B92" s="206"/>
+      <c r="B92" s="205"/>
       <c r="C92" s="104">
         <v>87</v>
       </c>
@@ -19895,7 +20004,7 @@
       <c r="H92" s="18"/>
     </row>
     <row r="93" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B93" s="206"/>
+      <c r="B93" s="205"/>
       <c r="C93" s="104">
         <v>88</v>
       </c>
@@ -19906,7 +20015,7 @@
       <c r="H93" s="18"/>
     </row>
     <row r="94" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B94" s="206"/>
+      <c r="B94" s="205"/>
       <c r="C94" s="104">
         <v>89</v>
       </c>
@@ -19917,7 +20026,7 @@
       <c r="H94" s="18"/>
     </row>
     <row r="95" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B95" s="206"/>
+      <c r="B95" s="205"/>
       <c r="C95" s="104">
         <v>90</v>
       </c>
@@ -19928,7 +20037,7 @@
       <c r="H95" s="18"/>
     </row>
     <row r="96" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B96" s="206"/>
+      <c r="B96" s="205"/>
       <c r="C96" s="104">
         <v>91</v>
       </c>
@@ -19939,7 +20048,7 @@
       <c r="H96" s="18"/>
     </row>
     <row r="97" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B97" s="206"/>
+      <c r="B97" s="205"/>
       <c r="C97" s="104">
         <v>92</v>
       </c>
@@ -19950,7 +20059,7 @@
       <c r="H97" s="18"/>
     </row>
     <row r="98" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B98" s="206"/>
+      <c r="B98" s="205"/>
       <c r="C98" s="104">
         <v>93</v>
       </c>
@@ -19961,7 +20070,7 @@
       <c r="H98" s="18"/>
     </row>
     <row r="99" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B99" s="206"/>
+      <c r="B99" s="205"/>
       <c r="C99" s="104">
         <v>94</v>
       </c>
@@ -19972,7 +20081,7 @@
       <c r="H99" s="18"/>
     </row>
     <row r="100" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B100" s="206"/>
+      <c r="B100" s="205"/>
       <c r="C100" s="104">
         <v>95</v>
       </c>
@@ -19983,7 +20092,7 @@
       <c r="H100" s="18"/>
     </row>
     <row r="101" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B101" s="206"/>
+      <c r="B101" s="205"/>
       <c r="C101" s="104">
         <v>96</v>
       </c>
@@ -19994,7 +20103,7 @@
       <c r="H101" s="18"/>
     </row>
     <row r="102" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B102" s="206"/>
+      <c r="B102" s="205"/>
       <c r="C102" s="104">
         <v>97</v>
       </c>
@@ -20005,7 +20114,7 @@
       <c r="H102" s="18"/>
     </row>
     <row r="103" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B103" s="206"/>
+      <c r="B103" s="205"/>
       <c r="C103" s="104">
         <v>98</v>
       </c>
@@ -20016,7 +20125,7 @@
       <c r="H103" s="18"/>
     </row>
     <row r="104" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B104" s="206"/>
+      <c r="B104" s="205"/>
       <c r="C104" s="104">
         <v>99</v>
       </c>
@@ -20027,7 +20136,7 @@
       <c r="H104" s="18"/>
     </row>
     <row r="105" spans="2:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B105" s="207"/>
+      <c r="B105" s="206"/>
       <c r="C105" s="105">
         <v>100</v>
       </c>

--- a/資料/設計書/モグラ叩き_テスト仕様書.xlsx
+++ b/資料/設計書/モグラ叩き_テスト仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\comp.train.whack-a-mole\資料\設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\hakoishi\TechTrain\PIC_Train\C\comp.train.whack-a-mole\資料\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38848168-64F8-498B-8E3B-69A1D0468D70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABB3BE6-9A5E-4AD0-9E81-C076635D1B2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="システムテスト" sheetId="4" state="hidden" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="504">
   <si>
     <t>マイコン：pic16f1827</t>
     <phoneticPr fontId="11"/>
@@ -8117,13 +8117,6 @@
     <t>もぐら叩きゲームの仕様書を基に作成</t>
   </si>
   <si>
-    <t>仕様ツール</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>機能テスト</t>
     <rPh sb="0" eb="2">
       <t>キノウ</t>
@@ -8184,13 +8177,6 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>単体テストIDE：Visual Studio 2019</t>
-    <rPh sb="0" eb="2">
-      <t>タンタイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>使用機器</t>
     <rPh sb="0" eb="2">
       <t>シヨウ</t>
@@ -8265,6 +8251,42 @@
     </rPh>
     <rPh sb="31" eb="33">
       <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>　※ROM容量の関係で未実装の機能があり、未実施のテストが4つあるため</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ミジッソウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ミジッシ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>使用ツール</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>単体テストに使用するIDE：Visual Studio 2019</t>
+    <rPh sb="0" eb="2">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="10"/>
   </si>
@@ -9837,44 +9859,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -10228,26 +10250,26 @@
       <selection pane="topRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="3.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="48.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="56.58203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="48.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="56.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="54.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.58203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="49.58203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="49.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="11.25" style="3" customWidth="1"/>
-    <col min="10" max="10" width="33.08203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="33.125" style="2" customWidth="1"/>
     <col min="11" max="11" width="11.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="49.58203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="49.625" style="2" customWidth="1"/>
     <col min="13" max="13" width="11.25" style="3" customWidth="1"/>
-    <col min="14" max="14" width="49.58203125" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="8.58203125" style="2"/>
+    <col min="14" max="14" width="49.625" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="29">
+    <row r="1" spans="1:14" ht="30">
       <c r="A1" s="1" t="s">
         <v>223</v>
       </c>
@@ -10261,8 +10283,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18.5" thickBot="1"/>
-    <row r="3" spans="1:14" ht="18.5" thickBot="1">
+    <row r="2" spans="1:14" ht="19.5" thickBot="1"/>
+    <row r="3" spans="1:14" ht="19.5" thickBot="1">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -10303,7 +10325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="20.5" thickBot="1">
+    <row r="4" spans="1:14" ht="20.25" thickBot="1">
       <c r="B4" s="6">
         <v>1</v>
       </c>
@@ -10340,7 +10362,7 @@
       </c>
       <c r="N4" s="12"/>
     </row>
-    <row r="5" spans="1:14" ht="36.5" thickBot="1">
+    <row r="5" spans="1:14" ht="38.25" thickBot="1">
       <c r="B5" s="6">
         <v>2</v>
       </c>
@@ -10373,7 +10395,7 @@
       </c>
       <c r="N5" s="18"/>
     </row>
-    <row r="6" spans="1:14" ht="54.5" thickBot="1">
+    <row r="6" spans="1:14" ht="57" thickBot="1">
       <c r="B6" s="6">
         <v>3</v>
       </c>
@@ -10406,7 +10428,7 @@
       </c>
       <c r="N6" s="18"/>
     </row>
-    <row r="7" spans="1:14" ht="54.5" thickBot="1">
+    <row r="7" spans="1:14" ht="57" thickBot="1">
       <c r="B7" s="6">
         <v>4</v>
       </c>
@@ -10439,7 +10461,7 @@
       </c>
       <c r="N7" s="18"/>
     </row>
-    <row r="8" spans="1:14" ht="36.5" thickBot="1">
+    <row r="8" spans="1:14" ht="38.25" thickBot="1">
       <c r="B8" s="6">
         <v>5</v>
       </c>
@@ -10472,7 +10494,7 @@
       </c>
       <c r="N8" s="24"/>
     </row>
-    <row r="9" spans="1:14" ht="36.5" thickBot="1">
+    <row r="9" spans="1:14" ht="38.25" thickBot="1">
       <c r="B9" s="6">
         <v>6</v>
       </c>
@@ -10509,7 +10531,7 @@
       </c>
       <c r="N9" s="12"/>
     </row>
-    <row r="10" spans="1:14" ht="36.5" thickBot="1">
+    <row r="10" spans="1:14" ht="38.25" thickBot="1">
       <c r="B10" s="6">
         <v>7</v>
       </c>
@@ -10542,7 +10564,7 @@
       </c>
       <c r="N10" s="18"/>
     </row>
-    <row r="11" spans="1:14" ht="36.5" thickBot="1">
+    <row r="11" spans="1:14" ht="38.25" thickBot="1">
       <c r="B11" s="6">
         <v>8</v>
       </c>
@@ -10575,7 +10597,7 @@
       </c>
       <c r="N11" s="24"/>
     </row>
-    <row r="12" spans="1:14" ht="36.5" thickBot="1">
+    <row r="12" spans="1:14" ht="38.25" thickBot="1">
       <c r="B12" s="6">
         <v>9</v>
       </c>
@@ -10612,7 +10634,7 @@
       </c>
       <c r="N12" s="30"/>
     </row>
-    <row r="13" spans="1:14" ht="54.5" thickBot="1">
+    <row r="13" spans="1:14" ht="57" thickBot="1">
       <c r="B13" s="6">
         <v>10</v>
       </c>
@@ -10649,7 +10671,7 @@
       </c>
       <c r="N13" s="12"/>
     </row>
-    <row r="14" spans="1:14" ht="36.5" thickBot="1">
+    <row r="14" spans="1:14" ht="38.25" thickBot="1">
       <c r="B14" s="6">
         <v>11</v>
       </c>
@@ -10682,7 +10704,7 @@
       </c>
       <c r="N14" s="18"/>
     </row>
-    <row r="15" spans="1:14" ht="36.5" thickBot="1">
+    <row r="15" spans="1:14" ht="38.25" thickBot="1">
       <c r="B15" s="6">
         <v>12</v>
       </c>
@@ -10715,7 +10737,7 @@
       </c>
       <c r="N15" s="24"/>
     </row>
-    <row r="16" spans="1:14" ht="36.5" thickBot="1">
+    <row r="16" spans="1:14" ht="38.25" thickBot="1">
       <c r="B16" s="6">
         <v>13</v>
       </c>
@@ -10752,7 +10774,7 @@
       </c>
       <c r="N16" s="30"/>
     </row>
-    <row r="17" spans="2:14" ht="20.5" thickBot="1">
+    <row r="17" spans="2:14" ht="20.25" thickBot="1">
       <c r="B17" s="6">
         <v>14</v>
       </c>
@@ -10789,7 +10811,7 @@
       </c>
       <c r="N17" s="12"/>
     </row>
-    <row r="18" spans="2:14" ht="36.5" thickBot="1">
+    <row r="18" spans="2:14" ht="38.25" thickBot="1">
       <c r="B18" s="6">
         <v>15</v>
       </c>
@@ -10822,7 +10844,7 @@
       </c>
       <c r="N18" s="18"/>
     </row>
-    <row r="19" spans="2:14" ht="36.5" thickBot="1">
+    <row r="19" spans="2:14" ht="38.25" thickBot="1">
       <c r="B19" s="6">
         <v>16</v>
       </c>
@@ -10855,7 +10877,7 @@
       </c>
       <c r="N19" s="18"/>
     </row>
-    <row r="20" spans="2:14" ht="36.5" thickBot="1">
+    <row r="20" spans="2:14" ht="38.25" thickBot="1">
       <c r="B20" s="6">
         <v>17</v>
       </c>
@@ -10888,7 +10910,7 @@
       </c>
       <c r="N20" s="24"/>
     </row>
-    <row r="21" spans="2:14" ht="36.5" thickBot="1">
+    <row r="21" spans="2:14" ht="38.25" thickBot="1">
       <c r="B21" s="6">
         <v>18</v>
       </c>
@@ -10927,7 +10949,7 @@
       </c>
       <c r="N21" s="9"/>
     </row>
-    <row r="22" spans="2:14" ht="36.5" thickBot="1">
+    <row r="22" spans="2:14" ht="38.25" thickBot="1">
       <c r="B22" s="6">
         <v>19</v>
       </c>
@@ -10962,7 +10984,7 @@
       </c>
       <c r="N22" s="18"/>
     </row>
-    <row r="23" spans="2:14" ht="36.5" thickBot="1">
+    <row r="23" spans="2:14" ht="38.25" thickBot="1">
       <c r="B23" s="6">
         <v>20</v>
       </c>
@@ -10997,7 +11019,7 @@
       </c>
       <c r="N23" s="18"/>
     </row>
-    <row r="24" spans="2:14" ht="36.5" thickBot="1">
+    <row r="24" spans="2:14" ht="38.25" thickBot="1">
       <c r="B24" s="6">
         <v>21</v>
       </c>
@@ -11032,7 +11054,7 @@
       </c>
       <c r="N24" s="24"/>
     </row>
-    <row r="25" spans="2:14" ht="20.5" thickBot="1">
+    <row r="25" spans="2:14" ht="20.25" thickBot="1">
       <c r="B25" s="6">
         <v>22</v>
       </c>
@@ -11069,7 +11091,7 @@
       </c>
       <c r="N25" s="12"/>
     </row>
-    <row r="26" spans="2:14" ht="36.5" thickBot="1">
+    <row r="26" spans="2:14" ht="38.25" thickBot="1">
       <c r="B26" s="6">
         <v>23</v>
       </c>
@@ -11102,7 +11124,7 @@
       </c>
       <c r="N26" s="18"/>
     </row>
-    <row r="27" spans="2:14" ht="72.5" thickBot="1">
+    <row r="27" spans="2:14" ht="75.75" thickBot="1">
       <c r="B27" s="6">
         <v>24</v>
       </c>
@@ -11135,7 +11157,7 @@
       </c>
       <c r="N27" s="18"/>
     </row>
-    <row r="28" spans="2:14" ht="72.5" thickBot="1">
+    <row r="28" spans="2:14" ht="75.75" thickBot="1">
       <c r="B28" s="6">
         <v>25</v>
       </c>
@@ -11168,7 +11190,7 @@
       </c>
       <c r="N28" s="18"/>
     </row>
-    <row r="29" spans="2:14" ht="36.5" thickBot="1">
+    <row r="29" spans="2:14" ht="38.25" thickBot="1">
       <c r="B29" s="6">
         <v>26</v>
       </c>
@@ -11201,7 +11223,7 @@
       </c>
       <c r="N29" s="18"/>
     </row>
-    <row r="30" spans="2:14" ht="36.5" thickBot="1">
+    <row r="30" spans="2:14" ht="38.25" thickBot="1">
       <c r="B30" s="6">
         <v>27</v>
       </c>
@@ -11234,7 +11256,7 @@
       </c>
       <c r="N30" s="18"/>
     </row>
-    <row r="31" spans="2:14" ht="36.5" thickBot="1">
+    <row r="31" spans="2:14" ht="38.25" thickBot="1">
       <c r="B31" s="6">
         <v>28</v>
       </c>
@@ -11267,7 +11289,7 @@
       </c>
       <c r="N31" s="18"/>
     </row>
-    <row r="32" spans="2:14" ht="36.5" thickBot="1">
+    <row r="32" spans="2:14" ht="38.25" thickBot="1">
       <c r="B32" s="6">
         <v>29</v>
       </c>
@@ -11300,7 +11322,7 @@
       </c>
       <c r="N32" s="18"/>
     </row>
-    <row r="33" spans="2:14" ht="36.5" thickBot="1">
+    <row r="33" spans="2:14" ht="38.25" thickBot="1">
       <c r="B33" s="6">
         <v>30</v>
       </c>
@@ -11333,7 +11355,7 @@
       </c>
       <c r="N33" s="18"/>
     </row>
-    <row r="34" spans="2:14" ht="36.5" thickBot="1">
+    <row r="34" spans="2:14" ht="38.25" thickBot="1">
       <c r="B34" s="6">
         <v>31</v>
       </c>
@@ -11366,7 +11388,7 @@
       </c>
       <c r="N34" s="18"/>
     </row>
-    <row r="35" spans="2:14" ht="36.5" thickBot="1">
+    <row r="35" spans="2:14" ht="38.25" thickBot="1">
       <c r="B35" s="6">
         <v>32</v>
       </c>
@@ -11399,7 +11421,7 @@
       </c>
       <c r="N35" s="18"/>
     </row>
-    <row r="36" spans="2:14" ht="36.5" thickBot="1">
+    <row r="36" spans="2:14" ht="38.25" thickBot="1">
       <c r="B36" s="6">
         <v>33</v>
       </c>
@@ -11432,7 +11454,7 @@
       </c>
       <c r="N36" s="18"/>
     </row>
-    <row r="37" spans="2:14" ht="36.5" thickBot="1">
+    <row r="37" spans="2:14" ht="38.25" thickBot="1">
       <c r="B37" s="6">
         <v>34</v>
       </c>
@@ -11465,7 +11487,7 @@
       </c>
       <c r="N37" s="18"/>
     </row>
-    <row r="38" spans="2:14" ht="36.5" thickBot="1">
+    <row r="38" spans="2:14" ht="38.25" thickBot="1">
       <c r="B38" s="6">
         <v>35</v>
       </c>
@@ -11498,7 +11520,7 @@
       </c>
       <c r="N38" s="40"/>
     </row>
-    <row r="39" spans="2:14" ht="36.5" thickBot="1">
+    <row r="39" spans="2:14" ht="38.25" thickBot="1">
       <c r="B39" s="6">
         <v>36</v>
       </c>
@@ -11535,7 +11557,7 @@
       </c>
       <c r="N39" s="12"/>
     </row>
-    <row r="40" spans="2:14" ht="36.5" thickBot="1">
+    <row r="40" spans="2:14" ht="38.25" thickBot="1">
       <c r="B40" s="6">
         <v>37</v>
       </c>
@@ -11568,7 +11590,7 @@
       </c>
       <c r="N40" s="18"/>
     </row>
-    <row r="41" spans="2:14" ht="36.5" thickBot="1">
+    <row r="41" spans="2:14" ht="38.25" thickBot="1">
       <c r="B41" s="6">
         <v>38</v>
       </c>
@@ -11601,7 +11623,7 @@
       </c>
       <c r="N41" s="18"/>
     </row>
-    <row r="42" spans="2:14" ht="36.5" thickBot="1">
+    <row r="42" spans="2:14" ht="38.25" thickBot="1">
       <c r="B42" s="6">
         <v>39</v>
       </c>
@@ -11634,7 +11656,7 @@
       </c>
       <c r="N42" s="18"/>
     </row>
-    <row r="43" spans="2:14" ht="36.5" thickBot="1">
+    <row r="43" spans="2:14" ht="38.25" thickBot="1">
       <c r="B43" s="6">
         <v>40</v>
       </c>
@@ -11667,7 +11689,7 @@
       </c>
       <c r="N43" s="18"/>
     </row>
-    <row r="44" spans="2:14" ht="36.5" thickBot="1">
+    <row r="44" spans="2:14" ht="38.25" thickBot="1">
       <c r="B44" s="6">
         <v>41</v>
       </c>
@@ -11700,7 +11722,7 @@
       </c>
       <c r="N44" s="18"/>
     </row>
-    <row r="45" spans="2:14" ht="36.5" thickBot="1">
+    <row r="45" spans="2:14" ht="38.25" thickBot="1">
       <c r="B45" s="6">
         <v>42</v>
       </c>
@@ -11733,7 +11755,7 @@
       </c>
       <c r="N45" s="18"/>
     </row>
-    <row r="46" spans="2:14" ht="36.5" thickBot="1">
+    <row r="46" spans="2:14" ht="38.25" thickBot="1">
       <c r="B46" s="6">
         <v>43</v>
       </c>
@@ -11766,7 +11788,7 @@
       </c>
       <c r="N46" s="18"/>
     </row>
-    <row r="47" spans="2:14" ht="36.5" thickBot="1">
+    <row r="47" spans="2:14" ht="38.25" thickBot="1">
       <c r="B47" s="6">
         <v>44</v>
       </c>
@@ -11799,7 +11821,7 @@
       </c>
       <c r="N47" s="18"/>
     </row>
-    <row r="48" spans="2:14" ht="36.5" thickBot="1">
+    <row r="48" spans="2:14" ht="38.25" thickBot="1">
       <c r="B48" s="6">
         <v>45</v>
       </c>
@@ -11832,7 +11854,7 @@
       </c>
       <c r="N48" s="18"/>
     </row>
-    <row r="49" spans="2:14" ht="36.5" thickBot="1">
+    <row r="49" spans="2:14" ht="38.25" thickBot="1">
       <c r="B49" s="6">
         <v>46</v>
       </c>
@@ -11865,7 +11887,7 @@
       </c>
       <c r="N49" s="18"/>
     </row>
-    <row r="50" spans="2:14" ht="36.5" thickBot="1">
+    <row r="50" spans="2:14" ht="38.25" thickBot="1">
       <c r="B50" s="6">
         <v>47</v>
       </c>
@@ -11898,7 +11920,7 @@
       </c>
       <c r="N50" s="18"/>
     </row>
-    <row r="51" spans="2:14" ht="36.5" thickBot="1">
+    <row r="51" spans="2:14" ht="38.25" thickBot="1">
       <c r="B51" s="6">
         <v>48</v>
       </c>
@@ -11931,7 +11953,7 @@
       </c>
       <c r="N51" s="18"/>
     </row>
-    <row r="52" spans="2:14" ht="36.5" thickBot="1">
+    <row r="52" spans="2:14" ht="38.25" thickBot="1">
       <c r="B52" s="6">
         <v>49</v>
       </c>
@@ -11964,7 +11986,7 @@
       </c>
       <c r="N52" s="18"/>
     </row>
-    <row r="53" spans="2:14" ht="36.5" thickBot="1">
+    <row r="53" spans="2:14" ht="38.25" thickBot="1">
       <c r="B53" s="6">
         <v>50</v>
       </c>
@@ -11997,7 +12019,7 @@
       </c>
       <c r="N53" s="18"/>
     </row>
-    <row r="54" spans="2:14" ht="36.5" thickBot="1">
+    <row r="54" spans="2:14" ht="38.25" thickBot="1">
       <c r="B54" s="6">
         <v>51</v>
       </c>
@@ -12030,7 +12052,7 @@
       </c>
       <c r="N54" s="24"/>
     </row>
-    <row r="55" spans="2:14" ht="36.5" thickBot="1">
+    <row r="55" spans="2:14" ht="38.25" thickBot="1">
       <c r="B55" s="6">
         <v>52</v>
       </c>
@@ -12063,7 +12085,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="56" spans="2:14" ht="54.5" thickBot="1">
+    <row r="56" spans="2:14" ht="57" thickBot="1">
       <c r="B56" s="6">
         <v>53</v>
       </c>
@@ -12096,7 +12118,7 @@
       </c>
       <c r="N56" s="40"/>
     </row>
-    <row r="57" spans="2:14" ht="36.5" thickBot="1">
+    <row r="57" spans="2:14" ht="38.25" thickBot="1">
       <c r="B57" s="6">
         <v>54</v>
       </c>
@@ -12133,7 +12155,7 @@
       </c>
       <c r="N57" s="12"/>
     </row>
-    <row r="58" spans="2:14" ht="36.5" thickBot="1">
+    <row r="58" spans="2:14" ht="38.25" thickBot="1">
       <c r="B58" s="6">
         <v>55</v>
       </c>
@@ -12166,7 +12188,7 @@
       </c>
       <c r="N58" s="24"/>
     </row>
-    <row r="59" spans="2:14" ht="36.5" thickBot="1">
+    <row r="59" spans="2:14" ht="38.25" thickBot="1">
       <c r="B59" s="6">
         <v>56</v>
       </c>
@@ -12203,7 +12225,7 @@
       </c>
       <c r="N59" s="46"/>
     </row>
-    <row r="60" spans="2:14" ht="36.5" thickBot="1">
+    <row r="60" spans="2:14" ht="38.25" thickBot="1">
       <c r="B60" s="6">
         <v>57</v>
       </c>
@@ -12240,7 +12262,7 @@
       </c>
       <c r="N60" s="12"/>
     </row>
-    <row r="61" spans="2:14" ht="36.5" thickBot="1">
+    <row r="61" spans="2:14" ht="38.25" thickBot="1">
       <c r="B61" s="6">
         <v>58</v>
       </c>
@@ -12273,7 +12295,7 @@
       </c>
       <c r="N61" s="24"/>
     </row>
-    <row r="62" spans="2:14" ht="20.5" thickBot="1">
+    <row r="62" spans="2:14" ht="20.25" thickBot="1">
       <c r="B62" s="6">
         <v>59</v>
       </c>
@@ -12310,7 +12332,7 @@
       </c>
       <c r="N62" s="30"/>
     </row>
-    <row r="63" spans="2:14" ht="20.5" thickBot="1">
+    <row r="63" spans="2:14" ht="20.25" thickBot="1">
       <c r="B63" s="6">
         <v>60</v>
       </c>
@@ -12347,7 +12369,7 @@
       </c>
       <c r="N63" s="30"/>
     </row>
-    <row r="64" spans="2:14" ht="20.5" thickBot="1">
+    <row r="64" spans="2:14" ht="20.25" thickBot="1">
       <c r="B64" s="6">
         <v>61</v>
       </c>
@@ -12384,7 +12406,7 @@
       </c>
       <c r="N64" s="30"/>
     </row>
-    <row r="66" spans="2:13" ht="22.5">
+    <row r="66" spans="2:13" ht="24">
       <c r="B66" s="49" t="s">
         <v>220</v>
       </c>
@@ -12462,15 +12484,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A32E68F-C66F-4A0E-A737-97CAF588A932}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.5">
+    <row r="1" spans="1:5" ht="25.5">
       <c r="A1" s="225" t="s">
         <v>481</v>
       </c>
@@ -12480,7 +12502,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="142" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -12500,30 +12522,30 @@
     </row>
     <row r="8" spans="1:5">
       <c r="B8" s="142" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="C9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="C10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="C11" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" s="142" t="s">
+        <v>486</v>
+      </c>
+      <c r="D13" s="231" t="s">
         <v>487</v>
-      </c>
-      <c r="D13" s="231" t="s">
-        <v>488</v>
       </c>
       <c r="E13" s="229">
         <f>COUNT(機能テスト!$B$6:'機能テスト'!$B$100)</f>
@@ -12536,12 +12558,12 @@
         <v>435</v>
       </c>
       <c r="E15" s="233" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="C16" s="232" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D16" s="229">
         <f>COUNTIF(機能テスト!$H$6:'機能テスト'!$H$100,"OK")</f>
@@ -12552,9 +12574,9 @@
         <v>0.51851851851851849</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:6">
       <c r="C17" s="232" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D17" s="229">
         <f>COUNTIF(機能テスト!$K$6:'機能テスト'!$K$100,"OK")</f>
@@ -12565,9 +12587,9 @@
         <v>0.72222222222222221</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:6">
       <c r="C18" s="232" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D18" s="229">
         <f>COUNTIF(機能テスト!$N$6:'機能テスト'!$N$100,"OK")</f>
@@ -12577,31 +12599,34 @@
         <f>D18/$E$13</f>
         <v>0.92592592592592593</v>
       </c>
-    </row>
-    <row r="20" spans="2:5">
+      <c r="F18" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
       <c r="B20" s="142" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D20" s="231" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E20" s="229">
         <f>COUNT(単体テスト1回目!$B$4:'単体テスト1回目'!$B$50)</f>
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:6">
       <c r="C22" s="229"/>
       <c r="D22" s="233" t="s">
         <v>435</v>
       </c>
       <c r="E22" s="233" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
       <c r="C23" s="232" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D23" s="229">
         <f>COUNTIF(単体テスト1回目!$L$4:'単体テスト1回目'!$L$50,"OK")</f>
@@ -12612,9 +12637,9 @@
         <v>0.41379310344827586</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:6">
       <c r="C24" s="232" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D24" s="229">
         <f>COUNTIF(単体テスト2回目!$L$4:'単体テスト2回目'!$L$50,"OK")</f>
@@ -12741,31 +12766,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9E1831-B730-44C0-AF23-D23175585ED5}">
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="O41" sqref="O41"/>
+    <sheetView showGridLines="0" topLeftCell="D46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="3.25" style="146" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" style="146" customWidth="1"/>
-    <col min="3" max="3" width="40.83203125" style="146" customWidth="1"/>
-    <col min="4" max="4" width="48.33203125" style="146" customWidth="1"/>
-    <col min="5" max="5" width="56.58203125" style="146" customWidth="1"/>
+    <col min="2" max="2" width="4.875" style="146" customWidth="1"/>
+    <col min="3" max="3" width="40.875" style="146" customWidth="1"/>
+    <col min="4" max="4" width="48.375" style="146" customWidth="1"/>
+    <col min="5" max="5" width="56.625" style="146" customWidth="1"/>
     <col min="6" max="6" width="54.75" style="146" customWidth="1"/>
-    <col min="7" max="7" width="11.58203125" style="146" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="146" customWidth="1"/>
     <col min="8" max="8" width="11" style="147" customWidth="1"/>
-    <col min="9" max="9" width="35.83203125" style="146" customWidth="1"/>
-    <col min="10" max="10" width="11.58203125" style="146" customWidth="1"/>
+    <col min="9" max="9" width="35.875" style="146" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="146" customWidth="1"/>
     <col min="11" max="11" width="11" style="147" customWidth="1"/>
-    <col min="12" max="12" width="33.08203125" style="146" customWidth="1"/>
-    <col min="13" max="13" width="11.58203125" style="146" customWidth="1"/>
+    <col min="12" max="12" width="33.125" style="146" customWidth="1"/>
+    <col min="13" max="13" width="11.625" style="146" customWidth="1"/>
     <col min="14" max="14" width="11" style="147" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.08203125" style="146" customWidth="1"/>
-    <col min="16" max="16384" width="8.58203125" style="146"/>
+    <col min="15" max="15" width="33.125" style="146" customWidth="1"/>
+    <col min="16" max="16384" width="8.625" style="146"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="29">
+    <row r="1" spans="1:15" ht="30">
       <c r="A1" s="145" t="s">
         <v>270</v>
       </c>
@@ -12773,82 +12798,82 @@
         <v>409</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="29">
+    <row r="2" spans="1:15" ht="30">
       <c r="A2" s="145"/>
       <c r="D2" s="146" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="29.5" thickBot="1">
+    <row r="3" spans="1:15" ht="30.75" thickBot="1">
       <c r="A3" s="145"/>
     </row>
-    <row r="4" spans="1:15" ht="18.5" thickBot="1">
-      <c r="B4" s="237" t="s">
+    <row r="4" spans="1:15" ht="19.5" thickBot="1">
+      <c r="B4" s="239" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="237" t="s">
+      <c r="C4" s="239" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="237" t="s">
+      <c r="D4" s="239" t="s">
         <v>320</v>
       </c>
       <c r="E4" s="241" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="237" t="s">
+      <c r="F4" s="239" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="239" t="s">
+      <c r="G4" s="237" t="s">
         <v>459</v>
       </c>
-      <c r="H4" s="240"/>
-      <c r="I4" s="237" t="s">
+      <c r="H4" s="238"/>
+      <c r="I4" s="239" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="239" t="s">
+      <c r="J4" s="237" t="s">
         <v>460</v>
       </c>
-      <c r="K4" s="240"/>
-      <c r="L4" s="237" t="s">
+      <c r="K4" s="238"/>
+      <c r="L4" s="239" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="239" t="s">
+      <c r="M4" s="237" t="s">
         <v>461</v>
       </c>
-      <c r="N4" s="240"/>
-      <c r="O4" s="237" t="s">
+      <c r="N4" s="238"/>
+      <c r="O4" s="239" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18.5" thickBot="1">
-      <c r="B5" s="238"/>
-      <c r="C5" s="238"/>
-      <c r="D5" s="238"/>
+    <row r="5" spans="1:15" ht="19.5" thickBot="1">
+      <c r="B5" s="240"/>
+      <c r="C5" s="240"/>
+      <c r="D5" s="240"/>
       <c r="E5" s="242"/>
-      <c r="F5" s="238"/>
+      <c r="F5" s="240"/>
       <c r="G5" s="148" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="238"/>
+      <c r="I5" s="240"/>
       <c r="J5" s="150" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="151" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="238"/>
+      <c r="L5" s="240"/>
       <c r="M5" s="150" t="s">
         <v>8</v>
       </c>
       <c r="N5" s="151" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="238"/>
-    </row>
-    <row r="6" spans="1:15" ht="40.5" thickBot="1">
+      <c r="O5" s="240"/>
+    </row>
+    <row r="6" spans="1:15" ht="39.75" thickBot="1">
       <c r="B6" s="152">
         <v>1</v>
       </c>
@@ -12886,7 +12911,7 @@
       </c>
       <c r="O6" s="154"/>
     </row>
-    <row r="7" spans="1:15" ht="55" customHeight="1" thickBot="1">
+    <row r="7" spans="1:15" ht="54.95" customHeight="1" thickBot="1">
       <c r="B7" s="152">
         <v>2</v>
       </c>
@@ -12922,7 +12947,7 @@
       </c>
       <c r="O7" s="155"/>
     </row>
-    <row r="8" spans="1:15" ht="54.5" thickBot="1">
+    <row r="8" spans="1:15" ht="57" thickBot="1">
       <c r="B8" s="152">
         <v>3</v>
       </c>
@@ -12958,7 +12983,7 @@
       </c>
       <c r="O8" s="161"/>
     </row>
-    <row r="9" spans="1:15" ht="54.5" thickBot="1">
+    <row r="9" spans="1:15" ht="57" thickBot="1">
       <c r="B9" s="152">
         <v>4</v>
       </c>
@@ -12994,7 +13019,7 @@
       </c>
       <c r="O9" s="161"/>
     </row>
-    <row r="10" spans="1:15" ht="54.5" thickBot="1">
+    <row r="10" spans="1:15" ht="57" thickBot="1">
       <c r="B10" s="152">
         <v>5</v>
       </c>
@@ -13032,7 +13057,7 @@
       </c>
       <c r="O10" s="161"/>
     </row>
-    <row r="11" spans="1:15" ht="54.5" thickBot="1">
+    <row r="11" spans="1:15" ht="57" thickBot="1">
       <c r="B11" s="152">
         <v>6</v>
       </c>
@@ -13068,7 +13093,7 @@
       </c>
       <c r="O11" s="161"/>
     </row>
-    <row r="12" spans="1:15" ht="54.5" thickBot="1">
+    <row r="12" spans="1:15" ht="57" thickBot="1">
       <c r="B12" s="152">
         <v>7</v>
       </c>
@@ -13104,7 +13129,7 @@
       </c>
       <c r="O12" s="161"/>
     </row>
-    <row r="13" spans="1:15" ht="54.5" thickBot="1">
+    <row r="13" spans="1:15" ht="57" thickBot="1">
       <c r="B13" s="152">
         <v>8</v>
       </c>
@@ -13140,7 +13165,7 @@
       </c>
       <c r="O13" s="174"/>
     </row>
-    <row r="14" spans="1:15" ht="54.5" thickBot="1">
+    <row r="14" spans="1:15" ht="57" thickBot="1">
       <c r="B14" s="152">
         <v>9</v>
       </c>
@@ -13178,7 +13203,7 @@
       </c>
       <c r="O14" s="154"/>
     </row>
-    <row r="15" spans="1:15" ht="54.5" thickBot="1">
+    <row r="15" spans="1:15" ht="57" thickBot="1">
       <c r="B15" s="152">
         <v>10</v>
       </c>
@@ -13214,7 +13239,7 @@
       </c>
       <c r="O15" s="161"/>
     </row>
-    <row r="16" spans="1:15" ht="54.5" thickBot="1">
+    <row r="16" spans="1:15" ht="57" thickBot="1">
       <c r="B16" s="152">
         <v>11</v>
       </c>
@@ -13250,7 +13275,7 @@
       </c>
       <c r="O16" s="171"/>
     </row>
-    <row r="17" spans="2:15" ht="40.5" thickBot="1">
+    <row r="17" spans="2:15" ht="39.75" thickBot="1">
       <c r="B17" s="152">
         <v>12</v>
       </c>
@@ -13290,7 +13315,7 @@
       </c>
       <c r="O17" s="154"/>
     </row>
-    <row r="18" spans="2:15" ht="36.5" thickBot="1">
+    <row r="18" spans="2:15" ht="38.25" thickBot="1">
       <c r="B18" s="152">
         <v>13</v>
       </c>
@@ -13326,7 +13351,7 @@
       </c>
       <c r="O18" s="186"/>
     </row>
-    <row r="19" spans="2:15" ht="60.5" thickBot="1">
+    <row r="19" spans="2:15" ht="59.25" thickBot="1">
       <c r="B19" s="152">
         <v>14</v>
       </c>
@@ -13364,7 +13389,7 @@
       </c>
       <c r="O19" s="154"/>
     </row>
-    <row r="20" spans="2:15" ht="100.5" thickBot="1">
+    <row r="20" spans="2:15" ht="98.25" thickBot="1">
       <c r="B20" s="152">
         <v>15</v>
       </c>
@@ -13387,7 +13412,7 @@
         <v>467</v>
       </c>
       <c r="I20" s="234" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J20" s="194" t="s">
         <v>468</v>
@@ -13396,7 +13421,7 @@
         <v>468</v>
       </c>
       <c r="L20" s="234" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="M20" s="194">
         <v>44099</v>
@@ -13406,7 +13431,7 @@
       </c>
       <c r="O20" s="154"/>
     </row>
-    <row r="21" spans="2:15" ht="36.5" thickBot="1">
+    <row r="21" spans="2:15" ht="38.25" thickBot="1">
       <c r="B21" s="152">
         <v>16</v>
       </c>
@@ -13427,7 +13452,7 @@
         <v>467</v>
       </c>
       <c r="I21" s="235" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="J21" s="196" t="s">
         <v>468</v>
@@ -13436,7 +13461,7 @@
         <v>468</v>
       </c>
       <c r="L21" s="235" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="M21" s="196">
         <v>44099</v>
@@ -13446,7 +13471,7 @@
       </c>
       <c r="O21" s="161"/>
     </row>
-    <row r="22" spans="2:15" ht="36.5" thickBot="1">
+    <row r="22" spans="2:15" ht="38.25" thickBot="1">
       <c r="B22" s="152">
         <v>17</v>
       </c>
@@ -13467,7 +13492,7 @@
         <v>467</v>
       </c>
       <c r="I22" s="235" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="J22" s="196" t="s">
         <v>468</v>
@@ -13476,7 +13501,7 @@
         <v>468</v>
       </c>
       <c r="L22" s="235" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="M22" s="196">
         <v>44099</v>
@@ -13486,7 +13511,7 @@
       </c>
       <c r="O22" s="161"/>
     </row>
-    <row r="23" spans="2:15" ht="36.5" thickBot="1">
+    <row r="23" spans="2:15" ht="38.25" thickBot="1">
       <c r="B23" s="152">
         <v>18</v>
       </c>
@@ -13507,7 +13532,7 @@
         <v>467</v>
       </c>
       <c r="I23" s="235" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="J23" s="196" t="s">
         <v>468</v>
@@ -13516,7 +13541,7 @@
         <v>468</v>
       </c>
       <c r="L23" s="235" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="M23" s="196">
         <v>44099</v>
@@ -13526,7 +13551,7 @@
       </c>
       <c r="O23" s="161"/>
     </row>
-    <row r="24" spans="2:15" ht="36.5" thickBot="1">
+    <row r="24" spans="2:15" ht="38.25" thickBot="1">
       <c r="B24" s="152">
         <v>19</v>
       </c>
@@ -13547,7 +13572,7 @@
         <v>467</v>
       </c>
       <c r="I24" s="235" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="J24" s="196" t="s">
         <v>468</v>
@@ -13556,7 +13581,7 @@
         <v>468</v>
       </c>
       <c r="L24" s="235" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="M24" s="196">
         <v>44099</v>
@@ -13566,7 +13591,7 @@
       </c>
       <c r="O24" s="161"/>
     </row>
-    <row r="25" spans="2:15" ht="36.5" thickBot="1">
+    <row r="25" spans="2:15" ht="38.25" thickBot="1">
       <c r="B25" s="152">
         <v>20</v>
       </c>
@@ -13587,7 +13612,7 @@
         <v>467</v>
       </c>
       <c r="I25" s="235" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="J25" s="196" t="s">
         <v>468</v>
@@ -13596,7 +13621,7 @@
         <v>468</v>
       </c>
       <c r="L25" s="235" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="M25" s="196">
         <v>44099</v>
@@ -13606,7 +13631,7 @@
       </c>
       <c r="O25" s="161"/>
     </row>
-    <row r="26" spans="2:15" ht="36.5" thickBot="1">
+    <row r="26" spans="2:15" ht="38.25" thickBot="1">
       <c r="B26" s="152">
         <v>21</v>
       </c>
@@ -13627,7 +13652,7 @@
         <v>467</v>
       </c>
       <c r="I26" s="235" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="J26" s="196" t="s">
         <v>468</v>
@@ -13636,7 +13661,7 @@
         <v>468</v>
       </c>
       <c r="L26" s="235" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="M26" s="196">
         <v>44099</v>
@@ -13646,7 +13671,7 @@
       </c>
       <c r="O26" s="161"/>
     </row>
-    <row r="27" spans="2:15" ht="36.5" thickBot="1">
+    <row r="27" spans="2:15" ht="38.25" thickBot="1">
       <c r="B27" s="152">
         <v>22</v>
       </c>
@@ -13667,7 +13692,7 @@
         <v>467</v>
       </c>
       <c r="I27" s="235" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="J27" s="196" t="s">
         <v>468</v>
@@ -13676,7 +13701,7 @@
         <v>468</v>
       </c>
       <c r="L27" s="235" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="M27" s="196">
         <v>44099</v>
@@ -13686,7 +13711,7 @@
       </c>
       <c r="O27" s="161"/>
     </row>
-    <row r="28" spans="2:15" ht="36.5" thickBot="1">
+    <row r="28" spans="2:15" ht="38.25" thickBot="1">
       <c r="B28" s="152">
         <v>23</v>
       </c>
@@ -13707,7 +13732,7 @@
         <v>467</v>
       </c>
       <c r="I28" s="235" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="J28" s="196" t="s">
         <v>468</v>
@@ -13716,7 +13741,7 @@
         <v>468</v>
       </c>
       <c r="L28" s="235" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="M28" s="196">
         <v>44099</v>
@@ -13726,7 +13751,7 @@
       </c>
       <c r="O28" s="161"/>
     </row>
-    <row r="29" spans="2:15" ht="36.5" thickBot="1">
+    <row r="29" spans="2:15" ht="38.25" thickBot="1">
       <c r="B29" s="152">
         <v>24</v>
       </c>
@@ -13747,7 +13772,7 @@
         <v>467</v>
       </c>
       <c r="I29" s="235" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="J29" s="196" t="s">
         <v>468</v>
@@ -13756,7 +13781,7 @@
         <v>468</v>
       </c>
       <c r="L29" s="235" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="M29" s="196">
         <v>44099</v>
@@ -13766,7 +13791,7 @@
       </c>
       <c r="O29" s="161"/>
     </row>
-    <row r="30" spans="2:15" ht="36.5" thickBot="1">
+    <row r="30" spans="2:15" ht="57" thickBot="1">
       <c r="B30" s="152">
         <v>25</v>
       </c>
@@ -13787,7 +13812,7 @@
         <v>467</v>
       </c>
       <c r="I30" s="236" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="J30" s="202" t="s">
         <v>468</v>
@@ -13796,7 +13821,7 @@
         <v>468</v>
       </c>
       <c r="L30" s="236" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="M30" s="202">
         <v>44099</v>
@@ -13806,7 +13831,7 @@
       </c>
       <c r="O30" s="171"/>
     </row>
-    <row r="31" spans="2:15" ht="40.5" thickBot="1">
+    <row r="31" spans="2:15" ht="39.75" thickBot="1">
       <c r="B31" s="152">
         <v>26</v>
       </c>
@@ -13844,7 +13869,7 @@
       </c>
       <c r="O31" s="154"/>
     </row>
-    <row r="32" spans="2:15" ht="72.5" thickBot="1">
+    <row r="32" spans="2:15" ht="75.75" thickBot="1">
       <c r="B32" s="152">
         <v>27</v>
       </c>
@@ -13880,7 +13905,7 @@
       </c>
       <c r="O32" s="155"/>
     </row>
-    <row r="33" spans="2:15" ht="36.5" thickBot="1">
+    <row r="33" spans="2:15" ht="38.25" thickBot="1">
       <c r="B33" s="152">
         <v>28</v>
       </c>
@@ -13916,7 +13941,7 @@
       </c>
       <c r="O33" s="186"/>
     </row>
-    <row r="34" spans="2:15" ht="72.5" thickBot="1">
+    <row r="34" spans="2:15" ht="75.75" thickBot="1">
       <c r="B34" s="152">
         <v>29</v>
       </c>
@@ -13952,7 +13977,7 @@
       </c>
       <c r="O34" s="174"/>
     </row>
-    <row r="35" spans="2:15" ht="40.5" thickBot="1">
+    <row r="35" spans="2:15" ht="39.75" thickBot="1">
       <c r="B35" s="152">
         <v>30</v>
       </c>
@@ -13990,7 +14015,7 @@
       </c>
       <c r="O35" s="208"/>
     </row>
-    <row r="36" spans="2:15" ht="40.5" thickBot="1">
+    <row r="36" spans="2:15" ht="39.75" thickBot="1">
       <c r="B36" s="152">
         <v>31</v>
       </c>
@@ -14028,7 +14053,7 @@
       </c>
       <c r="O36" s="154"/>
     </row>
-    <row r="37" spans="2:15" ht="36.5" thickBot="1">
+    <row r="37" spans="2:15" ht="38.25" thickBot="1">
       <c r="B37" s="152">
         <v>32</v>
       </c>
@@ -14064,7 +14089,7 @@
       </c>
       <c r="O37" s="171"/>
     </row>
-    <row r="38" spans="2:15" ht="108.5" thickBot="1">
+    <row r="38" spans="2:15" ht="113.25" thickBot="1">
       <c r="B38" s="152">
         <v>33</v>
       </c>
@@ -14102,7 +14127,7 @@
       </c>
       <c r="O38" s="188"/>
     </row>
-    <row r="39" spans="2:15" ht="40.5" thickBot="1">
+    <row r="39" spans="2:15" ht="39.75" thickBot="1">
       <c r="B39" s="152">
         <v>34</v>
       </c>
@@ -14140,7 +14165,7 @@
       </c>
       <c r="O39" s="154"/>
     </row>
-    <row r="40" spans="2:15" ht="36.5" thickBot="1">
+    <row r="40" spans="2:15" ht="38.25" thickBot="1">
       <c r="B40" s="152">
         <v>35</v>
       </c>
@@ -14161,7 +14186,7 @@
         <v>467</v>
       </c>
       <c r="I40" s="235" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="J40" s="213" t="s">
         <v>468</v>
@@ -14170,7 +14195,7 @@
         <v>468</v>
       </c>
       <c r="L40" s="235" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="M40" s="213" t="s">
         <v>467</v>
@@ -14179,10 +14204,10 @@
         <v>467</v>
       </c>
       <c r="O40" s="235" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="41" spans="2:15" ht="54.5" thickBot="1">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" ht="57" thickBot="1">
       <c r="B41" s="152">
         <v>36</v>
       </c>
@@ -14218,7 +14243,7 @@
       </c>
       <c r="O41" s="161"/>
     </row>
-    <row r="42" spans="2:15" ht="36.5" thickBot="1">
+    <row r="42" spans="2:15" ht="38.25" thickBot="1">
       <c r="B42" s="152">
         <v>37</v>
       </c>
@@ -14239,7 +14264,7 @@
         <v>467</v>
       </c>
       <c r="I42" s="235" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="J42" s="213" t="s">
         <v>468</v>
@@ -14248,7 +14273,7 @@
         <v>468</v>
       </c>
       <c r="L42" s="235" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="M42" s="213" t="s">
         <v>467</v>
@@ -14257,10 +14282,10 @@
         <v>467</v>
       </c>
       <c r="O42" s="235" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15" ht="36.5" thickBot="1">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" ht="38.25" thickBot="1">
       <c r="B43" s="152">
         <v>38</v>
       </c>
@@ -14281,7 +14306,7 @@
         <v>467</v>
       </c>
       <c r="I43" s="235" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="J43" s="213" t="s">
         <v>468</v>
@@ -14290,7 +14315,7 @@
         <v>468</v>
       </c>
       <c r="L43" s="235" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="M43" s="213" t="s">
         <v>467</v>
@@ -14299,10 +14324,10 @@
         <v>467</v>
       </c>
       <c r="O43" s="235" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" ht="36.5" thickBot="1">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" ht="38.25" thickBot="1">
       <c r="B44" s="152">
         <v>39</v>
       </c>
@@ -14323,7 +14348,7 @@
         <v>467</v>
       </c>
       <c r="I44" s="235" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J44" s="213" t="s">
         <v>468</v>
@@ -14332,7 +14357,7 @@
         <v>468</v>
       </c>
       <c r="L44" s="235" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="M44" s="213" t="s">
         <v>467</v>
@@ -14341,10 +14366,10 @@
         <v>467</v>
       </c>
       <c r="O44" s="235" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" ht="40.5" thickBot="1">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" ht="39.75" thickBot="1">
       <c r="B45" s="152">
         <v>40</v>
       </c>
@@ -14384,7 +14409,7 @@
       </c>
       <c r="O45" s="154"/>
     </row>
-    <row r="46" spans="2:15" ht="54.5" thickBot="1">
+    <row r="46" spans="2:15" ht="57" thickBot="1">
       <c r="B46" s="152">
         <v>41</v>
       </c>
@@ -14422,7 +14447,7 @@
       </c>
       <c r="O46" s="161"/>
     </row>
-    <row r="47" spans="2:15" ht="54.5" thickBot="1">
+    <row r="47" spans="2:15" ht="57" thickBot="1">
       <c r="B47" s="152">
         <v>42</v>
       </c>
@@ -14460,7 +14485,7 @@
       </c>
       <c r="O47" s="161"/>
     </row>
-    <row r="48" spans="2:15" ht="54.5" thickBot="1">
+    <row r="48" spans="2:15" ht="57" thickBot="1">
       <c r="B48" s="152">
         <v>43</v>
       </c>
@@ -14498,7 +14523,7 @@
       </c>
       <c r="O48" s="161"/>
     </row>
-    <row r="49" spans="2:15" ht="54.5" thickBot="1">
+    <row r="49" spans="2:15" ht="57" thickBot="1">
       <c r="B49" s="152">
         <v>44</v>
       </c>
@@ -14536,7 +14561,7 @@
       </c>
       <c r="O49" s="161"/>
     </row>
-    <row r="50" spans="2:15" ht="54.5" thickBot="1">
+    <row r="50" spans="2:15" ht="57" thickBot="1">
       <c r="B50" s="152">
         <v>45</v>
       </c>
@@ -14574,7 +14599,7 @@
       </c>
       <c r="O50" s="161"/>
     </row>
-    <row r="51" spans="2:15" ht="36.5" thickBot="1">
+    <row r="51" spans="2:15" ht="38.25" thickBot="1">
       <c r="B51" s="152">
         <v>46</v>
       </c>
@@ -14612,7 +14637,7 @@
       </c>
       <c r="O51" s="161"/>
     </row>
-    <row r="52" spans="2:15" ht="36.5" thickBot="1">
+    <row r="52" spans="2:15" ht="38.25" thickBot="1">
       <c r="B52" s="152">
         <v>47</v>
       </c>
@@ -14650,7 +14675,7 @@
       </c>
       <c r="O52" s="161"/>
     </row>
-    <row r="53" spans="2:15" ht="36.5" thickBot="1">
+    <row r="53" spans="2:15" ht="38.25" thickBot="1">
       <c r="B53" s="152">
         <v>48</v>
       </c>
@@ -14688,7 +14713,7 @@
       </c>
       <c r="O53" s="161"/>
     </row>
-    <row r="54" spans="2:15" ht="36.5" thickBot="1">
+    <row r="54" spans="2:15" ht="38.25" thickBot="1">
       <c r="B54" s="152">
         <v>49</v>
       </c>
@@ -14724,7 +14749,7 @@
       </c>
       <c r="O54" s="161"/>
     </row>
-    <row r="55" spans="2:15" ht="54.5" thickBot="1">
+    <row r="55" spans="2:15" ht="57" thickBot="1">
       <c r="B55" s="152">
         <v>50</v>
       </c>
@@ -14760,7 +14785,7 @@
       </c>
       <c r="O55" s="161"/>
     </row>
-    <row r="56" spans="2:15" ht="54.5" thickBot="1">
+    <row r="56" spans="2:15" ht="57" thickBot="1">
       <c r="B56" s="152">
         <v>51</v>
       </c>
@@ -14796,7 +14821,7 @@
       </c>
       <c r="O56" s="161"/>
     </row>
-    <row r="57" spans="2:15" ht="54.5" thickBot="1">
+    <row r="57" spans="2:15" ht="57" thickBot="1">
       <c r="B57" s="152">
         <v>52</v>
       </c>
@@ -14832,7 +14857,7 @@
       </c>
       <c r="O57" s="161"/>
     </row>
-    <row r="58" spans="2:15" ht="54.5" thickBot="1">
+    <row r="58" spans="2:15" ht="57" thickBot="1">
       <c r="B58" s="152">
         <v>53</v>
       </c>
@@ -14868,7 +14893,7 @@
       </c>
       <c r="O58" s="161"/>
     </row>
-    <row r="59" spans="2:15" ht="36.5" thickBot="1">
+    <row r="59" spans="2:15" ht="38.25" thickBot="1">
       <c r="B59" s="152">
         <v>54</v>
       </c>
@@ -14904,7 +14929,7 @@
       </c>
       <c r="O59" s="174"/>
     </row>
-    <row r="60" spans="2:15" ht="20">
+    <row r="60" spans="2:15" ht="19.5">
       <c r="B60" s="218"/>
       <c r="C60" s="219"/>
       <c r="D60" s="218"/>
@@ -14923,24 +14948,24 @@
     <row r="61" spans="2:15">
       <c r="B61" s="222"/>
     </row>
-    <row r="62" spans="2:15" ht="22.5">
+    <row r="62" spans="2:15" ht="24">
       <c r="B62" s="223"/>
       <c r="C62" s="223"/>
       <c r="E62" s="224"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14956,40 +14981,40 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="3.25" style="88" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" style="88" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.58203125" style="88" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.83203125" style="88" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="88" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.875" style="88" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="48.25" style="88" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.08203125" style="88" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="88" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="91.75" style="88" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.08203125" style="88" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.125" style="88" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.58203125" style="88" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.625" style="88" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="89" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.58203125" style="88" customWidth="1"/>
+    <col min="13" max="13" width="33.625" style="88" customWidth="1"/>
     <col min="14" max="14" width="11.5" style="88" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="49.58203125" style="88" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="49.625" style="88" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="11.25" style="89" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="49.58203125" style="88" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.58203125" style="88"/>
+    <col min="17" max="17" width="49.625" style="88" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.625" style="88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="29">
+    <row r="1" spans="1:17" ht="30">
       <c r="A1" s="87" t="s">
         <v>410</v>
       </c>
-      <c r="D1" s="243" t="s">
+      <c r="D1" s="249" t="s">
         <v>479</v>
       </c>
-      <c r="E1" s="243"/>
-      <c r="F1" s="243"/>
-      <c r="G1" s="243"/>
-    </row>
-    <row r="2" spans="1:17" ht="18.5" thickBot="1"/>
-    <row r="3" spans="1:17" ht="40.5" thickBot="1">
+      <c r="E1" s="249"/>
+      <c r="F1" s="249"/>
+      <c r="G1" s="249"/>
+    </row>
+    <row r="2" spans="1:17" ht="19.5" thickBot="1"/>
+    <row r="3" spans="1:17" ht="39.75" thickBot="1">
       <c r="B3" s="90" t="s">
         <v>3</v>
       </c>
@@ -15039,7 +15064,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="140.5" thickBot="1">
+    <row r="4" spans="1:17" ht="137.25" thickBot="1">
       <c r="B4" s="92">
         <f>ROW(B4)-ROW($B$3)</f>
         <v>1</v>
@@ -15082,12 +15107,12 @@
       <c r="P4" s="102"/>
       <c r="Q4" s="103"/>
     </row>
-    <row r="5" spans="1:17" ht="140.5" thickBot="1">
+    <row r="5" spans="1:17" ht="137.25" thickBot="1">
       <c r="B5" s="92">
         <f t="shared" ref="B5:B32" si="0">ROW(B5)-ROW($B$3)</f>
         <v>2</v>
       </c>
-      <c r="C5" s="244" t="s">
+      <c r="C5" s="243" t="s">
         <v>421</v>
       </c>
       <c r="D5" s="246" t="s">
@@ -15125,12 +15150,12 @@
       <c r="P5" s="102"/>
       <c r="Q5" s="103"/>
     </row>
-    <row r="6" spans="1:17" ht="20.5" thickBot="1">
+    <row r="6" spans="1:17" ht="20.25" thickBot="1">
       <c r="B6" s="92">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="245"/>
+      <c r="C6" s="244"/>
       <c r="D6" s="247"/>
       <c r="E6" s="247"/>
       <c r="F6" s="247"/>
@@ -15156,12 +15181,12 @@
       <c r="P6" s="102"/>
       <c r="Q6" s="103"/>
     </row>
-    <row r="7" spans="1:17" ht="20.5" thickBot="1">
+    <row r="7" spans="1:17" ht="20.25" thickBot="1">
       <c r="B7" s="92">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="245"/>
+      <c r="C7" s="244"/>
       <c r="D7" s="247"/>
       <c r="E7" s="247"/>
       <c r="F7" s="247"/>
@@ -15187,12 +15212,12 @@
       <c r="P7" s="102"/>
       <c r="Q7" s="103"/>
     </row>
-    <row r="8" spans="1:17" ht="20.5" thickBot="1">
+    <row r="8" spans="1:17" ht="20.25" thickBot="1">
       <c r="B8" s="92">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="245"/>
+      <c r="C8" s="244"/>
       <c r="D8" s="247"/>
       <c r="E8" s="247"/>
       <c r="F8" s="247"/>
@@ -15220,12 +15245,12 @@
       <c r="P8" s="102"/>
       <c r="Q8" s="103"/>
     </row>
-    <row r="9" spans="1:17" ht="20.5" thickBot="1">
+    <row r="9" spans="1:17" ht="20.25" thickBot="1">
       <c r="B9" s="92">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="245"/>
+      <c r="C9" s="244"/>
       <c r="D9" s="247"/>
       <c r="E9" s="247"/>
       <c r="F9" s="247"/>
@@ -15253,12 +15278,12 @@
       <c r="P9" s="102"/>
       <c r="Q9" s="103"/>
     </row>
-    <row r="10" spans="1:17" ht="20.5" thickBot="1">
+    <row r="10" spans="1:17" ht="20.25" thickBot="1">
       <c r="B10" s="92">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="245"/>
+      <c r="C10" s="244"/>
       <c r="D10" s="247"/>
       <c r="E10" s="247"/>
       <c r="F10" s="247"/>
@@ -15284,12 +15309,12 @@
       <c r="P10" s="102"/>
       <c r="Q10" s="103"/>
     </row>
-    <row r="11" spans="1:17" ht="20.5" thickBot="1">
+    <row r="11" spans="1:17" ht="20.25" thickBot="1">
       <c r="B11" s="92">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="245"/>
+      <c r="C11" s="244"/>
       <c r="D11" s="247"/>
       <c r="E11" s="247"/>
       <c r="F11" s="247"/>
@@ -15315,12 +15340,12 @@
       <c r="P11" s="102"/>
       <c r="Q11" s="103"/>
     </row>
-    <row r="12" spans="1:17" ht="20.5" thickBot="1">
+    <row r="12" spans="1:17" ht="20.25" thickBot="1">
       <c r="B12" s="92">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="245"/>
+      <c r="C12" s="244"/>
       <c r="D12" s="247"/>
       <c r="E12" s="247"/>
       <c r="F12" s="247"/>
@@ -15346,12 +15371,12 @@
       <c r="P12" s="102"/>
       <c r="Q12" s="103"/>
     </row>
-    <row r="13" spans="1:17" ht="20.5" thickBot="1">
+    <row r="13" spans="1:17" ht="20.25" thickBot="1">
       <c r="B13" s="92">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C13" s="245"/>
+      <c r="C13" s="244"/>
       <c r="D13" s="247"/>
       <c r="E13" s="247"/>
       <c r="F13" s="247"/>
@@ -15379,12 +15404,12 @@
       <c r="P13" s="102"/>
       <c r="Q13" s="103"/>
     </row>
-    <row r="14" spans="1:17" ht="20.5" thickBot="1">
+    <row r="14" spans="1:17" ht="20.25" thickBot="1">
       <c r="B14" s="92">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="245"/>
+      <c r="C14" s="244"/>
       <c r="D14" s="247"/>
       <c r="E14" s="247"/>
       <c r="F14" s="247"/>
@@ -15412,12 +15437,12 @@
       <c r="P14" s="102"/>
       <c r="Q14" s="103"/>
     </row>
-    <row r="15" spans="1:17" ht="20.5" thickBot="1">
+    <row r="15" spans="1:17" ht="20.25" thickBot="1">
       <c r="B15" s="92">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C15" s="245"/>
+      <c r="C15" s="244"/>
       <c r="D15" s="247"/>
       <c r="E15" s="247"/>
       <c r="F15" s="247"/>
@@ -15443,12 +15468,12 @@
       <c r="P15" s="102"/>
       <c r="Q15" s="103"/>
     </row>
-    <row r="16" spans="1:17" ht="20.5" thickBot="1">
+    <row r="16" spans="1:17" ht="20.25" thickBot="1">
       <c r="B16" s="92">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C16" s="245"/>
+      <c r="C16" s="244"/>
       <c r="D16" s="247"/>
       <c r="E16" s="247"/>
       <c r="F16" s="247"/>
@@ -15474,12 +15499,12 @@
       <c r="P16" s="102"/>
       <c r="Q16" s="103"/>
     </row>
-    <row r="17" spans="2:17" ht="20.5" thickBot="1">
+    <row r="17" spans="2:17" ht="20.25" thickBot="1">
       <c r="B17" s="92">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C17" s="245"/>
+      <c r="C17" s="244"/>
       <c r="D17" s="247"/>
       <c r="E17" s="247"/>
       <c r="F17" s="247"/>
@@ -15505,12 +15530,12 @@
       <c r="P17" s="102"/>
       <c r="Q17" s="103"/>
     </row>
-    <row r="18" spans="2:17" ht="20.5" thickBot="1">
+    <row r="18" spans="2:17" ht="20.25" thickBot="1">
       <c r="B18" s="92">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C18" s="245"/>
+      <c r="C18" s="244"/>
       <c r="D18" s="247"/>
       <c r="E18" s="247"/>
       <c r="F18" s="247"/>
@@ -15538,12 +15563,12 @@
       <c r="P18" s="102"/>
       <c r="Q18" s="103"/>
     </row>
-    <row r="19" spans="2:17" ht="20.5" thickBot="1">
+    <row r="19" spans="2:17" ht="20.25" thickBot="1">
       <c r="B19" s="92">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C19" s="245"/>
+      <c r="C19" s="244"/>
       <c r="D19" s="247"/>
       <c r="E19" s="247"/>
       <c r="F19" s="247"/>
@@ -15571,12 +15596,12 @@
       <c r="P19" s="102"/>
       <c r="Q19" s="103"/>
     </row>
-    <row r="20" spans="2:17" ht="20.5" thickBot="1">
+    <row r="20" spans="2:17" ht="20.25" thickBot="1">
       <c r="B20" s="92">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C20" s="245"/>
+      <c r="C20" s="244"/>
       <c r="D20" s="247"/>
       <c r="E20" s="247"/>
       <c r="F20" s="247"/>
@@ -15604,12 +15629,12 @@
       <c r="P20" s="102"/>
       <c r="Q20" s="103"/>
     </row>
-    <row r="21" spans="2:17" ht="20.5" thickBot="1">
+    <row r="21" spans="2:17" ht="20.25" thickBot="1">
       <c r="B21" s="92">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C21" s="245"/>
+      <c r="C21" s="244"/>
       <c r="D21" s="247"/>
       <c r="E21" s="247"/>
       <c r="F21" s="247"/>
@@ -15637,12 +15662,12 @@
       <c r="P21" s="102"/>
       <c r="Q21" s="103"/>
     </row>
-    <row r="22" spans="2:17" ht="20.5" thickBot="1">
+    <row r="22" spans="2:17" ht="20.25" thickBot="1">
       <c r="B22" s="92">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C22" s="245"/>
+      <c r="C22" s="244"/>
       <c r="D22" s="247"/>
       <c r="E22" s="247"/>
       <c r="F22" s="247"/>
@@ -15670,12 +15695,12 @@
       <c r="P22" s="102"/>
       <c r="Q22" s="103"/>
     </row>
-    <row r="23" spans="2:17" ht="20.5" thickBot="1">
+    <row r="23" spans="2:17" ht="20.25" thickBot="1">
       <c r="B23" s="92">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C23" s="245"/>
+      <c r="C23" s="244"/>
       <c r="D23" s="247"/>
       <c r="E23" s="247"/>
       <c r="F23" s="247"/>
@@ -15703,12 +15728,12 @@
       <c r="P23" s="102"/>
       <c r="Q23" s="103"/>
     </row>
-    <row r="24" spans="2:17" ht="20.5" thickBot="1">
+    <row r="24" spans="2:17" ht="20.25" thickBot="1">
       <c r="B24" s="92">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C24" s="245"/>
+      <c r="C24" s="244"/>
       <c r="D24" s="247"/>
       <c r="E24" s="247"/>
       <c r="F24" s="247"/>
@@ -15736,12 +15761,12 @@
       <c r="P24" s="102"/>
       <c r="Q24" s="103"/>
     </row>
-    <row r="25" spans="2:17" ht="20.5" thickBot="1">
+    <row r="25" spans="2:17" ht="20.25" thickBot="1">
       <c r="B25" s="92">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C25" s="245"/>
+      <c r="C25" s="244"/>
       <c r="D25" s="247"/>
       <c r="E25" s="247"/>
       <c r="F25" s="247"/>
@@ -15767,12 +15792,12 @@
       <c r="P25" s="102"/>
       <c r="Q25" s="103"/>
     </row>
-    <row r="26" spans="2:17" ht="20.5" thickBot="1">
+    <row r="26" spans="2:17" ht="20.25" thickBot="1">
       <c r="B26" s="92">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C26" s="245"/>
+      <c r="C26" s="244"/>
       <c r="D26" s="247"/>
       <c r="E26" s="247"/>
       <c r="F26" s="247"/>
@@ -15800,12 +15825,12 @@
       <c r="P26" s="102"/>
       <c r="Q26" s="103"/>
     </row>
-    <row r="27" spans="2:17" ht="20.5" thickBot="1">
+    <row r="27" spans="2:17" ht="20.25" thickBot="1">
       <c r="B27" s="92">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C27" s="245"/>
+      <c r="C27" s="244"/>
       <c r="D27" s="247"/>
       <c r="E27" s="247"/>
       <c r="F27" s="247"/>
@@ -15833,12 +15858,12 @@
       <c r="P27" s="102"/>
       <c r="Q27" s="103"/>
     </row>
-    <row r="28" spans="2:17" ht="20.5" thickBot="1">
+    <row r="28" spans="2:17" ht="20.25" thickBot="1">
       <c r="B28" s="92">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C28" s="245"/>
+      <c r="C28" s="244"/>
       <c r="D28" s="247"/>
       <c r="E28" s="247"/>
       <c r="F28" s="247"/>
@@ -15866,12 +15891,12 @@
       <c r="P28" s="102"/>
       <c r="Q28" s="103"/>
     </row>
-    <row r="29" spans="2:17" ht="20.5" thickBot="1">
+    <row r="29" spans="2:17" ht="20.25" thickBot="1">
       <c r="B29" s="92">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C29" s="245"/>
+      <c r="C29" s="244"/>
       <c r="D29" s="247"/>
       <c r="E29" s="247"/>
       <c r="F29" s="247"/>
@@ -15899,12 +15924,12 @@
       <c r="P29" s="102"/>
       <c r="Q29" s="103"/>
     </row>
-    <row r="30" spans="2:17" ht="20.5" thickBot="1">
+    <row r="30" spans="2:17" ht="20.25" thickBot="1">
       <c r="B30" s="92">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C30" s="244" t="s">
+      <c r="C30" s="243" t="s">
         <v>424</v>
       </c>
       <c r="D30" s="246" t="s">
@@ -15940,12 +15965,12 @@
       <c r="P30" s="102"/>
       <c r="Q30" s="103"/>
     </row>
-    <row r="31" spans="2:17" ht="80.5" thickBot="1">
+    <row r="31" spans="2:17" ht="78.75" thickBot="1">
       <c r="B31" s="92">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C31" s="245"/>
+      <c r="C31" s="244"/>
       <c r="D31" s="247"/>
       <c r="E31" s="247"/>
       <c r="F31" s="247"/>
@@ -15973,16 +15998,16 @@
       <c r="P31" s="102"/>
       <c r="Q31" s="103"/>
     </row>
-    <row r="32" spans="2:17" ht="20.5" thickBot="1">
+    <row r="32" spans="2:17" ht="20.25" thickBot="1">
       <c r="B32" s="92">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C32" s="248"/>
-      <c r="D32" s="249"/>
-      <c r="E32" s="249"/>
-      <c r="F32" s="249"/>
-      <c r="G32" s="249"/>
+      <c r="C32" s="245"/>
+      <c r="D32" s="248"/>
+      <c r="E32" s="248"/>
+      <c r="F32" s="248"/>
+      <c r="G32" s="248"/>
       <c r="H32" s="113" t="s">
         <v>303</v>
       </c>
@@ -16004,7 +16029,7 @@
       <c r="P32" s="102"/>
       <c r="Q32" s="103"/>
     </row>
-    <row r="33" spans="2:17" ht="20">
+    <row r="33" spans="2:17" ht="19.5">
       <c r="B33" s="116"/>
       <c r="C33" s="117"/>
       <c r="D33" s="117"/>
@@ -16022,7 +16047,7 @@
       <c r="P33" s="102"/>
       <c r="Q33" s="103"/>
     </row>
-    <row r="34" spans="2:17" ht="20">
+    <row r="34" spans="2:17" ht="19.5">
       <c r="B34" s="117"/>
       <c r="C34" s="121"/>
       <c r="D34" s="117"/>
@@ -16039,7 +16064,7 @@
       <c r="P34" s="102"/>
       <c r="Q34" s="103"/>
     </row>
-    <row r="35" spans="2:17" ht="20">
+    <row r="35" spans="2:17" ht="19.5">
       <c r="B35" s="117"/>
       <c r="C35" s="121"/>
       <c r="D35" s="117"/>
@@ -16057,7 +16082,7 @@
       <c r="P35" s="102"/>
       <c r="Q35" s="103"/>
     </row>
-    <row r="36" spans="2:17" ht="20">
+    <row r="36" spans="2:17" ht="19.5">
       <c r="B36" s="117"/>
       <c r="C36" s="121"/>
       <c r="D36" s="117"/>
@@ -16075,7 +16100,7 @@
       <c r="P36" s="102"/>
       <c r="Q36" s="103"/>
     </row>
-    <row r="37" spans="2:17" ht="20">
+    <row r="37" spans="2:17" ht="19.5">
       <c r="B37" s="117"/>
       <c r="C37" s="121"/>
       <c r="D37" s="117"/>
@@ -16093,7 +16118,7 @@
       <c r="P37" s="102"/>
       <c r="Q37" s="103"/>
     </row>
-    <row r="38" spans="2:17" ht="20">
+    <row r="38" spans="2:17" ht="19.5">
       <c r="B38" s="117"/>
       <c r="C38" s="121"/>
       <c r="D38" s="117"/>
@@ -16111,7 +16136,7 @@
       <c r="P38" s="102"/>
       <c r="Q38" s="103"/>
     </row>
-    <row r="39" spans="2:17" ht="20">
+    <row r="39" spans="2:17" ht="19.5">
       <c r="B39" s="117"/>
       <c r="C39" s="123"/>
       <c r="D39" s="123"/>
@@ -16129,7 +16154,7 @@
       <c r="P39" s="102"/>
       <c r="Q39" s="103"/>
     </row>
-    <row r="40" spans="2:17" ht="20">
+    <row r="40" spans="2:17" ht="19.5">
       <c r="B40" s="117"/>
       <c r="C40" s="123"/>
       <c r="D40" s="123"/>
@@ -16147,7 +16172,7 @@
       <c r="P40" s="102"/>
       <c r="Q40" s="103"/>
     </row>
-    <row r="41" spans="2:17" ht="20">
+    <row r="41" spans="2:17" ht="19.5">
       <c r="B41" s="117"/>
       <c r="C41" s="123"/>
       <c r="D41" s="123"/>
@@ -16165,7 +16190,7 @@
       <c r="P41" s="102"/>
       <c r="Q41" s="103"/>
     </row>
-    <row r="42" spans="2:17" ht="20">
+    <row r="42" spans="2:17" ht="19.5">
       <c r="B42" s="117"/>
       <c r="C42" s="123"/>
       <c r="D42" s="123"/>
@@ -16183,7 +16208,7 @@
       <c r="P42" s="102"/>
       <c r="Q42" s="103"/>
     </row>
-    <row r="43" spans="2:17" ht="20">
+    <row r="43" spans="2:17" ht="19.5">
       <c r="B43" s="117"/>
       <c r="C43" s="123"/>
       <c r="D43" s="117"/>
@@ -16201,7 +16226,7 @@
       <c r="P43" s="102"/>
       <c r="Q43" s="103"/>
     </row>
-    <row r="44" spans="2:17" ht="20">
+    <row r="44" spans="2:17" ht="19.5">
       <c r="B44" s="117"/>
       <c r="C44" s="123"/>
       <c r="D44" s="123"/>
@@ -16219,7 +16244,7 @@
       <c r="P44" s="102"/>
       <c r="Q44" s="103"/>
     </row>
-    <row r="45" spans="2:17" ht="20">
+    <row r="45" spans="2:17" ht="19.5">
       <c r="B45" s="117"/>
       <c r="C45" s="123"/>
       <c r="D45" s="123"/>
@@ -16237,7 +16262,7 @@
       <c r="P45" s="102"/>
       <c r="Q45" s="103"/>
     </row>
-    <row r="46" spans="2:17" ht="20">
+    <row r="46" spans="2:17" ht="19.5">
       <c r="B46" s="117"/>
       <c r="C46" s="123"/>
       <c r="D46" s="123"/>
@@ -16255,7 +16280,7 @@
       <c r="P46" s="102"/>
       <c r="Q46" s="103"/>
     </row>
-    <row r="47" spans="2:17" ht="20">
+    <row r="47" spans="2:17" ht="19.5">
       <c r="B47" s="117"/>
       <c r="C47" s="117"/>
       <c r="D47" s="117"/>
@@ -16273,7 +16298,7 @@
       <c r="P47" s="102"/>
       <c r="Q47" s="101"/>
     </row>
-    <row r="48" spans="2:17" ht="20">
+    <row r="48" spans="2:17" ht="19.5">
       <c r="B48" s="117"/>
       <c r="C48" s="121"/>
       <c r="D48" s="117"/>
@@ -16291,7 +16316,7 @@
       <c r="P48" s="102"/>
       <c r="Q48" s="103"/>
     </row>
-    <row r="49" spans="2:17" ht="20">
+    <row r="49" spans="2:17" ht="19.5">
       <c r="B49" s="117"/>
       <c r="C49" s="121"/>
       <c r="D49" s="117"/>
@@ -16309,7 +16334,7 @@
       <c r="P49" s="102"/>
       <c r="Q49" s="103"/>
     </row>
-    <row r="50" spans="2:17" ht="20">
+    <row r="50" spans="2:17" ht="19.5">
       <c r="B50" s="117"/>
       <c r="C50" s="121"/>
       <c r="D50" s="117"/>
@@ -16327,7 +16352,7 @@
       <c r="P50" s="102"/>
       <c r="Q50" s="103"/>
     </row>
-    <row r="51" spans="2:17" ht="20">
+    <row r="51" spans="2:17" ht="19.5">
       <c r="B51" s="117"/>
       <c r="C51" s="121"/>
       <c r="D51" s="117"/>
@@ -16345,7 +16370,7 @@
       <c r="P51" s="102"/>
       <c r="Q51" s="103"/>
     </row>
-    <row r="52" spans="2:17" ht="20">
+    <row r="52" spans="2:17" ht="19.5">
       <c r="B52" s="117"/>
       <c r="C52" s="121"/>
       <c r="D52" s="117"/>
@@ -16363,7 +16388,7 @@
       <c r="P52" s="102"/>
       <c r="Q52" s="103"/>
     </row>
-    <row r="53" spans="2:17" ht="20">
+    <row r="53" spans="2:17" ht="19.5">
       <c r="B53" s="117"/>
       <c r="C53" s="121"/>
       <c r="D53" s="117"/>
@@ -16381,7 +16406,7 @@
       <c r="P53" s="102"/>
       <c r="Q53" s="103"/>
     </row>
-    <row r="54" spans="2:17" ht="20">
+    <row r="54" spans="2:17" ht="19.5">
       <c r="B54" s="117"/>
       <c r="C54" s="121"/>
       <c r="D54" s="117"/>
@@ -16399,7 +16424,7 @@
       <c r="P54" s="102"/>
       <c r="Q54" s="103"/>
     </row>
-    <row r="55" spans="2:17" ht="20">
+    <row r="55" spans="2:17" ht="19.5">
       <c r="B55" s="117"/>
       <c r="C55" s="121"/>
       <c r="D55" s="117"/>
@@ -16417,7 +16442,7 @@
       <c r="P55" s="102"/>
       <c r="Q55" s="103"/>
     </row>
-    <row r="56" spans="2:17" ht="20">
+    <row r="56" spans="2:17" ht="19.5">
       <c r="B56" s="117"/>
       <c r="C56" s="121"/>
       <c r="D56" s="117"/>
@@ -16435,7 +16460,7 @@
       <c r="P56" s="102"/>
       <c r="Q56" s="103"/>
     </row>
-    <row r="57" spans="2:17" ht="20">
+    <row r="57" spans="2:17" ht="19.5">
       <c r="B57" s="117"/>
       <c r="C57" s="121"/>
       <c r="D57" s="117"/>
@@ -16453,7 +16478,7 @@
       <c r="P57" s="102"/>
       <c r="Q57" s="103"/>
     </row>
-    <row r="58" spans="2:17" ht="20">
+    <row r="58" spans="2:17" ht="19.5">
       <c r="B58" s="117"/>
       <c r="C58" s="121"/>
       <c r="D58" s="117"/>
@@ -16471,7 +16496,7 @@
       <c r="P58" s="102"/>
       <c r="Q58" s="103"/>
     </row>
-    <row r="59" spans="2:17" ht="20">
+    <row r="59" spans="2:17" ht="19.5">
       <c r="B59" s="117"/>
       <c r="C59" s="121"/>
       <c r="D59" s="117"/>
@@ -16489,7 +16514,7 @@
       <c r="P59" s="102"/>
       <c r="Q59" s="103"/>
     </row>
-    <row r="60" spans="2:17" ht="20">
+    <row r="60" spans="2:17" ht="19.5">
       <c r="B60" s="117"/>
       <c r="C60" s="121"/>
       <c r="D60" s="117"/>
@@ -16507,7 +16532,7 @@
       <c r="P60" s="102"/>
       <c r="Q60" s="103"/>
     </row>
-    <row r="61" spans="2:17" ht="20">
+    <row r="61" spans="2:17" ht="19.5">
       <c r="B61" s="117"/>
       <c r="C61" s="121"/>
       <c r="D61" s="117"/>
@@ -16525,7 +16550,7 @@
       <c r="P61" s="102"/>
       <c r="Q61" s="103"/>
     </row>
-    <row r="62" spans="2:17" ht="20">
+    <row r="62" spans="2:17" ht="19.5">
       <c r="B62" s="117"/>
       <c r="C62" s="121"/>
       <c r="D62" s="117"/>
@@ -16543,7 +16568,7 @@
       <c r="P62" s="102"/>
       <c r="Q62" s="103"/>
     </row>
-    <row r="63" spans="2:17" ht="20">
+    <row r="63" spans="2:17" ht="19.5">
       <c r="B63" s="117"/>
       <c r="C63" s="121"/>
       <c r="D63" s="117"/>
@@ -16561,7 +16586,7 @@
       <c r="P63" s="102"/>
       <c r="Q63" s="103"/>
     </row>
-    <row r="64" spans="2:17" ht="20">
+    <row r="64" spans="2:17" ht="19.5">
       <c r="B64" s="117"/>
       <c r="C64" s="121"/>
       <c r="D64" s="117"/>
@@ -16579,7 +16604,7 @@
       <c r="P64" s="102"/>
       <c r="Q64" s="103"/>
     </row>
-    <row r="65" spans="2:17" ht="20">
+    <row r="65" spans="2:17" ht="19.5">
       <c r="B65" s="117"/>
       <c r="C65" s="121"/>
       <c r="D65" s="117"/>
@@ -16597,7 +16622,7 @@
       <c r="P65" s="102"/>
       <c r="Q65" s="103"/>
     </row>
-    <row r="66" spans="2:17" ht="20">
+    <row r="66" spans="2:17" ht="19.5">
       <c r="B66" s="117"/>
       <c r="C66" s="121"/>
       <c r="D66" s="117"/>
@@ -16615,7 +16640,7 @@
       <c r="P66" s="102"/>
       <c r="Q66" s="103"/>
     </row>
-    <row r="67" spans="2:17" ht="20">
+    <row r="67" spans="2:17" ht="19.5">
       <c r="B67" s="117"/>
       <c r="C67" s="121"/>
       <c r="D67" s="117"/>
@@ -16633,7 +16658,7 @@
       <c r="P67" s="102"/>
       <c r="Q67" s="103"/>
     </row>
-    <row r="68" spans="2:17" ht="20">
+    <row r="68" spans="2:17" ht="19.5">
       <c r="B68" s="117"/>
       <c r="C68" s="121"/>
       <c r="D68" s="117"/>
@@ -16651,7 +16676,7 @@
       <c r="P68" s="102"/>
       <c r="Q68" s="103"/>
     </row>
-    <row r="69" spans="2:17" ht="20">
+    <row r="69" spans="2:17" ht="19.5">
       <c r="B69" s="117"/>
       <c r="C69" s="121"/>
       <c r="D69" s="117"/>
@@ -16669,7 +16694,7 @@
       <c r="P69" s="102"/>
       <c r="Q69" s="103"/>
     </row>
-    <row r="70" spans="2:17" ht="20">
+    <row r="70" spans="2:17" ht="19.5">
       <c r="B70" s="117"/>
       <c r="C70" s="121"/>
       <c r="D70" s="117"/>
@@ -16687,7 +16712,7 @@
       <c r="P70" s="102"/>
       <c r="Q70" s="103"/>
     </row>
-    <row r="71" spans="2:17" ht="20">
+    <row r="71" spans="2:17" ht="19.5">
       <c r="B71" s="117"/>
       <c r="C71" s="121"/>
       <c r="D71" s="117"/>
@@ -16705,7 +16730,7 @@
       <c r="P71" s="102"/>
       <c r="Q71" s="103"/>
     </row>
-    <row r="72" spans="2:17" ht="20">
+    <row r="72" spans="2:17" ht="19.5">
       <c r="B72" s="117"/>
       <c r="C72" s="121"/>
       <c r="D72" s="117"/>
@@ -16723,7 +16748,7 @@
       <c r="P72" s="102"/>
       <c r="Q72" s="103"/>
     </row>
-    <row r="73" spans="2:17" ht="20">
+    <row r="73" spans="2:17" ht="19.5">
       <c r="B73" s="117"/>
       <c r="C73" s="121"/>
       <c r="D73" s="117"/>
@@ -16741,7 +16766,7 @@
       <c r="P73" s="102"/>
       <c r="Q73" s="103"/>
     </row>
-    <row r="74" spans="2:17" ht="20">
+    <row r="74" spans="2:17" ht="19.5">
       <c r="B74" s="117"/>
       <c r="C74" s="121"/>
       <c r="D74" s="117"/>
@@ -16759,7 +16784,7 @@
       <c r="P74" s="102"/>
       <c r="Q74" s="103"/>
     </row>
-    <row r="75" spans="2:17" ht="20">
+    <row r="75" spans="2:17" ht="19.5">
       <c r="B75" s="117"/>
       <c r="C75" s="121"/>
       <c r="D75" s="117"/>
@@ -16777,7 +16802,7 @@
       <c r="P75" s="102"/>
       <c r="Q75" s="103"/>
     </row>
-    <row r="76" spans="2:17" ht="20">
+    <row r="76" spans="2:17" ht="19.5">
       <c r="B76" s="117"/>
       <c r="C76" s="121"/>
       <c r="D76" s="117"/>
@@ -16795,7 +16820,7 @@
       <c r="P76" s="102"/>
       <c r="Q76" s="103"/>
     </row>
-    <row r="77" spans="2:17" ht="20">
+    <row r="77" spans="2:17" ht="19.5">
       <c r="B77" s="117"/>
       <c r="C77" s="121"/>
       <c r="D77" s="117"/>
@@ -16813,7 +16838,7 @@
       <c r="P77" s="102"/>
       <c r="Q77" s="103"/>
     </row>
-    <row r="78" spans="2:17" ht="20">
+    <row r="78" spans="2:17" ht="19.5">
       <c r="B78" s="117"/>
       <c r="C78" s="121"/>
       <c r="D78" s="117"/>
@@ -16831,7 +16856,7 @@
       <c r="P78" s="102"/>
       <c r="Q78" s="103"/>
     </row>
-    <row r="79" spans="2:17" ht="20">
+    <row r="79" spans="2:17" ht="19.5">
       <c r="B79" s="117"/>
       <c r="C79" s="121"/>
       <c r="D79" s="117"/>
@@ -16849,7 +16874,7 @@
       <c r="P79" s="102"/>
       <c r="Q79" s="103"/>
     </row>
-    <row r="80" spans="2:17" ht="20">
+    <row r="80" spans="2:17" ht="19.5">
       <c r="B80" s="117"/>
       <c r="C80" s="121"/>
       <c r="D80" s="117"/>
@@ -16867,7 +16892,7 @@
       <c r="P80" s="102"/>
       <c r="Q80" s="103"/>
     </row>
-    <row r="81" spans="2:17" ht="20">
+    <row r="81" spans="2:17" ht="19.5">
       <c r="B81" s="117"/>
       <c r="C81" s="121"/>
       <c r="D81" s="117"/>
@@ -16885,7 +16910,7 @@
       <c r="P81" s="102"/>
       <c r="Q81" s="103"/>
     </row>
-    <row r="82" spans="2:17" ht="20">
+    <row r="82" spans="2:17" ht="19.5">
       <c r="B82" s="117"/>
       <c r="C82" s="121"/>
       <c r="D82" s="117"/>
@@ -16903,7 +16928,7 @@
       <c r="P82" s="102"/>
       <c r="Q82" s="103"/>
     </row>
-    <row r="83" spans="2:17" ht="20">
+    <row r="83" spans="2:17" ht="19.5">
       <c r="B83" s="117"/>
       <c r="C83" s="121"/>
       <c r="D83" s="117"/>
@@ -16921,7 +16946,7 @@
       <c r="P83" s="102"/>
       <c r="Q83" s="103"/>
     </row>
-    <row r="84" spans="2:17" ht="20">
+    <row r="84" spans="2:17" ht="19.5">
       <c r="B84" s="117"/>
       <c r="C84" s="121"/>
       <c r="D84" s="117"/>
@@ -16939,7 +16964,7 @@
       <c r="P84" s="102"/>
       <c r="Q84" s="103"/>
     </row>
-    <row r="85" spans="2:17" ht="20">
+    <row r="85" spans="2:17" ht="19.5">
       <c r="B85" s="117"/>
       <c r="C85" s="121"/>
       <c r="D85" s="117"/>
@@ -16957,7 +16982,7 @@
       <c r="P85" s="102"/>
       <c r="Q85" s="103"/>
     </row>
-    <row r="86" spans="2:17" ht="20">
+    <row r="86" spans="2:17" ht="19.5">
       <c r="B86" s="117"/>
       <c r="C86" s="121"/>
       <c r="D86" s="117"/>
@@ -16975,7 +17000,7 @@
       <c r="P86" s="102"/>
       <c r="Q86" s="103"/>
     </row>
-    <row r="87" spans="2:17" ht="20">
+    <row r="87" spans="2:17" ht="19.5">
       <c r="B87" s="117"/>
       <c r="C87" s="121"/>
       <c r="D87" s="117"/>
@@ -16993,7 +17018,7 @@
       <c r="P87" s="102"/>
       <c r="Q87" s="103"/>
     </row>
-    <row r="88" spans="2:17" ht="20">
+    <row r="88" spans="2:17" ht="19.5">
       <c r="B88" s="117"/>
       <c r="C88" s="121"/>
       <c r="D88" s="117"/>
@@ -17011,7 +17036,7 @@
       <c r="P88" s="102"/>
       <c r="Q88" s="103"/>
     </row>
-    <row r="89" spans="2:17" ht="20">
+    <row r="89" spans="2:17" ht="19.5">
       <c r="B89" s="117"/>
       <c r="C89" s="121"/>
       <c r="D89" s="117"/>
@@ -17029,7 +17054,7 @@
       <c r="P89" s="102"/>
       <c r="Q89" s="103"/>
     </row>
-    <row r="90" spans="2:17" ht="20">
+    <row r="90" spans="2:17" ht="19.5">
       <c r="B90" s="117"/>
       <c r="C90" s="117"/>
       <c r="D90" s="117"/>
@@ -17047,7 +17072,7 @@
       <c r="P90" s="102"/>
       <c r="Q90" s="103"/>
     </row>
-    <row r="91" spans="2:17" ht="20">
+    <row r="91" spans="2:17" ht="19.5">
       <c r="B91" s="117"/>
       <c r="C91" s="121"/>
       <c r="D91" s="117"/>
@@ -17065,7 +17090,7 @@
       <c r="P91" s="102"/>
       <c r="Q91" s="103"/>
     </row>
-    <row r="92" spans="2:17" ht="20">
+    <row r="92" spans="2:17" ht="19.5">
       <c r="B92" s="117"/>
       <c r="C92" s="121"/>
       <c r="D92" s="117"/>
@@ -17083,7 +17108,7 @@
       <c r="P92" s="102"/>
       <c r="Q92" s="103"/>
     </row>
-    <row r="93" spans="2:17" ht="20">
+    <row r="93" spans="2:17" ht="19.5">
       <c r="B93" s="117"/>
       <c r="C93" s="117"/>
       <c r="D93" s="117"/>
@@ -17101,7 +17126,7 @@
       <c r="P93" s="102"/>
       <c r="Q93" s="103"/>
     </row>
-    <row r="94" spans="2:17" ht="20">
+    <row r="94" spans="2:17" ht="19.5">
       <c r="B94" s="117"/>
       <c r="C94" s="121"/>
       <c r="D94" s="117"/>
@@ -17119,7 +17144,7 @@
       <c r="P94" s="102"/>
       <c r="Q94" s="103"/>
     </row>
-    <row r="95" spans="2:17" ht="20">
+    <row r="95" spans="2:17" ht="19.5">
       <c r="B95" s="117"/>
       <c r="C95" s="121"/>
       <c r="D95" s="117"/>
@@ -17137,7 +17162,7 @@
       <c r="P95" s="102"/>
       <c r="Q95" s="103"/>
     </row>
-    <row r="96" spans="2:17" ht="20">
+    <row r="96" spans="2:17" ht="19.5">
       <c r="B96" s="117"/>
       <c r="C96" s="121"/>
       <c r="D96" s="117"/>
@@ -17155,7 +17180,7 @@
       <c r="P96" s="102"/>
       <c r="Q96" s="103"/>
     </row>
-    <row r="97" spans="2:17" ht="20.5" thickBot="1">
+    <row r="97" spans="2:17" ht="20.25" thickBot="1">
       <c r="B97" s="117"/>
       <c r="C97" s="121"/>
       <c r="D97" s="117"/>
@@ -17173,7 +17198,7 @@
       <c r="P97" s="98"/>
       <c r="Q97" s="99"/>
     </row>
-    <row r="99" spans="2:17" ht="22.5">
+    <row r="99" spans="2:17" ht="24">
       <c r="B99" s="128"/>
       <c r="C99" s="128"/>
       <c r="J99" s="129"/>
@@ -17215,17 +17240,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="G30:G32"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="C5:C29"/>
     <mergeCell ref="D5:D29"/>
     <mergeCell ref="E5:E29"/>
     <mergeCell ref="F5:F29"/>
     <mergeCell ref="G5:G29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="G30:G32"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17237,39 +17262,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0AE119-65D3-49E1-9EEC-FB514797854E}">
   <dimension ref="A1:Q102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="3.25" style="88" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" style="88" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.58203125" style="88" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.83203125" style="88" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="88" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.875" style="88" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="48.25" style="88" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.08203125" style="88" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="88" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="91.75" style="88" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.08203125" style="88" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.125" style="88" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.58203125" style="88" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.625" style="88" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="89" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.75" style="88" customWidth="1"/>
     <col min="14" max="14" width="11.5" style="88" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="49.58203125" style="88" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="49.625" style="88" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="11.25" style="89" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="12.4140625" style="88" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.58203125" style="88"/>
+    <col min="17" max="17" width="12.375" style="88" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.625" style="88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="29">
+    <row r="1" spans="1:17" ht="30">
       <c r="A1" s="87" t="s">
         <v>410</v>
       </c>
       <c r="D1" s="140"/>
     </row>
-    <row r="2" spans="1:17" ht="18.5" thickBot="1"/>
-    <row r="3" spans="1:17" ht="40.5" thickBot="1">
+    <row r="2" spans="1:17" ht="19.5" thickBot="1"/>
+    <row r="3" spans="1:17" ht="39.75" thickBot="1">
       <c r="B3" s="90" t="s">
         <v>3</v>
       </c>
@@ -17319,7 +17344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="140.5" thickBot="1">
+    <row r="4" spans="1:17" ht="137.25" thickBot="1">
       <c r="B4" s="92">
         <f>ROW(B4)-ROW($B$3)</f>
         <v>1</v>
@@ -17355,14 +17380,14 @@
         <v>435</v>
       </c>
       <c r="M4" s="127" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="N4" s="100"/>
       <c r="O4" s="101"/>
       <c r="P4" s="102"/>
       <c r="Q4" s="103"/>
     </row>
-    <row r="5" spans="1:17" ht="20.5" customHeight="1" thickBot="1">
+    <row r="5" spans="1:17" ht="20.45" customHeight="1" thickBot="1">
       <c r="B5" s="92">
         <f t="shared" ref="B5:B32" si="0">ROW(B5)-ROW($B$3)</f>
         <v>2</v>
@@ -17403,7 +17428,7 @@
       <c r="P5" s="102"/>
       <c r="Q5" s="103"/>
     </row>
-    <row r="6" spans="1:17" ht="20.5" thickBot="1">
+    <row r="6" spans="1:17" ht="20.25" thickBot="1">
       <c r="B6" s="92">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -17434,7 +17459,7 @@
       <c r="P6" s="102"/>
       <c r="Q6" s="103"/>
     </row>
-    <row r="7" spans="1:17" ht="20.5" thickBot="1">
+    <row r="7" spans="1:17" ht="20.25" thickBot="1">
       <c r="B7" s="92">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -17465,7 +17490,7 @@
       <c r="P7" s="102"/>
       <c r="Q7" s="103"/>
     </row>
-    <row r="8" spans="1:17" ht="20.5" thickBot="1">
+    <row r="8" spans="1:17" ht="20.25" thickBot="1">
       <c r="B8" s="92">
         <f>ROW(B8)-ROW($B$3)</f>
         <v>5</v>
@@ -17496,7 +17521,7 @@
       <c r="P8" s="102"/>
       <c r="Q8" s="103"/>
     </row>
-    <row r="9" spans="1:17" ht="20.5" thickBot="1">
+    <row r="9" spans="1:17" ht="20.25" thickBot="1">
       <c r="B9" s="92">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -17527,7 +17552,7 @@
       <c r="P9" s="102"/>
       <c r="Q9" s="103"/>
     </row>
-    <row r="10" spans="1:17" ht="20.5" thickBot="1">
+    <row r="10" spans="1:17" ht="20.25" thickBot="1">
       <c r="B10" s="92">
         <f>ROW(B10)-ROW($B$3)</f>
         <v>7</v>
@@ -17558,7 +17583,7 @@
       <c r="P10" s="102"/>
       <c r="Q10" s="103"/>
     </row>
-    <row r="11" spans="1:17" ht="20.5" thickBot="1">
+    <row r="11" spans="1:17" ht="20.25" thickBot="1">
       <c r="B11" s="92">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -17589,7 +17614,7 @@
       <c r="P11" s="102"/>
       <c r="Q11" s="103"/>
     </row>
-    <row r="12" spans="1:17" ht="20.5" thickBot="1">
+    <row r="12" spans="1:17" ht="20.25" thickBot="1">
       <c r="B12" s="92">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -17620,7 +17645,7 @@
       <c r="P12" s="102"/>
       <c r="Q12" s="103"/>
     </row>
-    <row r="13" spans="1:17" ht="20.5" thickBot="1">
+    <row r="13" spans="1:17" ht="20.25" thickBot="1">
       <c r="B13" s="92">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -17651,7 +17676,7 @@
       <c r="P13" s="102"/>
       <c r="Q13" s="103"/>
     </row>
-    <row r="14" spans="1:17" ht="20.5" thickBot="1">
+    <row r="14" spans="1:17" ht="20.25" thickBot="1">
       <c r="B14" s="92">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -17682,7 +17707,7 @@
       <c r="P14" s="102"/>
       <c r="Q14" s="103"/>
     </row>
-    <row r="15" spans="1:17" ht="20.5" thickBot="1">
+    <row r="15" spans="1:17" ht="20.25" thickBot="1">
       <c r="B15" s="92">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -17713,7 +17738,7 @@
       <c r="P15" s="102"/>
       <c r="Q15" s="103"/>
     </row>
-    <row r="16" spans="1:17" ht="20.5" thickBot="1">
+    <row r="16" spans="1:17" ht="20.25" thickBot="1">
       <c r="B16" s="92">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -17744,7 +17769,7 @@
       <c r="P16" s="102"/>
       <c r="Q16" s="103"/>
     </row>
-    <row r="17" spans="2:17" ht="20.5" thickBot="1">
+    <row r="17" spans="2:17" ht="20.25" thickBot="1">
       <c r="B17" s="92">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -17775,7 +17800,7 @@
       <c r="P17" s="102"/>
       <c r="Q17" s="103"/>
     </row>
-    <row r="18" spans="2:17" ht="20.5" thickBot="1">
+    <row r="18" spans="2:17" ht="20.25" thickBot="1">
       <c r="B18" s="92">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -17806,7 +17831,7 @@
       <c r="P18" s="102"/>
       <c r="Q18" s="103"/>
     </row>
-    <row r="19" spans="2:17" ht="20.5" thickBot="1">
+    <row r="19" spans="2:17" ht="20.25" thickBot="1">
       <c r="B19" s="92">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -17837,7 +17862,7 @@
       <c r="P19" s="102"/>
       <c r="Q19" s="103"/>
     </row>
-    <row r="20" spans="2:17" ht="20.5" thickBot="1">
+    <row r="20" spans="2:17" ht="20.25" thickBot="1">
       <c r="B20" s="92">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -17868,7 +17893,7 @@
       <c r="P20" s="102"/>
       <c r="Q20" s="103"/>
     </row>
-    <row r="21" spans="2:17" ht="20.5" thickBot="1">
+    <row r="21" spans="2:17" ht="20.25" thickBot="1">
       <c r="B21" s="92">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -17899,7 +17924,7 @@
       <c r="P21" s="102"/>
       <c r="Q21" s="103"/>
     </row>
-    <row r="22" spans="2:17" ht="20.5" thickBot="1">
+    <row r="22" spans="2:17" ht="20.25" thickBot="1">
       <c r="B22" s="92">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -17930,7 +17955,7 @@
       <c r="P22" s="102"/>
       <c r="Q22" s="103"/>
     </row>
-    <row r="23" spans="2:17" ht="20.5" thickBot="1">
+    <row r="23" spans="2:17" ht="20.25" thickBot="1">
       <c r="B23" s="92">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -17961,7 +17986,7 @@
       <c r="P23" s="102"/>
       <c r="Q23" s="103"/>
     </row>
-    <row r="24" spans="2:17" ht="20.5" thickBot="1">
+    <row r="24" spans="2:17" ht="20.25" thickBot="1">
       <c r="B24" s="92">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -17992,7 +18017,7 @@
       <c r="P24" s="102"/>
       <c r="Q24" s="103"/>
     </row>
-    <row r="25" spans="2:17" ht="20.5" thickBot="1">
+    <row r="25" spans="2:17" ht="20.25" thickBot="1">
       <c r="B25" s="92">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -18023,7 +18048,7 @@
       <c r="P25" s="102"/>
       <c r="Q25" s="103"/>
     </row>
-    <row r="26" spans="2:17" ht="20.5" thickBot="1">
+    <row r="26" spans="2:17" ht="20.25" thickBot="1">
       <c r="B26" s="92">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -18054,7 +18079,7 @@
       <c r="P26" s="102"/>
       <c r="Q26" s="103"/>
     </row>
-    <row r="27" spans="2:17" ht="20.5" thickBot="1">
+    <row r="27" spans="2:17" ht="20.25" thickBot="1">
       <c r="B27" s="92">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -18085,7 +18110,7 @@
       <c r="P27" s="102"/>
       <c r="Q27" s="103"/>
     </row>
-    <row r="28" spans="2:17" ht="20.5" thickBot="1">
+    <row r="28" spans="2:17" ht="20.25" thickBot="1">
       <c r="B28" s="92">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -18116,16 +18141,16 @@
       <c r="P28" s="102"/>
       <c r="Q28" s="103"/>
     </row>
-    <row r="29" spans="2:17" ht="20.5" thickBot="1">
+    <row r="29" spans="2:17" ht="20.25" thickBot="1">
       <c r="B29" s="92">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C29" s="252"/>
       <c r="D29" s="255"/>
-      <c r="E29" s="249"/>
-      <c r="F29" s="249"/>
-      <c r="G29" s="249"/>
+      <c r="E29" s="248"/>
+      <c r="F29" s="248"/>
+      <c r="G29" s="248"/>
       <c r="H29" s="141">
         <v>255</v>
       </c>
@@ -18147,12 +18172,12 @@
       <c r="P29" s="102"/>
       <c r="Q29" s="103"/>
     </row>
-    <row r="30" spans="2:17" ht="20.5" thickBot="1">
+    <row r="30" spans="2:17" ht="20.25" thickBot="1">
       <c r="B30" s="92">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C30" s="244" t="s">
+      <c r="C30" s="243" t="s">
         <v>424</v>
       </c>
       <c r="D30" s="246" t="s">
@@ -18188,12 +18213,12 @@
       <c r="P30" s="102"/>
       <c r="Q30" s="103"/>
     </row>
-    <row r="31" spans="2:17" ht="80.5" thickBot="1">
+    <row r="31" spans="2:17" ht="78.75" thickBot="1">
       <c r="B31" s="92">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C31" s="245"/>
+      <c r="C31" s="244"/>
       <c r="D31" s="247"/>
       <c r="E31" s="247"/>
       <c r="F31" s="247"/>
@@ -18214,23 +18239,23 @@
         <v>435</v>
       </c>
       <c r="M31" s="138" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="N31" s="115"/>
       <c r="O31" s="101"/>
       <c r="P31" s="102"/>
       <c r="Q31" s="103"/>
     </row>
-    <row r="32" spans="2:17" ht="20.5" thickBot="1">
+    <row r="32" spans="2:17" ht="20.25" thickBot="1">
       <c r="B32" s="92">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C32" s="248"/>
-      <c r="D32" s="249"/>
-      <c r="E32" s="249"/>
-      <c r="F32" s="249"/>
-      <c r="G32" s="249"/>
+      <c r="C32" s="245"/>
+      <c r="D32" s="248"/>
+      <c r="E32" s="248"/>
+      <c r="F32" s="248"/>
+      <c r="G32" s="248"/>
       <c r="H32" s="113" t="s">
         <v>303</v>
       </c>
@@ -18252,7 +18277,7 @@
       <c r="P32" s="102"/>
       <c r="Q32" s="103"/>
     </row>
-    <row r="33" spans="2:17" ht="20">
+    <row r="33" spans="2:17" ht="19.5">
       <c r="B33" s="116"/>
       <c r="C33" s="117"/>
       <c r="D33" s="117"/>
@@ -18270,7 +18295,7 @@
       <c r="P33" s="102"/>
       <c r="Q33" s="103"/>
     </row>
-    <row r="34" spans="2:17" ht="20">
+    <row r="34" spans="2:17" ht="19.5">
       <c r="B34" s="117"/>
       <c r="C34" s="121"/>
       <c r="D34" s="117"/>
@@ -18287,7 +18312,7 @@
       <c r="P34" s="102"/>
       <c r="Q34" s="103"/>
     </row>
-    <row r="35" spans="2:17" ht="20">
+    <row r="35" spans="2:17" ht="19.5">
       <c r="B35" s="117"/>
       <c r="C35" s="121"/>
       <c r="D35" s="117"/>
@@ -18305,7 +18330,7 @@
       <c r="P35" s="102"/>
       <c r="Q35" s="103"/>
     </row>
-    <row r="36" spans="2:17" ht="20">
+    <row r="36" spans="2:17" ht="19.5">
       <c r="B36" s="117"/>
       <c r="C36" s="121"/>
       <c r="D36" s="117"/>
@@ -18323,7 +18348,7 @@
       <c r="P36" s="102"/>
       <c r="Q36" s="103"/>
     </row>
-    <row r="37" spans="2:17" ht="20">
+    <row r="37" spans="2:17" ht="19.5">
       <c r="B37" s="117"/>
       <c r="C37" s="121"/>
       <c r="D37" s="117"/>
@@ -18341,7 +18366,7 @@
       <c r="P37" s="102"/>
       <c r="Q37" s="103"/>
     </row>
-    <row r="38" spans="2:17" ht="20">
+    <row r="38" spans="2:17" ht="19.5">
       <c r="B38" s="117"/>
       <c r="C38" s="121"/>
       <c r="D38" s="117"/>
@@ -18359,7 +18384,7 @@
       <c r="P38" s="102"/>
       <c r="Q38" s="103"/>
     </row>
-    <row r="39" spans="2:17" ht="20">
+    <row r="39" spans="2:17" ht="19.5">
       <c r="B39" s="117"/>
       <c r="C39" s="123"/>
       <c r="D39" s="123"/>
@@ -18377,7 +18402,7 @@
       <c r="P39" s="102"/>
       <c r="Q39" s="103"/>
     </row>
-    <row r="40" spans="2:17" ht="20">
+    <row r="40" spans="2:17" ht="19.5">
       <c r="B40" s="117"/>
       <c r="C40" s="123"/>
       <c r="D40" s="123"/>
@@ -18395,7 +18420,7 @@
       <c r="P40" s="102"/>
       <c r="Q40" s="103"/>
     </row>
-    <row r="41" spans="2:17" ht="20">
+    <row r="41" spans="2:17" ht="19.5">
       <c r="B41" s="117"/>
       <c r="C41" s="123"/>
       <c r="D41" s="123"/>
@@ -18413,7 +18438,7 @@
       <c r="P41" s="102"/>
       <c r="Q41" s="103"/>
     </row>
-    <row r="42" spans="2:17" ht="20">
+    <row r="42" spans="2:17" ht="19.5">
       <c r="B42" s="117"/>
       <c r="C42" s="123"/>
       <c r="D42" s="123"/>
@@ -18431,7 +18456,7 @@
       <c r="P42" s="102"/>
       <c r="Q42" s="103"/>
     </row>
-    <row r="43" spans="2:17" ht="20">
+    <row r="43" spans="2:17" ht="19.5">
       <c r="B43" s="117"/>
       <c r="C43" s="123"/>
       <c r="D43" s="117"/>
@@ -18449,7 +18474,7 @@
       <c r="P43" s="102"/>
       <c r="Q43" s="103"/>
     </row>
-    <row r="44" spans="2:17" ht="20">
+    <row r="44" spans="2:17" ht="19.5">
       <c r="B44" s="117"/>
       <c r="C44" s="123"/>
       <c r="D44" s="123"/>
@@ -18467,7 +18492,7 @@
       <c r="P44" s="102"/>
       <c r="Q44" s="103"/>
     </row>
-    <row r="45" spans="2:17" ht="20">
+    <row r="45" spans="2:17" ht="19.5">
       <c r="B45" s="117"/>
       <c r="C45" s="123"/>
       <c r="D45" s="123"/>
@@ -18485,7 +18510,7 @@
       <c r="P45" s="102"/>
       <c r="Q45" s="103"/>
     </row>
-    <row r="46" spans="2:17" ht="20">
+    <row r="46" spans="2:17" ht="19.5">
       <c r="B46" s="117"/>
       <c r="C46" s="123"/>
       <c r="D46" s="123"/>
@@ -18503,7 +18528,7 @@
       <c r="P46" s="102"/>
       <c r="Q46" s="103"/>
     </row>
-    <row r="47" spans="2:17" ht="20">
+    <row r="47" spans="2:17" ht="19.5">
       <c r="B47" s="117"/>
       <c r="C47" s="117"/>
       <c r="D47" s="117"/>
@@ -18521,7 +18546,7 @@
       <c r="P47" s="102"/>
       <c r="Q47" s="101"/>
     </row>
-    <row r="48" spans="2:17" ht="20">
+    <row r="48" spans="2:17" ht="19.5">
       <c r="B48" s="117"/>
       <c r="C48" s="121"/>
       <c r="D48" s="117"/>
@@ -18539,7 +18564,7 @@
       <c r="P48" s="102"/>
       <c r="Q48" s="103"/>
     </row>
-    <row r="49" spans="2:17" ht="20">
+    <row r="49" spans="2:17" ht="19.5">
       <c r="B49" s="117"/>
       <c r="C49" s="121"/>
       <c r="D49" s="117"/>
@@ -18557,7 +18582,7 @@
       <c r="P49" s="102"/>
       <c r="Q49" s="103"/>
     </row>
-    <row r="50" spans="2:17" ht="20">
+    <row r="50" spans="2:17" ht="19.5">
       <c r="B50" s="117"/>
       <c r="C50" s="121"/>
       <c r="D50" s="117"/>
@@ -18575,7 +18600,7 @@
       <c r="P50" s="102"/>
       <c r="Q50" s="103"/>
     </row>
-    <row r="51" spans="2:17" ht="20">
+    <row r="51" spans="2:17" ht="19.5">
       <c r="B51" s="117"/>
       <c r="C51" s="121"/>
       <c r="D51" s="117"/>
@@ -18593,7 +18618,7 @@
       <c r="P51" s="102"/>
       <c r="Q51" s="103"/>
     </row>
-    <row r="52" spans="2:17" ht="20">
+    <row r="52" spans="2:17" ht="19.5">
       <c r="B52" s="117"/>
       <c r="C52" s="121"/>
       <c r="D52" s="117"/>
@@ -18611,7 +18636,7 @@
       <c r="P52" s="102"/>
       <c r="Q52" s="103"/>
     </row>
-    <row r="53" spans="2:17" ht="20.5" thickBot="1">
+    <row r="53" spans="2:17" ht="20.25" thickBot="1">
       <c r="B53" s="117"/>
       <c r="C53" s="121"/>
       <c r="D53" s="117"/>
@@ -18629,7 +18654,7 @@
       <c r="P53" s="102"/>
       <c r="Q53" s="103"/>
     </row>
-    <row r="54" spans="2:17" ht="20.5" thickBot="1">
+    <row r="54" spans="2:17" ht="20.25" thickBot="1">
       <c r="B54" s="117"/>
       <c r="C54" s="121"/>
       <c r="D54" s="117"/>
@@ -18647,7 +18672,7 @@
       <c r="P54" s="102"/>
       <c r="Q54" s="103"/>
     </row>
-    <row r="55" spans="2:17" ht="20.5" thickBot="1">
+    <row r="55" spans="2:17" ht="20.25" thickBot="1">
       <c r="B55" s="117"/>
       <c r="C55" s="121"/>
       <c r="D55" s="117"/>
@@ -18665,7 +18690,7 @@
       <c r="P55" s="102"/>
       <c r="Q55" s="103"/>
     </row>
-    <row r="56" spans="2:17" ht="20.5" thickBot="1">
+    <row r="56" spans="2:17" ht="20.25" thickBot="1">
       <c r="B56" s="117"/>
       <c r="C56" s="121"/>
       <c r="D56" s="117"/>
@@ -18683,7 +18708,7 @@
       <c r="P56" s="102"/>
       <c r="Q56" s="103"/>
     </row>
-    <row r="57" spans="2:17" ht="20.5" thickBot="1">
+    <row r="57" spans="2:17" ht="20.25" thickBot="1">
       <c r="B57" s="117"/>
       <c r="C57" s="121"/>
       <c r="D57" s="117"/>
@@ -18701,7 +18726,7 @@
       <c r="P57" s="102"/>
       <c r="Q57" s="103"/>
     </row>
-    <row r="58" spans="2:17" ht="20.5" thickBot="1">
+    <row r="58" spans="2:17" ht="20.25" thickBot="1">
       <c r="B58" s="117"/>
       <c r="C58" s="121"/>
       <c r="D58" s="117"/>
@@ -18719,7 +18744,7 @@
       <c r="P58" s="102"/>
       <c r="Q58" s="103"/>
     </row>
-    <row r="59" spans="2:17" ht="20.5" thickBot="1">
+    <row r="59" spans="2:17" ht="20.25" thickBot="1">
       <c r="B59" s="117"/>
       <c r="C59" s="121"/>
       <c r="D59" s="117"/>
@@ -18737,7 +18762,7 @@
       <c r="P59" s="102"/>
       <c r="Q59" s="103"/>
     </row>
-    <row r="60" spans="2:17" ht="20.5" thickBot="1">
+    <row r="60" spans="2:17" ht="20.25" thickBot="1">
       <c r="B60" s="117"/>
       <c r="C60" s="121"/>
       <c r="D60" s="117"/>
@@ -18755,7 +18780,7 @@
       <c r="P60" s="102"/>
       <c r="Q60" s="103"/>
     </row>
-    <row r="61" spans="2:17" ht="20.5" thickBot="1">
+    <row r="61" spans="2:17" ht="20.25" thickBot="1">
       <c r="B61" s="117"/>
       <c r="C61" s="121"/>
       <c r="D61" s="117"/>
@@ -18773,7 +18798,7 @@
       <c r="P61" s="102"/>
       <c r="Q61" s="103"/>
     </row>
-    <row r="62" spans="2:17" ht="20.5" thickBot="1">
+    <row r="62" spans="2:17" ht="20.25" thickBot="1">
       <c r="B62" s="117"/>
       <c r="C62" s="121"/>
       <c r="D62" s="117"/>
@@ -18791,7 +18816,7 @@
       <c r="P62" s="102"/>
       <c r="Q62" s="103"/>
     </row>
-    <row r="63" spans="2:17" ht="20.5" thickBot="1">
+    <row r="63" spans="2:17" ht="20.25" thickBot="1">
       <c r="B63" s="117"/>
       <c r="C63" s="121"/>
       <c r="D63" s="117"/>
@@ -18809,7 +18834,7 @@
       <c r="P63" s="102"/>
       <c r="Q63" s="103"/>
     </row>
-    <row r="64" spans="2:17" ht="20.5" thickBot="1">
+    <row r="64" spans="2:17" ht="20.25" thickBot="1">
       <c r="B64" s="117"/>
       <c r="C64" s="121"/>
       <c r="D64" s="117"/>
@@ -18827,7 +18852,7 @@
       <c r="P64" s="102"/>
       <c r="Q64" s="103"/>
     </row>
-    <row r="65" spans="2:17" ht="20.5" thickBot="1">
+    <row r="65" spans="2:17" ht="20.25" thickBot="1">
       <c r="B65" s="117"/>
       <c r="C65" s="121"/>
       <c r="D65" s="117"/>
@@ -18845,7 +18870,7 @@
       <c r="P65" s="102"/>
       <c r="Q65" s="103"/>
     </row>
-    <row r="66" spans="2:17" ht="20.5" thickBot="1">
+    <row r="66" spans="2:17" ht="20.25" thickBot="1">
       <c r="B66" s="117"/>
       <c r="C66" s="121"/>
       <c r="D66" s="117"/>
@@ -18863,7 +18888,7 @@
       <c r="P66" s="102"/>
       <c r="Q66" s="103"/>
     </row>
-    <row r="67" spans="2:17" ht="20.5" thickBot="1">
+    <row r="67" spans="2:17" ht="20.25" thickBot="1">
       <c r="B67" s="117"/>
       <c r="C67" s="121"/>
       <c r="D67" s="117"/>
@@ -18881,7 +18906,7 @@
       <c r="P67" s="102"/>
       <c r="Q67" s="103"/>
     </row>
-    <row r="68" spans="2:17" ht="20.5" thickBot="1">
+    <row r="68" spans="2:17" ht="20.25" thickBot="1">
       <c r="B68" s="117"/>
       <c r="C68" s="121"/>
       <c r="D68" s="117"/>
@@ -18899,7 +18924,7 @@
       <c r="P68" s="102"/>
       <c r="Q68" s="103"/>
     </row>
-    <row r="69" spans="2:17" ht="20.5" thickBot="1">
+    <row r="69" spans="2:17" ht="20.25" thickBot="1">
       <c r="B69" s="117"/>
       <c r="C69" s="121"/>
       <c r="D69" s="117"/>
@@ -18917,7 +18942,7 @@
       <c r="P69" s="102"/>
       <c r="Q69" s="103"/>
     </row>
-    <row r="70" spans="2:17" ht="20.5" thickBot="1">
+    <row r="70" spans="2:17" ht="20.25" thickBot="1">
       <c r="B70" s="117"/>
       <c r="C70" s="121"/>
       <c r="D70" s="117"/>
@@ -18935,7 +18960,7 @@
       <c r="P70" s="102"/>
       <c r="Q70" s="103"/>
     </row>
-    <row r="71" spans="2:17" ht="20.5" thickBot="1">
+    <row r="71" spans="2:17" ht="20.25" thickBot="1">
       <c r="B71" s="117"/>
       <c r="C71" s="121"/>
       <c r="D71" s="117"/>
@@ -18953,7 +18978,7 @@
       <c r="P71" s="102"/>
       <c r="Q71" s="103"/>
     </row>
-    <row r="72" spans="2:17" ht="20">
+    <row r="72" spans="2:17" ht="19.5">
       <c r="B72" s="117"/>
       <c r="C72" s="121"/>
       <c r="D72" s="117"/>
@@ -18971,7 +18996,7 @@
       <c r="P72" s="102"/>
       <c r="Q72" s="103"/>
     </row>
-    <row r="73" spans="2:17" ht="20">
+    <row r="73" spans="2:17" ht="19.5">
       <c r="B73" s="117"/>
       <c r="C73" s="121"/>
       <c r="D73" s="117"/>
@@ -18989,7 +19014,7 @@
       <c r="P73" s="102"/>
       <c r="Q73" s="103"/>
     </row>
-    <row r="74" spans="2:17" ht="20">
+    <row r="74" spans="2:17" ht="19.5">
       <c r="B74" s="117"/>
       <c r="C74" s="121"/>
       <c r="D74" s="117"/>
@@ -19007,7 +19032,7 @@
       <c r="P74" s="102"/>
       <c r="Q74" s="103"/>
     </row>
-    <row r="75" spans="2:17" ht="20">
+    <row r="75" spans="2:17" ht="19.5">
       <c r="B75" s="117"/>
       <c r="C75" s="121"/>
       <c r="D75" s="117"/>
@@ -19025,7 +19050,7 @@
       <c r="P75" s="102"/>
       <c r="Q75" s="103"/>
     </row>
-    <row r="76" spans="2:17" ht="20">
+    <row r="76" spans="2:17" ht="19.5">
       <c r="B76" s="117"/>
       <c r="C76" s="121"/>
       <c r="D76" s="117"/>
@@ -19043,7 +19068,7 @@
       <c r="P76" s="102"/>
       <c r="Q76" s="103"/>
     </row>
-    <row r="77" spans="2:17" ht="20">
+    <row r="77" spans="2:17" ht="19.5">
       <c r="B77" s="117"/>
       <c r="C77" s="121"/>
       <c r="D77" s="117"/>
@@ -19061,7 +19086,7 @@
       <c r="P77" s="102"/>
       <c r="Q77" s="103"/>
     </row>
-    <row r="78" spans="2:17" ht="20">
+    <row r="78" spans="2:17" ht="19.5">
       <c r="B78" s="117"/>
       <c r="C78" s="121"/>
       <c r="D78" s="117"/>
@@ -19079,7 +19104,7 @@
       <c r="P78" s="102"/>
       <c r="Q78" s="103"/>
     </row>
-    <row r="79" spans="2:17" ht="20">
+    <row r="79" spans="2:17" ht="19.5">
       <c r="B79" s="117"/>
       <c r="C79" s="121"/>
       <c r="D79" s="117"/>
@@ -19097,7 +19122,7 @@
       <c r="P79" s="102"/>
       <c r="Q79" s="103"/>
     </row>
-    <row r="80" spans="2:17" ht="20">
+    <row r="80" spans="2:17" ht="19.5">
       <c r="B80" s="117"/>
       <c r="C80" s="121"/>
       <c r="D80" s="117"/>
@@ -19115,7 +19140,7 @@
       <c r="P80" s="102"/>
       <c r="Q80" s="103"/>
     </row>
-    <row r="81" spans="2:17" ht="20">
+    <row r="81" spans="2:17" ht="19.5">
       <c r="B81" s="117"/>
       <c r="C81" s="121"/>
       <c r="D81" s="117"/>
@@ -19133,7 +19158,7 @@
       <c r="P81" s="102"/>
       <c r="Q81" s="103"/>
     </row>
-    <row r="82" spans="2:17" ht="20">
+    <row r="82" spans="2:17" ht="19.5">
       <c r="B82" s="117"/>
       <c r="C82" s="121"/>
       <c r="D82" s="117"/>
@@ -19151,7 +19176,7 @@
       <c r="P82" s="102"/>
       <c r="Q82" s="103"/>
     </row>
-    <row r="83" spans="2:17" ht="20">
+    <row r="83" spans="2:17" ht="19.5">
       <c r="B83" s="117"/>
       <c r="C83" s="121"/>
       <c r="D83" s="117"/>
@@ -19169,7 +19194,7 @@
       <c r="P83" s="102"/>
       <c r="Q83" s="103"/>
     </row>
-    <row r="84" spans="2:17" ht="20">
+    <row r="84" spans="2:17" ht="19.5">
       <c r="B84" s="117"/>
       <c r="C84" s="121"/>
       <c r="D84" s="117"/>
@@ -19187,7 +19212,7 @@
       <c r="P84" s="102"/>
       <c r="Q84" s="103"/>
     </row>
-    <row r="85" spans="2:17" ht="20">
+    <row r="85" spans="2:17" ht="19.5">
       <c r="B85" s="117"/>
       <c r="C85" s="121"/>
       <c r="D85" s="117"/>
@@ -19205,7 +19230,7 @@
       <c r="P85" s="102"/>
       <c r="Q85" s="103"/>
     </row>
-    <row r="86" spans="2:17" ht="20">
+    <row r="86" spans="2:17" ht="19.5">
       <c r="B86" s="117"/>
       <c r="C86" s="121"/>
       <c r="D86" s="117"/>
@@ -19223,7 +19248,7 @@
       <c r="P86" s="102"/>
       <c r="Q86" s="103"/>
     </row>
-    <row r="87" spans="2:17" ht="20">
+    <row r="87" spans="2:17" ht="19.5">
       <c r="B87" s="117"/>
       <c r="C87" s="121"/>
       <c r="D87" s="117"/>
@@ -19241,7 +19266,7 @@
       <c r="P87" s="102"/>
       <c r="Q87" s="103"/>
     </row>
-    <row r="88" spans="2:17" ht="20">
+    <row r="88" spans="2:17" ht="19.5">
       <c r="B88" s="117"/>
       <c r="C88" s="121"/>
       <c r="D88" s="117"/>
@@ -19259,7 +19284,7 @@
       <c r="P88" s="102"/>
       <c r="Q88" s="103"/>
     </row>
-    <row r="89" spans="2:17" ht="20">
+    <row r="89" spans="2:17" ht="19.5">
       <c r="B89" s="117"/>
       <c r="C89" s="121"/>
       <c r="D89" s="117"/>
@@ -19277,7 +19302,7 @@
       <c r="P89" s="102"/>
       <c r="Q89" s="103"/>
     </row>
-    <row r="90" spans="2:17" ht="20">
+    <row r="90" spans="2:17" ht="19.5">
       <c r="B90" s="117"/>
       <c r="C90" s="117"/>
       <c r="D90" s="117"/>
@@ -19295,7 +19320,7 @@
       <c r="P90" s="102"/>
       <c r="Q90" s="103"/>
     </row>
-    <row r="91" spans="2:17" ht="20">
+    <row r="91" spans="2:17" ht="19.5">
       <c r="B91" s="117"/>
       <c r="C91" s="121"/>
       <c r="D91" s="117"/>
@@ -19313,7 +19338,7 @@
       <c r="P91" s="102"/>
       <c r="Q91" s="103"/>
     </row>
-    <row r="92" spans="2:17" ht="20">
+    <row r="92" spans="2:17" ht="19.5">
       <c r="B92" s="117"/>
       <c r="C92" s="121"/>
       <c r="D92" s="117"/>
@@ -19331,7 +19356,7 @@
       <c r="P92" s="102"/>
       <c r="Q92" s="103"/>
     </row>
-    <row r="93" spans="2:17" ht="20">
+    <row r="93" spans="2:17" ht="19.5">
       <c r="B93" s="117"/>
       <c r="C93" s="117"/>
       <c r="D93" s="117"/>
@@ -19349,7 +19374,7 @@
       <c r="P93" s="102"/>
       <c r="Q93" s="103"/>
     </row>
-    <row r="94" spans="2:17" ht="20">
+    <row r="94" spans="2:17" ht="19.5">
       <c r="B94" s="117"/>
       <c r="C94" s="121"/>
       <c r="D94" s="117"/>
@@ -19367,7 +19392,7 @@
       <c r="P94" s="102"/>
       <c r="Q94" s="103"/>
     </row>
-    <row r="95" spans="2:17" ht="20">
+    <row r="95" spans="2:17" ht="19.5">
       <c r="B95" s="117"/>
       <c r="C95" s="121"/>
       <c r="D95" s="117"/>
@@ -19385,7 +19410,7 @@
       <c r="P95" s="102"/>
       <c r="Q95" s="103"/>
     </row>
-    <row r="96" spans="2:17" ht="20">
+    <row r="96" spans="2:17" ht="19.5">
       <c r="B96" s="117"/>
       <c r="C96" s="121"/>
       <c r="D96" s="117"/>
@@ -19403,7 +19428,7 @@
       <c r="P96" s="102"/>
       <c r="Q96" s="103"/>
     </row>
-    <row r="97" spans="2:17" ht="20.5" thickBot="1">
+    <row r="97" spans="2:17" ht="20.25" thickBot="1">
       <c r="B97" s="117"/>
       <c r="C97" s="121"/>
       <c r="D97" s="117"/>
@@ -19421,7 +19446,7 @@
       <c r="P97" s="98"/>
       <c r="Q97" s="99"/>
     </row>
-    <row r="99" spans="2:17" ht="22.5">
+    <row r="99" spans="2:17" ht="24">
       <c r="B99" s="128"/>
       <c r="C99" s="128"/>
       <c r="J99" s="129"/>
@@ -19463,16 +19488,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C5:C29"/>
+    <mergeCell ref="D5:D29"/>
+    <mergeCell ref="E5:E29"/>
+    <mergeCell ref="G5:G29"/>
+    <mergeCell ref="F5:F29"/>
     <mergeCell ref="C30:C32"/>
     <mergeCell ref="D30:D32"/>
     <mergeCell ref="E30:E32"/>
     <mergeCell ref="F30:F32"/>
     <mergeCell ref="G30:G32"/>
-    <mergeCell ref="C5:C29"/>
-    <mergeCell ref="D5:D29"/>
-    <mergeCell ref="E5:E29"/>
-    <mergeCell ref="G5:G29"/>
-    <mergeCell ref="F5:F29"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19490,8 +19515,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="16.58203125" customWidth="1"/>
-    <col min="3" max="3" width="8.58203125" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="8.625" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -19938,10 +19963,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="5" max="5" width="8.58203125" style="71"/>
-    <col min="7" max="7" width="8.58203125" style="71"/>
-    <col min="9" max="9" width="8.58203125" style="71"/>
-    <col min="11" max="11" width="8.58203125" style="71"/>
+    <col min="5" max="5" width="8.625" style="71"/>
+    <col min="7" max="7" width="8.625" style="71"/>
+    <col min="9" max="9" width="8.625" style="71"/>
+    <col min="11" max="11" width="8.625" style="71"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="16.5" customHeight="1" thickBot="1"/>
@@ -20876,7 +20901,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="3.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="16.5" customHeight="1" thickBot="1"/>

--- a/資料/設計書/モグラ叩き_テスト仕様書.xlsx
+++ b/資料/設計書/モグラ叩き_テスト仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\新入社員教育資料\PIC研修\comp.train.whack-a-mole\資料\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA64217-CF14-4D8D-A4D9-7E11DB897FCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC55C25-F156-42D9-B590-012CDF8ADAEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="17270" windowHeight="8800" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="システムテスト" sheetId="4" state="hidden" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="506">
   <si>
     <t>マイコン：pic16f1827</t>
     <phoneticPr fontId="11"/>
@@ -4341,16 +4341,6 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>モグラ叩きテスト仕様書</t>
-    <rPh sb="3" eb="4">
-      <t>タタ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>シヨウショ</t>
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
@@ -8084,9 +8074,6 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>もぐら叩きゲームの仕様書を基に作成</t>
-  </si>
-  <si>
     <t>機能テスト</t>
     <rPh sb="0" eb="2">
       <t>キノウ</t>
@@ -8297,6 +8284,36 @@
     </rPh>
     <rPh sb="11" eb="14">
       <t>ササキ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>モグラ叩きテスト結果</t>
+    <rPh sb="3" eb="4">
+      <t>タタ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>モグラ叩きゲーム_仕様書.xlsxを基に作成</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>　※LEDの機能を実装したため、再度テストを実施した</t>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジッシ</t>
     </rPh>
     <phoneticPr fontId="10"/>
   </si>
@@ -9862,102 +9879,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -9979,6 +9900,102 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -12511,87 +12528,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A32E68F-C66F-4A0E-A737-97CAF588A932}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.5">
+    <row r="1" spans="1:7" ht="26.5">
       <c r="A1" s="224" t="s">
-        <v>302</v>
-      </c>
-      <c r="D1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>503</v>
+      </c>
+      <c r="E1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="B3" s="141" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="C4" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="C5" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="C6" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="C6" t="s">
+    <row r="8" spans="1:7">
+      <c r="B8" s="141" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="C9" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="C10" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="C11" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="141" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" s="141" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="C9" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="C10" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="C11" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="B13" s="141" t="s">
-        <v>483</v>
-      </c>
-      <c r="D13" s="270" t="s">
-        <v>499</v>
+      <c r="D13" s="238" t="s">
+        <v>497</v>
       </c>
       <c r="E13" s="227">
         <f>COUNT(機能テスト!$B$6:'機能テスト'!$B$100)</f>
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="C15" s="227"/>
-      <c r="D15" s="266" t="s">
-        <v>434</v>
-      </c>
-      <c r="E15" s="266" t="s">
-        <v>432</v>
-      </c>
-      <c r="F15" s="266" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="C16" s="267" t="s">
-        <v>484</v>
+      <c r="D15" s="234" t="s">
+        <v>433</v>
+      </c>
+      <c r="E15" s="234" t="s">
+        <v>431</v>
+      </c>
+      <c r="F15" s="234" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="C16" s="235" t="s">
+        <v>482</v>
       </c>
       <c r="D16" s="227">
         <f>COUNTIF(機能テスト!$H$6:'機能テスト'!$H$100,"OK")</f>
@@ -12605,54 +12622,57 @@
         <f>COUNTIF(機能テスト!$H$6:'機能テスト'!$H$100,"-")</f>
         <v>15</v>
       </c>
+      <c r="G16" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="C17" s="267" t="s">
-        <v>485</v>
+      <c r="C17" s="235" t="s">
+        <v>483</v>
       </c>
       <c r="D17" s="227">
         <f>COUNTIF(機能テスト!$K$6:'機能テスト'!$K$100,"OK")</f>
         <v>39</v>
       </c>
-      <c r="E17" s="265">
+      <c r="E17" s="233">
         <f>COUNTIF(機能テスト!$K$6:'機能テスト'!$K$100,"NG")</f>
         <v>0</v>
       </c>
-      <c r="F17" s="265">
+      <c r="F17" s="233">
         <f>COUNTIF(機能テスト!$K$6:'機能テスト'!$K$100,"-")</f>
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="C18" s="267" t="s">
-        <v>486</v>
+      <c r="C18" s="235" t="s">
+        <v>484</v>
       </c>
       <c r="D18" s="227">
         <f>COUNTIF(機能テスト!$N$6:'機能テスト'!$N$100,"OK")</f>
         <v>50</v>
       </c>
-      <c r="E18" s="265">
+      <c r="E18" s="233">
         <f>COUNTIF(機能テスト!$N$6:'機能テスト'!$N$100,"NG")</f>
         <v>0</v>
       </c>
-      <c r="F18" s="265">
+      <c r="F18" s="233">
         <f>COUNTIF(機能テスト!$N$6:'機能テスト'!$N$100,"-")</f>
         <v>4</v>
       </c>
       <c r="G18" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="C19" s="268"/>
+      <c r="C19" s="236"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="141" t="s">
-        <v>487</v>
-      </c>
-      <c r="C20" s="268"/>
-      <c r="D20" s="270" t="s">
-        <v>499</v>
+        <v>485</v>
+      </c>
+      <c r="C20" s="236"/>
+      <c r="D20" s="238" t="s">
+        <v>497</v>
       </c>
       <c r="E20" s="227">
         <f>COUNT(単体テスト1回目!$B$6:'単体テスト1回目'!$B$52)</f>
@@ -12660,23 +12680,23 @@
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="C21" s="268"/>
+      <c r="C21" s="236"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="C22" s="269"/>
-      <c r="D22" s="266" t="s">
-        <v>434</v>
-      </c>
-      <c r="E22" s="266" t="s">
-        <v>432</v>
-      </c>
-      <c r="F22" s="266" t="s">
-        <v>500</v>
+      <c r="C22" s="237"/>
+      <c r="D22" s="234" t="s">
+        <v>433</v>
+      </c>
+      <c r="E22" s="234" t="s">
+        <v>431</v>
+      </c>
+      <c r="F22" s="234" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="C23" s="267" t="s">
-        <v>484</v>
+      <c r="C23" s="235" t="s">
+        <v>482</v>
       </c>
       <c r="D23" s="227">
         <f>COUNTIF(単体テスト1回目!$L$6:'単体テスト1回目'!$L$52,"OK")</f>
@@ -12692,8 +12712,8 @@
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="C24" s="267" t="s">
-        <v>485</v>
+      <c r="C24" s="235" t="s">
+        <v>483</v>
       </c>
       <c r="D24" s="227">
         <f>COUNTIF(単体テスト2回目!$L$4:'単体テスト2回目'!$L$50,"OK")</f>
@@ -12719,7 +12739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63839AF-5F5D-4CBE-BE88-4757DF7AC5EF}">
   <dimension ref="A1:AD15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -12730,7 +12750,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="16.5" customHeight="1">
       <c r="A1" s="224" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="16.5" customHeight="1">
@@ -12738,40 +12758,40 @@
         <v>44098</v>
       </c>
       <c r="D3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="16.5" customHeight="1">
       <c r="D4" s="142" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="16.5" customHeight="1">
       <c r="E5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F5" s="141" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AD5" s="225"/>
     </row>
     <row r="6" spans="1:30" ht="16.5" customHeight="1">
       <c r="F6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="16.5" customHeight="1">
       <c r="F7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="16.5" customHeight="1">
@@ -12779,55 +12799,55 @@
         <v>44099</v>
       </c>
       <c r="D9" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G9" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="16.5" customHeight="1">
       <c r="D10" s="142" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="16.5" customHeight="1">
       <c r="D11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E11" s="141" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="16.5" customHeight="1">
       <c r="E12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="16.5" customHeight="1">
       <c r="D13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E13" s="141" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="16.5" customHeight="1">
       <c r="E14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="16.5" customHeight="1">
       <c r="E15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F15" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -12840,9 +12860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9E1831-B730-44C0-AF23-D23175585ED5}">
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18"/>
   <cols>
@@ -12866,96 +12884,96 @@
   <sheetData>
     <row r="1" spans="1:15" ht="29">
       <c r="A1" s="144" t="s">
-        <v>270</v>
-      </c>
-      <c r="D1" s="264" t="s">
-        <v>503</v>
+        <v>223</v>
+      </c>
+      <c r="D1" s="232" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="29">
       <c r="A2" s="144"/>
       <c r="D2" s="145" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="29.5" thickBot="1">
       <c r="A3" s="144"/>
     </row>
     <row r="4" spans="1:15" ht="18.5" thickBot="1">
-      <c r="B4" s="232" t="s">
+      <c r="B4" s="242" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="232" t="s">
+      <c r="C4" s="242" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="232" t="s">
-        <v>320</v>
-      </c>
-      <c r="E4" s="236" t="s">
+      <c r="D4" s="242" t="s">
+        <v>319</v>
+      </c>
+      <c r="E4" s="244" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="232" t="s">
+      <c r="F4" s="242" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="234" t="s">
+      <c r="G4" s="240" t="s">
+        <v>457</v>
+      </c>
+      <c r="H4" s="241"/>
+      <c r="I4" s="242" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="240" t="s">
         <v>458</v>
       </c>
-      <c r="H4" s="235"/>
-      <c r="I4" s="232" t="s">
+      <c r="K4" s="241"/>
+      <c r="L4" s="242" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="234" t="s">
+      <c r="M4" s="240" t="s">
         <v>459</v>
       </c>
-      <c r="K4" s="235"/>
-      <c r="L4" s="232" t="s">
+      <c r="N4" s="241"/>
+      <c r="O4" s="242" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="234" t="s">
-        <v>460</v>
-      </c>
-      <c r="N4" s="235"/>
-      <c r="O4" s="232" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="5" spans="1:15" ht="18.5" thickBot="1">
-      <c r="B5" s="233"/>
-      <c r="C5" s="233"/>
-      <c r="D5" s="233"/>
-      <c r="E5" s="237"/>
-      <c r="F5" s="233"/>
+      <c r="B5" s="243"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="245"/>
+      <c r="F5" s="243"/>
       <c r="G5" s="147" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="233"/>
+      <c r="I5" s="243"/>
       <c r="J5" s="149" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="233"/>
+      <c r="L5" s="243"/>
       <c r="M5" s="149" t="s">
         <v>8</v>
       </c>
       <c r="N5" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="233"/>
+      <c r="O5" s="243"/>
     </row>
     <row r="6" spans="1:15" ht="40.5" thickBot="1">
       <c r="B6" s="151">
         <v>1</v>
       </c>
       <c r="C6" s="152" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D6" s="153" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E6" s="226" t="s">
         <v>240</v>
@@ -12967,21 +12985,21 @@
         <v>44098</v>
       </c>
       <c r="H6" s="156" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I6" s="153"/>
       <c r="J6" s="157">
         <v>44099</v>
       </c>
       <c r="K6" s="158" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L6" s="153"/>
       <c r="M6" s="157">
         <v>44099</v>
       </c>
       <c r="N6" s="158" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O6" s="153"/>
     </row>
@@ -12991,33 +13009,33 @@
       </c>
       <c r="C7" s="159"/>
       <c r="D7" s="160" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E7" s="160" t="s">
         <v>241</v>
       </c>
       <c r="F7" s="160" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G7" s="161">
         <v>44098</v>
       </c>
       <c r="H7" s="162" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I7" s="154"/>
       <c r="J7" s="163">
         <v>44099</v>
       </c>
       <c r="K7" s="164" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L7" s="154"/>
       <c r="M7" s="163">
         <v>44099</v>
       </c>
       <c r="N7" s="164" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O7" s="154"/>
     </row>
@@ -13027,33 +13045,33 @@
       </c>
       <c r="C8" s="165"/>
       <c r="D8" s="160" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E8" s="160" t="s">
         <v>242</v>
       </c>
       <c r="F8" s="160" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G8" s="161">
         <v>44098</v>
       </c>
       <c r="H8" s="162" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I8" s="160"/>
       <c r="J8" s="163">
         <v>44099</v>
       </c>
       <c r="K8" s="164" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L8" s="160"/>
       <c r="M8" s="163">
         <v>44099</v>
       </c>
       <c r="N8" s="164" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O8" s="160"/>
     </row>
@@ -13063,33 +13081,33 @@
       </c>
       <c r="C9" s="165"/>
       <c r="D9" s="160" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E9" s="160" t="s">
         <v>243</v>
       </c>
       <c r="F9" s="160" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G9" s="161">
         <v>44098</v>
       </c>
       <c r="H9" s="166" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I9" s="160"/>
       <c r="J9" s="163">
         <v>44099</v>
       </c>
       <c r="K9" s="167" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L9" s="160"/>
       <c r="M9" s="163">
         <v>44099</v>
       </c>
       <c r="N9" s="167" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O9" s="160"/>
     </row>
@@ -13099,7 +13117,7 @@
       </c>
       <c r="C10" s="165"/>
       <c r="D10" s="160" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E10" s="160" t="s">
         <v>244</v>
@@ -13111,23 +13129,23 @@
         <v>44098</v>
       </c>
       <c r="H10" s="162" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I10" s="160" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J10" s="163">
         <v>44099</v>
       </c>
       <c r="K10" s="164" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L10" s="160"/>
       <c r="M10" s="163">
         <v>44099</v>
       </c>
       <c r="N10" s="164" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O10" s="160"/>
     </row>
@@ -13137,7 +13155,7 @@
       </c>
       <c r="C11" s="165"/>
       <c r="D11" s="160" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E11" s="160" t="s">
         <v>251</v>
@@ -13149,21 +13167,21 @@
         <v>44098</v>
       </c>
       <c r="H11" s="162" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I11" s="160"/>
       <c r="J11" s="163">
         <v>44099</v>
       </c>
       <c r="K11" s="164" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L11" s="160"/>
       <c r="M11" s="163">
         <v>44099</v>
       </c>
       <c r="N11" s="164" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O11" s="160"/>
     </row>
@@ -13173,7 +13191,7 @@
       </c>
       <c r="C12" s="165"/>
       <c r="D12" s="160" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E12" s="160" t="s">
         <v>252</v>
@@ -13185,21 +13203,21 @@
         <v>44098</v>
       </c>
       <c r="H12" s="162" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I12" s="160"/>
       <c r="J12" s="169">
         <v>44099</v>
       </c>
       <c r="K12" s="164" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L12" s="160"/>
       <c r="M12" s="169">
         <v>44099</v>
       </c>
       <c r="N12" s="164" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O12" s="160"/>
     </row>
@@ -13209,7 +13227,7 @@
       </c>
       <c r="C13" s="165"/>
       <c r="D13" s="170" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E13" s="170" t="s">
         <v>245</v>
@@ -13221,21 +13239,21 @@
         <v>44098</v>
       </c>
       <c r="H13" s="172" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I13" s="173"/>
       <c r="J13" s="174">
         <v>44099</v>
       </c>
       <c r="K13" s="175" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L13" s="173"/>
       <c r="M13" s="174">
         <v>44099</v>
       </c>
       <c r="N13" s="175" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O13" s="173"/>
     </row>
@@ -13244,10 +13262,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="152" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D14" s="153" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E14" s="153" t="s">
         <v>246</v>
@@ -13259,21 +13277,21 @@
         <v>44098</v>
       </c>
       <c r="H14" s="177" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I14" s="153"/>
       <c r="J14" s="178">
         <v>44099</v>
       </c>
       <c r="K14" s="179" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L14" s="153"/>
       <c r="M14" s="178">
         <v>44099</v>
       </c>
       <c r="N14" s="179" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O14" s="153"/>
     </row>
@@ -13283,7 +13301,7 @@
       </c>
       <c r="C15" s="159"/>
       <c r="D15" s="160" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E15" s="160" t="s">
         <v>247</v>
@@ -13295,21 +13313,21 @@
         <v>44098</v>
       </c>
       <c r="H15" s="162" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I15" s="160"/>
       <c r="J15" s="163">
         <v>44099</v>
       </c>
       <c r="K15" s="164" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L15" s="160"/>
       <c r="M15" s="163">
         <v>44099</v>
       </c>
       <c r="N15" s="164" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O15" s="160"/>
     </row>
@@ -13319,7 +13337,7 @@
       </c>
       <c r="C16" s="180"/>
       <c r="D16" s="170" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E16" s="170" t="s">
         <v>248</v>
@@ -13331,21 +13349,21 @@
         <v>44098</v>
       </c>
       <c r="H16" s="182" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I16" s="170"/>
       <c r="J16" s="183">
         <v>44099</v>
       </c>
       <c r="K16" s="184" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L16" s="170"/>
       <c r="M16" s="183">
         <v>44099</v>
       </c>
       <c r="N16" s="184" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O16" s="170"/>
     </row>
@@ -13354,38 +13372,38 @@
         <v>12</v>
       </c>
       <c r="C17" s="165" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D17" s="153" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E17" s="153" t="s">
         <v>250</v>
       </c>
       <c r="F17" s="153" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G17" s="168">
         <v>44098</v>
       </c>
       <c r="H17" s="166" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I17" s="153" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="J17" s="169">
         <v>44099</v>
       </c>
       <c r="K17" s="167" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L17" s="153"/>
       <c r="M17" s="169">
         <v>44099</v>
       </c>
       <c r="N17" s="167" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O17" s="153"/>
     </row>
@@ -13395,33 +13413,33 @@
       </c>
       <c r="C18" s="165"/>
       <c r="D18" s="170" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E18" s="170" t="s">
         <v>249</v>
       </c>
       <c r="F18" s="170" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G18" s="171">
         <v>44098</v>
       </c>
       <c r="H18" s="172" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I18" s="185"/>
       <c r="J18" s="174">
         <v>44099</v>
       </c>
       <c r="K18" s="175" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L18" s="185"/>
       <c r="M18" s="174">
         <v>44099</v>
       </c>
       <c r="N18" s="175" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O18" s="185"/>
     </row>
@@ -13430,36 +13448,36 @@
         <v>14</v>
       </c>
       <c r="C19" s="186" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D19" s="185" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E19" s="170" t="s">
         <v>253</v>
       </c>
       <c r="F19" s="187" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G19" s="188">
         <v>44098</v>
       </c>
       <c r="H19" s="189" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I19" s="153"/>
       <c r="J19" s="190">
         <v>44099</v>
       </c>
       <c r="K19" s="191" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L19" s="153"/>
       <c r="M19" s="190">
         <v>44099</v>
       </c>
       <c r="N19" s="191" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O19" s="153"/>
     </row>
@@ -13468,40 +13486,40 @@
         <v>15</v>
       </c>
       <c r="C20" s="152" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D20" s="153" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E20" s="153" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F20" s="153" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G20" s="192" t="s">
+        <v>465</v>
+      </c>
+      <c r="H20" s="166" t="s">
+        <v>465</v>
+      </c>
+      <c r="I20" s="228" t="s">
+        <v>489</v>
+      </c>
+      <c r="J20" s="193" t="s">
         <v>466</v>
       </c>
-      <c r="H20" s="166" t="s">
+      <c r="K20" s="167" t="s">
         <v>466</v>
       </c>
-      <c r="I20" s="228" t="s">
-        <v>491</v>
-      </c>
-      <c r="J20" s="193" t="s">
-        <v>467</v>
-      </c>
-      <c r="K20" s="167" t="s">
-        <v>467</v>
-      </c>
       <c r="L20" s="228" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="M20" s="193">
         <v>44099</v>
       </c>
       <c r="N20" s="167" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O20" s="153"/>
     </row>
@@ -13511,37 +13529,37 @@
       </c>
       <c r="C21" s="159"/>
       <c r="D21" s="160" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E21" s="160" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F21" s="160" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G21" s="194" t="s">
+        <v>465</v>
+      </c>
+      <c r="H21" s="162" t="s">
+        <v>465</v>
+      </c>
+      <c r="I21" s="229" t="s">
+        <v>490</v>
+      </c>
+      <c r="J21" s="195" t="s">
         <v>466</v>
       </c>
-      <c r="H21" s="162" t="s">
+      <c r="K21" s="164" t="s">
         <v>466</v>
       </c>
-      <c r="I21" s="229" t="s">
-        <v>492</v>
-      </c>
-      <c r="J21" s="195" t="s">
-        <v>467</v>
-      </c>
-      <c r="K21" s="164" t="s">
-        <v>467</v>
-      </c>
       <c r="L21" s="229" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M21" s="195">
         <v>44099</v>
       </c>
       <c r="N21" s="164" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O21" s="160"/>
     </row>
@@ -13551,37 +13569,37 @@
       </c>
       <c r="C22" s="159"/>
       <c r="D22" s="160" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E22" s="160" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F22" s="160" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G22" s="194" t="s">
+        <v>465</v>
+      </c>
+      <c r="H22" s="162" t="s">
+        <v>465</v>
+      </c>
+      <c r="I22" s="229" t="s">
+        <v>490</v>
+      </c>
+      <c r="J22" s="195" t="s">
         <v>466</v>
       </c>
-      <c r="H22" s="162" t="s">
+      <c r="K22" s="164" t="s">
         <v>466</v>
       </c>
-      <c r="I22" s="229" t="s">
-        <v>492</v>
-      </c>
-      <c r="J22" s="195" t="s">
-        <v>467</v>
-      </c>
-      <c r="K22" s="164" t="s">
-        <v>467</v>
-      </c>
       <c r="L22" s="229" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M22" s="195">
         <v>44099</v>
       </c>
       <c r="N22" s="164" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O22" s="160"/>
     </row>
@@ -13591,37 +13609,37 @@
       </c>
       <c r="C23" s="159"/>
       <c r="D23" s="160" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E23" s="160" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F23" s="160" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G23" s="194" t="s">
+        <v>465</v>
+      </c>
+      <c r="H23" s="162" t="s">
+        <v>465</v>
+      </c>
+      <c r="I23" s="229" t="s">
+        <v>490</v>
+      </c>
+      <c r="J23" s="195" t="s">
         <v>466</v>
       </c>
-      <c r="H23" s="162" t="s">
+      <c r="K23" s="164" t="s">
         <v>466</v>
       </c>
-      <c r="I23" s="229" t="s">
-        <v>492</v>
-      </c>
-      <c r="J23" s="195" t="s">
-        <v>467</v>
-      </c>
-      <c r="K23" s="164" t="s">
-        <v>467</v>
-      </c>
       <c r="L23" s="229" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M23" s="195">
         <v>44099</v>
       </c>
       <c r="N23" s="164" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O23" s="160"/>
     </row>
@@ -13631,7 +13649,7 @@
       </c>
       <c r="C24" s="196"/>
       <c r="D24" s="160" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E24" s="160" t="s">
         <v>254</v>
@@ -13640,28 +13658,28 @@
         <v>255</v>
       </c>
       <c r="G24" s="194" t="s">
+        <v>465</v>
+      </c>
+      <c r="H24" s="162" t="s">
+        <v>465</v>
+      </c>
+      <c r="I24" s="229" t="s">
+        <v>490</v>
+      </c>
+      <c r="J24" s="195" t="s">
         <v>466</v>
       </c>
-      <c r="H24" s="162" t="s">
+      <c r="K24" s="164" t="s">
         <v>466</v>
       </c>
-      <c r="I24" s="229" t="s">
-        <v>492</v>
-      </c>
-      <c r="J24" s="195" t="s">
-        <v>467</v>
-      </c>
-      <c r="K24" s="164" t="s">
-        <v>467</v>
-      </c>
       <c r="L24" s="229" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M24" s="195">
         <v>44099</v>
       </c>
       <c r="N24" s="164" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O24" s="160"/>
     </row>
@@ -13671,37 +13689,37 @@
       </c>
       <c r="C25" s="159"/>
       <c r="D25" s="160" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E25" s="160" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F25" s="197" t="s">
         <v>256</v>
       </c>
       <c r="G25" s="194" t="s">
+        <v>465</v>
+      </c>
+      <c r="H25" s="162" t="s">
+        <v>465</v>
+      </c>
+      <c r="I25" s="229" t="s">
+        <v>490</v>
+      </c>
+      <c r="J25" s="195" t="s">
         <v>466</v>
       </c>
-      <c r="H25" s="162" t="s">
+      <c r="K25" s="164" t="s">
         <v>466</v>
       </c>
-      <c r="I25" s="229" t="s">
-        <v>492</v>
-      </c>
-      <c r="J25" s="195" t="s">
-        <v>467</v>
-      </c>
-      <c r="K25" s="164" t="s">
-        <v>467</v>
-      </c>
       <c r="L25" s="229" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M25" s="195">
         <v>44099</v>
       </c>
       <c r="N25" s="164" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O25" s="160"/>
     </row>
@@ -13711,37 +13729,37 @@
       </c>
       <c r="C26" s="196"/>
       <c r="D26" s="160" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E26" s="160" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F26" s="197" t="s">
         <v>257</v>
       </c>
       <c r="G26" s="194" t="s">
+        <v>465</v>
+      </c>
+      <c r="H26" s="162" t="s">
+        <v>465</v>
+      </c>
+      <c r="I26" s="229" t="s">
+        <v>490</v>
+      </c>
+      <c r="J26" s="195" t="s">
         <v>466</v>
       </c>
-      <c r="H26" s="162" t="s">
+      <c r="K26" s="164" t="s">
         <v>466</v>
       </c>
-      <c r="I26" s="229" t="s">
-        <v>492</v>
-      </c>
-      <c r="J26" s="195" t="s">
-        <v>467</v>
-      </c>
-      <c r="K26" s="164" t="s">
-        <v>467</v>
-      </c>
       <c r="L26" s="229" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M26" s="195">
         <v>44099</v>
       </c>
       <c r="N26" s="164" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O26" s="160"/>
     </row>
@@ -13751,37 +13769,37 @@
       </c>
       <c r="C27" s="196"/>
       <c r="D27" s="160" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E27" s="160" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F27" s="197" t="s">
         <v>259</v>
       </c>
       <c r="G27" s="194" t="s">
+        <v>465</v>
+      </c>
+      <c r="H27" s="162" t="s">
+        <v>465</v>
+      </c>
+      <c r="I27" s="229" t="s">
+        <v>490</v>
+      </c>
+      <c r="J27" s="195" t="s">
         <v>466</v>
       </c>
-      <c r="H27" s="162" t="s">
+      <c r="K27" s="164" t="s">
         <v>466</v>
       </c>
-      <c r="I27" s="229" t="s">
-        <v>492</v>
-      </c>
-      <c r="J27" s="195" t="s">
-        <v>467</v>
-      </c>
-      <c r="K27" s="164" t="s">
-        <v>467</v>
-      </c>
       <c r="L27" s="229" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M27" s="195">
         <v>44099</v>
       </c>
       <c r="N27" s="164" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O27" s="160"/>
     </row>
@@ -13791,37 +13809,37 @@
       </c>
       <c r="C28" s="196"/>
       <c r="D28" s="160" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E28" s="160" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F28" s="197" t="s">
         <v>258</v>
       </c>
       <c r="G28" s="194" t="s">
+        <v>465</v>
+      </c>
+      <c r="H28" s="162" t="s">
+        <v>465</v>
+      </c>
+      <c r="I28" s="229" t="s">
+        <v>490</v>
+      </c>
+      <c r="J28" s="195" t="s">
         <v>466</v>
       </c>
-      <c r="H28" s="162" t="s">
+      <c r="K28" s="164" t="s">
         <v>466</v>
       </c>
-      <c r="I28" s="229" t="s">
-        <v>492</v>
-      </c>
-      <c r="J28" s="195" t="s">
-        <v>467</v>
-      </c>
-      <c r="K28" s="164" t="s">
-        <v>467</v>
-      </c>
       <c r="L28" s="229" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M28" s="195">
         <v>44099</v>
       </c>
       <c r="N28" s="164" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O28" s="160"/>
     </row>
@@ -13831,37 +13849,37 @@
       </c>
       <c r="C29" s="196"/>
       <c r="D29" s="160" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E29" s="160" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F29" s="197" t="s">
         <v>260</v>
       </c>
       <c r="G29" s="194" t="s">
+        <v>465</v>
+      </c>
+      <c r="H29" s="162" t="s">
+        <v>465</v>
+      </c>
+      <c r="I29" s="229" t="s">
+        <v>490</v>
+      </c>
+      <c r="J29" s="195" t="s">
         <v>466</v>
       </c>
-      <c r="H29" s="162" t="s">
+      <c r="K29" s="164" t="s">
         <v>466</v>
       </c>
-      <c r="I29" s="229" t="s">
-        <v>492</v>
-      </c>
-      <c r="J29" s="195" t="s">
-        <v>467</v>
-      </c>
-      <c r="K29" s="164" t="s">
-        <v>467</v>
-      </c>
       <c r="L29" s="229" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M29" s="195">
         <v>44099</v>
       </c>
       <c r="N29" s="164" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O29" s="160"/>
     </row>
@@ -13871,37 +13889,37 @@
       </c>
       <c r="C30" s="198"/>
       <c r="D30" s="199" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E30" s="170" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F30" s="199" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G30" s="200" t="s">
+        <v>465</v>
+      </c>
+      <c r="H30" s="182" t="s">
+        <v>465</v>
+      </c>
+      <c r="I30" s="230" t="s">
+        <v>490</v>
+      </c>
+      <c r="J30" s="201" t="s">
         <v>466</v>
       </c>
-      <c r="H30" s="182" t="s">
+      <c r="K30" s="184" t="s">
         <v>466</v>
       </c>
-      <c r="I30" s="230" t="s">
-        <v>492</v>
-      </c>
-      <c r="J30" s="201" t="s">
-        <v>467</v>
-      </c>
-      <c r="K30" s="184" t="s">
-        <v>467</v>
-      </c>
       <c r="L30" s="230" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M30" s="201">
         <v>44099</v>
       </c>
       <c r="N30" s="184" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O30" s="170"/>
     </row>
@@ -13910,36 +13928,36 @@
         <v>26</v>
       </c>
       <c r="C31" s="186" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D31" s="153" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E31" s="153" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F31" s="153" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G31" s="176">
         <v>44098</v>
       </c>
       <c r="H31" s="177" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I31" s="153"/>
       <c r="J31" s="178">
         <v>44099</v>
       </c>
       <c r="K31" s="179" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L31" s="153"/>
       <c r="M31" s="178">
         <v>44099</v>
       </c>
       <c r="N31" s="179" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O31" s="153"/>
     </row>
@@ -13949,33 +13967,33 @@
       </c>
       <c r="C32" s="165"/>
       <c r="D32" s="160" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E32" s="160" t="s">
+        <v>383</v>
+      </c>
+      <c r="F32" s="197" t="s">
         <v>384</v>
-      </c>
-      <c r="F32" s="197" t="s">
-        <v>385</v>
       </c>
       <c r="G32" s="168">
         <v>44098</v>
       </c>
       <c r="H32" s="166" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I32" s="154"/>
       <c r="J32" s="169">
         <v>44099</v>
       </c>
       <c r="K32" s="167" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L32" s="154"/>
       <c r="M32" s="169">
         <v>44099</v>
       </c>
       <c r="N32" s="167" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O32" s="154"/>
     </row>
@@ -13985,33 +14003,33 @@
       </c>
       <c r="C33" s="165"/>
       <c r="D33" s="173" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E33" s="173" t="s">
+        <v>387</v>
+      </c>
+      <c r="F33" s="202" t="s">
         <v>388</v>
-      </c>
-      <c r="F33" s="202" t="s">
-        <v>389</v>
       </c>
       <c r="G33" s="203">
         <v>44098</v>
       </c>
       <c r="H33" s="204" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I33" s="185"/>
       <c r="J33" s="205">
         <v>44099</v>
       </c>
       <c r="K33" s="206" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L33" s="185"/>
       <c r="M33" s="205">
         <v>44099</v>
       </c>
       <c r="N33" s="206" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O33" s="185"/>
     </row>
@@ -14021,33 +14039,33 @@
       </c>
       <c r="C34" s="196"/>
       <c r="D34" s="170" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E34" s="170" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F34" s="170" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G34" s="171">
         <v>44098</v>
       </c>
       <c r="H34" s="172" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I34" s="173"/>
       <c r="J34" s="174">
         <v>44099</v>
       </c>
       <c r="K34" s="175" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L34" s="173"/>
       <c r="M34" s="174">
         <v>44099</v>
       </c>
       <c r="N34" s="175" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O34" s="173"/>
     </row>
@@ -14056,36 +14074,36 @@
         <v>30</v>
       </c>
       <c r="C35" s="152" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D35" s="185" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E35" s="185" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F35" s="185" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G35" s="155">
         <v>44098</v>
       </c>
       <c r="H35" s="156" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I35" s="207"/>
       <c r="J35" s="157">
         <v>44099</v>
       </c>
       <c r="K35" s="158" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L35" s="207"/>
       <c r="M35" s="157">
         <v>44099</v>
       </c>
       <c r="N35" s="158" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O35" s="207"/>
     </row>
@@ -14094,36 +14112,36 @@
         <v>31</v>
       </c>
       <c r="C36" s="186" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D36" s="153" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E36" s="207" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F36" s="207" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G36" s="176">
         <v>44098</v>
       </c>
       <c r="H36" s="177" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I36" s="153"/>
       <c r="J36" s="178">
         <v>44099</v>
       </c>
       <c r="K36" s="179" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L36" s="153"/>
       <c r="M36" s="178">
         <v>44099</v>
       </c>
       <c r="N36" s="179" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O36" s="153"/>
     </row>
@@ -14133,33 +14151,33 @@
       </c>
       <c r="C37" s="165"/>
       <c r="D37" s="170" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E37" s="170" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F37" s="170" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G37" s="181">
         <v>44098</v>
       </c>
       <c r="H37" s="182" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I37" s="170"/>
       <c r="J37" s="183">
         <v>44099</v>
       </c>
       <c r="K37" s="184" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L37" s="170"/>
       <c r="M37" s="183">
         <v>44099</v>
       </c>
       <c r="N37" s="184" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O37" s="170"/>
     </row>
@@ -14168,36 +14186,36 @@
         <v>33</v>
       </c>
       <c r="C38" s="186" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D38" s="185" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E38" s="208" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F38" s="185" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G38" s="209">
         <v>44098</v>
       </c>
       <c r="H38" s="189" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I38" s="187"/>
       <c r="J38" s="210">
         <v>44099</v>
       </c>
       <c r="K38" s="191" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L38" s="187"/>
       <c r="M38" s="210">
         <v>44099</v>
       </c>
       <c r="N38" s="191" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O38" s="187"/>
     </row>
@@ -14206,36 +14224,36 @@
         <v>34</v>
       </c>
       <c r="C39" s="186" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D39" s="153" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E39" s="153" t="s">
+        <v>467</v>
+      </c>
+      <c r="F39" s="153" t="s">
         <v>468</v>
-      </c>
-      <c r="F39" s="153" t="s">
-        <v>469</v>
       </c>
       <c r="G39" s="176">
         <v>44098</v>
       </c>
       <c r="H39" s="177" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I39" s="153"/>
       <c r="J39" s="178">
         <v>44099</v>
       </c>
       <c r="K39" s="179" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L39" s="153"/>
       <c r="M39" s="178">
         <v>44099</v>
       </c>
       <c r="N39" s="179" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O39" s="153"/>
     </row>
@@ -14245,40 +14263,40 @@
       </c>
       <c r="C40" s="165"/>
       <c r="D40" s="160" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E40" s="160" t="s">
+        <v>283</v>
+      </c>
+      <c r="F40" s="160" t="s">
         <v>284</v>
       </c>
-      <c r="F40" s="160" t="s">
-        <v>285</v>
-      </c>
       <c r="G40" s="211" t="s">
+        <v>465</v>
+      </c>
+      <c r="H40" s="162" t="s">
+        <v>465</v>
+      </c>
+      <c r="I40" s="229" t="s">
+        <v>490</v>
+      </c>
+      <c r="J40" s="212" t="s">
         <v>466</v>
       </c>
-      <c r="H40" s="162" t="s">
+      <c r="K40" s="164" t="s">
         <v>466</v>
       </c>
-      <c r="I40" s="229" t="s">
-        <v>492</v>
-      </c>
-      <c r="J40" s="212" t="s">
-        <v>467</v>
-      </c>
-      <c r="K40" s="164" t="s">
-        <v>467</v>
-      </c>
       <c r="L40" s="229" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M40" s="212" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N40" s="164" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O40" s="229" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="41" spans="2:15" ht="54.5" thickBot="1">
@@ -14287,33 +14305,33 @@
       </c>
       <c r="C41" s="165"/>
       <c r="D41" s="160" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E41" s="160" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F41" s="160" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G41" s="161">
         <v>44098</v>
       </c>
       <c r="H41" s="162" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I41" s="160"/>
       <c r="J41" s="163">
         <v>44099</v>
       </c>
       <c r="K41" s="164" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L41" s="160"/>
       <c r="M41" s="163">
         <v>44099</v>
       </c>
       <c r="N41" s="164" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O41" s="160"/>
     </row>
@@ -14323,40 +14341,40 @@
       </c>
       <c r="C42" s="165"/>
       <c r="D42" s="160" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E42" s="160" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F42" s="160" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G42" s="211" t="s">
+        <v>465</v>
+      </c>
+      <c r="H42" s="162" t="s">
+        <v>465</v>
+      </c>
+      <c r="I42" s="229" t="s">
+        <v>490</v>
+      </c>
+      <c r="J42" s="212" t="s">
         <v>466</v>
       </c>
-      <c r="H42" s="162" t="s">
+      <c r="K42" s="164" t="s">
         <v>466</v>
       </c>
-      <c r="I42" s="229" t="s">
-        <v>492</v>
-      </c>
-      <c r="J42" s="212" t="s">
-        <v>467</v>
-      </c>
-      <c r="K42" s="164" t="s">
-        <v>467</v>
-      </c>
       <c r="L42" s="229" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M42" s="212" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N42" s="164" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O42" s="229" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="43" spans="2:15" ht="36.5" thickBot="1">
@@ -14365,40 +14383,40 @@
       </c>
       <c r="C43" s="165"/>
       <c r="D43" s="160" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E43" s="160" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F43" s="160" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G43" s="211" t="s">
+        <v>465</v>
+      </c>
+      <c r="H43" s="162" t="s">
+        <v>465</v>
+      </c>
+      <c r="I43" s="229" t="s">
+        <v>490</v>
+      </c>
+      <c r="J43" s="212" t="s">
         <v>466</v>
       </c>
-      <c r="H43" s="162" t="s">
+      <c r="K43" s="164" t="s">
         <v>466</v>
       </c>
-      <c r="I43" s="229" t="s">
-        <v>492</v>
-      </c>
-      <c r="J43" s="212" t="s">
-        <v>467</v>
-      </c>
-      <c r="K43" s="164" t="s">
-        <v>467</v>
-      </c>
       <c r="L43" s="229" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M43" s="212" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N43" s="164" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O43" s="229" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="44" spans="2:15" ht="36.5" thickBot="1">
@@ -14407,40 +14425,40 @@
       </c>
       <c r="C44" s="165"/>
       <c r="D44" s="170" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E44" s="170" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F44" s="170" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G44" s="211" t="s">
+        <v>465</v>
+      </c>
+      <c r="H44" s="162" t="s">
+        <v>465</v>
+      </c>
+      <c r="I44" s="229" t="s">
+        <v>491</v>
+      </c>
+      <c r="J44" s="212" t="s">
         <v>466</v>
       </c>
-      <c r="H44" s="162" t="s">
+      <c r="K44" s="164" t="s">
         <v>466</v>
       </c>
-      <c r="I44" s="229" t="s">
-        <v>493</v>
-      </c>
-      <c r="J44" s="212" t="s">
-        <v>467</v>
-      </c>
-      <c r="K44" s="164" t="s">
-        <v>467</v>
-      </c>
       <c r="L44" s="229" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="M44" s="212" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N44" s="164" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O44" s="229" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="45" spans="2:15" ht="40.5" thickBot="1">
@@ -14448,38 +14466,38 @@
         <v>40</v>
       </c>
       <c r="C45" s="152" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D45" s="153" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E45" s="153" t="s">
         <v>225</v>
       </c>
       <c r="F45" s="153" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G45" s="176">
         <v>44098</v>
       </c>
       <c r="H45" s="213" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I45" s="153" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J45" s="178">
         <v>44099</v>
       </c>
       <c r="K45" s="214" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L45" s="153"/>
       <c r="M45" s="178">
         <v>44099</v>
       </c>
       <c r="N45" s="214" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O45" s="153"/>
     </row>
@@ -14489,35 +14507,35 @@
       </c>
       <c r="C46" s="165"/>
       <c r="D46" s="160" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E46" s="160" t="s">
         <v>226</v>
       </c>
       <c r="F46" s="160" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G46" s="161">
         <v>44098</v>
       </c>
       <c r="H46" s="215" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I46" s="160" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J46" s="163">
         <v>44099</v>
       </c>
       <c r="K46" s="216" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L46" s="160"/>
       <c r="M46" s="163">
         <v>44099</v>
       </c>
       <c r="N46" s="216" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O46" s="160"/>
     </row>
@@ -14527,35 +14545,35 @@
       </c>
       <c r="C47" s="165"/>
       <c r="D47" s="160" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E47" s="160" t="s">
         <v>227</v>
       </c>
       <c r="F47" s="160" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G47" s="161">
         <v>44098</v>
       </c>
       <c r="H47" s="215" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I47" s="160" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J47" s="163">
         <v>44099</v>
       </c>
       <c r="K47" s="216" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L47" s="160"/>
       <c r="M47" s="163">
         <v>44099</v>
       </c>
       <c r="N47" s="216" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O47" s="160"/>
     </row>
@@ -14565,35 +14583,35 @@
       </c>
       <c r="C48" s="165"/>
       <c r="D48" s="160" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E48" s="160" t="s">
         <v>228</v>
       </c>
       <c r="F48" s="160" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G48" s="161">
         <v>44098</v>
       </c>
       <c r="H48" s="215" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I48" s="160" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J48" s="163">
         <v>44099</v>
       </c>
       <c r="K48" s="216" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L48" s="160"/>
       <c r="M48" s="163">
         <v>44099</v>
       </c>
       <c r="N48" s="216" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O48" s="160"/>
     </row>
@@ -14603,35 +14621,35 @@
       </c>
       <c r="C49" s="165"/>
       <c r="D49" s="160" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E49" s="160" t="s">
         <v>229</v>
       </c>
       <c r="F49" s="160" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G49" s="161">
         <v>44098</v>
       </c>
       <c r="H49" s="215" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I49" s="160" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J49" s="163">
         <v>44099</v>
       </c>
       <c r="K49" s="216" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L49" s="160"/>
       <c r="M49" s="163">
         <v>44099</v>
       </c>
       <c r="N49" s="216" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O49" s="160"/>
     </row>
@@ -14641,35 +14659,35 @@
       </c>
       <c r="C50" s="165"/>
       <c r="D50" s="160" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E50" s="160" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F50" s="160" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G50" s="161">
         <v>44098</v>
       </c>
       <c r="H50" s="215" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I50" s="160" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J50" s="163">
         <v>44099</v>
       </c>
       <c r="K50" s="216" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L50" s="160"/>
       <c r="M50" s="163">
         <v>44099</v>
       </c>
       <c r="N50" s="216" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O50" s="160"/>
     </row>
@@ -14679,35 +14697,35 @@
       </c>
       <c r="C51" s="165"/>
       <c r="D51" s="160" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E51" s="160" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F51" s="160" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G51" s="161">
         <v>44098</v>
       </c>
       <c r="H51" s="162" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I51" s="160" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J51" s="163">
         <v>44099</v>
       </c>
       <c r="K51" s="164" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L51" s="160"/>
       <c r="M51" s="163">
         <v>44099</v>
       </c>
       <c r="N51" s="164" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O51" s="160"/>
     </row>
@@ -14717,35 +14735,35 @@
       </c>
       <c r="C52" s="165"/>
       <c r="D52" s="160" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E52" s="160" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F52" s="160" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G52" s="161">
         <v>44098</v>
       </c>
       <c r="H52" s="162" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I52" s="160" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J52" s="163">
         <v>44099</v>
       </c>
       <c r="K52" s="164" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L52" s="160"/>
       <c r="M52" s="163">
         <v>44099</v>
       </c>
       <c r="N52" s="164" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O52" s="160"/>
     </row>
@@ -14755,35 +14773,35 @@
       </c>
       <c r="C53" s="165"/>
       <c r="D53" s="160" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E53" s="160" t="s">
         <v>230</v>
       </c>
       <c r="F53" s="160" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G53" s="161">
         <v>44098</v>
       </c>
       <c r="H53" s="162" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I53" s="160" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J53" s="163">
         <v>44099</v>
       </c>
       <c r="K53" s="164" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L53" s="160"/>
       <c r="M53" s="163">
         <v>44099</v>
       </c>
       <c r="N53" s="164" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O53" s="160"/>
     </row>
@@ -14793,7 +14811,7 @@
       </c>
       <c r="C54" s="165"/>
       <c r="D54" s="160" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E54" s="160" t="s">
         <v>232</v>
@@ -14805,21 +14823,21 @@
         <v>44098</v>
       </c>
       <c r="H54" s="162" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I54" s="160"/>
       <c r="J54" s="163">
         <v>44099</v>
       </c>
       <c r="K54" s="164" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L54" s="160"/>
       <c r="M54" s="163">
         <v>44099</v>
       </c>
       <c r="N54" s="164" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O54" s="160"/>
     </row>
@@ -14829,7 +14847,7 @@
       </c>
       <c r="C55" s="159"/>
       <c r="D55" s="160" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E55" s="160" t="s">
         <v>261</v>
@@ -14841,21 +14859,21 @@
         <v>44098</v>
       </c>
       <c r="H55" s="215" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I55" s="160"/>
       <c r="J55" s="163">
         <v>44099</v>
       </c>
       <c r="K55" s="216" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L55" s="160"/>
       <c r="M55" s="163">
         <v>44099</v>
       </c>
       <c r="N55" s="216" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O55" s="160"/>
     </row>
@@ -14865,7 +14883,7 @@
       </c>
       <c r="C56" s="165"/>
       <c r="D56" s="160" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E56" s="160" t="s">
         <v>262</v>
@@ -14877,21 +14895,21 @@
         <v>44098</v>
       </c>
       <c r="H56" s="215" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I56" s="160"/>
       <c r="J56" s="163">
         <v>44099</v>
       </c>
       <c r="K56" s="216" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L56" s="160"/>
       <c r="M56" s="163">
         <v>44099</v>
       </c>
       <c r="N56" s="216" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O56" s="160"/>
     </row>
@@ -14901,7 +14919,7 @@
       </c>
       <c r="C57" s="165"/>
       <c r="D57" s="160" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E57" s="160" t="s">
         <v>265</v>
@@ -14913,21 +14931,21 @@
         <v>44098</v>
       </c>
       <c r="H57" s="215" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I57" s="160"/>
       <c r="J57" s="163">
         <v>44099</v>
       </c>
       <c r="K57" s="216" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L57" s="160"/>
       <c r="M57" s="163">
         <v>44099</v>
       </c>
       <c r="N57" s="216" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O57" s="160"/>
     </row>
@@ -14937,33 +14955,33 @@
       </c>
       <c r="C58" s="165"/>
       <c r="D58" s="160" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E58" s="160" t="s">
         <v>267</v>
       </c>
       <c r="F58" s="160" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G58" s="161">
         <v>44098</v>
       </c>
       <c r="H58" s="215" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I58" s="160"/>
       <c r="J58" s="163">
         <v>44099</v>
       </c>
       <c r="K58" s="216" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L58" s="160"/>
       <c r="M58" s="163">
         <v>44099</v>
       </c>
       <c r="N58" s="216" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O58" s="160"/>
     </row>
@@ -14973,7 +14991,7 @@
       </c>
       <c r="C59" s="165"/>
       <c r="D59" s="170" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E59" s="173" t="s">
         <v>268</v>
@@ -14985,21 +15003,21 @@
         <v>44098</v>
       </c>
       <c r="H59" s="182" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I59" s="173"/>
       <c r="J59" s="183">
         <v>44099</v>
       </c>
       <c r="K59" s="175" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L59" s="173"/>
       <c r="M59" s="183">
         <v>44099</v>
       </c>
       <c r="N59" s="175" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O59" s="173"/>
     </row>
@@ -15029,17 +15047,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15051,7 +15069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFB9B61-49CD-4A84-BB87-A2EDBB8DA8A8}">
   <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -15078,20 +15096,20 @@
   <sheetData>
     <row r="1" spans="1:17" ht="29">
       <c r="A1" s="87" t="s">
-        <v>409</v>
-      </c>
-      <c r="D1" s="271" t="s">
-        <v>504</v>
+        <v>408</v>
+      </c>
+      <c r="D1" s="239" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1">
       <c r="A2" s="87"/>
-      <c r="D2" s="238" t="s">
-        <v>478</v>
-      </c>
-      <c r="E2" s="238"/>
-      <c r="F2" s="238"/>
-      <c r="G2" s="238"/>
+      <c r="D2" s="252" t="s">
+        <v>477</v>
+      </c>
+      <c r="E2" s="252"/>
+      <c r="F2" s="252"/>
+      <c r="G2" s="252"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" customHeight="1">
       <c r="A3" s="87"/>
@@ -15109,22 +15127,22 @@
         <v>224</v>
       </c>
       <c r="D5" s="90" t="s">
+        <v>315</v>
+      </c>
+      <c r="E5" s="90" t="s">
         <v>316</v>
       </c>
-      <c r="E5" s="90" t="s">
-        <v>317</v>
-      </c>
       <c r="F5" s="90" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G5" s="90" t="s">
+        <v>409</v>
+      </c>
+      <c r="H5" s="90" t="s">
         <v>410</v>
       </c>
-      <c r="H5" s="90" t="s">
+      <c r="I5" s="90" t="s">
         <v>411</v>
-      </c>
-      <c r="I5" s="90" t="s">
-        <v>412</v>
       </c>
       <c r="J5" s="90" t="s">
         <v>7</v>
@@ -15157,37 +15175,37 @@
         <v>1</v>
       </c>
       <c r="C6" s="93" t="s">
+        <v>412</v>
+      </c>
+      <c r="D6" s="94" t="s">
         <v>413</v>
       </c>
-      <c r="D6" s="94" t="s">
+      <c r="E6" s="94" t="s">
         <v>414</v>
       </c>
-      <c r="E6" s="94" t="s">
+      <c r="F6" s="94" t="s">
         <v>415</v>
       </c>
-      <c r="F6" s="94" t="s">
+      <c r="G6" s="94" t="s">
         <v>416</v>
       </c>
-      <c r="G6" s="94" t="s">
+      <c r="H6" s="95" t="s">
         <v>417</v>
       </c>
-      <c r="H6" s="95" t="s">
+      <c r="I6" s="95" t="s">
+        <v>417</v>
+      </c>
+      <c r="J6" s="96" t="s">
         <v>418</v>
-      </c>
-      <c r="I6" s="95" t="s">
-        <v>418</v>
-      </c>
-      <c r="J6" s="96" t="s">
-        <v>419</v>
       </c>
       <c r="K6" s="97">
         <v>44098</v>
       </c>
       <c r="L6" s="98" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M6" s="99" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="N6" s="100"/>
       <c r="O6" s="101"/>
@@ -15199,20 +15217,20 @@
         <f t="shared" ref="B7:B34" si="0">ROW(B7)-ROW($B$5)</f>
         <v>2</v>
       </c>
-      <c r="C7" s="239" t="s">
+      <c r="C7" s="246" t="s">
+        <v>419</v>
+      </c>
+      <c r="D7" s="249" t="s">
+        <v>454</v>
+      </c>
+      <c r="E7" s="249" t="s">
+        <v>317</v>
+      </c>
+      <c r="F7" s="249" t="s">
         <v>420</v>
       </c>
-      <c r="D7" s="241" t="s">
-        <v>455</v>
-      </c>
-      <c r="E7" s="241" t="s">
-        <v>318</v>
-      </c>
-      <c r="F7" s="241" t="s">
+      <c r="G7" s="249" t="s">
         <v>421</v>
-      </c>
-      <c r="G7" s="241" t="s">
-        <v>422</v>
       </c>
       <c r="H7" s="104">
         <v>0</v>
@@ -15221,16 +15239,16 @@
         <v>0</v>
       </c>
       <c r="J7" s="137" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K7" s="106">
         <v>44098</v>
       </c>
       <c r="L7" s="107" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M7" s="139" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N7" s="100"/>
       <c r="O7" s="101"/>
@@ -15242,11 +15260,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C8" s="240"/>
-      <c r="D8" s="242"/>
-      <c r="E8" s="242"/>
-      <c r="F8" s="242"/>
-      <c r="G8" s="242"/>
+      <c r="C8" s="247"/>
+      <c r="D8" s="250"/>
+      <c r="E8" s="250"/>
+      <c r="F8" s="250"/>
+      <c r="G8" s="250"/>
       <c r="H8" s="104">
         <v>0</v>
       </c>
@@ -15254,13 +15272,13 @@
         <v>30</v>
       </c>
       <c r="J8" s="137" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K8" s="106">
         <v>44098</v>
       </c>
       <c r="L8" s="107" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M8" s="108"/>
       <c r="N8" s="100"/>
@@ -15273,11 +15291,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="240"/>
-      <c r="D9" s="242"/>
-      <c r="E9" s="242"/>
-      <c r="F9" s="242"/>
-      <c r="G9" s="242"/>
+      <c r="C9" s="247"/>
+      <c r="D9" s="250"/>
+      <c r="E9" s="250"/>
+      <c r="F9" s="250"/>
+      <c r="G9" s="250"/>
       <c r="H9" s="104">
         <v>0</v>
       </c>
@@ -15285,13 +15303,13 @@
         <v>60</v>
       </c>
       <c r="J9" s="137" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K9" s="106">
         <v>44098</v>
       </c>
       <c r="L9" s="107" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M9" s="108"/>
       <c r="N9" s="100"/>
@@ -15304,11 +15322,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="240"/>
-      <c r="D10" s="242"/>
-      <c r="E10" s="242"/>
-      <c r="F10" s="242"/>
-      <c r="G10" s="242"/>
+      <c r="C10" s="247"/>
+      <c r="D10" s="250"/>
+      <c r="E10" s="250"/>
+      <c r="F10" s="250"/>
+      <c r="G10" s="250"/>
       <c r="H10" s="140">
         <v>0</v>
       </c>
@@ -15316,16 +15334,16 @@
         <v>61</v>
       </c>
       <c r="J10" s="137" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K10" s="106">
         <v>44098</v>
       </c>
       <c r="L10" s="107" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M10" s="108" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N10" s="100"/>
       <c r="O10" s="101"/>
@@ -15337,11 +15355,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="240"/>
-      <c r="D11" s="242"/>
-      <c r="E11" s="242"/>
-      <c r="F11" s="242"/>
-      <c r="G11" s="242"/>
+      <c r="C11" s="247"/>
+      <c r="D11" s="250"/>
+      <c r="E11" s="250"/>
+      <c r="F11" s="250"/>
+      <c r="G11" s="250"/>
       <c r="H11" s="140">
         <v>0</v>
       </c>
@@ -15349,16 +15367,16 @@
         <v>255</v>
       </c>
       <c r="J11" s="137" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K11" s="106">
         <v>44098</v>
       </c>
       <c r="L11" s="107" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M11" s="108" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N11" s="100"/>
       <c r="O11" s="101"/>
@@ -15370,11 +15388,11 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="240"/>
-      <c r="D12" s="242"/>
-      <c r="E12" s="242"/>
-      <c r="F12" s="242"/>
-      <c r="G12" s="242"/>
+      <c r="C12" s="247"/>
+      <c r="D12" s="250"/>
+      <c r="E12" s="250"/>
+      <c r="F12" s="250"/>
+      <c r="G12" s="250"/>
       <c r="H12" s="104">
         <v>1</v>
       </c>
@@ -15382,13 +15400,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="137" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K12" s="106">
         <v>44098</v>
       </c>
       <c r="L12" s="107" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M12" s="108"/>
       <c r="N12" s="100"/>
@@ -15401,11 +15419,11 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="240"/>
-      <c r="D13" s="242"/>
-      <c r="E13" s="242"/>
-      <c r="F13" s="242"/>
-      <c r="G13" s="242"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="250"/>
+      <c r="E13" s="250"/>
+      <c r="F13" s="250"/>
+      <c r="G13" s="250"/>
       <c r="H13" s="104">
         <v>1</v>
       </c>
@@ -15413,13 +15431,13 @@
         <v>30</v>
       </c>
       <c r="J13" s="137" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K13" s="106">
         <v>44098</v>
       </c>
       <c r="L13" s="107" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M13" s="108"/>
       <c r="N13" s="100"/>
@@ -15432,11 +15450,11 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C14" s="240"/>
-      <c r="D14" s="242"/>
-      <c r="E14" s="242"/>
-      <c r="F14" s="242"/>
-      <c r="G14" s="242"/>
+      <c r="C14" s="247"/>
+      <c r="D14" s="250"/>
+      <c r="E14" s="250"/>
+      <c r="F14" s="250"/>
+      <c r="G14" s="250"/>
       <c r="H14" s="104">
         <v>1</v>
       </c>
@@ -15444,13 +15462,13 @@
         <v>60</v>
       </c>
       <c r="J14" s="137" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K14" s="106">
         <v>44098</v>
       </c>
       <c r="L14" s="107" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M14" s="108"/>
       <c r="N14" s="100"/>
@@ -15463,11 +15481,11 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C15" s="240"/>
-      <c r="D15" s="242"/>
-      <c r="E15" s="242"/>
-      <c r="F15" s="242"/>
-      <c r="G15" s="242"/>
+      <c r="C15" s="247"/>
+      <c r="D15" s="250"/>
+      <c r="E15" s="250"/>
+      <c r="F15" s="250"/>
+      <c r="G15" s="250"/>
       <c r="H15" s="140">
         <v>1</v>
       </c>
@@ -15475,16 +15493,16 @@
         <v>61</v>
       </c>
       <c r="J15" s="137" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K15" s="106">
         <v>44098</v>
       </c>
       <c r="L15" s="107" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M15" s="108" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N15" s="100"/>
       <c r="O15" s="101"/>
@@ -15496,11 +15514,11 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C16" s="240"/>
-      <c r="D16" s="242"/>
-      <c r="E16" s="242"/>
-      <c r="F16" s="242"/>
-      <c r="G16" s="242"/>
+      <c r="C16" s="247"/>
+      <c r="D16" s="250"/>
+      <c r="E16" s="250"/>
+      <c r="F16" s="250"/>
+      <c r="G16" s="250"/>
       <c r="H16" s="140">
         <v>1</v>
       </c>
@@ -15508,16 +15526,16 @@
         <v>255</v>
       </c>
       <c r="J16" s="137" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K16" s="106">
         <v>44098</v>
       </c>
       <c r="L16" s="107" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M16" s="108" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N16" s="100"/>
       <c r="O16" s="101"/>
@@ -15529,11 +15547,11 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C17" s="240"/>
-      <c r="D17" s="242"/>
-      <c r="E17" s="242"/>
-      <c r="F17" s="242"/>
-      <c r="G17" s="242"/>
+      <c r="C17" s="247"/>
+      <c r="D17" s="250"/>
+      <c r="E17" s="250"/>
+      <c r="F17" s="250"/>
+      <c r="G17" s="250"/>
       <c r="H17" s="104">
         <v>2</v>
       </c>
@@ -15541,13 +15559,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="137" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K17" s="106">
         <v>44098</v>
       </c>
       <c r="L17" s="107" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M17" s="108"/>
       <c r="N17" s="100"/>
@@ -15560,11 +15578,11 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C18" s="240"/>
-      <c r="D18" s="242"/>
-      <c r="E18" s="242"/>
-      <c r="F18" s="242"/>
-      <c r="G18" s="242"/>
+      <c r="C18" s="247"/>
+      <c r="D18" s="250"/>
+      <c r="E18" s="250"/>
+      <c r="F18" s="250"/>
+      <c r="G18" s="250"/>
       <c r="H18" s="104">
         <v>2</v>
       </c>
@@ -15572,13 +15590,13 @@
         <v>30</v>
       </c>
       <c r="J18" s="137" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K18" s="106">
         <v>44098</v>
       </c>
       <c r="L18" s="107" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M18" s="108"/>
       <c r="N18" s="100"/>
@@ -15591,11 +15609,11 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C19" s="240"/>
-      <c r="D19" s="242"/>
-      <c r="E19" s="242"/>
-      <c r="F19" s="242"/>
-      <c r="G19" s="242"/>
+      <c r="C19" s="247"/>
+      <c r="D19" s="250"/>
+      <c r="E19" s="250"/>
+      <c r="F19" s="250"/>
+      <c r="G19" s="250"/>
       <c r="H19" s="104">
         <v>2</v>
       </c>
@@ -15603,13 +15621,13 @@
         <v>60</v>
       </c>
       <c r="J19" s="137" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K19" s="106">
         <v>44098</v>
       </c>
       <c r="L19" s="107" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M19" s="108"/>
       <c r="N19" s="100"/>
@@ -15622,11 +15640,11 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C20" s="240"/>
-      <c r="D20" s="242"/>
-      <c r="E20" s="242"/>
-      <c r="F20" s="242"/>
-      <c r="G20" s="242"/>
+      <c r="C20" s="247"/>
+      <c r="D20" s="250"/>
+      <c r="E20" s="250"/>
+      <c r="F20" s="250"/>
+      <c r="G20" s="250"/>
       <c r="H20" s="140">
         <v>2</v>
       </c>
@@ -15634,16 +15652,16 @@
         <v>61</v>
       </c>
       <c r="J20" s="137" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K20" s="106">
         <v>44098</v>
       </c>
       <c r="L20" s="107" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M20" s="108" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N20" s="100"/>
       <c r="O20" s="101"/>
@@ -15655,11 +15673,11 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C21" s="240"/>
-      <c r="D21" s="242"/>
-      <c r="E21" s="242"/>
-      <c r="F21" s="242"/>
-      <c r="G21" s="242"/>
+      <c r="C21" s="247"/>
+      <c r="D21" s="250"/>
+      <c r="E21" s="250"/>
+      <c r="F21" s="250"/>
+      <c r="G21" s="250"/>
       <c r="H21" s="140">
         <v>2</v>
       </c>
@@ -15667,16 +15685,16 @@
         <v>255</v>
       </c>
       <c r="J21" s="137" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K21" s="106">
         <v>44098</v>
       </c>
       <c r="L21" s="107" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M21" s="108" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N21" s="100"/>
       <c r="O21" s="101"/>
@@ -15688,11 +15706,11 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C22" s="240"/>
-      <c r="D22" s="242"/>
-      <c r="E22" s="242"/>
-      <c r="F22" s="242"/>
-      <c r="G22" s="242"/>
+      <c r="C22" s="247"/>
+      <c r="D22" s="250"/>
+      <c r="E22" s="250"/>
+      <c r="F22" s="250"/>
+      <c r="G22" s="250"/>
       <c r="H22" s="104">
         <v>3</v>
       </c>
@@ -15700,16 +15718,16 @@
         <v>0</v>
       </c>
       <c r="J22" s="137" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K22" s="106">
         <v>44098</v>
       </c>
       <c r="L22" s="107" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M22" s="108" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N22" s="100"/>
       <c r="O22" s="101"/>
@@ -15721,11 +15739,11 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C23" s="240"/>
-      <c r="D23" s="242"/>
-      <c r="E23" s="242"/>
-      <c r="F23" s="242"/>
-      <c r="G23" s="242"/>
+      <c r="C23" s="247"/>
+      <c r="D23" s="250"/>
+      <c r="E23" s="250"/>
+      <c r="F23" s="250"/>
+      <c r="G23" s="250"/>
       <c r="H23" s="104">
         <v>3</v>
       </c>
@@ -15733,16 +15751,16 @@
         <v>30</v>
       </c>
       <c r="J23" s="137" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K23" s="106">
         <v>44098</v>
       </c>
       <c r="L23" s="107" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M23" s="108" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N23" s="100"/>
       <c r="O23" s="101"/>
@@ -15754,11 +15772,11 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C24" s="240"/>
-      <c r="D24" s="242"/>
-      <c r="E24" s="242"/>
-      <c r="F24" s="242"/>
-      <c r="G24" s="242"/>
+      <c r="C24" s="247"/>
+      <c r="D24" s="250"/>
+      <c r="E24" s="250"/>
+      <c r="F24" s="250"/>
+      <c r="G24" s="250"/>
       <c r="H24" s="104">
         <v>3</v>
       </c>
@@ -15766,16 +15784,16 @@
         <v>60</v>
       </c>
       <c r="J24" s="137" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K24" s="106">
         <v>44098</v>
       </c>
       <c r="L24" s="107" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M24" s="108" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N24" s="100"/>
       <c r="O24" s="101"/>
@@ -15787,11 +15805,11 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C25" s="240"/>
-      <c r="D25" s="242"/>
-      <c r="E25" s="242"/>
-      <c r="F25" s="242"/>
-      <c r="G25" s="242"/>
+      <c r="C25" s="247"/>
+      <c r="D25" s="250"/>
+      <c r="E25" s="250"/>
+      <c r="F25" s="250"/>
+      <c r="G25" s="250"/>
       <c r="H25" s="140">
         <v>3</v>
       </c>
@@ -15799,16 +15817,16 @@
         <v>61</v>
       </c>
       <c r="J25" s="137" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K25" s="106">
         <v>44098</v>
       </c>
       <c r="L25" s="107" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M25" s="108" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N25" s="100"/>
       <c r="O25" s="101"/>
@@ -15820,11 +15838,11 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C26" s="240"/>
-      <c r="D26" s="242"/>
-      <c r="E26" s="242"/>
-      <c r="F26" s="242"/>
-      <c r="G26" s="242"/>
+      <c r="C26" s="247"/>
+      <c r="D26" s="250"/>
+      <c r="E26" s="250"/>
+      <c r="F26" s="250"/>
+      <c r="G26" s="250"/>
       <c r="H26" s="140">
         <v>3</v>
       </c>
@@ -15832,16 +15850,16 @@
         <v>255</v>
       </c>
       <c r="J26" s="137" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K26" s="106">
         <v>44098</v>
       </c>
       <c r="L26" s="107" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M26" s="108" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N26" s="100"/>
       <c r="O26" s="101"/>
@@ -15853,11 +15871,11 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C27" s="240"/>
-      <c r="D27" s="242"/>
-      <c r="E27" s="242"/>
-      <c r="F27" s="242"/>
-      <c r="G27" s="242"/>
+      <c r="C27" s="247"/>
+      <c r="D27" s="250"/>
+      <c r="E27" s="250"/>
+      <c r="F27" s="250"/>
+      <c r="G27" s="250"/>
       <c r="H27" s="104">
         <v>255</v>
       </c>
@@ -15865,13 +15883,13 @@
         <v>0</v>
       </c>
       <c r="J27" s="137" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K27" s="106">
         <v>44098</v>
       </c>
       <c r="L27" s="107" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M27" s="108"/>
       <c r="N27" s="100"/>
@@ -15884,11 +15902,11 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C28" s="240"/>
-      <c r="D28" s="242"/>
-      <c r="E28" s="242"/>
-      <c r="F28" s="242"/>
-      <c r="G28" s="242"/>
+      <c r="C28" s="247"/>
+      <c r="D28" s="250"/>
+      <c r="E28" s="250"/>
+      <c r="F28" s="250"/>
+      <c r="G28" s="250"/>
       <c r="H28" s="104">
         <v>255</v>
       </c>
@@ -15896,16 +15914,16 @@
         <v>30</v>
       </c>
       <c r="J28" s="137" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K28" s="106">
         <v>44098</v>
       </c>
       <c r="L28" s="107" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M28" s="108" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N28" s="100"/>
       <c r="O28" s="101"/>
@@ -15917,11 +15935,11 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C29" s="240"/>
-      <c r="D29" s="242"/>
-      <c r="E29" s="242"/>
-      <c r="F29" s="242"/>
-      <c r="G29" s="242"/>
+      <c r="C29" s="247"/>
+      <c r="D29" s="250"/>
+      <c r="E29" s="250"/>
+      <c r="F29" s="250"/>
+      <c r="G29" s="250"/>
       <c r="H29" s="104">
         <v>255</v>
       </c>
@@ -15929,16 +15947,16 @@
         <v>60</v>
       </c>
       <c r="J29" s="137" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K29" s="106">
         <v>44098</v>
       </c>
       <c r="L29" s="107" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M29" s="108" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N29" s="100"/>
       <c r="O29" s="101"/>
@@ -15950,11 +15968,11 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C30" s="240"/>
-      <c r="D30" s="242"/>
-      <c r="E30" s="242"/>
-      <c r="F30" s="242"/>
-      <c r="G30" s="242"/>
+      <c r="C30" s="247"/>
+      <c r="D30" s="250"/>
+      <c r="E30" s="250"/>
+      <c r="F30" s="250"/>
+      <c r="G30" s="250"/>
       <c r="H30" s="140">
         <v>255</v>
       </c>
@@ -15962,16 +15980,16 @@
         <v>61</v>
       </c>
       <c r="J30" s="137" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K30" s="106">
         <v>44098</v>
       </c>
       <c r="L30" s="107" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M30" s="108" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N30" s="100"/>
       <c r="O30" s="101"/>
@@ -15983,11 +16001,11 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C31" s="240"/>
-      <c r="D31" s="242"/>
-      <c r="E31" s="242"/>
-      <c r="F31" s="242"/>
-      <c r="G31" s="242"/>
+      <c r="C31" s="247"/>
+      <c r="D31" s="250"/>
+      <c r="E31" s="250"/>
+      <c r="F31" s="250"/>
+      <c r="G31" s="250"/>
       <c r="H31" s="140">
         <v>255</v>
       </c>
@@ -15995,16 +16013,16 @@
         <v>255</v>
       </c>
       <c r="J31" s="137" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K31" s="106">
         <v>44098</v>
       </c>
       <c r="L31" s="107" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M31" s="108" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N31" s="100"/>
       <c r="O31" s="101"/>
@@ -16016,35 +16034,35 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C32" s="239" t="s">
+      <c r="C32" s="246" t="s">
+        <v>422</v>
+      </c>
+      <c r="D32" s="249" t="s">
         <v>423</v>
       </c>
-      <c r="D32" s="241" t="s">
+      <c r="E32" s="249" t="s">
         <v>424</v>
       </c>
-      <c r="E32" s="241" t="s">
+      <c r="F32" s="249" t="s">
         <v>425</v>
       </c>
-      <c r="F32" s="241" t="s">
+      <c r="G32" s="249" t="s">
         <v>426</v>
       </c>
-      <c r="G32" s="241" t="s">
+      <c r="H32" s="109" t="s">
         <v>427</v>
       </c>
-      <c r="H32" s="109" t="s">
+      <c r="I32" s="110" t="s">
+        <v>417</v>
+      </c>
+      <c r="J32" s="105" t="s">
         <v>428</v>
-      </c>
-      <c r="I32" s="110" t="s">
-        <v>418</v>
-      </c>
-      <c r="J32" s="105" t="s">
-        <v>429</v>
       </c>
       <c r="K32" s="97">
         <v>44098</v>
       </c>
       <c r="L32" s="111" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M32" s="112"/>
       <c r="N32" s="100"/>
@@ -16057,28 +16075,28 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C33" s="240"/>
-      <c r="D33" s="242"/>
-      <c r="E33" s="242"/>
-      <c r="F33" s="242"/>
-      <c r="G33" s="242"/>
+      <c r="C33" s="247"/>
+      <c r="D33" s="250"/>
+      <c r="E33" s="250"/>
+      <c r="F33" s="250"/>
+      <c r="G33" s="250"/>
       <c r="H33" s="113" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I33" s="110" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J33" s="114" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K33" s="97">
         <v>44098</v>
       </c>
       <c r="L33" s="111" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M33" s="138" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N33" s="115"/>
       <c r="O33" s="101"/>
@@ -16090,25 +16108,25 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C34" s="243"/>
-      <c r="D34" s="244"/>
-      <c r="E34" s="244"/>
-      <c r="F34" s="244"/>
-      <c r="G34" s="244"/>
+      <c r="C34" s="248"/>
+      <c r="D34" s="251"/>
+      <c r="E34" s="251"/>
+      <c r="F34" s="251"/>
+      <c r="G34" s="251"/>
       <c r="H34" s="113" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I34" s="110" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J34" s="114" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K34" s="97">
         <v>44098</v>
       </c>
       <c r="L34" s="107" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M34" s="108"/>
       <c r="N34" s="115"/>
@@ -17327,17 +17345,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="G32:G34"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="C7:C31"/>
     <mergeCell ref="D7:D31"/>
     <mergeCell ref="E7:E31"/>
     <mergeCell ref="F7:F31"/>
     <mergeCell ref="G7:G31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="G32:G34"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17376,9 +17394,9 @@
   <sheetData>
     <row r="1" spans="1:17" ht="29">
       <c r="A1" s="87" t="s">
-        <v>409</v>
-      </c>
-      <c r="D1" s="271"/>
+        <v>408</v>
+      </c>
+      <c r="D1" s="239"/>
     </row>
     <row r="2" spans="1:17" ht="18.5" thickBot="1"/>
     <row r="3" spans="1:17" ht="40.5" thickBot="1">
@@ -17389,22 +17407,22 @@
         <v>224</v>
       </c>
       <c r="D3" s="90" t="s">
+        <v>315</v>
+      </c>
+      <c r="E3" s="90" t="s">
         <v>316</v>
       </c>
-      <c r="E3" s="90" t="s">
-        <v>317</v>
-      </c>
       <c r="F3" s="90" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G3" s="90" t="s">
+        <v>409</v>
+      </c>
+      <c r="H3" s="90" t="s">
         <v>410</v>
       </c>
-      <c r="H3" s="90" t="s">
+      <c r="I3" s="90" t="s">
         <v>411</v>
-      </c>
-      <c r="I3" s="90" t="s">
-        <v>412</v>
       </c>
       <c r="J3" s="90" t="s">
         <v>7</v>
@@ -17437,34 +17455,34 @@
         <v>1</v>
       </c>
       <c r="C4" s="135" t="s">
+        <v>412</v>
+      </c>
+      <c r="D4" s="94" t="s">
         <v>413</v>
       </c>
-      <c r="D4" s="94" t="s">
+      <c r="E4" s="94" t="s">
         <v>414</v>
       </c>
-      <c r="E4" s="94" t="s">
+      <c r="F4" s="94" t="s">
         <v>415</v>
       </c>
-      <c r="F4" s="94" t="s">
-        <v>416</v>
-      </c>
       <c r="G4" s="94" t="s">
+        <v>439</v>
+      </c>
+      <c r="H4" s="95" t="s">
+        <v>417</v>
+      </c>
+      <c r="I4" s="95" t="s">
+        <v>417</v>
+      </c>
+      <c r="J4" s="96" t="s">
         <v>440</v>
-      </c>
-      <c r="H4" s="95" t="s">
-        <v>418</v>
-      </c>
-      <c r="I4" s="95" t="s">
-        <v>418</v>
-      </c>
-      <c r="J4" s="96" t="s">
-        <v>441</v>
       </c>
       <c r="K4" s="97">
         <v>44099</v>
       </c>
       <c r="L4" s="98" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M4" s="127"/>
       <c r="N4" s="100"/>
@@ -17477,20 +17495,20 @@
         <f t="shared" ref="B5:B32" si="0">ROW(B5)-ROW($B$3)</f>
         <v>2</v>
       </c>
-      <c r="C5" s="245" t="s">
+      <c r="C5" s="253" t="s">
+        <v>419</v>
+      </c>
+      <c r="D5" s="256" t="s">
+        <v>438</v>
+      </c>
+      <c r="E5" s="249" t="s">
+        <v>317</v>
+      </c>
+      <c r="F5" s="249" t="s">
         <v>420</v>
       </c>
-      <c r="D5" s="248" t="s">
-        <v>439</v>
-      </c>
-      <c r="E5" s="241" t="s">
-        <v>318</v>
-      </c>
-      <c r="F5" s="241" t="s">
-        <v>421</v>
-      </c>
-      <c r="G5" s="241" t="s">
-        <v>443</v>
+      <c r="G5" s="249" t="s">
+        <v>442</v>
       </c>
       <c r="H5" s="104">
         <v>0</v>
@@ -17499,13 +17517,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="136" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K5" s="97">
         <v>44099</v>
       </c>
       <c r="L5" s="107" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M5" s="108"/>
       <c r="N5" s="100"/>
@@ -17518,11 +17536,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="246"/>
-      <c r="D6" s="249"/>
-      <c r="E6" s="242"/>
-      <c r="F6" s="242"/>
-      <c r="G6" s="242"/>
+      <c r="C6" s="254"/>
+      <c r="D6" s="257"/>
+      <c r="E6" s="250"/>
+      <c r="F6" s="250"/>
+      <c r="G6" s="250"/>
       <c r="H6" s="104">
         <v>0</v>
       </c>
@@ -17530,13 +17548,13 @@
         <v>30</v>
       </c>
       <c r="J6" s="136" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K6" s="97">
         <v>44099</v>
       </c>
       <c r="L6" s="107" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M6" s="108"/>
       <c r="N6" s="100"/>
@@ -17549,11 +17567,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="246"/>
-      <c r="D7" s="249"/>
-      <c r="E7" s="242"/>
-      <c r="F7" s="242"/>
-      <c r="G7" s="242"/>
+      <c r="C7" s="254"/>
+      <c r="D7" s="257"/>
+      <c r="E7" s="250"/>
+      <c r="F7" s="250"/>
+      <c r="G7" s="250"/>
       <c r="H7" s="104">
         <v>0</v>
       </c>
@@ -17561,13 +17579,13 @@
         <v>60</v>
       </c>
       <c r="J7" s="136" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K7" s="97">
         <v>44099</v>
       </c>
       <c r="L7" s="107" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M7" s="108"/>
       <c r="N7" s="100"/>
@@ -17580,11 +17598,11 @@
         <f>ROW(B8)-ROW($B$3)</f>
         <v>5</v>
       </c>
-      <c r="C8" s="246"/>
-      <c r="D8" s="249"/>
-      <c r="E8" s="242"/>
-      <c r="F8" s="242"/>
-      <c r="G8" s="242"/>
+      <c r="C8" s="254"/>
+      <c r="D8" s="257"/>
+      <c r="E8" s="250"/>
+      <c r="F8" s="250"/>
+      <c r="G8" s="250"/>
       <c r="H8" s="140">
         <v>0</v>
       </c>
@@ -17592,13 +17610,13 @@
         <v>61</v>
       </c>
       <c r="J8" s="137" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K8" s="97">
         <v>44099</v>
       </c>
       <c r="L8" s="111" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M8" s="112"/>
       <c r="N8" s="100"/>
@@ -17611,11 +17629,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="246"/>
-      <c r="D9" s="249"/>
-      <c r="E9" s="242"/>
-      <c r="F9" s="242"/>
-      <c r="G9" s="242"/>
+      <c r="C9" s="254"/>
+      <c r="D9" s="257"/>
+      <c r="E9" s="250"/>
+      <c r="F9" s="250"/>
+      <c r="G9" s="250"/>
       <c r="H9" s="140">
         <v>0</v>
       </c>
@@ -17623,13 +17641,13 @@
         <v>255</v>
       </c>
       <c r="J9" s="137" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K9" s="97">
         <v>44099</v>
       </c>
       <c r="L9" s="111" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M9" s="112"/>
       <c r="N9" s="100"/>
@@ -17642,11 +17660,11 @@
         <f>ROW(B10)-ROW($B$3)</f>
         <v>7</v>
       </c>
-      <c r="C10" s="246"/>
-      <c r="D10" s="249"/>
-      <c r="E10" s="242"/>
-      <c r="F10" s="242"/>
-      <c r="G10" s="242"/>
+      <c r="C10" s="254"/>
+      <c r="D10" s="257"/>
+      <c r="E10" s="250"/>
+      <c r="F10" s="250"/>
+      <c r="G10" s="250"/>
       <c r="H10" s="104">
         <v>1</v>
       </c>
@@ -17654,13 +17672,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="136" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K10" s="97">
         <v>44099</v>
       </c>
       <c r="L10" s="107" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M10" s="108"/>
       <c r="N10" s="100"/>
@@ -17673,11 +17691,11 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="246"/>
-      <c r="D11" s="249"/>
-      <c r="E11" s="242"/>
-      <c r="F11" s="242"/>
-      <c r="G11" s="242"/>
+      <c r="C11" s="254"/>
+      <c r="D11" s="257"/>
+      <c r="E11" s="250"/>
+      <c r="F11" s="250"/>
+      <c r="G11" s="250"/>
       <c r="H11" s="104">
         <v>1</v>
       </c>
@@ -17685,13 +17703,13 @@
         <v>30</v>
       </c>
       <c r="J11" s="136" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K11" s="97">
         <v>44099</v>
       </c>
       <c r="L11" s="107" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M11" s="108"/>
       <c r="N11" s="100"/>
@@ -17704,11 +17722,11 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="246"/>
-      <c r="D12" s="249"/>
-      <c r="E12" s="242"/>
-      <c r="F12" s="242"/>
-      <c r="G12" s="242"/>
+      <c r="C12" s="254"/>
+      <c r="D12" s="257"/>
+      <c r="E12" s="250"/>
+      <c r="F12" s="250"/>
+      <c r="G12" s="250"/>
       <c r="H12" s="104">
         <v>1</v>
       </c>
@@ -17716,13 +17734,13 @@
         <v>60</v>
       </c>
       <c r="J12" s="136" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K12" s="97">
         <v>44099</v>
       </c>
       <c r="L12" s="107" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M12" s="108"/>
       <c r="N12" s="100"/>
@@ -17735,11 +17753,11 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C13" s="246"/>
-      <c r="D13" s="249"/>
-      <c r="E13" s="242"/>
-      <c r="F13" s="242"/>
-      <c r="G13" s="242"/>
+      <c r="C13" s="254"/>
+      <c r="D13" s="257"/>
+      <c r="E13" s="250"/>
+      <c r="F13" s="250"/>
+      <c r="G13" s="250"/>
       <c r="H13" s="140">
         <v>1</v>
       </c>
@@ -17747,13 +17765,13 @@
         <v>61</v>
       </c>
       <c r="J13" s="137" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K13" s="97">
         <v>44099</v>
       </c>
       <c r="L13" s="111" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M13" s="112"/>
       <c r="N13" s="100"/>
@@ -17766,11 +17784,11 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="246"/>
-      <c r="D14" s="249"/>
-      <c r="E14" s="242"/>
-      <c r="F14" s="242"/>
-      <c r="G14" s="242"/>
+      <c r="C14" s="254"/>
+      <c r="D14" s="257"/>
+      <c r="E14" s="250"/>
+      <c r="F14" s="250"/>
+      <c r="G14" s="250"/>
       <c r="H14" s="140">
         <v>1</v>
       </c>
@@ -17778,13 +17796,13 @@
         <v>255</v>
       </c>
       <c r="J14" s="137" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K14" s="97">
         <v>44099</v>
       </c>
       <c r="L14" s="111" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M14" s="112"/>
       <c r="N14" s="100"/>
@@ -17797,11 +17815,11 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C15" s="246"/>
-      <c r="D15" s="249"/>
-      <c r="E15" s="242"/>
-      <c r="F15" s="242"/>
-      <c r="G15" s="242"/>
+      <c r="C15" s="254"/>
+      <c r="D15" s="257"/>
+      <c r="E15" s="250"/>
+      <c r="F15" s="250"/>
+      <c r="G15" s="250"/>
       <c r="H15" s="104">
         <v>2</v>
       </c>
@@ -17809,13 +17827,13 @@
         <v>0</v>
       </c>
       <c r="J15" s="136" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K15" s="97">
         <v>44099</v>
       </c>
       <c r="L15" s="107" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M15" s="108"/>
       <c r="N15" s="100"/>
@@ -17828,11 +17846,11 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C16" s="246"/>
-      <c r="D16" s="249"/>
-      <c r="E16" s="242"/>
-      <c r="F16" s="242"/>
-      <c r="G16" s="242"/>
+      <c r="C16" s="254"/>
+      <c r="D16" s="257"/>
+      <c r="E16" s="250"/>
+      <c r="F16" s="250"/>
+      <c r="G16" s="250"/>
       <c r="H16" s="104">
         <v>2</v>
       </c>
@@ -17840,13 +17858,13 @@
         <v>30</v>
       </c>
       <c r="J16" s="136" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K16" s="97">
         <v>44099</v>
       </c>
       <c r="L16" s="107" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M16" s="108"/>
       <c r="N16" s="100"/>
@@ -17859,11 +17877,11 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C17" s="246"/>
-      <c r="D17" s="249"/>
-      <c r="E17" s="242"/>
-      <c r="F17" s="242"/>
-      <c r="G17" s="242"/>
+      <c r="C17" s="254"/>
+      <c r="D17" s="257"/>
+      <c r="E17" s="250"/>
+      <c r="F17" s="250"/>
+      <c r="G17" s="250"/>
       <c r="H17" s="104">
         <v>2</v>
       </c>
@@ -17871,13 +17889,13 @@
         <v>60</v>
       </c>
       <c r="J17" s="136" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K17" s="97">
         <v>44099</v>
       </c>
       <c r="L17" s="107" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M17" s="108"/>
       <c r="N17" s="100"/>
@@ -17890,11 +17908,11 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C18" s="246"/>
-      <c r="D18" s="249"/>
-      <c r="E18" s="242"/>
-      <c r="F18" s="242"/>
-      <c r="G18" s="242"/>
+      <c r="C18" s="254"/>
+      <c r="D18" s="257"/>
+      <c r="E18" s="250"/>
+      <c r="F18" s="250"/>
+      <c r="G18" s="250"/>
       <c r="H18" s="140">
         <v>2</v>
       </c>
@@ -17902,13 +17920,13 @@
         <v>61</v>
       </c>
       <c r="J18" s="137" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K18" s="97">
         <v>44099</v>
       </c>
       <c r="L18" s="111" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M18" s="112"/>
       <c r="N18" s="100"/>
@@ -17921,11 +17939,11 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C19" s="246"/>
-      <c r="D19" s="249"/>
-      <c r="E19" s="242"/>
-      <c r="F19" s="242"/>
-      <c r="G19" s="242"/>
+      <c r="C19" s="254"/>
+      <c r="D19" s="257"/>
+      <c r="E19" s="250"/>
+      <c r="F19" s="250"/>
+      <c r="G19" s="250"/>
       <c r="H19" s="140">
         <v>2</v>
       </c>
@@ -17933,13 +17951,13 @@
         <v>255</v>
       </c>
       <c r="J19" s="137" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K19" s="97">
         <v>44099</v>
       </c>
       <c r="L19" s="111" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M19" s="112"/>
       <c r="N19" s="100"/>
@@ -17952,11 +17970,11 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C20" s="246"/>
-      <c r="D20" s="249"/>
-      <c r="E20" s="242"/>
-      <c r="F20" s="242"/>
-      <c r="G20" s="242"/>
+      <c r="C20" s="254"/>
+      <c r="D20" s="257"/>
+      <c r="E20" s="250"/>
+      <c r="F20" s="250"/>
+      <c r="G20" s="250"/>
       <c r="H20" s="104">
         <v>3</v>
       </c>
@@ -17964,13 +17982,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="137" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K20" s="97">
         <v>44099</v>
       </c>
       <c r="L20" s="107" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M20" s="108"/>
       <c r="N20" s="100"/>
@@ -17983,11 +18001,11 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C21" s="246"/>
-      <c r="D21" s="249"/>
-      <c r="E21" s="242"/>
-      <c r="F21" s="242"/>
-      <c r="G21" s="242"/>
+      <c r="C21" s="254"/>
+      <c r="D21" s="257"/>
+      <c r="E21" s="250"/>
+      <c r="F21" s="250"/>
+      <c r="G21" s="250"/>
       <c r="H21" s="104">
         <v>3</v>
       </c>
@@ -17995,13 +18013,13 @@
         <v>30</v>
       </c>
       <c r="J21" s="137" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K21" s="97">
         <v>44099</v>
       </c>
       <c r="L21" s="107" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M21" s="108"/>
       <c r="N21" s="100"/>
@@ -18014,11 +18032,11 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C22" s="246"/>
-      <c r="D22" s="249"/>
-      <c r="E22" s="242"/>
-      <c r="F22" s="242"/>
-      <c r="G22" s="242"/>
+      <c r="C22" s="254"/>
+      <c r="D22" s="257"/>
+      <c r="E22" s="250"/>
+      <c r="F22" s="250"/>
+      <c r="G22" s="250"/>
       <c r="H22" s="104">
         <v>3</v>
       </c>
@@ -18026,13 +18044,13 @@
         <v>60</v>
       </c>
       <c r="J22" s="137" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K22" s="97">
         <v>44099</v>
       </c>
       <c r="L22" s="107" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M22" s="108"/>
       <c r="N22" s="100"/>
@@ -18045,11 +18063,11 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C23" s="246"/>
-      <c r="D23" s="249"/>
-      <c r="E23" s="242"/>
-      <c r="F23" s="242"/>
-      <c r="G23" s="242"/>
+      <c r="C23" s="254"/>
+      <c r="D23" s="257"/>
+      <c r="E23" s="250"/>
+      <c r="F23" s="250"/>
+      <c r="G23" s="250"/>
       <c r="H23" s="140">
         <v>3</v>
       </c>
@@ -18057,13 +18075,13 @@
         <v>61</v>
       </c>
       <c r="J23" s="137" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K23" s="97">
         <v>44099</v>
       </c>
       <c r="L23" s="111" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M23" s="112"/>
       <c r="N23" s="100"/>
@@ -18076,11 +18094,11 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C24" s="246"/>
-      <c r="D24" s="249"/>
-      <c r="E24" s="242"/>
-      <c r="F24" s="242"/>
-      <c r="G24" s="242"/>
+      <c r="C24" s="254"/>
+      <c r="D24" s="257"/>
+      <c r="E24" s="250"/>
+      <c r="F24" s="250"/>
+      <c r="G24" s="250"/>
       <c r="H24" s="140">
         <v>3</v>
       </c>
@@ -18088,13 +18106,13 @@
         <v>255</v>
       </c>
       <c r="J24" s="137" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K24" s="97">
         <v>44099</v>
       </c>
       <c r="L24" s="111" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M24" s="112"/>
       <c r="N24" s="100"/>
@@ -18107,11 +18125,11 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C25" s="246"/>
-      <c r="D25" s="249"/>
-      <c r="E25" s="242"/>
-      <c r="F25" s="242"/>
-      <c r="G25" s="242"/>
+      <c r="C25" s="254"/>
+      <c r="D25" s="257"/>
+      <c r="E25" s="250"/>
+      <c r="F25" s="250"/>
+      <c r="G25" s="250"/>
       <c r="H25" s="104">
         <v>255</v>
       </c>
@@ -18119,13 +18137,13 @@
         <v>0</v>
       </c>
       <c r="J25" s="137" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K25" s="97">
         <v>44099</v>
       </c>
       <c r="L25" s="107" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M25" s="108"/>
       <c r="N25" s="100"/>
@@ -18138,11 +18156,11 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C26" s="246"/>
-      <c r="D26" s="249"/>
-      <c r="E26" s="242"/>
-      <c r="F26" s="242"/>
-      <c r="G26" s="242"/>
+      <c r="C26" s="254"/>
+      <c r="D26" s="257"/>
+      <c r="E26" s="250"/>
+      <c r="F26" s="250"/>
+      <c r="G26" s="250"/>
       <c r="H26" s="104">
         <v>255</v>
       </c>
@@ -18150,13 +18168,13 @@
         <v>30</v>
       </c>
       <c r="J26" s="137" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K26" s="97">
         <v>44099</v>
       </c>
       <c r="L26" s="107" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M26" s="108"/>
       <c r="N26" s="100"/>
@@ -18169,11 +18187,11 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C27" s="246"/>
-      <c r="D27" s="249"/>
-      <c r="E27" s="242"/>
-      <c r="F27" s="242"/>
-      <c r="G27" s="242"/>
+      <c r="C27" s="254"/>
+      <c r="D27" s="257"/>
+      <c r="E27" s="250"/>
+      <c r="F27" s="250"/>
+      <c r="G27" s="250"/>
       <c r="H27" s="104">
         <v>255</v>
       </c>
@@ -18181,13 +18199,13 @@
         <v>60</v>
       </c>
       <c r="J27" s="137" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K27" s="97">
         <v>44099</v>
       </c>
       <c r="L27" s="107" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M27" s="108"/>
       <c r="N27" s="100"/>
@@ -18200,11 +18218,11 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C28" s="246"/>
-      <c r="D28" s="249"/>
-      <c r="E28" s="242"/>
-      <c r="F28" s="242"/>
-      <c r="G28" s="242"/>
+      <c r="C28" s="254"/>
+      <c r="D28" s="257"/>
+      <c r="E28" s="250"/>
+      <c r="F28" s="250"/>
+      <c r="G28" s="250"/>
       <c r="H28" s="140">
         <v>255</v>
       </c>
@@ -18212,13 +18230,13 @@
         <v>61</v>
       </c>
       <c r="J28" s="137" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K28" s="97">
         <v>44099</v>
       </c>
       <c r="L28" s="111" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M28" s="112"/>
       <c r="N28" s="100"/>
@@ -18231,11 +18249,11 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C29" s="247"/>
-      <c r="D29" s="250"/>
-      <c r="E29" s="244"/>
-      <c r="F29" s="244"/>
-      <c r="G29" s="244"/>
+      <c r="C29" s="255"/>
+      <c r="D29" s="258"/>
+      <c r="E29" s="251"/>
+      <c r="F29" s="251"/>
+      <c r="G29" s="251"/>
       <c r="H29" s="140">
         <v>255</v>
       </c>
@@ -18243,13 +18261,13 @@
         <v>255</v>
       </c>
       <c r="J29" s="137" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K29" s="97">
         <v>44099</v>
       </c>
       <c r="L29" s="111" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M29" s="112"/>
       <c r="N29" s="100"/>
@@ -18262,35 +18280,35 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C30" s="239" t="s">
+      <c r="C30" s="246" t="s">
+        <v>422</v>
+      </c>
+      <c r="D30" s="249" t="s">
         <v>423</v>
       </c>
-      <c r="D30" s="241" t="s">
+      <c r="E30" s="249" t="s">
         <v>424</v>
       </c>
-      <c r="E30" s="241" t="s">
+      <c r="F30" s="249" t="s">
         <v>425</v>
       </c>
-      <c r="F30" s="241" t="s">
-        <v>426</v>
-      </c>
-      <c r="G30" s="241" t="s">
-        <v>438</v>
+      <c r="G30" s="249" t="s">
+        <v>437</v>
       </c>
       <c r="H30" s="109" t="s">
+        <v>427</v>
+      </c>
+      <c r="I30" s="110" t="s">
+        <v>417</v>
+      </c>
+      <c r="J30" s="136" t="s">
         <v>428</v>
-      </c>
-      <c r="I30" s="110" t="s">
-        <v>418</v>
-      </c>
-      <c r="J30" s="136" t="s">
-        <v>429</v>
       </c>
       <c r="K30" s="97">
         <v>44099</v>
       </c>
       <c r="L30" s="111" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M30" s="112"/>
       <c r="N30" s="100"/>
@@ -18303,25 +18321,25 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C31" s="240"/>
-      <c r="D31" s="242"/>
-      <c r="E31" s="242"/>
-      <c r="F31" s="242"/>
-      <c r="G31" s="242"/>
+      <c r="C31" s="247"/>
+      <c r="D31" s="250"/>
+      <c r="E31" s="250"/>
+      <c r="F31" s="250"/>
+      <c r="G31" s="250"/>
       <c r="H31" s="113" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I31" s="110" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J31" s="114" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K31" s="97">
         <v>44099</v>
       </c>
       <c r="L31" s="111" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M31" s="138"/>
       <c r="N31" s="115"/>
@@ -18334,25 +18352,25 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C32" s="243"/>
-      <c r="D32" s="244"/>
-      <c r="E32" s="244"/>
-      <c r="F32" s="244"/>
-      <c r="G32" s="244"/>
+      <c r="C32" s="248"/>
+      <c r="D32" s="251"/>
+      <c r="E32" s="251"/>
+      <c r="F32" s="251"/>
+      <c r="G32" s="251"/>
       <c r="H32" s="113" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I32" s="110" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J32" s="114" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K32" s="97">
         <v>44099</v>
       </c>
       <c r="L32" s="107" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M32" s="108"/>
       <c r="N32" s="115"/>
@@ -19571,16 +19589,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C5:C29"/>
+    <mergeCell ref="D5:D29"/>
+    <mergeCell ref="E5:E29"/>
+    <mergeCell ref="G5:G29"/>
+    <mergeCell ref="F5:F29"/>
     <mergeCell ref="C30:C32"/>
     <mergeCell ref="D30:D32"/>
     <mergeCell ref="E30:E32"/>
     <mergeCell ref="F30:F32"/>
     <mergeCell ref="G30:G32"/>
-    <mergeCell ref="C5:C29"/>
-    <mergeCell ref="D5:D29"/>
-    <mergeCell ref="E5:E29"/>
-    <mergeCell ref="G5:G29"/>
-    <mergeCell ref="F5:F29"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19609,13 +19627,13 @@
     </row>
     <row r="3" spans="2:4" ht="16.5" customHeight="1">
       <c r="B3" s="62" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" s="63" t="s">
         <v>300</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="D3" s="62" t="s">
         <v>301</v>
-      </c>
-      <c r="D3" s="62" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="16.5" customHeight="1">
@@ -20054,50 +20072,50 @@
   <sheetData>
     <row r="2" spans="2:11" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="3" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="251"/>
-      <c r="C3" s="252"/>
-      <c r="D3" s="257" t="s">
+      <c r="B3" s="259"/>
+      <c r="C3" s="260"/>
+      <c r="D3" s="265" t="s">
+        <v>304</v>
+      </c>
+      <c r="E3" s="266"/>
+      <c r="F3" s="266"/>
+      <c r="G3" s="266"/>
+      <c r="H3" s="266"/>
+      <c r="I3" s="266"/>
+      <c r="J3" s="266"/>
+      <c r="K3" s="267"/>
+    </row>
+    <row r="4" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B4" s="261"/>
+      <c r="C4" s="262"/>
+      <c r="D4" s="86" t="s">
         <v>305</v>
       </c>
-      <c r="E3" s="258"/>
-      <c r="F3" s="258"/>
-      <c r="G3" s="258"/>
-      <c r="H3" s="258"/>
-      <c r="I3" s="258"/>
-      <c r="J3" s="258"/>
-      <c r="K3" s="259"/>
-    </row>
-    <row r="4" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B4" s="253"/>
-      <c r="C4" s="254"/>
-      <c r="D4" s="86" t="s">
-        <v>306</v>
-      </c>
       <c r="E4" s="82" t="s">
+        <v>310</v>
+      </c>
+      <c r="F4" s="86" t="s">
         <v>311</v>
       </c>
-      <c r="F4" s="86" t="s">
+      <c r="G4" s="84" t="s">
+        <v>310</v>
+      </c>
+      <c r="H4" s="86" t="s">
         <v>312</v>
       </c>
-      <c r="G4" s="84" t="s">
-        <v>311</v>
-      </c>
-      <c r="H4" s="86" t="s">
+      <c r="I4" s="82" t="s">
+        <v>310</v>
+      </c>
+      <c r="J4" s="86" t="s">
         <v>313</v>
       </c>
-      <c r="I4" s="82" t="s">
-        <v>311</v>
-      </c>
-      <c r="J4" s="86" t="s">
-        <v>314</v>
-      </c>
       <c r="K4" s="84" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B5" s="255" t="s">
-        <v>304</v>
+      <c r="B5" s="263" t="s">
+        <v>303</v>
       </c>
       <c r="C5" s="43">
         <v>0</v>
@@ -20124,7 +20142,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B6" s="255"/>
+      <c r="B6" s="263"/>
       <c r="C6" s="18">
         <v>1</v>
       </c>
@@ -20138,7 +20156,7 @@
       <c r="K6" s="85"/>
     </row>
     <row r="7" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B7" s="255"/>
+      <c r="B7" s="263"/>
       <c r="C7" s="18">
         <v>2</v>
       </c>
@@ -20152,7 +20170,7 @@
       <c r="K7" s="85"/>
     </row>
     <row r="8" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B8" s="255"/>
+      <c r="B8" s="263"/>
       <c r="C8" s="18">
         <v>3</v>
       </c>
@@ -20166,7 +20184,7 @@
       <c r="K8" s="85"/>
     </row>
     <row r="9" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B9" s="255"/>
+      <c r="B9" s="263"/>
       <c r="C9" s="18">
         <v>4</v>
       </c>
@@ -20180,7 +20198,7 @@
       <c r="K9" s="85"/>
     </row>
     <row r="10" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B10" s="255"/>
+      <c r="B10" s="263"/>
       <c r="C10" s="18">
         <v>5</v>
       </c>
@@ -20194,7 +20212,7 @@
       <c r="K10" s="85"/>
     </row>
     <row r="11" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B11" s="255"/>
+      <c r="B11" s="263"/>
       <c r="C11" s="18">
         <v>6</v>
       </c>
@@ -20208,7 +20226,7 @@
       <c r="K11" s="85"/>
     </row>
     <row r="12" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B12" s="255"/>
+      <c r="B12" s="263"/>
       <c r="C12" s="18">
         <v>7</v>
       </c>
@@ -20222,7 +20240,7 @@
       <c r="K12" s="85"/>
     </row>
     <row r="13" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B13" s="255"/>
+      <c r="B13" s="263"/>
       <c r="C13" s="18">
         <v>8</v>
       </c>
@@ -20236,7 +20254,7 @@
       <c r="K13" s="85"/>
     </row>
     <row r="14" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B14" s="255"/>
+      <c r="B14" s="263"/>
       <c r="C14" s="18">
         <v>9</v>
       </c>
@@ -20250,7 +20268,7 @@
       <c r="K14" s="85"/>
     </row>
     <row r="15" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B15" s="255"/>
+      <c r="B15" s="263"/>
       <c r="C15" s="18">
         <v>10</v>
       </c>
@@ -20264,7 +20282,7 @@
       <c r="K15" s="85"/>
     </row>
     <row r="16" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B16" s="255"/>
+      <c r="B16" s="263"/>
       <c r="C16" s="18">
         <v>11</v>
       </c>
@@ -20278,7 +20296,7 @@
       <c r="K16" s="85"/>
     </row>
     <row r="17" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B17" s="255"/>
+      <c r="B17" s="263"/>
       <c r="C17" s="18">
         <v>12</v>
       </c>
@@ -20292,7 +20310,7 @@
       <c r="K17" s="85"/>
     </row>
     <row r="18" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B18" s="255"/>
+      <c r="B18" s="263"/>
       <c r="C18" s="18">
         <v>13</v>
       </c>
@@ -20306,7 +20324,7 @@
       <c r="K18" s="85"/>
     </row>
     <row r="19" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B19" s="255"/>
+      <c r="B19" s="263"/>
       <c r="C19" s="18">
         <v>14</v>
       </c>
@@ -20320,7 +20338,7 @@
       <c r="K19" s="85"/>
     </row>
     <row r="20" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B20" s="255"/>
+      <c r="B20" s="263"/>
       <c r="C20" s="18">
         <v>15</v>
       </c>
@@ -20334,7 +20352,7 @@
       <c r="K20" s="85"/>
     </row>
     <row r="21" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B21" s="255"/>
+      <c r="B21" s="263"/>
       <c r="C21" s="18">
         <v>16</v>
       </c>
@@ -20348,7 +20366,7 @@
       <c r="K21" s="85"/>
     </row>
     <row r="22" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B22" s="255"/>
+      <c r="B22" s="263"/>
       <c r="C22" s="18">
         <v>17</v>
       </c>
@@ -20362,7 +20380,7 @@
       <c r="K22" s="85"/>
     </row>
     <row r="23" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B23" s="255"/>
+      <c r="B23" s="263"/>
       <c r="C23" s="18">
         <v>18</v>
       </c>
@@ -20376,7 +20394,7 @@
       <c r="K23" s="68"/>
     </row>
     <row r="24" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B24" s="255"/>
+      <c r="B24" s="263"/>
       <c r="C24" s="18">
         <v>19</v>
       </c>
@@ -20390,7 +20408,7 @@
       <c r="K24" s="68"/>
     </row>
     <row r="25" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B25" s="255"/>
+      <c r="B25" s="263"/>
       <c r="C25" s="18">
         <v>20</v>
       </c>
@@ -20404,7 +20422,7 @@
       <c r="K25" s="68"/>
     </row>
     <row r="26" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B26" s="255"/>
+      <c r="B26" s="263"/>
       <c r="C26" s="18">
         <v>21</v>
       </c>
@@ -20418,7 +20436,7 @@
       <c r="K26" s="68"/>
     </row>
     <row r="27" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B27" s="255"/>
+      <c r="B27" s="263"/>
       <c r="C27" s="18">
         <v>22</v>
       </c>
@@ -20432,7 +20450,7 @@
       <c r="K27" s="68"/>
     </row>
     <row r="28" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B28" s="255"/>
+      <c r="B28" s="263"/>
       <c r="C28" s="18">
         <v>23</v>
       </c>
@@ -20446,7 +20464,7 @@
       <c r="K28" s="68"/>
     </row>
     <row r="29" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B29" s="255"/>
+      <c r="B29" s="263"/>
       <c r="C29" s="18">
         <v>24</v>
       </c>
@@ -20460,7 +20478,7 @@
       <c r="K29" s="68"/>
     </row>
     <row r="30" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B30" s="255"/>
+      <c r="B30" s="263"/>
       <c r="C30" s="18">
         <v>25</v>
       </c>
@@ -20474,7 +20492,7 @@
       <c r="K30" s="68"/>
     </row>
     <row r="31" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B31" s="255"/>
+      <c r="B31" s="263"/>
       <c r="C31" s="18">
         <v>26</v>
       </c>
@@ -20488,7 +20506,7 @@
       <c r="K31" s="68"/>
     </row>
     <row r="32" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B32" s="255"/>
+      <c r="B32" s="263"/>
       <c r="C32" s="18">
         <v>27</v>
       </c>
@@ -20502,7 +20520,7 @@
       <c r="K32" s="68"/>
     </row>
     <row r="33" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B33" s="255"/>
+      <c r="B33" s="263"/>
       <c r="C33" s="18">
         <v>28</v>
       </c>
@@ -20516,7 +20534,7 @@
       <c r="K33" s="68"/>
     </row>
     <row r="34" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B34" s="255"/>
+      <c r="B34" s="263"/>
       <c r="C34" s="18">
         <v>29</v>
       </c>
@@ -20530,7 +20548,7 @@
       <c r="K34" s="68"/>
     </row>
     <row r="35" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B35" s="255"/>
+      <c r="B35" s="263"/>
       <c r="C35" s="18">
         <v>30</v>
       </c>
@@ -20544,7 +20562,7 @@
       <c r="K35" s="68"/>
     </row>
     <row r="36" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B36" s="255"/>
+      <c r="B36" s="263"/>
       <c r="C36" s="18">
         <v>31</v>
       </c>
@@ -20558,7 +20576,7 @@
       <c r="K36" s="68"/>
     </row>
     <row r="37" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B37" s="255"/>
+      <c r="B37" s="263"/>
       <c r="C37" s="18">
         <v>32</v>
       </c>
@@ -20572,7 +20590,7 @@
       <c r="K37" s="68"/>
     </row>
     <row r="38" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B38" s="255"/>
+      <c r="B38" s="263"/>
       <c r="C38" s="18">
         <v>33</v>
       </c>
@@ -20586,7 +20604,7 @@
       <c r="K38" s="68"/>
     </row>
     <row r="39" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B39" s="255"/>
+      <c r="B39" s="263"/>
       <c r="C39" s="18">
         <v>34</v>
       </c>
@@ -20600,7 +20618,7 @@
       <c r="K39" s="68"/>
     </row>
     <row r="40" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B40" s="255"/>
+      <c r="B40" s="263"/>
       <c r="C40" s="18">
         <v>35</v>
       </c>
@@ -20614,7 +20632,7 @@
       <c r="K40" s="68"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B41" s="255"/>
+      <c r="B41" s="263"/>
       <c r="C41" s="18">
         <v>36</v>
       </c>
@@ -20628,7 +20646,7 @@
       <c r="K41" s="68"/>
     </row>
     <row r="42" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B42" s="255"/>
+      <c r="B42" s="263"/>
       <c r="C42" s="18">
         <v>37</v>
       </c>
@@ -20642,7 +20660,7 @@
       <c r="K42" s="68"/>
     </row>
     <row r="43" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B43" s="255"/>
+      <c r="B43" s="263"/>
       <c r="C43" s="18">
         <v>38</v>
       </c>
@@ -20656,7 +20674,7 @@
       <c r="K43" s="68"/>
     </row>
     <row r="44" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B44" s="255"/>
+      <c r="B44" s="263"/>
       <c r="C44" s="18">
         <v>39</v>
       </c>
@@ -20670,7 +20688,7 @@
       <c r="K44" s="68"/>
     </row>
     <row r="45" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B45" s="255"/>
+      <c r="B45" s="263"/>
       <c r="C45" s="18">
         <v>40</v>
       </c>
@@ -20684,7 +20702,7 @@
       <c r="K45" s="68"/>
     </row>
     <row r="46" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B46" s="255"/>
+      <c r="B46" s="263"/>
       <c r="C46" s="18">
         <v>41</v>
       </c>
@@ -20698,7 +20716,7 @@
       <c r="K46" s="68"/>
     </row>
     <row r="47" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B47" s="255"/>
+      <c r="B47" s="263"/>
       <c r="C47" s="18">
         <v>42</v>
       </c>
@@ -20712,7 +20730,7 @@
       <c r="K47" s="68"/>
     </row>
     <row r="48" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B48" s="255"/>
+      <c r="B48" s="263"/>
       <c r="C48" s="18">
         <v>43</v>
       </c>
@@ -20726,7 +20744,7 @@
       <c r="K48" s="68"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B49" s="255"/>
+      <c r="B49" s="263"/>
       <c r="C49" s="18">
         <v>44</v>
       </c>
@@ -20740,7 +20758,7 @@
       <c r="K49" s="68"/>
     </row>
     <row r="50" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B50" s="255"/>
+      <c r="B50" s="263"/>
       <c r="C50" s="18">
         <v>45</v>
       </c>
@@ -20754,7 +20772,7 @@
       <c r="K50" s="68"/>
     </row>
     <row r="51" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B51" s="255"/>
+      <c r="B51" s="263"/>
       <c r="C51" s="18">
         <v>46</v>
       </c>
@@ -20768,7 +20786,7 @@
       <c r="K51" s="68"/>
     </row>
     <row r="52" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B52" s="255"/>
+      <c r="B52" s="263"/>
       <c r="C52" s="18">
         <v>47</v>
       </c>
@@ -20782,7 +20800,7 @@
       <c r="K52" s="68"/>
     </row>
     <row r="53" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B53" s="255"/>
+      <c r="B53" s="263"/>
       <c r="C53" s="18">
         <v>48</v>
       </c>
@@ -20796,7 +20814,7 @@
       <c r="K53" s="68"/>
     </row>
     <row r="54" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B54" s="255"/>
+      <c r="B54" s="263"/>
       <c r="C54" s="18">
         <v>49</v>
       </c>
@@ -20810,7 +20828,7 @@
       <c r="K54" s="68"/>
     </row>
     <row r="55" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B55" s="255"/>
+      <c r="B55" s="263"/>
       <c r="C55" s="18">
         <v>50</v>
       </c>
@@ -20824,7 +20842,7 @@
       <c r="K55" s="68"/>
     </row>
     <row r="56" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B56" s="255"/>
+      <c r="B56" s="263"/>
       <c r="C56" s="18">
         <v>51</v>
       </c>
@@ -20838,7 +20856,7 @@
       <c r="K56" s="68"/>
     </row>
     <row r="57" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B57" s="255"/>
+      <c r="B57" s="263"/>
       <c r="C57" s="18">
         <v>52</v>
       </c>
@@ -20852,7 +20870,7 @@
       <c r="K57" s="68"/>
     </row>
     <row r="58" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B58" s="255"/>
+      <c r="B58" s="263"/>
       <c r="C58" s="18">
         <v>53</v>
       </c>
@@ -20866,7 +20884,7 @@
       <c r="K58" s="68"/>
     </row>
     <row r="59" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B59" s="255"/>
+      <c r="B59" s="263"/>
       <c r="C59" s="18">
         <v>54</v>
       </c>
@@ -20880,7 +20898,7 @@
       <c r="K59" s="68"/>
     </row>
     <row r="60" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B60" s="255"/>
+      <c r="B60" s="263"/>
       <c r="C60" s="18">
         <v>55</v>
       </c>
@@ -20894,7 +20912,7 @@
       <c r="K60" s="68"/>
     </row>
     <row r="61" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B61" s="255"/>
+      <c r="B61" s="263"/>
       <c r="C61" s="18">
         <v>56</v>
       </c>
@@ -20908,7 +20926,7 @@
       <c r="K61" s="68"/>
     </row>
     <row r="62" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B62" s="255"/>
+      <c r="B62" s="263"/>
       <c r="C62" s="18">
         <v>57</v>
       </c>
@@ -20922,7 +20940,7 @@
       <c r="K62" s="68"/>
     </row>
     <row r="63" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B63" s="255"/>
+      <c r="B63" s="263"/>
       <c r="C63" s="18">
         <v>58</v>
       </c>
@@ -20936,7 +20954,7 @@
       <c r="K63" s="68"/>
     </row>
     <row r="64" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B64" s="255"/>
+      <c r="B64" s="263"/>
       <c r="C64" s="18">
         <v>59</v>
       </c>
@@ -20950,7 +20968,7 @@
       <c r="K64" s="68"/>
     </row>
     <row r="65" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B65" s="256"/>
+      <c r="B65" s="264"/>
       <c r="C65" s="24">
         <v>60</v>
       </c>
@@ -20990,12 +21008,12 @@
     <row r="2" spans="2:8" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="3" spans="2:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="C3" s="73"/>
-      <c r="D3" s="260" t="s">
-        <v>307</v>
-      </c>
-      <c r="E3" s="260"/>
-      <c r="F3" s="260"/>
-      <c r="G3" s="260"/>
+      <c r="D3" s="268" t="s">
+        <v>306</v>
+      </c>
+      <c r="E3" s="268"/>
+      <c r="F3" s="268"/>
+      <c r="G3" s="268"/>
       <c r="H3" s="30"/>
     </row>
     <row r="4" spans="2:8" ht="16.5" customHeight="1" thickBot="1">
@@ -21004,21 +21022,21 @@
         <v>0</v>
       </c>
       <c r="E4" s="76" t="s">
+        <v>307</v>
+      </c>
+      <c r="F4" s="75" t="s">
         <v>308</v>
       </c>
-      <c r="F4" s="75" t="s">
+      <c r="G4" s="77" t="s">
         <v>309</v>
       </c>
-      <c r="G4" s="77" t="s">
-        <v>310</v>
-      </c>
       <c r="H4" s="78" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B5" s="261" t="s">
-        <v>315</v>
+      <c r="B5" s="269" t="s">
+        <v>314</v>
       </c>
       <c r="C5" s="79">
         <v>0</v>
@@ -21030,7 +21048,7 @@
       <c r="H5" s="43"/>
     </row>
     <row r="6" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B6" s="262"/>
+      <c r="B6" s="270"/>
       <c r="C6" s="80">
         <v>1</v>
       </c>
@@ -21041,7 +21059,7 @@
       <c r="H6" s="18"/>
     </row>
     <row r="7" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B7" s="262"/>
+      <c r="B7" s="270"/>
       <c r="C7" s="80">
         <v>2</v>
       </c>
@@ -21052,7 +21070,7 @@
       <c r="H7" s="18"/>
     </row>
     <row r="8" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B8" s="262"/>
+      <c r="B8" s="270"/>
       <c r="C8" s="80">
         <v>3</v>
       </c>
@@ -21063,7 +21081,7 @@
       <c r="H8" s="18"/>
     </row>
     <row r="9" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B9" s="262"/>
+      <c r="B9" s="270"/>
       <c r="C9" s="80">
         <v>4</v>
       </c>
@@ -21074,7 +21092,7 @@
       <c r="H9" s="18"/>
     </row>
     <row r="10" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B10" s="262"/>
+      <c r="B10" s="270"/>
       <c r="C10" s="80">
         <v>5</v>
       </c>
@@ -21085,7 +21103,7 @@
       <c r="H10" s="18"/>
     </row>
     <row r="11" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B11" s="262"/>
+      <c r="B11" s="270"/>
       <c r="C11" s="80">
         <v>6</v>
       </c>
@@ -21096,7 +21114,7 @@
       <c r="H11" s="18"/>
     </row>
     <row r="12" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B12" s="262"/>
+      <c r="B12" s="270"/>
       <c r="C12" s="80">
         <v>7</v>
       </c>
@@ -21107,7 +21125,7 @@
       <c r="H12" s="18"/>
     </row>
     <row r="13" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B13" s="262"/>
+      <c r="B13" s="270"/>
       <c r="C13" s="80">
         <v>8</v>
       </c>
@@ -21118,7 +21136,7 @@
       <c r="H13" s="18"/>
     </row>
     <row r="14" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B14" s="262"/>
+      <c r="B14" s="270"/>
       <c r="C14" s="80">
         <v>9</v>
       </c>
@@ -21129,7 +21147,7 @@
       <c r="H14" s="18"/>
     </row>
     <row r="15" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B15" s="262"/>
+      <c r="B15" s="270"/>
       <c r="C15" s="80">
         <v>10</v>
       </c>
@@ -21140,7 +21158,7 @@
       <c r="H15" s="18"/>
     </row>
     <row r="16" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B16" s="262"/>
+      <c r="B16" s="270"/>
       <c r="C16" s="80">
         <v>11</v>
       </c>
@@ -21151,7 +21169,7 @@
       <c r="H16" s="18"/>
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B17" s="262"/>
+      <c r="B17" s="270"/>
       <c r="C17" s="80">
         <v>12</v>
       </c>
@@ -21162,7 +21180,7 @@
       <c r="H17" s="18"/>
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B18" s="262"/>
+      <c r="B18" s="270"/>
       <c r="C18" s="80">
         <v>13</v>
       </c>
@@ -21173,7 +21191,7 @@
       <c r="H18" s="18"/>
     </row>
     <row r="19" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B19" s="262"/>
+      <c r="B19" s="270"/>
       <c r="C19" s="80">
         <v>14</v>
       </c>
@@ -21184,7 +21202,7 @@
       <c r="H19" s="18"/>
     </row>
     <row r="20" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B20" s="262"/>
+      <c r="B20" s="270"/>
       <c r="C20" s="80">
         <v>15</v>
       </c>
@@ -21195,7 +21213,7 @@
       <c r="H20" s="18"/>
     </row>
     <row r="21" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B21" s="262"/>
+      <c r="B21" s="270"/>
       <c r="C21" s="80">
         <v>16</v>
       </c>
@@ -21206,7 +21224,7 @@
       <c r="H21" s="18"/>
     </row>
     <row r="22" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B22" s="262"/>
+      <c r="B22" s="270"/>
       <c r="C22" s="80">
         <v>17</v>
       </c>
@@ -21217,7 +21235,7 @@
       <c r="H22" s="18"/>
     </row>
     <row r="23" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B23" s="262"/>
+      <c r="B23" s="270"/>
       <c r="C23" s="80">
         <v>18</v>
       </c>
@@ -21228,7 +21246,7 @@
       <c r="H23" s="18"/>
     </row>
     <row r="24" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B24" s="262"/>
+      <c r="B24" s="270"/>
       <c r="C24" s="80">
         <v>19</v>
       </c>
@@ -21239,7 +21257,7 @@
       <c r="H24" s="18"/>
     </row>
     <row r="25" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B25" s="262"/>
+      <c r="B25" s="270"/>
       <c r="C25" s="80">
         <v>20</v>
       </c>
@@ -21250,7 +21268,7 @@
       <c r="H25" s="18"/>
     </row>
     <row r="26" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B26" s="262"/>
+      <c r="B26" s="270"/>
       <c r="C26" s="80">
         <v>21</v>
       </c>
@@ -21261,7 +21279,7 @@
       <c r="H26" s="18"/>
     </row>
     <row r="27" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B27" s="262"/>
+      <c r="B27" s="270"/>
       <c r="C27" s="80">
         <v>22</v>
       </c>
@@ -21272,7 +21290,7 @@
       <c r="H27" s="18"/>
     </row>
     <row r="28" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B28" s="262"/>
+      <c r="B28" s="270"/>
       <c r="C28" s="80">
         <v>23</v>
       </c>
@@ -21283,7 +21301,7 @@
       <c r="H28" s="18"/>
     </row>
     <row r="29" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B29" s="262"/>
+      <c r="B29" s="270"/>
       <c r="C29" s="80">
         <v>24</v>
       </c>
@@ -21294,7 +21312,7 @@
       <c r="H29" s="18"/>
     </row>
     <row r="30" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B30" s="262"/>
+      <c r="B30" s="270"/>
       <c r="C30" s="80">
         <v>25</v>
       </c>
@@ -21305,7 +21323,7 @@
       <c r="H30" s="18"/>
     </row>
     <row r="31" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B31" s="262"/>
+      <c r="B31" s="270"/>
       <c r="C31" s="80">
         <v>26</v>
       </c>
@@ -21316,7 +21334,7 @@
       <c r="H31" s="18"/>
     </row>
     <row r="32" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B32" s="262"/>
+      <c r="B32" s="270"/>
       <c r="C32" s="80">
         <v>27</v>
       </c>
@@ -21327,7 +21345,7 @@
       <c r="H32" s="18"/>
     </row>
     <row r="33" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B33" s="262"/>
+      <c r="B33" s="270"/>
       <c r="C33" s="80">
         <v>28</v>
       </c>
@@ -21338,7 +21356,7 @@
       <c r="H33" s="18"/>
     </row>
     <row r="34" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B34" s="262"/>
+      <c r="B34" s="270"/>
       <c r="C34" s="80">
         <v>29</v>
       </c>
@@ -21349,7 +21367,7 @@
       <c r="H34" s="68"/>
     </row>
     <row r="35" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B35" s="262"/>
+      <c r="B35" s="270"/>
       <c r="C35" s="80">
         <v>30</v>
       </c>
@@ -21360,7 +21378,7 @@
       <c r="H35" s="18"/>
     </row>
     <row r="36" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B36" s="262"/>
+      <c r="B36" s="270"/>
       <c r="C36" s="80">
         <v>31</v>
       </c>
@@ -21371,7 +21389,7 @@
       <c r="H36" s="18"/>
     </row>
     <row r="37" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B37" s="262"/>
+      <c r="B37" s="270"/>
       <c r="C37" s="80">
         <v>32</v>
       </c>
@@ -21382,7 +21400,7 @@
       <c r="H37" s="18"/>
     </row>
     <row r="38" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B38" s="262"/>
+      <c r="B38" s="270"/>
       <c r="C38" s="80">
         <v>33</v>
       </c>
@@ -21393,7 +21411,7 @@
       <c r="H38" s="18"/>
     </row>
     <row r="39" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B39" s="262"/>
+      <c r="B39" s="270"/>
       <c r="C39" s="80">
         <v>34</v>
       </c>
@@ -21404,7 +21422,7 @@
       <c r="H39" s="18"/>
     </row>
     <row r="40" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B40" s="262"/>
+      <c r="B40" s="270"/>
       <c r="C40" s="80">
         <v>35</v>
       </c>
@@ -21415,7 +21433,7 @@
       <c r="H40" s="18"/>
     </row>
     <row r="41" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B41" s="262"/>
+      <c r="B41" s="270"/>
       <c r="C41" s="80">
         <v>36</v>
       </c>
@@ -21426,7 +21444,7 @@
       <c r="H41" s="18"/>
     </row>
     <row r="42" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B42" s="262"/>
+      <c r="B42" s="270"/>
       <c r="C42" s="80">
         <v>37</v>
       </c>
@@ -21437,7 +21455,7 @@
       <c r="H42" s="18"/>
     </row>
     <row r="43" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B43" s="262"/>
+      <c r="B43" s="270"/>
       <c r="C43" s="80">
         <v>38</v>
       </c>
@@ -21448,7 +21466,7 @@
       <c r="H43" s="18"/>
     </row>
     <row r="44" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B44" s="262"/>
+      <c r="B44" s="270"/>
       <c r="C44" s="80">
         <v>39</v>
       </c>
@@ -21459,7 +21477,7 @@
       <c r="H44" s="18"/>
     </row>
     <row r="45" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B45" s="262"/>
+      <c r="B45" s="270"/>
       <c r="C45" s="80">
         <v>40</v>
       </c>
@@ -21470,7 +21488,7 @@
       <c r="H45" s="18"/>
     </row>
     <row r="46" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B46" s="262"/>
+      <c r="B46" s="270"/>
       <c r="C46" s="80">
         <v>41</v>
       </c>
@@ -21481,7 +21499,7 @@
       <c r="H46" s="18"/>
     </row>
     <row r="47" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B47" s="262"/>
+      <c r="B47" s="270"/>
       <c r="C47" s="80">
         <v>42</v>
       </c>
@@ -21492,7 +21510,7 @@
       <c r="H47" s="18"/>
     </row>
     <row r="48" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B48" s="262"/>
+      <c r="B48" s="270"/>
       <c r="C48" s="80">
         <v>43</v>
       </c>
@@ -21503,7 +21521,7 @@
       <c r="H48" s="18"/>
     </row>
     <row r="49" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B49" s="262"/>
+      <c r="B49" s="270"/>
       <c r="C49" s="80">
         <v>44</v>
       </c>
@@ -21514,7 +21532,7 @@
       <c r="H49" s="18"/>
     </row>
     <row r="50" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B50" s="262"/>
+      <c r="B50" s="270"/>
       <c r="C50" s="80">
         <v>45</v>
       </c>
@@ -21525,7 +21543,7 @@
       <c r="H50" s="18"/>
     </row>
     <row r="51" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B51" s="262"/>
+      <c r="B51" s="270"/>
       <c r="C51" s="80">
         <v>46</v>
       </c>
@@ -21536,7 +21554,7 @@
       <c r="H51" s="18"/>
     </row>
     <row r="52" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B52" s="262"/>
+      <c r="B52" s="270"/>
       <c r="C52" s="80">
         <v>47</v>
       </c>
@@ -21547,7 +21565,7 @@
       <c r="H52" s="18"/>
     </row>
     <row r="53" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B53" s="262"/>
+      <c r="B53" s="270"/>
       <c r="C53" s="80">
         <v>48</v>
       </c>
@@ -21558,7 +21576,7 @@
       <c r="H53" s="18"/>
     </row>
     <row r="54" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B54" s="262"/>
+      <c r="B54" s="270"/>
       <c r="C54" s="80">
         <v>49</v>
       </c>
@@ -21569,7 +21587,7 @@
       <c r="H54" s="18"/>
     </row>
     <row r="55" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B55" s="262"/>
+      <c r="B55" s="270"/>
       <c r="C55" s="80">
         <v>50</v>
       </c>
@@ -21580,7 +21598,7 @@
       <c r="H55" s="18"/>
     </row>
     <row r="56" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B56" s="262"/>
+      <c r="B56" s="270"/>
       <c r="C56" s="80">
         <v>51</v>
       </c>
@@ -21591,7 +21609,7 @@
       <c r="H56" s="18"/>
     </row>
     <row r="57" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B57" s="262"/>
+      <c r="B57" s="270"/>
       <c r="C57" s="80">
         <v>52</v>
       </c>
@@ -21602,7 +21620,7 @@
       <c r="H57" s="18"/>
     </row>
     <row r="58" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B58" s="262"/>
+      <c r="B58" s="270"/>
       <c r="C58" s="80">
         <v>53</v>
       </c>
@@ -21613,7 +21631,7 @@
       <c r="H58" s="18"/>
     </row>
     <row r="59" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B59" s="262"/>
+      <c r="B59" s="270"/>
       <c r="C59" s="80">
         <v>54</v>
       </c>
@@ -21624,7 +21642,7 @@
       <c r="H59" s="18"/>
     </row>
     <row r="60" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B60" s="262"/>
+      <c r="B60" s="270"/>
       <c r="C60" s="80">
         <v>55</v>
       </c>
@@ -21635,7 +21653,7 @@
       <c r="H60" s="18"/>
     </row>
     <row r="61" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B61" s="262"/>
+      <c r="B61" s="270"/>
       <c r="C61" s="80">
         <v>56</v>
       </c>
@@ -21646,7 +21664,7 @@
       <c r="H61" s="18"/>
     </row>
     <row r="62" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B62" s="262"/>
+      <c r="B62" s="270"/>
       <c r="C62" s="80">
         <v>57</v>
       </c>
@@ -21657,7 +21675,7 @@
       <c r="H62" s="18"/>
     </row>
     <row r="63" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B63" s="262"/>
+      <c r="B63" s="270"/>
       <c r="C63" s="80">
         <v>58</v>
       </c>
@@ -21668,7 +21686,7 @@
       <c r="H63" s="18"/>
     </row>
     <row r="64" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B64" s="262"/>
+      <c r="B64" s="270"/>
       <c r="C64" s="80">
         <v>59</v>
       </c>
@@ -21679,7 +21697,7 @@
       <c r="H64" s="18"/>
     </row>
     <row r="65" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B65" s="262"/>
+      <c r="B65" s="270"/>
       <c r="C65" s="80">
         <v>60</v>
       </c>
@@ -21690,7 +21708,7 @@
       <c r="H65" s="18"/>
     </row>
     <row r="66" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B66" s="262"/>
+      <c r="B66" s="270"/>
       <c r="C66" s="80">
         <v>61</v>
       </c>
@@ -21701,7 +21719,7 @@
       <c r="H66" s="18"/>
     </row>
     <row r="67" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B67" s="262"/>
+      <c r="B67" s="270"/>
       <c r="C67" s="80">
         <v>62</v>
       </c>
@@ -21712,7 +21730,7 @@
       <c r="H67" s="18"/>
     </row>
     <row r="68" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B68" s="262"/>
+      <c r="B68" s="270"/>
       <c r="C68" s="80">
         <v>63</v>
       </c>
@@ -21723,7 +21741,7 @@
       <c r="H68" s="18"/>
     </row>
     <row r="69" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B69" s="262"/>
+      <c r="B69" s="270"/>
       <c r="C69" s="80">
         <v>64</v>
       </c>
@@ -21734,7 +21752,7 @@
       <c r="H69" s="18"/>
     </row>
     <row r="70" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B70" s="262"/>
+      <c r="B70" s="270"/>
       <c r="C70" s="80">
         <v>65</v>
       </c>
@@ -21745,7 +21763,7 @@
       <c r="H70" s="18"/>
     </row>
     <row r="71" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B71" s="262"/>
+      <c r="B71" s="270"/>
       <c r="C71" s="80">
         <v>66</v>
       </c>
@@ -21756,7 +21774,7 @@
       <c r="H71" s="18"/>
     </row>
     <row r="72" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B72" s="262"/>
+      <c r="B72" s="270"/>
       <c r="C72" s="80">
         <v>67</v>
       </c>
@@ -21767,7 +21785,7 @@
       <c r="H72" s="18"/>
     </row>
     <row r="73" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B73" s="262"/>
+      <c r="B73" s="270"/>
       <c r="C73" s="80">
         <v>68</v>
       </c>
@@ -21778,7 +21796,7 @@
       <c r="H73" s="18"/>
     </row>
     <row r="74" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B74" s="262"/>
+      <c r="B74" s="270"/>
       <c r="C74" s="80">
         <v>69</v>
       </c>
@@ -21789,7 +21807,7 @@
       <c r="H74" s="18"/>
     </row>
     <row r="75" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B75" s="262"/>
+      <c r="B75" s="270"/>
       <c r="C75" s="80">
         <v>70</v>
       </c>
@@ -21800,7 +21818,7 @@
       <c r="H75" s="18"/>
     </row>
     <row r="76" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B76" s="262"/>
+      <c r="B76" s="270"/>
       <c r="C76" s="80">
         <v>71</v>
       </c>
@@ -21811,7 +21829,7 @@
       <c r="H76" s="18"/>
     </row>
     <row r="77" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B77" s="262"/>
+      <c r="B77" s="270"/>
       <c r="C77" s="80">
         <v>72</v>
       </c>
@@ -21822,7 +21840,7 @@
       <c r="H77" s="18"/>
     </row>
     <row r="78" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B78" s="262"/>
+      <c r="B78" s="270"/>
       <c r="C78" s="80">
         <v>73</v>
       </c>
@@ -21833,7 +21851,7 @@
       <c r="H78" s="18"/>
     </row>
     <row r="79" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B79" s="262"/>
+      <c r="B79" s="270"/>
       <c r="C79" s="80">
         <v>74</v>
       </c>
@@ -21844,7 +21862,7 @@
       <c r="H79" s="18"/>
     </row>
     <row r="80" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B80" s="262"/>
+      <c r="B80" s="270"/>
       <c r="C80" s="80">
         <v>75</v>
       </c>
@@ -21855,7 +21873,7 @@
       <c r="H80" s="18"/>
     </row>
     <row r="81" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B81" s="262"/>
+      <c r="B81" s="270"/>
       <c r="C81" s="80">
         <v>76</v>
       </c>
@@ -21866,7 +21884,7 @@
       <c r="H81" s="18"/>
     </row>
     <row r="82" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B82" s="262"/>
+      <c r="B82" s="270"/>
       <c r="C82" s="80">
         <v>77</v>
       </c>
@@ -21877,7 +21895,7 @@
       <c r="H82" s="18"/>
     </row>
     <row r="83" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B83" s="262"/>
+      <c r="B83" s="270"/>
       <c r="C83" s="80">
         <v>78</v>
       </c>
@@ -21888,7 +21906,7 @@
       <c r="H83" s="18"/>
     </row>
     <row r="84" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B84" s="262"/>
+      <c r="B84" s="270"/>
       <c r="C84" s="80">
         <v>79</v>
       </c>
@@ -21899,7 +21917,7 @@
       <c r="H84" s="18"/>
     </row>
     <row r="85" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B85" s="262"/>
+      <c r="B85" s="270"/>
       <c r="C85" s="80">
         <v>80</v>
       </c>
@@ -21910,7 +21928,7 @@
       <c r="H85" s="18"/>
     </row>
     <row r="86" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B86" s="262"/>
+      <c r="B86" s="270"/>
       <c r="C86" s="80">
         <v>81</v>
       </c>
@@ -21921,7 +21939,7 @@
       <c r="H86" s="18"/>
     </row>
     <row r="87" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B87" s="262"/>
+      <c r="B87" s="270"/>
       <c r="C87" s="80">
         <v>82</v>
       </c>
@@ -21932,7 +21950,7 @@
       <c r="H87" s="18"/>
     </row>
     <row r="88" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B88" s="262"/>
+      <c r="B88" s="270"/>
       <c r="C88" s="80">
         <v>83</v>
       </c>
@@ -21943,7 +21961,7 @@
       <c r="H88" s="18"/>
     </row>
     <row r="89" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B89" s="262"/>
+      <c r="B89" s="270"/>
       <c r="C89" s="80">
         <v>84</v>
       </c>
@@ -21954,7 +21972,7 @@
       <c r="H89" s="18"/>
     </row>
     <row r="90" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B90" s="262"/>
+      <c r="B90" s="270"/>
       <c r="C90" s="80">
         <v>85</v>
       </c>
@@ -21965,7 +21983,7 @@
       <c r="H90" s="18"/>
     </row>
     <row r="91" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B91" s="262"/>
+      <c r="B91" s="270"/>
       <c r="C91" s="80">
         <v>86</v>
       </c>
@@ -21976,7 +21994,7 @@
       <c r="H91" s="18"/>
     </row>
     <row r="92" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B92" s="262"/>
+      <c r="B92" s="270"/>
       <c r="C92" s="80">
         <v>87</v>
       </c>
@@ -21987,7 +22005,7 @@
       <c r="H92" s="18"/>
     </row>
     <row r="93" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B93" s="262"/>
+      <c r="B93" s="270"/>
       <c r="C93" s="80">
         <v>88</v>
       </c>
@@ -21998,7 +22016,7 @@
       <c r="H93" s="18"/>
     </row>
     <row r="94" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B94" s="262"/>
+      <c r="B94" s="270"/>
       <c r="C94" s="80">
         <v>89</v>
       </c>
@@ -22009,7 +22027,7 @@
       <c r="H94" s="18"/>
     </row>
     <row r="95" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B95" s="262"/>
+      <c r="B95" s="270"/>
       <c r="C95" s="80">
         <v>90</v>
       </c>
@@ -22020,7 +22038,7 @@
       <c r="H95" s="18"/>
     </row>
     <row r="96" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B96" s="262"/>
+      <c r="B96" s="270"/>
       <c r="C96" s="80">
         <v>91</v>
       </c>
@@ -22031,7 +22049,7 @@
       <c r="H96" s="18"/>
     </row>
     <row r="97" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B97" s="262"/>
+      <c r="B97" s="270"/>
       <c r="C97" s="80">
         <v>92</v>
       </c>
@@ -22042,7 +22060,7 @@
       <c r="H97" s="18"/>
     </row>
     <row r="98" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B98" s="262"/>
+      <c r="B98" s="270"/>
       <c r="C98" s="80">
         <v>93</v>
       </c>
@@ -22053,7 +22071,7 @@
       <c r="H98" s="18"/>
     </row>
     <row r="99" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B99" s="262"/>
+      <c r="B99" s="270"/>
       <c r="C99" s="80">
         <v>94</v>
       </c>
@@ -22064,7 +22082,7 @@
       <c r="H99" s="18"/>
     </row>
     <row r="100" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B100" s="262"/>
+      <c r="B100" s="270"/>
       <c r="C100" s="80">
         <v>95</v>
       </c>
@@ -22075,7 +22093,7 @@
       <c r="H100" s="18"/>
     </row>
     <row r="101" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B101" s="262"/>
+      <c r="B101" s="270"/>
       <c r="C101" s="80">
         <v>96</v>
       </c>
@@ -22086,7 +22104,7 @@
       <c r="H101" s="18"/>
     </row>
     <row r="102" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B102" s="262"/>
+      <c r="B102" s="270"/>
       <c r="C102" s="80">
         <v>97</v>
       </c>
@@ -22097,7 +22115,7 @@
       <c r="H102" s="18"/>
     </row>
     <row r="103" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B103" s="262"/>
+      <c r="B103" s="270"/>
       <c r="C103" s="80">
         <v>98</v>
       </c>
@@ -22108,7 +22126,7 @@
       <c r="H103" s="18"/>
     </row>
     <row r="104" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B104" s="262"/>
+      <c r="B104" s="270"/>
       <c r="C104" s="80">
         <v>99</v>
       </c>
@@ -22119,7 +22137,7 @@
       <c r="H104" s="18"/>
     </row>
     <row r="105" spans="2:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B105" s="263"/>
+      <c r="B105" s="271"/>
       <c r="C105" s="81">
         <v>100</v>
       </c>
